--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="84">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -172,6 +172,12 @@
     <t xml:space="preserve">Bayou</t>
   </si>
   <si>
+    <t xml:space="preserve">788764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BayouArea2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
@@ -235,16 +241,25 @@
     <t xml:space="preserve">0x224994</t>
   </si>
   <si>
-    <t xml:space="preserve">0x224a36</t>
+    <t xml:space="preserve">0x224995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x224996</t>
   </si>
   <si>
     <t xml:space="preserve">0x224997</t>
   </si>
   <si>
-    <t xml:space="preserve">0x224996</t>
+    <t xml:space="preserve">0x224998</t>
   </si>
   <si>
-    <t xml:space="preserve">0x224998</t>
+    <t xml:space="preserve">0x224999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x224a36</t>
   </si>
   <si>
     <t xml:space="preserve">Level ID</t>
@@ -257,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x2249f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249f3</t>
   </si>
 </sst>
 </file>
@@ -375,12 +393,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -462,20 +480,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1015"/>
+  <dimension ref="A1:H1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,6 +516,10 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
+        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -515,10 +538,6 @@
         <f aca="false">_xlfn.CONCAT("0x", A2,": { ""id"": ","0x", A2,", ""areaName"": """,B2,""", ""displayName"": """,C2,""", ""levelName"": """,D2,""" },")</f>
         <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },</v>
       </c>
-      <c r="G2" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
-        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -755,7 +774,22 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A16,": { ""id"": ","0x", A16,", ""areaName"": """,B16,""", ""displayName"": """,C16,""", ""levelName"": """,D16,""" },")</f>
+        <v>0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4"/>
@@ -3781,10 +3815,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -3796,22 +3830,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -3887,11 +3921,11 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C3:C1002, "=" &amp; B4)</f>
-        <v>897</v>
+        <v>858</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C3:C83, "=" &amp; B4)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A4,": { ""id"": ",A4,", ""name"": """,B4,""", ""lums"": ",C4,", ""cages"": ",D4," },")</f>
@@ -3968,11 +4002,11 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C6:C1005, "=" &amp; B7)</f>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C6:C86, "=" &amp; B7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A7,": { ""id"": ",A7,", ""name"": """,B7,""", ""lums"": ",C7,", ""cages"": ",D7," },")</f>
@@ -4018,7 +4052,7 @@
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C8:C88, "=" &amp; B9)</f>
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A9,": { ""id"": ",A9,", ""name"": """,B9,""", ""lums"": ",C9,", ""cages"": ",D9," },")</f>
@@ -4037,7 +4071,7 @@
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C9:C89, "=" &amp; B10)</f>
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A10,": { ""id"": ",A10,", ""name"": """,B10,""", ""lums"": ",C10,", ""cages"": ",D10," },")</f>
@@ -4056,7 +4090,7 @@
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C10:C90, "=" &amp; B11)</f>
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A11,": { ""id"": ",A11,", ""name"": """,B11,""", ""lums"": ",C11,", ""cages"": ",D11," },")</f>
@@ -4075,7 +4109,7 @@
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C11:C91, "=" &amp; B12)</f>
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A12,": { ""id"": ",A12,", ""name"": """,B12,""", ""lums"": ",C12,", ""cages"": ",D12," },")</f>
@@ -4094,7 +4128,7 @@
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C12:C92, "=" &amp; B13)</f>
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A13,": { ""id"": ",A13,", ""name"": """,B13,""", ""lums"": ",C13,", ""cages"": ",D13," },")</f>
@@ -4113,7 +4147,7 @@
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C13:C93, "=" &amp; B14)</f>
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A14,": { ""id"": ",A14,", ""name"": """,B14,""", ""lums"": ",C14,", ""cages"": ",D14," },")</f>
@@ -4132,7 +4166,7 @@
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C14:C94, "=" &amp; B15)</f>
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A15,": { ""id"": ",A15,", ""name"": """,B15,""", ""lums"": ",C15,", ""cages"": ",D15," },")</f>
@@ -4151,7 +4185,7 @@
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C15:C95, "=" &amp; B16)</f>
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A16,": { ""id"": ",A16,", ""name"": """,B16,""", ""lums"": ",C16,", ""cages"": ",D16," },")</f>
@@ -4170,7 +4204,7 @@
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C16:C96, "=" &amp; B17)</f>
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A17,": { ""id"": ",A17,", ""name"": """,B17,""", ""lums"": ",C17,", ""cages"": ",D17," },")</f>
@@ -4189,7 +4223,7 @@
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C17:C97, "=" &amp; B18)</f>
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A18,": { ""id"": ",A18,", ""name"": """,B18,""", ""lums"": ",C18,", ""cages"": ",D18," },")</f>
@@ -4208,7 +4242,7 @@
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C18:C98, "=" &amp; B19)</f>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A19,": { ""id"": ",A19,", ""name"": """,B19,""", ""lums"": ",C19,", ""cages"": ",D19," },")</f>
@@ -4227,7 +4261,7 @@
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C19:C99, "=" &amp; B20)</f>
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A20,": { ""id"": ",A20,", ""name"": """,B20,""", ""lums"": ",C20,", ""cages"": ",D20," },")</f>
@@ -4246,7 +4280,7 @@
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C20:C100, "=" &amp; B21)</f>
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A21,": { ""id"": ",A21,", ""name"": """,B21,""", ""lums"": ",C21,", ""cages"": ",D21," },")</f>
@@ -4265,7 +4299,7 @@
       </c>
       <c r="F22" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C21:C101, "=" &amp; B22)</f>
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A22,": { ""id"": ",A22,", ""name"": """,B22,""", ""lums"": ",C22,", ""cages"": ",D22," },")</f>
@@ -7476,15 +7510,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F110" activeCellId="0" sqref="F110"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7493,10 +7527,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -7507,10 +7541,14 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},143: { "levelId": 3, "good": 0},144: { "levelId": 3, "good": 0},145: { "levelId": 3, "good": 0},146: { "levelId": 3, "good": 0},147: { "levelId": 3, "good": 0},148: { "levelId": 3, "good": 0},149: { "levelId": 3, "good": 0},150: { "levelId": 3, "good": 0},151: { "levelId": 3, "good": 0},152: { "levelId": 3, "good": 0},153: { "levelId": 3, "good": 0},154: { "levelId": 3, "good": 0},155: { "levelId": 3, "good": 0},156: { "levelId": 3, "good": 0},157: { "levelId": 3, "good": 0},158: { "levelId": 3, "good": 0},159: { "levelId": 3, "good": 0},160: { "levelId": 3, "good": 0},161: { "levelId": 3, "good": 0},162: { "levelId": 3, "good": 0},163: { "levelId": 3, "good": 0},164: { "levelId": 3, "good": 0},165: { "levelId": 3, "good": 0},166: { "levelId": 3, "good": 0},167: { "levelId": 3, "good": 0},168: { "levelId": 3, "good": 0},169: { "levelId": 3, "good": 0},170: { "levelId": 3, "good": 0},171: { "levelId": 3, "good": 0},172: { "levelId": 3, "good": 0},173: { "levelId": 3, "good": 0},174: { "levelId": 3, "good": 0},175: { "levelId": 3, "good": 0},176: { "levelId": 3, "good": 0},177: { "levelId": 3, "good": 0},178: { "levelId": 3, "good": 0},179: { "levelId": 3, "good": 0},180: { "levelId": 3, "good": 0},181: { "levelId": 3, "good": 0},182: { "levelId": 3, "good": 0},183: { "levelId": 3, "good": 0},184: { "levelId": 3, "good": 0},185: { "levelId": 3, "good": 0},186: { "levelId": 3, "good": 0},187: { "levelId": 3, "good": 0},188: { "levelId": 3, "good": 0},189: { "levelId": 3, "good": 0},190: { "levelId": 3, "good": 0},191: { "levelId": 3, "good": 0},192: { "levelId": 3, "good": 0},193: { "levelId": 3, "good": 0},194: { "levelId": 3, "good": 0},195: { "levelId": 3, "good": 0},196: { "levelId": 3, "good": 0},197: { "levelId": 3, "good": 0},198: { "levelId": 3, "good": 0},199: { "levelId": 3, "good": 0},200: { "levelId": 3, "good": 0},201: { "levelId": 3, "good": 0},202: { "levelId": 3, "good": 0},203: { "levelId": 3, "good": 0},204: { "levelId": 3, "good": 0},205: { "levelId": 3, "good": 0},206: { "levelId": 3, "good": 0},207: { "levelId": 3, "good": 0},208: { "levelId": 3, "good": 0},209: { "levelId": 3, "good": 0},210: { "levelId": 3, "good": 0},211: { "levelId": 3, "good": 0},212: { "levelId": 3, "good": 0},213: { "levelId": 3, "good": 0},214: { "levelId": 3, "good": 0},215: { "levelId": 3, "good": 0},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
+      <c r="A2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7522,14 +7560,10 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C2, Levels!B:B, 0), 1, 1)),", ",IF(A2 &lt;&gt; "", """mem"": bit" &amp; B2 &amp; "(" &amp; A2 &amp; "),", ""),"""good"": ",IF(A2 &lt;&gt; "", 1, 0),"},")</f>
         <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},</v>
       </c>
-      <c r="G2" s="6" t="str">
-        <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},89: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},90: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},91: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},92: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},93: { "levelId": 6, "mem": bit1(0x224997),"good": 1},94: { "levelId": 6, "mem": bit2(0x224997),"good": 1},95: { "levelId": 6, "mem": bit4(0x224994),"good": 1},96: { "levelId": 6, "mem": bit5(0x224994),"good": 1},97: { "levelId": 6, "mem": bit6(0x224994),"good": 1},98: { "levelId": 6, "mem": bit7(0x224996),"good": 1},99: { "levelId": 6, "mem": bit0(0x224997),"good": 1},100: { "levelId": 6, "mem": bit7(0x224997),"good": 1},101: { "levelId": 6, "mem": bit0(0x224998),"good": 1},102: { "levelId": 6, "mem": bit1(0x224998),"good": 1},103: { "levelId": 6, "mem": bit2(0x224998),"good": 1},104: { "levelId": 3, "good": 0},105: { "levelId": 3, "good": 0},106: { "levelId": 3, "good": 0},107: { "levelId": 3, "good": 0},108: { "levelId": 3, "good": 0},109: { "levelId": 3, "good": 0},110: { "levelId": 3, "good": 0},111: { "levelId": 3, "good": 0},112: { "levelId": 3, "good": 0},113: { "levelId": 3, "good": 0},114: { "levelId": 3, "good": 0},115: { "levelId": 3, "good": 0},116: { "levelId": 3, "good": 0},117: { "levelId": 3, "good": 0},118: { "levelId": 3, "good": 0},119: { "levelId": 3, "good": 0},120: { "levelId": 3, "good": 0},121: { "levelId": 3, "good": 0},122: { "levelId": 3, "good": 0},123: { "levelId": 3, "good": 0},124: { "levelId": 3, "good": 0},125: { "levelId": 3, "good": 0},126: { "levelId": 3, "good": 0},127: { "levelId": 3, "good": 0},128: { "levelId": 3, "good": 0},129: { "levelId": 3, "good": 0},130: { "levelId": 3, "good": 0},131: { "levelId": 3, "good": 0},132: { "levelId": 3, "good": 0},133: { "levelId": 3, "good": 0},134: { "levelId": 3, "good": 0},135: { "levelId": 3, "good": 0},136: { "levelId": 3, "good": 0},137: { "levelId": 3, "good": 0},138: { "levelId": 3, "good": 0},139: { "levelId": 3, "good": 0},140: { "levelId": 3, "good": 0},141: { "levelId": 3, "good": 0},142: { "levelId": 3, "good": 0},143: { "levelId": 3, "good": 0},144: { "levelId": 3, "good": 0},145: { "levelId": 3, "good": 0},146: { "levelId": 3, "good": 0},147: { "levelId": 3, "good": 0},148: { "levelId": 3, "good": 0},149: { "levelId": 3, "good": 0},150: { "levelId": 3, "good": 0},151: { "levelId": 3, "good": 0},152: { "levelId": 3, "good": 0},153: { "levelId": 3, "good": 0},154: { "levelId": 3, "good": 0},155: { "levelId": 3, "good": 0},156: { "levelId": 3, "good": 0},157: { "levelId": 3, "good": 0},158: { "levelId": 3, "good": 0},159: { "levelId": 3, "good": 0},160: { "levelId": 3, "good": 0},161: { "levelId": 3, "good": 0},162: { "levelId": 3, "good": 0},163: { "levelId": 3, "good": 0},164: { "levelId": 3, "good": 0},165: { "levelId": 3, "good": 0},166: { "levelId": 3, "good": 0},167: { "levelId": 3, "good": 0},168: { "levelId": 3, "good": 0},169: { "levelId": 3, "good": 0},170: { "levelId": 3, "good": 0},171: { "levelId": 3, "good": 0},172: { "levelId": 3, "good": 0},173: { "levelId": 3, "good": 0},174: { "levelId": 3, "good": 0},175: { "levelId": 3, "good": 0},176: { "levelId": 3, "good": 0},177: { "levelId": 3, "good": 0},178: { "levelId": 3, "good": 0},179: { "levelId": 3, "good": 0},180: { "levelId": 3, "good": 0},181: { "levelId": 3, "good": 0},182: { "levelId": 3, "good": 0},183: { "levelId": 3, "good": 0},184: { "levelId": 3, "good": 0},185: { "levelId": 3, "good": 0},186: { "levelId": 3, "good": 0},187: { "levelId": 3, "good": 0},188: { "levelId": 3, "good": 0},189: { "levelId": 3, "good": 0},190: { "levelId": 3, "good": 0},191: { "levelId": 3, "good": 0},192: { "levelId": 3, "good": 0},193: { "levelId": 3, "good": 0},194: { "levelId": 3, "good": 0},195: { "levelId": 3, "good": 0},196: { "levelId": 3, "good": 0},197: { "levelId": 3, "good": 0},198: { "levelId": 3, "good": 0},199: { "levelId": 3, "good": 0},200: { "levelId": 3, "good": 0},201: { "levelId": 3, "good": 0},202: { "levelId": 3, "good": 0},203: { "levelId": 3, "good": 0},204: { "levelId": 3, "good": 0},205: { "levelId": 3, "good": 0},206: { "levelId": 3, "good": 0},207: { "levelId": 3, "good": 0},208: { "levelId": 3, "good": 0},209: { "levelId": 3, "good": 0},210: { "levelId": 3, "good": 0},211: { "levelId": 3, "good": 0},212: { "levelId": 3, "good": 0},213: { "levelId": 3, "good": 0},214: { "levelId": 3, "good": 0},215: { "levelId": 3, "good": 0},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>57</v>
+      <c r="A3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -7541,11 +7575,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C3, Levels!B:B, 0), 1, 1)),", ",IF(A3 &lt;&gt; "", """mem"": bit" &amp; B3 &amp; "(" &amp; A3 &amp; "),", ""),"""good"": ",IF(A3 &lt;&gt; "", 1, 0),"},")</f>
         <v>2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
+      <c r="A4" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7557,11 +7591,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C4, Levels!B:B, 0), 1, 1)),", ",IF(A4 &lt;&gt; "", """mem"": bit" &amp; B4 &amp; "(" &amp; A4 &amp; "),", ""),"""good"": ",IF(A4 &lt;&gt; "", 1, 0),"},")</f>
         <v>3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
+      <c r="A5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7573,11 +7607,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C5, Levels!B:B, 0), 1, 1)),", ",IF(A5 &lt;&gt; "", """mem"": bit" &amp; B5 &amp; "(" &amp; A5 &amp; "),", ""),"""good"": ",IF(A5 &lt;&gt; "", 1, 0),"},")</f>
         <v>4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
+      <c r="A6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -7589,11 +7623,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C6, Levels!B:B, 0), 1, 1)),", ",IF(A6 &lt;&gt; "", """mem"": bit" &amp; B6 &amp; "(" &amp; A6 &amp; "),", ""),"""good"": ",IF(A6 &lt;&gt; "", 1, 0),"},")</f>
         <v>5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>57</v>
+      <c r="A7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -7605,11 +7639,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C7, Levels!B:B, 0), 1, 1)),", ",IF(A7 &lt;&gt; "", """mem"": bit" &amp; B7 &amp; "(" &amp; A7 &amp; "),", ""),"""good"": ",IF(A7 &lt;&gt; "", 1, 0),"},")</f>
         <v>6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
+      <c r="A8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -7621,11 +7655,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C8, Levels!B:B, 0), 1, 1)),", ",IF(A8 &lt;&gt; "", """mem"": bit" &amp; B8 &amp; "(" &amp; A8 &amp; "),", ""),"""good"": ",IF(A8 &lt;&gt; "", 1, 0),"},")</f>
         <v>7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
+      <c r="A9" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -7637,11 +7671,11 @@
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C9, Levels!B:B, 0), 1, 1)),", ",IF(A9 &lt;&gt; "", """mem"": bit" &amp; B9 &amp; "(" &amp; A9 &amp; "),", ""),"""good"": ",IF(A9 &lt;&gt; "", 1, 0),"},")</f>
         <v>8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
+      <c r="A10" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -7655,8 +7689,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
+      <c r="A11" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -7670,8 +7704,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
+      <c r="A12" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -7685,8 +7719,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
+      <c r="A13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -7700,8 +7734,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
+      <c r="A14" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -7715,8 +7749,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>59</v>
+      <c r="A15" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -7730,8 +7764,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
+      <c r="A16" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -7745,8 +7779,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>59</v>
+      <c r="A17" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
@@ -7760,8 +7794,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
+      <c r="A18" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7775,8 +7809,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>60</v>
+      <c r="A19" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7790,8 +7824,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
+      <c r="A20" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7805,8 +7839,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>61</v>
+      <c r="A21" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7820,8 +7854,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>61</v>
+      <c r="A22" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -7835,8 +7869,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
+      <c r="A23" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -7850,8 +7884,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
+      <c r="A24" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
@@ -7865,8 +7899,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>61</v>
+      <c r="A25" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
@@ -7880,8 +7914,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>61</v>
+      <c r="A26" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
@@ -7895,8 +7929,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>61</v>
+      <c r="A27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>6</v>
@@ -7910,8 +7944,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>61</v>
+      <c r="A28" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>7</v>
@@ -7925,8 +7959,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>62</v>
+      <c r="A29" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7940,8 +7974,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
+      <c r="A30" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -7955,8 +7989,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
+      <c r="A31" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -7970,8 +8004,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
+      <c r="A32" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -7985,8 +8019,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>62</v>
+      <c r="A33" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
@@ -8000,8 +8034,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
+      <c r="A34" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5</v>
@@ -8015,8 +8049,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>62</v>
+      <c r="A35" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6</v>
@@ -8030,8 +8064,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>62</v>
+      <c r="A36" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>7</v>
@@ -8045,8 +8079,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
+      <c r="A37" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8060,8 +8094,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>63</v>
+      <c r="A38" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -8076,7 +8110,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
@@ -8091,7 +8125,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3</v>
@@ -8106,7 +8140,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4</v>
@@ -8121,7 +8155,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>5</v>
@@ -8136,7 +8170,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6</v>
@@ -8151,7 +8185,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>7</v>
@@ -8166,7 +8200,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -8181,7 +8215,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -8196,7 +8230,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
@@ -8211,7 +8245,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>3</v>
@@ -8226,7 +8260,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4</v>
@@ -8241,7 +8275,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5</v>
@@ -8256,7 +8290,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6</v>
@@ -8271,7 +8305,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>7</v>
@@ -8286,7 +8320,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -8301,7 +8335,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -8316,7 +8350,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -8331,7 +8365,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -8346,7 +8380,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>4</v>
@@ -8361,7 +8395,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -8376,7 +8410,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>6</v>
@@ -8391,7 +8425,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>7</v>
@@ -8406,7 +8440,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -8421,7 +8455,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -8436,7 +8470,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8451,7 +8485,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8466,7 +8500,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8481,7 +8515,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8496,7 +8530,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8511,7 +8545,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>7</v>
@@ -8526,7 +8560,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -8541,7 +8575,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -8556,7 +8590,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -8571,7 +8605,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -8586,7 +8620,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -8601,7 +8635,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -8616,7 +8650,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -8631,7 +8665,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>7</v>
@@ -8646,7 +8680,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -8661,7 +8695,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -8676,7 +8710,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2</v>
@@ -8691,7 +8725,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>3</v>
@@ -8706,7 +8740,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>4</v>
@@ -8721,7 +8755,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5</v>
@@ -8736,7 +8770,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -8751,7 +8785,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8765,8 +8799,8 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>69</v>
+      <c r="A85" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -8780,8 +8814,8 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>69</v>
+      <c r="A86" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -8795,8 +8829,8 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>69</v>
+      <c r="A87" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2</v>
@@ -8810,8 +8844,8 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>69</v>
+      <c r="A88" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>3</v>
@@ -8825,83 +8859,83 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>70</v>
+      <c r="A89" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C89, Levels!B:B, 0), 1, 1)),", ",IF(A89 &lt;&gt; "", """mem"": bit" &amp; B89 &amp; "(" &amp; A89 &amp; "),", ""),"""good"": ",IF(A89 &lt;&gt; "", 1, 0),"},")</f>
-        <v>88: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},</v>
+        <v>88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C90, Levels!B:B, 0), 1, 1)),", ",IF(A90 &lt;&gt; "", """mem"": bit" &amp; B90 &amp; "(" &amp; A90 &amp; "),", ""),"""good"": ",IF(A90 &lt;&gt; "", 1, 0),"},")</f>
-        <v>89: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},</v>
+        <v>89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C91, Levels!B:B, 0), 1, 1)),", ",IF(A91 &lt;&gt; "", """mem"": bit" &amp; B91 &amp; "(" &amp; A91 &amp; "),", ""),"""good"": ",IF(A91 &lt;&gt; "", 1, 0),"},")</f>
-        <v>90: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},</v>
+        <v>90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C92, Levels!B:B, 0), 1, 1)),", ",IF(A92 &lt;&gt; "", """mem"": bit" &amp; B92 &amp; "(" &amp; A92 &amp; "),", ""),"""good"": ",IF(A92 &lt;&gt; "", 1, 0),"},")</f>
-        <v>91: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},</v>
+        <v>91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C93, Levels!B:B, 0), 1, 1)),", ",IF(A93 &lt;&gt; "", """mem"": bit" &amp; B93 &amp; "(" &amp; A93 &amp; "),", ""),"""good"": ",IF(A93 &lt;&gt; "", 1, 0),"},")</f>
-        <v>92: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},</v>
+        <v>92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -8911,12 +8945,12 @@
       </c>
       <c r="D94" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C94, Levels!B:B, 0), 1, 1)),", ",IF(A94 &lt;&gt; "", """mem"": bit" &amp; B94 &amp; "(" &amp; A94 &amp; "),", ""),"""good"": ",IF(A94 &lt;&gt; "", 1, 0),"},")</f>
-        <v>93: { "levelId": 6, "mem": bit1(0x224997),"good": 1},</v>
+        <v>93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2</v>
@@ -8926,52 +8960,52 @@
       </c>
       <c r="D95" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C95, Levels!B:B, 0), 1, 1)),", ",IF(A95 &lt;&gt; "", """mem"": bit" &amp; B95 &amp; "(" &amp; A95 &amp; "),", ""),"""good"": ",IF(A95 &lt;&gt; "", 1, 0),"},")</f>
-        <v>94: { "levelId": 6, "mem": bit2(0x224997),"good": 1},</v>
+        <v>94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C96, Levels!B:B, 0), 1, 1)),", ",IF(A96 &lt;&gt; "", """mem"": bit" &amp; B96 &amp; "(" &amp; A96 &amp; "),", ""),"""good"": ",IF(A96 &lt;&gt; "", 1, 0),"},")</f>
-        <v>95: { "levelId": 6, "mem": bit4(0x224994),"good": 1},</v>
+        <v>95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C97, Levels!B:B, 0), 1, 1)),", ",IF(A97 &lt;&gt; "", """mem"": bit" &amp; B97 &amp; "(" &amp; A97 &amp; "),", ""),"""good"": ",IF(A97 &lt;&gt; "", 1, 0),"},")</f>
-        <v>96: { "levelId": 6, "mem": bit5(0x224994),"good": 1},</v>
+        <v>96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C98, Levels!B:B, 0), 1, 1)),", ",IF(A98 &lt;&gt; "", """mem"": bit" &amp; B98 &amp; "(" &amp; A98 &amp; "),", ""),"""good"": ",IF(A98 &lt;&gt; "", 1, 0),"},")</f>
-        <v>97: { "levelId": 6, "mem": bit6(0x224994),"good": 1},</v>
+        <v>97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,44 +9013,44 @@
         <v>72</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C99, Levels!B:B, 0), 1, 1)),", ",IF(A99 &lt;&gt; "", """mem"": bit" &amp; B99 &amp; "(" &amp; A99 &amp; "),", ""),"""good"": ",IF(A99 &lt;&gt; "", 1, 0),"},")</f>
-        <v>98: { "levelId": 6, "mem": bit7(0x224996),"good": 1},</v>
+        <v>98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C100, Levels!B:B, 0), 1, 1)),", ",IF(A100 &lt;&gt; "", """mem"": bit" &amp; B100 &amp; "(" &amp; A100 &amp; "),", ""),"""good"": ",IF(A100 &lt;&gt; "", 1, 0),"},")</f>
-        <v>99: { "levelId": 6, "mem": bit0(0x224997),"good": 1},</v>
+        <v>99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C101, Levels!B:B, 0), 1, 1)),", ",IF(A101 &lt;&gt; "", """mem"": bit" &amp; B101 &amp; "(" &amp; A101 &amp; "),", ""),"""good"": ",IF(A101 &lt;&gt; "", 1, 0),"},")</f>
-        <v>100: { "levelId": 6, "mem": bit7(0x224997),"good": 1},</v>
+        <v>100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,14 +9058,14 @@
         <v>73</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C102, Levels!B:B, 0), 1, 1)),", ",IF(A102 &lt;&gt; "", """mem"": bit" &amp; B102 &amp; "(" &amp; A102 &amp; "),", ""),"""good"": ",IF(A102 &lt;&gt; "", 1, 0),"},")</f>
-        <v>101: { "levelId": 6, "mem": bit0(0x224998),"good": 1},</v>
+        <v>101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,14 +9073,14 @@
         <v>73</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C103, Levels!B:B, 0), 1, 1)),", ",IF(A103 &lt;&gt; "", """mem"": bit" &amp; B103 &amp; "(" &amp; A103 &amp; "),", ""),"""good"": ",IF(A103 &lt;&gt; "", 1, 0),"},")</f>
-        <v>102: { "levelId": 6, "mem": bit1(0x224998),"good": 1},</v>
+        <v>102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,365 +9088,599 @@
         <v>73</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C104, Levels!B:B, 0), 1, 1)),", ",IF(A104 &lt;&gt; "", """mem"": bit" &amp; B104 &amp; "(" &amp; A104 &amp; "),", ""),"""good"": ",IF(A104 &lt;&gt; "", 1, 0),"},")</f>
-        <v>103: { "levelId": 6, "mem": bit2(0x224998),"good": 1},</v>
+        <v>103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C105" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C105, Levels!B:B, 0), 1, 1)),", ",IF(A105 &lt;&gt; "", """mem"": bit" &amp; B105 &amp; "(" &amp; A105 &amp; "),", ""),"""good"": ",IF(A105 &lt;&gt; "", 1, 0),"},")</f>
-        <v>104: { "levelId": 3, "good": 0},</v>
+        <v>104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C106" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C106, Levels!B:B, 0), 1, 1)),", ",IF(A106 &lt;&gt; "", """mem"": bit" &amp; B106 &amp; "(" &amp; A106 &amp; "),", ""),"""good"": ",IF(A106 &lt;&gt; "", 1, 0),"},")</f>
-        <v>105: { "levelId": 3, "good": 0},</v>
+        <v>105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C107" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C107, Levels!B:B, 0), 1, 1)),", ",IF(A107 &lt;&gt; "", """mem"": bit" &amp; B107 &amp; "(" &amp; A107 &amp; "),", ""),"""good"": ",IF(A107 &lt;&gt; "", 1, 0),"},")</f>
-        <v>106: { "levelId": 3, "good": 0},</v>
+        <v>106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C108" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C108, Levels!B:B, 0), 1, 1)),", ",IF(A108 &lt;&gt; "", """mem"": bit" &amp; B108 &amp; "(" &amp; A108 &amp; "),", ""),"""good"": ",IF(A108 &lt;&gt; "", 1, 0),"},")</f>
-        <v>107: { "levelId": 3, "good": 0},</v>
+        <v>107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C109" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C109, Levels!B:B, 0), 1, 1)),", ",IF(A109 &lt;&gt; "", """mem"": bit" &amp; B109 &amp; "(" &amp; A109 &amp; "),", ""),"""good"": ",IF(A109 &lt;&gt; "", 1, 0),"},")</f>
-        <v>108: { "levelId": 3, "good": 0},</v>
+        <v>108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C110" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C110, Levels!B:B, 0), 1, 1)),", ",IF(A110 &lt;&gt; "", """mem"": bit" &amp; B110 &amp; "(" &amp; A110 &amp; "),", ""),"""good"": ",IF(A110 &lt;&gt; "", 1, 0),"},")</f>
-        <v>109: { "levelId": 3, "good": 0},</v>
+        <v>109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C111" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C111, Levels!B:B, 0), 1, 1)),", ",IF(A111 &lt;&gt; "", """mem"": bit" &amp; B111 &amp; "(" &amp; A111 &amp; "),", ""),"""good"": ",IF(A111 &lt;&gt; "", 1, 0),"},")</f>
-        <v>110: { "levelId": 3, "good": 0},</v>
+        <v>110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C112, Levels!B:B, 0), 1, 1)),", ",IF(A112 &lt;&gt; "", """mem"": bit" &amp; B112 &amp; "(" &amp; A112 &amp; "),", ""),"""good"": ",IF(A112 &lt;&gt; "", 1, 0),"},")</f>
-        <v>111: { "levelId": 3, "good": 0},</v>
+        <v>111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C113" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C113, Levels!B:B, 0), 1, 1)),", ",IF(A113 &lt;&gt; "", """mem"": bit" &amp; B113 &amp; "(" &amp; A113 &amp; "),", ""),"""good"": ",IF(A113 &lt;&gt; "", 1, 0),"},")</f>
-        <v>112: { "levelId": 3, "good": 0},</v>
+        <v>112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C114" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C114, Levels!B:B, 0), 1, 1)),", ",IF(A114 &lt;&gt; "", """mem"": bit" &amp; B114 &amp; "(" &amp; A114 &amp; "),", ""),"""good"": ",IF(A114 &lt;&gt; "", 1, 0),"},")</f>
-        <v>113: { "levelId": 3, "good": 0},</v>
+        <v>113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C115" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C115, Levels!B:B, 0), 1, 1)),", ",IF(A115 &lt;&gt; "", """mem"": bit" &amp; B115 &amp; "(" &amp; A115 &amp; "),", ""),"""good"": ",IF(A115 &lt;&gt; "", 1, 0),"},")</f>
-        <v>114: { "levelId": 3, "good": 0},</v>
+        <v>114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C116" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C116, Levels!B:B, 0), 1, 1)),", ",IF(A116 &lt;&gt; "", """mem"": bit" &amp; B116 &amp; "(" &amp; A116 &amp; "),", ""),"""good"": ",IF(A116 &lt;&gt; "", 1, 0),"},")</f>
-        <v>115: { "levelId": 3, "good": 0},</v>
+        <v>115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C117" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C117, Levels!B:B, 0), 1, 1)),", ",IF(A117 &lt;&gt; "", """mem"": bit" &amp; B117 &amp; "(" &amp; A117 &amp; "),", ""),"""good"": ",IF(A117 &lt;&gt; "", 1, 0),"},")</f>
-        <v>116: { "levelId": 3, "good": 0},</v>
+        <v>116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C118" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C118, Levels!B:B, 0), 1, 1)),", ",IF(A118 &lt;&gt; "", """mem"": bit" &amp; B118 &amp; "(" &amp; A118 &amp; "),", ""),"""good"": ",IF(A118 &lt;&gt; "", 1, 0),"},")</f>
-        <v>117: { "levelId": 3, "good": 0},</v>
+        <v>117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C119" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C119, Levels!B:B, 0), 1, 1)),", ",IF(A119 &lt;&gt; "", """mem"": bit" &amp; B119 &amp; "(" &amp; A119 &amp; "),", ""),"""good"": ",IF(A119 &lt;&gt; "", 1, 0),"},")</f>
-        <v>118: { "levelId": 3, "good": 0},</v>
+        <v>118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C120" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C120, Levels!B:B, 0), 1, 1)),", ",IF(A120 &lt;&gt; "", """mem"": bit" &amp; B120 &amp; "(" &amp; A120 &amp; "),", ""),"""good"": ",IF(A120 &lt;&gt; "", 1, 0),"},")</f>
-        <v>119: { "levelId": 3, "good": 0},</v>
+        <v>119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C121" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C121, Levels!B:B, 0), 1, 1)),", ",IF(A121 &lt;&gt; "", """mem"": bit" &amp; B121 &amp; "(" &amp; A121 &amp; "),", ""),"""good"": ",IF(A121 &lt;&gt; "", 1, 0),"},")</f>
-        <v>120: { "levelId": 3, "good": 0},</v>
+        <v>120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C122" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C122, Levels!B:B, 0), 1, 1)),", ",IF(A122 &lt;&gt; "", """mem"": bit" &amp; B122 &amp; "(" &amp; A122 &amp; "),", ""),"""good"": ",IF(A122 &lt;&gt; "", 1, 0),"},")</f>
-        <v>121: { "levelId": 3, "good": 0},</v>
+        <v>121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C123" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C123, Levels!B:B, 0), 1, 1)),", ",IF(A123 &lt;&gt; "", """mem"": bit" &amp; B123 &amp; "(" &amp; A123 &amp; "),", ""),"""good"": ",IF(A123 &lt;&gt; "", 1, 0),"},")</f>
-        <v>122: { "levelId": 3, "good": 0},</v>
+        <v>122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C124" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C124, Levels!B:B, 0), 1, 1)),", ",IF(A124 &lt;&gt; "", """mem"": bit" &amp; B124 &amp; "(" &amp; A124 &amp; "),", ""),"""good"": ",IF(A124 &lt;&gt; "", 1, 0),"},")</f>
-        <v>123: { "levelId": 3, "good": 0},</v>
+        <v>123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C125" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C125, Levels!B:B, 0), 1, 1)),", ",IF(A125 &lt;&gt; "", """mem"": bit" &amp; B125 &amp; "(" &amp; A125 &amp; "),", ""),"""good"": ",IF(A125 &lt;&gt; "", 1, 0),"},")</f>
-        <v>124: { "levelId": 3, "good": 0},</v>
+        <v>124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C126" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C126, Levels!B:B, 0), 1, 1)),", ",IF(A126 &lt;&gt; "", """mem"": bit" &amp; B126 &amp; "(" &amp; A126 &amp; "),", ""),"""good"": ",IF(A126 &lt;&gt; "", 1, 0),"},")</f>
-        <v>125: { "levelId": 3, "good": 0},</v>
+        <v>125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C127" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C127, Levels!B:B, 0), 1, 1)),", ",IF(A127 &lt;&gt; "", """mem"": bit" &amp; B127 &amp; "(" &amp; A127 &amp; "),", ""),"""good"": ",IF(A127 &lt;&gt; "", 1, 0),"},")</f>
-        <v>126: { "levelId": 3, "good": 0},</v>
+        <v>126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C128" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C128, Levels!B:B, 0), 1, 1)),", ",IF(A128 &lt;&gt; "", """mem"": bit" &amp; B128 &amp; "(" &amp; A128 &amp; "),", ""),"""good"": ",IF(A128 &lt;&gt; "", 1, 0),"},")</f>
-        <v>127: { "levelId": 3, "good": 0},</v>
+        <v>127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C129, Levels!B:B, 0), 1, 1)),", ",IF(A129 &lt;&gt; "", """mem"": bit" &amp; B129 &amp; "(" &amp; A129 &amp; "),", ""),"""good"": ",IF(A129 &lt;&gt; "", 1, 0),"},")</f>
-        <v>128: { "levelId": 3, "good": 0},</v>
+        <v>128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C130" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C130, Levels!B:B, 0), 1, 1)),", ",IF(A130 &lt;&gt; "", """mem"": bit" &amp; B130 &amp; "(" &amp; A130 &amp; "),", ""),"""good"": ",IF(A130 &lt;&gt; "", 1, 0),"},")</f>
-        <v>129: { "levelId": 3, "good": 0},</v>
+        <v>129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C131" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C131, Levels!B:B, 0), 1, 1)),", ",IF(A131 &lt;&gt; "", """mem"": bit" &amp; B131 &amp; "(" &amp; A131 &amp; "),", ""),"""good"": ",IF(A131 &lt;&gt; "", 1, 0),"},")</f>
-        <v>130: { "levelId": 3, "good": 0},</v>
+        <v>130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C132, Levels!B:B, 0), 1, 1)),", ",IF(A132 &lt;&gt; "", """mem"": bit" &amp; B132 &amp; "(" &amp; A132 &amp; "),", ""),"""good"": ",IF(A132 &lt;&gt; "", 1, 0),"},")</f>
-        <v>131: { "levelId": 3, "good": 0},</v>
+        <v>131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C133" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C133, Levels!B:B, 0), 1, 1)),", ",IF(A133 &lt;&gt; "", """mem"": bit" &amp; B133 &amp; "(" &amp; A133 &amp; "),", ""),"""good"": ",IF(A133 &lt;&gt; "", 1, 0),"},")</f>
-        <v>132: { "levelId": 3, "good": 0},</v>
+        <v>132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C134" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C134, Levels!B:B, 0), 1, 1)),", ",IF(A134 &lt;&gt; "", """mem"": bit" &amp; B134 &amp; "(" &amp; A134 &amp; "),", ""),"""good"": ",IF(A134 &lt;&gt; "", 1, 0),"},")</f>
-        <v>133: { "levelId": 3, "good": 0},</v>
+        <v>133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C135" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C135, Levels!B:B, 0), 1, 1)),", ",IF(A135 &lt;&gt; "", """mem"": bit" &amp; B135 &amp; "(" &amp; A135 &amp; "),", ""),"""good"": ",IF(A135 &lt;&gt; "", 1, 0),"},")</f>
-        <v>134: { "levelId": 3, "good": 0},</v>
+        <v>134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C136" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C136, Levels!B:B, 0), 1, 1)),", ",IF(A136 &lt;&gt; "", """mem"": bit" &amp; B136 &amp; "(" &amp; A136 &amp; "),", ""),"""good"": ",IF(A136 &lt;&gt; "", 1, 0),"},")</f>
-        <v>135: { "levelId": 3, "good": 0},</v>
+        <v>135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C137" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C137, Levels!B:B, 0), 1, 1)),", ",IF(A137 &lt;&gt; "", """mem"": bit" &amp; B137 &amp; "(" &amp; A137 &amp; "),", ""),"""good"": ",IF(A137 &lt;&gt; "", 1, 0),"},")</f>
-        <v>136: { "levelId": 3, "good": 0},</v>
+        <v>136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C138" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C138, Levels!B:B, 0), 1, 1)),", ",IF(A138 &lt;&gt; "", """mem"": bit" &amp; B138 &amp; "(" &amp; A138 &amp; "),", ""),"""good"": ",IF(A138 &lt;&gt; "", 1, 0),"},")</f>
-        <v>137: { "levelId": 3, "good": 0},</v>
+        <v>137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C139" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C139, Levels!B:B, 0), 1, 1)),", ",IF(A139 &lt;&gt; "", """mem"": bit" &amp; B139 &amp; "(" &amp; A139 &amp; "),", ""),"""good"": ",IF(A139 &lt;&gt; "", 1, 0),"},")</f>
-        <v>138: { "levelId": 3, "good": 0},</v>
+        <v>138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C140" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C140, Levels!B:B, 0), 1, 1)),", ",IF(A140 &lt;&gt; "", """mem"": bit" &amp; B140 &amp; "(" &amp; A140 &amp; "),", ""),"""good"": ",IF(A140 &lt;&gt; "", 1, 0),"},")</f>
-        <v>139: { "levelId": 3, "good": 0},</v>
+        <v>139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C141, Levels!B:B, 0), 1, 1)),", ",IF(A141 &lt;&gt; "", """mem"": bit" &amp; B141 &amp; "(" &amp; A141 &amp; "),", ""),"""good"": ",IF(A141 &lt;&gt; "", 1, 0),"},")</f>
-        <v>140: { "levelId": 3, "good": 0},</v>
+        <v>140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C142" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C142, Levels!B:B, 0), 1, 1)),", ",IF(A142 &lt;&gt; "", """mem"": bit" &amp; B142 &amp; "(" &amp; A142 &amp; "),", ""),"""good"": ",IF(A142 &lt;&gt; "", 1, 0),"},")</f>
-        <v>141: { "levelId": 3, "good": 0},</v>
+        <v>141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C143" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C143, Levels!B:B, 0), 1, 1)),", ",IF(A143 &lt;&gt; "", """mem"": bit" &amp; B143 &amp; "(" &amp; A143 &amp; "),", ""),"""good"": ",IF(A143 &lt;&gt; "", 1, 0),"},")</f>
-        <v>142: { "levelId": 3, "good": 0},</v>
+        <v>142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17164,26 +17432,26 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.84"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -17194,7 +17462,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -17203,17 +17471,17 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C2, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A2 &lt;&gt; "", "bit" &amp; B2 &amp; "(" &amp; A2 &amp; ")", ""),"},")</f>
-        <v>1: { "levelId": 1, "mem": bit7(0x2249f0)},</v>
-      </c>
-      <c r="G2" s="0" t="e">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C2, Levels!B:B, 0), 1, 1)),", ",IF(A2 &lt;&gt; "", """mem"": bit" &amp; B2 &amp; "(" &amp; A2 &amp; "),", ""),"""good"": ",IF(A2 &lt;&gt; "", 1, 0),"},")</f>
+        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},</v>
+      </c>
+      <c r="G2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D81)</f>
-        <v>#N/A</v>
+        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},19: { "levelId": 3, "good": 0},20: { "levelId": 3, "good": 0},21: { "levelId": 3, "good": 0},22: { "levelId": 3, "good": 0},23: { "levelId": 3, "good": 0},24: { "levelId": 3, "good": 0},25: { "levelId": 3, "good": 0},26: { "levelId": 3, "good": 0},27: { "levelId": 3, "good": 0},28: { "levelId": 3, "good": 0},29: { "levelId": 3, "good": 0},30: { "levelId": 3, "good": 0},31: { "levelId": 3, "good": 0},32: { "levelId": 3, "good": 0},33: { "levelId": 3, "good": 0},34: { "levelId": 3, "good": 0},35: { "levelId": 3, "good": 0},36: { "levelId": 3, "good": 0},37: { "levelId": 3, "good": 0},38: { "levelId": 3, "good": 0},39: { "levelId": 3, "good": 0},40: { "levelId": 3, "good": 0},41: { "levelId": 3, "good": 0},42: { "levelId": 3, "good": 0},43: { "levelId": 3, "good": 0},44: { "levelId": 3, "good": 0},45: { "levelId": 3, "good": 0},46: { "levelId": 3, "good": 0},47: { "levelId": 3, "good": 0},48: { "levelId": 3, "good": 0},49: { "levelId": 3, "good": 0},50: { "levelId": 3, "good": 0},51: { "levelId": 3, "good": 0},52: { "levelId": 3, "good": 0},53: { "levelId": 3, "good": 0},54: { "levelId": 3, "good": 0},55: { "levelId": 3, "good": 0},56: { "levelId": 3, "good": 0},57: { "levelId": 3, "good": 0},58: { "levelId": 3, "good": 0},59: { "levelId": 3, "good": 0},60: { "levelId": 3, "good": 0},61: { "levelId": 3, "good": 0},62: { "levelId": 3, "good": 0},63: { "levelId": 3, "good": 0},64: { "levelId": 3, "good": 0},65: { "levelId": 3, "good": 0},66: { "levelId": 3, "good": 0},67: { "levelId": 3, "good": 0},68: { "levelId": 3, "good": 0},69: { "levelId": 3, "good": 0},70: { "levelId": 3, "good": 0},71: { "levelId": 3, "good": 0},72: { "levelId": 3, "good": 0},73: { "levelId": 3, "good": 0},74: { "levelId": 3, "good": 0},75: { "levelId": 3, "good": 0},76: { "levelId": 3, "good": 0},77: { "levelId": 3, "good": 0},78: { "levelId": 3, "good": 0},79: { "levelId": 3, "good": 0},80: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>76</v>
+      <c r="A3" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -17222,13 +17490,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C3, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A3 &lt;&gt; "", "bit" &amp; B3 &amp; "(" &amp; A3 &amp; ")", ""),"},")</f>
-        <v>2: { "levelId": 2, "mem": bit0(0x2249f1)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C3, Levels!B:B, 0), 1, 1)),", ",IF(A3 &lt;&gt; "", """mem"": bit" &amp; B3 &amp; "(" &amp; A3 &amp; "),", ""),"""good"": ",IF(A3 &lt;&gt; "", 1, 0),"},")</f>
+        <v>2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>76</v>
+      <c r="A4" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -17237,13 +17505,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C4, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A4 &lt;&gt; "", "bit" &amp; B4 &amp; "(" &amp; A4 &amp; ")", ""),"},")</f>
-        <v>3: { "levelId": 2, "mem": bit1(0x2249f1)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C4, Levels!B:B, 0), 1, 1)),", ",IF(A4 &lt;&gt; "", """mem"": bit" &amp; B4 &amp; "(" &amp; A4 &amp; "),", ""),"""good"": ",IF(A4 &lt;&gt; "", 1, 0),"},")</f>
+        <v>3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>76</v>
+      <c r="A5" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -17252,13 +17520,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C5, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A5 &lt;&gt; "", "bit" &amp; B5 &amp; "(" &amp; A5 &amp; ")", ""),"},")</f>
-        <v>4: { "levelId": 2, "mem": bit5(0x2249f1)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C5, Levels!B:B, 0), 1, 1)),", ",IF(A5 &lt;&gt; "", """mem"": bit" &amp; B5 &amp; "(" &amp; A5 &amp; "),", ""),"""good"": ",IF(A5 &lt;&gt; "", 1, 0),"},")</f>
+        <v>4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
+      <c r="A6" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6</v>
@@ -17267,13 +17535,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C6, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A6 &lt;&gt; "", "bit" &amp; B6 &amp; "(" &amp; A6 &amp; ")", ""),"},")</f>
-        <v>5: { "levelId": 2, "mem": bit6(0x2249f1)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C6, Levels!B:B, 0), 1, 1)),", ",IF(A6 &lt;&gt; "", """mem"": bit" &amp; B6 &amp; "(" &amp; A6 &amp; "),", ""),"""good"": ",IF(A6 &lt;&gt; "", 1, 0),"},")</f>
+        <v>5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
+      <c r="A7" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>7</v>
@@ -17282,13 +17550,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C7, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A7 &lt;&gt; "", "bit" &amp; B7 &amp; "(" &amp; A7 &amp; ")", ""),"},")</f>
-        <v>6: { "levelId": 1, "mem": bit7(0x2249f1)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C7, Levels!B:B, 0), 1, 1)),", ",IF(A7 &lt;&gt; "", """mem"": bit" &amp; B7 &amp; "(" &amp; A7 &amp; "),", ""),"""good"": ",IF(A7 &lt;&gt; "", 1, 0),"},")</f>
+        <v>6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -17297,13 +17565,13 @@
         <v>42</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C8, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A8 &lt;&gt; "", "bit" &amp; B8 &amp; "(" &amp; A8 &amp; ")", ""),"},")</f>
-        <v>7: { "levelId": 5, "mem": bit0(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C8, Levels!B:B, 0), 1, 1)),", ",IF(A8 &lt;&gt; "", """mem"": bit" &amp; B8 &amp; "(" &amp; A8 &amp; "),", ""),"""good"": ",IF(A8 &lt;&gt; "", 1, 0),"},")</f>
+        <v>7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -17312,13 +17580,13 @@
         <v>42</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C9, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A9 &lt;&gt; "", "bit" &amp; B9 &amp; "(" &amp; A9 &amp; ")", ""),"},")</f>
-        <v>8: { "levelId": 5, "mem": bit1(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C9, Levels!B:B, 0), 1, 1)),", ",IF(A9 &lt;&gt; "", """mem"": bit" &amp; B9 &amp; "(" &amp; A9 &amp; "),", ""),"""good"": ",IF(A9 &lt;&gt; "", 1, 0),"},")</f>
+        <v>8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -17327,13 +17595,13 @@
         <v>42</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C10, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A10 &lt;&gt; "", "bit" &amp; B10 &amp; "(" &amp; A10 &amp; ")", ""),"},")</f>
-        <v>9: { "levelId": 5, "mem": bit2(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C10, Levels!B:B, 0), 1, 1)),", ",IF(A10 &lt;&gt; "", """mem"": bit" &amp; B10 &amp; "(" &amp; A10 &amp; "),", ""),"""good"": ",IF(A10 &lt;&gt; "", 1, 0),"},")</f>
+        <v>9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -17342,13 +17610,13 @@
         <v>42</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C11, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A11 &lt;&gt; "", "bit" &amp; B11 &amp; "(" &amp; A11 &amp; ")", ""),"},")</f>
-        <v>10: { "levelId": 5, "mem": bit3(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C11, Levels!B:B, 0), 1, 1)),", ",IF(A11 &lt;&gt; "", """mem"": bit" &amp; B11 &amp; "(" &amp; A11 &amp; "),", ""),"""good"": ",IF(A11 &lt;&gt; "", 1, 0),"},")</f>
+        <v>10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -17357,13 +17625,13 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C12, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A12 &lt;&gt; "", "bit" &amp; B12 &amp; "(" &amp; A12 &amp; ")", ""),"},")</f>
-        <v>11: { "levelId": 5, "mem": bit4(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C12, Levels!B:B, 0), 1, 1)),", ",IF(A12 &lt;&gt; "", """mem"": bit" &amp; B12 &amp; "(" &amp; A12 &amp; "),", ""),"""good"": ",IF(A12 &lt;&gt; "", 1, 0),"},")</f>
+        <v>11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
@@ -17372,13 +17640,13 @@
         <v>48</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C13, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A13 &lt;&gt; "", "bit" &amp; B13 &amp; "(" &amp; A13 &amp; ")", ""),"},")</f>
-        <v>12: { "levelId": 6, "mem": bit5(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C13, Levels!B:B, 0), 1, 1)),", ",IF(A13 &lt;&gt; "", """mem"": bit" &amp; B13 &amp; "(" &amp; A13 &amp; "),", ""),"""good"": ",IF(A13 &lt;&gt; "", 1, 0),"},")</f>
+        <v>12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -17387,477 +17655,641 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C14, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A14 &lt;&gt; "", "bit" &amp; B14 &amp; "(" &amp; A14 &amp; ")", ""),"},")</f>
-        <v>13: { "levelId": 6, "mem": bit7(0x2249f2)},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C14, Levels!B:B, 0), 1, 1)),", ",IF(A14 &lt;&gt; "", """mem"": bit" &amp; B14 &amp; "(" &amp; A14 &amp; "),", ""),"""good"": ",IF(A14 &lt;&gt; "", 1, 0),"},")</f>
+        <v>13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="D15" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C15, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A15 &lt;&gt; "", "bit" &amp; B15 &amp; "(" &amp; A15 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="A15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C15, Levels!B:B, 0), 1, 1)),", ",IF(A15 &lt;&gt; "", """mem"": bit" &amp; B15 &amp; "(" &amp; A15 &amp; "),", ""),"""good"": ",IF(A15 &lt;&gt; "", 1, 0),"},")</f>
+        <v>14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4"/>
-      <c r="D16" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C16, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A16 &lt;&gt; "", "bit" &amp; B16 &amp; "(" &amp; A16 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="A16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C16, Levels!B:B, 0), 1, 1)),", ",IF(A16 &lt;&gt; "", """mem"": bit" &amp; B16 &amp; "(" &amp; A16 &amp; "),", ""),"""good"": ",IF(A16 &lt;&gt; "", 1, 0),"},")</f>
+        <v>15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4"/>
-      <c r="D17" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C17, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A17 &lt;&gt; "", "bit" &amp; B17 &amp; "(" &amp; A17 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="A17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C17, Levels!B:B, 0), 1, 1)),", ",IF(A17 &lt;&gt; "", """mem"": bit" &amp; B17 &amp; "(" &amp; A17 &amp; "),", ""),"""good"": ",IF(A17 &lt;&gt; "", 1, 0),"},")</f>
+        <v>16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
-      <c r="D18" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C18, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A18 &lt;&gt; "", "bit" &amp; B18 &amp; "(" &amp; A18 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="A18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C18, Levels!B:B, 0), 1, 1)),", ",IF(A18 &lt;&gt; "", """mem"": bit" &amp; B18 &amp; "(" &amp; A18 &amp; "),", ""),"""good"": ",IF(A18 &lt;&gt; "", 1, 0),"},")</f>
+        <v>17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="D19" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C19, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A19 &lt;&gt; "", "bit" &amp; B19 &amp; "(" &amp; A19 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="A19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C19, Levels!B:B, 0), 1, 1)),", ",IF(A19 &lt;&gt; "", """mem"": bit" &amp; B19 &amp; "(" &amp; A19 &amp; "),", ""),"""good"": ",IF(A19 &lt;&gt; "", 1, 0),"},")</f>
+        <v>18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="4"/>
-      <c r="D20" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C20, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A20 &lt;&gt; "", "bit" &amp; B20 &amp; "(" &amp; A20 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C20, Levels!B:B, 0), 1, 1)),", ",IF(A20 &lt;&gt; "", """mem"": bit" &amp; B20 &amp; "(" &amp; A20 &amp; "),", ""),"""good"": ",IF(A20 &lt;&gt; "", 1, 0),"},")</f>
+        <v>19: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="4"/>
-      <c r="D21" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C21, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A21 &lt;&gt; "", "bit" &amp; B21 &amp; "(" &amp; A21 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C21, Levels!B:B, 0), 1, 1)),", ",IF(A21 &lt;&gt; "", """mem"": bit" &amp; B21 &amp; "(" &amp; A21 &amp; "),", ""),"""good"": ",IF(A21 &lt;&gt; "", 1, 0),"},")</f>
+        <v>20: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="4"/>
-      <c r="D22" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C22, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A22 &lt;&gt; "", "bit" &amp; B22 &amp; "(" &amp; A22 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C22, Levels!B:B, 0), 1, 1)),", ",IF(A22 &lt;&gt; "", """mem"": bit" &amp; B22 &amp; "(" &amp; A22 &amp; "),", ""),"""good"": ",IF(A22 &lt;&gt; "", 1, 0),"},")</f>
+        <v>21: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="4"/>
-      <c r="D23" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C23, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A23 &lt;&gt; "", "bit" &amp; B23 &amp; "(" &amp; A23 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C23, Levels!B:B, 0), 1, 1)),", ",IF(A23 &lt;&gt; "", """mem"": bit" &amp; B23 &amp; "(" &amp; A23 &amp; "),", ""),"""good"": ",IF(A23 &lt;&gt; "", 1, 0),"},")</f>
+        <v>22: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="4"/>
-      <c r="D24" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C24, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A24 &lt;&gt; "", "bit" &amp; B24 &amp; "(" &amp; A24 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C24, Levels!B:B, 0), 1, 1)),", ",IF(A24 &lt;&gt; "", """mem"": bit" &amp; B24 &amp; "(" &amp; A24 &amp; "),", ""),"""good"": ",IF(A24 &lt;&gt; "", 1, 0),"},")</f>
+        <v>23: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="4"/>
-      <c r="D25" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C25, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A25 &lt;&gt; "", "bit" &amp; B25 &amp; "(" &amp; A25 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C25, Levels!B:B, 0), 1, 1)),", ",IF(A25 &lt;&gt; "", """mem"": bit" &amp; B25 &amp; "(" &amp; A25 &amp; "),", ""),"""good"": ",IF(A25 &lt;&gt; "", 1, 0),"},")</f>
+        <v>24: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="4"/>
-      <c r="D26" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C26, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A26 &lt;&gt; "", "bit" &amp; B26 &amp; "(" &amp; A26 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C26, Levels!B:B, 0), 1, 1)),", ",IF(A26 &lt;&gt; "", """mem"": bit" &amp; B26 &amp; "(" &amp; A26 &amp; "),", ""),"""good"": ",IF(A26 &lt;&gt; "", 1, 0),"},")</f>
+        <v>25: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="4"/>
-      <c r="D27" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C27, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A27 &lt;&gt; "", "bit" &amp; B27 &amp; "(" &amp; A27 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C27, Levels!B:B, 0), 1, 1)),", ",IF(A27 &lt;&gt; "", """mem"": bit" &amp; B27 &amp; "(" &amp; A27 &amp; "),", ""),"""good"": ",IF(A27 &lt;&gt; "", 1, 0),"},")</f>
+        <v>26: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4"/>
-      <c r="D28" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C28, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A28 &lt;&gt; "", "bit" &amp; B28 &amp; "(" &amp; A28 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C28, Levels!B:B, 0), 1, 1)),", ",IF(A28 &lt;&gt; "", """mem"": bit" &amp; B28 &amp; "(" &amp; A28 &amp; "),", ""),"""good"": ",IF(A28 &lt;&gt; "", 1, 0),"},")</f>
+        <v>27: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="4"/>
-      <c r="D29" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C29, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A29 &lt;&gt; "", "bit" &amp; B29 &amp; "(" &amp; A29 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C29, Levels!B:B, 0), 1, 1)),", ",IF(A29 &lt;&gt; "", """mem"": bit" &amp; B29 &amp; "(" &amp; A29 &amp; "),", ""),"""good"": ",IF(A29 &lt;&gt; "", 1, 0),"},")</f>
+        <v>28: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="4"/>
-      <c r="D30" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C30, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A30 &lt;&gt; "", "bit" &amp; B30 &amp; "(" &amp; A30 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C30, Levels!B:B, 0), 1, 1)),", ",IF(A30 &lt;&gt; "", """mem"": bit" &amp; B30 &amp; "(" &amp; A30 &amp; "),", ""),"""good"": ",IF(A30 &lt;&gt; "", 1, 0),"},")</f>
+        <v>29: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="4"/>
-      <c r="D31" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C31, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A31 &lt;&gt; "", "bit" &amp; B31 &amp; "(" &amp; A31 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C31, Levels!B:B, 0), 1, 1)),", ",IF(A31 &lt;&gt; "", """mem"": bit" &amp; B31 &amp; "(" &amp; A31 &amp; "),", ""),"""good"": ",IF(A31 &lt;&gt; "", 1, 0),"},")</f>
+        <v>30: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="4"/>
-      <c r="D32" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C32, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A32 &lt;&gt; "", "bit" &amp; B32 &amp; "(" &amp; A32 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C32, Levels!B:B, 0), 1, 1)),", ",IF(A32 &lt;&gt; "", """mem"": bit" &amp; B32 &amp; "(" &amp; A32 &amp; "),", ""),"""good"": ",IF(A32 &lt;&gt; "", 1, 0),"},")</f>
+        <v>31: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="4"/>
-      <c r="D33" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C33, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A33 &lt;&gt; "", "bit" &amp; B33 &amp; "(" &amp; A33 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C33, Levels!B:B, 0), 1, 1)),", ",IF(A33 &lt;&gt; "", """mem"": bit" &amp; B33 &amp; "(" &amp; A33 &amp; "),", ""),"""good"": ",IF(A33 &lt;&gt; "", 1, 0),"},")</f>
+        <v>32: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="4"/>
-      <c r="D34" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C34, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A34 &lt;&gt; "", "bit" &amp; B34 &amp; "(" &amp; A34 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C34, Levels!B:B, 0), 1, 1)),", ",IF(A34 &lt;&gt; "", """mem"": bit" &amp; B34 &amp; "(" &amp; A34 &amp; "),", ""),"""good"": ",IF(A34 &lt;&gt; "", 1, 0),"},")</f>
+        <v>33: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4"/>
-      <c r="D35" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C35, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A35 &lt;&gt; "", "bit" &amp; B35 &amp; "(" &amp; A35 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C35, Levels!B:B, 0), 1, 1)),", ",IF(A35 &lt;&gt; "", """mem"": bit" &amp; B35 &amp; "(" &amp; A35 &amp; "),", ""),"""good"": ",IF(A35 &lt;&gt; "", 1, 0),"},")</f>
+        <v>34: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="4"/>
-      <c r="D36" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C36, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A36 &lt;&gt; "", "bit" &amp; B36 &amp; "(" &amp; A36 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C36, Levels!B:B, 0), 1, 1)),", ",IF(A36 &lt;&gt; "", """mem"": bit" &amp; B36 &amp; "(" &amp; A36 &amp; "),", ""),"""good"": ",IF(A36 &lt;&gt; "", 1, 0),"},")</f>
+        <v>35: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="4"/>
-      <c r="D37" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C37, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A37 &lt;&gt; "", "bit" &amp; B37 &amp; "(" &amp; A37 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C37, Levels!B:B, 0), 1, 1)),", ",IF(A37 &lt;&gt; "", """mem"": bit" &amp; B37 &amp; "(" &amp; A37 &amp; "),", ""),"""good"": ",IF(A37 &lt;&gt; "", 1, 0),"},")</f>
+        <v>36: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="4"/>
-      <c r="D38" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C38, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A38 &lt;&gt; "", "bit" &amp; B38 &amp; "(" &amp; A38 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C38, Levels!B:B, 0), 1, 1)),", ",IF(A38 &lt;&gt; "", """mem"": bit" &amp; B38 &amp; "(" &amp; A38 &amp; "),", ""),"""good"": ",IF(A38 &lt;&gt; "", 1, 0),"},")</f>
+        <v>37: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="4"/>
-      <c r="D39" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C39, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A39 &lt;&gt; "", "bit" &amp; B39 &amp; "(" &amp; A39 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C39, Levels!B:B, 0), 1, 1)),", ",IF(A39 &lt;&gt; "", """mem"": bit" &amp; B39 &amp; "(" &amp; A39 &amp; "),", ""),"""good"": ",IF(A39 &lt;&gt; "", 1, 0),"},")</f>
+        <v>38: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="4"/>
-      <c r="D40" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C40, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A40 &lt;&gt; "", "bit" &amp; B40 &amp; "(" &amp; A40 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C40, Levels!B:B, 0), 1, 1)),", ",IF(A40 &lt;&gt; "", """mem"": bit" &amp; B40 &amp; "(" &amp; A40 &amp; "),", ""),"""good"": ",IF(A40 &lt;&gt; "", 1, 0),"},")</f>
+        <v>39: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="4"/>
-      <c r="D41" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C41, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A41 &lt;&gt; "", "bit" &amp; B41 &amp; "(" &amp; A41 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C41, Levels!B:B, 0), 1, 1)),", ",IF(A41 &lt;&gt; "", """mem"": bit" &amp; B41 &amp; "(" &amp; A41 &amp; "),", ""),"""good"": ",IF(A41 &lt;&gt; "", 1, 0),"},")</f>
+        <v>40: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="4"/>
-      <c r="D42" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C42, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A42 &lt;&gt; "", "bit" &amp; B42 &amp; "(" &amp; A42 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C42, Levels!B:B, 0), 1, 1)),", ",IF(A42 &lt;&gt; "", """mem"": bit" &amp; B42 &amp; "(" &amp; A42 &amp; "),", ""),"""good"": ",IF(A42 &lt;&gt; "", 1, 0),"},")</f>
+        <v>41: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="4"/>
-      <c r="D43" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C43, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A43 &lt;&gt; "", "bit" &amp; B43 &amp; "(" &amp; A43 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C43, Levels!B:B, 0), 1, 1)),", ",IF(A43 &lt;&gt; "", """mem"": bit" &amp; B43 &amp; "(" &amp; A43 &amp; "),", ""),"""good"": ",IF(A43 &lt;&gt; "", 1, 0),"},")</f>
+        <v>42: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="4"/>
-      <c r="D44" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C44, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A44 &lt;&gt; "", "bit" &amp; B44 &amp; "(" &amp; A44 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C44, Levels!B:B, 0), 1, 1)),", ",IF(A44 &lt;&gt; "", """mem"": bit" &amp; B44 &amp; "(" &amp; A44 &amp; "),", ""),"""good"": ",IF(A44 &lt;&gt; "", 1, 0),"},")</f>
+        <v>43: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="4"/>
-      <c r="D45" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C45, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A45 &lt;&gt; "", "bit" &amp; B45 &amp; "(" &amp; A45 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C45, Levels!B:B, 0), 1, 1)),", ",IF(A45 &lt;&gt; "", """mem"": bit" &amp; B45 &amp; "(" &amp; A45 &amp; "),", ""),"""good"": ",IF(A45 &lt;&gt; "", 1, 0),"},")</f>
+        <v>44: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="4"/>
-      <c r="D46" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C46, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A46 &lt;&gt; "", "bit" &amp; B46 &amp; "(" &amp; A46 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C46, Levels!B:B, 0), 1, 1)),", ",IF(A46 &lt;&gt; "", """mem"": bit" &amp; B46 &amp; "(" &amp; A46 &amp; "),", ""),"""good"": ",IF(A46 &lt;&gt; "", 1, 0),"},")</f>
+        <v>45: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="4"/>
-      <c r="D47" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C47, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A47 &lt;&gt; "", "bit" &amp; B47 &amp; "(" &amp; A47 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C47, Levels!B:B, 0), 1, 1)),", ",IF(A47 &lt;&gt; "", """mem"": bit" &amp; B47 &amp; "(" &amp; A47 &amp; "),", ""),"""good"": ",IF(A47 &lt;&gt; "", 1, 0),"},")</f>
+        <v>46: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="4"/>
-      <c r="D48" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C48, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A48 &lt;&gt; "", "bit" &amp; B48 &amp; "(" &amp; A48 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C48, Levels!B:B, 0), 1, 1)),", ",IF(A48 &lt;&gt; "", """mem"": bit" &amp; B48 &amp; "(" &amp; A48 &amp; "),", ""),"""good"": ",IF(A48 &lt;&gt; "", 1, 0),"},")</f>
+        <v>47: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="4"/>
-      <c r="D49" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C49, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A49 &lt;&gt; "", "bit" &amp; B49 &amp; "(" &amp; A49 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C49, Levels!B:B, 0), 1, 1)),", ",IF(A49 &lt;&gt; "", """mem"": bit" &amp; B49 &amp; "(" &amp; A49 &amp; "),", ""),"""good"": ",IF(A49 &lt;&gt; "", 1, 0),"},")</f>
+        <v>48: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="4"/>
-      <c r="D50" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C50, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A50 &lt;&gt; "", "bit" &amp; B50 &amp; "(" &amp; A50 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C50, Levels!B:B, 0), 1, 1)),", ",IF(A50 &lt;&gt; "", """mem"": bit" &amp; B50 &amp; "(" &amp; A50 &amp; "),", ""),"""good"": ",IF(A50 &lt;&gt; "", 1, 0),"},")</f>
+        <v>49: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="4"/>
-      <c r="D51" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C51, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A51 &lt;&gt; "", "bit" &amp; B51 &amp; "(" &amp; A51 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C51, Levels!B:B, 0), 1, 1)),", ",IF(A51 &lt;&gt; "", """mem"": bit" &amp; B51 &amp; "(" &amp; A51 &amp; "),", ""),"""good"": ",IF(A51 &lt;&gt; "", 1, 0),"},")</f>
+        <v>50: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="4"/>
-      <c r="D52" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C52, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A52 &lt;&gt; "", "bit" &amp; B52 &amp; "(" &amp; A52 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C52, Levels!B:B, 0), 1, 1)),", ",IF(A52 &lt;&gt; "", """mem"": bit" &amp; B52 &amp; "(" &amp; A52 &amp; "),", ""),"""good"": ",IF(A52 &lt;&gt; "", 1, 0),"},")</f>
+        <v>51: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="4"/>
-      <c r="D53" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C53, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A53 &lt;&gt; "", "bit" &amp; B53 &amp; "(" &amp; A53 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C53, Levels!B:B, 0), 1, 1)),", ",IF(A53 &lt;&gt; "", """mem"": bit" &amp; B53 &amp; "(" &amp; A53 &amp; "),", ""),"""good"": ",IF(A53 &lt;&gt; "", 1, 0),"},")</f>
+        <v>52: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="4"/>
-      <c r="D54" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C54, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A54 &lt;&gt; "", "bit" &amp; B54 &amp; "(" &amp; A54 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C54, Levels!B:B, 0), 1, 1)),", ",IF(A54 &lt;&gt; "", """mem"": bit" &amp; B54 &amp; "(" &amp; A54 &amp; "),", ""),"""good"": ",IF(A54 &lt;&gt; "", 1, 0),"},")</f>
+        <v>53: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="4"/>
-      <c r="D55" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C55, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A55 &lt;&gt; "", "bit" &amp; B55 &amp; "(" &amp; A55 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C55, Levels!B:B, 0), 1, 1)),", ",IF(A55 &lt;&gt; "", """mem"": bit" &amp; B55 &amp; "(" &amp; A55 &amp; "),", ""),"""good"": ",IF(A55 &lt;&gt; "", 1, 0),"},")</f>
+        <v>54: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="4"/>
-      <c r="D56" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C56, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A56 &lt;&gt; "", "bit" &amp; B56 &amp; "(" &amp; A56 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C56, Levels!B:B, 0), 1, 1)),", ",IF(A56 &lt;&gt; "", """mem"": bit" &amp; B56 &amp; "(" &amp; A56 &amp; "),", ""),"""good"": ",IF(A56 &lt;&gt; "", 1, 0),"},")</f>
+        <v>55: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="4"/>
-      <c r="D57" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C57, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A57 &lt;&gt; "", "bit" &amp; B57 &amp; "(" &amp; A57 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C57, Levels!B:B, 0), 1, 1)),", ",IF(A57 &lt;&gt; "", """mem"": bit" &amp; B57 &amp; "(" &amp; A57 &amp; "),", ""),"""good"": ",IF(A57 &lt;&gt; "", 1, 0),"},")</f>
+        <v>56: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="4"/>
-      <c r="D58" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C58, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A58 &lt;&gt; "", "bit" &amp; B58 &amp; "(" &amp; A58 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C58, Levels!B:B, 0), 1, 1)),", ",IF(A58 &lt;&gt; "", """mem"": bit" &amp; B58 &amp; "(" &amp; A58 &amp; "),", ""),"""good"": ",IF(A58 &lt;&gt; "", 1, 0),"},")</f>
+        <v>57: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="4"/>
-      <c r="D59" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C59, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A59 &lt;&gt; "", "bit" &amp; B59 &amp; "(" &amp; A59 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C59, Levels!B:B, 0), 1, 1)),", ",IF(A59 &lt;&gt; "", """mem"": bit" &amp; B59 &amp; "(" &amp; A59 &amp; "),", ""),"""good"": ",IF(A59 &lt;&gt; "", 1, 0),"},")</f>
+        <v>58: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="4"/>
-      <c r="D60" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C60, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A60 &lt;&gt; "", "bit" &amp; B60 &amp; "(" &amp; A60 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C60, Levels!B:B, 0), 1, 1)),", ",IF(A60 &lt;&gt; "", """mem"": bit" &amp; B60 &amp; "(" &amp; A60 &amp; "),", ""),"""good"": ",IF(A60 &lt;&gt; "", 1, 0),"},")</f>
+        <v>59: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="4"/>
-      <c r="D61" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C61, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A61 &lt;&gt; "", "bit" &amp; B61 &amp; "(" &amp; A61 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C61, Levels!B:B, 0), 1, 1)),", ",IF(A61 &lt;&gt; "", """mem"": bit" &amp; B61 &amp; "(" &amp; A61 &amp; "),", ""),"""good"": ",IF(A61 &lt;&gt; "", 1, 0),"},")</f>
+        <v>60: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="4"/>
-      <c r="D62" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C62, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A62 &lt;&gt; "", "bit" &amp; B62 &amp; "(" &amp; A62 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C62, Levels!B:B, 0), 1, 1)),", ",IF(A62 &lt;&gt; "", """mem"": bit" &amp; B62 &amp; "(" &amp; A62 &amp; "),", ""),"""good"": ",IF(A62 &lt;&gt; "", 1, 0),"},")</f>
+        <v>61: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="4"/>
-      <c r="D63" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C63, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A63 &lt;&gt; "", "bit" &amp; B63 &amp; "(" &amp; A63 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C63, Levels!B:B, 0), 1, 1)),", ",IF(A63 &lt;&gt; "", """mem"": bit" &amp; B63 &amp; "(" &amp; A63 &amp; "),", ""),"""good"": ",IF(A63 &lt;&gt; "", 1, 0),"},")</f>
+        <v>62: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="4"/>
-      <c r="D64" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C64, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A64 &lt;&gt; "", "bit" &amp; B64 &amp; "(" &amp; A64 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C64, Levels!B:B, 0), 1, 1)),", ",IF(A64 &lt;&gt; "", """mem"": bit" &amp; B64 &amp; "(" &amp; A64 &amp; "),", ""),"""good"": ",IF(A64 &lt;&gt; "", 1, 0),"},")</f>
+        <v>63: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="4"/>
-      <c r="D65" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C65, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A65 &lt;&gt; "", "bit" &amp; B65 &amp; "(" &amp; A65 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C65, Levels!B:B, 0), 1, 1)),", ",IF(A65 &lt;&gt; "", """mem"": bit" &amp; B65 &amp; "(" &amp; A65 &amp; "),", ""),"""good"": ",IF(A65 &lt;&gt; "", 1, 0),"},")</f>
+        <v>64: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="4"/>
-      <c r="D66" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C66, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A66 &lt;&gt; "", "bit" &amp; B66 &amp; "(" &amp; A66 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C66, Levels!B:B, 0), 1, 1)),", ",IF(A66 &lt;&gt; "", """mem"": bit" &amp; B66 &amp; "(" &amp; A66 &amp; "),", ""),"""good"": ",IF(A66 &lt;&gt; "", 1, 0),"},")</f>
+        <v>65: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="4"/>
-      <c r="D67" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C67, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A67 &lt;&gt; "", "bit" &amp; B67 &amp; "(" &amp; A67 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C67, Levels!B:B, 0), 1, 1)),", ",IF(A67 &lt;&gt; "", """mem"": bit" &amp; B67 &amp; "(" &amp; A67 &amp; "),", ""),"""good"": ",IF(A67 &lt;&gt; "", 1, 0),"},")</f>
+        <v>66: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="4"/>
-      <c r="D68" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C68, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A68 &lt;&gt; "", "bit" &amp; B68 &amp; "(" &amp; A68 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C68, Levels!B:B, 0), 1, 1)),", ",IF(A68 &lt;&gt; "", """mem"": bit" &amp; B68 &amp; "(" &amp; A68 &amp; "),", ""),"""good"": ",IF(A68 &lt;&gt; "", 1, 0),"},")</f>
+        <v>67: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="4"/>
-      <c r="D69" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C69, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A69 &lt;&gt; "", "bit" &amp; B69 &amp; "(" &amp; A69 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C69, Levels!B:B, 0), 1, 1)),", ",IF(A69 &lt;&gt; "", """mem"": bit" &amp; B69 &amp; "(" &amp; A69 &amp; "),", ""),"""good"": ",IF(A69 &lt;&gt; "", 1, 0),"},")</f>
+        <v>68: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="4"/>
-      <c r="D70" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C70, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A70 &lt;&gt; "", "bit" &amp; B70 &amp; "(" &amp; A70 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C70, Levels!B:B, 0), 1, 1)),", ",IF(A70 &lt;&gt; "", """mem"": bit" &amp; B70 &amp; "(" &amp; A70 &amp; "),", ""),"""good"": ",IF(A70 &lt;&gt; "", 1, 0),"},")</f>
+        <v>69: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="4"/>
-      <c r="D71" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C71, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A71 &lt;&gt; "", "bit" &amp; B71 &amp; "(" &amp; A71 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C71, Levels!B:B, 0), 1, 1)),", ",IF(A71 &lt;&gt; "", """mem"": bit" &amp; B71 &amp; "(" &amp; A71 &amp; "),", ""),"""good"": ",IF(A71 &lt;&gt; "", 1, 0),"},")</f>
+        <v>70: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="4"/>
-      <c r="D72" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C72, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A72 &lt;&gt; "", "bit" &amp; B72 &amp; "(" &amp; A72 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C72, Levels!B:B, 0), 1, 1)),", ",IF(A72 &lt;&gt; "", """mem"": bit" &amp; B72 &amp; "(" &amp; A72 &amp; "),", ""),"""good"": ",IF(A72 &lt;&gt; "", 1, 0),"},")</f>
+        <v>71: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="4"/>
-      <c r="D73" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C73, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A73 &lt;&gt; "", "bit" &amp; B73 &amp; "(" &amp; A73 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C73, Levels!B:B, 0), 1, 1)),", ",IF(A73 &lt;&gt; "", """mem"": bit" &amp; B73 &amp; "(" &amp; A73 &amp; "),", ""),"""good"": ",IF(A73 &lt;&gt; "", 1, 0),"},")</f>
+        <v>72: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="4"/>
-      <c r="D74" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C74, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A74 &lt;&gt; "", "bit" &amp; B74 &amp; "(" &amp; A74 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C74, Levels!B:B, 0), 1, 1)),", ",IF(A74 &lt;&gt; "", """mem"": bit" &amp; B74 &amp; "(" &amp; A74 &amp; "),", ""),"""good"": ",IF(A74 &lt;&gt; "", 1, 0),"},")</f>
+        <v>73: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="4"/>
-      <c r="D75" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C75, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A75 &lt;&gt; "", "bit" &amp; B75 &amp; "(" &amp; A75 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C75, Levels!B:B, 0), 1, 1)),", ",IF(A75 &lt;&gt; "", """mem"": bit" &amp; B75 &amp; "(" &amp; A75 &amp; "),", ""),"""good"": ",IF(A75 &lt;&gt; "", 1, 0),"},")</f>
+        <v>74: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="4"/>
-      <c r="D76" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C76, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A76 &lt;&gt; "", "bit" &amp; B76 &amp; "(" &amp; A76 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C76, Levels!B:B, 0), 1, 1)),", ",IF(A76 &lt;&gt; "", """mem"": bit" &amp; B76 &amp; "(" &amp; A76 &amp; "),", ""),"""good"": ",IF(A76 &lt;&gt; "", 1, 0),"},")</f>
+        <v>75: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="4"/>
-      <c r="D77" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C77, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A77 &lt;&gt; "", "bit" &amp; B77 &amp; "(" &amp; A77 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C77, Levels!B:B, 0), 1, 1)),", ",IF(A77 &lt;&gt; "", """mem"": bit" &amp; B77 &amp; "(" &amp; A77 &amp; "),", ""),"""good"": ",IF(A77 &lt;&gt; "", 1, 0),"},")</f>
+        <v>76: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="4"/>
-      <c r="D78" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C78, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A78 &lt;&gt; "", "bit" &amp; B78 &amp; "(" &amp; A78 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C78, Levels!B:B, 0), 1, 1)),", ",IF(A78 &lt;&gt; "", """mem"": bit" &amp; B78 &amp; "(" &amp; A78 &amp; "),", ""),"""good"": ",IF(A78 &lt;&gt; "", 1, 0),"},")</f>
+        <v>77: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="4"/>
-      <c r="D79" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C79, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A79 &lt;&gt; "", "bit" &amp; B79 &amp; "(" &amp; A79 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C79, Levels!B:B, 0), 1, 1)),", ",IF(A79 &lt;&gt; "", """mem"": bit" &amp; B79 &amp; "(" &amp; A79 &amp; "),", ""),"""good"": ",IF(A79 &lt;&gt; "", 1, 0),"},")</f>
+        <v>78: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="4"/>
-      <c r="D80" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C80, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A80 &lt;&gt; "", "bit" &amp; B80 &amp; "(" &amp; A80 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C80, Levels!B:B, 0), 1, 1)),", ",IF(A80 &lt;&gt; "", """mem"": bit" &amp; B80 &amp; "(" &amp; A80 &amp; "),", ""),"""good"": ",IF(A80 &lt;&gt; "", 1, 0),"},")</f>
+        <v>79: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="4"/>
-      <c r="D81" s="0" t="e">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C81, Levels!B:B, 0), 1, 1)),", ""mem"": ",IF(A81 &lt;&gt; "", "bit" &amp; B81 &amp; "(" &amp; A81 &amp; ")", ""),"},")</f>
-        <v>#N/A</v>
+      <c r="C81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="0" t="str">
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C81, Levels!B:B, 0), 1, 1)),", ",IF(A81 &lt;&gt; "", """mem"": bit" &amp; B81 &amp; "(" &amp; A81 &amp; "),", ""),"""good"": ",IF(A81 &lt;&gt; "", 1, 0),"},")</f>
+        <v>80: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="100">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -178,6 +178,36 @@
     <t xml:space="preserve">BayouArea2</t>
   </si>
   <si>
+    <t xml:space="preserve">7928A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoWaIArea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the Sanctuary of Water and Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanctuary of Water and Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoWaIArea2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76F100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polokus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Polokus’s dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
@@ -260,6 +290,24 @@
   </si>
   <si>
     <t xml:space="preserve">0x224a36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22499f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a0</t>
   </si>
   <si>
     <t xml:space="preserve">Level ID</t>
@@ -485,16 +533,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,7 +566,7 @@
       </c>
       <c r="H1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
-        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },</v>
+        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,16 +840,76 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="4"/>
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A17,": { ""id"": ","0x", A17,", ""areaName"": """,B17,""", ""displayName"": """,C17,""", ""levelName"": """,D17,""" },")</f>
+        <v>0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A18,": { ""id"": ","0x", A18,", ""areaName"": """,B18,""", ""displayName"": """,C18,""", ""levelName"": """,D18,""" },")</f>
+        <v>0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A19,": { ""id"": ","0x", A19,", ""areaName"": """,B19,""", ""displayName"": """,C19,""", ""levelName"": """,D19,""" },")</f>
+        <v>0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A20,": { ""id"": ","0x", A20,", ""areaName"": """,B20,""", ""displayName"": """,C20,""", ""levelName"": """,D20,""" },")</f>
+        <v>0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4"/>
@@ -3815,10 +3923,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -3830,22 +3938,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -3921,11 +4029,11 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C3:C1002, "=" &amp; B4)</f>
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C3:C83, "=" &amp; B4)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A4,": { ""id"": ",A4,", ""name"": """,B4,""", ""lums"": ",C4,", ""cages"": ",D4," },")</f>
@@ -4045,18 +4153,26 @@
         <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C8:C1007, "=" &amp; B9)</f>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C8:C88, "=" &amp; B9)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A9,": { ""id"": ",A9,", ""name"": """,B9,""", ""lums"": ",C9,", ""cages"": ",D9," },")</f>
-        <v>8: { "id": 8, "name": "", "lums": , "cages":  },</v>
+        <v>8: { "id": 8, "name": "Sanctuary of Water and Ice", "lums": 50, "cages": 2 },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,18 +4180,26 @@
         <f aca="false">ROW()-1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C9:C1008, "=" &amp; B10)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C9:C89, "=" &amp; B10)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A10,": { ""id"": ",A10,", ""name"": """,B10,""", ""lums"": ",C10,", ""cages"": ",D10," },")</f>
-        <v>9: { "id": 9, "name": "", "lums": , "cages":  },</v>
+        <v>9: { "id": 9, "name": "Polokus", "lums": 0, "cages": 0 },</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7513,12 +7637,12 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7527,10 +7651,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -7543,12 +7667,12 @@
       </c>
       <c r="H1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},143: { "levelId": 3, "good": 0},144: { "levelId": 3, "good": 0},145: { "levelId": 3, "good": 0},146: { "levelId": 3, "good": 0},147: { "levelId": 3, "good": 0},148: { "levelId": 3, "good": 0},149: { "levelId": 3, "good": 0},150: { "levelId": 3, "good": 0},151: { "levelId": 3, "good": 0},152: { "levelId": 3, "good": 0},153: { "levelId": 3, "good": 0},154: { "levelId": 3, "good": 0},155: { "levelId": 3, "good": 0},156: { "levelId": 3, "good": 0},157: { "levelId": 3, "good": 0},158: { "levelId": 3, "good": 0},159: { "levelId": 3, "good": 0},160: { "levelId": 3, "good": 0},161: { "levelId": 3, "good": 0},162: { "levelId": 3, "good": 0},163: { "levelId": 3, "good": 0},164: { "levelId": 3, "good": 0},165: { "levelId": 3, "good": 0},166: { "levelId": 3, "good": 0},167: { "levelId": 3, "good": 0},168: { "levelId": 3, "good": 0},169: { "levelId": 3, "good": 0},170: { "levelId": 3, "good": 0},171: { "levelId": 3, "good": 0},172: { "levelId": 3, "good": 0},173: { "levelId": 3, "good": 0},174: { "levelId": 3, "good": 0},175: { "levelId": 3, "good": 0},176: { "levelId": 3, "good": 0},177: { "levelId": 3, "good": 0},178: { "levelId": 3, "good": 0},179: { "levelId": 3, "good": 0},180: { "levelId": 3, "good": 0},181: { "levelId": 3, "good": 0},182: { "levelId": 3, "good": 0},183: { "levelId": 3, "good": 0},184: { "levelId": 3, "good": 0},185: { "levelId": 3, "good": 0},186: { "levelId": 3, "good": 0},187: { "levelId": 3, "good": 0},188: { "levelId": 3, "good": 0},189: { "levelId": 3, "good": 0},190: { "levelId": 3, "good": 0},191: { "levelId": 3, "good": 0},192: { "levelId": 3, "good": 0},193: { "levelId": 3, "good": 0},194: { "levelId": 3, "good": 0},195: { "levelId": 3, "good": 0},196: { "levelId": 3, "good": 0},197: { "levelId": 3, "good": 0},198: { "levelId": 3, "good": 0},199: { "levelId": 3, "good": 0},200: { "levelId": 3, "good": 0},201: { "levelId": 3, "good": 0},202: { "levelId": 3, "good": 0},203: { "levelId": 3, "good": 0},204: { "levelId": 3, "good": 0},205: { "levelId": 3, "good": 0},206: { "levelId": 3, "good": 0},207: { "levelId": 3, "good": 0},208: { "levelId": 3, "good": 0},209: { "levelId": 3, "good": 0},210: { "levelId": 3, "good": 0},211: { "levelId": 3, "good": 0},212: { "levelId": 3, "good": 0},213: { "levelId": 3, "good": 0},214: { "levelId": 3, "good": 0},215: { "levelId": 3, "good": 0},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1},193: { "levelId": 3, "good": 0},194: { "levelId": 3, "good": 0},195: { "levelId": 3, "good": 0},196: { "levelId": 3, "good": 0},197: { "levelId": 3, "good": 0},198: { "levelId": 3, "good": 0},199: { "levelId": 3, "good": 0},200: { "levelId": 3, "good": 0},201: { "levelId": 3, "good": 0},202: { "levelId": 3, "good": 0},203: { "levelId": 3, "good": 0},204: { "levelId": 3, "good": 0},205: { "levelId": 3, "good": 0},206: { "levelId": 3, "good": 0},207: { "levelId": 3, "good": 0},208: { "levelId": 3, "good": 0},209: { "levelId": 3, "good": 0},210: { "levelId": 3, "good": 0},211: { "levelId": 3, "good": 0},212: { "levelId": 3, "good": 0},213: { "levelId": 3, "good": 0},214: { "levelId": 3, "good": 0},215: { "levelId": 3, "good": 0},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7563,7 +7687,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -7579,7 +7703,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7595,7 +7719,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7611,7 +7735,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -7627,7 +7751,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -7643,7 +7767,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -7659,7 +7783,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -7675,7 +7799,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -7690,7 +7814,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -7705,7 +7829,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -7720,7 +7844,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -7735,7 +7859,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -7750,7 +7874,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -7765,7 +7889,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -7780,7 +7904,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
@@ -7795,7 +7919,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7810,7 +7934,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7825,7 +7949,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7840,7 +7964,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7855,7 +7979,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -7870,7 +7994,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -7885,7 +8009,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
@@ -7900,7 +8024,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
@@ -7915,7 +8039,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
@@ -7930,7 +8054,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>6</v>
@@ -7945,7 +8069,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>7</v>
@@ -7960,7 +8084,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7975,7 +8099,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -7990,7 +8114,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -8005,7 +8129,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -8020,7 +8144,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
@@ -8035,7 +8159,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5</v>
@@ -8050,7 +8174,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6</v>
@@ -8065,7 +8189,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>7</v>
@@ -8080,7 +8204,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8095,7 +8219,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -8110,7 +8234,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
@@ -8125,7 +8249,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3</v>
@@ -8140,7 +8264,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4</v>
@@ -8155,7 +8279,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>5</v>
@@ -8170,7 +8294,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6</v>
@@ -8185,7 +8309,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>7</v>
@@ -8200,7 +8324,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -8215,7 +8339,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -8230,7 +8354,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
@@ -8245,7 +8369,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>3</v>
@@ -8260,7 +8384,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4</v>
@@ -8275,7 +8399,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5</v>
@@ -8290,7 +8414,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6</v>
@@ -8305,7 +8429,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>7</v>
@@ -8320,7 +8444,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -8335,7 +8459,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -8350,7 +8474,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -8365,7 +8489,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -8380,7 +8504,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>4</v>
@@ -8395,7 +8519,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -8410,7 +8534,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>6</v>
@@ -8425,7 +8549,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>7</v>
@@ -8440,7 +8564,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -8455,7 +8579,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -8470,7 +8594,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8485,7 +8609,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8500,7 +8624,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8515,7 +8639,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8530,7 +8654,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8545,7 +8669,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>7</v>
@@ -8560,7 +8684,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -8575,7 +8699,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -8590,7 +8714,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -8605,7 +8729,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -8620,7 +8744,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -8635,7 +8759,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -8650,7 +8774,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -8665,7 +8789,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>7</v>
@@ -8680,7 +8804,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -8695,7 +8819,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -8710,7 +8834,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2</v>
@@ -8725,7 +8849,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>3</v>
@@ -8740,7 +8864,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>4</v>
@@ -8755,7 +8879,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5</v>
@@ -8770,7 +8894,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -8785,7 +8909,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8800,7 +8924,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -8815,7 +8939,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -8830,7 +8954,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2</v>
@@ -8845,7 +8969,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>3</v>
@@ -8860,7 +8984,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>4</v>
@@ -8875,7 +8999,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>5</v>
@@ -8890,7 +9014,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8905,7 +9029,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8920,7 +9044,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -8935,7 +9059,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -8950,7 +9074,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2</v>
@@ -8965,7 +9089,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>3</v>
@@ -8980,7 +9104,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4</v>
@@ -8995,7 +9119,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>5</v>
@@ -9010,7 +9134,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -9025,7 +9149,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -9040,7 +9164,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -9055,7 +9179,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -9070,7 +9194,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -9085,7 +9209,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>3</v>
@@ -9100,7 +9224,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -9115,7 +9239,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5</v>
@@ -9130,7 +9254,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -9145,7 +9269,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -9160,7 +9284,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -9175,7 +9299,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -9190,7 +9314,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -9205,7 +9329,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>3</v>
@@ -9220,7 +9344,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -9235,7 +9359,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>5</v>
@@ -9250,7 +9374,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -9265,7 +9389,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -9280,7 +9404,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -9295,7 +9419,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
@@ -9310,7 +9434,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2</v>
@@ -9325,7 +9449,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>3</v>
@@ -9340,7 +9464,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>4</v>
@@ -9355,7 +9479,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>5</v>
@@ -9370,7 +9494,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -9385,7 +9509,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -9400,7 +9524,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -9415,7 +9539,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -9430,7 +9554,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -9445,7 +9569,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -9460,7 +9584,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9475,7 +9599,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9490,7 +9614,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>7</v>
@@ -9505,7 +9629,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -9520,7 +9644,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
@@ -9535,7 +9659,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -9550,7 +9674,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -9565,7 +9689,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -9580,7 +9704,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9595,7 +9719,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>3</v>
@@ -9610,7 +9734,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>4</v>
@@ -9625,7 +9749,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>5</v>
@@ -9640,7 +9764,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>6</v>
@@ -9655,7 +9779,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>7</v>
@@ -9670,7 +9794,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>7</v>
@@ -9684,453 +9808,753 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C144" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C144, Levels!B:B, 0), 1, 1)),", ",IF(A144 &lt;&gt; "", """mem"": bit" &amp; B144 &amp; "(" &amp; A144 &amp; "),", ""),"""good"": ",IF(A144 &lt;&gt; "", 1, 0),"},")</f>
-        <v>143: { "levelId": 3, "good": 0},</v>
+        <v>143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C145" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C145, Levels!B:B, 0), 1, 1)),", ",IF(A145 &lt;&gt; "", """mem"": bit" &amp; B145 &amp; "(" &amp; A145 &amp; "),", ""),"""good"": ",IF(A145 &lt;&gt; "", 1, 0),"},")</f>
-        <v>144: { "levelId": 3, "good": 0},</v>
+        <v>144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C146" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C146, Levels!B:B, 0), 1, 1)),", ",IF(A146 &lt;&gt; "", """mem"": bit" &amp; B146 &amp; "(" &amp; A146 &amp; "),", ""),"""good"": ",IF(A146 &lt;&gt; "", 1, 0),"},")</f>
-        <v>145: { "levelId": 3, "good": 0},</v>
+        <v>145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C147" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C147, Levels!B:B, 0), 1, 1)),", ",IF(A147 &lt;&gt; "", """mem"": bit" &amp; B147 &amp; "(" &amp; A147 &amp; "),", ""),"""good"": ",IF(A147 &lt;&gt; "", 1, 0),"},")</f>
-        <v>146: { "levelId": 3, "good": 0},</v>
+        <v>146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C148" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C148, Levels!B:B, 0), 1, 1)),", ",IF(A148 &lt;&gt; "", """mem"": bit" &amp; B148 &amp; "(" &amp; A148 &amp; "),", ""),"""good"": ",IF(A148 &lt;&gt; "", 1, 0),"},")</f>
-        <v>147: { "levelId": 3, "good": 0},</v>
+        <v>147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C149" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C149, Levels!B:B, 0), 1, 1)),", ",IF(A149 &lt;&gt; "", """mem"": bit" &amp; B149 &amp; "(" &amp; A149 &amp; "),", ""),"""good"": ",IF(A149 &lt;&gt; "", 1, 0),"},")</f>
-        <v>148: { "levelId": 3, "good": 0},</v>
+        <v>148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C150" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C150, Levels!B:B, 0), 1, 1)),", ",IF(A150 &lt;&gt; "", """mem"": bit" &amp; B150 &amp; "(" &amp; A150 &amp; "),", ""),"""good"": ",IF(A150 &lt;&gt; "", 1, 0),"},")</f>
-        <v>149: { "levelId": 3, "good": 0},</v>
+        <v>149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C151" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C151, Levels!B:B, 0), 1, 1)),", ",IF(A151 &lt;&gt; "", """mem"": bit" &amp; B151 &amp; "(" &amp; A151 &amp; "),", ""),"""good"": ",IF(A151 &lt;&gt; "", 1, 0),"},")</f>
-        <v>150: { "levelId": 3, "good": 0},</v>
+        <v>150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C152" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C152, Levels!B:B, 0), 1, 1)),", ",IF(A152 &lt;&gt; "", """mem"": bit" &amp; B152 &amp; "(" &amp; A152 &amp; "),", ""),"""good"": ",IF(A152 &lt;&gt; "", 1, 0),"},")</f>
-        <v>151: { "levelId": 3, "good": 0},</v>
+        <v>151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C153" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C153, Levels!B:B, 0), 1, 1)),", ",IF(A153 &lt;&gt; "", """mem"": bit" &amp; B153 &amp; "(" &amp; A153 &amp; "),", ""),"""good"": ",IF(A153 &lt;&gt; "", 1, 0),"},")</f>
-        <v>152: { "levelId": 3, "good": 0},</v>
+        <v>152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C154" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C154, Levels!B:B, 0), 1, 1)),", ",IF(A154 &lt;&gt; "", """mem"": bit" &amp; B154 &amp; "(" &amp; A154 &amp; "),", ""),"""good"": ",IF(A154 &lt;&gt; "", 1, 0),"},")</f>
-        <v>153: { "levelId": 3, "good": 0},</v>
+        <v>153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C155" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C155, Levels!B:B, 0), 1, 1)),", ",IF(A155 &lt;&gt; "", """mem"": bit" &amp; B155 &amp; "(" &amp; A155 &amp; "),", ""),"""good"": ",IF(A155 &lt;&gt; "", 1, 0),"},")</f>
-        <v>154: { "levelId": 3, "good": 0},</v>
+        <v>154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C156" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C156, Levels!B:B, 0), 1, 1)),", ",IF(A156 &lt;&gt; "", """mem"": bit" &amp; B156 &amp; "(" &amp; A156 &amp; "),", ""),"""good"": ",IF(A156 &lt;&gt; "", 1, 0),"},")</f>
-        <v>155: { "levelId": 3, "good": 0},</v>
+        <v>155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C157" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C157, Levels!B:B, 0), 1, 1)),", ",IF(A157 &lt;&gt; "", """mem"": bit" &amp; B157 &amp; "(" &amp; A157 &amp; "),", ""),"""good"": ",IF(A157 &lt;&gt; "", 1, 0),"},")</f>
-        <v>156: { "levelId": 3, "good": 0},</v>
+        <v>156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1},</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C158" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C158, Levels!B:B, 0), 1, 1)),", ",IF(A158 &lt;&gt; "", """mem"": bit" &amp; B158 &amp; "(" &amp; A158 &amp; "),", ""),"""good"": ",IF(A158 &lt;&gt; "", 1, 0),"},")</f>
-        <v>157: { "levelId": 3, "good": 0},</v>
+        <v>157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C159" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C159, Levels!B:B, 0), 1, 1)),", ",IF(A159 &lt;&gt; "", """mem"": bit" &amp; B159 &amp; "(" &amp; A159 &amp; "),", ""),"""good"": ",IF(A159 &lt;&gt; "", 1, 0),"},")</f>
-        <v>158: { "levelId": 3, "good": 0},</v>
+        <v>158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C160" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C160, Levels!B:B, 0), 1, 1)),", ",IF(A160 &lt;&gt; "", """mem"": bit" &amp; B160 &amp; "(" &amp; A160 &amp; "),", ""),"""good"": ",IF(A160 &lt;&gt; "", 1, 0),"},")</f>
-        <v>159: { "levelId": 3, "good": 0},</v>
+        <v>159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C161" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C161, Levels!B:B, 0), 1, 1)),", ",IF(A161 &lt;&gt; "", """mem"": bit" &amp; B161 &amp; "(" &amp; A161 &amp; "),", ""),"""good"": ",IF(A161 &lt;&gt; "", 1, 0),"},")</f>
-        <v>160: { "levelId": 3, "good": 0},</v>
+        <v>160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1},</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C162" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C162, Levels!B:B, 0), 1, 1)),", ",IF(A162 &lt;&gt; "", """mem"": bit" &amp; B162 &amp; "(" &amp; A162 &amp; "),", ""),"""good"": ",IF(A162 &lt;&gt; "", 1, 0),"},")</f>
-        <v>161: { "levelId": 3, "good": 0},</v>
+        <v>161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C163" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C163, Levels!B:B, 0), 1, 1)),", ",IF(A163 &lt;&gt; "", """mem"": bit" &amp; B163 &amp; "(" &amp; A163 &amp; "),", ""),"""good"": ",IF(A163 &lt;&gt; "", 1, 0),"},")</f>
-        <v>162: { "levelId": 3, "good": 0},</v>
+        <v>162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C164" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C164, Levels!B:B, 0), 1, 1)),", ",IF(A164 &lt;&gt; "", """mem"": bit" &amp; B164 &amp; "(" &amp; A164 &amp; "),", ""),"""good"": ",IF(A164 &lt;&gt; "", 1, 0),"},")</f>
-        <v>163: { "levelId": 3, "good": 0},</v>
+        <v>163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C165" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C165, Levels!B:B, 0), 1, 1)),", ",IF(A165 &lt;&gt; "", """mem"": bit" &amp; B165 &amp; "(" &amp; A165 &amp; "),", ""),"""good"": ",IF(A165 &lt;&gt; "", 1, 0),"},")</f>
-        <v>164: { "levelId": 3, "good": 0},</v>
+        <v>164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C166" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C166, Levels!B:B, 0), 1, 1)),", ",IF(A166 &lt;&gt; "", """mem"": bit" &amp; B166 &amp; "(" &amp; A166 &amp; "),", ""),"""good"": ",IF(A166 &lt;&gt; "", 1, 0),"},")</f>
-        <v>165: { "levelId": 3, "good": 0},</v>
+        <v>165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1},</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C167" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C167, Levels!B:B, 0), 1, 1)),", ",IF(A167 &lt;&gt; "", """mem"": bit" &amp; B167 &amp; "(" &amp; A167 &amp; "),", ""),"""good"": ",IF(A167 &lt;&gt; "", 1, 0),"},")</f>
-        <v>166: { "levelId": 3, "good": 0},</v>
+        <v>166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C168" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C168, Levels!B:B, 0), 1, 1)),", ",IF(A168 &lt;&gt; "", """mem"": bit" &amp; B168 &amp; "(" &amp; A168 &amp; "),", ""),"""good"": ",IF(A168 &lt;&gt; "", 1, 0),"},")</f>
-        <v>167: { "levelId": 3, "good": 0},</v>
+        <v>167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C169" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C169, Levels!B:B, 0), 1, 1)),", ",IF(A169 &lt;&gt; "", """mem"": bit" &amp; B169 &amp; "(" &amp; A169 &amp; "),", ""),"""good"": ",IF(A169 &lt;&gt; "", 1, 0),"},")</f>
-        <v>168: { "levelId": 3, "good": 0},</v>
+        <v>168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C170" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C170, Levels!B:B, 0), 1, 1)),", ",IF(A170 &lt;&gt; "", """mem"": bit" &amp; B170 &amp; "(" &amp; A170 &amp; "),", ""),"""good"": ",IF(A170 &lt;&gt; "", 1, 0),"},")</f>
-        <v>169: { "levelId": 3, "good": 0},</v>
+        <v>169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C171" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C171, Levels!B:B, 0), 1, 1)),", ",IF(A171 &lt;&gt; "", """mem"": bit" &amp; B171 &amp; "(" &amp; A171 &amp; "),", ""),"""good"": ",IF(A171 &lt;&gt; "", 1, 0),"},")</f>
-        <v>170: { "levelId": 3, "good": 0},</v>
+        <v>170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1},</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C172" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C172, Levels!B:B, 0), 1, 1)),", ",IF(A172 &lt;&gt; "", """mem"": bit" &amp; B172 &amp; "(" &amp; A172 &amp; "),", ""),"""good"": ",IF(A172 &lt;&gt; "", 1, 0),"},")</f>
-        <v>171: { "levelId": 3, "good": 0},</v>
+        <v>171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C173" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C173, Levels!B:B, 0), 1, 1)),", ",IF(A173 &lt;&gt; "", """mem"": bit" &amp; B173 &amp; "(" &amp; A173 &amp; "),", ""),"""good"": ",IF(A173 &lt;&gt; "", 1, 0),"},")</f>
-        <v>172: { "levelId": 3, "good": 0},</v>
+        <v>172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C174" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C174, Levels!B:B, 0), 1, 1)),", ",IF(A174 &lt;&gt; "", """mem"": bit" &amp; B174 &amp; "(" &amp; A174 &amp; "),", ""),"""good"": ",IF(A174 &lt;&gt; "", 1, 0),"},")</f>
-        <v>173: { "levelId": 3, "good": 0},</v>
+        <v>173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C175" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C175, Levels!B:B, 0), 1, 1)),", ",IF(A175 &lt;&gt; "", """mem"": bit" &amp; B175 &amp; "(" &amp; A175 &amp; "),", ""),"""good"": ",IF(A175 &lt;&gt; "", 1, 0),"},")</f>
-        <v>174: { "levelId": 3, "good": 0},</v>
+        <v>174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C176" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C176, Levels!B:B, 0), 1, 1)),", ",IF(A176 &lt;&gt; "", """mem"": bit" &amp; B176 &amp; "(" &amp; A176 &amp; "),", ""),"""good"": ",IF(A176 &lt;&gt; "", 1, 0),"},")</f>
-        <v>175: { "levelId": 3, "good": 0},</v>
+        <v>175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C177" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C177, Levels!B:B, 0), 1, 1)),", ",IF(A177 &lt;&gt; "", """mem"": bit" &amp; B177 &amp; "(" &amp; A177 &amp; "),", ""),"""good"": ",IF(A177 &lt;&gt; "", 1, 0),"},")</f>
-        <v>176: { "levelId": 3, "good": 0},</v>
+        <v>176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1},</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C178" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C178, Levels!B:B, 0), 1, 1)),", ",IF(A178 &lt;&gt; "", """mem"": bit" &amp; B178 &amp; "(" &amp; A178 &amp; "),", ""),"""good"": ",IF(A178 &lt;&gt; "", 1, 0),"},")</f>
-        <v>177: { "levelId": 3, "good": 0},</v>
+        <v>177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C179" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C179, Levels!B:B, 0), 1, 1)),", ",IF(A179 &lt;&gt; "", """mem"": bit" &amp; B179 &amp; "(" &amp; A179 &amp; "),", ""),"""good"": ",IF(A179 &lt;&gt; "", 1, 0),"},")</f>
-        <v>178: { "levelId": 3, "good": 0},</v>
+        <v>178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C180" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C180, Levels!B:B, 0), 1, 1)),", ",IF(A180 &lt;&gt; "", """mem"": bit" &amp; B180 &amp; "(" &amp; A180 &amp; "),", ""),"""good"": ",IF(A180 &lt;&gt; "", 1, 0),"},")</f>
-        <v>179: { "levelId": 3, "good": 0},</v>
+        <v>179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C181" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C181, Levels!B:B, 0), 1, 1)),", ",IF(A181 &lt;&gt; "", """mem"": bit" &amp; B181 &amp; "(" &amp; A181 &amp; "),", ""),"""good"": ",IF(A181 &lt;&gt; "", 1, 0),"},")</f>
-        <v>180: { "levelId": 3, "good": 0},</v>
+        <v>180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C182" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C182, Levels!B:B, 0), 1, 1)),", ",IF(A182 &lt;&gt; "", """mem"": bit" &amp; B182 &amp; "(" &amp; A182 &amp; "),", ""),"""good"": ",IF(A182 &lt;&gt; "", 1, 0),"},")</f>
-        <v>181: { "levelId": 3, "good": 0},</v>
+        <v>181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C183" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C183, Levels!B:B, 0), 1, 1)),", ",IF(A183 &lt;&gt; "", """mem"": bit" &amp; B183 &amp; "(" &amp; A183 &amp; "),", ""),"""good"": ",IF(A183 &lt;&gt; "", 1, 0),"},")</f>
-        <v>182: { "levelId": 3, "good": 0},</v>
+        <v>182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C184" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C184, Levels!B:B, 0), 1, 1)),", ",IF(A184 &lt;&gt; "", """mem"": bit" &amp; B184 &amp; "(" &amp; A184 &amp; "),", ""),"""good"": ",IF(A184 &lt;&gt; "", 1, 0),"},")</f>
-        <v>183: { "levelId": 3, "good": 0},</v>
+        <v>183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C185" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C185, Levels!B:B, 0), 1, 1)),", ",IF(A185 &lt;&gt; "", """mem"": bit" &amp; B185 &amp; "(" &amp; A185 &amp; "),", ""),"""good"": ",IF(A185 &lt;&gt; "", 1, 0),"},")</f>
-        <v>184: { "levelId": 3, "good": 0},</v>
+        <v>184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1},</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C186" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C186, Levels!B:B, 0), 1, 1)),", ",IF(A186 &lt;&gt; "", """mem"": bit" &amp; B186 &amp; "(" &amp; A186 &amp; "),", ""),"""good"": ",IF(A186 &lt;&gt; "", 1, 0),"},")</f>
-        <v>185: { "levelId": 3, "good": 0},</v>
+        <v>185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C187" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C187, Levels!B:B, 0), 1, 1)),", ",IF(A187 &lt;&gt; "", """mem"": bit" &amp; B187 &amp; "(" &amp; A187 &amp; "),", ""),"""good"": ",IF(A187 &lt;&gt; "", 1, 0),"},")</f>
-        <v>186: { "levelId": 3, "good": 0},</v>
+        <v>186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C188" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C188, Levels!B:B, 0), 1, 1)),", ",IF(A188 &lt;&gt; "", """mem"": bit" &amp; B188 &amp; "(" &amp; A188 &amp; "),", ""),"""good"": ",IF(A188 &lt;&gt; "", 1, 0),"},")</f>
-        <v>187: { "levelId": 3, "good": 0},</v>
+        <v>187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C189" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C189, Levels!B:B, 0), 1, 1)),", ",IF(A189 &lt;&gt; "", """mem"": bit" &amp; B189 &amp; "(" &amp; A189 &amp; "),", ""),"""good"": ",IF(A189 &lt;&gt; "", 1, 0),"},")</f>
-        <v>188: { "levelId": 3, "good": 0},</v>
+        <v>188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C190" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C190, Levels!B:B, 0), 1, 1)),", ",IF(A190 &lt;&gt; "", """mem"": bit" &amp; B190 &amp; "(" &amp; A190 &amp; "),", ""),"""good"": ",IF(A190 &lt;&gt; "", 1, 0),"},")</f>
-        <v>189: { "levelId": 3, "good": 0},</v>
+        <v>189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C191" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C191, Levels!B:B, 0), 1, 1)),", ",IF(A191 &lt;&gt; "", """mem"": bit" &amp; B191 &amp; "(" &amp; A191 &amp; "),", ""),"""good"": ",IF(A191 &lt;&gt; "", 1, 0),"},")</f>
-        <v>190: { "levelId": 3, "good": 0},</v>
+        <v>190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C192" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C192, Levels!B:B, 0), 1, 1)),", ",IF(A192 &lt;&gt; "", """mem"": bit" &amp; B192 &amp; "(" &amp; A192 &amp; "),", ""),"""good"": ",IF(A192 &lt;&gt; "", 1, 0),"},")</f>
-        <v>191: { "levelId": 3, "good": 0},</v>
+        <v>191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C193" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C193, Levels!B:B, 0), 1, 1)),", ",IF(A193 &lt;&gt; "", """mem"": bit" &amp; B193 &amp; "(" &amp; A193 &amp; "),", ""),"""good"": ",IF(A193 &lt;&gt; "", 1, 0),"},")</f>
-        <v>192: { "levelId": 3, "good": 0},</v>
+        <v>192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1},</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17432,10 +17856,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -17445,13 +17869,13 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -17462,7 +17886,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -17476,12 +17900,12 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D81)</f>
-        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},19: { "levelId": 3, "good": 0},20: { "levelId": 3, "good": 0},21: { "levelId": 3, "good": 0},22: { "levelId": 3, "good": 0},23: { "levelId": 3, "good": 0},24: { "levelId": 3, "good": 0},25: { "levelId": 3, "good": 0},26: { "levelId": 3, "good": 0},27: { "levelId": 3, "good": 0},28: { "levelId": 3, "good": 0},29: { "levelId": 3, "good": 0},30: { "levelId": 3, "good": 0},31: { "levelId": 3, "good": 0},32: { "levelId": 3, "good": 0},33: { "levelId": 3, "good": 0},34: { "levelId": 3, "good": 0},35: { "levelId": 3, "good": 0},36: { "levelId": 3, "good": 0},37: { "levelId": 3, "good": 0},38: { "levelId": 3, "good": 0},39: { "levelId": 3, "good": 0},40: { "levelId": 3, "good": 0},41: { "levelId": 3, "good": 0},42: { "levelId": 3, "good": 0},43: { "levelId": 3, "good": 0},44: { "levelId": 3, "good": 0},45: { "levelId": 3, "good": 0},46: { "levelId": 3, "good": 0},47: { "levelId": 3, "good": 0},48: { "levelId": 3, "good": 0},49: { "levelId": 3, "good": 0},50: { "levelId": 3, "good": 0},51: { "levelId": 3, "good": 0},52: { "levelId": 3, "good": 0},53: { "levelId": 3, "good": 0},54: { "levelId": 3, "good": 0},55: { "levelId": 3, "good": 0},56: { "levelId": 3, "good": 0},57: { "levelId": 3, "good": 0},58: { "levelId": 3, "good": 0},59: { "levelId": 3, "good": 0},60: { "levelId": 3, "good": 0},61: { "levelId": 3, "good": 0},62: { "levelId": 3, "good": 0},63: { "levelId": 3, "good": 0},64: { "levelId": 3, "good": 0},65: { "levelId": 3, "good": 0},66: { "levelId": 3, "good": 0},67: { "levelId": 3, "good": 0},68: { "levelId": 3, "good": 0},69: { "levelId": 3, "good": 0},70: { "levelId": 3, "good": 0},71: { "levelId": 3, "good": 0},72: { "levelId": 3, "good": 0},73: { "levelId": 3, "good": 0},74: { "levelId": 3, "good": 0},75: { "levelId": 3, "good": 0},76: { "levelId": 3, "good": 0},77: { "levelId": 3, "good": 0},78: { "levelId": 3, "good": 0},79: { "levelId": 3, "good": 0},80: { "levelId": 3, "good": 0},</v>
+        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},19: { "levelId": 8, "mem": bit5(0x2249f3),"good": 1},20: { "levelId": 8, "mem": bit4(0x2249f3),"good": 1},21: { "levelId": 3, "good": 0},22: { "levelId": 3, "good": 0},23: { "levelId": 3, "good": 0},24: { "levelId": 3, "good": 0},25: { "levelId": 3, "good": 0},26: { "levelId": 3, "good": 0},27: { "levelId": 3, "good": 0},28: { "levelId": 3, "good": 0},29: { "levelId": 3, "good": 0},30: { "levelId": 3, "good": 0},31: { "levelId": 3, "good": 0},32: { "levelId": 3, "good": 0},33: { "levelId": 3, "good": 0},34: { "levelId": 3, "good": 0},35: { "levelId": 3, "good": 0},36: { "levelId": 3, "good": 0},37: { "levelId": 3, "good": 0},38: { "levelId": 3, "good": 0},39: { "levelId": 3, "good": 0},40: { "levelId": 3, "good": 0},41: { "levelId": 3, "good": 0},42: { "levelId": 3, "good": 0},43: { "levelId": 3, "good": 0},44: { "levelId": 3, "good": 0},45: { "levelId": 3, "good": 0},46: { "levelId": 3, "good": 0},47: { "levelId": 3, "good": 0},48: { "levelId": 3, "good": 0},49: { "levelId": 3, "good": 0},50: { "levelId": 3, "good": 0},51: { "levelId": 3, "good": 0},52: { "levelId": 3, "good": 0},53: { "levelId": 3, "good": 0},54: { "levelId": 3, "good": 0},55: { "levelId": 3, "good": 0},56: { "levelId": 3, "good": 0},57: { "levelId": 3, "good": 0},58: { "levelId": 3, "good": 0},59: { "levelId": 3, "good": 0},60: { "levelId": 3, "good": 0},61: { "levelId": 3, "good": 0},62: { "levelId": 3, "good": 0},63: { "levelId": 3, "good": 0},64: { "levelId": 3, "good": 0},65: { "levelId": 3, "good": 0},66: { "levelId": 3, "good": 0},67: { "levelId": 3, "good": 0},68: { "levelId": 3, "good": 0},69: { "levelId": 3, "good": 0},70: { "levelId": 3, "good": 0},71: { "levelId": 3, "good": 0},72: { "levelId": 3, "good": 0},73: { "levelId": 3, "good": 0},74: { "levelId": 3, "good": 0},75: { "levelId": 3, "good": 0},76: { "levelId": 3, "good": 0},77: { "levelId": 3, "good": 0},78: { "levelId": 3, "good": 0},79: { "levelId": 3, "good": 0},80: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -17496,7 +17920,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -17511,7 +17935,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -17526,7 +17950,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6</v>
@@ -17541,7 +17965,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>7</v>
@@ -17556,7 +17980,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -17571,7 +17995,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -17586,7 +18010,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -17601,7 +18025,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -17616,7 +18040,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -17631,7 +18055,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
@@ -17646,7 +18070,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -17661,7 +18085,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -17676,7 +18100,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -17691,7 +18115,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -17706,7 +18130,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -17721,7 +18145,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -17735,21 +18159,33 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C20, Levels!B:B, 0), 1, 1)),", ",IF(A20 &lt;&gt; "", """mem"": bit" &amp; B20 &amp; "(" &amp; A20 &amp; "),", ""),"""good"": ",IF(A20 &lt;&gt; "", 1, 0),"},")</f>
-        <v>19: { "levelId": 3, "good": 0},</v>
+        <v>19: { "levelId": 8, "mem": bit5(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C21, Levels!B:B, 0), 1, 1)),", ",IF(A21 &lt;&gt; "", """mem"": bit" &amp; B21 &amp; "(" &amp; A21 &amp; "),", ""),"""good"": ",IF(A21 &lt;&gt; "", 1, 0),"},")</f>
-        <v>20: { "levelId": 3, "good": 0},</v>
+        <v>20: { "levelId": 8, "mem": bit4(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="115">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -208,6 +208,33 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">751974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the bonus stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenhirArea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the Menhir Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menhir Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78FBD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenhirArea2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
@@ -310,6 +337,21 @@
     <t xml:space="preserve">0x2249a0</t>
   </si>
   <si>
+    <t xml:space="preserve">0x2249a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Level ID</t>
   </si>
   <si>
@@ -323,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x2249f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249f4</t>
   </si>
 </sst>
 </file>
@@ -530,19 +575,19 @@
   </sheetPr>
   <dimension ref="A1:H1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +611,7 @@
       </c>
       <c r="H1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
-        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },</v>
+        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,13 +957,58 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A21,": { ""id"": ","0x", A21,", ""areaName"": """,B21,""", ""displayName"": """,C21,""", ""levelName"": """,D21,""" },")</f>
+        <v>0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A22,": { ""id"": ","0x", A22,", ""areaName"": """,B22,""", ""displayName"": """,C22,""", ""levelName"": """,D22,""" },")</f>
+        <v>0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A23,": { ""id"": ","0x", A23,", ""areaName"": """,B23,""", ""displayName"": """,C23,""", ""levelName"": """,D23,""" },")</f>
+        <v>0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4"/>
@@ -3923,10 +4013,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -3938,22 +4028,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -4029,11 +4119,11 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C3:C1002, "=" &amp; B4)</f>
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C3:C83, "=" &amp; B4)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A4,": { ""id"": ",A4,", ""name"": """,B4,""", ""lums"": ",C4,", ""cages"": ",D4," },")</f>
@@ -4207,18 +4297,26 @@
         <f aca="false">ROW()-1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="E11" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C10:C1009, "=" &amp; B11)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C10:C90, "=" &amp; B11)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A11,": { ""id"": ",A11,", ""name"": """,B11,""", ""lums"": ",C11,", ""cages"": ",D11," },")</f>
-        <v>10: { "id": 10, "name": "", "lums": , "cages":  },</v>
+        <v>10: { "id": 10, "name": "Menhir Hills", "lums": 50, "cages": 8 },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,13 +7734,13 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="D216" activeCellId="0" sqref="D216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7651,10 +7749,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -7667,12 +7765,12 @@
       </c>
       <c r="H1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1},193: { "levelId": 3, "good": 0},194: { "levelId": 3, "good": 0},195: { "levelId": 3, "good": 0},196: { "levelId": 3, "good": 0},197: { "levelId": 3, "good": 0},198: { "levelId": 3, "good": 0},199: { "levelId": 3, "good": 0},200: { "levelId": 3, "good": 0},201: { "levelId": 3, "good": 0},202: { "levelId": 3, "good": 0},203: { "levelId": 3, "good": 0},204: { "levelId": 3, "good": 0},205: { "levelId": 3, "good": 0},206: { "levelId": 3, "good": 0},207: { "levelId": 3, "good": 0},208: { "levelId": 3, "good": 0},209: { "levelId": 3, "good": 0},210: { "levelId": 3, "good": 0},211: { "levelId": 3, "good": 0},212: { "levelId": 3, "good": 0},213: { "levelId": 3, "good": 0},214: { "levelId": 3, "good": 0},215: { "levelId": 3, "good": 0},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1},216: { "levelId": 3, "good": 0},217: { "levelId": 3, "good": 0},218: { "levelId": 3, "good": 0},219: { "levelId": 3, "good": 0},220: { "levelId": 3, "good": 0},221: { "levelId": 3, "good": 0},222: { "levelId": 3, "good": 0},223: { "levelId": 3, "good": 0},224: { "levelId": 3, "good": 0},225: { "levelId": 3, "good": 0},226: { "levelId": 3, "good": 0},227: { "levelId": 3, "good": 0},228: { "levelId": 3, "good": 0},229: { "levelId": 3, "good": 0},230: { "levelId": 3, "good": 0},231: { "levelId": 3, "good": 0},232: { "levelId": 3, "good": 0},233: { "levelId": 3, "good": 0},234: { "levelId": 3, "good": 0},235: { "levelId": 3, "good": 0},236: { "levelId": 3, "good": 0},237: { "levelId": 3, "good": 0},238: { "levelId": 3, "good": 0},239: { "levelId": 3, "good": 0},240: { "levelId": 3, "good": 0},241: { "levelId": 3, "good": 0},242: { "levelId": 3, "good": 0},243: { "levelId": 3, "good": 0},244: { "levelId": 3, "good": 0},245: { "levelId": 3, "good": 0},246: { "levelId": 3, "good": 0},247: { "levelId": 3, "good": 0},248: { "levelId": 3, "good": 0},249: { "levelId": 3, "good": 0},250: { "levelId": 3, "good": 0},251: { "levelId": 3, "good": 0},252: { "levelId": 3, "good": 0},253: { "levelId": 3, "good": 0},254: { "levelId": 3, "good": 0},255: { "levelId": 3, "good": 0},256: { "levelId": 3, "good": 0},257: { "levelId": 3, "good": 0},258: { "levelId": 3, "good": 0},259: { "levelId": 3, "good": 0},260: { "levelId": 3, "good": 0},261: { "levelId": 3, "good": 0},262: { "levelId": 3, "good": 0},263: { "levelId": 3, "good": 0},264: { "levelId": 3, "good": 0},265: { "levelId": 3, "good": 0},266: { "levelId": 3, "good": 0},267: { "levelId": 3, "good": 0},268: { "levelId": 3, "good": 0},269: { "levelId": 3, "good": 0},270: { "levelId": 3, "good": 0},271: { "levelId": 3, "good": 0},272: { "levelId": 3, "good": 0},273: { "levelId": 3, "good": 0},274: { "levelId": 3, "good": 0},275: { "levelId": 3, "good": 0},276: { "levelId": 3, "good": 0},277: { "levelId": 3, "good": 0},278: { "levelId": 3, "good": 0},279: { "levelId": 3, "good": 0},280: { "levelId": 3, "good": 0},281: { "levelId": 3, "good": 0},282: { "levelId": 3, "good": 0},283: { "levelId": 3, "good": 0},284: { "levelId": 3, "good": 0},285: { "levelId": 3, "good": 0},286: { "levelId": 3, "good": 0},287: { "levelId": 3, "good": 0},288: { "levelId": 3, "good": 0},289: { "levelId": 3, "good": 0},290: { "levelId": 3, "good": 0},291: { "levelId": 3, "good": 0},292: { "levelId": 3, "good": 0},293: { "levelId": 3, "good": 0},294: { "levelId": 3, "good": 0},295: { "levelId": 3, "good": 0},296: { "levelId": 3, "good": 0},297: { "levelId": 3, "good": 0},298: { "levelId": 3, "good": 0},299: { "levelId": 3, "good": 0},300: { "levelId": 3, "good": 0},301: { "levelId": 3, "good": 0},302: { "levelId": 3, "good": 0},303: { "levelId": 3, "good": 0},304: { "levelId": 3, "good": 0},305: { "levelId": 3, "good": 0},306: { "levelId": 3, "good": 0},307: { "levelId": 3, "good": 0},308: { "levelId": 3, "good": 0},309: { "levelId": 3, "good": 0},310: { "levelId": 3, "good": 0},311: { "levelId": 3, "good": 0},312: { "levelId": 3, "good": 0},313: { "levelId": 3, "good": 0},314: { "levelId": 3, "good": 0},315: { "levelId": 3, "good": 0},316: { "levelId": 3, "good": 0},317: { "levelId": 3, "good": 0},318: { "levelId": 3, "good": 0},319: { "levelId": 3, "good": 0},320: { "levelId": 3, "good": 0},321: { "levelId": 3, "good": 0},322: { "levelId": 3, "good": 0},323: { "levelId": 3, "good": 0},324: { "levelId": 3, "good": 0},325: { "levelId": 3, "good": 0},326: { "levelId": 3, "good": 0},327: { "levelId": 3, "good": 0},328: { "levelId": 3, "good": 0},329: { "levelId": 3, "good": 0},330: { "levelId": 3, "good": 0},331: { "levelId": 3, "good": 0},332: { "levelId": 3, "good": 0},333: { "levelId": 3, "good": 0},334: { "levelId": 3, "good": 0},335: { "levelId": 3, "good": 0},336: { "levelId": 3, "good": 0},337: { "levelId": 3, "good": 0},338: { "levelId": 3, "good": 0},339: { "levelId": 3, "good": 0},340: { "levelId": 3, "good": 0},341: { "levelId": 3, "good": 0},342: { "levelId": 3, "good": 0},343: { "levelId": 3, "good": 0},344: { "levelId": 3, "good": 0},345: { "levelId": 3, "good": 0},346: { "levelId": 3, "good": 0},347: { "levelId": 3, "good": 0},348: { "levelId": 3, "good": 0},349: { "levelId": 3, "good": 0},350: { "levelId": 3, "good": 0},351: { "levelId": 3, "good": 0},352: { "levelId": 3, "good": 0},353: { "levelId": 3, "good": 0},354: { "levelId": 3, "good": 0},355: { "levelId": 3, "good": 0},356: { "levelId": 3, "good": 0},357: { "levelId": 3, "good": 0},358: { "levelId": 3, "good": 0},359: { "levelId": 3, "good": 0},360: { "levelId": 3, "good": 0},361: { "levelId": 3, "good": 0},362: { "levelId": 3, "good": 0},363: { "levelId": 3, "good": 0},364: { "levelId": 3, "good": 0},365: { "levelId": 3, "good": 0},366: { "levelId": 3, "good": 0},367: { "levelId": 3, "good": 0},368: { "levelId": 3, "good": 0},369: { "levelId": 3, "good": 0},370: { "levelId": 3, "good": 0},371: { "levelId": 3, "good": 0},372: { "levelId": 3, "good": 0},373: { "levelId": 3, "good": 0},374: { "levelId": 3, "good": 0},375: { "levelId": 3, "good": 0},376: { "levelId": 3, "good": 0},377: { "levelId": 3, "good": 0},378: { "levelId": 3, "good": 0},379: { "levelId": 3, "good": 0},380: { "levelId": 3, "good": 0},381: { "levelId": 3, "good": 0},382: { "levelId": 3, "good": 0},383: { "levelId": 3, "good": 0},384: { "levelId": 3, "good": 0},385: { "levelId": 3, "good": 0},386: { "levelId": 3, "good": 0},387: { "levelId": 3, "good": 0},388: { "levelId": 3, "good": 0},389: { "levelId": 3, "good": 0},390: { "levelId": 3, "good": 0},391: { "levelId": 3, "good": 0},392: { "levelId": 3, "good": 0},393: { "levelId": 3, "good": 0},394: { "levelId": 3, "good": 0},395: { "levelId": 3, "good": 0},396: { "levelId": 3, "good": 0},397: { "levelId": 3, "good": 0},398: { "levelId": 3, "good": 0},399: { "levelId": 3, "good": 0},400: { "levelId": 3, "good": 0},401: { "levelId": 3, "good": 0},402: { "levelId": 3, "good": 0},403: { "levelId": 3, "good": 0},404: { "levelId": 3, "good": 0},405: { "levelId": 3, "good": 0},406: { "levelId": 3, "good": 0},407: { "levelId": 3, "good": 0},408: { "levelId": 3, "good": 0},409: { "levelId": 3, "good": 0},410: { "levelId": 3, "good": 0},411: { "levelId": 3, "good": 0},412: { "levelId": 3, "good": 0},413: { "levelId": 3, "good": 0},414: { "levelId": 3, "good": 0},415: { "levelId": 3, "good": 0},416: { "levelId": 3, "good": 0},417: { "levelId": 3, "good": 0},418: { "levelId": 3, "good": 0},419: { "levelId": 3, "good": 0},420: { "levelId": 3, "good": 0},421: { "levelId": 3, "good": 0},422: { "levelId": 3, "good": 0},423: { "levelId": 3, "good": 0},424: { "levelId": 3, "good": 0},425: { "levelId": 3, "good": 0},426: { "levelId": 3, "good": 0},427: { "levelId": 3, "good": 0},428: { "levelId": 3, "good": 0},429: { "levelId": 3, "good": 0},430: { "levelId": 3, "good": 0},431: { "levelId": 3, "good": 0},432: { "levelId": 3, "good": 0},433: { "levelId": 3, "good": 0},434: { "levelId": 3, "good": 0},435: { "levelId": 3, "good": 0},436: { "levelId": 3, "good": 0},437: { "levelId": 3, "good": 0},438: { "levelId": 3, "good": 0},439: { "levelId": 3, "good": 0},440: { "levelId": 3, "good": 0},441: { "levelId": 3, "good": 0},442: { "levelId": 3, "good": 0},443: { "levelId": 3, "good": 0},444: { "levelId": 3, "good": 0},445: { "levelId": 3, "good": 0},446: { "levelId": 3, "good": 0},447: { "levelId": 3, "good": 0},448: { "levelId": 3, "good": 0},449: { "levelId": 3, "good": 0},450: { "levelId": 3, "good": 0},451: { "levelId": 3, "good": 0},452: { "levelId": 3, "good": 0},453: { "levelId": 3, "good": 0},454: { "levelId": 3, "good": 0},455: { "levelId": 3, "good": 0},456: { "levelId": 3, "good": 0},457: { "levelId": 3, "good": 0},458: { "levelId": 3, "good": 0},459: { "levelId": 3, "good": 0},460: { "levelId": 3, "good": 0},461: { "levelId": 3, "good": 0},462: { "levelId": 3, "good": 0},463: { "levelId": 3, "good": 0},464: { "levelId": 3, "good": 0},465: { "levelId": 3, "good": 0},466: { "levelId": 3, "good": 0},467: { "levelId": 3, "good": 0},468: { "levelId": 3, "good": 0},469: { "levelId": 3, "good": 0},470: { "levelId": 3, "good": 0},471: { "levelId": 3, "good": 0},472: { "levelId": 3, "good": 0},473: { "levelId": 3, "good": 0},474: { "levelId": 3, "good": 0},475: { "levelId": 3, "good": 0},476: { "levelId": 3, "good": 0},477: { "levelId": 3, "good": 0},478: { "levelId": 3, "good": 0},479: { "levelId": 3, "good": 0},480: { "levelId": 3, "good": 0},481: { "levelId": 3, "good": 0},482: { "levelId": 3, "good": 0},483: { "levelId": 3, "good": 0},484: { "levelId": 3, "good": 0},485: { "levelId": 3, "good": 0},486: { "levelId": 3, "good": 0},487: { "levelId": 3, "good": 0},488: { "levelId": 3, "good": 0},489: { "levelId": 3, "good": 0},490: { "levelId": 3, "good": 0},491: { "levelId": 3, "good": 0},492: { "levelId": 3, "good": 0},493: { "levelId": 3, "good": 0},494: { "levelId": 3, "good": 0},495: { "levelId": 3, "good": 0},496: { "levelId": 3, "good": 0},497: { "levelId": 3, "good": 0},498: { "levelId": 3, "good": 0},499: { "levelId": 3, "good": 0},500: { "levelId": 3, "good": 0},501: { "levelId": 3, "good": 0},502: { "levelId": 3, "good": 0},503: { "levelId": 3, "good": 0},504: { "levelId": 3, "good": 0},505: { "levelId": 3, "good": 0},506: { "levelId": 3, "good": 0},507: { "levelId": 3, "good": 0},508: { "levelId": 3, "good": 0},509: { "levelId": 3, "good": 0},510: { "levelId": 3, "good": 0},511: { "levelId": 3, "good": 0},512: { "levelId": 3, "good": 0},513: { "levelId": 3, "good": 0},514: { "levelId": 3, "good": 0},515: { "levelId": 3, "good": 0},516: { "levelId": 3, "good": 0},517: { "levelId": 3, "good": 0},518: { "levelId": 3, "good": 0},519: { "levelId": 3, "good": 0},520: { "levelId": 3, "good": 0},521: { "levelId": 3, "good": 0},522: { "levelId": 3, "good": 0},523: { "levelId": 3, "good": 0},524: { "levelId": 3, "good": 0},525: { "levelId": 3, "good": 0},526: { "levelId": 3, "good": 0},527: { "levelId": 3, "good": 0},528: { "levelId": 3, "good": 0},529: { "levelId": 3, "good": 0},530: { "levelId": 3, "good": 0},531: { "levelId": 3, "good": 0},532: { "levelId": 3, "good": 0},533: { "levelId": 3, "good": 0},534: { "levelId": 3, "good": 0},535: { "levelId": 3, "good": 0},536: { "levelId": 3, "good": 0},537: { "levelId": 3, "good": 0},538: { "levelId": 3, "good": 0},539: { "levelId": 3, "good": 0},540: { "levelId": 3, "good": 0},541: { "levelId": 3, "good": 0},542: { "levelId": 3, "good": 0},543: { "levelId": 3, "good": 0},544: { "levelId": 3, "good": 0},545: { "levelId": 3, "good": 0},546: { "levelId": 3, "good": 0},547: { "levelId": 3, "good": 0},548: { "levelId": 3, "good": 0},549: { "levelId": 3, "good": 0},550: { "levelId": 3, "good": 0},551: { "levelId": 3, "good": 0},552: { "levelId": 3, "good": 0},553: { "levelId": 3, "good": 0},554: { "levelId": 3, "good": 0},555: { "levelId": 3, "good": 0},556: { "levelId": 3, "good": 0},557: { "levelId": 3, "good": 0},558: { "levelId": 3, "good": 0},559: { "levelId": 3, "good": 0},560: { "levelId": 3, "good": 0},561: { "levelId": 3, "good": 0},562: { "levelId": 3, "good": 0},563: { "levelId": 3, "good": 0},564: { "levelId": 3, "good": 0},565: { "levelId": 3, "good": 0},566: { "levelId": 3, "good": 0},567: { "levelId": 3, "good": 0},568: { "levelId": 3, "good": 0},569: { "levelId": 3, "good": 0},570: { "levelId": 3, "good": 0},571: { "levelId": 3, "good": 0},572: { "levelId": 3, "good": 0},573: { "levelId": 3, "good": 0},574: { "levelId": 3, "good": 0},575: { "levelId": 3, "good": 0},576: { "levelId": 3, "good": 0},577: { "levelId": 3, "good": 0},578: { "levelId": 3, "good": 0},579: { "levelId": 3, "good": 0},580: { "levelId": 3, "good": 0},581: { "levelId": 3, "good": 0},582: { "levelId": 3, "good": 0},583: { "levelId": 3, "good": 0},584: { "levelId": 3, "good": 0},585: { "levelId": 3, "good": 0},586: { "levelId": 3, "good": 0},587: { "levelId": 3, "good": 0},588: { "levelId": 3, "good": 0},589: { "levelId": 3, "good": 0},590: { "levelId": 3, "good": 0},591: { "levelId": 3, "good": 0},592: { "levelId": 3, "good": 0},593: { "levelId": 3, "good": 0},594: { "levelId": 3, "good": 0},595: { "levelId": 3, "good": 0},596: { "levelId": 3, "good": 0},597: { "levelId": 3, "good": 0},598: { "levelId": 3, "good": 0},599: { "levelId": 3, "good": 0},600: { "levelId": 3, "good": 0},601: { "levelId": 3, "good": 0},602: { "levelId": 3, "good": 0},603: { "levelId": 3, "good": 0},604: { "levelId": 3, "good": 0},605: { "levelId": 3, "good": 0},606: { "levelId": 3, "good": 0},607: { "levelId": 3, "good": 0},608: { "levelId": 3, "good": 0},609: { "levelId": 3, "good": 0},610: { "levelId": 3, "good": 0},611: { "levelId": 3, "good": 0},612: { "levelId": 3, "good": 0},613: { "levelId": 3, "good": 0},614: { "levelId": 3, "good": 0},615: { "levelId": 3, "good": 0},616: { "levelId": 3, "good": 0},617: { "levelId": 3, "good": 0},618: { "levelId": 3, "good": 0},619: { "levelId": 3, "good": 0},620: { "levelId": 3, "good": 0},621: { "levelId": 3, "good": 0},622: { "levelId": 3, "good": 0},623: { "levelId": 3, "good": 0},624: { "levelId": 3, "good": 0},625: { "levelId": 3, "good": 0},626: { "levelId": 3, "good": 0},627: { "levelId": 3, "good": 0},628: { "levelId": 3, "good": 0},629: { "levelId": 3, "good": 0},630: { "levelId": 3, "good": 0},631: { "levelId": 3, "good": 0},632: { "levelId": 3, "good": 0},633: { "levelId": 3, "good": 0},634: { "levelId": 3, "good": 0},635: { "levelId": 3, "good": 0},636: { "levelId": 3, "good": 0},637: { "levelId": 3, "good": 0},638: { "levelId": 3, "good": 0},639: { "levelId": 3, "good": 0},640: { "levelId": 3, "good": 0},641: { "levelId": 3, "good": 0},642: { "levelId": 3, "good": 0},643: { "levelId": 3, "good": 0},644: { "levelId": 3, "good": 0},645: { "levelId": 3, "good": 0},646: { "levelId": 3, "good": 0},647: { "levelId": 3, "good": 0},648: { "levelId": 3, "good": 0},649: { "levelId": 3, "good": 0},650: { "levelId": 3, "good": 0},651: { "levelId": 3, "good": 0},652: { "levelId": 3, "good": 0},653: { "levelId": 3, "good": 0},654: { "levelId": 3, "good": 0},655: { "levelId": 3, "good": 0},656: { "levelId": 3, "good": 0},657: { "levelId": 3, "good": 0},658: { "levelId": 3, "good": 0},659: { "levelId": 3, "good": 0},660: { "levelId": 3, "good": 0},661: { "levelId": 3, "good": 0},662: { "levelId": 3, "good": 0},663: { "levelId": 3, "good": 0},664: { "levelId": 3, "good": 0},665: { "levelId": 3, "good": 0},666: { "levelId": 3, "good": 0},667: { "levelId": 3, "good": 0},668: { "levelId": 3, "good": 0},669: { "levelId": 3, "good": 0},670: { "levelId": 3, "good": 0},671: { "levelId": 3, "good": 0},672: { "levelId": 3, "good": 0},673: { "levelId": 3, "good": 0},674: { "levelId": 3, "good": 0},675: { "levelId": 3, "good": 0},676: { "levelId": 3, "good": 0},677: { "levelId": 3, "good": 0},678: { "levelId": 3, "good": 0},679: { "levelId": 3, "good": 0},680: { "levelId": 3, "good": 0},681: { "levelId": 3, "good": 0},682: { "levelId": 3, "good": 0},683: { "levelId": 3, "good": 0},684: { "levelId": 3, "good": 0},685: { "levelId": 3, "good": 0},686: { "levelId": 3, "good": 0},687: { "levelId": 3, "good": 0},688: { "levelId": 3, "good": 0},689: { "levelId": 3, "good": 0},690: { "levelId": 3, "good": 0},691: { "levelId": 3, "good": 0},692: { "levelId": 3, "good": 0},693: { "levelId": 3, "good": 0},694: { "levelId": 3, "good": 0},695: { "levelId": 3, "good": 0},696: { "levelId": 3, "good": 0},697: { "levelId": 3, "good": 0},698: { "levelId": 3, "good": 0},699: { "levelId": 3, "good": 0},700: { "levelId": 3, "good": 0},701: { "levelId": 3, "good": 0},702: { "levelId": 3, "good": 0},703: { "levelId": 3, "good": 0},704: { "levelId": 3, "good": 0},705: { "levelId": 3, "good": 0},706: { "levelId": 3, "good": 0},707: { "levelId": 3, "good": 0},708: { "levelId": 3, "good": 0},709: { "levelId": 3, "good": 0},710: { "levelId": 3, "good": 0},711: { "levelId": 3, "good": 0},712: { "levelId": 3, "good": 0},713: { "levelId": 3, "good": 0},714: { "levelId": 3, "good": 0},715: { "levelId": 3, "good": 0},716: { "levelId": 3, "good": 0},717: { "levelId": 3, "good": 0},718: { "levelId": 3, "good": 0},719: { "levelId": 3, "good": 0},720: { "levelId": 3, "good": 0},721: { "levelId": 3, "good": 0},722: { "levelId": 3, "good": 0},723: { "levelId": 3, "good": 0},724: { "levelId": 3, "good": 0},725: { "levelId": 3, "good": 0},726: { "levelId": 3, "good": 0},727: { "levelId": 3, "good": 0},728: { "levelId": 3, "good": 0},729: { "levelId": 3, "good": 0},730: { "levelId": 3, "good": 0},731: { "levelId": 3, "good": 0},732: { "levelId": 3, "good": 0},733: { "levelId": 3, "good": 0},734: { "levelId": 3, "good": 0},735: { "levelId": 3, "good": 0},736: { "levelId": 3, "good": 0},737: { "levelId": 3, "good": 0},738: { "levelId": 3, "good": 0},739: { "levelId": 3, "good": 0},740: { "levelId": 3, "good": 0},741: { "levelId": 3, "good": 0},742: { "levelId": 3, "good": 0},743: { "levelId": 3, "good": 0},744: { "levelId": 3, "good": 0},745: { "levelId": 3, "good": 0},746: { "levelId": 3, "good": 0},747: { "levelId": 3, "good": 0},748: { "levelId": 3, "good": 0},749: { "levelId": 3, "good": 0},750: { "levelId": 3, "good": 0},751: { "levelId": 3, "good": 0},752: { "levelId": 3, "good": 0},753: { "levelId": 3, "good": 0},754: { "levelId": 3, "good": 0},755: { "levelId": 3, "good": 0},756: { "levelId": 3, "good": 0},757: { "levelId": 3, "good": 0},758: { "levelId": 3, "good": 0},759: { "levelId": 3, "good": 0},760: { "levelId": 3, "good": 0},761: { "levelId": 3, "good": 0},762: { "levelId": 3, "good": 0},763: { "levelId": 3, "good": 0},764: { "levelId": 3, "good": 0},765: { "levelId": 3, "good": 0},766: { "levelId": 3, "good": 0},767: { "levelId": 3, "good": 0},768: { "levelId": 3, "good": 0},769: { "levelId": 3, "good": 0},770: { "levelId": 3, "good": 0},771: { "levelId": 3, "good": 0},772: { "levelId": 3, "good": 0},773: { "levelId": 3, "good": 0},774: { "levelId": 3, "good": 0},775: { "levelId": 3, "good": 0},776: { "levelId": 3, "good": 0},777: { "levelId": 3, "good": 0},778: { "levelId": 3, "good": 0},779: { "levelId": 3, "good": 0},780: { "levelId": 3, "good": 0},781: { "levelId": 3, "good": 0},782: { "levelId": 3, "good": 0},783: { "levelId": 3, "good": 0},784: { "levelId": 3, "good": 0},785: { "levelId": 3, "good": 0},786: { "levelId": 3, "good": 0},787: { "levelId": 3, "good": 0},788: { "levelId": 3, "good": 0},789: { "levelId": 3, "good": 0},790: { "levelId": 3, "good": 0},791: { "levelId": 3, "good": 0},792: { "levelId": 3, "good": 0},793: { "levelId": 3, "good": 0},794: { "levelId": 3, "good": 0},795: { "levelId": 3, "good": 0},796: { "levelId": 3, "good": 0},797: { "levelId": 3, "good": 0},798: { "levelId": 3, "good": 0},799: { "levelId": 3, "good": 0},800: { "levelId": 3, "good": 0},801: { "levelId": 3, "good": 0},802: { "levelId": 3, "good": 0},803: { "levelId": 3, "good": 0},804: { "levelId": 3, "good": 0},805: { "levelId": 3, "good": 0},806: { "levelId": 3, "good": 0},807: { "levelId": 3, "good": 0},808: { "levelId": 3, "good": 0},809: { "levelId": 3, "good": 0},810: { "levelId": 3, "good": 0},811: { "levelId": 3, "good": 0},812: { "levelId": 3, "good": 0},813: { "levelId": 3, "good": 0},814: { "levelId": 3, "good": 0},815: { "levelId": 3, "good": 0},816: { "levelId": 3, "good": 0},817: { "levelId": 3, "good": 0},818: { "levelId": 3, "good": 0},819: { "levelId": 3, "good": 0},820: { "levelId": 3, "good": 0},821: { "levelId": 3, "good": 0},822: { "levelId": 3, "good": 0},823: { "levelId": 3, "good": 0},824: { "levelId": 3, "good": 0},825: { "levelId": 3, "good": 0},826: { "levelId": 3, "good": 0},827: { "levelId": 3, "good": 0},828: { "levelId": 3, "good": 0},829: { "levelId": 3, "good": 0},830: { "levelId": 3, "good": 0},831: { "levelId": 3, "good": 0},832: { "levelId": 3, "good": 0},833: { "levelId": 3, "good": 0},834: { "levelId": 3, "good": 0},835: { "levelId": 3, "good": 0},836: { "levelId": 3, "good": 0},837: { "levelId": 3, "good": 0},838: { "levelId": 3, "good": 0},839: { "levelId": 3, "good": 0},840: { "levelId": 3, "good": 0},841: { "levelId": 3, "good": 0},842: { "levelId": 3, "good": 0},843: { "levelId": 3, "good": 0},844: { "levelId": 3, "good": 0},845: { "levelId": 3, "good": 0},846: { "levelId": 3, "good": 0},847: { "levelId": 3, "good": 0},848: { "levelId": 3, "good": 0},849: { "levelId": 3, "good": 0},850: { "levelId": 3, "good": 0},851: { "levelId": 3, "good": 0},852: { "levelId": 3, "good": 0},853: { "levelId": 3, "good": 0},854: { "levelId": 3, "good": 0},855: { "levelId": 3, "good": 0},856: { "levelId": 3, "good": 0},857: { "levelId": 3, "good": 0},858: { "levelId": 3, "good": 0},859: { "levelId": 3, "good": 0},860: { "levelId": 3, "good": 0},861: { "levelId": 3, "good": 0},862: { "levelId": 3, "good": 0},863: { "levelId": 3, "good": 0},864: { "levelId": 3, "good": 0},865: { "levelId": 3, "good": 0},866: { "levelId": 3, "good": 0},867: { "levelId": 3, "good": 0},868: { "levelId": 3, "good": 0},869: { "levelId": 3, "good": 0},870: { "levelId": 3, "good": 0},871: { "levelId": 3, "good": 0},872: { "levelId": 3, "good": 0},873: { "levelId": 3, "good": 0},874: { "levelId": 3, "good": 0},875: { "levelId": 3, "good": 0},876: { "levelId": 3, "good": 0},877: { "levelId": 3, "good": 0},878: { "levelId": 3, "good": 0},879: { "levelId": 3, "good": 0},880: { "levelId": 3, "good": 0},881: { "levelId": 3, "good": 0},882: { "levelId": 3, "good": 0},883: { "levelId": 3, "good": 0},884: { "levelId": 3, "good": 0},885: { "levelId": 3, "good": 0},886: { "levelId": 3, "good": 0},887: { "levelId": 3, "good": 0},888: { "levelId": 3, "good": 0},889: { "levelId": 3, "good": 0},890: { "levelId": 3, "good": 0},891: { "levelId": 3, "good": 0},892: { "levelId": 3, "good": 0},893: { "levelId": 3, "good": 0},894: { "levelId": 3, "good": 0},895: { "levelId": 3, "good": 0},896: { "levelId": 3, "good": 0},897: { "levelId": 3, "good": 0},898: { "levelId": 3, "good": 0},899: { "levelId": 3, "good": 0},900: { "levelId": 3, "good": 0},901: { "levelId": 3, "good": 0},902: { "levelId": 3, "good": 0},903: { "levelId": 3, "good": 0},904: { "levelId": 3, "good": 0},905: { "levelId": 3, "good": 0},906: { "levelId": 3, "good": 0},907: { "levelId": 3, "good": 0},908: { "levelId": 3, "good": 0},909: { "levelId": 3, "good": 0},910: { "levelId": 3, "good": 0},911: { "levelId": 3, "good": 0},912: { "levelId": 3, "good": 0},913: { "levelId": 3, "good": 0},914: { "levelId": 3, "good": 0},915: { "levelId": 3, "good": 0},916: { "levelId": 3, "good": 0},917: { "levelId": 3, "good": 0},918: { "levelId": 3, "good": 0},919: { "levelId": 3, "good": 0},920: { "levelId": 3, "good": 0},921: { "levelId": 3, "good": 0},922: { "levelId": 3, "good": 0},923: { "levelId": 3, "good": 0},924: { "levelId": 3, "good": 0},925: { "levelId": 3, "good": 0},926: { "levelId": 3, "good": 0},927: { "levelId": 3, "good": 0},928: { "levelId": 3, "good": 0},929: { "levelId": 3, "good": 0},930: { "levelId": 3, "good": 0},931: { "levelId": 3, "good": 0},932: { "levelId": 3, "good": 0},933: { "levelId": 3, "good": 0},934: { "levelId": 3, "good": 0},935: { "levelId": 3, "good": 0},936: { "levelId": 3, "good": 0},937: { "levelId": 3, "good": 0},938: { "levelId": 3, "good": 0},939: { "levelId": 3, "good": 0},940: { "levelId": 3, "good": 0},941: { "levelId": 3, "good": 0},942: { "levelId": 3, "good": 0},943: { "levelId": 3, "good": 0},944: { "levelId": 3, "good": 0},945: { "levelId": 3, "good": 0},946: { "levelId": 3, "good": 0},947: { "levelId": 3, "good": 0},948: { "levelId": 3, "good": 0},949: { "levelId": 3, "good": 0},950: { "levelId": 3, "good": 0},951: { "levelId": 3, "good": 0},952: { "levelId": 3, "good": 0},953: { "levelId": 3, "good": 0},954: { "levelId": 3, "good": 0},955: { "levelId": 3, "good": 0},956: { "levelId": 3, "good": 0},957: { "levelId": 3, "good": 0},958: { "levelId": 3, "good": 0},959: { "levelId": 3, "good": 0},960: { "levelId": 3, "good": 0},961: { "levelId": 3, "good": 0},962: { "levelId": 3, "good": 0},963: { "levelId": 3, "good": 0},964: { "levelId": 3, "good": 0},965: { "levelId": 3, "good": 0},966: { "levelId": 3, "good": 0},967: { "levelId": 3, "good": 0},968: { "levelId": 3, "good": 0},969: { "levelId": 3, "good": 0},970: { "levelId": 3, "good": 0},971: { "levelId": 3, "good": 0},972: { "levelId": 3, "good": 0},973: { "levelId": 3, "good": 0},974: { "levelId": 3, "good": 0},975: { "levelId": 3, "good": 0},976: { "levelId": 3, "good": 0},977: { "levelId": 3, "good": 0},978: { "levelId": 3, "good": 0},979: { "levelId": 3, "good": 0},980: { "levelId": 3, "good": 0},981: { "levelId": 3, "good": 0},982: { "levelId": 3, "good": 0},983: { "levelId": 3, "good": 0},984: { "levelId": 3, "good": 0},985: { "levelId": 3, "good": 0},986: { "levelId": 3, "good": 0},987: { "levelId": 3, "good": 0},988: { "levelId": 3, "good": 0},989: { "levelId": 3, "good": 0},990: { "levelId": 3, "good": 0},991: { "levelId": 3, "good": 0},992: { "levelId": 3, "good": 0},993: { "levelId": 3, "good": 0},994: { "levelId": 3, "good": 0},995: { "levelId": 3, "good": 0},996: { "levelId": 3, "good": 0},997: { "levelId": 3, "good": 0},998: { "levelId": 3, "good": 0},999: { "levelId": 3, "good": 0},1000: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7687,7 +7785,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -7703,7 +7801,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7719,7 +7817,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7735,7 +7833,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -7751,7 +7849,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -7767,7 +7865,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -7783,7 +7881,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -7799,7 +7897,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -7814,7 +7912,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -7829,7 +7927,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -7844,7 +7942,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -7859,7 +7957,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -7874,7 +7972,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -7889,7 +7987,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -7904,7 +8002,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
@@ -7919,7 +8017,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -7934,7 +8032,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -7949,7 +8047,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -7964,7 +8062,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7979,7 +8077,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -7994,7 +8092,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -8009,7 +8107,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
@@ -8024,7 +8122,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
@@ -8039,7 +8137,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
@@ -8054,7 +8152,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>6</v>
@@ -8069,7 +8167,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>7</v>
@@ -8084,7 +8182,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8099,7 +8197,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -8114,7 +8212,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -8129,7 +8227,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -8144,7 +8242,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
@@ -8159,7 +8257,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5</v>
@@ -8174,7 +8272,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6</v>
@@ -8189,7 +8287,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>7</v>
@@ -8204,7 +8302,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8219,7 +8317,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -8234,7 +8332,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
@@ -8249,7 +8347,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3</v>
@@ -8264,7 +8362,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4</v>
@@ -8279,7 +8377,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>5</v>
@@ -8294,7 +8392,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6</v>
@@ -8309,7 +8407,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>7</v>
@@ -8324,7 +8422,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -8339,7 +8437,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -8354,7 +8452,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
@@ -8369,7 +8467,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>3</v>
@@ -8384,7 +8482,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4</v>
@@ -8399,7 +8497,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5</v>
@@ -8414,7 +8512,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6</v>
@@ -8429,7 +8527,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>7</v>
@@ -8444,7 +8542,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -8459,7 +8557,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -8474,7 +8572,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -8489,7 +8587,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -8504,7 +8602,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>4</v>
@@ -8519,7 +8617,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -8534,7 +8632,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>6</v>
@@ -8549,7 +8647,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>7</v>
@@ -8564,7 +8662,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -8579,7 +8677,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -8594,7 +8692,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8609,7 +8707,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8624,7 +8722,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8639,7 +8737,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8654,7 +8752,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8669,7 +8767,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>7</v>
@@ -8684,7 +8782,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -8699,7 +8797,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -8714,7 +8812,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -8729,7 +8827,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -8744,7 +8842,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -8759,7 +8857,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -8774,7 +8872,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -8789,7 +8887,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>7</v>
@@ -8804,7 +8902,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -8819,7 +8917,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -8834,7 +8932,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2</v>
@@ -8849,7 +8947,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>3</v>
@@ -8864,7 +8962,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>4</v>
@@ -8879,7 +8977,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5</v>
@@ -8894,7 +8992,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -8909,7 +9007,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8924,7 +9022,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -8939,7 +9037,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -8954,7 +9052,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2</v>
@@ -8969,7 +9067,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>3</v>
@@ -8984,7 +9082,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>4</v>
@@ -8999,7 +9097,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>5</v>
@@ -9014,7 +9112,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -9029,7 +9127,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -9044,7 +9142,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -9059,7 +9157,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -9074,7 +9172,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2</v>
@@ -9089,7 +9187,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>3</v>
@@ -9104,7 +9202,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4</v>
@@ -9119,7 +9217,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>5</v>
@@ -9134,7 +9232,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -9149,7 +9247,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -9164,7 +9262,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -9179,7 +9277,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -9194,7 +9292,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -9209,7 +9307,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>3</v>
@@ -9224,7 +9322,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -9239,7 +9337,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5</v>
@@ -9254,7 +9352,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -9269,7 +9367,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -9284,7 +9382,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -9299,7 +9397,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -9314,7 +9412,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -9329,7 +9427,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>3</v>
@@ -9344,7 +9442,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -9359,7 +9457,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>5</v>
@@ -9374,7 +9472,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -9389,7 +9487,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -9404,7 +9502,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -9419,7 +9517,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
@@ -9434,7 +9532,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2</v>
@@ -9449,7 +9547,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>3</v>
@@ -9464,7 +9562,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>4</v>
@@ -9479,7 +9577,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>5</v>
@@ -9494,7 +9592,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -9509,7 +9607,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -9524,7 +9622,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -9539,7 +9637,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -9554,7 +9652,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -9569,7 +9667,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -9584,7 +9682,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9599,7 +9697,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9614,7 +9712,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>7</v>
@@ -9629,7 +9727,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -9644,7 +9742,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
@@ -9659,7 +9757,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -9674,7 +9772,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -9689,7 +9787,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -9704,7 +9802,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9719,7 +9817,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>3</v>
@@ -9734,7 +9832,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>4</v>
@@ -9749,7 +9847,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>5</v>
@@ -9764,7 +9862,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>6</v>
@@ -9779,7 +9877,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>7</v>
@@ -9794,7 +9892,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>7</v>
@@ -9809,7 +9907,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -9824,7 +9922,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -9839,7 +9937,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -9854,7 +9952,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>5</v>
@@ -9869,7 +9967,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>6</v>
@@ -9884,7 +9982,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9899,7 +9997,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -9914,7 +10012,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1</v>
@@ -9929,7 +10027,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2</v>
@@ -9944,7 +10042,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>3</v>
@@ -9959,7 +10057,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>4</v>
@@ -9974,7 +10072,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>5</v>
@@ -9989,7 +10087,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>6</v>
@@ -10004,7 +10102,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -10019,7 +10117,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -10034,7 +10132,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
@@ -10049,7 +10147,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>6</v>
@@ -10064,7 +10162,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>7</v>
@@ -10079,7 +10177,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -10094,7 +10192,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -10109,7 +10207,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2</v>
@@ -10124,7 +10222,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>6</v>
@@ -10139,7 +10237,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>7</v>
@@ -10154,7 +10252,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>0</v>
@@ -10169,7 +10267,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
@@ -10184,7 +10282,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2</v>
@@ -10199,7 +10297,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>3</v>
@@ -10214,7 +10312,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>4</v>
@@ -10229,7 +10327,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2</v>
@@ -10244,7 +10342,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>3</v>
@@ -10259,7 +10357,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>4</v>
@@ -10274,7 +10372,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>5</v>
@@ -10289,7 +10387,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>6</v>
@@ -10304,7 +10402,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>7</v>
@@ -10319,7 +10417,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -10334,7 +10432,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1</v>
@@ -10349,7 +10447,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -10364,7 +10462,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -10379,7 +10477,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -10394,7 +10492,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>5</v>
@@ -10409,7 +10507,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>6</v>
@@ -10424,7 +10522,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>7</v>
@@ -10439,7 +10537,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -10454,7 +10552,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>1</v>
@@ -10469,7 +10567,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -10484,7 +10582,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3</v>
@@ -10499,7 +10597,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -10514,7 +10612,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>5</v>
@@ -10529,7 +10627,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>6</v>
@@ -10544,7 +10642,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>7</v>
@@ -10558,210 +10656,348 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C194" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C194, Levels!B:B, 0), 1, 1)),", ",IF(A194 &lt;&gt; "", """mem"": bit" &amp; B194 &amp; "(" &amp; A194 &amp; "),", ""),"""good"": ",IF(A194 &lt;&gt; "", 1, 0),"},")</f>
-        <v>193: { "levelId": 3, "good": 0},</v>
+        <v>193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1},</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C195" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C195, Levels!B:B, 0), 1, 1)),", ",IF(A195 &lt;&gt; "", """mem"": bit" &amp; B195 &amp; "(" &amp; A195 &amp; "),", ""),"""good"": ",IF(A195 &lt;&gt; "", 1, 0),"},")</f>
-        <v>194: { "levelId": 3, "good": 0},</v>
+        <v>194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1},</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C196" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C196, Levels!B:B, 0), 1, 1)),", ",IF(A196 &lt;&gt; "", """mem"": bit" &amp; B196 &amp; "(" &amp; A196 &amp; "),", ""),"""good"": ",IF(A196 &lt;&gt; "", 1, 0),"},")</f>
-        <v>195: { "levelId": 3, "good": 0},</v>
+        <v>195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1},</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C197" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C197, Levels!B:B, 0), 1, 1)),", ",IF(A197 &lt;&gt; "", """mem"": bit" &amp; B197 &amp; "(" &amp; A197 &amp; "),", ""),"""good"": ",IF(A197 &lt;&gt; "", 1, 0),"},")</f>
-        <v>196: { "levelId": 3, "good": 0},</v>
+        <v>196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1},</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C198" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C198, Levels!B:B, 0), 1, 1)),", ",IF(A198 &lt;&gt; "", """mem"": bit" &amp; B198 &amp; "(" &amp; A198 &amp; "),", ""),"""good"": ",IF(A198 &lt;&gt; "", 1, 0),"},")</f>
-        <v>197: { "levelId": 3, "good": 0},</v>
+        <v>197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1},</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C199" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C199, Levels!B:B, 0), 1, 1)),", ",IF(A199 &lt;&gt; "", """mem"": bit" &amp; B199 &amp; "(" &amp; A199 &amp; "),", ""),"""good"": ",IF(A199 &lt;&gt; "", 1, 0),"},")</f>
-        <v>198: { "levelId": 3, "good": 0},</v>
+        <v>198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1},</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C200" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C200, Levels!B:B, 0), 1, 1)),", ",IF(A200 &lt;&gt; "", """mem"": bit" &amp; B200 &amp; "(" &amp; A200 &amp; "),", ""),"""good"": ",IF(A200 &lt;&gt; "", 1, 0),"},")</f>
-        <v>199: { "levelId": 3, "good": 0},</v>
+        <v>199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1},</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C201" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C201, Levels!B:B, 0), 1, 1)),", ",IF(A201 &lt;&gt; "", """mem"": bit" &amp; B201 &amp; "(" &amp; A201 &amp; "),", ""),"""good"": ",IF(A201 &lt;&gt; "", 1, 0),"},")</f>
-        <v>200: { "levelId": 3, "good": 0},</v>
+        <v>200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1},</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C202" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C202, Levels!B:B, 0), 1, 1)),", ",IF(A202 &lt;&gt; "", """mem"": bit" &amp; B202 &amp; "(" &amp; A202 &amp; "),", ""),"""good"": ",IF(A202 &lt;&gt; "", 1, 0),"},")</f>
-        <v>201: { "levelId": 3, "good": 0},</v>
+        <v>201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1},</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C203" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C203, Levels!B:B, 0), 1, 1)),", ",IF(A203 &lt;&gt; "", """mem"": bit" &amp; B203 &amp; "(" &amp; A203 &amp; "),", ""),"""good"": ",IF(A203 &lt;&gt; "", 1, 0),"},")</f>
-        <v>202: { "levelId": 3, "good": 0},</v>
+        <v>202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1},</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C204" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C204, Levels!B:B, 0), 1, 1)),", ",IF(A204 &lt;&gt; "", """mem"": bit" &amp; B204 &amp; "(" &amp; A204 &amp; "),", ""),"""good"": ",IF(A204 &lt;&gt; "", 1, 0),"},")</f>
-        <v>203: { "levelId": 3, "good": 0},</v>
+        <v>203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C205" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C205, Levels!B:B, 0), 1, 1)),", ",IF(A205 &lt;&gt; "", """mem"": bit" &amp; B205 &amp; "(" &amp; A205 &amp; "),", ""),"""good"": ",IF(A205 &lt;&gt; "", 1, 0),"},")</f>
-        <v>204: { "levelId": 3, "good": 0},</v>
+        <v>204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1},</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C206" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C206, Levels!B:B, 0), 1, 1)),", ",IF(A206 &lt;&gt; "", """mem"": bit" &amp; B206 &amp; "(" &amp; A206 &amp; "),", ""),"""good"": ",IF(A206 &lt;&gt; "", 1, 0),"},")</f>
-        <v>205: { "levelId": 3, "good": 0},</v>
+        <v>205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1},</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C207" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C207, Levels!B:B, 0), 1, 1)),", ",IF(A207 &lt;&gt; "", """mem"": bit" &amp; B207 &amp; "(" &amp; A207 &amp; "),", ""),"""good"": ",IF(A207 &lt;&gt; "", 1, 0),"},")</f>
-        <v>206: { "levelId": 3, "good": 0},</v>
+        <v>206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1},</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C208" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C208, Levels!B:B, 0), 1, 1)),", ",IF(A208 &lt;&gt; "", """mem"": bit" &amp; B208 &amp; "(" &amp; A208 &amp; "),", ""),"""good"": ",IF(A208 &lt;&gt; "", 1, 0),"},")</f>
-        <v>207: { "levelId": 3, "good": 0},</v>
+        <v>207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C209" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C209, Levels!B:B, 0), 1, 1)),", ",IF(A209 &lt;&gt; "", """mem"": bit" &amp; B209 &amp; "(" &amp; A209 &amp; "),", ""),"""good"": ",IF(A209 &lt;&gt; "", 1, 0),"},")</f>
-        <v>208: { "levelId": 3, "good": 0},</v>
+        <v>208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C210" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C210, Levels!B:B, 0), 1, 1)),", ",IF(A210 &lt;&gt; "", """mem"": bit" &amp; B210 &amp; "(" &amp; A210 &amp; "),", ""),"""good"": ",IF(A210 &lt;&gt; "", 1, 0),"},")</f>
-        <v>209: { "levelId": 3, "good": 0},</v>
+        <v>209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C211" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C211, Levels!B:B, 0), 1, 1)),", ",IF(A211 &lt;&gt; "", """mem"": bit" &amp; B211 &amp; "(" &amp; A211 &amp; "),", ""),"""good"": ",IF(A211 &lt;&gt; "", 1, 0),"},")</f>
-        <v>210: { "levelId": 3, "good": 0},</v>
+        <v>210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C212" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C212, Levels!B:B, 0), 1, 1)),", ",IF(A212 &lt;&gt; "", """mem"": bit" &amp; B212 &amp; "(" &amp; A212 &amp; "),", ""),"""good"": ",IF(A212 &lt;&gt; "", 1, 0),"},")</f>
-        <v>211: { "levelId": 3, "good": 0},</v>
+        <v>211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C213" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C213, Levels!B:B, 0), 1, 1)),", ",IF(A213 &lt;&gt; "", """mem"": bit" &amp; B213 &amp; "(" &amp; A213 &amp; "),", ""),"""good"": ",IF(A213 &lt;&gt; "", 1, 0),"},")</f>
-        <v>212: { "levelId": 3, "good": 0},</v>
+        <v>212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C214" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C214, Levels!B:B, 0), 1, 1)),", ",IF(A214 &lt;&gt; "", """mem"": bit" &amp; B214 &amp; "(" &amp; A214 &amp; "),", ""),"""good"": ",IF(A214 &lt;&gt; "", 1, 0),"},")</f>
-        <v>213: { "levelId": 3, "good": 0},</v>
+        <v>213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1},</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C215" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C215, Levels!B:B, 0), 1, 1)),", ",IF(A215 &lt;&gt; "", """mem"": bit" &amp; B215 &amp; "(" &amp; A215 &amp; "),", ""),"""good"": ",IF(A215 &lt;&gt; "", 1, 0),"},")</f>
-        <v>214: { "levelId": 3, "good": 0},</v>
+        <v>214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1},</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C216" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C216, Levels!B:B, 0), 1, 1)),", ",IF(A216 &lt;&gt; "", """mem"": bit" &amp; B216 &amp; "(" &amp; A216 &amp; "),", ""),"""good"": ",IF(A216 &lt;&gt; "", 1, 0),"},")</f>
-        <v>215: { "levelId": 3, "good": 0},</v>
+        <v>215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1},</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17859,7 +18095,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -17869,13 +18105,13 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -17886,7 +18122,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -17900,12 +18136,12 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D81)</f>
-        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},19: { "levelId": 8, "mem": bit5(0x2249f3),"good": 1},20: { "levelId": 8, "mem": bit4(0x2249f3),"good": 1},21: { "levelId": 3, "good": 0},22: { "levelId": 3, "good": 0},23: { "levelId": 3, "good": 0},24: { "levelId": 3, "good": 0},25: { "levelId": 3, "good": 0},26: { "levelId": 3, "good": 0},27: { "levelId": 3, "good": 0},28: { "levelId": 3, "good": 0},29: { "levelId": 3, "good": 0},30: { "levelId": 3, "good": 0},31: { "levelId": 3, "good": 0},32: { "levelId": 3, "good": 0},33: { "levelId": 3, "good": 0},34: { "levelId": 3, "good": 0},35: { "levelId": 3, "good": 0},36: { "levelId": 3, "good": 0},37: { "levelId": 3, "good": 0},38: { "levelId": 3, "good": 0},39: { "levelId": 3, "good": 0},40: { "levelId": 3, "good": 0},41: { "levelId": 3, "good": 0},42: { "levelId": 3, "good": 0},43: { "levelId": 3, "good": 0},44: { "levelId": 3, "good": 0},45: { "levelId": 3, "good": 0},46: { "levelId": 3, "good": 0},47: { "levelId": 3, "good": 0},48: { "levelId": 3, "good": 0},49: { "levelId": 3, "good": 0},50: { "levelId": 3, "good": 0},51: { "levelId": 3, "good": 0},52: { "levelId": 3, "good": 0},53: { "levelId": 3, "good": 0},54: { "levelId": 3, "good": 0},55: { "levelId": 3, "good": 0},56: { "levelId": 3, "good": 0},57: { "levelId": 3, "good": 0},58: { "levelId": 3, "good": 0},59: { "levelId": 3, "good": 0},60: { "levelId": 3, "good": 0},61: { "levelId": 3, "good": 0},62: { "levelId": 3, "good": 0},63: { "levelId": 3, "good": 0},64: { "levelId": 3, "good": 0},65: { "levelId": 3, "good": 0},66: { "levelId": 3, "good": 0},67: { "levelId": 3, "good": 0},68: { "levelId": 3, "good": 0},69: { "levelId": 3, "good": 0},70: { "levelId": 3, "good": 0},71: { "levelId": 3, "good": 0},72: { "levelId": 3, "good": 0},73: { "levelId": 3, "good": 0},74: { "levelId": 3, "good": 0},75: { "levelId": 3, "good": 0},76: { "levelId": 3, "good": 0},77: { "levelId": 3, "good": 0},78: { "levelId": 3, "good": 0},79: { "levelId": 3, "good": 0},80: { "levelId": 3, "good": 0},</v>
+        <v>1: { "levelId": 1, "mem": bit7(0x2249f0),"good": 1},2: { "levelId": 2, "mem": bit0(0x2249f1),"good": 1},3: { "levelId": 2, "mem": bit1(0x2249f1),"good": 1},4: { "levelId": 2, "mem": bit5(0x2249f1),"good": 1},5: { "levelId": 2, "mem": bit6(0x2249f1),"good": 1},6: { "levelId": 1, "mem": bit7(0x2249f1),"good": 1},7: { "levelId": 5, "mem": bit0(0x2249f2),"good": 1},8: { "levelId": 5, "mem": bit1(0x2249f2),"good": 1},9: { "levelId": 5, "mem": bit2(0x2249f2),"good": 1},10: { "levelId": 5, "mem": bit3(0x2249f2),"good": 1},11: { "levelId": 5, "mem": bit4(0x2249f2),"good": 1},12: { "levelId": 6, "mem": bit5(0x2249f2),"good": 1},13: { "levelId": 6, "mem": bit7(0x2249f2),"good": 1},14: { "levelId": 6, "mem": bit1(0x2249f3),"good": 1},15: { "levelId": 6, "mem": bit6(0x2249f2),"good": 1},16: { "levelId": 6, "mem": bit0(0x2249f3),"good": 1},17: { "levelId": 6, "mem": bit3(0x2249f3),"good": 1},18: { "levelId": 6, "mem": bit2(0x2249f3),"good": 1},19: { "levelId": 8, "mem": bit5(0x2249f3),"good": 1},20: { "levelId": 8, "mem": bit4(0x2249f3),"good": 1},21: { "levelId": 10, "mem": bit0(0x2249f4),"good": 1},22: { "levelId": 10, "mem": bit6(0x2249f3),"good": 1},23: { "levelId": 3, "good": 0},24: { "levelId": 3, "good": 0},25: { "levelId": 3, "good": 0},26: { "levelId": 3, "good": 0},27: { "levelId": 3, "good": 0},28: { "levelId": 3, "good": 0},29: { "levelId": 3, "good": 0},30: { "levelId": 3, "good": 0},31: { "levelId": 3, "good": 0},32: { "levelId": 3, "good": 0},33: { "levelId": 3, "good": 0},34: { "levelId": 3, "good": 0},35: { "levelId": 3, "good": 0},36: { "levelId": 3, "good": 0},37: { "levelId": 3, "good": 0},38: { "levelId": 3, "good": 0},39: { "levelId": 3, "good": 0},40: { "levelId": 3, "good": 0},41: { "levelId": 3, "good": 0},42: { "levelId": 3, "good": 0},43: { "levelId": 3, "good": 0},44: { "levelId": 3, "good": 0},45: { "levelId": 3, "good": 0},46: { "levelId": 3, "good": 0},47: { "levelId": 3, "good": 0},48: { "levelId": 3, "good": 0},49: { "levelId": 3, "good": 0},50: { "levelId": 3, "good": 0},51: { "levelId": 3, "good": 0},52: { "levelId": 3, "good": 0},53: { "levelId": 3, "good": 0},54: { "levelId": 3, "good": 0},55: { "levelId": 3, "good": 0},56: { "levelId": 3, "good": 0},57: { "levelId": 3, "good": 0},58: { "levelId": 3, "good": 0},59: { "levelId": 3, "good": 0},60: { "levelId": 3, "good": 0},61: { "levelId": 3, "good": 0},62: { "levelId": 3, "good": 0},63: { "levelId": 3, "good": 0},64: { "levelId": 3, "good": 0},65: { "levelId": 3, "good": 0},66: { "levelId": 3, "good": 0},67: { "levelId": 3, "good": 0},68: { "levelId": 3, "good": 0},69: { "levelId": 3, "good": 0},70: { "levelId": 3, "good": 0},71: { "levelId": 3, "good": 0},72: { "levelId": 3, "good": 0},73: { "levelId": 3, "good": 0},74: { "levelId": 3, "good": 0},75: { "levelId": 3, "good": 0},76: { "levelId": 3, "good": 0},77: { "levelId": 3, "good": 0},78: { "levelId": 3, "good": 0},79: { "levelId": 3, "good": 0},80: { "levelId": 3, "good": 0},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -17920,7 +18156,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -17935,7 +18171,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -17950,7 +18186,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6</v>
@@ -17965,7 +18201,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>7</v>
@@ -17980,7 +18216,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -17995,7 +18231,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -18010,7 +18246,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -18025,7 +18261,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -18040,7 +18276,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -18055,7 +18291,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
@@ -18070,7 +18306,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -18085,7 +18321,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -18100,7 +18336,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -18115,7 +18351,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -18130,7 +18366,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -18145,7 +18381,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -18160,7 +18396,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5</v>
@@ -18175,7 +18411,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>4</v>
@@ -18189,21 +18425,33 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C22, Levels!B:B, 0), 1, 1)),", ",IF(A22 &lt;&gt; "", """mem"": bit" &amp; B22 &amp; "(" &amp; A22 &amp; "),", ""),"""good"": ",IF(A22 &lt;&gt; "", 1, 0),"},")</f>
-        <v>21: { "levelId": 3, "good": 0},</v>
+        <v>21: { "levelId": 10, "mem": bit0(0x2249f4),"good": 1},</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C23, Levels!B:B, 0), 1, 1)),", ",IF(A23 &lt;&gt; "", """mem"": bit" &amp; B23 &amp; "(" &amp; A23 &amp; "),", ""),"""good"": ",IF(A23 &lt;&gt; "", 1, 0),"},")</f>
-        <v>22: { "levelId": 3, "good": 0},</v>
+        <v>22: { "levelId": 10, "mem": bit6(0x2249f3),"good": 1},</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -581,7 +581,7 @@
       <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -4016,7 +4016,7 @@
       <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -7737,10 +7737,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="H1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": -1},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": -1},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": -1},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": -1},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": -1},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": -1},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": -1},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": -1},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": -1},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": -1},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": -1},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": -1},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": -1},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": -1},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": -1},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": -1},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": -1},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": -1},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": -1},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": -1},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": -1},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": -1},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": -1},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": -1},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": -1},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},217: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},218: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},219: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},220: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},221: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},222: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},223: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},224: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},225: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},226: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},227: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},228: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},229: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},230: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},231: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},232: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},233: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},234: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},235: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},236: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},237: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},238: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},239: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},240: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},241: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},242: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},243: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},244: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},245: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},246: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},247: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},248: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},249: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},250: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},251: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},252: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},253: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},254: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},255: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},256: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},257: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},258: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},259: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},260: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},261: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},262: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},263: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},264: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},265: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},217: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},218: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},219: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},220: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},221: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},222: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},223: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},224: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},225: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},226: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},227: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},228: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},229: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},230: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},231: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},232: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},233: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},234: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},235: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},236: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},237: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},238: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},239: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},240: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},241: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},242: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},243: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},244: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},245: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},246: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},247: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},248: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},249: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},250: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},251: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},252: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},253: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},254: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},255: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},256: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},257: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},258: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},259: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},260: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},261: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},262: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},263: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},264: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},265: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,8 +7779,8 @@
         <v>27</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C2, Levels!B:B, 0), 1, 1)),", ",IF(A2 &lt;&gt; "", """mem"": bit" &amp; B2 &amp; "(" &amp; A2 &amp; "),", ""),"""good"": ",IF(A2 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A2 &lt;&gt; "", A2, -1),", ""bit"": ",IF(B2 &lt;&gt; 0, B2, -1),"},")</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C2, Levels!B:B, 0), 1, 1)),", ",IF(A2 &lt;&gt; "", """mem"": bit" &amp; B2 &amp; "(" &amp; A2 &amp; "),", ""),"""good"": ",IF(A2 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A2 &lt;&gt; "", A2, -1),", ""bit"": ",IF(B2 &lt;&gt; "", B2, -1),"},")</f>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7794,7 +7794,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C3, Levels!B:B, 0), 1, 1)),", ",IF(A3 &lt;&gt; "", """mem"": bit" &amp; B3 &amp; "(" &amp; A3 &amp; "),", ""),"""good"": ",IF(A3 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A3 &lt;&gt; "", A3, -1),", ""bit"": ",IF(B3 &lt;&gt; 0, B3, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C3, Levels!B:B, 0), 1, 1)),", ",IF(A3 &lt;&gt; "", """mem"": bit" &amp; B3 &amp; "(" &amp; A3 &amp; "),", ""),"""good"": ",IF(A3 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A3 &lt;&gt; "", A3, -1),", ""bit"": ",IF(B3 &lt;&gt; "", B3, -1),"},")</f>
         <v>2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},</v>
       </c>
       <c r="E3" s="5"/>
@@ -7810,7 +7810,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C4, Levels!B:B, 0), 1, 1)),", ",IF(A4 &lt;&gt; "", """mem"": bit" &amp; B4 &amp; "(" &amp; A4 &amp; "),", ""),"""good"": ",IF(A4 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A4 &lt;&gt; "", A4, -1),", ""bit"": ",IF(B4 &lt;&gt; 0, B4, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C4, Levels!B:B, 0), 1, 1)),", ",IF(A4 &lt;&gt; "", """mem"": bit" &amp; B4 &amp; "(" &amp; A4 &amp; "),", ""),"""good"": ",IF(A4 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A4 &lt;&gt; "", A4, -1),", ""bit"": ",IF(B4 &lt;&gt; "", B4, -1),"},")</f>
         <v>3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},</v>
       </c>
       <c r="E4" s="5"/>
@@ -7826,7 +7826,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C5, Levels!B:B, 0), 1, 1)),", ",IF(A5 &lt;&gt; "", """mem"": bit" &amp; B5 &amp; "(" &amp; A5 &amp; "),", ""),"""good"": ",IF(A5 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A5 &lt;&gt; "", A5, -1),", ""bit"": ",IF(B5 &lt;&gt; 0, B5, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C5, Levels!B:B, 0), 1, 1)),", ",IF(A5 &lt;&gt; "", """mem"": bit" &amp; B5 &amp; "(" &amp; A5 &amp; "),", ""),"""good"": ",IF(A5 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A5 &lt;&gt; "", A5, -1),", ""bit"": ",IF(B5 &lt;&gt; "", B5, -1),"},")</f>
         <v>4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},</v>
       </c>
       <c r="E5" s="5"/>
@@ -7842,7 +7842,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C6, Levels!B:B, 0), 1, 1)),", ",IF(A6 &lt;&gt; "", """mem"": bit" &amp; B6 &amp; "(" &amp; A6 &amp; "),", ""),"""good"": ",IF(A6 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A6 &lt;&gt; "", A6, -1),", ""bit"": ",IF(B6 &lt;&gt; 0, B6, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C6, Levels!B:B, 0), 1, 1)),", ",IF(A6 &lt;&gt; "", """mem"": bit" &amp; B6 &amp; "(" &amp; A6 &amp; "),", ""),"""good"": ",IF(A6 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A6 &lt;&gt; "", A6, -1),", ""bit"": ",IF(B6 &lt;&gt; "", B6, -1),"},")</f>
         <v>5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},</v>
       </c>
       <c r="E6" s="5"/>
@@ -7858,7 +7858,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C7, Levels!B:B, 0), 1, 1)),", ",IF(A7 &lt;&gt; "", """mem"": bit" &amp; B7 &amp; "(" &amp; A7 &amp; "),", ""),"""good"": ",IF(A7 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A7 &lt;&gt; "", A7, -1),", ""bit"": ",IF(B7 &lt;&gt; 0, B7, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C7, Levels!B:B, 0), 1, 1)),", ",IF(A7 &lt;&gt; "", """mem"": bit" &amp; B7 &amp; "(" &amp; A7 &amp; "),", ""),"""good"": ",IF(A7 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A7 &lt;&gt; "", A7, -1),", ""bit"": ",IF(B7 &lt;&gt; "", B7, -1),"},")</f>
         <v>6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},</v>
       </c>
       <c r="E7" s="5"/>
@@ -7874,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C8, Levels!B:B, 0), 1, 1)),", ",IF(A8 &lt;&gt; "", """mem"": bit" &amp; B8 &amp; "(" &amp; A8 &amp; "),", ""),"""good"": ",IF(A8 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A8 &lt;&gt; "", A8, -1),", ""bit"": ",IF(B8 &lt;&gt; 0, B8, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C8, Levels!B:B, 0), 1, 1)),", ",IF(A8 &lt;&gt; "", """mem"": bit" &amp; B8 &amp; "(" &amp; A8 &amp; "),", ""),"""good"": ",IF(A8 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A8 &lt;&gt; "", A8, -1),", ""bit"": ",IF(B8 &lt;&gt; "", B8, -1),"},")</f>
         <v>7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},</v>
       </c>
       <c r="E8" s="5"/>
@@ -7890,7 +7890,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C9, Levels!B:B, 0), 1, 1)),", ",IF(A9 &lt;&gt; "", """mem"": bit" &amp; B9 &amp; "(" &amp; A9 &amp; "),", ""),"""good"": ",IF(A9 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A9 &lt;&gt; "", A9, -1),", ""bit"": ",IF(B9 &lt;&gt; 0, B9, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C9, Levels!B:B, 0), 1, 1)),", ",IF(A9 &lt;&gt; "", """mem"": bit" &amp; B9 &amp; "(" &amp; A9 &amp; "),", ""),"""good"": ",IF(A9 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A9 &lt;&gt; "", A9, -1),", ""bit"": ",IF(B9 &lt;&gt; "", B9, -1),"},")</f>
         <v>8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},</v>
       </c>
       <c r="E9" s="5"/>
@@ -7906,7 +7906,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C10, Levels!B:B, 0), 1, 1)),", ",IF(A10 &lt;&gt; "", """mem"": bit" &amp; B10 &amp; "(" &amp; A10 &amp; "),", ""),"""good"": ",IF(A10 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A10 &lt;&gt; "", A10, -1),", ""bit"": ",IF(B10 &lt;&gt; 0, B10, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C10, Levels!B:B, 0), 1, 1)),", ",IF(A10 &lt;&gt; "", """mem"": bit" &amp; B10 &amp; "(" &amp; A10 &amp; "),", ""),"""good"": ",IF(A10 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A10 &lt;&gt; "", A10, -1),", ""bit"": ",IF(B10 &lt;&gt; "", B10, -1),"},")</f>
         <v>9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C11, Levels!B:B, 0), 1, 1)),", ",IF(A11 &lt;&gt; "", """mem"": bit" &amp; B11 &amp; "(" &amp; A11 &amp; "),", ""),"""good"": ",IF(A11 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A11 &lt;&gt; "", A11, -1),", ""bit"": ",IF(B11 &lt;&gt; 0, B11, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C11, Levels!B:B, 0), 1, 1)),", ",IF(A11 &lt;&gt; "", """mem"": bit" &amp; B11 &amp; "(" &amp; A11 &amp; "),", ""),"""good"": ",IF(A11 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A11 &lt;&gt; "", A11, -1),", ""bit"": ",IF(B11 &lt;&gt; "", B11, -1),"},")</f>
         <v>10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},</v>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C12, Levels!B:B, 0), 1, 1)),", ",IF(A12 &lt;&gt; "", """mem"": bit" &amp; B12 &amp; "(" &amp; A12 &amp; "),", ""),"""good"": ",IF(A12 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A12 &lt;&gt; "", A12, -1),", ""bit"": ",IF(B12 &lt;&gt; 0, B12, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C12, Levels!B:B, 0), 1, 1)),", ",IF(A12 &lt;&gt; "", """mem"": bit" &amp; B12 &amp; "(" &amp; A12 &amp; "),", ""),"""good"": ",IF(A12 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A12 &lt;&gt; "", A12, -1),", ""bit"": ",IF(B12 &lt;&gt; "", B12, -1),"},")</f>
         <v>11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},</v>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C13, Levels!B:B, 0), 1, 1)),", ",IF(A13 &lt;&gt; "", """mem"": bit" &amp; B13 &amp; "(" &amp; A13 &amp; "),", ""),"""good"": ",IF(A13 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A13 &lt;&gt; "", A13, -1),", ""bit"": ",IF(B13 &lt;&gt; 0, B13, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C13, Levels!B:B, 0), 1, 1)),", ",IF(A13 &lt;&gt; "", """mem"": bit" &amp; B13 &amp; "(" &amp; A13 &amp; "),", ""),"""good"": ",IF(A13 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A13 &lt;&gt; "", A13, -1),", ""bit"": ",IF(B13 &lt;&gt; "", B13, -1),"},")</f>
         <v>12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},</v>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C14, Levels!B:B, 0), 1, 1)),", ",IF(A14 &lt;&gt; "", """mem"": bit" &amp; B14 &amp; "(" &amp; A14 &amp; "),", ""),"""good"": ",IF(A14 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A14 &lt;&gt; "", A14, -1),", ""bit"": ",IF(B14 &lt;&gt; 0, B14, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C14, Levels!B:B, 0), 1, 1)),", ",IF(A14 &lt;&gt; "", """mem"": bit" &amp; B14 &amp; "(" &amp; A14 &amp; "),", ""),"""good"": ",IF(A14 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A14 &lt;&gt; "", A14, -1),", ""bit"": ",IF(B14 &lt;&gt; "", B14, -1),"},")</f>
         <v>13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},</v>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C15, Levels!B:B, 0), 1, 1)),", ",IF(A15 &lt;&gt; "", """mem"": bit" &amp; B15 &amp; "(" &amp; A15 &amp; "),", ""),"""good"": ",IF(A15 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A15 &lt;&gt; "", A15, -1),", ""bit"": ",IF(B15 &lt;&gt; 0, B15, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C15, Levels!B:B, 0), 1, 1)),", ",IF(A15 &lt;&gt; "", """mem"": bit" &amp; B15 &amp; "(" &amp; A15 &amp; "),", ""),"""good"": ",IF(A15 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A15 &lt;&gt; "", A15, -1),", ""bit"": ",IF(B15 &lt;&gt; "", B15, -1),"},")</f>
         <v>14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C16, Levels!B:B, 0), 1, 1)),", ",IF(A16 &lt;&gt; "", """mem"": bit" &amp; B16 &amp; "(" &amp; A16 &amp; "),", ""),"""good"": ",IF(A16 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A16 &lt;&gt; "", A16, -1),", ""bit"": ",IF(B16 &lt;&gt; 0, B16, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C16, Levels!B:B, 0), 1, 1)),", ",IF(A16 &lt;&gt; "", """mem"": bit" &amp; B16 &amp; "(" &amp; A16 &amp; "),", ""),"""good"": ",IF(A16 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A16 &lt;&gt; "", A16, -1),", ""bit"": ",IF(B16 &lt;&gt; "", B16, -1),"},")</f>
         <v>15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},</v>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C17, Levels!B:B, 0), 1, 1)),", ",IF(A17 &lt;&gt; "", """mem"": bit" &amp; B17 &amp; "(" &amp; A17 &amp; "),", ""),"""good"": ",IF(A17 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A17 &lt;&gt; "", A17, -1),", ""bit"": ",IF(B17 &lt;&gt; 0, B17, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C17, Levels!B:B, 0), 1, 1)),", ",IF(A17 &lt;&gt; "", """mem"": bit" &amp; B17 &amp; "(" &amp; A17 &amp; "),", ""),"""good"": ",IF(A17 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A17 &lt;&gt; "", A17, -1),", ""bit"": ",IF(B17 &lt;&gt; "", B17, -1),"},")</f>
         <v>16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},</v>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C18, Levels!B:B, 0), 1, 1)),", ",IF(A18 &lt;&gt; "", """mem"": bit" &amp; B18 &amp; "(" &amp; A18 &amp; "),", ""),"""good"": ",IF(A18 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A18 &lt;&gt; "", A18, -1),", ""bit"": ",IF(B18 &lt;&gt; 0, B18, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C18, Levels!B:B, 0), 1, 1)),", ",IF(A18 &lt;&gt; "", """mem"": bit" &amp; B18 &amp; "(" &amp; A18 &amp; "),", ""),"""good"": ",IF(A18 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A18 &lt;&gt; "", A18, -1),", ""bit"": ",IF(B18 &lt;&gt; "", B18, -1),"},")</f>
         <v>17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},</v>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C19, Levels!B:B, 0), 1, 1)),", ",IF(A19 &lt;&gt; "", """mem"": bit" &amp; B19 &amp; "(" &amp; A19 &amp; "),", ""),"""good"": ",IF(A19 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A19 &lt;&gt; "", A19, -1),", ""bit"": ",IF(B19 &lt;&gt; 0, B19, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C19, Levels!B:B, 0), 1, 1)),", ",IF(A19 &lt;&gt; "", """mem"": bit" &amp; B19 &amp; "(" &amp; A19 &amp; "),", ""),"""good"": ",IF(A19 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A19 &lt;&gt; "", A19, -1),", ""bit"": ",IF(B19 &lt;&gt; "", B19, -1),"},")</f>
         <v>18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},</v>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C20, Levels!B:B, 0), 1, 1)),", ",IF(A20 &lt;&gt; "", """mem"": bit" &amp; B20 &amp; "(" &amp; A20 &amp; "),", ""),"""good"": ",IF(A20 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A20 &lt;&gt; "", A20, -1),", ""bit"": ",IF(B20 &lt;&gt; 0, B20, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C20, Levels!B:B, 0), 1, 1)),", ",IF(A20 &lt;&gt; "", """mem"": bit" &amp; B20 &amp; "(" &amp; A20 &amp; "),", ""),"""good"": ",IF(A20 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A20 &lt;&gt; "", A20, -1),", ""bit"": ",IF(B20 &lt;&gt; "", B20, -1),"},")</f>
         <v>19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},</v>
       </c>
     </row>
@@ -8071,8 +8071,8 @@
         <v>27</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C21, Levels!B:B, 0), 1, 1)),", ",IF(A21 &lt;&gt; "", """mem"": bit" &amp; B21 &amp; "(" &amp; A21 &amp; "),", ""),"""good"": ",IF(A21 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A21 &lt;&gt; "", A21, -1),", ""bit"": ",IF(B21 &lt;&gt; 0, B21, -1),"},")</f>
-        <v>20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C21, Levels!B:B, 0), 1, 1)),", ",IF(A21 &lt;&gt; "", """mem"": bit" &amp; B21 &amp; "(" &amp; A21 &amp; "),", ""),"""good"": ",IF(A21 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A21 &lt;&gt; "", A21, -1),", ""bit"": ",IF(B21 &lt;&gt; "", B21, -1),"},")</f>
+        <v>20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,7 +8086,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C22, Levels!B:B, 0), 1, 1)),", ",IF(A22 &lt;&gt; "", """mem"": bit" &amp; B22 &amp; "(" &amp; A22 &amp; "),", ""),"""good"": ",IF(A22 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A22 &lt;&gt; "", A22, -1),", ""bit"": ",IF(B22 &lt;&gt; 0, B22, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C22, Levels!B:B, 0), 1, 1)),", ",IF(A22 &lt;&gt; "", """mem"": bit" &amp; B22 &amp; "(" &amp; A22 &amp; "),", ""),"""good"": ",IF(A22 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A22 &lt;&gt; "", A22, -1),", ""bit"": ",IF(B22 &lt;&gt; "", B22, -1),"},")</f>
         <v>21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},</v>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C23, Levels!B:B, 0), 1, 1)),", ",IF(A23 &lt;&gt; "", """mem"": bit" &amp; B23 &amp; "(" &amp; A23 &amp; "),", ""),"""good"": ",IF(A23 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A23 &lt;&gt; "", A23, -1),", ""bit"": ",IF(B23 &lt;&gt; 0, B23, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C23, Levels!B:B, 0), 1, 1)),", ",IF(A23 &lt;&gt; "", """mem"": bit" &amp; B23 &amp; "(" &amp; A23 &amp; "),", ""),"""good"": ",IF(A23 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A23 &lt;&gt; "", A23, -1),", ""bit"": ",IF(B23 &lt;&gt; "", B23, -1),"},")</f>
         <v>22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},</v>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C24, Levels!B:B, 0), 1, 1)),", ",IF(A24 &lt;&gt; "", """mem"": bit" &amp; B24 &amp; "(" &amp; A24 &amp; "),", ""),"""good"": ",IF(A24 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A24 &lt;&gt; "", A24, -1),", ""bit"": ",IF(B24 &lt;&gt; 0, B24, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C24, Levels!B:B, 0), 1, 1)),", ",IF(A24 &lt;&gt; "", """mem"": bit" &amp; B24 &amp; "(" &amp; A24 &amp; "),", ""),"""good"": ",IF(A24 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A24 &lt;&gt; "", A24, -1),", ""bit"": ",IF(B24 &lt;&gt; "", B24, -1),"},")</f>
         <v>23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},</v>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C25, Levels!B:B, 0), 1, 1)),", ",IF(A25 &lt;&gt; "", """mem"": bit" &amp; B25 &amp; "(" &amp; A25 &amp; "),", ""),"""good"": ",IF(A25 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A25 &lt;&gt; "", A25, -1),", ""bit"": ",IF(B25 &lt;&gt; 0, B25, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C25, Levels!B:B, 0), 1, 1)),", ",IF(A25 &lt;&gt; "", """mem"": bit" &amp; B25 &amp; "(" &amp; A25 &amp; "),", ""),"""good"": ",IF(A25 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A25 &lt;&gt; "", A25, -1),", ""bit"": ",IF(B25 &lt;&gt; "", B25, -1),"},")</f>
         <v>24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},</v>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C26, Levels!B:B, 0), 1, 1)),", ",IF(A26 &lt;&gt; "", """mem"": bit" &amp; B26 &amp; "(" &amp; A26 &amp; "),", ""),"""good"": ",IF(A26 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A26 &lt;&gt; "", A26, -1),", ""bit"": ",IF(B26 &lt;&gt; 0, B26, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C26, Levels!B:B, 0), 1, 1)),", ",IF(A26 &lt;&gt; "", """mem"": bit" &amp; B26 &amp; "(" &amp; A26 &amp; "),", ""),"""good"": ",IF(A26 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A26 &lt;&gt; "", A26, -1),", ""bit"": ",IF(B26 &lt;&gt; "", B26, -1),"},")</f>
         <v>25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},</v>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C27, Levels!B:B, 0), 1, 1)),", ",IF(A27 &lt;&gt; "", """mem"": bit" &amp; B27 &amp; "(" &amp; A27 &amp; "),", ""),"""good"": ",IF(A27 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A27 &lt;&gt; "", A27, -1),", ""bit"": ",IF(B27 &lt;&gt; 0, B27, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C27, Levels!B:B, 0), 1, 1)),", ",IF(A27 &lt;&gt; "", """mem"": bit" &amp; B27 &amp; "(" &amp; A27 &amp; "),", ""),"""good"": ",IF(A27 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A27 &lt;&gt; "", A27, -1),", ""bit"": ",IF(B27 &lt;&gt; "", B27, -1),"},")</f>
         <v>26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},</v>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C28, Levels!B:B, 0), 1, 1)),", ",IF(A28 &lt;&gt; "", """mem"": bit" &amp; B28 &amp; "(" &amp; A28 &amp; "),", ""),"""good"": ",IF(A28 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A28 &lt;&gt; "", A28, -1),", ""bit"": ",IF(B28 &lt;&gt; 0, B28, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C28, Levels!B:B, 0), 1, 1)),", ",IF(A28 &lt;&gt; "", """mem"": bit" &amp; B28 &amp; "(" &amp; A28 &amp; "),", ""),"""good"": ",IF(A28 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A28 &lt;&gt; "", A28, -1),", ""bit"": ",IF(B28 &lt;&gt; "", B28, -1),"},")</f>
         <v>27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},</v>
       </c>
     </row>
@@ -8191,8 +8191,8 @@
         <v>27</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C29, Levels!B:B, 0), 1, 1)),", ",IF(A29 &lt;&gt; "", """mem"": bit" &amp; B29 &amp; "(" &amp; A29 &amp; "),", ""),"""good"": ",IF(A29 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A29 &lt;&gt; "", A29, -1),", ""bit"": ",IF(B29 &lt;&gt; 0, B29, -1),"},")</f>
-        <v>28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C29, Levels!B:B, 0), 1, 1)),", ",IF(A29 &lt;&gt; "", """mem"": bit" &amp; B29 &amp; "(" &amp; A29 &amp; "),", ""),"""good"": ",IF(A29 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A29 &lt;&gt; "", A29, -1),", ""bit"": ",IF(B29 &lt;&gt; "", B29, -1),"},")</f>
+        <v>28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,7 +8206,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C30, Levels!B:B, 0), 1, 1)),", ",IF(A30 &lt;&gt; "", """mem"": bit" &amp; B30 &amp; "(" &amp; A30 &amp; "),", ""),"""good"": ",IF(A30 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A30 &lt;&gt; "", A30, -1),", ""bit"": ",IF(B30 &lt;&gt; 0, B30, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C30, Levels!B:B, 0), 1, 1)),", ",IF(A30 &lt;&gt; "", """mem"": bit" &amp; B30 &amp; "(" &amp; A30 &amp; "),", ""),"""good"": ",IF(A30 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A30 &lt;&gt; "", A30, -1),", ""bit"": ",IF(B30 &lt;&gt; "", B30, -1),"},")</f>
         <v>29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},</v>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C31, Levels!B:B, 0), 1, 1)),", ",IF(A31 &lt;&gt; "", """mem"": bit" &amp; B31 &amp; "(" &amp; A31 &amp; "),", ""),"""good"": ",IF(A31 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A31 &lt;&gt; "", A31, -1),", ""bit"": ",IF(B31 &lt;&gt; 0, B31, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C31, Levels!B:B, 0), 1, 1)),", ",IF(A31 &lt;&gt; "", """mem"": bit" &amp; B31 &amp; "(" &amp; A31 &amp; "),", ""),"""good"": ",IF(A31 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A31 &lt;&gt; "", A31, -1),", ""bit"": ",IF(B31 &lt;&gt; "", B31, -1),"},")</f>
         <v>30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},</v>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C32, Levels!B:B, 0), 1, 1)),", ",IF(A32 &lt;&gt; "", """mem"": bit" &amp; B32 &amp; "(" &amp; A32 &amp; "),", ""),"""good"": ",IF(A32 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A32 &lt;&gt; "", A32, -1),", ""bit"": ",IF(B32 &lt;&gt; 0, B32, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C32, Levels!B:B, 0), 1, 1)),", ",IF(A32 &lt;&gt; "", """mem"": bit" &amp; B32 &amp; "(" &amp; A32 &amp; "),", ""),"""good"": ",IF(A32 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A32 &lt;&gt; "", A32, -1),", ""bit"": ",IF(B32 &lt;&gt; "", B32, -1),"},")</f>
         <v>31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},</v>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C33, Levels!B:B, 0), 1, 1)),", ",IF(A33 &lt;&gt; "", """mem"": bit" &amp; B33 &amp; "(" &amp; A33 &amp; "),", ""),"""good"": ",IF(A33 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A33 &lt;&gt; "", A33, -1),", ""bit"": ",IF(B33 &lt;&gt; 0, B33, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C33, Levels!B:B, 0), 1, 1)),", ",IF(A33 &lt;&gt; "", """mem"": bit" &amp; B33 &amp; "(" &amp; A33 &amp; "),", ""),"""good"": ",IF(A33 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A33 &lt;&gt; "", A33, -1),", ""bit"": ",IF(B33 &lt;&gt; "", B33, -1),"},")</f>
         <v>32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},</v>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C34, Levels!B:B, 0), 1, 1)),", ",IF(A34 &lt;&gt; "", """mem"": bit" &amp; B34 &amp; "(" &amp; A34 &amp; "),", ""),"""good"": ",IF(A34 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A34 &lt;&gt; "", A34, -1),", ""bit"": ",IF(B34 &lt;&gt; 0, B34, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C34, Levels!B:B, 0), 1, 1)),", ",IF(A34 &lt;&gt; "", """mem"": bit" &amp; B34 &amp; "(" &amp; A34 &amp; "),", ""),"""good"": ",IF(A34 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A34 &lt;&gt; "", A34, -1),", ""bit"": ",IF(B34 &lt;&gt; "", B34, -1),"},")</f>
         <v>33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},</v>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C35, Levels!B:B, 0), 1, 1)),", ",IF(A35 &lt;&gt; "", """mem"": bit" &amp; B35 &amp; "(" &amp; A35 &amp; "),", ""),"""good"": ",IF(A35 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A35 &lt;&gt; "", A35, -1),", ""bit"": ",IF(B35 &lt;&gt; 0, B35, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C35, Levels!B:B, 0), 1, 1)),", ",IF(A35 &lt;&gt; "", """mem"": bit" &amp; B35 &amp; "(" &amp; A35 &amp; "),", ""),"""good"": ",IF(A35 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A35 &lt;&gt; "", A35, -1),", ""bit"": ",IF(B35 &lt;&gt; "", B35, -1),"},")</f>
         <v>34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},</v>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C36, Levels!B:B, 0), 1, 1)),", ",IF(A36 &lt;&gt; "", """mem"": bit" &amp; B36 &amp; "(" &amp; A36 &amp; "),", ""),"""good"": ",IF(A36 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A36 &lt;&gt; "", A36, -1),", ""bit"": ",IF(B36 &lt;&gt; 0, B36, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C36, Levels!B:B, 0), 1, 1)),", ",IF(A36 &lt;&gt; "", """mem"": bit" &amp; B36 &amp; "(" &amp; A36 &amp; "),", ""),"""good"": ",IF(A36 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A36 &lt;&gt; "", A36, -1),", ""bit"": ",IF(B36 &lt;&gt; "", B36, -1),"},")</f>
         <v>35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},</v>
       </c>
     </row>
@@ -8311,8 +8311,8 @@
         <v>27</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C37, Levels!B:B, 0), 1, 1)),", ",IF(A37 &lt;&gt; "", """mem"": bit" &amp; B37 &amp; "(" &amp; A37 &amp; "),", ""),"""good"": ",IF(A37 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A37 &lt;&gt; "", A37, -1),", ""bit"": ",IF(B37 &lt;&gt; 0, B37, -1),"},")</f>
-        <v>36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C37, Levels!B:B, 0), 1, 1)),", ",IF(A37 &lt;&gt; "", """mem"": bit" &amp; B37 &amp; "(" &amp; A37 &amp; "),", ""),"""good"": ",IF(A37 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A37 &lt;&gt; "", A37, -1),", ""bit"": ",IF(B37 &lt;&gt; "", B37, -1),"},")</f>
+        <v>36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,7 +8326,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C38, Levels!B:B, 0), 1, 1)),", ",IF(A38 &lt;&gt; "", """mem"": bit" &amp; B38 &amp; "(" &amp; A38 &amp; "),", ""),"""good"": ",IF(A38 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A38 &lt;&gt; "", A38, -1),", ""bit"": ",IF(B38 &lt;&gt; 0, B38, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C38, Levels!B:B, 0), 1, 1)),", ",IF(A38 &lt;&gt; "", """mem"": bit" &amp; B38 &amp; "(" &amp; A38 &amp; "),", ""),"""good"": ",IF(A38 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A38 &lt;&gt; "", A38, -1),", ""bit"": ",IF(B38 &lt;&gt; "", B38, -1),"},")</f>
         <v>37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},</v>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C39, Levels!B:B, 0), 1, 1)),", ",IF(A39 &lt;&gt; "", """mem"": bit" &amp; B39 &amp; "(" &amp; A39 &amp; "),", ""),"""good"": ",IF(A39 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A39 &lt;&gt; "", A39, -1),", ""bit"": ",IF(B39 &lt;&gt; 0, B39, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C39, Levels!B:B, 0), 1, 1)),", ",IF(A39 &lt;&gt; "", """mem"": bit" &amp; B39 &amp; "(" &amp; A39 &amp; "),", ""),"""good"": ",IF(A39 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A39 &lt;&gt; "", A39, -1),", ""bit"": ",IF(B39 &lt;&gt; "", B39, -1),"},")</f>
         <v>38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},</v>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
         <v>42</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C40, Levels!B:B, 0), 1, 1)),", ",IF(A40 &lt;&gt; "", """mem"": bit" &amp; B40 &amp; "(" &amp; A40 &amp; "),", ""),"""good"": ",IF(A40 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A40 &lt;&gt; "", A40, -1),", ""bit"": ",IF(B40 &lt;&gt; 0, B40, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C40, Levels!B:B, 0), 1, 1)),", ",IF(A40 &lt;&gt; "", """mem"": bit" &amp; B40 &amp; "(" &amp; A40 &amp; "),", ""),"""good"": ",IF(A40 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A40 &lt;&gt; "", A40, -1),", ""bit"": ",IF(B40 &lt;&gt; "", B40, -1),"},")</f>
         <v>39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},</v>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C41, Levels!B:B, 0), 1, 1)),", ",IF(A41 &lt;&gt; "", """mem"": bit" &amp; B41 &amp; "(" &amp; A41 &amp; "),", ""),"""good"": ",IF(A41 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A41 &lt;&gt; "", A41, -1),", ""bit"": ",IF(B41 &lt;&gt; 0, B41, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C41, Levels!B:B, 0), 1, 1)),", ",IF(A41 &lt;&gt; "", """mem"": bit" &amp; B41 &amp; "(" &amp; A41 &amp; "),", ""),"""good"": ",IF(A41 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A41 &lt;&gt; "", A41, -1),", ""bit"": ",IF(B41 &lt;&gt; "", B41, -1),"},")</f>
         <v>40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},</v>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C42, Levels!B:B, 0), 1, 1)),", ",IF(A42 &lt;&gt; "", """mem"": bit" &amp; B42 &amp; "(" &amp; A42 &amp; "),", ""),"""good"": ",IF(A42 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A42 &lt;&gt; "", A42, -1),", ""bit"": ",IF(B42 &lt;&gt; 0, B42, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C42, Levels!B:B, 0), 1, 1)),", ",IF(A42 &lt;&gt; "", """mem"": bit" &amp; B42 &amp; "(" &amp; A42 &amp; "),", ""),"""good"": ",IF(A42 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A42 &lt;&gt; "", A42, -1),", ""bit"": ",IF(B42 &lt;&gt; "", B42, -1),"},")</f>
         <v>41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},</v>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C43, Levels!B:B, 0), 1, 1)),", ",IF(A43 &lt;&gt; "", """mem"": bit" &amp; B43 &amp; "(" &amp; A43 &amp; "),", ""),"""good"": ",IF(A43 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A43 &lt;&gt; "", A43, -1),", ""bit"": ",IF(B43 &lt;&gt; 0, B43, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C43, Levels!B:B, 0), 1, 1)),", ",IF(A43 &lt;&gt; "", """mem"": bit" &amp; B43 &amp; "(" &amp; A43 &amp; "),", ""),"""good"": ",IF(A43 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A43 &lt;&gt; "", A43, -1),", ""bit"": ",IF(B43 &lt;&gt; "", B43, -1),"},")</f>
         <v>42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},</v>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C44, Levels!B:B, 0), 1, 1)),", ",IF(A44 &lt;&gt; "", """mem"": bit" &amp; B44 &amp; "(" &amp; A44 &amp; "),", ""),"""good"": ",IF(A44 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A44 &lt;&gt; "", A44, -1),", ""bit"": ",IF(B44 &lt;&gt; 0, B44, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C44, Levels!B:B, 0), 1, 1)),", ",IF(A44 &lt;&gt; "", """mem"": bit" &amp; B44 &amp; "(" &amp; A44 &amp; "),", ""),"""good"": ",IF(A44 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A44 &lt;&gt; "", A44, -1),", ""bit"": ",IF(B44 &lt;&gt; "", B44, -1),"},")</f>
         <v>43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},</v>
       </c>
     </row>
@@ -8431,8 +8431,8 @@
         <v>42</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C45, Levels!B:B, 0), 1, 1)),", ",IF(A45 &lt;&gt; "", """mem"": bit" &amp; B45 &amp; "(" &amp; A45 &amp; "),", ""),"""good"": ",IF(A45 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A45 &lt;&gt; "", A45, -1),", ""bit"": ",IF(B45 &lt;&gt; 0, B45, -1),"},")</f>
-        <v>44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C45, Levels!B:B, 0), 1, 1)),", ",IF(A45 &lt;&gt; "", """mem"": bit" &amp; B45 &amp; "(" &amp; A45 &amp; "),", ""),"""good"": ",IF(A45 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A45 &lt;&gt; "", A45, -1),", ""bit"": ",IF(B45 &lt;&gt; "", B45, -1),"},")</f>
+        <v>44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8446,7 +8446,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C46, Levels!B:B, 0), 1, 1)),", ",IF(A46 &lt;&gt; "", """mem"": bit" &amp; B46 &amp; "(" &amp; A46 &amp; "),", ""),"""good"": ",IF(A46 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A46 &lt;&gt; "", A46, -1),", ""bit"": ",IF(B46 &lt;&gt; 0, B46, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C46, Levels!B:B, 0), 1, 1)),", ",IF(A46 &lt;&gt; "", """mem"": bit" &amp; B46 &amp; "(" &amp; A46 &amp; "),", ""),"""good"": ",IF(A46 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A46 &lt;&gt; "", A46, -1),", ""bit"": ",IF(B46 &lt;&gt; "", B46, -1),"},")</f>
         <v>45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},</v>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C47, Levels!B:B, 0), 1, 1)),", ",IF(A47 &lt;&gt; "", """mem"": bit" &amp; B47 &amp; "(" &amp; A47 &amp; "),", ""),"""good"": ",IF(A47 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A47 &lt;&gt; "", A47, -1),", ""bit"": ",IF(B47 &lt;&gt; 0, B47, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C47, Levels!B:B, 0), 1, 1)),", ",IF(A47 &lt;&gt; "", """mem"": bit" &amp; B47 &amp; "(" &amp; A47 &amp; "),", ""),"""good"": ",IF(A47 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A47 &lt;&gt; "", A47, -1),", ""bit"": ",IF(B47 &lt;&gt; "", B47, -1),"},")</f>
         <v>46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},</v>
       </c>
     </row>
@@ -8476,7 +8476,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C48, Levels!B:B, 0), 1, 1)),", ",IF(A48 &lt;&gt; "", """mem"": bit" &amp; B48 &amp; "(" &amp; A48 &amp; "),", ""),"""good"": ",IF(A48 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A48 &lt;&gt; "", A48, -1),", ""bit"": ",IF(B48 &lt;&gt; 0, B48, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C48, Levels!B:B, 0), 1, 1)),", ",IF(A48 &lt;&gt; "", """mem"": bit" &amp; B48 &amp; "(" &amp; A48 &amp; "),", ""),"""good"": ",IF(A48 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A48 &lt;&gt; "", A48, -1),", ""bit"": ",IF(B48 &lt;&gt; "", B48, -1),"},")</f>
         <v>47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},</v>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C49, Levels!B:B, 0), 1, 1)),", ",IF(A49 &lt;&gt; "", """mem"": bit" &amp; B49 &amp; "(" &amp; A49 &amp; "),", ""),"""good"": ",IF(A49 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A49 &lt;&gt; "", A49, -1),", ""bit"": ",IF(B49 &lt;&gt; 0, B49, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C49, Levels!B:B, 0), 1, 1)),", ",IF(A49 &lt;&gt; "", """mem"": bit" &amp; B49 &amp; "(" &amp; A49 &amp; "),", ""),"""good"": ",IF(A49 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A49 &lt;&gt; "", A49, -1),", ""bit"": ",IF(B49 &lt;&gt; "", B49, -1),"},")</f>
         <v>48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},</v>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
         <v>42</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C50, Levels!B:B, 0), 1, 1)),", ",IF(A50 &lt;&gt; "", """mem"": bit" &amp; B50 &amp; "(" &amp; A50 &amp; "),", ""),"""good"": ",IF(A50 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A50 &lt;&gt; "", A50, -1),", ""bit"": ",IF(B50 &lt;&gt; 0, B50, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C50, Levels!B:B, 0), 1, 1)),", ",IF(A50 &lt;&gt; "", """mem"": bit" &amp; B50 &amp; "(" &amp; A50 &amp; "),", ""),"""good"": ",IF(A50 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A50 &lt;&gt; "", A50, -1),", ""bit"": ",IF(B50 &lt;&gt; "", B50, -1),"},")</f>
         <v>49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},</v>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
         <v>42</v>
       </c>
       <c r="D51" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C51, Levels!B:B, 0), 1, 1)),", ",IF(A51 &lt;&gt; "", """mem"": bit" &amp; B51 &amp; "(" &amp; A51 &amp; "),", ""),"""good"": ",IF(A51 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A51 &lt;&gt; "", A51, -1),", ""bit"": ",IF(B51 &lt;&gt; 0, B51, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C51, Levels!B:B, 0), 1, 1)),", ",IF(A51 &lt;&gt; "", """mem"": bit" &amp; B51 &amp; "(" &amp; A51 &amp; "),", ""),"""good"": ",IF(A51 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A51 &lt;&gt; "", A51, -1),", ""bit"": ",IF(B51 &lt;&gt; "", B51, -1),"},")</f>
         <v>50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},</v>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
         <v>42</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C52, Levels!B:B, 0), 1, 1)),", ",IF(A52 &lt;&gt; "", """mem"": bit" &amp; B52 &amp; "(" &amp; A52 &amp; "),", ""),"""good"": ",IF(A52 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A52 &lt;&gt; "", A52, -1),", ""bit"": ",IF(B52 &lt;&gt; 0, B52, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C52, Levels!B:B, 0), 1, 1)),", ",IF(A52 &lt;&gt; "", """mem"": bit" &amp; B52 &amp; "(" &amp; A52 &amp; "),", ""),"""good"": ",IF(A52 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A52 &lt;&gt; "", A52, -1),", ""bit"": ",IF(B52 &lt;&gt; "", B52, -1),"},")</f>
         <v>51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},</v>
       </c>
     </row>
@@ -8551,8 +8551,8 @@
         <v>42</v>
       </c>
       <c r="D53" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C53, Levels!B:B, 0), 1, 1)),", ",IF(A53 &lt;&gt; "", """mem"": bit" &amp; B53 &amp; "(" &amp; A53 &amp; "),", ""),"""good"": ",IF(A53 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A53 &lt;&gt; "", A53, -1),", ""bit"": ",IF(B53 &lt;&gt; 0, B53, -1),"},")</f>
-        <v>52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C53, Levels!B:B, 0), 1, 1)),", ",IF(A53 &lt;&gt; "", """mem"": bit" &amp; B53 &amp; "(" &amp; A53 &amp; "),", ""),"""good"": ",IF(A53 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A53 &lt;&gt; "", A53, -1),", ""bit"": ",IF(B53 &lt;&gt; "", B53, -1),"},")</f>
+        <v>52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,7 +8566,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C54, Levels!B:B, 0), 1, 1)),", ",IF(A54 &lt;&gt; "", """mem"": bit" &amp; B54 &amp; "(" &amp; A54 &amp; "),", ""),"""good"": ",IF(A54 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A54 &lt;&gt; "", A54, -1),", ""bit"": ",IF(B54 &lt;&gt; 0, B54, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C54, Levels!B:B, 0), 1, 1)),", ",IF(A54 &lt;&gt; "", """mem"": bit" &amp; B54 &amp; "(" &amp; A54 &amp; "),", ""),"""good"": ",IF(A54 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A54 &lt;&gt; "", A54, -1),", ""bit"": ",IF(B54 &lt;&gt; "", B54, -1),"},")</f>
         <v>53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},</v>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
         <v>42</v>
       </c>
       <c r="D55" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C55, Levels!B:B, 0), 1, 1)),", ",IF(A55 &lt;&gt; "", """mem"": bit" &amp; B55 &amp; "(" &amp; A55 &amp; "),", ""),"""good"": ",IF(A55 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A55 &lt;&gt; "", A55, -1),", ""bit"": ",IF(B55 &lt;&gt; 0, B55, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C55, Levels!B:B, 0), 1, 1)),", ",IF(A55 &lt;&gt; "", """mem"": bit" &amp; B55 &amp; "(" &amp; A55 &amp; "),", ""),"""good"": ",IF(A55 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A55 &lt;&gt; "", A55, -1),", ""bit"": ",IF(B55 &lt;&gt; "", B55, -1),"},")</f>
         <v>54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},</v>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
         <v>42</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C56, Levels!B:B, 0), 1, 1)),", ",IF(A56 &lt;&gt; "", """mem"": bit" &amp; B56 &amp; "(" &amp; A56 &amp; "),", ""),"""good"": ",IF(A56 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A56 &lt;&gt; "", A56, -1),", ""bit"": ",IF(B56 &lt;&gt; 0, B56, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C56, Levels!B:B, 0), 1, 1)),", ",IF(A56 &lt;&gt; "", """mem"": bit" &amp; B56 &amp; "(" &amp; A56 &amp; "),", ""),"""good"": ",IF(A56 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A56 &lt;&gt; "", A56, -1),", ""bit"": ",IF(B56 &lt;&gt; "", B56, -1),"},")</f>
         <v>55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},</v>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
         <v>42</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C57, Levels!B:B, 0), 1, 1)),", ",IF(A57 &lt;&gt; "", """mem"": bit" &amp; B57 &amp; "(" &amp; A57 &amp; "),", ""),"""good"": ",IF(A57 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A57 &lt;&gt; "", A57, -1),", ""bit"": ",IF(B57 &lt;&gt; 0, B57, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C57, Levels!B:B, 0), 1, 1)),", ",IF(A57 &lt;&gt; "", """mem"": bit" &amp; B57 &amp; "(" &amp; A57 &amp; "),", ""),"""good"": ",IF(A57 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A57 &lt;&gt; "", A57, -1),", ""bit"": ",IF(B57 &lt;&gt; "", B57, -1),"},")</f>
         <v>56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},</v>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>42</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C58, Levels!B:B, 0), 1, 1)),", ",IF(A58 &lt;&gt; "", """mem"": bit" &amp; B58 &amp; "(" &amp; A58 &amp; "),", ""),"""good"": ",IF(A58 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A58 &lt;&gt; "", A58, -1),", ""bit"": ",IF(B58 &lt;&gt; 0, B58, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C58, Levels!B:B, 0), 1, 1)),", ",IF(A58 &lt;&gt; "", """mem"": bit" &amp; B58 &amp; "(" &amp; A58 &amp; "),", ""),"""good"": ",IF(A58 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A58 &lt;&gt; "", A58, -1),", ""bit"": ",IF(B58 &lt;&gt; "", B58, -1),"},")</f>
         <v>57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},</v>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
         <v>42</v>
       </c>
       <c r="D59" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C59, Levels!B:B, 0), 1, 1)),", ",IF(A59 &lt;&gt; "", """mem"": bit" &amp; B59 &amp; "(" &amp; A59 &amp; "),", ""),"""good"": ",IF(A59 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A59 &lt;&gt; "", A59, -1),", ""bit"": ",IF(B59 &lt;&gt; 0, B59, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C59, Levels!B:B, 0), 1, 1)),", ",IF(A59 &lt;&gt; "", """mem"": bit" &amp; B59 &amp; "(" &amp; A59 &amp; "),", ""),"""good"": ",IF(A59 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A59 &lt;&gt; "", A59, -1),", ""bit"": ",IF(B59 &lt;&gt; "", B59, -1),"},")</f>
         <v>58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},</v>
       </c>
     </row>
@@ -8656,7 +8656,7 @@
         <v>42</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C60, Levels!B:B, 0), 1, 1)),", ",IF(A60 &lt;&gt; "", """mem"": bit" &amp; B60 &amp; "(" &amp; A60 &amp; "),", ""),"""good"": ",IF(A60 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A60 &lt;&gt; "", A60, -1),", ""bit"": ",IF(B60 &lt;&gt; 0, B60, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C60, Levels!B:B, 0), 1, 1)),", ",IF(A60 &lt;&gt; "", """mem"": bit" &amp; B60 &amp; "(" &amp; A60 &amp; "),", ""),"""good"": ",IF(A60 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A60 &lt;&gt; "", A60, -1),", ""bit"": ",IF(B60 &lt;&gt; "", B60, -1),"},")</f>
         <v>59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},</v>
       </c>
     </row>
@@ -8671,8 +8671,8 @@
         <v>42</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C61, Levels!B:B, 0), 1, 1)),", ",IF(A61 &lt;&gt; "", """mem"": bit" &amp; B61 &amp; "(" &amp; A61 &amp; "),", ""),"""good"": ",IF(A61 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A61 &lt;&gt; "", A61, -1),", ""bit"": ",IF(B61 &lt;&gt; 0, B61, -1),"},")</f>
-        <v>60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C61, Levels!B:B, 0), 1, 1)),", ",IF(A61 &lt;&gt; "", """mem"": bit" &amp; B61 &amp; "(" &amp; A61 &amp; "),", ""),"""good"": ",IF(A61 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A61 &lt;&gt; "", A61, -1),", ""bit"": ",IF(B61 &lt;&gt; "", B61, -1),"},")</f>
+        <v>60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,7 +8686,7 @@
         <v>42</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C62, Levels!B:B, 0), 1, 1)),", ",IF(A62 &lt;&gt; "", """mem"": bit" &amp; B62 &amp; "(" &amp; A62 &amp; "),", ""),"""good"": ",IF(A62 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A62 &lt;&gt; "", A62, -1),", ""bit"": ",IF(B62 &lt;&gt; 0, B62, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C62, Levels!B:B, 0), 1, 1)),", ",IF(A62 &lt;&gt; "", """mem"": bit" &amp; B62 &amp; "(" &amp; A62 &amp; "),", ""),"""good"": ",IF(A62 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A62 &lt;&gt; "", A62, -1),", ""bit"": ",IF(B62 &lt;&gt; "", B62, -1),"},")</f>
         <v>61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},</v>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
         <v>42</v>
       </c>
       <c r="D63" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C63, Levels!B:B, 0), 1, 1)),", ",IF(A63 &lt;&gt; "", """mem"": bit" &amp; B63 &amp; "(" &amp; A63 &amp; "),", ""),"""good"": ",IF(A63 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A63 &lt;&gt; "", A63, -1),", ""bit"": ",IF(B63 &lt;&gt; 0, B63, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C63, Levels!B:B, 0), 1, 1)),", ",IF(A63 &lt;&gt; "", """mem"": bit" &amp; B63 &amp; "(" &amp; A63 &amp; "),", ""),"""good"": ",IF(A63 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A63 &lt;&gt; "", A63, -1),", ""bit"": ",IF(B63 &lt;&gt; "", B63, -1),"},")</f>
         <v>62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},</v>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
         <v>42</v>
       </c>
       <c r="D64" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C64, Levels!B:B, 0), 1, 1)),", ",IF(A64 &lt;&gt; "", """mem"": bit" &amp; B64 &amp; "(" &amp; A64 &amp; "),", ""),"""good"": ",IF(A64 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A64 &lt;&gt; "", A64, -1),", ""bit"": ",IF(B64 &lt;&gt; 0, B64, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C64, Levels!B:B, 0), 1, 1)),", ",IF(A64 &lt;&gt; "", """mem"": bit" &amp; B64 &amp; "(" &amp; A64 &amp; "),", ""),"""good"": ",IF(A64 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A64 &lt;&gt; "", A64, -1),", ""bit"": ",IF(B64 &lt;&gt; "", B64, -1),"},")</f>
         <v>63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},</v>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
         <v>42</v>
       </c>
       <c r="D65" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C65, Levels!B:B, 0), 1, 1)),", ",IF(A65 &lt;&gt; "", """mem"": bit" &amp; B65 &amp; "(" &amp; A65 &amp; "),", ""),"""good"": ",IF(A65 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A65 &lt;&gt; "", A65, -1),", ""bit"": ",IF(B65 &lt;&gt; 0, B65, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C65, Levels!B:B, 0), 1, 1)),", ",IF(A65 &lt;&gt; "", """mem"": bit" &amp; B65 &amp; "(" &amp; A65 &amp; "),", ""),"""good"": ",IF(A65 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A65 &lt;&gt; "", A65, -1),", ""bit"": ",IF(B65 &lt;&gt; "", B65, -1),"},")</f>
         <v>64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},</v>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
         <v>42</v>
       </c>
       <c r="D66" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C66, Levels!B:B, 0), 1, 1)),", ",IF(A66 &lt;&gt; "", """mem"": bit" &amp; B66 &amp; "(" &amp; A66 &amp; "),", ""),"""good"": ",IF(A66 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A66 &lt;&gt; "", A66, -1),", ""bit"": ",IF(B66 &lt;&gt; 0, B66, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C66, Levels!B:B, 0), 1, 1)),", ",IF(A66 &lt;&gt; "", """mem"": bit" &amp; B66 &amp; "(" &amp; A66 &amp; "),", ""),"""good"": ",IF(A66 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A66 &lt;&gt; "", A66, -1),", ""bit"": ",IF(B66 &lt;&gt; "", B66, -1),"},")</f>
         <v>65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},</v>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
         <v>42</v>
       </c>
       <c r="D67" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C67, Levels!B:B, 0), 1, 1)),", ",IF(A67 &lt;&gt; "", """mem"": bit" &amp; B67 &amp; "(" &amp; A67 &amp; "),", ""),"""good"": ",IF(A67 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A67 &lt;&gt; "", A67, -1),", ""bit"": ",IF(B67 &lt;&gt; 0, B67, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C67, Levels!B:B, 0), 1, 1)),", ",IF(A67 &lt;&gt; "", """mem"": bit" &amp; B67 &amp; "(" &amp; A67 &amp; "),", ""),"""good"": ",IF(A67 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A67 &lt;&gt; "", A67, -1),", ""bit"": ",IF(B67 &lt;&gt; "", B67, -1),"},")</f>
         <v>66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},</v>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
         <v>42</v>
       </c>
       <c r="D68" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C68, Levels!B:B, 0), 1, 1)),", ",IF(A68 &lt;&gt; "", """mem"": bit" &amp; B68 &amp; "(" &amp; A68 &amp; "),", ""),"""good"": ",IF(A68 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A68 &lt;&gt; "", A68, -1),", ""bit"": ",IF(B68 &lt;&gt; 0, B68, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C68, Levels!B:B, 0), 1, 1)),", ",IF(A68 &lt;&gt; "", """mem"": bit" &amp; B68 &amp; "(" &amp; A68 &amp; "),", ""),"""good"": ",IF(A68 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A68 &lt;&gt; "", A68, -1),", ""bit"": ",IF(B68 &lt;&gt; "", B68, -1),"},")</f>
         <v>67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},</v>
       </c>
     </row>
@@ -8791,8 +8791,8 @@
         <v>42</v>
       </c>
       <c r="D69" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C69, Levels!B:B, 0), 1, 1)),", ",IF(A69 &lt;&gt; "", """mem"": bit" &amp; B69 &amp; "(" &amp; A69 &amp; "),", ""),"""good"": ",IF(A69 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A69 &lt;&gt; "", A69, -1),", ""bit"": ",IF(B69 &lt;&gt; 0, B69, -1),"},")</f>
-        <v>68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C69, Levels!B:B, 0), 1, 1)),", ",IF(A69 &lt;&gt; "", """mem"": bit" &amp; B69 &amp; "(" &amp; A69 &amp; "),", ""),"""good"": ",IF(A69 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A69 &lt;&gt; "", A69, -1),", ""bit"": ",IF(B69 &lt;&gt; "", B69, -1),"},")</f>
+        <v>68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,7 +8806,7 @@
         <v>42</v>
       </c>
       <c r="D70" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C70, Levels!B:B, 0), 1, 1)),", ",IF(A70 &lt;&gt; "", """mem"": bit" &amp; B70 &amp; "(" &amp; A70 &amp; "),", ""),"""good"": ",IF(A70 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A70 &lt;&gt; "", A70, -1),", ""bit"": ",IF(B70 &lt;&gt; 0, B70, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C70, Levels!B:B, 0), 1, 1)),", ",IF(A70 &lt;&gt; "", """mem"": bit" &amp; B70 &amp; "(" &amp; A70 &amp; "),", ""),"""good"": ",IF(A70 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A70 &lt;&gt; "", A70, -1),", ""bit"": ",IF(B70 &lt;&gt; "", B70, -1),"},")</f>
         <v>69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},</v>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
         <v>42</v>
       </c>
       <c r="D71" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C71, Levels!B:B, 0), 1, 1)),", ",IF(A71 &lt;&gt; "", """mem"": bit" &amp; B71 &amp; "(" &amp; A71 &amp; "),", ""),"""good"": ",IF(A71 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A71 &lt;&gt; "", A71, -1),", ""bit"": ",IF(B71 &lt;&gt; 0, B71, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C71, Levels!B:B, 0), 1, 1)),", ",IF(A71 &lt;&gt; "", """mem"": bit" &amp; B71 &amp; "(" &amp; A71 &amp; "),", ""),"""good"": ",IF(A71 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A71 &lt;&gt; "", A71, -1),", ""bit"": ",IF(B71 &lt;&gt; "", B71, -1),"},")</f>
         <v>70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},</v>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
         <v>42</v>
       </c>
       <c r="D72" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C72, Levels!B:B, 0), 1, 1)),", ",IF(A72 &lt;&gt; "", """mem"": bit" &amp; B72 &amp; "(" &amp; A72 &amp; "),", ""),"""good"": ",IF(A72 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A72 &lt;&gt; "", A72, -1),", ""bit"": ",IF(B72 &lt;&gt; 0, B72, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C72, Levels!B:B, 0), 1, 1)),", ",IF(A72 &lt;&gt; "", """mem"": bit" &amp; B72 &amp; "(" &amp; A72 &amp; "),", ""),"""good"": ",IF(A72 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A72 &lt;&gt; "", A72, -1),", ""bit"": ",IF(B72 &lt;&gt; "", B72, -1),"},")</f>
         <v>71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},</v>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
         <v>42</v>
       </c>
       <c r="D73" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C73, Levels!B:B, 0), 1, 1)),", ",IF(A73 &lt;&gt; "", """mem"": bit" &amp; B73 &amp; "(" &amp; A73 &amp; "),", ""),"""good"": ",IF(A73 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A73 &lt;&gt; "", A73, -1),", ""bit"": ",IF(B73 &lt;&gt; 0, B73, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C73, Levels!B:B, 0), 1, 1)),", ",IF(A73 &lt;&gt; "", """mem"": bit" &amp; B73 &amp; "(" &amp; A73 &amp; "),", ""),"""good"": ",IF(A73 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A73 &lt;&gt; "", A73, -1),", ""bit"": ",IF(B73 &lt;&gt; "", B73, -1),"},")</f>
         <v>72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},</v>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
         <v>42</v>
       </c>
       <c r="D74" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C74, Levels!B:B, 0), 1, 1)),", ",IF(A74 &lt;&gt; "", """mem"": bit" &amp; B74 &amp; "(" &amp; A74 &amp; "),", ""),"""good"": ",IF(A74 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A74 &lt;&gt; "", A74, -1),", ""bit"": ",IF(B74 &lt;&gt; 0, B74, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C74, Levels!B:B, 0), 1, 1)),", ",IF(A74 &lt;&gt; "", """mem"": bit" &amp; B74 &amp; "(" &amp; A74 &amp; "),", ""),"""good"": ",IF(A74 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A74 &lt;&gt; "", A74, -1),", ""bit"": ",IF(B74 &lt;&gt; "", B74, -1),"},")</f>
         <v>73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},</v>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
         <v>42</v>
       </c>
       <c r="D75" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C75, Levels!B:B, 0), 1, 1)),", ",IF(A75 &lt;&gt; "", """mem"": bit" &amp; B75 &amp; "(" &amp; A75 &amp; "),", ""),"""good"": ",IF(A75 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A75 &lt;&gt; "", A75, -1),", ""bit"": ",IF(B75 &lt;&gt; 0, B75, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C75, Levels!B:B, 0), 1, 1)),", ",IF(A75 &lt;&gt; "", """mem"": bit" &amp; B75 &amp; "(" &amp; A75 &amp; "),", ""),"""good"": ",IF(A75 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A75 &lt;&gt; "", A75, -1),", ""bit"": ",IF(B75 &lt;&gt; "", B75, -1),"},")</f>
         <v>74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},</v>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
         <v>42</v>
       </c>
       <c r="D76" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C76, Levels!B:B, 0), 1, 1)),", ",IF(A76 &lt;&gt; "", """mem"": bit" &amp; B76 &amp; "(" &amp; A76 &amp; "),", ""),"""good"": ",IF(A76 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A76 &lt;&gt; "", A76, -1),", ""bit"": ",IF(B76 &lt;&gt; 0, B76, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C76, Levels!B:B, 0), 1, 1)),", ",IF(A76 &lt;&gt; "", """mem"": bit" &amp; B76 &amp; "(" &amp; A76 &amp; "),", ""),"""good"": ",IF(A76 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A76 &lt;&gt; "", A76, -1),", ""bit"": ",IF(B76 &lt;&gt; "", B76, -1),"},")</f>
         <v>75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},</v>
       </c>
     </row>
@@ -8911,8 +8911,8 @@
         <v>42</v>
       </c>
       <c r="D77" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C77, Levels!B:B, 0), 1, 1)),", ",IF(A77 &lt;&gt; "", """mem"": bit" &amp; B77 &amp; "(" &amp; A77 &amp; "),", ""),"""good"": ",IF(A77 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A77 &lt;&gt; "", A77, -1),", ""bit"": ",IF(B77 &lt;&gt; 0, B77, -1),"},")</f>
-        <v>76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C77, Levels!B:B, 0), 1, 1)),", ",IF(A77 &lt;&gt; "", """mem"": bit" &amp; B77 &amp; "(" &amp; A77 &amp; "),", ""),"""good"": ",IF(A77 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A77 &lt;&gt; "", A77, -1),", ""bit"": ",IF(B77 &lt;&gt; "", B77, -1),"},")</f>
+        <v>76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8926,7 +8926,7 @@
         <v>42</v>
       </c>
       <c r="D78" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C78, Levels!B:B, 0), 1, 1)),", ",IF(A78 &lt;&gt; "", """mem"": bit" &amp; B78 &amp; "(" &amp; A78 &amp; "),", ""),"""good"": ",IF(A78 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A78 &lt;&gt; "", A78, -1),", ""bit"": ",IF(B78 &lt;&gt; 0, B78, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C78, Levels!B:B, 0), 1, 1)),", ",IF(A78 &lt;&gt; "", """mem"": bit" &amp; B78 &amp; "(" &amp; A78 &amp; "),", ""),"""good"": ",IF(A78 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A78 &lt;&gt; "", A78, -1),", ""bit"": ",IF(B78 &lt;&gt; "", B78, -1),"},")</f>
         <v>77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},</v>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
         <v>42</v>
       </c>
       <c r="D79" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C79, Levels!B:B, 0), 1, 1)),", ",IF(A79 &lt;&gt; "", """mem"": bit" &amp; B79 &amp; "(" &amp; A79 &amp; "),", ""),"""good"": ",IF(A79 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A79 &lt;&gt; "", A79, -1),", ""bit"": ",IF(B79 &lt;&gt; 0, B79, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C79, Levels!B:B, 0), 1, 1)),", ",IF(A79 &lt;&gt; "", """mem"": bit" &amp; B79 &amp; "(" &amp; A79 &amp; "),", ""),"""good"": ",IF(A79 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A79 &lt;&gt; "", A79, -1),", ""bit"": ",IF(B79 &lt;&gt; "", B79, -1),"},")</f>
         <v>78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},</v>
       </c>
     </row>
@@ -8956,7 +8956,7 @@
         <v>42</v>
       </c>
       <c r="D80" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C80, Levels!B:B, 0), 1, 1)),", ",IF(A80 &lt;&gt; "", """mem"": bit" &amp; B80 &amp; "(" &amp; A80 &amp; "),", ""),"""good"": ",IF(A80 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A80 &lt;&gt; "", A80, -1),", ""bit"": ",IF(B80 &lt;&gt; 0, B80, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C80, Levels!B:B, 0), 1, 1)),", ",IF(A80 &lt;&gt; "", """mem"": bit" &amp; B80 &amp; "(" &amp; A80 &amp; "),", ""),"""good"": ",IF(A80 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A80 &lt;&gt; "", A80, -1),", ""bit"": ",IF(B80 &lt;&gt; "", B80, -1),"},")</f>
         <v>79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},</v>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
         <v>42</v>
       </c>
       <c r="D81" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C81, Levels!B:B, 0), 1, 1)),", ",IF(A81 &lt;&gt; "", """mem"": bit" &amp; B81 &amp; "(" &amp; A81 &amp; "),", ""),"""good"": ",IF(A81 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A81 &lt;&gt; "", A81, -1),", ""bit"": ",IF(B81 &lt;&gt; 0, B81, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C81, Levels!B:B, 0), 1, 1)),", ",IF(A81 &lt;&gt; "", """mem"": bit" &amp; B81 &amp; "(" &amp; A81 &amp; "),", ""),"""good"": ",IF(A81 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A81 &lt;&gt; "", A81, -1),", ""bit"": ",IF(B81 &lt;&gt; "", B81, -1),"},")</f>
         <v>80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},</v>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
         <v>42</v>
       </c>
       <c r="D82" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C82, Levels!B:B, 0), 1, 1)),", ",IF(A82 &lt;&gt; "", """mem"": bit" &amp; B82 &amp; "(" &amp; A82 &amp; "),", ""),"""good"": ",IF(A82 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A82 &lt;&gt; "", A82, -1),", ""bit"": ",IF(B82 &lt;&gt; 0, B82, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C82, Levels!B:B, 0), 1, 1)),", ",IF(A82 &lt;&gt; "", """mem"": bit" &amp; B82 &amp; "(" &amp; A82 &amp; "),", ""),"""good"": ",IF(A82 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A82 &lt;&gt; "", A82, -1),", ""bit"": ",IF(B82 &lt;&gt; "", B82, -1),"},")</f>
         <v>81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},</v>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
         <v>42</v>
       </c>
       <c r="D83" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C83, Levels!B:B, 0), 1, 1)),", ",IF(A83 &lt;&gt; "", """mem"": bit" &amp; B83 &amp; "(" &amp; A83 &amp; "),", ""),"""good"": ",IF(A83 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A83 &lt;&gt; "", A83, -1),", ""bit"": ",IF(B83 &lt;&gt; 0, B83, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C83, Levels!B:B, 0), 1, 1)),", ",IF(A83 &lt;&gt; "", """mem"": bit" &amp; B83 &amp; "(" &amp; A83 &amp; "),", ""),"""good"": ",IF(A83 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A83 &lt;&gt; "", A83, -1),", ""bit"": ",IF(B83 &lt;&gt; "", B83, -1),"},")</f>
         <v>82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},</v>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
         <v>42</v>
       </c>
       <c r="D84" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C84, Levels!B:B, 0), 1, 1)),", ",IF(A84 &lt;&gt; "", """mem"": bit" &amp; B84 &amp; "(" &amp; A84 &amp; "),", ""),"""good"": ",IF(A84 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A84 &lt;&gt; "", A84, -1),", ""bit"": ",IF(B84 &lt;&gt; 0, B84, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C84, Levels!B:B, 0), 1, 1)),", ",IF(A84 &lt;&gt; "", """mem"": bit" &amp; B84 &amp; "(" &amp; A84 &amp; "),", ""),"""good"": ",IF(A84 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A84 &lt;&gt; "", A84, -1),", ""bit"": ",IF(B84 &lt;&gt; "", B84, -1),"},")</f>
         <v>83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},</v>
       </c>
     </row>
@@ -9031,8 +9031,8 @@
         <v>42</v>
       </c>
       <c r="D85" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C85, Levels!B:B, 0), 1, 1)),", ",IF(A85 &lt;&gt; "", """mem"": bit" &amp; B85 &amp; "(" &amp; A85 &amp; "),", ""),"""good"": ",IF(A85 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A85 &lt;&gt; "", A85, -1),", ""bit"": ",IF(B85 &lt;&gt; 0, B85, -1),"},")</f>
-        <v>84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C85, Levels!B:B, 0), 1, 1)),", ",IF(A85 &lt;&gt; "", """mem"": bit" &amp; B85 &amp; "(" &amp; A85 &amp; "),", ""),"""good"": ",IF(A85 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A85 &lt;&gt; "", A85, -1),", ""bit"": ",IF(B85 &lt;&gt; "", B85, -1),"},")</f>
+        <v>84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,7 +9046,7 @@
         <v>42</v>
       </c>
       <c r="D86" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C86, Levels!B:B, 0), 1, 1)),", ",IF(A86 &lt;&gt; "", """mem"": bit" &amp; B86 &amp; "(" &amp; A86 &amp; "),", ""),"""good"": ",IF(A86 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A86 &lt;&gt; "", A86, -1),", ""bit"": ",IF(B86 &lt;&gt; 0, B86, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C86, Levels!B:B, 0), 1, 1)),", ",IF(A86 &lt;&gt; "", """mem"": bit" &amp; B86 &amp; "(" &amp; A86 &amp; "),", ""),"""good"": ",IF(A86 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A86 &lt;&gt; "", A86, -1),", ""bit"": ",IF(B86 &lt;&gt; "", B86, -1),"},")</f>
         <v>85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},</v>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
         <v>42</v>
       </c>
       <c r="D87" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C87, Levels!B:B, 0), 1, 1)),", ",IF(A87 &lt;&gt; "", """mem"": bit" &amp; B87 &amp; "(" &amp; A87 &amp; "),", ""),"""good"": ",IF(A87 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A87 &lt;&gt; "", A87, -1),", ""bit"": ",IF(B87 &lt;&gt; 0, B87, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C87, Levels!B:B, 0), 1, 1)),", ",IF(A87 &lt;&gt; "", """mem"": bit" &amp; B87 &amp; "(" &amp; A87 &amp; "),", ""),"""good"": ",IF(A87 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A87 &lt;&gt; "", A87, -1),", ""bit"": ",IF(B87 &lt;&gt; "", B87, -1),"},")</f>
         <v>86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},</v>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>42</v>
       </c>
       <c r="D88" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C88, Levels!B:B, 0), 1, 1)),", ",IF(A88 &lt;&gt; "", """mem"": bit" &amp; B88 &amp; "(" &amp; A88 &amp; "),", ""),"""good"": ",IF(A88 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A88 &lt;&gt; "", A88, -1),", ""bit"": ",IF(B88 &lt;&gt; 0, B88, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C88, Levels!B:B, 0), 1, 1)),", ",IF(A88 &lt;&gt; "", """mem"": bit" &amp; B88 &amp; "(" &amp; A88 &amp; "),", ""),"""good"": ",IF(A88 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A88 &lt;&gt; "", A88, -1),", ""bit"": ",IF(B88 &lt;&gt; "", B88, -1),"},")</f>
         <v>87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},</v>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
         <v>48</v>
       </c>
       <c r="D89" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C89, Levels!B:B, 0), 1, 1)),", ",IF(A89 &lt;&gt; "", """mem"": bit" &amp; B89 &amp; "(" &amp; A89 &amp; "),", ""),"""good"": ",IF(A89 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A89 &lt;&gt; "", A89, -1),", ""bit"": ",IF(B89 &lt;&gt; 0, B89, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C89, Levels!B:B, 0), 1, 1)),", ",IF(A89 &lt;&gt; "", """mem"": bit" &amp; B89 &amp; "(" &amp; A89 &amp; "),", ""),"""good"": ",IF(A89 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A89 &lt;&gt; "", A89, -1),", ""bit"": ",IF(B89 &lt;&gt; "", B89, -1),"},")</f>
         <v>88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},</v>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
         <v>48</v>
       </c>
       <c r="D90" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C90, Levels!B:B, 0), 1, 1)),", ",IF(A90 &lt;&gt; "", """mem"": bit" &amp; B90 &amp; "(" &amp; A90 &amp; "),", ""),"""good"": ",IF(A90 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A90 &lt;&gt; "", A90, -1),", ""bit"": ",IF(B90 &lt;&gt; 0, B90, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C90, Levels!B:B, 0), 1, 1)),", ",IF(A90 &lt;&gt; "", """mem"": bit" &amp; B90 &amp; "(" &amp; A90 &amp; "),", ""),"""good"": ",IF(A90 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A90 &lt;&gt; "", A90, -1),", ""bit"": ",IF(B90 &lt;&gt; "", B90, -1),"},")</f>
         <v>89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},</v>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
         <v>48</v>
       </c>
       <c r="D91" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C91, Levels!B:B, 0), 1, 1)),", ",IF(A91 &lt;&gt; "", """mem"": bit" &amp; B91 &amp; "(" &amp; A91 &amp; "),", ""),"""good"": ",IF(A91 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A91 &lt;&gt; "", A91, -1),", ""bit"": ",IF(B91 &lt;&gt; 0, B91, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C91, Levels!B:B, 0), 1, 1)),", ",IF(A91 &lt;&gt; "", """mem"": bit" &amp; B91 &amp; "(" &amp; A91 &amp; "),", ""),"""good"": ",IF(A91 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A91 &lt;&gt; "", A91, -1),", ""bit"": ",IF(B91 &lt;&gt; "", B91, -1),"},")</f>
         <v>90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},</v>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
         <v>48</v>
       </c>
       <c r="D92" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C92, Levels!B:B, 0), 1, 1)),", ",IF(A92 &lt;&gt; "", """mem"": bit" &amp; B92 &amp; "(" &amp; A92 &amp; "),", ""),"""good"": ",IF(A92 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A92 &lt;&gt; "", A92, -1),", ""bit"": ",IF(B92 &lt;&gt; 0, B92, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C92, Levels!B:B, 0), 1, 1)),", ",IF(A92 &lt;&gt; "", """mem"": bit" &amp; B92 &amp; "(" &amp; A92 &amp; "),", ""),"""good"": ",IF(A92 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A92 &lt;&gt; "", A92, -1),", ""bit"": ",IF(B92 &lt;&gt; "", B92, -1),"},")</f>
         <v>91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},</v>
       </c>
     </row>
@@ -9151,8 +9151,8 @@
         <v>48</v>
       </c>
       <c r="D93" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C93, Levels!B:B, 0), 1, 1)),", ",IF(A93 &lt;&gt; "", """mem"": bit" &amp; B93 &amp; "(" &amp; A93 &amp; "),", ""),"""good"": ",IF(A93 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A93 &lt;&gt; "", A93, -1),", ""bit"": ",IF(B93 &lt;&gt; 0, B93, -1),"},")</f>
-        <v>92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C93, Levels!B:B, 0), 1, 1)),", ",IF(A93 &lt;&gt; "", """mem"": bit" &amp; B93 &amp; "(" &amp; A93 &amp; "),", ""),"""good"": ",IF(A93 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A93 &lt;&gt; "", A93, -1),", ""bit"": ",IF(B93 &lt;&gt; "", B93, -1),"},")</f>
+        <v>92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,7 +9166,7 @@
         <v>48</v>
       </c>
       <c r="D94" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C94, Levels!B:B, 0), 1, 1)),", ",IF(A94 &lt;&gt; "", """mem"": bit" &amp; B94 &amp; "(" &amp; A94 &amp; "),", ""),"""good"": ",IF(A94 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A94 &lt;&gt; "", A94, -1),", ""bit"": ",IF(B94 &lt;&gt; 0, B94, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C94, Levels!B:B, 0), 1, 1)),", ",IF(A94 &lt;&gt; "", """mem"": bit" &amp; B94 &amp; "(" &amp; A94 &amp; "),", ""),"""good"": ",IF(A94 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A94 &lt;&gt; "", A94, -1),", ""bit"": ",IF(B94 &lt;&gt; "", B94, -1),"},")</f>
         <v>93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},</v>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
         <v>48</v>
       </c>
       <c r="D95" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C95, Levels!B:B, 0), 1, 1)),", ",IF(A95 &lt;&gt; "", """mem"": bit" &amp; B95 &amp; "(" &amp; A95 &amp; "),", ""),"""good"": ",IF(A95 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A95 &lt;&gt; "", A95, -1),", ""bit"": ",IF(B95 &lt;&gt; 0, B95, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C95, Levels!B:B, 0), 1, 1)),", ",IF(A95 &lt;&gt; "", """mem"": bit" &amp; B95 &amp; "(" &amp; A95 &amp; "),", ""),"""good"": ",IF(A95 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A95 &lt;&gt; "", A95, -1),", ""bit"": ",IF(B95 &lt;&gt; "", B95, -1),"},")</f>
         <v>94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},</v>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
         <v>48</v>
       </c>
       <c r="D96" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C96, Levels!B:B, 0), 1, 1)),", ",IF(A96 &lt;&gt; "", """mem"": bit" &amp; B96 &amp; "(" &amp; A96 &amp; "),", ""),"""good"": ",IF(A96 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A96 &lt;&gt; "", A96, -1),", ""bit"": ",IF(B96 &lt;&gt; 0, B96, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C96, Levels!B:B, 0), 1, 1)),", ",IF(A96 &lt;&gt; "", """mem"": bit" &amp; B96 &amp; "(" &amp; A96 &amp; "),", ""),"""good"": ",IF(A96 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A96 &lt;&gt; "", A96, -1),", ""bit"": ",IF(B96 &lt;&gt; "", B96, -1),"},")</f>
         <v>95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},</v>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
         <v>48</v>
       </c>
       <c r="D97" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C97, Levels!B:B, 0), 1, 1)),", ",IF(A97 &lt;&gt; "", """mem"": bit" &amp; B97 &amp; "(" &amp; A97 &amp; "),", ""),"""good"": ",IF(A97 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A97 &lt;&gt; "", A97, -1),", ""bit"": ",IF(B97 &lt;&gt; 0, B97, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C97, Levels!B:B, 0), 1, 1)),", ",IF(A97 &lt;&gt; "", """mem"": bit" &amp; B97 &amp; "(" &amp; A97 &amp; "),", ""),"""good"": ",IF(A97 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A97 &lt;&gt; "", A97, -1),", ""bit"": ",IF(B97 &lt;&gt; "", B97, -1),"},")</f>
         <v>96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},</v>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C98, Levels!B:B, 0), 1, 1)),", ",IF(A98 &lt;&gt; "", """mem"": bit" &amp; B98 &amp; "(" &amp; A98 &amp; "),", ""),"""good"": ",IF(A98 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A98 &lt;&gt; "", A98, -1),", ""bit"": ",IF(B98 &lt;&gt; 0, B98, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C98, Levels!B:B, 0), 1, 1)),", ",IF(A98 &lt;&gt; "", """mem"": bit" &amp; B98 &amp; "(" &amp; A98 &amp; "),", ""),"""good"": ",IF(A98 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A98 &lt;&gt; "", A98, -1),", ""bit"": ",IF(B98 &lt;&gt; "", B98, -1),"},")</f>
         <v>97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},</v>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
         <v>48</v>
       </c>
       <c r="D99" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C99, Levels!B:B, 0), 1, 1)),", ",IF(A99 &lt;&gt; "", """mem"": bit" &amp; B99 &amp; "(" &amp; A99 &amp; "),", ""),"""good"": ",IF(A99 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A99 &lt;&gt; "", A99, -1),", ""bit"": ",IF(B99 &lt;&gt; 0, B99, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C99, Levels!B:B, 0), 1, 1)),", ",IF(A99 &lt;&gt; "", """mem"": bit" &amp; B99 &amp; "(" &amp; A99 &amp; "),", ""),"""good"": ",IF(A99 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A99 &lt;&gt; "", A99, -1),", ""bit"": ",IF(B99 &lt;&gt; "", B99, -1),"},")</f>
         <v>98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},</v>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
         <v>48</v>
       </c>
       <c r="D100" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C100, Levels!B:B, 0), 1, 1)),", ",IF(A100 &lt;&gt; "", """mem"": bit" &amp; B100 &amp; "(" &amp; A100 &amp; "),", ""),"""good"": ",IF(A100 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A100 &lt;&gt; "", A100, -1),", ""bit"": ",IF(B100 &lt;&gt; 0, B100, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C100, Levels!B:B, 0), 1, 1)),", ",IF(A100 &lt;&gt; "", """mem"": bit" &amp; B100 &amp; "(" &amp; A100 &amp; "),", ""),"""good"": ",IF(A100 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A100 &lt;&gt; "", A100, -1),", ""bit"": ",IF(B100 &lt;&gt; "", B100, -1),"},")</f>
         <v>99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},</v>
       </c>
     </row>
@@ -9271,8 +9271,8 @@
         <v>48</v>
       </c>
       <c r="D101" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C101, Levels!B:B, 0), 1, 1)),", ",IF(A101 &lt;&gt; "", """mem"": bit" &amp; B101 &amp; "(" &amp; A101 &amp; "),", ""),"""good"": ",IF(A101 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A101 &lt;&gt; "", A101, -1),", ""bit"": ",IF(B101 &lt;&gt; 0, B101, -1),"},")</f>
-        <v>100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C101, Levels!B:B, 0), 1, 1)),", ",IF(A101 &lt;&gt; "", """mem"": bit" &amp; B101 &amp; "(" &amp; A101 &amp; "),", ""),"""good"": ",IF(A101 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A101 &lt;&gt; "", A101, -1),", ""bit"": ",IF(B101 &lt;&gt; "", B101, -1),"},")</f>
+        <v>100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,7 +9286,7 @@
         <v>48</v>
       </c>
       <c r="D102" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C102, Levels!B:B, 0), 1, 1)),", ",IF(A102 &lt;&gt; "", """mem"": bit" &amp; B102 &amp; "(" &amp; A102 &amp; "),", ""),"""good"": ",IF(A102 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A102 &lt;&gt; "", A102, -1),", ""bit"": ",IF(B102 &lt;&gt; 0, B102, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C102, Levels!B:B, 0), 1, 1)),", ",IF(A102 &lt;&gt; "", """mem"": bit" &amp; B102 &amp; "(" &amp; A102 &amp; "),", ""),"""good"": ",IF(A102 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A102 &lt;&gt; "", A102, -1),", ""bit"": ",IF(B102 &lt;&gt; "", B102, -1),"},")</f>
         <v>101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},</v>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
         <v>48</v>
       </c>
       <c r="D103" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C103, Levels!B:B, 0), 1, 1)),", ",IF(A103 &lt;&gt; "", """mem"": bit" &amp; B103 &amp; "(" &amp; A103 &amp; "),", ""),"""good"": ",IF(A103 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A103 &lt;&gt; "", A103, -1),", ""bit"": ",IF(B103 &lt;&gt; 0, B103, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C103, Levels!B:B, 0), 1, 1)),", ",IF(A103 &lt;&gt; "", """mem"": bit" &amp; B103 &amp; "(" &amp; A103 &amp; "),", ""),"""good"": ",IF(A103 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A103 &lt;&gt; "", A103, -1),", ""bit"": ",IF(B103 &lt;&gt; "", B103, -1),"},")</f>
         <v>102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},</v>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>48</v>
       </c>
       <c r="D104" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C104, Levels!B:B, 0), 1, 1)),", ",IF(A104 &lt;&gt; "", """mem"": bit" &amp; B104 &amp; "(" &amp; A104 &amp; "),", ""),"""good"": ",IF(A104 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A104 &lt;&gt; "", A104, -1),", ""bit"": ",IF(B104 &lt;&gt; 0, B104, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C104, Levels!B:B, 0), 1, 1)),", ",IF(A104 &lt;&gt; "", """mem"": bit" &amp; B104 &amp; "(" &amp; A104 &amp; "),", ""),"""good"": ",IF(A104 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A104 &lt;&gt; "", A104, -1),", ""bit"": ",IF(B104 &lt;&gt; "", B104, -1),"},")</f>
         <v>103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},</v>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
         <v>48</v>
       </c>
       <c r="D105" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C105, Levels!B:B, 0), 1, 1)),", ",IF(A105 &lt;&gt; "", """mem"": bit" &amp; B105 &amp; "(" &amp; A105 &amp; "),", ""),"""good"": ",IF(A105 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A105 &lt;&gt; "", A105, -1),", ""bit"": ",IF(B105 &lt;&gt; 0, B105, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C105, Levels!B:B, 0), 1, 1)),", ",IF(A105 &lt;&gt; "", """mem"": bit" &amp; B105 &amp; "(" &amp; A105 &amp; "),", ""),"""good"": ",IF(A105 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A105 &lt;&gt; "", A105, -1),", ""bit"": ",IF(B105 &lt;&gt; "", B105, -1),"},")</f>
         <v>104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},</v>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
         <v>48</v>
       </c>
       <c r="D106" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C106, Levels!B:B, 0), 1, 1)),", ",IF(A106 &lt;&gt; "", """mem"": bit" &amp; B106 &amp; "(" &amp; A106 &amp; "),", ""),"""good"": ",IF(A106 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A106 &lt;&gt; "", A106, -1),", ""bit"": ",IF(B106 &lt;&gt; 0, B106, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C106, Levels!B:B, 0), 1, 1)),", ",IF(A106 &lt;&gt; "", """mem"": bit" &amp; B106 &amp; "(" &amp; A106 &amp; "),", ""),"""good"": ",IF(A106 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A106 &lt;&gt; "", A106, -1),", ""bit"": ",IF(B106 &lt;&gt; "", B106, -1),"},")</f>
         <v>105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},</v>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
         <v>48</v>
       </c>
       <c r="D107" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C107, Levels!B:B, 0), 1, 1)),", ",IF(A107 &lt;&gt; "", """mem"": bit" &amp; B107 &amp; "(" &amp; A107 &amp; "),", ""),"""good"": ",IF(A107 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A107 &lt;&gt; "", A107, -1),", ""bit"": ",IF(B107 &lt;&gt; 0, B107, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C107, Levels!B:B, 0), 1, 1)),", ",IF(A107 &lt;&gt; "", """mem"": bit" &amp; B107 &amp; "(" &amp; A107 &amp; "),", ""),"""good"": ",IF(A107 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A107 &lt;&gt; "", A107, -1),", ""bit"": ",IF(B107 &lt;&gt; "", B107, -1),"},")</f>
         <v>106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},</v>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
         <v>48</v>
       </c>
       <c r="D108" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C108, Levels!B:B, 0), 1, 1)),", ",IF(A108 &lt;&gt; "", """mem"": bit" &amp; B108 &amp; "(" &amp; A108 &amp; "),", ""),"""good"": ",IF(A108 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A108 &lt;&gt; "", A108, -1),", ""bit"": ",IF(B108 &lt;&gt; 0, B108, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C108, Levels!B:B, 0), 1, 1)),", ",IF(A108 &lt;&gt; "", """mem"": bit" &amp; B108 &amp; "(" &amp; A108 &amp; "),", ""),"""good"": ",IF(A108 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A108 &lt;&gt; "", A108, -1),", ""bit"": ",IF(B108 &lt;&gt; "", B108, -1),"},")</f>
         <v>107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},</v>
       </c>
     </row>
@@ -9391,8 +9391,8 @@
         <v>48</v>
       </c>
       <c r="D109" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C109, Levels!B:B, 0), 1, 1)),", ",IF(A109 &lt;&gt; "", """mem"": bit" &amp; B109 &amp; "(" &amp; A109 &amp; "),", ""),"""good"": ",IF(A109 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A109 &lt;&gt; "", A109, -1),", ""bit"": ",IF(B109 &lt;&gt; 0, B109, -1),"},")</f>
-        <v>108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C109, Levels!B:B, 0), 1, 1)),", ",IF(A109 &lt;&gt; "", """mem"": bit" &amp; B109 &amp; "(" &amp; A109 &amp; "),", ""),"""good"": ",IF(A109 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A109 &lt;&gt; "", A109, -1),", ""bit"": ",IF(B109 &lt;&gt; "", B109, -1),"},")</f>
+        <v>108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9406,7 +9406,7 @@
         <v>48</v>
       </c>
       <c r="D110" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C110, Levels!B:B, 0), 1, 1)),", ",IF(A110 &lt;&gt; "", """mem"": bit" &amp; B110 &amp; "(" &amp; A110 &amp; "),", ""),"""good"": ",IF(A110 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A110 &lt;&gt; "", A110, -1),", ""bit"": ",IF(B110 &lt;&gt; 0, B110, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C110, Levels!B:B, 0), 1, 1)),", ",IF(A110 &lt;&gt; "", """mem"": bit" &amp; B110 &amp; "(" &amp; A110 &amp; "),", ""),"""good"": ",IF(A110 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A110 &lt;&gt; "", A110, -1),", ""bit"": ",IF(B110 &lt;&gt; "", B110, -1),"},")</f>
         <v>109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},</v>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
         <v>48</v>
       </c>
       <c r="D111" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C111, Levels!B:B, 0), 1, 1)),", ",IF(A111 &lt;&gt; "", """mem"": bit" &amp; B111 &amp; "(" &amp; A111 &amp; "),", ""),"""good"": ",IF(A111 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A111 &lt;&gt; "", A111, -1),", ""bit"": ",IF(B111 &lt;&gt; 0, B111, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C111, Levels!B:B, 0), 1, 1)),", ",IF(A111 &lt;&gt; "", """mem"": bit" &amp; B111 &amp; "(" &amp; A111 &amp; "),", ""),"""good"": ",IF(A111 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A111 &lt;&gt; "", A111, -1),", ""bit"": ",IF(B111 &lt;&gt; "", B111, -1),"},")</f>
         <v>110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},</v>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
         <v>48</v>
       </c>
       <c r="D112" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C112, Levels!B:B, 0), 1, 1)),", ",IF(A112 &lt;&gt; "", """mem"": bit" &amp; B112 &amp; "(" &amp; A112 &amp; "),", ""),"""good"": ",IF(A112 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A112 &lt;&gt; "", A112, -1),", ""bit"": ",IF(B112 &lt;&gt; 0, B112, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C112, Levels!B:B, 0), 1, 1)),", ",IF(A112 &lt;&gt; "", """mem"": bit" &amp; B112 &amp; "(" &amp; A112 &amp; "),", ""),"""good"": ",IF(A112 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A112 &lt;&gt; "", A112, -1),", ""bit"": ",IF(B112 &lt;&gt; "", B112, -1),"},")</f>
         <v>111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},</v>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
         <v>48</v>
       </c>
       <c r="D113" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C113, Levels!B:B, 0), 1, 1)),", ",IF(A113 &lt;&gt; "", """mem"": bit" &amp; B113 &amp; "(" &amp; A113 &amp; "),", ""),"""good"": ",IF(A113 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A113 &lt;&gt; "", A113, -1),", ""bit"": ",IF(B113 &lt;&gt; 0, B113, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C113, Levels!B:B, 0), 1, 1)),", ",IF(A113 &lt;&gt; "", """mem"": bit" &amp; B113 &amp; "(" &amp; A113 &amp; "),", ""),"""good"": ",IF(A113 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A113 &lt;&gt; "", A113, -1),", ""bit"": ",IF(B113 &lt;&gt; "", B113, -1),"},")</f>
         <v>112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},</v>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
         <v>48</v>
       </c>
       <c r="D114" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C114, Levels!B:B, 0), 1, 1)),", ",IF(A114 &lt;&gt; "", """mem"": bit" &amp; B114 &amp; "(" &amp; A114 &amp; "),", ""),"""good"": ",IF(A114 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A114 &lt;&gt; "", A114, -1),", ""bit"": ",IF(B114 &lt;&gt; 0, B114, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C114, Levels!B:B, 0), 1, 1)),", ",IF(A114 &lt;&gt; "", """mem"": bit" &amp; B114 &amp; "(" &amp; A114 &amp; "),", ""),"""good"": ",IF(A114 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A114 &lt;&gt; "", A114, -1),", ""bit"": ",IF(B114 &lt;&gt; "", B114, -1),"},")</f>
         <v>113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},</v>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
         <v>48</v>
       </c>
       <c r="D115" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C115, Levels!B:B, 0), 1, 1)),", ",IF(A115 &lt;&gt; "", """mem"": bit" &amp; B115 &amp; "(" &amp; A115 &amp; "),", ""),"""good"": ",IF(A115 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A115 &lt;&gt; "", A115, -1),", ""bit"": ",IF(B115 &lt;&gt; 0, B115, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C115, Levels!B:B, 0), 1, 1)),", ",IF(A115 &lt;&gt; "", """mem"": bit" &amp; B115 &amp; "(" &amp; A115 &amp; "),", ""),"""good"": ",IF(A115 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A115 &lt;&gt; "", A115, -1),", ""bit"": ",IF(B115 &lt;&gt; "", B115, -1),"},")</f>
         <v>114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},</v>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>48</v>
       </c>
       <c r="D116" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C116, Levels!B:B, 0), 1, 1)),", ",IF(A116 &lt;&gt; "", """mem"": bit" &amp; B116 &amp; "(" &amp; A116 &amp; "),", ""),"""good"": ",IF(A116 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A116 &lt;&gt; "", A116, -1),", ""bit"": ",IF(B116 &lt;&gt; 0, B116, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C116, Levels!B:B, 0), 1, 1)),", ",IF(A116 &lt;&gt; "", """mem"": bit" &amp; B116 &amp; "(" &amp; A116 &amp; "),", ""),"""good"": ",IF(A116 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A116 &lt;&gt; "", A116, -1),", ""bit"": ",IF(B116 &lt;&gt; "", B116, -1),"},")</f>
         <v>115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},</v>
       </c>
     </row>
@@ -9511,8 +9511,8 @@
         <v>48</v>
       </c>
       <c r="D117" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C117, Levels!B:B, 0), 1, 1)),", ",IF(A117 &lt;&gt; "", """mem"": bit" &amp; B117 &amp; "(" &amp; A117 &amp; "),", ""),"""good"": ",IF(A117 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A117 &lt;&gt; "", A117, -1),", ""bit"": ",IF(B117 &lt;&gt; 0, B117, -1),"},")</f>
-        <v>116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C117, Levels!B:B, 0), 1, 1)),", ",IF(A117 &lt;&gt; "", """mem"": bit" &amp; B117 &amp; "(" &amp; A117 &amp; "),", ""),"""good"": ",IF(A117 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A117 &lt;&gt; "", A117, -1),", ""bit"": ",IF(B117 &lt;&gt; "", B117, -1),"},")</f>
+        <v>116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9526,7 +9526,7 @@
         <v>48</v>
       </c>
       <c r="D118" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C118, Levels!B:B, 0), 1, 1)),", ",IF(A118 &lt;&gt; "", """mem"": bit" &amp; B118 &amp; "(" &amp; A118 &amp; "),", ""),"""good"": ",IF(A118 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A118 &lt;&gt; "", A118, -1),", ""bit"": ",IF(B118 &lt;&gt; 0, B118, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C118, Levels!B:B, 0), 1, 1)),", ",IF(A118 &lt;&gt; "", """mem"": bit" &amp; B118 &amp; "(" &amp; A118 &amp; "),", ""),"""good"": ",IF(A118 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A118 &lt;&gt; "", A118, -1),", ""bit"": ",IF(B118 &lt;&gt; "", B118, -1),"},")</f>
         <v>117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},</v>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
         <v>48</v>
       </c>
       <c r="D119" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C119, Levels!B:B, 0), 1, 1)),", ",IF(A119 &lt;&gt; "", """mem"": bit" &amp; B119 &amp; "(" &amp; A119 &amp; "),", ""),"""good"": ",IF(A119 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A119 &lt;&gt; "", A119, -1),", ""bit"": ",IF(B119 &lt;&gt; 0, B119, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C119, Levels!B:B, 0), 1, 1)),", ",IF(A119 &lt;&gt; "", """mem"": bit" &amp; B119 &amp; "(" &amp; A119 &amp; "),", ""),"""good"": ",IF(A119 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A119 &lt;&gt; "", A119, -1),", ""bit"": ",IF(B119 &lt;&gt; "", B119, -1),"},")</f>
         <v>118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},</v>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
         <v>48</v>
       </c>
       <c r="D120" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C120, Levels!B:B, 0), 1, 1)),", ",IF(A120 &lt;&gt; "", """mem"": bit" &amp; B120 &amp; "(" &amp; A120 &amp; "),", ""),"""good"": ",IF(A120 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A120 &lt;&gt; "", A120, -1),", ""bit"": ",IF(B120 &lt;&gt; 0, B120, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C120, Levels!B:B, 0), 1, 1)),", ",IF(A120 &lt;&gt; "", """mem"": bit" &amp; B120 &amp; "(" &amp; A120 &amp; "),", ""),"""good"": ",IF(A120 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A120 &lt;&gt; "", A120, -1),", ""bit"": ",IF(B120 &lt;&gt; "", B120, -1),"},")</f>
         <v>119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},</v>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
         <v>48</v>
       </c>
       <c r="D121" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C121, Levels!B:B, 0), 1, 1)),", ",IF(A121 &lt;&gt; "", """mem"": bit" &amp; B121 &amp; "(" &amp; A121 &amp; "),", ""),"""good"": ",IF(A121 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A121 &lt;&gt; "", A121, -1),", ""bit"": ",IF(B121 &lt;&gt; 0, B121, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C121, Levels!B:B, 0), 1, 1)),", ",IF(A121 &lt;&gt; "", """mem"": bit" &amp; B121 &amp; "(" &amp; A121 &amp; "),", ""),"""good"": ",IF(A121 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A121 &lt;&gt; "", A121, -1),", ""bit"": ",IF(B121 &lt;&gt; "", B121, -1),"},")</f>
         <v>120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},</v>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
         <v>48</v>
       </c>
       <c r="D122" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C122, Levels!B:B, 0), 1, 1)),", ",IF(A122 &lt;&gt; "", """mem"": bit" &amp; B122 &amp; "(" &amp; A122 &amp; "),", ""),"""good"": ",IF(A122 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A122 &lt;&gt; "", A122, -1),", ""bit"": ",IF(B122 &lt;&gt; 0, B122, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C122, Levels!B:B, 0), 1, 1)),", ",IF(A122 &lt;&gt; "", """mem"": bit" &amp; B122 &amp; "(" &amp; A122 &amp; "),", ""),"""good"": ",IF(A122 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A122 &lt;&gt; "", A122, -1),", ""bit"": ",IF(B122 &lt;&gt; "", B122, -1),"},")</f>
         <v>121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},</v>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
         <v>48</v>
       </c>
       <c r="D123" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C123, Levels!B:B, 0), 1, 1)),", ",IF(A123 &lt;&gt; "", """mem"": bit" &amp; B123 &amp; "(" &amp; A123 &amp; "),", ""),"""good"": ",IF(A123 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A123 &lt;&gt; "", A123, -1),", ""bit"": ",IF(B123 &lt;&gt; 0, B123, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C123, Levels!B:B, 0), 1, 1)),", ",IF(A123 &lt;&gt; "", """mem"": bit" &amp; B123 &amp; "(" &amp; A123 &amp; "),", ""),"""good"": ",IF(A123 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A123 &lt;&gt; "", A123, -1),", ""bit"": ",IF(B123 &lt;&gt; "", B123, -1),"},")</f>
         <v>122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},</v>
       </c>
     </row>
@@ -9616,8 +9616,8 @@
         <v>48</v>
       </c>
       <c r="D124" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C124, Levels!B:B, 0), 1, 1)),", ",IF(A124 &lt;&gt; "", """mem"": bit" &amp; B124 &amp; "(" &amp; A124 &amp; "),", ""),"""good"": ",IF(A124 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A124 &lt;&gt; "", A124, -1),", ""bit"": ",IF(B124 &lt;&gt; 0, B124, -1),"},")</f>
-        <v>123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C124, Levels!B:B, 0), 1, 1)),", ",IF(A124 &lt;&gt; "", """mem"": bit" &amp; B124 &amp; "(" &amp; A124 &amp; "),", ""),"""good"": ",IF(A124 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A124 &lt;&gt; "", A124, -1),", ""bit"": ",IF(B124 &lt;&gt; "", B124, -1),"},")</f>
+        <v>123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,7 +9631,7 @@
         <v>48</v>
       </c>
       <c r="D125" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C125, Levels!B:B, 0), 1, 1)),", ",IF(A125 &lt;&gt; "", """mem"": bit" &amp; B125 &amp; "(" &amp; A125 &amp; "),", ""),"""good"": ",IF(A125 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A125 &lt;&gt; "", A125, -1),", ""bit"": ",IF(B125 &lt;&gt; 0, B125, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C125, Levels!B:B, 0), 1, 1)),", ",IF(A125 &lt;&gt; "", """mem"": bit" &amp; B125 &amp; "(" &amp; A125 &amp; "),", ""),"""good"": ",IF(A125 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A125 &lt;&gt; "", A125, -1),", ""bit"": ",IF(B125 &lt;&gt; "", B125, -1),"},")</f>
         <v>124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},</v>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C126, Levels!B:B, 0), 1, 1)),", ",IF(A126 &lt;&gt; "", """mem"": bit" &amp; B126 &amp; "(" &amp; A126 &amp; "),", ""),"""good"": ",IF(A126 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A126 &lt;&gt; "", A126, -1),", ""bit"": ",IF(B126 &lt;&gt; 0, B126, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C126, Levels!B:B, 0), 1, 1)),", ",IF(A126 &lt;&gt; "", """mem"": bit" &amp; B126 &amp; "(" &amp; A126 &amp; "),", ""),"""good"": ",IF(A126 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A126 &lt;&gt; "", A126, -1),", ""bit"": ",IF(B126 &lt;&gt; "", B126, -1),"},")</f>
         <v>125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},</v>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C127, Levels!B:B, 0), 1, 1)),", ",IF(A127 &lt;&gt; "", """mem"": bit" &amp; B127 &amp; "(" &amp; A127 &amp; "),", ""),"""good"": ",IF(A127 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A127 &lt;&gt; "", A127, -1),", ""bit"": ",IF(B127 &lt;&gt; 0, B127, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C127, Levels!B:B, 0), 1, 1)),", ",IF(A127 &lt;&gt; "", """mem"": bit" &amp; B127 &amp; "(" &amp; A127 &amp; "),", ""),"""good"": ",IF(A127 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A127 &lt;&gt; "", A127, -1),", ""bit"": ",IF(B127 &lt;&gt; "", B127, -1),"},")</f>
         <v>126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},</v>
       </c>
     </row>
@@ -9676,7 +9676,7 @@
         <v>48</v>
       </c>
       <c r="D128" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C128, Levels!B:B, 0), 1, 1)),", ",IF(A128 &lt;&gt; "", """mem"": bit" &amp; B128 &amp; "(" &amp; A128 &amp; "),", ""),"""good"": ",IF(A128 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A128 &lt;&gt; "", A128, -1),", ""bit"": ",IF(B128 &lt;&gt; 0, B128, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C128, Levels!B:B, 0), 1, 1)),", ",IF(A128 &lt;&gt; "", """mem"": bit" &amp; B128 &amp; "(" &amp; A128 &amp; "),", ""),"""good"": ",IF(A128 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A128 &lt;&gt; "", A128, -1),", ""bit"": ",IF(B128 &lt;&gt; "", B128, -1),"},")</f>
         <v>127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},</v>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
         <v>48</v>
       </c>
       <c r="D129" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C129, Levels!B:B, 0), 1, 1)),", ",IF(A129 &lt;&gt; "", """mem"": bit" &amp; B129 &amp; "(" &amp; A129 &amp; "),", ""),"""good"": ",IF(A129 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A129 &lt;&gt; "", A129, -1),", ""bit"": ",IF(B129 &lt;&gt; 0, B129, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C129, Levels!B:B, 0), 1, 1)),", ",IF(A129 &lt;&gt; "", """mem"": bit" &amp; B129 &amp; "(" &amp; A129 &amp; "),", ""),"""good"": ",IF(A129 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A129 &lt;&gt; "", A129, -1),", ""bit"": ",IF(B129 &lt;&gt; "", B129, -1),"},")</f>
         <v>128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},</v>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
         <v>48</v>
       </c>
       <c r="D130" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C130, Levels!B:B, 0), 1, 1)),", ",IF(A130 &lt;&gt; "", """mem"": bit" &amp; B130 &amp; "(" &amp; A130 &amp; "),", ""),"""good"": ",IF(A130 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A130 &lt;&gt; "", A130, -1),", ""bit"": ",IF(B130 &lt;&gt; 0, B130, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C130, Levels!B:B, 0), 1, 1)),", ",IF(A130 &lt;&gt; "", """mem"": bit" &amp; B130 &amp; "(" &amp; A130 &amp; "),", ""),"""good"": ",IF(A130 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A130 &lt;&gt; "", A130, -1),", ""bit"": ",IF(B130 &lt;&gt; "", B130, -1),"},")</f>
         <v>129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},</v>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
         <v>48</v>
       </c>
       <c r="D131" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C131, Levels!B:B, 0), 1, 1)),", ",IF(A131 &lt;&gt; "", """mem"": bit" &amp; B131 &amp; "(" &amp; A131 &amp; "),", ""),"""good"": ",IF(A131 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A131 &lt;&gt; "", A131, -1),", ""bit"": ",IF(B131 &lt;&gt; 0, B131, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C131, Levels!B:B, 0), 1, 1)),", ",IF(A131 &lt;&gt; "", """mem"": bit" &amp; B131 &amp; "(" &amp; A131 &amp; "),", ""),"""good"": ",IF(A131 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A131 &lt;&gt; "", A131, -1),", ""bit"": ",IF(B131 &lt;&gt; "", B131, -1),"},")</f>
         <v>130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},</v>
       </c>
     </row>
@@ -9736,8 +9736,8 @@
         <v>48</v>
       </c>
       <c r="D132" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C132, Levels!B:B, 0), 1, 1)),", ",IF(A132 &lt;&gt; "", """mem"": bit" &amp; B132 &amp; "(" &amp; A132 &amp; "),", ""),"""good"": ",IF(A132 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A132 &lt;&gt; "", A132, -1),", ""bit"": ",IF(B132 &lt;&gt; 0, B132, -1),"},")</f>
-        <v>131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C132, Levels!B:B, 0), 1, 1)),", ",IF(A132 &lt;&gt; "", """mem"": bit" &amp; B132 &amp; "(" &amp; A132 &amp; "),", ""),"""good"": ",IF(A132 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A132 &lt;&gt; "", A132, -1),", ""bit"": ",IF(B132 &lt;&gt; "", B132, -1),"},")</f>
+        <v>131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,7 +9751,7 @@
         <v>48</v>
       </c>
       <c r="D133" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C133, Levels!B:B, 0), 1, 1)),", ",IF(A133 &lt;&gt; "", """mem"": bit" &amp; B133 &amp; "(" &amp; A133 &amp; "),", ""),"""good"": ",IF(A133 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A133 &lt;&gt; "", A133, -1),", ""bit"": ",IF(B133 &lt;&gt; 0, B133, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C133, Levels!B:B, 0), 1, 1)),", ",IF(A133 &lt;&gt; "", """mem"": bit" &amp; B133 &amp; "(" &amp; A133 &amp; "),", ""),"""good"": ",IF(A133 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A133 &lt;&gt; "", A133, -1),", ""bit"": ",IF(B133 &lt;&gt; "", B133, -1),"},")</f>
         <v>132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},</v>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
         <v>48</v>
       </c>
       <c r="D134" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C134, Levels!B:B, 0), 1, 1)),", ",IF(A134 &lt;&gt; "", """mem"": bit" &amp; B134 &amp; "(" &amp; A134 &amp; "),", ""),"""good"": ",IF(A134 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A134 &lt;&gt; "", A134, -1),", ""bit"": ",IF(B134 &lt;&gt; 0, B134, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C134, Levels!B:B, 0), 1, 1)),", ",IF(A134 &lt;&gt; "", """mem"": bit" &amp; B134 &amp; "(" &amp; A134 &amp; "),", ""),"""good"": ",IF(A134 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A134 &lt;&gt; "", A134, -1),", ""bit"": ",IF(B134 &lt;&gt; "", B134, -1),"},")</f>
         <v>133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},</v>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
         <v>48</v>
       </c>
       <c r="D135" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C135, Levels!B:B, 0), 1, 1)),", ",IF(A135 &lt;&gt; "", """mem"": bit" &amp; B135 &amp; "(" &amp; A135 &amp; "),", ""),"""good"": ",IF(A135 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A135 &lt;&gt; "", A135, -1),", ""bit"": ",IF(B135 &lt;&gt; 0, B135, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C135, Levels!B:B, 0), 1, 1)),", ",IF(A135 &lt;&gt; "", """mem"": bit" &amp; B135 &amp; "(" &amp; A135 &amp; "),", ""),"""good"": ",IF(A135 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A135 &lt;&gt; "", A135, -1),", ""bit"": ",IF(B135 &lt;&gt; "", B135, -1),"},")</f>
         <v>134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},</v>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
         <v>48</v>
       </c>
       <c r="D136" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C136, Levels!B:B, 0), 1, 1)),", ",IF(A136 &lt;&gt; "", """mem"": bit" &amp; B136 &amp; "(" &amp; A136 &amp; "),", ""),"""good"": ",IF(A136 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A136 &lt;&gt; "", A136, -1),", ""bit"": ",IF(B136 &lt;&gt; 0, B136, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C136, Levels!B:B, 0), 1, 1)),", ",IF(A136 &lt;&gt; "", """mem"": bit" &amp; B136 &amp; "(" &amp; A136 &amp; "),", ""),"""good"": ",IF(A136 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A136 &lt;&gt; "", A136, -1),", ""bit"": ",IF(B136 &lt;&gt; "", B136, -1),"},")</f>
         <v>135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},</v>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
         <v>48</v>
       </c>
       <c r="D137" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C137, Levels!B:B, 0), 1, 1)),", ",IF(A137 &lt;&gt; "", """mem"": bit" &amp; B137 &amp; "(" &amp; A137 &amp; "),", ""),"""good"": ",IF(A137 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A137 &lt;&gt; "", A137, -1),", ""bit"": ",IF(B137 &lt;&gt; 0, B137, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C137, Levels!B:B, 0), 1, 1)),", ",IF(A137 &lt;&gt; "", """mem"": bit" &amp; B137 &amp; "(" &amp; A137 &amp; "),", ""),"""good"": ",IF(A137 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A137 &lt;&gt; "", A137, -1),", ""bit"": ",IF(B137 &lt;&gt; "", B137, -1),"},")</f>
         <v>136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
         <v>19</v>
       </c>
       <c r="D138" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C138, Levels!B:B, 0), 1, 1)),", ",IF(A138 &lt;&gt; "", """mem"": bit" &amp; B138 &amp; "(" &amp; A138 &amp; "),", ""),"""good"": ",IF(A138 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A138 &lt;&gt; "", A138, -1),", ""bit"": ",IF(B138 &lt;&gt; 0, B138, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C138, Levels!B:B, 0), 1, 1)),", ",IF(A138 &lt;&gt; "", """mem"": bit" &amp; B138 &amp; "(" &amp; A138 &amp; "),", ""),"""good"": ",IF(A138 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A138 &lt;&gt; "", A138, -1),", ""bit"": ",IF(B138 &lt;&gt; "", B138, -1),"},")</f>
         <v>137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},</v>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
         <v>19</v>
       </c>
       <c r="D139" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C139, Levels!B:B, 0), 1, 1)),", ",IF(A139 &lt;&gt; "", """mem"": bit" &amp; B139 &amp; "(" &amp; A139 &amp; "),", ""),"""good"": ",IF(A139 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A139 &lt;&gt; "", A139, -1),", ""bit"": ",IF(B139 &lt;&gt; 0, B139, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C139, Levels!B:B, 0), 1, 1)),", ",IF(A139 &lt;&gt; "", """mem"": bit" &amp; B139 &amp; "(" &amp; A139 &amp; "),", ""),"""good"": ",IF(A139 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A139 &lt;&gt; "", A139, -1),", ""bit"": ",IF(B139 &lt;&gt; "", B139, -1),"},")</f>
         <v>138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},</v>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C140, Levels!B:B, 0), 1, 1)),", ",IF(A140 &lt;&gt; "", """mem"": bit" &amp; B140 &amp; "(" &amp; A140 &amp; "),", ""),"""good"": ",IF(A140 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A140 &lt;&gt; "", A140, -1),", ""bit"": ",IF(B140 &lt;&gt; 0, B140, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C140, Levels!B:B, 0), 1, 1)),", ",IF(A140 &lt;&gt; "", """mem"": bit" &amp; B140 &amp; "(" &amp; A140 &amp; "),", ""),"""good"": ",IF(A140 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A140 &lt;&gt; "", A140, -1),", ""bit"": ",IF(B140 &lt;&gt; "", B140, -1),"},")</f>
         <v>139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},</v>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
         <v>19</v>
       </c>
       <c r="D141" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C141, Levels!B:B, 0), 1, 1)),", ",IF(A141 &lt;&gt; "", """mem"": bit" &amp; B141 &amp; "(" &amp; A141 &amp; "),", ""),"""good"": ",IF(A141 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A141 &lt;&gt; "", A141, -1),", ""bit"": ",IF(B141 &lt;&gt; 0, B141, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C141, Levels!B:B, 0), 1, 1)),", ",IF(A141 &lt;&gt; "", """mem"": bit" &amp; B141 &amp; "(" &amp; A141 &amp; "),", ""),"""good"": ",IF(A141 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A141 &lt;&gt; "", A141, -1),", ""bit"": ",IF(B141 &lt;&gt; "", B141, -1),"},")</f>
         <v>140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},</v>
       </c>
     </row>
@@ -9886,7 +9886,7 @@
         <v>19</v>
       </c>
       <c r="D142" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C142, Levels!B:B, 0), 1, 1)),", ",IF(A142 &lt;&gt; "", """mem"": bit" &amp; B142 &amp; "(" &amp; A142 &amp; "),", ""),"""good"": ",IF(A142 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A142 &lt;&gt; "", A142, -1),", ""bit"": ",IF(B142 &lt;&gt; 0, B142, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C142, Levels!B:B, 0), 1, 1)),", ",IF(A142 &lt;&gt; "", """mem"": bit" &amp; B142 &amp; "(" &amp; A142 &amp; "),", ""),"""good"": ",IF(A142 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A142 &lt;&gt; "", A142, -1),", ""bit"": ",IF(B142 &lt;&gt; "", B142, -1),"},")</f>
         <v>141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},</v>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
         <v>48</v>
       </c>
       <c r="D143" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C143, Levels!B:B, 0), 1, 1)),", ",IF(A143 &lt;&gt; "", """mem"": bit" &amp; B143 &amp; "(" &amp; A143 &amp; "),", ""),"""good"": ",IF(A143 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A143 &lt;&gt; "", A143, -1),", ""bit"": ",IF(B143 &lt;&gt; 0, B143, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C143, Levels!B:B, 0), 1, 1)),", ",IF(A143 &lt;&gt; "", """mem"": bit" &amp; B143 &amp; "(" &amp; A143 &amp; "),", ""),"""good"": ",IF(A143 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A143 &lt;&gt; "", A143, -1),", ""bit"": ",IF(B143 &lt;&gt; "", B143, -1),"},")</f>
         <v>142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},</v>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
         <v>54</v>
       </c>
       <c r="D144" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C144, Levels!B:B, 0), 1, 1)),", ",IF(A144 &lt;&gt; "", """mem"": bit" &amp; B144 &amp; "(" &amp; A144 &amp; "),", ""),"""good"": ",IF(A144 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A144 &lt;&gt; "", A144, -1),", ""bit"": ",IF(B144 &lt;&gt; 0, B144, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C144, Levels!B:B, 0), 1, 1)),", ",IF(A144 &lt;&gt; "", """mem"": bit" &amp; B144 &amp; "(" &amp; A144 &amp; "),", ""),"""good"": ",IF(A144 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A144 &lt;&gt; "", A144, -1),", ""bit"": ",IF(B144 &lt;&gt; "", B144, -1),"},")</f>
         <v>143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},</v>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
         <v>54</v>
       </c>
       <c r="D145" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C145, Levels!B:B, 0), 1, 1)),", ",IF(A145 &lt;&gt; "", """mem"": bit" &amp; B145 &amp; "(" &amp; A145 &amp; "),", ""),"""good"": ",IF(A145 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A145 &lt;&gt; "", A145, -1),", ""bit"": ",IF(B145 &lt;&gt; 0, B145, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C145, Levels!B:B, 0), 1, 1)),", ",IF(A145 &lt;&gt; "", """mem"": bit" &amp; B145 &amp; "(" &amp; A145 &amp; "),", ""),"""good"": ",IF(A145 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A145 &lt;&gt; "", A145, -1),", ""bit"": ",IF(B145 &lt;&gt; "", B145, -1),"},")</f>
         <v>144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},</v>
       </c>
     </row>
@@ -9946,7 +9946,7 @@
         <v>54</v>
       </c>
       <c r="D146" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C146, Levels!B:B, 0), 1, 1)),", ",IF(A146 &lt;&gt; "", """mem"": bit" &amp; B146 &amp; "(" &amp; A146 &amp; "),", ""),"""good"": ",IF(A146 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A146 &lt;&gt; "", A146, -1),", ""bit"": ",IF(B146 &lt;&gt; 0, B146, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C146, Levels!B:B, 0), 1, 1)),", ",IF(A146 &lt;&gt; "", """mem"": bit" &amp; B146 &amp; "(" &amp; A146 &amp; "),", ""),"""good"": ",IF(A146 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A146 &lt;&gt; "", A146, -1),", ""bit"": ",IF(B146 &lt;&gt; "", B146, -1),"},")</f>
         <v>145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},</v>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
         <v>54</v>
       </c>
       <c r="D147" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C147, Levels!B:B, 0), 1, 1)),", ",IF(A147 &lt;&gt; "", """mem"": bit" &amp; B147 &amp; "(" &amp; A147 &amp; "),", ""),"""good"": ",IF(A147 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A147 &lt;&gt; "", A147, -1),", ""bit"": ",IF(B147 &lt;&gt; 0, B147, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C147, Levels!B:B, 0), 1, 1)),", ",IF(A147 &lt;&gt; "", """mem"": bit" &amp; B147 &amp; "(" &amp; A147 &amp; "),", ""),"""good"": ",IF(A147 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A147 &lt;&gt; "", A147, -1),", ""bit"": ",IF(B147 &lt;&gt; "", B147, -1),"},")</f>
         <v>146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},</v>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
         <v>54</v>
       </c>
       <c r="D148" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C148, Levels!B:B, 0), 1, 1)),", ",IF(A148 &lt;&gt; "", """mem"": bit" &amp; B148 &amp; "(" &amp; A148 &amp; "),", ""),"""good"": ",IF(A148 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A148 &lt;&gt; "", A148, -1),", ""bit"": ",IF(B148 &lt;&gt; 0, B148, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C148, Levels!B:B, 0), 1, 1)),", ",IF(A148 &lt;&gt; "", """mem"": bit" &amp; B148 &amp; "(" &amp; A148 &amp; "),", ""),"""good"": ",IF(A148 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A148 &lt;&gt; "", A148, -1),", ""bit"": ",IF(B148 &lt;&gt; "", B148, -1),"},")</f>
         <v>147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},</v>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
         <v>54</v>
       </c>
       <c r="D149" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C149, Levels!B:B, 0), 1, 1)),", ",IF(A149 &lt;&gt; "", """mem"": bit" &amp; B149 &amp; "(" &amp; A149 &amp; "),", ""),"""good"": ",IF(A149 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A149 &lt;&gt; "", A149, -1),", ""bit"": ",IF(B149 &lt;&gt; 0, B149, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C149, Levels!B:B, 0), 1, 1)),", ",IF(A149 &lt;&gt; "", """mem"": bit" &amp; B149 &amp; "(" &amp; A149 &amp; "),", ""),"""good"": ",IF(A149 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A149 &lt;&gt; "", A149, -1),", ""bit"": ",IF(B149 &lt;&gt; "", B149, -1),"},")</f>
         <v>148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},</v>
       </c>
     </row>
@@ -10006,8 +10006,8 @@
         <v>54</v>
       </c>
       <c r="D150" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C150, Levels!B:B, 0), 1, 1)),", ",IF(A150 &lt;&gt; "", """mem"": bit" &amp; B150 &amp; "(" &amp; A150 &amp; "),", ""),"""good"": ",IF(A150 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A150 &lt;&gt; "", A150, -1),", ""bit"": ",IF(B150 &lt;&gt; 0, B150, -1),"},")</f>
-        <v>149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C150, Levels!B:B, 0), 1, 1)),", ",IF(A150 &lt;&gt; "", """mem"": bit" &amp; B150 &amp; "(" &amp; A150 &amp; "),", ""),"""good"": ",IF(A150 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A150 &lt;&gt; "", A150, -1),", ""bit"": ",IF(B150 &lt;&gt; "", B150, -1),"},")</f>
+        <v>149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,7 +10021,7 @@
         <v>54</v>
       </c>
       <c r="D151" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C151, Levels!B:B, 0), 1, 1)),", ",IF(A151 &lt;&gt; "", """mem"": bit" &amp; B151 &amp; "(" &amp; A151 &amp; "),", ""),"""good"": ",IF(A151 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A151 &lt;&gt; "", A151, -1),", ""bit"": ",IF(B151 &lt;&gt; 0, B151, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C151, Levels!B:B, 0), 1, 1)),", ",IF(A151 &lt;&gt; "", """mem"": bit" &amp; B151 &amp; "(" &amp; A151 &amp; "),", ""),"""good"": ",IF(A151 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A151 &lt;&gt; "", A151, -1),", ""bit"": ",IF(B151 &lt;&gt; "", B151, -1),"},")</f>
         <v>150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},</v>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
         <v>54</v>
       </c>
       <c r="D152" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C152, Levels!B:B, 0), 1, 1)),", ",IF(A152 &lt;&gt; "", """mem"": bit" &amp; B152 &amp; "(" &amp; A152 &amp; "),", ""),"""good"": ",IF(A152 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A152 &lt;&gt; "", A152, -1),", ""bit"": ",IF(B152 &lt;&gt; 0, B152, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C152, Levels!B:B, 0), 1, 1)),", ",IF(A152 &lt;&gt; "", """mem"": bit" &amp; B152 &amp; "(" &amp; A152 &amp; "),", ""),"""good"": ",IF(A152 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A152 &lt;&gt; "", A152, -1),", ""bit"": ",IF(B152 &lt;&gt; "", B152, -1),"},")</f>
         <v>151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},</v>
       </c>
     </row>
@@ -10051,7 +10051,7 @@
         <v>54</v>
       </c>
       <c r="D153" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C153, Levels!B:B, 0), 1, 1)),", ",IF(A153 &lt;&gt; "", """mem"": bit" &amp; B153 &amp; "(" &amp; A153 &amp; "),", ""),"""good"": ",IF(A153 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A153 &lt;&gt; "", A153, -1),", ""bit"": ",IF(B153 &lt;&gt; 0, B153, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C153, Levels!B:B, 0), 1, 1)),", ",IF(A153 &lt;&gt; "", """mem"": bit" &amp; B153 &amp; "(" &amp; A153 &amp; "),", ""),"""good"": ",IF(A153 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A153 &lt;&gt; "", A153, -1),", ""bit"": ",IF(B153 &lt;&gt; "", B153, -1),"},")</f>
         <v>152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},</v>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
         <v>54</v>
       </c>
       <c r="D154" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C154, Levels!B:B, 0), 1, 1)),", ",IF(A154 &lt;&gt; "", """mem"": bit" &amp; B154 &amp; "(" &amp; A154 &amp; "),", ""),"""good"": ",IF(A154 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A154 &lt;&gt; "", A154, -1),", ""bit"": ",IF(B154 &lt;&gt; 0, B154, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C154, Levels!B:B, 0), 1, 1)),", ",IF(A154 &lt;&gt; "", """mem"": bit" &amp; B154 &amp; "(" &amp; A154 &amp; "),", ""),"""good"": ",IF(A154 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A154 &lt;&gt; "", A154, -1),", ""bit"": ",IF(B154 &lt;&gt; "", B154, -1),"},")</f>
         <v>153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},</v>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
         <v>54</v>
       </c>
       <c r="D155" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C155, Levels!B:B, 0), 1, 1)),", ",IF(A155 &lt;&gt; "", """mem"": bit" &amp; B155 &amp; "(" &amp; A155 &amp; "),", ""),"""good"": ",IF(A155 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A155 &lt;&gt; "", A155, -1),", ""bit"": ",IF(B155 &lt;&gt; 0, B155, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C155, Levels!B:B, 0), 1, 1)),", ",IF(A155 &lt;&gt; "", """mem"": bit" &amp; B155 &amp; "(" &amp; A155 &amp; "),", ""),"""good"": ",IF(A155 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A155 &lt;&gt; "", A155, -1),", ""bit"": ",IF(B155 &lt;&gt; "", B155, -1),"},")</f>
         <v>154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},</v>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
         <v>54</v>
       </c>
       <c r="D156" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C156, Levels!B:B, 0), 1, 1)),", ",IF(A156 &lt;&gt; "", """mem"": bit" &amp; B156 &amp; "(" &amp; A156 &amp; "),", ""),"""good"": ",IF(A156 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A156 &lt;&gt; "", A156, -1),", ""bit"": ",IF(B156 &lt;&gt; 0, B156, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C156, Levels!B:B, 0), 1, 1)),", ",IF(A156 &lt;&gt; "", """mem"": bit" &amp; B156 &amp; "(" &amp; A156 &amp; "),", ""),"""good"": ",IF(A156 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A156 &lt;&gt; "", A156, -1),", ""bit"": ",IF(B156 &lt;&gt; "", B156, -1),"},")</f>
         <v>155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},</v>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
         <v>54</v>
       </c>
       <c r="D157" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C157, Levels!B:B, 0), 1, 1)),", ",IF(A157 &lt;&gt; "", """mem"": bit" &amp; B157 &amp; "(" &amp; A157 &amp; "),", ""),"""good"": ",IF(A157 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A157 &lt;&gt; "", A157, -1),", ""bit"": ",IF(B157 &lt;&gt; 0, B157, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C157, Levels!B:B, 0), 1, 1)),", ",IF(A157 &lt;&gt; "", """mem"": bit" &amp; B157 &amp; "(" &amp; A157 &amp; "),", ""),"""good"": ",IF(A157 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A157 &lt;&gt; "", A157, -1),", ""bit"": ",IF(B157 &lt;&gt; "", B157, -1),"},")</f>
         <v>156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},</v>
       </c>
     </row>
@@ -10126,8 +10126,8 @@
         <v>54</v>
       </c>
       <c r="D158" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C158, Levels!B:B, 0), 1, 1)),", ",IF(A158 &lt;&gt; "", """mem"": bit" &amp; B158 &amp; "(" &amp; A158 &amp; "),", ""),"""good"": ",IF(A158 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A158 &lt;&gt; "", A158, -1),", ""bit"": ",IF(B158 &lt;&gt; 0, B158, -1),"},")</f>
-        <v>157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C158, Levels!B:B, 0), 1, 1)),", ",IF(A158 &lt;&gt; "", """mem"": bit" &amp; B158 &amp; "(" &amp; A158 &amp; "),", ""),"""good"": ",IF(A158 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A158 &lt;&gt; "", A158, -1),", ""bit"": ",IF(B158 &lt;&gt; "", B158, -1),"},")</f>
+        <v>157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,7 +10141,7 @@
         <v>54</v>
       </c>
       <c r="D159" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C159, Levels!B:B, 0), 1, 1)),", ",IF(A159 &lt;&gt; "", """mem"": bit" &amp; B159 &amp; "(" &amp; A159 &amp; "),", ""),"""good"": ",IF(A159 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A159 &lt;&gt; "", A159, -1),", ""bit"": ",IF(B159 &lt;&gt; 0, B159, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C159, Levels!B:B, 0), 1, 1)),", ",IF(A159 &lt;&gt; "", """mem"": bit" &amp; B159 &amp; "(" &amp; A159 &amp; "),", ""),"""good"": ",IF(A159 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A159 &lt;&gt; "", A159, -1),", ""bit"": ",IF(B159 &lt;&gt; "", B159, -1),"},")</f>
         <v>158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},</v>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
         <v>54</v>
       </c>
       <c r="D160" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C160, Levels!B:B, 0), 1, 1)),", ",IF(A160 &lt;&gt; "", """mem"": bit" &amp; B160 &amp; "(" &amp; A160 &amp; "),", ""),"""good"": ",IF(A160 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A160 &lt;&gt; "", A160, -1),", ""bit"": ",IF(B160 &lt;&gt; 0, B160, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C160, Levels!B:B, 0), 1, 1)),", ",IF(A160 &lt;&gt; "", """mem"": bit" &amp; B160 &amp; "(" &amp; A160 &amp; "),", ""),"""good"": ",IF(A160 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A160 &lt;&gt; "", A160, -1),", ""bit"": ",IF(B160 &lt;&gt; "", B160, -1),"},")</f>
         <v>159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},</v>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
         <v>54</v>
       </c>
       <c r="D161" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C161, Levels!B:B, 0), 1, 1)),", ",IF(A161 &lt;&gt; "", """mem"": bit" &amp; B161 &amp; "(" &amp; A161 &amp; "),", ""),"""good"": ",IF(A161 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A161 &lt;&gt; "", A161, -1),", ""bit"": ",IF(B161 &lt;&gt; 0, B161, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C161, Levels!B:B, 0), 1, 1)),", ",IF(A161 &lt;&gt; "", """mem"": bit" &amp; B161 &amp; "(" &amp; A161 &amp; "),", ""),"""good"": ",IF(A161 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A161 &lt;&gt; "", A161, -1),", ""bit"": ",IF(B161 &lt;&gt; "", B161, -1),"},")</f>
         <v>160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},</v>
       </c>
     </row>
@@ -10186,8 +10186,8 @@
         <v>54</v>
       </c>
       <c r="D162" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C162, Levels!B:B, 0), 1, 1)),", ",IF(A162 &lt;&gt; "", """mem"": bit" &amp; B162 &amp; "(" &amp; A162 &amp; "),", ""),"""good"": ",IF(A162 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A162 &lt;&gt; "", A162, -1),", ""bit"": ",IF(B162 &lt;&gt; 0, B162, -1),"},")</f>
-        <v>161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C162, Levels!B:B, 0), 1, 1)),", ",IF(A162 &lt;&gt; "", """mem"": bit" &amp; B162 &amp; "(" &amp; A162 &amp; "),", ""),"""good"": ",IF(A162 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A162 &lt;&gt; "", A162, -1),", ""bit"": ",IF(B162 &lt;&gt; "", B162, -1),"},")</f>
+        <v>161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10201,7 +10201,7 @@
         <v>54</v>
       </c>
       <c r="D163" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C163, Levels!B:B, 0), 1, 1)),", ",IF(A163 &lt;&gt; "", """mem"": bit" &amp; B163 &amp; "(" &amp; A163 &amp; "),", ""),"""good"": ",IF(A163 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A163 &lt;&gt; "", A163, -1),", ""bit"": ",IF(B163 &lt;&gt; 0, B163, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C163, Levels!B:B, 0), 1, 1)),", ",IF(A163 &lt;&gt; "", """mem"": bit" &amp; B163 &amp; "(" &amp; A163 &amp; "),", ""),"""good"": ",IF(A163 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A163 &lt;&gt; "", A163, -1),", ""bit"": ",IF(B163 &lt;&gt; "", B163, -1),"},")</f>
         <v>162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},</v>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
         <v>54</v>
       </c>
       <c r="D164" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C164, Levels!B:B, 0), 1, 1)),", ",IF(A164 &lt;&gt; "", """mem"": bit" &amp; B164 &amp; "(" &amp; A164 &amp; "),", ""),"""good"": ",IF(A164 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A164 &lt;&gt; "", A164, -1),", ""bit"": ",IF(B164 &lt;&gt; 0, B164, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C164, Levels!B:B, 0), 1, 1)),", ",IF(A164 &lt;&gt; "", """mem"": bit" &amp; B164 &amp; "(" &amp; A164 &amp; "),", ""),"""good"": ",IF(A164 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A164 &lt;&gt; "", A164, -1),", ""bit"": ",IF(B164 &lt;&gt; "", B164, -1),"},")</f>
         <v>163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},</v>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
         <v>54</v>
       </c>
       <c r="D165" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C165, Levels!B:B, 0), 1, 1)),", ",IF(A165 &lt;&gt; "", """mem"": bit" &amp; B165 &amp; "(" &amp; A165 &amp; "),", ""),"""good"": ",IF(A165 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A165 &lt;&gt; "", A165, -1),", ""bit"": ",IF(B165 &lt;&gt; 0, B165, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C165, Levels!B:B, 0), 1, 1)),", ",IF(A165 &lt;&gt; "", """mem"": bit" &amp; B165 &amp; "(" &amp; A165 &amp; "),", ""),"""good"": ",IF(A165 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A165 &lt;&gt; "", A165, -1),", ""bit"": ",IF(B165 &lt;&gt; "", B165, -1),"},")</f>
         <v>164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},</v>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
         <v>54</v>
       </c>
       <c r="D166" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C166, Levels!B:B, 0), 1, 1)),", ",IF(A166 &lt;&gt; "", """mem"": bit" &amp; B166 &amp; "(" &amp; A166 &amp; "),", ""),"""good"": ",IF(A166 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A166 &lt;&gt; "", A166, -1),", ""bit"": ",IF(B166 &lt;&gt; 0, B166, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C166, Levels!B:B, 0), 1, 1)),", ",IF(A166 &lt;&gt; "", """mem"": bit" &amp; B166 &amp; "(" &amp; A166 &amp; "),", ""),"""good"": ",IF(A166 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A166 &lt;&gt; "", A166, -1),", ""bit"": ",IF(B166 &lt;&gt; "", B166, -1),"},")</f>
         <v>165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},</v>
       </c>
     </row>
@@ -10261,8 +10261,8 @@
         <v>54</v>
       </c>
       <c r="D167" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C167, Levels!B:B, 0), 1, 1)),", ",IF(A167 &lt;&gt; "", """mem"": bit" &amp; B167 &amp; "(" &amp; A167 &amp; "),", ""),"""good"": ",IF(A167 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A167 &lt;&gt; "", A167, -1),", ""bit"": ",IF(B167 &lt;&gt; 0, B167, -1),"},")</f>
-        <v>166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C167, Levels!B:B, 0), 1, 1)),", ",IF(A167 &lt;&gt; "", """mem"": bit" &amp; B167 &amp; "(" &amp; A167 &amp; "),", ""),"""good"": ",IF(A167 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A167 &lt;&gt; "", A167, -1),", ""bit"": ",IF(B167 &lt;&gt; "", B167, -1),"},")</f>
+        <v>166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,7 +10276,7 @@
         <v>54</v>
       </c>
       <c r="D168" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C168, Levels!B:B, 0), 1, 1)),", ",IF(A168 &lt;&gt; "", """mem"": bit" &amp; B168 &amp; "(" &amp; A168 &amp; "),", ""),"""good"": ",IF(A168 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A168 &lt;&gt; "", A168, -1),", ""bit"": ",IF(B168 &lt;&gt; 0, B168, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C168, Levels!B:B, 0), 1, 1)),", ",IF(A168 &lt;&gt; "", """mem"": bit" &amp; B168 &amp; "(" &amp; A168 &amp; "),", ""),"""good"": ",IF(A168 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A168 &lt;&gt; "", A168, -1),", ""bit"": ",IF(B168 &lt;&gt; "", B168, -1),"},")</f>
         <v>167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},</v>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
         <v>54</v>
       </c>
       <c r="D169" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C169, Levels!B:B, 0), 1, 1)),", ",IF(A169 &lt;&gt; "", """mem"": bit" &amp; B169 &amp; "(" &amp; A169 &amp; "),", ""),"""good"": ",IF(A169 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A169 &lt;&gt; "", A169, -1),", ""bit"": ",IF(B169 &lt;&gt; 0, B169, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C169, Levels!B:B, 0), 1, 1)),", ",IF(A169 &lt;&gt; "", """mem"": bit" &amp; B169 &amp; "(" &amp; A169 &amp; "),", ""),"""good"": ",IF(A169 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A169 &lt;&gt; "", A169, -1),", ""bit"": ",IF(B169 &lt;&gt; "", B169, -1),"},")</f>
         <v>168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},</v>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
         <v>54</v>
       </c>
       <c r="D170" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C170, Levels!B:B, 0), 1, 1)),", ",IF(A170 &lt;&gt; "", """mem"": bit" &amp; B170 &amp; "(" &amp; A170 &amp; "),", ""),"""good"": ",IF(A170 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A170 &lt;&gt; "", A170, -1),", ""bit"": ",IF(B170 &lt;&gt; 0, B170, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C170, Levels!B:B, 0), 1, 1)),", ",IF(A170 &lt;&gt; "", """mem"": bit" &amp; B170 &amp; "(" &amp; A170 &amp; "),", ""),"""good"": ",IF(A170 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A170 &lt;&gt; "", A170, -1),", ""bit"": ",IF(B170 &lt;&gt; "", B170, -1),"},")</f>
         <v>169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},</v>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
         <v>54</v>
       </c>
       <c r="D171" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C171, Levels!B:B, 0), 1, 1)),", ",IF(A171 &lt;&gt; "", """mem"": bit" &amp; B171 &amp; "(" &amp; A171 &amp; "),", ""),"""good"": ",IF(A171 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A171 &lt;&gt; "", A171, -1),", ""bit"": ",IF(B171 &lt;&gt; 0, B171, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C171, Levels!B:B, 0), 1, 1)),", ",IF(A171 &lt;&gt; "", """mem"": bit" &amp; B171 &amp; "(" &amp; A171 &amp; "),", ""),"""good"": ",IF(A171 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A171 &lt;&gt; "", A171, -1),", ""bit"": ",IF(B171 &lt;&gt; "", B171, -1),"},")</f>
         <v>170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},</v>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
         <v>54</v>
       </c>
       <c r="D172" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C172, Levels!B:B, 0), 1, 1)),", ",IF(A172 &lt;&gt; "", """mem"": bit" &amp; B172 &amp; "(" &amp; A172 &amp; "),", ""),"""good"": ",IF(A172 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A172 &lt;&gt; "", A172, -1),", ""bit"": ",IF(B172 &lt;&gt; 0, B172, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C172, Levels!B:B, 0), 1, 1)),", ",IF(A172 &lt;&gt; "", """mem"": bit" &amp; B172 &amp; "(" &amp; A172 &amp; "),", ""),"""good"": ",IF(A172 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A172 &lt;&gt; "", A172, -1),", ""bit"": ",IF(B172 &lt;&gt; "", B172, -1),"},")</f>
         <v>171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},</v>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
         <v>54</v>
       </c>
       <c r="D173" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C173, Levels!B:B, 0), 1, 1)),", ",IF(A173 &lt;&gt; "", """mem"": bit" &amp; B173 &amp; "(" &amp; A173 &amp; "),", ""),"""good"": ",IF(A173 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A173 &lt;&gt; "", A173, -1),", ""bit"": ",IF(B173 &lt;&gt; 0, B173, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C173, Levels!B:B, 0), 1, 1)),", ",IF(A173 &lt;&gt; "", """mem"": bit" &amp; B173 &amp; "(" &amp; A173 &amp; "),", ""),"""good"": ",IF(A173 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A173 &lt;&gt; "", A173, -1),", ""bit"": ",IF(B173 &lt;&gt; "", B173, -1),"},")</f>
         <v>172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},</v>
       </c>
     </row>
@@ -10366,7 +10366,7 @@
         <v>54</v>
       </c>
       <c r="D174" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C174, Levels!B:B, 0), 1, 1)),", ",IF(A174 &lt;&gt; "", """mem"": bit" &amp; B174 &amp; "(" &amp; A174 &amp; "),", ""),"""good"": ",IF(A174 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A174 &lt;&gt; "", A174, -1),", ""bit"": ",IF(B174 &lt;&gt; 0, B174, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C174, Levels!B:B, 0), 1, 1)),", ",IF(A174 &lt;&gt; "", """mem"": bit" &amp; B174 &amp; "(" &amp; A174 &amp; "),", ""),"""good"": ",IF(A174 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A174 &lt;&gt; "", A174, -1),", ""bit"": ",IF(B174 &lt;&gt; "", B174, -1),"},")</f>
         <v>173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},</v>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
         <v>54</v>
       </c>
       <c r="D175" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C175, Levels!B:B, 0), 1, 1)),", ",IF(A175 &lt;&gt; "", """mem"": bit" &amp; B175 &amp; "(" &amp; A175 &amp; "),", ""),"""good"": ",IF(A175 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A175 &lt;&gt; "", A175, -1),", ""bit"": ",IF(B175 &lt;&gt; 0, B175, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C175, Levels!B:B, 0), 1, 1)),", ",IF(A175 &lt;&gt; "", """mem"": bit" &amp; B175 &amp; "(" &amp; A175 &amp; "),", ""),"""good"": ",IF(A175 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A175 &lt;&gt; "", A175, -1),", ""bit"": ",IF(B175 &lt;&gt; "", B175, -1),"},")</f>
         <v>174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},</v>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
         <v>54</v>
       </c>
       <c r="D176" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C176, Levels!B:B, 0), 1, 1)),", ",IF(A176 &lt;&gt; "", """mem"": bit" &amp; B176 &amp; "(" &amp; A176 &amp; "),", ""),"""good"": ",IF(A176 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A176 &lt;&gt; "", A176, -1),", ""bit"": ",IF(B176 &lt;&gt; 0, B176, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C176, Levels!B:B, 0), 1, 1)),", ",IF(A176 &lt;&gt; "", """mem"": bit" &amp; B176 &amp; "(" &amp; A176 &amp; "),", ""),"""good"": ",IF(A176 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A176 &lt;&gt; "", A176, -1),", ""bit"": ",IF(B176 &lt;&gt; "", B176, -1),"},")</f>
         <v>175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},</v>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
         <v>54</v>
       </c>
       <c r="D177" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C177, Levels!B:B, 0), 1, 1)),", ",IF(A177 &lt;&gt; "", """mem"": bit" &amp; B177 &amp; "(" &amp; A177 &amp; "),", ""),"""good"": ",IF(A177 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A177 &lt;&gt; "", A177, -1),", ""bit"": ",IF(B177 &lt;&gt; 0, B177, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C177, Levels!B:B, 0), 1, 1)),", ",IF(A177 &lt;&gt; "", """mem"": bit" &amp; B177 &amp; "(" &amp; A177 &amp; "),", ""),"""good"": ",IF(A177 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A177 &lt;&gt; "", A177, -1),", ""bit"": ",IF(B177 &lt;&gt; "", B177, -1),"},")</f>
         <v>176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},</v>
       </c>
     </row>
@@ -10426,8 +10426,8 @@
         <v>54</v>
       </c>
       <c r="D178" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C178, Levels!B:B, 0), 1, 1)),", ",IF(A178 &lt;&gt; "", """mem"": bit" &amp; B178 &amp; "(" &amp; A178 &amp; "),", ""),"""good"": ",IF(A178 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A178 &lt;&gt; "", A178, -1),", ""bit"": ",IF(B178 &lt;&gt; 0, B178, -1),"},")</f>
-        <v>177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C178, Levels!B:B, 0), 1, 1)),", ",IF(A178 &lt;&gt; "", """mem"": bit" &amp; B178 &amp; "(" &amp; A178 &amp; "),", ""),"""good"": ",IF(A178 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A178 &lt;&gt; "", A178, -1),", ""bit"": ",IF(B178 &lt;&gt; "", B178, -1),"},")</f>
+        <v>177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10441,7 +10441,7 @@
         <v>54</v>
       </c>
       <c r="D179" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C179, Levels!B:B, 0), 1, 1)),", ",IF(A179 &lt;&gt; "", """mem"": bit" &amp; B179 &amp; "(" &amp; A179 &amp; "),", ""),"""good"": ",IF(A179 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A179 &lt;&gt; "", A179, -1),", ""bit"": ",IF(B179 &lt;&gt; 0, B179, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C179, Levels!B:B, 0), 1, 1)),", ",IF(A179 &lt;&gt; "", """mem"": bit" &amp; B179 &amp; "(" &amp; A179 &amp; "),", ""),"""good"": ",IF(A179 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A179 &lt;&gt; "", A179, -1),", ""bit"": ",IF(B179 &lt;&gt; "", B179, -1),"},")</f>
         <v>178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},</v>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
         <v>54</v>
       </c>
       <c r="D180" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C180, Levels!B:B, 0), 1, 1)),", ",IF(A180 &lt;&gt; "", """mem"": bit" &amp; B180 &amp; "(" &amp; A180 &amp; "),", ""),"""good"": ",IF(A180 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A180 &lt;&gt; "", A180, -1),", ""bit"": ",IF(B180 &lt;&gt; 0, B180, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C180, Levels!B:B, 0), 1, 1)),", ",IF(A180 &lt;&gt; "", """mem"": bit" &amp; B180 &amp; "(" &amp; A180 &amp; "),", ""),"""good"": ",IF(A180 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A180 &lt;&gt; "", A180, -1),", ""bit"": ",IF(B180 &lt;&gt; "", B180, -1),"},")</f>
         <v>179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
         <v>54</v>
       </c>
       <c r="D181" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C181, Levels!B:B, 0), 1, 1)),", ",IF(A181 &lt;&gt; "", """mem"": bit" &amp; B181 &amp; "(" &amp; A181 &amp; "),", ""),"""good"": ",IF(A181 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A181 &lt;&gt; "", A181, -1),", ""bit"": ",IF(B181 &lt;&gt; 0, B181, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C181, Levels!B:B, 0), 1, 1)),", ",IF(A181 &lt;&gt; "", """mem"": bit" &amp; B181 &amp; "(" &amp; A181 &amp; "),", ""),"""good"": ",IF(A181 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A181 &lt;&gt; "", A181, -1),", ""bit"": ",IF(B181 &lt;&gt; "", B181, -1),"},")</f>
         <v>180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},</v>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
         <v>54</v>
       </c>
       <c r="D182" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C182, Levels!B:B, 0), 1, 1)),", ",IF(A182 &lt;&gt; "", """mem"": bit" &amp; B182 &amp; "(" &amp; A182 &amp; "),", ""),"""good"": ",IF(A182 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A182 &lt;&gt; "", A182, -1),", ""bit"": ",IF(B182 &lt;&gt; 0, B182, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C182, Levels!B:B, 0), 1, 1)),", ",IF(A182 &lt;&gt; "", """mem"": bit" &amp; B182 &amp; "(" &amp; A182 &amp; "),", ""),"""good"": ",IF(A182 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A182 &lt;&gt; "", A182, -1),", ""bit"": ",IF(B182 &lt;&gt; "", B182, -1),"},")</f>
         <v>181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},</v>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
         <v>54</v>
       </c>
       <c r="D183" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C183, Levels!B:B, 0), 1, 1)),", ",IF(A183 &lt;&gt; "", """mem"": bit" &amp; B183 &amp; "(" &amp; A183 &amp; "),", ""),"""good"": ",IF(A183 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A183 &lt;&gt; "", A183, -1),", ""bit"": ",IF(B183 &lt;&gt; 0, B183, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C183, Levels!B:B, 0), 1, 1)),", ",IF(A183 &lt;&gt; "", """mem"": bit" &amp; B183 &amp; "(" &amp; A183 &amp; "),", ""),"""good"": ",IF(A183 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A183 &lt;&gt; "", A183, -1),", ""bit"": ",IF(B183 &lt;&gt; "", B183, -1),"},")</f>
         <v>182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},</v>
       </c>
     </row>
@@ -10516,7 +10516,7 @@
         <v>54</v>
       </c>
       <c r="D184" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C184, Levels!B:B, 0), 1, 1)),", ",IF(A184 &lt;&gt; "", """mem"": bit" &amp; B184 &amp; "(" &amp; A184 &amp; "),", ""),"""good"": ",IF(A184 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A184 &lt;&gt; "", A184, -1),", ""bit"": ",IF(B184 &lt;&gt; 0, B184, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C184, Levels!B:B, 0), 1, 1)),", ",IF(A184 &lt;&gt; "", """mem"": bit" &amp; B184 &amp; "(" &amp; A184 &amp; "),", ""),"""good"": ",IF(A184 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A184 &lt;&gt; "", A184, -1),", ""bit"": ",IF(B184 &lt;&gt; "", B184, -1),"},")</f>
         <v>183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},</v>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
         <v>54</v>
       </c>
       <c r="D185" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C185, Levels!B:B, 0), 1, 1)),", ",IF(A185 &lt;&gt; "", """mem"": bit" &amp; B185 &amp; "(" &amp; A185 &amp; "),", ""),"""good"": ",IF(A185 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A185 &lt;&gt; "", A185, -1),", ""bit"": ",IF(B185 &lt;&gt; 0, B185, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C185, Levels!B:B, 0), 1, 1)),", ",IF(A185 &lt;&gt; "", """mem"": bit" &amp; B185 &amp; "(" &amp; A185 &amp; "),", ""),"""good"": ",IF(A185 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A185 &lt;&gt; "", A185, -1),", ""bit"": ",IF(B185 &lt;&gt; "", B185, -1),"},")</f>
         <v>184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},</v>
       </c>
     </row>
@@ -10546,8 +10546,8 @@
         <v>54</v>
       </c>
       <c r="D186" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C186, Levels!B:B, 0), 1, 1)),", ",IF(A186 &lt;&gt; "", """mem"": bit" &amp; B186 &amp; "(" &amp; A186 &amp; "),", ""),"""good"": ",IF(A186 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A186 &lt;&gt; "", A186, -1),", ""bit"": ",IF(B186 &lt;&gt; 0, B186, -1),"},")</f>
-        <v>185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C186, Levels!B:B, 0), 1, 1)),", ",IF(A186 &lt;&gt; "", """mem"": bit" &amp; B186 &amp; "(" &amp; A186 &amp; "),", ""),"""good"": ",IF(A186 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A186 &lt;&gt; "", A186, -1),", ""bit"": ",IF(B186 &lt;&gt; "", B186, -1),"},")</f>
+        <v>185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10561,7 +10561,7 @@
         <v>54</v>
       </c>
       <c r="D187" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C187, Levels!B:B, 0), 1, 1)),", ",IF(A187 &lt;&gt; "", """mem"": bit" &amp; B187 &amp; "(" &amp; A187 &amp; "),", ""),"""good"": ",IF(A187 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A187 &lt;&gt; "", A187, -1),", ""bit"": ",IF(B187 &lt;&gt; 0, B187, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C187, Levels!B:B, 0), 1, 1)),", ",IF(A187 &lt;&gt; "", """mem"": bit" &amp; B187 &amp; "(" &amp; A187 &amp; "),", ""),"""good"": ",IF(A187 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A187 &lt;&gt; "", A187, -1),", ""bit"": ",IF(B187 &lt;&gt; "", B187, -1),"},")</f>
         <v>186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},</v>
       </c>
     </row>
@@ -10576,7 +10576,7 @@
         <v>54</v>
       </c>
       <c r="D188" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C188, Levels!B:B, 0), 1, 1)),", ",IF(A188 &lt;&gt; "", """mem"": bit" &amp; B188 &amp; "(" &amp; A188 &amp; "),", ""),"""good"": ",IF(A188 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A188 &lt;&gt; "", A188, -1),", ""bit"": ",IF(B188 &lt;&gt; 0, B188, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C188, Levels!B:B, 0), 1, 1)),", ",IF(A188 &lt;&gt; "", """mem"": bit" &amp; B188 &amp; "(" &amp; A188 &amp; "),", ""),"""good"": ",IF(A188 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A188 &lt;&gt; "", A188, -1),", ""bit"": ",IF(B188 &lt;&gt; "", B188, -1),"},")</f>
         <v>187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},</v>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
         <v>54</v>
       </c>
       <c r="D189" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C189, Levels!B:B, 0), 1, 1)),", ",IF(A189 &lt;&gt; "", """mem"": bit" &amp; B189 &amp; "(" &amp; A189 &amp; "),", ""),"""good"": ",IF(A189 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A189 &lt;&gt; "", A189, -1),", ""bit"": ",IF(B189 &lt;&gt; 0, B189, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C189, Levels!B:B, 0), 1, 1)),", ",IF(A189 &lt;&gt; "", """mem"": bit" &amp; B189 &amp; "(" &amp; A189 &amp; "),", ""),"""good"": ",IF(A189 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A189 &lt;&gt; "", A189, -1),", ""bit"": ",IF(B189 &lt;&gt; "", B189, -1),"},")</f>
         <v>188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},</v>
       </c>
     </row>
@@ -10606,7 +10606,7 @@
         <v>54</v>
       </c>
       <c r="D190" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C190, Levels!B:B, 0), 1, 1)),", ",IF(A190 &lt;&gt; "", """mem"": bit" &amp; B190 &amp; "(" &amp; A190 &amp; "),", ""),"""good"": ",IF(A190 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A190 &lt;&gt; "", A190, -1),", ""bit"": ",IF(B190 &lt;&gt; 0, B190, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C190, Levels!B:B, 0), 1, 1)),", ",IF(A190 &lt;&gt; "", """mem"": bit" &amp; B190 &amp; "(" &amp; A190 &amp; "),", ""),"""good"": ",IF(A190 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A190 &lt;&gt; "", A190, -1),", ""bit"": ",IF(B190 &lt;&gt; "", B190, -1),"},")</f>
         <v>189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},</v>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
         <v>54</v>
       </c>
       <c r="D191" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C191, Levels!B:B, 0), 1, 1)),", ",IF(A191 &lt;&gt; "", """mem"": bit" &amp; B191 &amp; "(" &amp; A191 &amp; "),", ""),"""good"": ",IF(A191 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A191 &lt;&gt; "", A191, -1),", ""bit"": ",IF(B191 &lt;&gt; 0, B191, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C191, Levels!B:B, 0), 1, 1)),", ",IF(A191 &lt;&gt; "", """mem"": bit" &amp; B191 &amp; "(" &amp; A191 &amp; "),", ""),"""good"": ",IF(A191 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A191 &lt;&gt; "", A191, -1),", ""bit"": ",IF(B191 &lt;&gt; "", B191, -1),"},")</f>
         <v>190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},</v>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
         <v>54</v>
       </c>
       <c r="D192" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C192, Levels!B:B, 0), 1, 1)),", ",IF(A192 &lt;&gt; "", """mem"": bit" &amp; B192 &amp; "(" &amp; A192 &amp; "),", ""),"""good"": ",IF(A192 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A192 &lt;&gt; "", A192, -1),", ""bit"": ",IF(B192 &lt;&gt; 0, B192, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C192, Levels!B:B, 0), 1, 1)),", ",IF(A192 &lt;&gt; "", """mem"": bit" &amp; B192 &amp; "(" &amp; A192 &amp; "),", ""),"""good"": ",IF(A192 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A192 &lt;&gt; "", A192, -1),", ""bit"": ",IF(B192 &lt;&gt; "", B192, -1),"},")</f>
         <v>191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
         <v>54</v>
       </c>
       <c r="D193" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C193, Levels!B:B, 0), 1, 1)),", ",IF(A193 &lt;&gt; "", """mem"": bit" &amp; B193 &amp; "(" &amp; A193 &amp; "),", ""),"""good"": ",IF(A193 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A193 &lt;&gt; "", A193, -1),", ""bit"": ",IF(B193 &lt;&gt; 0, B193, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C193, Levels!B:B, 0), 1, 1)),", ",IF(A193 &lt;&gt; "", """mem"": bit" &amp; B193 &amp; "(" &amp; A193 &amp; "),", ""),"""good"": ",IF(A193 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A193 &lt;&gt; "", A193, -1),", ""bit"": ",IF(B193 &lt;&gt; "", B193, -1),"},")</f>
         <v>192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},</v>
       </c>
     </row>
@@ -10666,8 +10666,8 @@
         <v>67</v>
       </c>
       <c r="D194" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C194, Levels!B:B, 0), 1, 1)),", ",IF(A194 &lt;&gt; "", """mem"": bit" &amp; B194 &amp; "(" &amp; A194 &amp; "),", ""),"""good"": ",IF(A194 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A194 &lt;&gt; "", A194, -1),", ""bit"": ",IF(B194 &lt;&gt; 0, B194, -1),"},")</f>
-        <v>193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C194, Levels!B:B, 0), 1, 1)),", ",IF(A194 &lt;&gt; "", """mem"": bit" &amp; B194 &amp; "(" &amp; A194 &amp; "),", ""),"""good"": ",IF(A194 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A194 &lt;&gt; "", A194, -1),", ""bit"": ",IF(B194 &lt;&gt; "", B194, -1),"},")</f>
+        <v>193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,7 +10681,7 @@
         <v>67</v>
       </c>
       <c r="D195" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C195, Levels!B:B, 0), 1, 1)),", ",IF(A195 &lt;&gt; "", """mem"": bit" &amp; B195 &amp; "(" &amp; A195 &amp; "),", ""),"""good"": ",IF(A195 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A195 &lt;&gt; "", A195, -1),", ""bit"": ",IF(B195 &lt;&gt; 0, B195, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C195, Levels!B:B, 0), 1, 1)),", ",IF(A195 &lt;&gt; "", """mem"": bit" &amp; B195 &amp; "(" &amp; A195 &amp; "),", ""),"""good"": ",IF(A195 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A195 &lt;&gt; "", A195, -1),", ""bit"": ",IF(B195 &lt;&gt; "", B195, -1),"},")</f>
         <v>194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},</v>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
         <v>67</v>
       </c>
       <c r="D196" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C196, Levels!B:B, 0), 1, 1)),", ",IF(A196 &lt;&gt; "", """mem"": bit" &amp; B196 &amp; "(" &amp; A196 &amp; "),", ""),"""good"": ",IF(A196 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A196 &lt;&gt; "", A196, -1),", ""bit"": ",IF(B196 &lt;&gt; 0, B196, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C196, Levels!B:B, 0), 1, 1)),", ",IF(A196 &lt;&gt; "", """mem"": bit" &amp; B196 &amp; "(" &amp; A196 &amp; "),", ""),"""good"": ",IF(A196 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A196 &lt;&gt; "", A196, -1),", ""bit"": ",IF(B196 &lt;&gt; "", B196, -1),"},")</f>
         <v>195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},</v>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
         <v>67</v>
       </c>
       <c r="D197" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C197, Levels!B:B, 0), 1, 1)),", ",IF(A197 &lt;&gt; "", """mem"": bit" &amp; B197 &amp; "(" &amp; A197 &amp; "),", ""),"""good"": ",IF(A197 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A197 &lt;&gt; "", A197, -1),", ""bit"": ",IF(B197 &lt;&gt; 0, B197, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C197, Levels!B:B, 0), 1, 1)),", ",IF(A197 &lt;&gt; "", """mem"": bit" &amp; B197 &amp; "(" &amp; A197 &amp; "),", ""),"""good"": ",IF(A197 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A197 &lt;&gt; "", A197, -1),", ""bit"": ",IF(B197 &lt;&gt; "", B197, -1),"},")</f>
         <v>196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},</v>
       </c>
     </row>
@@ -10726,7 +10726,7 @@
         <v>67</v>
       </c>
       <c r="D198" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C198, Levels!B:B, 0), 1, 1)),", ",IF(A198 &lt;&gt; "", """mem"": bit" &amp; B198 &amp; "(" &amp; A198 &amp; "),", ""),"""good"": ",IF(A198 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A198 &lt;&gt; "", A198, -1),", ""bit"": ",IF(B198 &lt;&gt; 0, B198, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C198, Levels!B:B, 0), 1, 1)),", ",IF(A198 &lt;&gt; "", """mem"": bit" &amp; B198 &amp; "(" &amp; A198 &amp; "),", ""),"""good"": ",IF(A198 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A198 &lt;&gt; "", A198, -1),", ""bit"": ",IF(B198 &lt;&gt; "", B198, -1),"},")</f>
         <v>197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},</v>
       </c>
     </row>
@@ -10741,7 +10741,7 @@
         <v>67</v>
       </c>
       <c r="D199" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C199, Levels!B:B, 0), 1, 1)),", ",IF(A199 &lt;&gt; "", """mem"": bit" &amp; B199 &amp; "(" &amp; A199 &amp; "),", ""),"""good"": ",IF(A199 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A199 &lt;&gt; "", A199, -1),", ""bit"": ",IF(B199 &lt;&gt; 0, B199, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C199, Levels!B:B, 0), 1, 1)),", ",IF(A199 &lt;&gt; "", """mem"": bit" &amp; B199 &amp; "(" &amp; A199 &amp; "),", ""),"""good"": ",IF(A199 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A199 &lt;&gt; "", A199, -1),", ""bit"": ",IF(B199 &lt;&gt; "", B199, -1),"},")</f>
         <v>198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},</v>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
         <v>67</v>
       </c>
       <c r="D200" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C200, Levels!B:B, 0), 1, 1)),", ",IF(A200 &lt;&gt; "", """mem"": bit" &amp; B200 &amp; "(" &amp; A200 &amp; "),", ""),"""good"": ",IF(A200 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A200 &lt;&gt; "", A200, -1),", ""bit"": ",IF(B200 &lt;&gt; 0, B200, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C200, Levels!B:B, 0), 1, 1)),", ",IF(A200 &lt;&gt; "", """mem"": bit" &amp; B200 &amp; "(" &amp; A200 &amp; "),", ""),"""good"": ",IF(A200 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A200 &lt;&gt; "", A200, -1),", ""bit"": ",IF(B200 &lt;&gt; "", B200, -1),"},")</f>
         <v>199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},</v>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
         <v>67</v>
       </c>
       <c r="D201" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C201, Levels!B:B, 0), 1, 1)),", ",IF(A201 &lt;&gt; "", """mem"": bit" &amp; B201 &amp; "(" &amp; A201 &amp; "),", ""),"""good"": ",IF(A201 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A201 &lt;&gt; "", A201, -1),", ""bit"": ",IF(B201 &lt;&gt; 0, B201, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C201, Levels!B:B, 0), 1, 1)),", ",IF(A201 &lt;&gt; "", """mem"": bit" &amp; B201 &amp; "(" &amp; A201 &amp; "),", ""),"""good"": ",IF(A201 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A201 &lt;&gt; "", A201, -1),", ""bit"": ",IF(B201 &lt;&gt; "", B201, -1),"},")</f>
         <v>200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},</v>
       </c>
     </row>
@@ -10786,7 +10786,7 @@
         <v>67</v>
       </c>
       <c r="D202" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C202, Levels!B:B, 0), 1, 1)),", ",IF(A202 &lt;&gt; "", """mem"": bit" &amp; B202 &amp; "(" &amp; A202 &amp; "),", ""),"""good"": ",IF(A202 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A202 &lt;&gt; "", A202, -1),", ""bit"": ",IF(B202 &lt;&gt; 0, B202, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C202, Levels!B:B, 0), 1, 1)),", ",IF(A202 &lt;&gt; "", """mem"": bit" &amp; B202 &amp; "(" &amp; A202 &amp; "),", ""),"""good"": ",IF(A202 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A202 &lt;&gt; "", A202, -1),", ""bit"": ",IF(B202 &lt;&gt; "", B202, -1),"},")</f>
         <v>201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},</v>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
         <v>67</v>
       </c>
       <c r="D203" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C203, Levels!B:B, 0), 1, 1)),", ",IF(A203 &lt;&gt; "", """mem"": bit" &amp; B203 &amp; "(" &amp; A203 &amp; "),", ""),"""good"": ",IF(A203 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A203 &lt;&gt; "", A203, -1),", ""bit"": ",IF(B203 &lt;&gt; 0, B203, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C203, Levels!B:B, 0), 1, 1)),", ",IF(A203 &lt;&gt; "", """mem"": bit" &amp; B203 &amp; "(" &amp; A203 &amp; "),", ""),"""good"": ",IF(A203 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A203 &lt;&gt; "", A203, -1),", ""bit"": ",IF(B203 &lt;&gt; "", B203, -1),"},")</f>
         <v>202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},</v>
       </c>
     </row>
@@ -10816,7 +10816,7 @@
         <v>67</v>
       </c>
       <c r="D204" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C204, Levels!B:B, 0), 1, 1)),", ",IF(A204 &lt;&gt; "", """mem"": bit" &amp; B204 &amp; "(" &amp; A204 &amp; "),", ""),"""good"": ",IF(A204 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A204 &lt;&gt; "", A204, -1),", ""bit"": ",IF(B204 &lt;&gt; 0, B204, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C204, Levels!B:B, 0), 1, 1)),", ",IF(A204 &lt;&gt; "", """mem"": bit" &amp; B204 &amp; "(" &amp; A204 &amp; "),", ""),"""good"": ",IF(A204 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A204 &lt;&gt; "", A204, -1),", ""bit"": ",IF(B204 &lt;&gt; "", B204, -1),"},")</f>
         <v>203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},</v>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
         <v>67</v>
       </c>
       <c r="D205" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C205, Levels!B:B, 0), 1, 1)),", ",IF(A205 &lt;&gt; "", """mem"": bit" &amp; B205 &amp; "(" &amp; A205 &amp; "),", ""),"""good"": ",IF(A205 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A205 &lt;&gt; "", A205, -1),", ""bit"": ",IF(B205 &lt;&gt; 0, B205, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C205, Levels!B:B, 0), 1, 1)),", ",IF(A205 &lt;&gt; "", """mem"": bit" &amp; B205 &amp; "(" &amp; A205 &amp; "),", ""),"""good"": ",IF(A205 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A205 &lt;&gt; "", A205, -1),", ""bit"": ",IF(B205 &lt;&gt; "", B205, -1),"},")</f>
         <v>204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},</v>
       </c>
     </row>
@@ -10846,7 +10846,7 @@
         <v>67</v>
       </c>
       <c r="D206" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C206, Levels!B:B, 0), 1, 1)),", ",IF(A206 &lt;&gt; "", """mem"": bit" &amp; B206 &amp; "(" &amp; A206 &amp; "),", ""),"""good"": ",IF(A206 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A206 &lt;&gt; "", A206, -1),", ""bit"": ",IF(B206 &lt;&gt; 0, B206, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C206, Levels!B:B, 0), 1, 1)),", ",IF(A206 &lt;&gt; "", """mem"": bit" &amp; B206 &amp; "(" &amp; A206 &amp; "),", ""),"""good"": ",IF(A206 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A206 &lt;&gt; "", A206, -1),", ""bit"": ",IF(B206 &lt;&gt; "", B206, -1),"},")</f>
         <v>205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},</v>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
         <v>67</v>
       </c>
       <c r="D207" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C207, Levels!B:B, 0), 1, 1)),", ",IF(A207 &lt;&gt; "", """mem"": bit" &amp; B207 &amp; "(" &amp; A207 &amp; "),", ""),"""good"": ",IF(A207 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A207 &lt;&gt; "", A207, -1),", ""bit"": ",IF(B207 &lt;&gt; 0, B207, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C207, Levels!B:B, 0), 1, 1)),", ",IF(A207 &lt;&gt; "", """mem"": bit" &amp; B207 &amp; "(" &amp; A207 &amp; "),", ""),"""good"": ",IF(A207 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A207 &lt;&gt; "", A207, -1),", ""bit"": ",IF(B207 &lt;&gt; "", B207, -1),"},")</f>
         <v>206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},</v>
       </c>
     </row>
@@ -10876,8 +10876,8 @@
         <v>67</v>
       </c>
       <c r="D208" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C208, Levels!B:B, 0), 1, 1)),", ",IF(A208 &lt;&gt; "", """mem"": bit" &amp; B208 &amp; "(" &amp; A208 &amp; "),", ""),"""good"": ",IF(A208 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A208 &lt;&gt; "", A208, -1),", ""bit"": ",IF(B208 &lt;&gt; 0, B208, -1),"},")</f>
-        <v>207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C208, Levels!B:B, 0), 1, 1)),", ",IF(A208 &lt;&gt; "", """mem"": bit" &amp; B208 &amp; "(" &amp; A208 &amp; "),", ""),"""good"": ",IF(A208 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A208 &lt;&gt; "", A208, -1),", ""bit"": ",IF(B208 &lt;&gt; "", B208, -1),"},")</f>
+        <v>207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10891,7 +10891,7 @@
         <v>67</v>
       </c>
       <c r="D209" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C209, Levels!B:B, 0), 1, 1)),", ",IF(A209 &lt;&gt; "", """mem"": bit" &amp; B209 &amp; "(" &amp; A209 &amp; "),", ""),"""good"": ",IF(A209 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A209 &lt;&gt; "", A209, -1),", ""bit"": ",IF(B209 &lt;&gt; 0, B209, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C209, Levels!B:B, 0), 1, 1)),", ",IF(A209 &lt;&gt; "", """mem"": bit" &amp; B209 &amp; "(" &amp; A209 &amp; "),", ""),"""good"": ",IF(A209 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A209 &lt;&gt; "", A209, -1),", ""bit"": ",IF(B209 &lt;&gt; "", B209, -1),"},")</f>
         <v>208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},</v>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
         <v>67</v>
       </c>
       <c r="D210" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C210, Levels!B:B, 0), 1, 1)),", ",IF(A210 &lt;&gt; "", """mem"": bit" &amp; B210 &amp; "(" &amp; A210 &amp; "),", ""),"""good"": ",IF(A210 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A210 &lt;&gt; "", A210, -1),", ""bit"": ",IF(B210 &lt;&gt; 0, B210, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C210, Levels!B:B, 0), 1, 1)),", ",IF(A210 &lt;&gt; "", """mem"": bit" &amp; B210 &amp; "(" &amp; A210 &amp; "),", ""),"""good"": ",IF(A210 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A210 &lt;&gt; "", A210, -1),", ""bit"": ",IF(B210 &lt;&gt; "", B210, -1),"},")</f>
         <v>209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},</v>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
         <v>67</v>
       </c>
       <c r="D211" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C211, Levels!B:B, 0), 1, 1)),", ",IF(A211 &lt;&gt; "", """mem"": bit" &amp; B211 &amp; "(" &amp; A211 &amp; "),", ""),"""good"": ",IF(A211 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A211 &lt;&gt; "", A211, -1),", ""bit"": ",IF(B211 &lt;&gt; 0, B211, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C211, Levels!B:B, 0), 1, 1)),", ",IF(A211 &lt;&gt; "", """mem"": bit" &amp; B211 &amp; "(" &amp; A211 &amp; "),", ""),"""good"": ",IF(A211 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A211 &lt;&gt; "", A211, -1),", ""bit"": ",IF(B211 &lt;&gt; "", B211, -1),"},")</f>
         <v>210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},</v>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
         <v>67</v>
       </c>
       <c r="D212" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C212, Levels!B:B, 0), 1, 1)),", ",IF(A212 &lt;&gt; "", """mem"": bit" &amp; B212 &amp; "(" &amp; A212 &amp; "),", ""),"""good"": ",IF(A212 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A212 &lt;&gt; "", A212, -1),", ""bit"": ",IF(B212 &lt;&gt; 0, B212, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C212, Levels!B:B, 0), 1, 1)),", ",IF(A212 &lt;&gt; "", """mem"": bit" &amp; B212 &amp; "(" &amp; A212 &amp; "),", ""),"""good"": ",IF(A212 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A212 &lt;&gt; "", A212, -1),", ""bit"": ",IF(B212 &lt;&gt; "", B212, -1),"},")</f>
         <v>211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},</v>
       </c>
     </row>
@@ -10951,8 +10951,8 @@
         <v>67</v>
       </c>
       <c r="D213" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C213, Levels!B:B, 0), 1, 1)),", ",IF(A213 &lt;&gt; "", """mem"": bit" &amp; B213 &amp; "(" &amp; A213 &amp; "),", ""),"""good"": ",IF(A213 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A213 &lt;&gt; "", A213, -1),", ""bit"": ",IF(B213 &lt;&gt; 0, B213, -1),"},")</f>
-        <v>212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": -1},</v>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C213, Levels!B:B, 0), 1, 1)),", ",IF(A213 &lt;&gt; "", """mem"": bit" &amp; B213 &amp; "(" &amp; A213 &amp; "),", ""),"""good"": ",IF(A213 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A213 &lt;&gt; "", A213, -1),", ""bit"": ",IF(B213 &lt;&gt; "", B213, -1),"},")</f>
+        <v>212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,7 +10966,7 @@
         <v>67</v>
       </c>
       <c r="D214" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C214, Levels!B:B, 0), 1, 1)),", ",IF(A214 &lt;&gt; "", """mem"": bit" &amp; B214 &amp; "(" &amp; A214 &amp; "),", ""),"""good"": ",IF(A214 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A214 &lt;&gt; "", A214, -1),", ""bit"": ",IF(B214 &lt;&gt; 0, B214, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C214, Levels!B:B, 0), 1, 1)),", ",IF(A214 &lt;&gt; "", """mem"": bit" &amp; B214 &amp; "(" &amp; A214 &amp; "),", ""),"""good"": ",IF(A214 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A214 &lt;&gt; "", A214, -1),", ""bit"": ",IF(B214 &lt;&gt; "", B214, -1),"},")</f>
         <v>213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},</v>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
         <v>67</v>
       </c>
       <c r="D215" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C215, Levels!B:B, 0), 1, 1)),", ",IF(A215 &lt;&gt; "", """mem"": bit" &amp; B215 &amp; "(" &amp; A215 &amp; "),", ""),"""good"": ",IF(A215 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A215 &lt;&gt; "", A215, -1),", ""bit"": ",IF(B215 &lt;&gt; 0, B215, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C215, Levels!B:B, 0), 1, 1)),", ",IF(A215 &lt;&gt; "", """mem"": bit" &amp; B215 &amp; "(" &amp; A215 &amp; "),", ""),"""good"": ",IF(A215 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A215 &lt;&gt; "", A215, -1),", ""bit"": ",IF(B215 &lt;&gt; "", B215, -1),"},")</f>
         <v>214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},</v>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
         <v>67</v>
       </c>
       <c r="D216" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C216, Levels!B:B, 0), 1, 1)),", ",IF(A216 &lt;&gt; "", """mem"": bit" &amp; B216 &amp; "(" &amp; A216 &amp; "),", ""),"""good"": ",IF(A216 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A216 &lt;&gt; "", A216, -1),", ""bit"": ",IF(B216 &lt;&gt; 0, B216, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C216, Levels!B:B, 0), 1, 1)),", ",IF(A216 &lt;&gt; "", """mem"": bit" &amp; B216 &amp; "(" &amp; A216 &amp; "),", ""),"""good"": ",IF(A216 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A216 &lt;&gt; "", A216, -1),", ""bit"": ",IF(B216 &lt;&gt; "", B216, -1),"},")</f>
         <v>215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},</v>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
         <v>12</v>
       </c>
       <c r="D217" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C217, Levels!B:B, 0), 1, 1)),", ",IF(A217 &lt;&gt; "", """mem"": bit" &amp; B217 &amp; "(" &amp; A217 &amp; "),", ""),"""good"": ",IF(A217 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A217 &lt;&gt; "", A217, -1),", ""bit"": ",IF(B217 &lt;&gt; 0, B217, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C217, Levels!B:B, 0), 1, 1)),", ",IF(A217 &lt;&gt; "", """mem"": bit" &amp; B217 &amp; "(" &amp; A217 &amp; "),", ""),"""good"": ",IF(A217 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A217 &lt;&gt; "", A217, -1),", ""bit"": ",IF(B217 &lt;&gt; "", B217, -1),"},")</f>
         <v>216: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11014,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="D218" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C218, Levels!B:B, 0), 1, 1)),", ",IF(A218 &lt;&gt; "", """mem"": bit" &amp; B218 &amp; "(" &amp; A218 &amp; "),", ""),"""good"": ",IF(A218 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A218 &lt;&gt; "", A218, -1),", ""bit"": ",IF(B218 &lt;&gt; 0, B218, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C218, Levels!B:B, 0), 1, 1)),", ",IF(A218 &lt;&gt; "", """mem"": bit" &amp; B218 &amp; "(" &amp; A218 &amp; "),", ""),"""good"": ",IF(A218 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A218 &lt;&gt; "", A218, -1),", ""bit"": ",IF(B218 &lt;&gt; "", B218, -1),"},")</f>
         <v>217: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11023,7 +11023,7 @@
         <v>12</v>
       </c>
       <c r="D219" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C219, Levels!B:B, 0), 1, 1)),", ",IF(A219 &lt;&gt; "", """mem"": bit" &amp; B219 &amp; "(" &amp; A219 &amp; "),", ""),"""good"": ",IF(A219 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A219 &lt;&gt; "", A219, -1),", ""bit"": ",IF(B219 &lt;&gt; 0, B219, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C219, Levels!B:B, 0), 1, 1)),", ",IF(A219 &lt;&gt; "", """mem"": bit" &amp; B219 &amp; "(" &amp; A219 &amp; "),", ""),"""good"": ",IF(A219 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A219 &lt;&gt; "", A219, -1),", ""bit"": ",IF(B219 &lt;&gt; "", B219, -1),"},")</f>
         <v>218: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C220, Levels!B:B, 0), 1, 1)),", ",IF(A220 &lt;&gt; "", """mem"": bit" &amp; B220 &amp; "(" &amp; A220 &amp; "),", ""),"""good"": ",IF(A220 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A220 &lt;&gt; "", A220, -1),", ""bit"": ",IF(B220 &lt;&gt; 0, B220, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C220, Levels!B:B, 0), 1, 1)),", ",IF(A220 &lt;&gt; "", """mem"": bit" &amp; B220 &amp; "(" &amp; A220 &amp; "),", ""),"""good"": ",IF(A220 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A220 &lt;&gt; "", A220, -1),", ""bit"": ",IF(B220 &lt;&gt; "", B220, -1),"},")</f>
         <v>219: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
         <v>12</v>
       </c>
       <c r="D221" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C221, Levels!B:B, 0), 1, 1)),", ",IF(A221 &lt;&gt; "", """mem"": bit" &amp; B221 &amp; "(" &amp; A221 &amp; "),", ""),"""good"": ",IF(A221 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A221 &lt;&gt; "", A221, -1),", ""bit"": ",IF(B221 &lt;&gt; 0, B221, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C221, Levels!B:B, 0), 1, 1)),", ",IF(A221 &lt;&gt; "", """mem"": bit" &amp; B221 &amp; "(" &amp; A221 &amp; "),", ""),"""good"": ",IF(A221 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A221 &lt;&gt; "", A221, -1),", ""bit"": ",IF(B221 &lt;&gt; "", B221, -1),"},")</f>
         <v>220: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
         <v>12</v>
       </c>
       <c r="D222" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C222, Levels!B:B, 0), 1, 1)),", ",IF(A222 &lt;&gt; "", """mem"": bit" &amp; B222 &amp; "(" &amp; A222 &amp; "),", ""),"""good"": ",IF(A222 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A222 &lt;&gt; "", A222, -1),", ""bit"": ",IF(B222 &lt;&gt; 0, B222, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C222, Levels!B:B, 0), 1, 1)),", ",IF(A222 &lt;&gt; "", """mem"": bit" &amp; B222 &amp; "(" &amp; A222 &amp; "),", ""),"""good"": ",IF(A222 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A222 &lt;&gt; "", A222, -1),", ""bit"": ",IF(B222 &lt;&gt; "", B222, -1),"},")</f>
         <v>221: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C223, Levels!B:B, 0), 1, 1)),", ",IF(A223 &lt;&gt; "", """mem"": bit" &amp; B223 &amp; "(" &amp; A223 &amp; "),", ""),"""good"": ",IF(A223 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A223 &lt;&gt; "", A223, -1),", ""bit"": ",IF(B223 &lt;&gt; 0, B223, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C223, Levels!B:B, 0), 1, 1)),", ",IF(A223 &lt;&gt; "", """mem"": bit" &amp; B223 &amp; "(" &amp; A223 &amp; "),", ""),"""good"": ",IF(A223 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A223 &lt;&gt; "", A223, -1),", ""bit"": ",IF(B223 &lt;&gt; "", B223, -1),"},")</f>
         <v>222: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
         <v>12</v>
       </c>
       <c r="D224" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C224, Levels!B:B, 0), 1, 1)),", ",IF(A224 &lt;&gt; "", """mem"": bit" &amp; B224 &amp; "(" &amp; A224 &amp; "),", ""),"""good"": ",IF(A224 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A224 &lt;&gt; "", A224, -1),", ""bit"": ",IF(B224 &lt;&gt; 0, B224, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C224, Levels!B:B, 0), 1, 1)),", ",IF(A224 &lt;&gt; "", """mem"": bit" &amp; B224 &amp; "(" &amp; A224 &amp; "),", ""),"""good"": ",IF(A224 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A224 &lt;&gt; "", A224, -1),", ""bit"": ",IF(B224 &lt;&gt; "", B224, -1),"},")</f>
         <v>223: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C225, Levels!B:B, 0), 1, 1)),", ",IF(A225 &lt;&gt; "", """mem"": bit" &amp; B225 &amp; "(" &amp; A225 &amp; "),", ""),"""good"": ",IF(A225 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A225 &lt;&gt; "", A225, -1),", ""bit"": ",IF(B225 &lt;&gt; 0, B225, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C225, Levels!B:B, 0), 1, 1)),", ",IF(A225 &lt;&gt; "", """mem"": bit" &amp; B225 &amp; "(" &amp; A225 &amp; "),", ""),"""good"": ",IF(A225 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A225 &lt;&gt; "", A225, -1),", ""bit"": ",IF(B225 &lt;&gt; "", B225, -1),"},")</f>
         <v>224: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
         <v>12</v>
       </c>
       <c r="D226" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C226, Levels!B:B, 0), 1, 1)),", ",IF(A226 &lt;&gt; "", """mem"": bit" &amp; B226 &amp; "(" &amp; A226 &amp; "),", ""),"""good"": ",IF(A226 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A226 &lt;&gt; "", A226, -1),", ""bit"": ",IF(B226 &lt;&gt; 0, B226, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C226, Levels!B:B, 0), 1, 1)),", ",IF(A226 &lt;&gt; "", """mem"": bit" &amp; B226 &amp; "(" &amp; A226 &amp; "),", ""),"""good"": ",IF(A226 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A226 &lt;&gt; "", A226, -1),", ""bit"": ",IF(B226 &lt;&gt; "", B226, -1),"},")</f>
         <v>225: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
         <v>12</v>
       </c>
       <c r="D227" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C227, Levels!B:B, 0), 1, 1)),", ",IF(A227 &lt;&gt; "", """mem"": bit" &amp; B227 &amp; "(" &amp; A227 &amp; "),", ""),"""good"": ",IF(A227 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A227 &lt;&gt; "", A227, -1),", ""bit"": ",IF(B227 &lt;&gt; 0, B227, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C227, Levels!B:B, 0), 1, 1)),", ",IF(A227 &lt;&gt; "", """mem"": bit" &amp; B227 &amp; "(" &amp; A227 &amp; "),", ""),"""good"": ",IF(A227 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A227 &lt;&gt; "", A227, -1),", ""bit"": ",IF(B227 &lt;&gt; "", B227, -1),"},")</f>
         <v>226: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11104,7 +11104,7 @@
         <v>12</v>
       </c>
       <c r="D228" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C228, Levels!B:B, 0), 1, 1)),", ",IF(A228 &lt;&gt; "", """mem"": bit" &amp; B228 &amp; "(" &amp; A228 &amp; "),", ""),"""good"": ",IF(A228 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A228 &lt;&gt; "", A228, -1),", ""bit"": ",IF(B228 &lt;&gt; 0, B228, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C228, Levels!B:B, 0), 1, 1)),", ",IF(A228 &lt;&gt; "", """mem"": bit" &amp; B228 &amp; "(" &amp; A228 &amp; "),", ""),"""good"": ",IF(A228 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A228 &lt;&gt; "", A228, -1),", ""bit"": ",IF(B228 &lt;&gt; "", B228, -1),"},")</f>
         <v>227: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C229, Levels!B:B, 0), 1, 1)),", ",IF(A229 &lt;&gt; "", """mem"": bit" &amp; B229 &amp; "(" &amp; A229 &amp; "),", ""),"""good"": ",IF(A229 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A229 &lt;&gt; "", A229, -1),", ""bit"": ",IF(B229 &lt;&gt; 0, B229, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C229, Levels!B:B, 0), 1, 1)),", ",IF(A229 &lt;&gt; "", """mem"": bit" &amp; B229 &amp; "(" &amp; A229 &amp; "),", ""),"""good"": ",IF(A229 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A229 &lt;&gt; "", A229, -1),", ""bit"": ",IF(B229 &lt;&gt; "", B229, -1),"},")</f>
         <v>228: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11122,7 +11122,7 @@
         <v>12</v>
       </c>
       <c r="D230" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C230, Levels!B:B, 0), 1, 1)),", ",IF(A230 &lt;&gt; "", """mem"": bit" &amp; B230 &amp; "(" &amp; A230 &amp; "),", ""),"""good"": ",IF(A230 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A230 &lt;&gt; "", A230, -1),", ""bit"": ",IF(B230 &lt;&gt; 0, B230, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C230, Levels!B:B, 0), 1, 1)),", ",IF(A230 &lt;&gt; "", """mem"": bit" &amp; B230 &amp; "(" &amp; A230 &amp; "),", ""),"""good"": ",IF(A230 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A230 &lt;&gt; "", A230, -1),", ""bit"": ",IF(B230 &lt;&gt; "", B230, -1),"},")</f>
         <v>229: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
         <v>12</v>
       </c>
       <c r="D231" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C231, Levels!B:B, 0), 1, 1)),", ",IF(A231 &lt;&gt; "", """mem"": bit" &amp; B231 &amp; "(" &amp; A231 &amp; "),", ""),"""good"": ",IF(A231 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A231 &lt;&gt; "", A231, -1),", ""bit"": ",IF(B231 &lt;&gt; 0, B231, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C231, Levels!B:B, 0), 1, 1)),", ",IF(A231 &lt;&gt; "", """mem"": bit" &amp; B231 &amp; "(" &amp; A231 &amp; "),", ""),"""good"": ",IF(A231 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A231 &lt;&gt; "", A231, -1),", ""bit"": ",IF(B231 &lt;&gt; "", B231, -1),"},")</f>
         <v>230: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
         <v>12</v>
       </c>
       <c r="D232" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C232, Levels!B:B, 0), 1, 1)),", ",IF(A232 &lt;&gt; "", """mem"": bit" &amp; B232 &amp; "(" &amp; A232 &amp; "),", ""),"""good"": ",IF(A232 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A232 &lt;&gt; "", A232, -1),", ""bit"": ",IF(B232 &lt;&gt; 0, B232, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C232, Levels!B:B, 0), 1, 1)),", ",IF(A232 &lt;&gt; "", """mem"": bit" &amp; B232 &amp; "(" &amp; A232 &amp; "),", ""),"""good"": ",IF(A232 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A232 &lt;&gt; "", A232, -1),", ""bit"": ",IF(B232 &lt;&gt; "", B232, -1),"},")</f>
         <v>231: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
         <v>12</v>
       </c>
       <c r="D233" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C233, Levels!B:B, 0), 1, 1)),", ",IF(A233 &lt;&gt; "", """mem"": bit" &amp; B233 &amp; "(" &amp; A233 &amp; "),", ""),"""good"": ",IF(A233 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A233 &lt;&gt; "", A233, -1),", ""bit"": ",IF(B233 &lt;&gt; 0, B233, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C233, Levels!B:B, 0), 1, 1)),", ",IF(A233 &lt;&gt; "", """mem"": bit" &amp; B233 &amp; "(" &amp; A233 &amp; "),", ""),"""good"": ",IF(A233 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A233 &lt;&gt; "", A233, -1),", ""bit"": ",IF(B233 &lt;&gt; "", B233, -1),"},")</f>
         <v>232: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
         <v>12</v>
       </c>
       <c r="D234" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C234, Levels!B:B, 0), 1, 1)),", ",IF(A234 &lt;&gt; "", """mem"": bit" &amp; B234 &amp; "(" &amp; A234 &amp; "),", ""),"""good"": ",IF(A234 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A234 &lt;&gt; "", A234, -1),", ""bit"": ",IF(B234 &lt;&gt; 0, B234, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C234, Levels!B:B, 0), 1, 1)),", ",IF(A234 &lt;&gt; "", """mem"": bit" &amp; B234 &amp; "(" &amp; A234 &amp; "),", ""),"""good"": ",IF(A234 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A234 &lt;&gt; "", A234, -1),", ""bit"": ",IF(B234 &lt;&gt; "", B234, -1),"},")</f>
         <v>233: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="D235" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C235, Levels!B:B, 0), 1, 1)),", ",IF(A235 &lt;&gt; "", """mem"": bit" &amp; B235 &amp; "(" &amp; A235 &amp; "),", ""),"""good"": ",IF(A235 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A235 &lt;&gt; "", A235, -1),", ""bit"": ",IF(B235 &lt;&gt; 0, B235, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C235, Levels!B:B, 0), 1, 1)),", ",IF(A235 &lt;&gt; "", """mem"": bit" &amp; B235 &amp; "(" &amp; A235 &amp; "),", ""),"""good"": ",IF(A235 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A235 &lt;&gt; "", A235, -1),", ""bit"": ",IF(B235 &lt;&gt; "", B235, -1),"},")</f>
         <v>234: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
         <v>12</v>
       </c>
       <c r="D236" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C236, Levels!B:B, 0), 1, 1)),", ",IF(A236 &lt;&gt; "", """mem"": bit" &amp; B236 &amp; "(" &amp; A236 &amp; "),", ""),"""good"": ",IF(A236 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A236 &lt;&gt; "", A236, -1),", ""bit"": ",IF(B236 &lt;&gt; 0, B236, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C236, Levels!B:B, 0), 1, 1)),", ",IF(A236 &lt;&gt; "", """mem"": bit" &amp; B236 &amp; "(" &amp; A236 &amp; "),", ""),"""good"": ",IF(A236 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A236 &lt;&gt; "", A236, -1),", ""bit"": ",IF(B236 &lt;&gt; "", B236, -1),"},")</f>
         <v>235: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
         <v>12</v>
       </c>
       <c r="D237" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C237, Levels!B:B, 0), 1, 1)),", ",IF(A237 &lt;&gt; "", """mem"": bit" &amp; B237 &amp; "(" &amp; A237 &amp; "),", ""),"""good"": ",IF(A237 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A237 &lt;&gt; "", A237, -1),", ""bit"": ",IF(B237 &lt;&gt; 0, B237, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C237, Levels!B:B, 0), 1, 1)),", ",IF(A237 &lt;&gt; "", """mem"": bit" &amp; B237 &amp; "(" &amp; A237 &amp; "),", ""),"""good"": ",IF(A237 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A237 &lt;&gt; "", A237, -1),", ""bit"": ",IF(B237 &lt;&gt; "", B237, -1),"},")</f>
         <v>236: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
         <v>12</v>
       </c>
       <c r="D238" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C238, Levels!B:B, 0), 1, 1)),", ",IF(A238 &lt;&gt; "", """mem"": bit" &amp; B238 &amp; "(" &amp; A238 &amp; "),", ""),"""good"": ",IF(A238 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A238 &lt;&gt; "", A238, -1),", ""bit"": ",IF(B238 &lt;&gt; 0, B238, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C238, Levels!B:B, 0), 1, 1)),", ",IF(A238 &lt;&gt; "", """mem"": bit" &amp; B238 &amp; "(" &amp; A238 &amp; "),", ""),"""good"": ",IF(A238 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A238 &lt;&gt; "", A238, -1),", ""bit"": ",IF(B238 &lt;&gt; "", B238, -1),"},")</f>
         <v>237: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11203,7 +11203,7 @@
         <v>12</v>
       </c>
       <c r="D239" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C239, Levels!B:B, 0), 1, 1)),", ",IF(A239 &lt;&gt; "", """mem"": bit" &amp; B239 &amp; "(" &amp; A239 &amp; "),", ""),"""good"": ",IF(A239 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A239 &lt;&gt; "", A239, -1),", ""bit"": ",IF(B239 &lt;&gt; 0, B239, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C239, Levels!B:B, 0), 1, 1)),", ",IF(A239 &lt;&gt; "", """mem"": bit" &amp; B239 &amp; "(" &amp; A239 &amp; "),", ""),"""good"": ",IF(A239 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A239 &lt;&gt; "", A239, -1),", ""bit"": ",IF(B239 &lt;&gt; "", B239, -1),"},")</f>
         <v>238: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
         <v>12</v>
       </c>
       <c r="D240" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C240, Levels!B:B, 0), 1, 1)),", ",IF(A240 &lt;&gt; "", """mem"": bit" &amp; B240 &amp; "(" &amp; A240 &amp; "),", ""),"""good"": ",IF(A240 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A240 &lt;&gt; "", A240, -1),", ""bit"": ",IF(B240 &lt;&gt; 0, B240, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C240, Levels!B:B, 0), 1, 1)),", ",IF(A240 &lt;&gt; "", """mem"": bit" &amp; B240 &amp; "(" &amp; A240 &amp; "),", ""),"""good"": ",IF(A240 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A240 &lt;&gt; "", A240, -1),", ""bit"": ",IF(B240 &lt;&gt; "", B240, -1),"},")</f>
         <v>239: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
         <v>12</v>
       </c>
       <c r="D241" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C241, Levels!B:B, 0), 1, 1)),", ",IF(A241 &lt;&gt; "", """mem"": bit" &amp; B241 &amp; "(" &amp; A241 &amp; "),", ""),"""good"": ",IF(A241 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A241 &lt;&gt; "", A241, -1),", ""bit"": ",IF(B241 &lt;&gt; 0, B241, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C241, Levels!B:B, 0), 1, 1)),", ",IF(A241 &lt;&gt; "", """mem"": bit" &amp; B241 &amp; "(" &amp; A241 &amp; "),", ""),"""good"": ",IF(A241 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A241 &lt;&gt; "", A241, -1),", ""bit"": ",IF(B241 &lt;&gt; "", B241, -1),"},")</f>
         <v>240: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
         <v>12</v>
       </c>
       <c r="D242" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C242, Levels!B:B, 0), 1, 1)),", ",IF(A242 &lt;&gt; "", """mem"": bit" &amp; B242 &amp; "(" &amp; A242 &amp; "),", ""),"""good"": ",IF(A242 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A242 &lt;&gt; "", A242, -1),", ""bit"": ",IF(B242 &lt;&gt; 0, B242, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C242, Levels!B:B, 0), 1, 1)),", ",IF(A242 &lt;&gt; "", """mem"": bit" &amp; B242 &amp; "(" &amp; A242 &amp; "),", ""),"""good"": ",IF(A242 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A242 &lt;&gt; "", A242, -1),", ""bit"": ",IF(B242 &lt;&gt; "", B242, -1),"},")</f>
         <v>241: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
         <v>12</v>
       </c>
       <c r="D243" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C243, Levels!B:B, 0), 1, 1)),", ",IF(A243 &lt;&gt; "", """mem"": bit" &amp; B243 &amp; "(" &amp; A243 &amp; "),", ""),"""good"": ",IF(A243 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A243 &lt;&gt; "", A243, -1),", ""bit"": ",IF(B243 &lt;&gt; 0, B243, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C243, Levels!B:B, 0), 1, 1)),", ",IF(A243 &lt;&gt; "", """mem"": bit" &amp; B243 &amp; "(" &amp; A243 &amp; "),", ""),"""good"": ",IF(A243 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A243 &lt;&gt; "", A243, -1),", ""bit"": ",IF(B243 &lt;&gt; "", B243, -1),"},")</f>
         <v>242: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
         <v>12</v>
       </c>
       <c r="D244" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C244, Levels!B:B, 0), 1, 1)),", ",IF(A244 &lt;&gt; "", """mem"": bit" &amp; B244 &amp; "(" &amp; A244 &amp; "),", ""),"""good"": ",IF(A244 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A244 &lt;&gt; "", A244, -1),", ""bit"": ",IF(B244 &lt;&gt; 0, B244, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C244, Levels!B:B, 0), 1, 1)),", ",IF(A244 &lt;&gt; "", """mem"": bit" &amp; B244 &amp; "(" &amp; A244 &amp; "),", ""),"""good"": ",IF(A244 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A244 &lt;&gt; "", A244, -1),", ""bit"": ",IF(B244 &lt;&gt; "", B244, -1),"},")</f>
         <v>243: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
         <v>12</v>
       </c>
       <c r="D245" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C245, Levels!B:B, 0), 1, 1)),", ",IF(A245 &lt;&gt; "", """mem"": bit" &amp; B245 &amp; "(" &amp; A245 &amp; "),", ""),"""good"": ",IF(A245 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A245 &lt;&gt; "", A245, -1),", ""bit"": ",IF(B245 &lt;&gt; 0, B245, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C245, Levels!B:B, 0), 1, 1)),", ",IF(A245 &lt;&gt; "", """mem"": bit" &amp; B245 &amp; "(" &amp; A245 &amp; "),", ""),"""good"": ",IF(A245 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A245 &lt;&gt; "", A245, -1),", ""bit"": ",IF(B245 &lt;&gt; "", B245, -1),"},")</f>
         <v>244: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
         <v>12</v>
       </c>
       <c r="D246" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C246, Levels!B:B, 0), 1, 1)),", ",IF(A246 &lt;&gt; "", """mem"": bit" &amp; B246 &amp; "(" &amp; A246 &amp; "),", ""),"""good"": ",IF(A246 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A246 &lt;&gt; "", A246, -1),", ""bit"": ",IF(B246 &lt;&gt; 0, B246, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C246, Levels!B:B, 0), 1, 1)),", ",IF(A246 &lt;&gt; "", """mem"": bit" &amp; B246 &amp; "(" &amp; A246 &amp; "),", ""),"""good"": ",IF(A246 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A246 &lt;&gt; "", A246, -1),", ""bit"": ",IF(B246 &lt;&gt; "", B246, -1),"},")</f>
         <v>245: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
         <v>12</v>
       </c>
       <c r="D247" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C247, Levels!B:B, 0), 1, 1)),", ",IF(A247 &lt;&gt; "", """mem"": bit" &amp; B247 &amp; "(" &amp; A247 &amp; "),", ""),"""good"": ",IF(A247 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A247 &lt;&gt; "", A247, -1),", ""bit"": ",IF(B247 &lt;&gt; 0, B247, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C247, Levels!B:B, 0), 1, 1)),", ",IF(A247 &lt;&gt; "", """mem"": bit" &amp; B247 &amp; "(" &amp; A247 &amp; "),", ""),"""good"": ",IF(A247 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A247 &lt;&gt; "", A247, -1),", ""bit"": ",IF(B247 &lt;&gt; "", B247, -1),"},")</f>
         <v>246: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11284,7 +11284,7 @@
         <v>12</v>
       </c>
       <c r="D248" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C248, Levels!B:B, 0), 1, 1)),", ",IF(A248 &lt;&gt; "", """mem"": bit" &amp; B248 &amp; "(" &amp; A248 &amp; "),", ""),"""good"": ",IF(A248 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A248 &lt;&gt; "", A248, -1),", ""bit"": ",IF(B248 &lt;&gt; 0, B248, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C248, Levels!B:B, 0), 1, 1)),", ",IF(A248 &lt;&gt; "", """mem"": bit" &amp; B248 &amp; "(" &amp; A248 &amp; "),", ""),"""good"": ",IF(A248 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A248 &lt;&gt; "", A248, -1),", ""bit"": ",IF(B248 &lt;&gt; "", B248, -1),"},")</f>
         <v>247: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11293,7 +11293,7 @@
         <v>12</v>
       </c>
       <c r="D249" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C249, Levels!B:B, 0), 1, 1)),", ",IF(A249 &lt;&gt; "", """mem"": bit" &amp; B249 &amp; "(" &amp; A249 &amp; "),", ""),"""good"": ",IF(A249 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A249 &lt;&gt; "", A249, -1),", ""bit"": ",IF(B249 &lt;&gt; 0, B249, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C249, Levels!B:B, 0), 1, 1)),", ",IF(A249 &lt;&gt; "", """mem"": bit" &amp; B249 &amp; "(" &amp; A249 &amp; "),", ""),"""good"": ",IF(A249 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A249 &lt;&gt; "", A249, -1),", ""bit"": ",IF(B249 &lt;&gt; "", B249, -1),"},")</f>
         <v>248: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11302,7 +11302,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C250, Levels!B:B, 0), 1, 1)),", ",IF(A250 &lt;&gt; "", """mem"": bit" &amp; B250 &amp; "(" &amp; A250 &amp; "),", ""),"""good"": ",IF(A250 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A250 &lt;&gt; "", A250, -1),", ""bit"": ",IF(B250 &lt;&gt; 0, B250, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C250, Levels!B:B, 0), 1, 1)),", ",IF(A250 &lt;&gt; "", """mem"": bit" &amp; B250 &amp; "(" &amp; A250 &amp; "),", ""),"""good"": ",IF(A250 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A250 &lt;&gt; "", A250, -1),", ""bit"": ",IF(B250 &lt;&gt; "", B250, -1),"},")</f>
         <v>249: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
         <v>12</v>
       </c>
       <c r="D251" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C251, Levels!B:B, 0), 1, 1)),", ",IF(A251 &lt;&gt; "", """mem"": bit" &amp; B251 &amp; "(" &amp; A251 &amp; "),", ""),"""good"": ",IF(A251 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A251 &lt;&gt; "", A251, -1),", ""bit"": ",IF(B251 &lt;&gt; 0, B251, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C251, Levels!B:B, 0), 1, 1)),", ",IF(A251 &lt;&gt; "", """mem"": bit" &amp; B251 &amp; "(" &amp; A251 &amp; "),", ""),"""good"": ",IF(A251 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A251 &lt;&gt; "", A251, -1),", ""bit"": ",IF(B251 &lt;&gt; "", B251, -1),"},")</f>
         <v>250: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11320,7 +11320,7 @@
         <v>12</v>
       </c>
       <c r="D252" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C252, Levels!B:B, 0), 1, 1)),", ",IF(A252 &lt;&gt; "", """mem"": bit" &amp; B252 &amp; "(" &amp; A252 &amp; "),", ""),"""good"": ",IF(A252 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A252 &lt;&gt; "", A252, -1),", ""bit"": ",IF(B252 &lt;&gt; 0, B252, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C252, Levels!B:B, 0), 1, 1)),", ",IF(A252 &lt;&gt; "", """mem"": bit" &amp; B252 &amp; "(" &amp; A252 &amp; "),", ""),"""good"": ",IF(A252 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A252 &lt;&gt; "", A252, -1),", ""bit"": ",IF(B252 &lt;&gt; "", B252, -1),"},")</f>
         <v>251: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
         <v>12</v>
       </c>
       <c r="D253" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C253, Levels!B:B, 0), 1, 1)),", ",IF(A253 &lt;&gt; "", """mem"": bit" &amp; B253 &amp; "(" &amp; A253 &amp; "),", ""),"""good"": ",IF(A253 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A253 &lt;&gt; "", A253, -1),", ""bit"": ",IF(B253 &lt;&gt; 0, B253, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C253, Levels!B:B, 0), 1, 1)),", ",IF(A253 &lt;&gt; "", """mem"": bit" &amp; B253 &amp; "(" &amp; A253 &amp; "),", ""),"""good"": ",IF(A253 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A253 &lt;&gt; "", A253, -1),", ""bit"": ",IF(B253 &lt;&gt; "", B253, -1),"},")</f>
         <v>252: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
         <v>12</v>
       </c>
       <c r="D254" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C254, Levels!B:B, 0), 1, 1)),", ",IF(A254 &lt;&gt; "", """mem"": bit" &amp; B254 &amp; "(" &amp; A254 &amp; "),", ""),"""good"": ",IF(A254 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A254 &lt;&gt; "", A254, -1),", ""bit"": ",IF(B254 &lt;&gt; 0, B254, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C254, Levels!B:B, 0), 1, 1)),", ",IF(A254 &lt;&gt; "", """mem"": bit" &amp; B254 &amp; "(" &amp; A254 &amp; "),", ""),"""good"": ",IF(A254 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A254 &lt;&gt; "", A254, -1),", ""bit"": ",IF(B254 &lt;&gt; "", B254, -1),"},")</f>
         <v>253: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11347,7 +11347,7 @@
         <v>12</v>
       </c>
       <c r="D255" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C255, Levels!B:B, 0), 1, 1)),", ",IF(A255 &lt;&gt; "", """mem"": bit" &amp; B255 &amp; "(" &amp; A255 &amp; "),", ""),"""good"": ",IF(A255 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A255 &lt;&gt; "", A255, -1),", ""bit"": ",IF(B255 &lt;&gt; 0, B255, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C255, Levels!B:B, 0), 1, 1)),", ",IF(A255 &lt;&gt; "", """mem"": bit" &amp; B255 &amp; "(" &amp; A255 &amp; "),", ""),"""good"": ",IF(A255 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A255 &lt;&gt; "", A255, -1),", ""bit"": ",IF(B255 &lt;&gt; "", B255, -1),"},")</f>
         <v>254: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11356,7 +11356,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C256, Levels!B:B, 0), 1, 1)),", ",IF(A256 &lt;&gt; "", """mem"": bit" &amp; B256 &amp; "(" &amp; A256 &amp; "),", ""),"""good"": ",IF(A256 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A256 &lt;&gt; "", A256, -1),", ""bit"": ",IF(B256 &lt;&gt; 0, B256, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C256, Levels!B:B, 0), 1, 1)),", ",IF(A256 &lt;&gt; "", """mem"": bit" &amp; B256 &amp; "(" &amp; A256 &amp; "),", ""),"""good"": ",IF(A256 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A256 &lt;&gt; "", A256, -1),", ""bit"": ",IF(B256 &lt;&gt; "", B256, -1),"},")</f>
         <v>255: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
         <v>12</v>
       </c>
       <c r="D257" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C257, Levels!B:B, 0), 1, 1)),", ",IF(A257 &lt;&gt; "", """mem"": bit" &amp; B257 &amp; "(" &amp; A257 &amp; "),", ""),"""good"": ",IF(A257 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A257 &lt;&gt; "", A257, -1),", ""bit"": ",IF(B257 &lt;&gt; 0, B257, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C257, Levels!B:B, 0), 1, 1)),", ",IF(A257 &lt;&gt; "", """mem"": bit" &amp; B257 &amp; "(" &amp; A257 &amp; "),", ""),"""good"": ",IF(A257 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A257 &lt;&gt; "", A257, -1),", ""bit"": ",IF(B257 &lt;&gt; "", B257, -1),"},")</f>
         <v>256: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11374,7 +11374,7 @@
         <v>12</v>
       </c>
       <c r="D258" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C258, Levels!B:B, 0), 1, 1)),", ",IF(A258 &lt;&gt; "", """mem"": bit" &amp; B258 &amp; "(" &amp; A258 &amp; "),", ""),"""good"": ",IF(A258 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A258 &lt;&gt; "", A258, -1),", ""bit"": ",IF(B258 &lt;&gt; 0, B258, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C258, Levels!B:B, 0), 1, 1)),", ",IF(A258 &lt;&gt; "", """mem"": bit" &amp; B258 &amp; "(" &amp; A258 &amp; "),", ""),"""good"": ",IF(A258 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A258 &lt;&gt; "", A258, -1),", ""bit"": ",IF(B258 &lt;&gt; "", B258, -1),"},")</f>
         <v>257: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
         <v>12</v>
       </c>
       <c r="D259" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C259, Levels!B:B, 0), 1, 1)),", ",IF(A259 &lt;&gt; "", """mem"": bit" &amp; B259 &amp; "(" &amp; A259 &amp; "),", ""),"""good"": ",IF(A259 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A259 &lt;&gt; "", A259, -1),", ""bit"": ",IF(B259 &lt;&gt; 0, B259, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C259, Levels!B:B, 0), 1, 1)),", ",IF(A259 &lt;&gt; "", """mem"": bit" &amp; B259 &amp; "(" &amp; A259 &amp; "),", ""),"""good"": ",IF(A259 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A259 &lt;&gt; "", A259, -1),", ""bit"": ",IF(B259 &lt;&gt; "", B259, -1),"},")</f>
         <v>258: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11392,7 +11392,7 @@
         <v>12</v>
       </c>
       <c r="D260" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C260, Levels!B:B, 0), 1, 1)),", ",IF(A260 &lt;&gt; "", """mem"": bit" &amp; B260 &amp; "(" &amp; A260 &amp; "),", ""),"""good"": ",IF(A260 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A260 &lt;&gt; "", A260, -1),", ""bit"": ",IF(B260 &lt;&gt; 0, B260, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C260, Levels!B:B, 0), 1, 1)),", ",IF(A260 &lt;&gt; "", """mem"": bit" &amp; B260 &amp; "(" &amp; A260 &amp; "),", ""),"""good"": ",IF(A260 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A260 &lt;&gt; "", A260, -1),", ""bit"": ",IF(B260 &lt;&gt; "", B260, -1),"},")</f>
         <v>259: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
         <v>12</v>
       </c>
       <c r="D261" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C261, Levels!B:B, 0), 1, 1)),", ",IF(A261 &lt;&gt; "", """mem"": bit" &amp; B261 &amp; "(" &amp; A261 &amp; "),", ""),"""good"": ",IF(A261 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A261 &lt;&gt; "", A261, -1),", ""bit"": ",IF(B261 &lt;&gt; 0, B261, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C261, Levels!B:B, 0), 1, 1)),", ",IF(A261 &lt;&gt; "", """mem"": bit" &amp; B261 &amp; "(" &amp; A261 &amp; "),", ""),"""good"": ",IF(A261 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A261 &lt;&gt; "", A261, -1),", ""bit"": ",IF(B261 &lt;&gt; "", B261, -1),"},")</f>
         <v>260: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11410,7 +11410,7 @@
         <v>12</v>
       </c>
       <c r="D262" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C262, Levels!B:B, 0), 1, 1)),", ",IF(A262 &lt;&gt; "", """mem"": bit" &amp; B262 &amp; "(" &amp; A262 &amp; "),", ""),"""good"": ",IF(A262 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A262 &lt;&gt; "", A262, -1),", ""bit"": ",IF(B262 &lt;&gt; 0, B262, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C262, Levels!B:B, 0), 1, 1)),", ",IF(A262 &lt;&gt; "", """mem"": bit" &amp; B262 &amp; "(" &amp; A262 &amp; "),", ""),"""good"": ",IF(A262 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A262 &lt;&gt; "", A262, -1),", ""bit"": ",IF(B262 &lt;&gt; "", B262, -1),"},")</f>
         <v>261: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
         <v>12</v>
       </c>
       <c r="D263" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C263, Levels!B:B, 0), 1, 1)),", ",IF(A263 &lt;&gt; "", """mem"": bit" &amp; B263 &amp; "(" &amp; A263 &amp; "),", ""),"""good"": ",IF(A263 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A263 &lt;&gt; "", A263, -1),", ""bit"": ",IF(B263 &lt;&gt; 0, B263, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C263, Levels!B:B, 0), 1, 1)),", ",IF(A263 &lt;&gt; "", """mem"": bit" &amp; B263 &amp; "(" &amp; A263 &amp; "),", ""),"""good"": ",IF(A263 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A263 &lt;&gt; "", A263, -1),", ""bit"": ",IF(B263 &lt;&gt; "", B263, -1),"},")</f>
         <v>262: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
         <v>12</v>
       </c>
       <c r="D264" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C264, Levels!B:B, 0), 1, 1)),", ",IF(A264 &lt;&gt; "", """mem"": bit" &amp; B264 &amp; "(" &amp; A264 &amp; "),", ""),"""good"": ",IF(A264 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A264 &lt;&gt; "", A264, -1),", ""bit"": ",IF(B264 &lt;&gt; 0, B264, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C264, Levels!B:B, 0), 1, 1)),", ",IF(A264 &lt;&gt; "", """mem"": bit" &amp; B264 &amp; "(" &amp; A264 &amp; "),", ""),"""good"": ",IF(A264 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A264 &lt;&gt; "", A264, -1),", ""bit"": ",IF(B264 &lt;&gt; "", B264, -1),"},")</f>
         <v>263: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
         <v>12</v>
       </c>
       <c r="D265" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C265, Levels!B:B, 0), 1, 1)),", ",IF(A265 &lt;&gt; "", """mem"": bit" &amp; B265 &amp; "(" &amp; A265 &amp; "),", ""),"""good"": ",IF(A265 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A265 &lt;&gt; "", A265, -1),", ""bit"": ",IF(B265 &lt;&gt; 0, B265, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C265, Levels!B:B, 0), 1, 1)),", ",IF(A265 &lt;&gt; "", """mem"": bit" &amp; B265 &amp; "(" &amp; A265 &amp; "),", ""),"""good"": ",IF(A265 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A265 &lt;&gt; "", A265, -1),", ""bit"": ",IF(B265 &lt;&gt; "", B265, -1),"},")</f>
         <v>264: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
         <v>12</v>
       </c>
       <c r="D266" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C266, Levels!B:B, 0), 1, 1)),", ",IF(A266 &lt;&gt; "", """mem"": bit" &amp; B266 &amp; "(" &amp; A266 &amp; "),", ""),"""good"": ",IF(A266 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A266 &lt;&gt; "", A266, -1),", ""bit"": ",IF(B266 &lt;&gt; 0, B266, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C266, Levels!B:B, 0), 1, 1)),", ",IF(A266 &lt;&gt; "", """mem"": bit" &amp; B266 &amp; "(" &amp; A266 &amp; "),", ""),"""good"": ",IF(A266 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A266 &lt;&gt; "", A266, -1),", ""bit"": ",IF(B266 &lt;&gt; "", B266, -1),"},")</f>
         <v>265: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
         <v>12</v>
       </c>
       <c r="D267" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C267, Levels!B:B, 0), 1, 1)),", ",IF(A267 &lt;&gt; "", """mem"": bit" &amp; B267 &amp; "(" &amp; A267 &amp; "),", ""),"""good"": ",IF(A267 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A267 &lt;&gt; "", A267, -1),", ""bit"": ",IF(B267 &lt;&gt; 0, B267, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C267, Levels!B:B, 0), 1, 1)),", ",IF(A267 &lt;&gt; "", """mem"": bit" &amp; B267 &amp; "(" &amp; A267 &amp; "),", ""),"""good"": ",IF(A267 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A267 &lt;&gt; "", A267, -1),", ""bit"": ",IF(B267 &lt;&gt; "", B267, -1),"},")</f>
         <v>266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
         <v>12</v>
       </c>
       <c r="D268" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C268, Levels!B:B, 0), 1, 1)),", ",IF(A268 &lt;&gt; "", """mem"": bit" &amp; B268 &amp; "(" &amp; A268 &amp; "),", ""),"""good"": ",IF(A268 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A268 &lt;&gt; "", A268, -1),", ""bit"": ",IF(B268 &lt;&gt; 0, B268, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C268, Levels!B:B, 0), 1, 1)),", ",IF(A268 &lt;&gt; "", """mem"": bit" &amp; B268 &amp; "(" &amp; A268 &amp; "),", ""),"""good"": ",IF(A268 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A268 &lt;&gt; "", A268, -1),", ""bit"": ",IF(B268 &lt;&gt; "", B268, -1),"},")</f>
         <v>267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="D269" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C269, Levels!B:B, 0), 1, 1)),", ",IF(A269 &lt;&gt; "", """mem"": bit" &amp; B269 &amp; "(" &amp; A269 &amp; "),", ""),"""good"": ",IF(A269 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A269 &lt;&gt; "", A269, -1),", ""bit"": ",IF(B269 &lt;&gt; 0, B269, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C269, Levels!B:B, 0), 1, 1)),", ",IF(A269 &lt;&gt; "", """mem"": bit" &amp; B269 &amp; "(" &amp; A269 &amp; "),", ""),"""good"": ",IF(A269 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A269 &lt;&gt; "", A269, -1),", ""bit"": ",IF(B269 &lt;&gt; "", B269, -1),"},")</f>
         <v>268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
         <v>12</v>
       </c>
       <c r="D270" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C270, Levels!B:B, 0), 1, 1)),", ",IF(A270 &lt;&gt; "", """mem"": bit" &amp; B270 &amp; "(" &amp; A270 &amp; "),", ""),"""good"": ",IF(A270 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A270 &lt;&gt; "", A270, -1),", ""bit"": ",IF(B270 &lt;&gt; 0, B270, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C270, Levels!B:B, 0), 1, 1)),", ",IF(A270 &lt;&gt; "", """mem"": bit" &amp; B270 &amp; "(" &amp; A270 &amp; "),", ""),"""good"": ",IF(A270 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A270 &lt;&gt; "", A270, -1),", ""bit"": ",IF(B270 &lt;&gt; "", B270, -1),"},")</f>
         <v>269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
         <v>12</v>
       </c>
       <c r="D271" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C271, Levels!B:B, 0), 1, 1)),", ",IF(A271 &lt;&gt; "", """mem"": bit" &amp; B271 &amp; "(" &amp; A271 &amp; "),", ""),"""good"": ",IF(A271 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A271 &lt;&gt; "", A271, -1),", ""bit"": ",IF(B271 &lt;&gt; 0, B271, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C271, Levels!B:B, 0), 1, 1)),", ",IF(A271 &lt;&gt; "", """mem"": bit" &amp; B271 &amp; "(" &amp; A271 &amp; "),", ""),"""good"": ",IF(A271 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A271 &lt;&gt; "", A271, -1),", ""bit"": ",IF(B271 &lt;&gt; "", B271, -1),"},")</f>
         <v>270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11500,7 +11500,7 @@
         <v>12</v>
       </c>
       <c r="D272" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C272, Levels!B:B, 0), 1, 1)),", ",IF(A272 &lt;&gt; "", """mem"": bit" &amp; B272 &amp; "(" &amp; A272 &amp; "),", ""),"""good"": ",IF(A272 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A272 &lt;&gt; "", A272, -1),", ""bit"": ",IF(B272 &lt;&gt; 0, B272, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C272, Levels!B:B, 0), 1, 1)),", ",IF(A272 &lt;&gt; "", """mem"": bit" &amp; B272 &amp; "(" &amp; A272 &amp; "),", ""),"""good"": ",IF(A272 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A272 &lt;&gt; "", A272, -1),", ""bit"": ",IF(B272 &lt;&gt; "", B272, -1),"},")</f>
         <v>271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C273, Levels!B:B, 0), 1, 1)),", ",IF(A273 &lt;&gt; "", """mem"": bit" &amp; B273 &amp; "(" &amp; A273 &amp; "),", ""),"""good"": ",IF(A273 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A273 &lt;&gt; "", A273, -1),", ""bit"": ",IF(B273 &lt;&gt; 0, B273, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C273, Levels!B:B, 0), 1, 1)),", ",IF(A273 &lt;&gt; "", """mem"": bit" &amp; B273 &amp; "(" &amp; A273 &amp; "),", ""),"""good"": ",IF(A273 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A273 &lt;&gt; "", A273, -1),", ""bit"": ",IF(B273 &lt;&gt; "", B273, -1),"},")</f>
         <v>272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
         <v>12</v>
       </c>
       <c r="D274" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C274, Levels!B:B, 0), 1, 1)),", ",IF(A274 &lt;&gt; "", """mem"": bit" &amp; B274 &amp; "(" &amp; A274 &amp; "),", ""),"""good"": ",IF(A274 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A274 &lt;&gt; "", A274, -1),", ""bit"": ",IF(B274 &lt;&gt; 0, B274, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C274, Levels!B:B, 0), 1, 1)),", ",IF(A274 &lt;&gt; "", """mem"": bit" &amp; B274 &amp; "(" &amp; A274 &amp; "),", ""),"""good"": ",IF(A274 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A274 &lt;&gt; "", A274, -1),", ""bit"": ",IF(B274 &lt;&gt; "", B274, -1),"},")</f>
         <v>273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11527,7 +11527,7 @@
         <v>12</v>
       </c>
       <c r="D275" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C275, Levels!B:B, 0), 1, 1)),", ",IF(A275 &lt;&gt; "", """mem"": bit" &amp; B275 &amp; "(" &amp; A275 &amp; "),", ""),"""good"": ",IF(A275 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A275 &lt;&gt; "", A275, -1),", ""bit"": ",IF(B275 &lt;&gt; 0, B275, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C275, Levels!B:B, 0), 1, 1)),", ",IF(A275 &lt;&gt; "", """mem"": bit" &amp; B275 &amp; "(" &amp; A275 &amp; "),", ""),"""good"": ",IF(A275 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A275 &lt;&gt; "", A275, -1),", ""bit"": ",IF(B275 &lt;&gt; "", B275, -1),"},")</f>
         <v>274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11536,7 +11536,7 @@
         <v>12</v>
       </c>
       <c r="D276" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C276, Levels!B:B, 0), 1, 1)),", ",IF(A276 &lt;&gt; "", """mem"": bit" &amp; B276 &amp; "(" &amp; A276 &amp; "),", ""),"""good"": ",IF(A276 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A276 &lt;&gt; "", A276, -1),", ""bit"": ",IF(B276 &lt;&gt; 0, B276, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C276, Levels!B:B, 0), 1, 1)),", ",IF(A276 &lt;&gt; "", """mem"": bit" &amp; B276 &amp; "(" &amp; A276 &amp; "),", ""),"""good"": ",IF(A276 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A276 &lt;&gt; "", A276, -1),", ""bit"": ",IF(B276 &lt;&gt; "", B276, -1),"},")</f>
         <v>275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
         <v>12</v>
       </c>
       <c r="D277" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C277, Levels!B:B, 0), 1, 1)),", ",IF(A277 &lt;&gt; "", """mem"": bit" &amp; B277 &amp; "(" &amp; A277 &amp; "),", ""),"""good"": ",IF(A277 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A277 &lt;&gt; "", A277, -1),", ""bit"": ",IF(B277 &lt;&gt; 0, B277, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C277, Levels!B:B, 0), 1, 1)),", ",IF(A277 &lt;&gt; "", """mem"": bit" &amp; B277 &amp; "(" &amp; A277 &amp; "),", ""),"""good"": ",IF(A277 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A277 &lt;&gt; "", A277, -1),", ""bit"": ",IF(B277 &lt;&gt; "", B277, -1),"},")</f>
         <v>276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
         <v>12</v>
       </c>
       <c r="D278" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C278, Levels!B:B, 0), 1, 1)),", ",IF(A278 &lt;&gt; "", """mem"": bit" &amp; B278 &amp; "(" &amp; A278 &amp; "),", ""),"""good"": ",IF(A278 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A278 &lt;&gt; "", A278, -1),", ""bit"": ",IF(B278 &lt;&gt; 0, B278, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C278, Levels!B:B, 0), 1, 1)),", ",IF(A278 &lt;&gt; "", """mem"": bit" &amp; B278 &amp; "(" &amp; A278 &amp; "),", ""),"""good"": ",IF(A278 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A278 &lt;&gt; "", A278, -1),", ""bit"": ",IF(B278 &lt;&gt; "", B278, -1),"},")</f>
         <v>277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
         <v>12</v>
       </c>
       <c r="D279" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C279, Levels!B:B, 0), 1, 1)),", ",IF(A279 &lt;&gt; "", """mem"": bit" &amp; B279 &amp; "(" &amp; A279 &amp; "),", ""),"""good"": ",IF(A279 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A279 &lt;&gt; "", A279, -1),", ""bit"": ",IF(B279 &lt;&gt; 0, B279, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C279, Levels!B:B, 0), 1, 1)),", ",IF(A279 &lt;&gt; "", """mem"": bit" &amp; B279 &amp; "(" &amp; A279 &amp; "),", ""),"""good"": ",IF(A279 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A279 &lt;&gt; "", A279, -1),", ""bit"": ",IF(B279 &lt;&gt; "", B279, -1),"},")</f>
         <v>278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
         <v>12</v>
       </c>
       <c r="D280" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C280, Levels!B:B, 0), 1, 1)),", ",IF(A280 &lt;&gt; "", """mem"": bit" &amp; B280 &amp; "(" &amp; A280 &amp; "),", ""),"""good"": ",IF(A280 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A280 &lt;&gt; "", A280, -1),", ""bit"": ",IF(B280 &lt;&gt; 0, B280, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C280, Levels!B:B, 0), 1, 1)),", ",IF(A280 &lt;&gt; "", """mem"": bit" &amp; B280 &amp; "(" &amp; A280 &amp; "),", ""),"""good"": ",IF(A280 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A280 &lt;&gt; "", A280, -1),", ""bit"": ",IF(B280 &lt;&gt; "", B280, -1),"},")</f>
         <v>279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
         <v>12</v>
       </c>
       <c r="D281" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C281, Levels!B:B, 0), 1, 1)),", ",IF(A281 &lt;&gt; "", """mem"": bit" &amp; B281 &amp; "(" &amp; A281 &amp; "),", ""),"""good"": ",IF(A281 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A281 &lt;&gt; "", A281, -1),", ""bit"": ",IF(B281 &lt;&gt; 0, B281, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C281, Levels!B:B, 0), 1, 1)),", ",IF(A281 &lt;&gt; "", """mem"": bit" &amp; B281 &amp; "(" &amp; A281 &amp; "),", ""),"""good"": ",IF(A281 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A281 &lt;&gt; "", A281, -1),", ""bit"": ",IF(B281 &lt;&gt; "", B281, -1),"},")</f>
         <v>280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
         <v>12</v>
       </c>
       <c r="D282" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C282, Levels!B:B, 0), 1, 1)),", ",IF(A282 &lt;&gt; "", """mem"": bit" &amp; B282 &amp; "(" &amp; A282 &amp; "),", ""),"""good"": ",IF(A282 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A282 &lt;&gt; "", A282, -1),", ""bit"": ",IF(B282 &lt;&gt; 0, B282, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C282, Levels!B:B, 0), 1, 1)),", ",IF(A282 &lt;&gt; "", """mem"": bit" &amp; B282 &amp; "(" &amp; A282 &amp; "),", ""),"""good"": ",IF(A282 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A282 &lt;&gt; "", A282, -1),", ""bit"": ",IF(B282 &lt;&gt; "", B282, -1),"},")</f>
         <v>281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11599,7 +11599,7 @@
         <v>12</v>
       </c>
       <c r="D283" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C283, Levels!B:B, 0), 1, 1)),", ",IF(A283 &lt;&gt; "", """mem"": bit" &amp; B283 &amp; "(" &amp; A283 &amp; "),", ""),"""good"": ",IF(A283 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A283 &lt;&gt; "", A283, -1),", ""bit"": ",IF(B283 &lt;&gt; 0, B283, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C283, Levels!B:B, 0), 1, 1)),", ",IF(A283 &lt;&gt; "", """mem"": bit" &amp; B283 &amp; "(" &amp; A283 &amp; "),", ""),"""good"": ",IF(A283 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A283 &lt;&gt; "", A283, -1),", ""bit"": ",IF(B283 &lt;&gt; "", B283, -1),"},")</f>
         <v>282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
         <v>12</v>
       </c>
       <c r="D284" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C284, Levels!B:B, 0), 1, 1)),", ",IF(A284 &lt;&gt; "", """mem"": bit" &amp; B284 &amp; "(" &amp; A284 &amp; "),", ""),"""good"": ",IF(A284 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A284 &lt;&gt; "", A284, -1),", ""bit"": ",IF(B284 &lt;&gt; 0, B284, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C284, Levels!B:B, 0), 1, 1)),", ",IF(A284 &lt;&gt; "", """mem"": bit" &amp; B284 &amp; "(" &amp; A284 &amp; "),", ""),"""good"": ",IF(A284 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A284 &lt;&gt; "", A284, -1),", ""bit"": ",IF(B284 &lt;&gt; "", B284, -1),"},")</f>
         <v>283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11617,7 +11617,7 @@
         <v>12</v>
       </c>
       <c r="D285" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C285, Levels!B:B, 0), 1, 1)),", ",IF(A285 &lt;&gt; "", """mem"": bit" &amp; B285 &amp; "(" &amp; A285 &amp; "),", ""),"""good"": ",IF(A285 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A285 &lt;&gt; "", A285, -1),", ""bit"": ",IF(B285 &lt;&gt; 0, B285, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C285, Levels!B:B, 0), 1, 1)),", ",IF(A285 &lt;&gt; "", """mem"": bit" &amp; B285 &amp; "(" &amp; A285 &amp; "),", ""),"""good"": ",IF(A285 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A285 &lt;&gt; "", A285, -1),", ""bit"": ",IF(B285 &lt;&gt; "", B285, -1),"},")</f>
         <v>284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C286, Levels!B:B, 0), 1, 1)),", ",IF(A286 &lt;&gt; "", """mem"": bit" &amp; B286 &amp; "(" &amp; A286 &amp; "),", ""),"""good"": ",IF(A286 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A286 &lt;&gt; "", A286, -1),", ""bit"": ",IF(B286 &lt;&gt; 0, B286, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C286, Levels!B:B, 0), 1, 1)),", ",IF(A286 &lt;&gt; "", """mem"": bit" &amp; B286 &amp; "(" &amp; A286 &amp; "),", ""),"""good"": ",IF(A286 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A286 &lt;&gt; "", A286, -1),", ""bit"": ",IF(B286 &lt;&gt; "", B286, -1),"},")</f>
         <v>285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
         <v>12</v>
       </c>
       <c r="D287" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C287, Levels!B:B, 0), 1, 1)),", ",IF(A287 &lt;&gt; "", """mem"": bit" &amp; B287 &amp; "(" &amp; A287 &amp; "),", ""),"""good"": ",IF(A287 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A287 &lt;&gt; "", A287, -1),", ""bit"": ",IF(B287 &lt;&gt; 0, B287, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C287, Levels!B:B, 0), 1, 1)),", ",IF(A287 &lt;&gt; "", """mem"": bit" &amp; B287 &amp; "(" &amp; A287 &amp; "),", ""),"""good"": ",IF(A287 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A287 &lt;&gt; "", A287, -1),", ""bit"": ",IF(B287 &lt;&gt; "", B287, -1),"},")</f>
         <v>286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D288" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C288, Levels!B:B, 0), 1, 1)),", ",IF(A288 &lt;&gt; "", """mem"": bit" &amp; B288 &amp; "(" &amp; A288 &amp; "),", ""),"""good"": ",IF(A288 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A288 &lt;&gt; "", A288, -1),", ""bit"": ",IF(B288 &lt;&gt; 0, B288, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C288, Levels!B:B, 0), 1, 1)),", ",IF(A288 &lt;&gt; "", """mem"": bit" &amp; B288 &amp; "(" &amp; A288 &amp; "),", ""),"""good"": ",IF(A288 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A288 &lt;&gt; "", A288, -1),", ""bit"": ",IF(B288 &lt;&gt; "", B288, -1),"},")</f>
         <v>287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
         <v>12</v>
       </c>
       <c r="D289" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C289, Levels!B:B, 0), 1, 1)),", ",IF(A289 &lt;&gt; "", """mem"": bit" &amp; B289 &amp; "(" &amp; A289 &amp; "),", ""),"""good"": ",IF(A289 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A289 &lt;&gt; "", A289, -1),", ""bit"": ",IF(B289 &lt;&gt; 0, B289, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C289, Levels!B:B, 0), 1, 1)),", ",IF(A289 &lt;&gt; "", """mem"": bit" &amp; B289 &amp; "(" &amp; A289 &amp; "),", ""),"""good"": ",IF(A289 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A289 &lt;&gt; "", A289, -1),", ""bit"": ",IF(B289 &lt;&gt; "", B289, -1),"},")</f>
         <v>288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
         <v>12</v>
       </c>
       <c r="D290" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C290, Levels!B:B, 0), 1, 1)),", ",IF(A290 &lt;&gt; "", """mem"": bit" &amp; B290 &amp; "(" &amp; A290 &amp; "),", ""),"""good"": ",IF(A290 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A290 &lt;&gt; "", A290, -1),", ""bit"": ",IF(B290 &lt;&gt; 0, B290, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C290, Levels!B:B, 0), 1, 1)),", ",IF(A290 &lt;&gt; "", """mem"": bit" &amp; B290 &amp; "(" &amp; A290 &amp; "),", ""),"""good"": ",IF(A290 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A290 &lt;&gt; "", A290, -1),", ""bit"": ",IF(B290 &lt;&gt; "", B290, -1),"},")</f>
         <v>289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
         <v>12</v>
       </c>
       <c r="D291" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C291, Levels!B:B, 0), 1, 1)),", ",IF(A291 &lt;&gt; "", """mem"": bit" &amp; B291 &amp; "(" &amp; A291 &amp; "),", ""),"""good"": ",IF(A291 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A291 &lt;&gt; "", A291, -1),", ""bit"": ",IF(B291 &lt;&gt; 0, B291, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C291, Levels!B:B, 0), 1, 1)),", ",IF(A291 &lt;&gt; "", """mem"": bit" &amp; B291 &amp; "(" &amp; A291 &amp; "),", ""),"""good"": ",IF(A291 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A291 &lt;&gt; "", A291, -1),", ""bit"": ",IF(B291 &lt;&gt; "", B291, -1),"},")</f>
         <v>290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11680,7 +11680,7 @@
         <v>12</v>
       </c>
       <c r="D292" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C292, Levels!B:B, 0), 1, 1)),", ",IF(A292 &lt;&gt; "", """mem"": bit" &amp; B292 &amp; "(" &amp; A292 &amp; "),", ""),"""good"": ",IF(A292 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A292 &lt;&gt; "", A292, -1),", ""bit"": ",IF(B292 &lt;&gt; 0, B292, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C292, Levels!B:B, 0), 1, 1)),", ",IF(A292 &lt;&gt; "", """mem"": bit" &amp; B292 &amp; "(" &amp; A292 &amp; "),", ""),"""good"": ",IF(A292 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A292 &lt;&gt; "", A292, -1),", ""bit"": ",IF(B292 &lt;&gt; "", B292, -1),"},")</f>
         <v>291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
         <v>12</v>
       </c>
       <c r="D293" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C293, Levels!B:B, 0), 1, 1)),", ",IF(A293 &lt;&gt; "", """mem"": bit" &amp; B293 &amp; "(" &amp; A293 &amp; "),", ""),"""good"": ",IF(A293 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A293 &lt;&gt; "", A293, -1),", ""bit"": ",IF(B293 &lt;&gt; 0, B293, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C293, Levels!B:B, 0), 1, 1)),", ",IF(A293 &lt;&gt; "", """mem"": bit" &amp; B293 &amp; "(" &amp; A293 &amp; "),", ""),"""good"": ",IF(A293 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A293 &lt;&gt; "", A293, -1),", ""bit"": ",IF(B293 &lt;&gt; "", B293, -1),"},")</f>
         <v>292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
         <v>12</v>
       </c>
       <c r="D294" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C294, Levels!B:B, 0), 1, 1)),", ",IF(A294 &lt;&gt; "", """mem"": bit" &amp; B294 &amp; "(" &amp; A294 &amp; "),", ""),"""good"": ",IF(A294 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A294 &lt;&gt; "", A294, -1),", ""bit"": ",IF(B294 &lt;&gt; 0, B294, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C294, Levels!B:B, 0), 1, 1)),", ",IF(A294 &lt;&gt; "", """mem"": bit" &amp; B294 &amp; "(" &amp; A294 &amp; "),", ""),"""good"": ",IF(A294 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A294 &lt;&gt; "", A294, -1),", ""bit"": ",IF(B294 &lt;&gt; "", B294, -1),"},")</f>
         <v>293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
         <v>12</v>
       </c>
       <c r="D295" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C295, Levels!B:B, 0), 1, 1)),", ",IF(A295 &lt;&gt; "", """mem"": bit" &amp; B295 &amp; "(" &amp; A295 &amp; "),", ""),"""good"": ",IF(A295 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A295 &lt;&gt; "", A295, -1),", ""bit"": ",IF(B295 &lt;&gt; 0, B295, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C295, Levels!B:B, 0), 1, 1)),", ",IF(A295 &lt;&gt; "", """mem"": bit" &amp; B295 &amp; "(" &amp; A295 &amp; "),", ""),"""good"": ",IF(A295 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A295 &lt;&gt; "", A295, -1),", ""bit"": ",IF(B295 &lt;&gt; "", B295, -1),"},")</f>
         <v>294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11716,7 +11716,7 @@
         <v>12</v>
       </c>
       <c r="D296" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C296, Levels!B:B, 0), 1, 1)),", ",IF(A296 &lt;&gt; "", """mem"": bit" &amp; B296 &amp; "(" &amp; A296 &amp; "),", ""),"""good"": ",IF(A296 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A296 &lt;&gt; "", A296, -1),", ""bit"": ",IF(B296 &lt;&gt; 0, B296, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C296, Levels!B:B, 0), 1, 1)),", ",IF(A296 &lt;&gt; "", """mem"": bit" &amp; B296 &amp; "(" &amp; A296 &amp; "),", ""),"""good"": ",IF(A296 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A296 &lt;&gt; "", A296, -1),", ""bit"": ",IF(B296 &lt;&gt; "", B296, -1),"},")</f>
         <v>295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
         <v>12</v>
       </c>
       <c r="D297" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C297, Levels!B:B, 0), 1, 1)),", ",IF(A297 &lt;&gt; "", """mem"": bit" &amp; B297 &amp; "(" &amp; A297 &amp; "),", ""),"""good"": ",IF(A297 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A297 &lt;&gt; "", A297, -1),", ""bit"": ",IF(B297 &lt;&gt; 0, B297, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C297, Levels!B:B, 0), 1, 1)),", ",IF(A297 &lt;&gt; "", """mem"": bit" &amp; B297 &amp; "(" &amp; A297 &amp; "),", ""),"""good"": ",IF(A297 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A297 &lt;&gt; "", A297, -1),", ""bit"": ",IF(B297 &lt;&gt; "", B297, -1),"},")</f>
         <v>296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11734,7 +11734,7 @@
         <v>12</v>
       </c>
       <c r="D298" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C298, Levels!B:B, 0), 1, 1)),", ",IF(A298 &lt;&gt; "", """mem"": bit" &amp; B298 &amp; "(" &amp; A298 &amp; "),", ""),"""good"": ",IF(A298 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A298 &lt;&gt; "", A298, -1),", ""bit"": ",IF(B298 &lt;&gt; 0, B298, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C298, Levels!B:B, 0), 1, 1)),", ",IF(A298 &lt;&gt; "", """mem"": bit" &amp; B298 &amp; "(" &amp; A298 &amp; "),", ""),"""good"": ",IF(A298 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A298 &lt;&gt; "", A298, -1),", ""bit"": ",IF(B298 &lt;&gt; "", B298, -1),"},")</f>
         <v>297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
         <v>12</v>
       </c>
       <c r="D299" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C299, Levels!B:B, 0), 1, 1)),", ",IF(A299 &lt;&gt; "", """mem"": bit" &amp; B299 &amp; "(" &amp; A299 &amp; "),", ""),"""good"": ",IF(A299 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A299 &lt;&gt; "", A299, -1),", ""bit"": ",IF(B299 &lt;&gt; 0, B299, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C299, Levels!B:B, 0), 1, 1)),", ",IF(A299 &lt;&gt; "", """mem"": bit" &amp; B299 &amp; "(" &amp; A299 &amp; "),", ""),"""good"": ",IF(A299 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A299 &lt;&gt; "", A299, -1),", ""bit"": ",IF(B299 &lt;&gt; "", B299, -1),"},")</f>
         <v>298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
         <v>12</v>
       </c>
       <c r="D300" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C300, Levels!B:B, 0), 1, 1)),", ",IF(A300 &lt;&gt; "", """mem"": bit" &amp; B300 &amp; "(" &amp; A300 &amp; "),", ""),"""good"": ",IF(A300 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A300 &lt;&gt; "", A300, -1),", ""bit"": ",IF(B300 &lt;&gt; 0, B300, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C300, Levels!B:B, 0), 1, 1)),", ",IF(A300 &lt;&gt; "", """mem"": bit" &amp; B300 &amp; "(" &amp; A300 &amp; "),", ""),"""good"": ",IF(A300 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A300 &lt;&gt; "", A300, -1),", ""bit"": ",IF(B300 &lt;&gt; "", B300, -1),"},")</f>
         <v>299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
         <v>12</v>
       </c>
       <c r="D301" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C301, Levels!B:B, 0), 1, 1)),", ",IF(A301 &lt;&gt; "", """mem"": bit" &amp; B301 &amp; "(" &amp; A301 &amp; "),", ""),"""good"": ",IF(A301 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A301 &lt;&gt; "", A301, -1),", ""bit"": ",IF(B301 &lt;&gt; 0, B301, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C301, Levels!B:B, 0), 1, 1)),", ",IF(A301 &lt;&gt; "", """mem"": bit" &amp; B301 &amp; "(" &amp; A301 &amp; "),", ""),"""good"": ",IF(A301 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A301 &lt;&gt; "", A301, -1),", ""bit"": ",IF(B301 &lt;&gt; "", B301, -1),"},")</f>
         <v>300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
         <v>12</v>
       </c>
       <c r="D302" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C302, Levels!B:B, 0), 1, 1)),", ",IF(A302 &lt;&gt; "", """mem"": bit" &amp; B302 &amp; "(" &amp; A302 &amp; "),", ""),"""good"": ",IF(A302 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A302 &lt;&gt; "", A302, -1),", ""bit"": ",IF(B302 &lt;&gt; 0, B302, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C302, Levels!B:B, 0), 1, 1)),", ",IF(A302 &lt;&gt; "", """mem"": bit" &amp; B302 &amp; "(" &amp; A302 &amp; "),", ""),"""good"": ",IF(A302 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A302 &lt;&gt; "", A302, -1),", ""bit"": ",IF(B302 &lt;&gt; "", B302, -1),"},")</f>
         <v>301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11779,7 +11779,7 @@
         <v>12</v>
       </c>
       <c r="D303" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C303, Levels!B:B, 0), 1, 1)),", ",IF(A303 &lt;&gt; "", """mem"": bit" &amp; B303 &amp; "(" &amp; A303 &amp; "),", ""),"""good"": ",IF(A303 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A303 &lt;&gt; "", A303, -1),", ""bit"": ",IF(B303 &lt;&gt; 0, B303, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C303, Levels!B:B, 0), 1, 1)),", ",IF(A303 &lt;&gt; "", """mem"": bit" &amp; B303 &amp; "(" &amp; A303 &amp; "),", ""),"""good"": ",IF(A303 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A303 &lt;&gt; "", A303, -1),", ""bit"": ",IF(B303 &lt;&gt; "", B303, -1),"},")</f>
         <v>302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
         <v>12</v>
       </c>
       <c r="D304" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C304, Levels!B:B, 0), 1, 1)),", ",IF(A304 &lt;&gt; "", """mem"": bit" &amp; B304 &amp; "(" &amp; A304 &amp; "),", ""),"""good"": ",IF(A304 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A304 &lt;&gt; "", A304, -1),", ""bit"": ",IF(B304 &lt;&gt; 0, B304, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C304, Levels!B:B, 0), 1, 1)),", ",IF(A304 &lt;&gt; "", """mem"": bit" &amp; B304 &amp; "(" &amp; A304 &amp; "),", ""),"""good"": ",IF(A304 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A304 &lt;&gt; "", A304, -1),", ""bit"": ",IF(B304 &lt;&gt; "", B304, -1),"},")</f>
         <v>303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
         <v>12</v>
       </c>
       <c r="D305" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C305, Levels!B:B, 0), 1, 1)),", ",IF(A305 &lt;&gt; "", """mem"": bit" &amp; B305 &amp; "(" &amp; A305 &amp; "),", ""),"""good"": ",IF(A305 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A305 &lt;&gt; "", A305, -1),", ""bit"": ",IF(B305 &lt;&gt; 0, B305, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C305, Levels!B:B, 0), 1, 1)),", ",IF(A305 &lt;&gt; "", """mem"": bit" &amp; B305 &amp; "(" &amp; A305 &amp; "),", ""),"""good"": ",IF(A305 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A305 &lt;&gt; "", A305, -1),", ""bit"": ",IF(B305 &lt;&gt; "", B305, -1),"},")</f>
         <v>304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C306, Levels!B:B, 0), 1, 1)),", ",IF(A306 &lt;&gt; "", """mem"": bit" &amp; B306 &amp; "(" &amp; A306 &amp; "),", ""),"""good"": ",IF(A306 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A306 &lt;&gt; "", A306, -1),", ""bit"": ",IF(B306 &lt;&gt; 0, B306, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C306, Levels!B:B, 0), 1, 1)),", ",IF(A306 &lt;&gt; "", """mem"": bit" &amp; B306 &amp; "(" &amp; A306 &amp; "),", ""),"""good"": ",IF(A306 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A306 &lt;&gt; "", A306, -1),", ""bit"": ",IF(B306 &lt;&gt; "", B306, -1),"},")</f>
         <v>305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
         <v>12</v>
       </c>
       <c r="D307" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C307, Levels!B:B, 0), 1, 1)),", ",IF(A307 &lt;&gt; "", """mem"": bit" &amp; B307 &amp; "(" &amp; A307 &amp; "),", ""),"""good"": ",IF(A307 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A307 &lt;&gt; "", A307, -1),", ""bit"": ",IF(B307 &lt;&gt; 0, B307, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C307, Levels!B:B, 0), 1, 1)),", ",IF(A307 &lt;&gt; "", """mem"": bit" &amp; B307 &amp; "(" &amp; A307 &amp; "),", ""),"""good"": ",IF(A307 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A307 &lt;&gt; "", A307, -1),", ""bit"": ",IF(B307 &lt;&gt; "", B307, -1),"},")</f>
         <v>306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11824,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="D308" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C308, Levels!B:B, 0), 1, 1)),", ",IF(A308 &lt;&gt; "", """mem"": bit" &amp; B308 &amp; "(" &amp; A308 &amp; "),", ""),"""good"": ",IF(A308 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A308 &lt;&gt; "", A308, -1),", ""bit"": ",IF(B308 &lt;&gt; 0, B308, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C308, Levels!B:B, 0), 1, 1)),", ",IF(A308 &lt;&gt; "", """mem"": bit" &amp; B308 &amp; "(" &amp; A308 &amp; "),", ""),"""good"": ",IF(A308 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A308 &lt;&gt; "", A308, -1),", ""bit"": ",IF(B308 &lt;&gt; "", B308, -1),"},")</f>
         <v>307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
         <v>12</v>
       </c>
       <c r="D309" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C309, Levels!B:B, 0), 1, 1)),", ",IF(A309 &lt;&gt; "", """mem"": bit" &amp; B309 &amp; "(" &amp; A309 &amp; "),", ""),"""good"": ",IF(A309 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A309 &lt;&gt; "", A309, -1),", ""bit"": ",IF(B309 &lt;&gt; 0, B309, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C309, Levels!B:B, 0), 1, 1)),", ",IF(A309 &lt;&gt; "", """mem"": bit" &amp; B309 &amp; "(" &amp; A309 &amp; "),", ""),"""good"": ",IF(A309 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A309 &lt;&gt; "", A309, -1),", ""bit"": ",IF(B309 &lt;&gt; "", B309, -1),"},")</f>
         <v>308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11842,7 +11842,7 @@
         <v>12</v>
       </c>
       <c r="D310" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C310, Levels!B:B, 0), 1, 1)),", ",IF(A310 &lt;&gt; "", """mem"": bit" &amp; B310 &amp; "(" &amp; A310 &amp; "),", ""),"""good"": ",IF(A310 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A310 &lt;&gt; "", A310, -1),", ""bit"": ",IF(B310 &lt;&gt; 0, B310, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C310, Levels!B:B, 0), 1, 1)),", ",IF(A310 &lt;&gt; "", """mem"": bit" &amp; B310 &amp; "(" &amp; A310 &amp; "),", ""),"""good"": ",IF(A310 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A310 &lt;&gt; "", A310, -1),", ""bit"": ",IF(B310 &lt;&gt; "", B310, -1),"},")</f>
         <v>309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
         <v>12</v>
       </c>
       <c r="D311" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C311, Levels!B:B, 0), 1, 1)),", ",IF(A311 &lt;&gt; "", """mem"": bit" &amp; B311 &amp; "(" &amp; A311 &amp; "),", ""),"""good"": ",IF(A311 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A311 &lt;&gt; "", A311, -1),", ""bit"": ",IF(B311 &lt;&gt; 0, B311, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C311, Levels!B:B, 0), 1, 1)),", ",IF(A311 &lt;&gt; "", """mem"": bit" &amp; B311 &amp; "(" &amp; A311 &amp; "),", ""),"""good"": ",IF(A311 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A311 &lt;&gt; "", A311, -1),", ""bit"": ",IF(B311 &lt;&gt; "", B311, -1),"},")</f>
         <v>310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
         <v>12</v>
       </c>
       <c r="D312" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C312, Levels!B:B, 0), 1, 1)),", ",IF(A312 &lt;&gt; "", """mem"": bit" &amp; B312 &amp; "(" &amp; A312 &amp; "),", ""),"""good"": ",IF(A312 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A312 &lt;&gt; "", A312, -1),", ""bit"": ",IF(B312 &lt;&gt; 0, B312, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C312, Levels!B:B, 0), 1, 1)),", ",IF(A312 &lt;&gt; "", """mem"": bit" &amp; B312 &amp; "(" &amp; A312 &amp; "),", ""),"""good"": ",IF(A312 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A312 &lt;&gt; "", A312, -1),", ""bit"": ",IF(B312 &lt;&gt; "", B312, -1),"},")</f>
         <v>311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
         <v>12</v>
       </c>
       <c r="D313" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C313, Levels!B:B, 0), 1, 1)),", ",IF(A313 &lt;&gt; "", """mem"": bit" &amp; B313 &amp; "(" &amp; A313 &amp; "),", ""),"""good"": ",IF(A313 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A313 &lt;&gt; "", A313, -1),", ""bit"": ",IF(B313 &lt;&gt; 0, B313, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C313, Levels!B:B, 0), 1, 1)),", ",IF(A313 &lt;&gt; "", """mem"": bit" &amp; B313 &amp; "(" &amp; A313 &amp; "),", ""),"""good"": ",IF(A313 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A313 &lt;&gt; "", A313, -1),", ""bit"": ",IF(B313 &lt;&gt; "", B313, -1),"},")</f>
         <v>312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
         <v>12</v>
       </c>
       <c r="D314" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C314, Levels!B:B, 0), 1, 1)),", ",IF(A314 &lt;&gt; "", """mem"": bit" &amp; B314 &amp; "(" &amp; A314 &amp; "),", ""),"""good"": ",IF(A314 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A314 &lt;&gt; "", A314, -1),", ""bit"": ",IF(B314 &lt;&gt; 0, B314, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C314, Levels!B:B, 0), 1, 1)),", ",IF(A314 &lt;&gt; "", """mem"": bit" &amp; B314 &amp; "(" &amp; A314 &amp; "),", ""),"""good"": ",IF(A314 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A314 &lt;&gt; "", A314, -1),", ""bit"": ",IF(B314 &lt;&gt; "", B314, -1),"},")</f>
         <v>313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C315, Levels!B:B, 0), 1, 1)),", ",IF(A315 &lt;&gt; "", """mem"": bit" &amp; B315 &amp; "(" &amp; A315 &amp; "),", ""),"""good"": ",IF(A315 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A315 &lt;&gt; "", A315, -1),", ""bit"": ",IF(B315 &lt;&gt; 0, B315, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C315, Levels!B:B, 0), 1, 1)),", ",IF(A315 &lt;&gt; "", """mem"": bit" &amp; B315 &amp; "(" &amp; A315 &amp; "),", ""),"""good"": ",IF(A315 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A315 &lt;&gt; "", A315, -1),", ""bit"": ",IF(B315 &lt;&gt; "", B315, -1),"},")</f>
         <v>314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11896,7 +11896,7 @@
         <v>12</v>
       </c>
       <c r="D316" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C316, Levels!B:B, 0), 1, 1)),", ",IF(A316 &lt;&gt; "", """mem"": bit" &amp; B316 &amp; "(" &amp; A316 &amp; "),", ""),"""good"": ",IF(A316 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A316 &lt;&gt; "", A316, -1),", ""bit"": ",IF(B316 &lt;&gt; 0, B316, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C316, Levels!B:B, 0), 1, 1)),", ",IF(A316 &lt;&gt; "", """mem"": bit" &amp; B316 &amp; "(" &amp; A316 &amp; "),", ""),"""good"": ",IF(A316 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A316 &lt;&gt; "", A316, -1),", ""bit"": ",IF(B316 &lt;&gt; "", B316, -1),"},")</f>
         <v>315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11905,7 +11905,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C317, Levels!B:B, 0), 1, 1)),", ",IF(A317 &lt;&gt; "", """mem"": bit" &amp; B317 &amp; "(" &amp; A317 &amp; "),", ""),"""good"": ",IF(A317 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A317 &lt;&gt; "", A317, -1),", ""bit"": ",IF(B317 &lt;&gt; 0, B317, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C317, Levels!B:B, 0), 1, 1)),", ",IF(A317 &lt;&gt; "", """mem"": bit" &amp; B317 &amp; "(" &amp; A317 &amp; "),", ""),"""good"": ",IF(A317 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A317 &lt;&gt; "", A317, -1),", ""bit"": ",IF(B317 &lt;&gt; "", B317, -1),"},")</f>
         <v>316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11914,7 +11914,7 @@
         <v>12</v>
       </c>
       <c r="D318" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C318, Levels!B:B, 0), 1, 1)),", ",IF(A318 &lt;&gt; "", """mem"": bit" &amp; B318 &amp; "(" &amp; A318 &amp; "),", ""),"""good"": ",IF(A318 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A318 &lt;&gt; "", A318, -1),", ""bit"": ",IF(B318 &lt;&gt; 0, B318, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C318, Levels!B:B, 0), 1, 1)),", ",IF(A318 &lt;&gt; "", """mem"": bit" &amp; B318 &amp; "(" &amp; A318 &amp; "),", ""),"""good"": ",IF(A318 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A318 &lt;&gt; "", A318, -1),", ""bit"": ",IF(B318 &lt;&gt; "", B318, -1),"},")</f>
         <v>317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
         <v>12</v>
       </c>
       <c r="D319" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C319, Levels!B:B, 0), 1, 1)),", ",IF(A319 &lt;&gt; "", """mem"": bit" &amp; B319 &amp; "(" &amp; A319 &amp; "),", ""),"""good"": ",IF(A319 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A319 &lt;&gt; "", A319, -1),", ""bit"": ",IF(B319 &lt;&gt; 0, B319, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C319, Levels!B:B, 0), 1, 1)),", ",IF(A319 &lt;&gt; "", """mem"": bit" &amp; B319 &amp; "(" &amp; A319 &amp; "),", ""),"""good"": ",IF(A319 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A319 &lt;&gt; "", A319, -1),", ""bit"": ",IF(B319 &lt;&gt; "", B319, -1),"},")</f>
         <v>318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11932,7 +11932,7 @@
         <v>12</v>
       </c>
       <c r="D320" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C320, Levels!B:B, 0), 1, 1)),", ",IF(A320 &lt;&gt; "", """mem"": bit" &amp; B320 &amp; "(" &amp; A320 &amp; "),", ""),"""good"": ",IF(A320 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A320 &lt;&gt; "", A320, -1),", ""bit"": ",IF(B320 &lt;&gt; 0, B320, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C320, Levels!B:B, 0), 1, 1)),", ",IF(A320 &lt;&gt; "", """mem"": bit" &amp; B320 &amp; "(" &amp; A320 &amp; "),", ""),"""good"": ",IF(A320 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A320 &lt;&gt; "", A320, -1),", ""bit"": ",IF(B320 &lt;&gt; "", B320, -1),"},")</f>
         <v>319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
         <v>12</v>
       </c>
       <c r="D321" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C321, Levels!B:B, 0), 1, 1)),", ",IF(A321 &lt;&gt; "", """mem"": bit" &amp; B321 &amp; "(" &amp; A321 &amp; "),", ""),"""good"": ",IF(A321 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A321 &lt;&gt; "", A321, -1),", ""bit"": ",IF(B321 &lt;&gt; 0, B321, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C321, Levels!B:B, 0), 1, 1)),", ",IF(A321 &lt;&gt; "", """mem"": bit" &amp; B321 &amp; "(" &amp; A321 &amp; "),", ""),"""good"": ",IF(A321 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A321 &lt;&gt; "", A321, -1),", ""bit"": ",IF(B321 &lt;&gt; "", B321, -1),"},")</f>
         <v>320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="D322" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C322, Levels!B:B, 0), 1, 1)),", ",IF(A322 &lt;&gt; "", """mem"": bit" &amp; B322 &amp; "(" &amp; A322 &amp; "),", ""),"""good"": ",IF(A322 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A322 &lt;&gt; "", A322, -1),", ""bit"": ",IF(B322 &lt;&gt; 0, B322, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C322, Levels!B:B, 0), 1, 1)),", ",IF(A322 &lt;&gt; "", """mem"": bit" &amp; B322 &amp; "(" &amp; A322 &amp; "),", ""),"""good"": ",IF(A322 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A322 &lt;&gt; "", A322, -1),", ""bit"": ",IF(B322 &lt;&gt; "", B322, -1),"},")</f>
         <v>321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
         <v>12</v>
       </c>
       <c r="D323" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C323, Levels!B:B, 0), 1, 1)),", ",IF(A323 &lt;&gt; "", """mem"": bit" &amp; B323 &amp; "(" &amp; A323 &amp; "),", ""),"""good"": ",IF(A323 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A323 &lt;&gt; "", A323, -1),", ""bit"": ",IF(B323 &lt;&gt; 0, B323, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C323, Levels!B:B, 0), 1, 1)),", ",IF(A323 &lt;&gt; "", """mem"": bit" &amp; B323 &amp; "(" &amp; A323 &amp; "),", ""),"""good"": ",IF(A323 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A323 &lt;&gt; "", A323, -1),", ""bit"": ",IF(B323 &lt;&gt; "", B323, -1),"},")</f>
         <v>322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
         <v>12</v>
       </c>
       <c r="D324" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C324, Levels!B:B, 0), 1, 1)),", ",IF(A324 &lt;&gt; "", """mem"": bit" &amp; B324 &amp; "(" &amp; A324 &amp; "),", ""),"""good"": ",IF(A324 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A324 &lt;&gt; "", A324, -1),", ""bit"": ",IF(B324 &lt;&gt; 0, B324, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C324, Levels!B:B, 0), 1, 1)),", ",IF(A324 &lt;&gt; "", """mem"": bit" &amp; B324 &amp; "(" &amp; A324 &amp; "),", ""),"""good"": ",IF(A324 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A324 &lt;&gt; "", A324, -1),", ""bit"": ",IF(B324 &lt;&gt; "", B324, -1),"},")</f>
         <v>323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
         <v>12</v>
       </c>
       <c r="D325" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C325, Levels!B:B, 0), 1, 1)),", ",IF(A325 &lt;&gt; "", """mem"": bit" &amp; B325 &amp; "(" &amp; A325 &amp; "),", ""),"""good"": ",IF(A325 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A325 &lt;&gt; "", A325, -1),", ""bit"": ",IF(B325 &lt;&gt; 0, B325, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C325, Levels!B:B, 0), 1, 1)),", ",IF(A325 &lt;&gt; "", """mem"": bit" &amp; B325 &amp; "(" &amp; A325 &amp; "),", ""),"""good"": ",IF(A325 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A325 &lt;&gt; "", A325, -1),", ""bit"": ",IF(B325 &lt;&gt; "", B325, -1),"},")</f>
         <v>324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11986,7 +11986,7 @@
         <v>12</v>
       </c>
       <c r="D326" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C326, Levels!B:B, 0), 1, 1)),", ",IF(A326 &lt;&gt; "", """mem"": bit" &amp; B326 &amp; "(" &amp; A326 &amp; "),", ""),"""good"": ",IF(A326 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A326 &lt;&gt; "", A326, -1),", ""bit"": ",IF(B326 &lt;&gt; 0, B326, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C326, Levels!B:B, 0), 1, 1)),", ",IF(A326 &lt;&gt; "", """mem"": bit" &amp; B326 &amp; "(" &amp; A326 &amp; "),", ""),"""good"": ",IF(A326 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A326 &lt;&gt; "", A326, -1),", ""bit"": ",IF(B326 &lt;&gt; "", B326, -1),"},")</f>
         <v>325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -11995,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="D327" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C327, Levels!B:B, 0), 1, 1)),", ",IF(A327 &lt;&gt; "", """mem"": bit" &amp; B327 &amp; "(" &amp; A327 &amp; "),", ""),"""good"": ",IF(A327 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A327 &lt;&gt; "", A327, -1),", ""bit"": ",IF(B327 &lt;&gt; 0, B327, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C327, Levels!B:B, 0), 1, 1)),", ",IF(A327 &lt;&gt; "", """mem"": bit" &amp; B327 &amp; "(" &amp; A327 &amp; "),", ""),"""good"": ",IF(A327 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A327 &lt;&gt; "", A327, -1),", ""bit"": ",IF(B327 &lt;&gt; "", B327, -1),"},")</f>
         <v>326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
         <v>12</v>
       </c>
       <c r="D328" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C328, Levels!B:B, 0), 1, 1)),", ",IF(A328 &lt;&gt; "", """mem"": bit" &amp; B328 &amp; "(" &amp; A328 &amp; "),", ""),"""good"": ",IF(A328 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A328 &lt;&gt; "", A328, -1),", ""bit"": ",IF(B328 &lt;&gt; 0, B328, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C328, Levels!B:B, 0), 1, 1)),", ",IF(A328 &lt;&gt; "", """mem"": bit" &amp; B328 &amp; "(" &amp; A328 &amp; "),", ""),"""good"": ",IF(A328 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A328 &lt;&gt; "", A328, -1),", ""bit"": ",IF(B328 &lt;&gt; "", B328, -1),"},")</f>
         <v>327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
         <v>12</v>
       </c>
       <c r="D329" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C329, Levels!B:B, 0), 1, 1)),", ",IF(A329 &lt;&gt; "", """mem"": bit" &amp; B329 &amp; "(" &amp; A329 &amp; "),", ""),"""good"": ",IF(A329 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A329 &lt;&gt; "", A329, -1),", ""bit"": ",IF(B329 &lt;&gt; 0, B329, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C329, Levels!B:B, 0), 1, 1)),", ",IF(A329 &lt;&gt; "", """mem"": bit" &amp; B329 &amp; "(" &amp; A329 &amp; "),", ""),"""good"": ",IF(A329 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A329 &lt;&gt; "", A329, -1),", ""bit"": ",IF(B329 &lt;&gt; "", B329, -1),"},")</f>
         <v>328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12022,7 +12022,7 @@
         <v>12</v>
       </c>
       <c r="D330" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C330, Levels!B:B, 0), 1, 1)),", ",IF(A330 &lt;&gt; "", """mem"": bit" &amp; B330 &amp; "(" &amp; A330 &amp; "),", ""),"""good"": ",IF(A330 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A330 &lt;&gt; "", A330, -1),", ""bit"": ",IF(B330 &lt;&gt; 0, B330, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C330, Levels!B:B, 0), 1, 1)),", ",IF(A330 &lt;&gt; "", """mem"": bit" &amp; B330 &amp; "(" &amp; A330 &amp; "),", ""),"""good"": ",IF(A330 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A330 &lt;&gt; "", A330, -1),", ""bit"": ",IF(B330 &lt;&gt; "", B330, -1),"},")</f>
         <v>329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="D331" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C331, Levels!B:B, 0), 1, 1)),", ",IF(A331 &lt;&gt; "", """mem"": bit" &amp; B331 &amp; "(" &amp; A331 &amp; "),", ""),"""good"": ",IF(A331 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A331 &lt;&gt; "", A331, -1),", ""bit"": ",IF(B331 &lt;&gt; 0, B331, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C331, Levels!B:B, 0), 1, 1)),", ",IF(A331 &lt;&gt; "", """mem"": bit" &amp; B331 &amp; "(" &amp; A331 &amp; "),", ""),"""good"": ",IF(A331 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A331 &lt;&gt; "", A331, -1),", ""bit"": ",IF(B331 &lt;&gt; "", B331, -1),"},")</f>
         <v>330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
         <v>12</v>
       </c>
       <c r="D332" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C332, Levels!B:B, 0), 1, 1)),", ",IF(A332 &lt;&gt; "", """mem"": bit" &amp; B332 &amp; "(" &amp; A332 &amp; "),", ""),"""good"": ",IF(A332 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A332 &lt;&gt; "", A332, -1),", ""bit"": ",IF(B332 &lt;&gt; 0, B332, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C332, Levels!B:B, 0), 1, 1)),", ",IF(A332 &lt;&gt; "", """mem"": bit" &amp; B332 &amp; "(" &amp; A332 &amp; "),", ""),"""good"": ",IF(A332 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A332 &lt;&gt; "", A332, -1),", ""bit"": ",IF(B332 &lt;&gt; "", B332, -1),"},")</f>
         <v>331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
         <v>12</v>
       </c>
       <c r="D333" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C333, Levels!B:B, 0), 1, 1)),", ",IF(A333 &lt;&gt; "", """mem"": bit" &amp; B333 &amp; "(" &amp; A333 &amp; "),", ""),"""good"": ",IF(A333 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A333 &lt;&gt; "", A333, -1),", ""bit"": ",IF(B333 &lt;&gt; 0, B333, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C333, Levels!B:B, 0), 1, 1)),", ",IF(A333 &lt;&gt; "", """mem"": bit" &amp; B333 &amp; "(" &amp; A333 &amp; "),", ""),"""good"": ",IF(A333 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A333 &lt;&gt; "", A333, -1),", ""bit"": ",IF(B333 &lt;&gt; "", B333, -1),"},")</f>
         <v>332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
         <v>12</v>
       </c>
       <c r="D334" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C334, Levels!B:B, 0), 1, 1)),", ",IF(A334 &lt;&gt; "", """mem"": bit" &amp; B334 &amp; "(" &amp; A334 &amp; "),", ""),"""good"": ",IF(A334 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A334 &lt;&gt; "", A334, -1),", ""bit"": ",IF(B334 &lt;&gt; 0, B334, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C334, Levels!B:B, 0), 1, 1)),", ",IF(A334 &lt;&gt; "", """mem"": bit" &amp; B334 &amp; "(" &amp; A334 &amp; "),", ""),"""good"": ",IF(A334 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A334 &lt;&gt; "", A334, -1),", ""bit"": ",IF(B334 &lt;&gt; "", B334, -1),"},")</f>
         <v>333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12067,7 +12067,7 @@
         <v>12</v>
       </c>
       <c r="D335" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C335, Levels!B:B, 0), 1, 1)),", ",IF(A335 &lt;&gt; "", """mem"": bit" &amp; B335 &amp; "(" &amp; A335 &amp; "),", ""),"""good"": ",IF(A335 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A335 &lt;&gt; "", A335, -1),", ""bit"": ",IF(B335 &lt;&gt; 0, B335, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C335, Levels!B:B, 0), 1, 1)),", ",IF(A335 &lt;&gt; "", """mem"": bit" &amp; B335 &amp; "(" &amp; A335 &amp; "),", ""),"""good"": ",IF(A335 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A335 &lt;&gt; "", A335, -1),", ""bit"": ",IF(B335 &lt;&gt; "", B335, -1),"},")</f>
         <v>334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12076,7 +12076,7 @@
         <v>12</v>
       </c>
       <c r="D336" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C336, Levels!B:B, 0), 1, 1)),", ",IF(A336 &lt;&gt; "", """mem"": bit" &amp; B336 &amp; "(" &amp; A336 &amp; "),", ""),"""good"": ",IF(A336 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A336 &lt;&gt; "", A336, -1),", ""bit"": ",IF(B336 &lt;&gt; 0, B336, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C336, Levels!B:B, 0), 1, 1)),", ",IF(A336 &lt;&gt; "", """mem"": bit" &amp; B336 &amp; "(" &amp; A336 &amp; "),", ""),"""good"": ",IF(A336 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A336 &lt;&gt; "", A336, -1),", ""bit"": ",IF(B336 &lt;&gt; "", B336, -1),"},")</f>
         <v>335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
         <v>12</v>
       </c>
       <c r="D337" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C337, Levels!B:B, 0), 1, 1)),", ",IF(A337 &lt;&gt; "", """mem"": bit" &amp; B337 &amp; "(" &amp; A337 &amp; "),", ""),"""good"": ",IF(A337 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A337 &lt;&gt; "", A337, -1),", ""bit"": ",IF(B337 &lt;&gt; 0, B337, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C337, Levels!B:B, 0), 1, 1)),", ",IF(A337 &lt;&gt; "", """mem"": bit" &amp; B337 &amp; "(" &amp; A337 &amp; "),", ""),"""good"": ",IF(A337 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A337 &lt;&gt; "", A337, -1),", ""bit"": ",IF(B337 &lt;&gt; "", B337, -1),"},")</f>
         <v>336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12094,7 +12094,7 @@
         <v>12</v>
       </c>
       <c r="D338" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C338, Levels!B:B, 0), 1, 1)),", ",IF(A338 &lt;&gt; "", """mem"": bit" &amp; B338 &amp; "(" &amp; A338 &amp; "),", ""),"""good"": ",IF(A338 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A338 &lt;&gt; "", A338, -1),", ""bit"": ",IF(B338 &lt;&gt; 0, B338, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C338, Levels!B:B, 0), 1, 1)),", ",IF(A338 &lt;&gt; "", """mem"": bit" &amp; B338 &amp; "(" &amp; A338 &amp; "),", ""),"""good"": ",IF(A338 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A338 &lt;&gt; "", A338, -1),", ""bit"": ",IF(B338 &lt;&gt; "", B338, -1),"},")</f>
         <v>337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
         <v>12</v>
       </c>
       <c r="D339" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C339, Levels!B:B, 0), 1, 1)),", ",IF(A339 &lt;&gt; "", """mem"": bit" &amp; B339 &amp; "(" &amp; A339 &amp; "),", ""),"""good"": ",IF(A339 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A339 &lt;&gt; "", A339, -1),", ""bit"": ",IF(B339 &lt;&gt; 0, B339, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C339, Levels!B:B, 0), 1, 1)),", ",IF(A339 &lt;&gt; "", """mem"": bit" &amp; B339 &amp; "(" &amp; A339 &amp; "),", ""),"""good"": ",IF(A339 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A339 &lt;&gt; "", A339, -1),", ""bit"": ",IF(B339 &lt;&gt; "", B339, -1),"},")</f>
         <v>338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12112,7 +12112,7 @@
         <v>12</v>
       </c>
       <c r="D340" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C340, Levels!B:B, 0), 1, 1)),", ",IF(A340 &lt;&gt; "", """mem"": bit" &amp; B340 &amp; "(" &amp; A340 &amp; "),", ""),"""good"": ",IF(A340 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A340 &lt;&gt; "", A340, -1),", ""bit"": ",IF(B340 &lt;&gt; 0, B340, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C340, Levels!B:B, 0), 1, 1)),", ",IF(A340 &lt;&gt; "", """mem"": bit" &amp; B340 &amp; "(" &amp; A340 &amp; "),", ""),"""good"": ",IF(A340 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A340 &lt;&gt; "", A340, -1),", ""bit"": ",IF(B340 &lt;&gt; "", B340, -1),"},")</f>
         <v>339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
         <v>12</v>
       </c>
       <c r="D341" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C341, Levels!B:B, 0), 1, 1)),", ",IF(A341 &lt;&gt; "", """mem"": bit" &amp; B341 &amp; "(" &amp; A341 &amp; "),", ""),"""good"": ",IF(A341 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A341 &lt;&gt; "", A341, -1),", ""bit"": ",IF(B341 &lt;&gt; 0, B341, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C341, Levels!B:B, 0), 1, 1)),", ",IF(A341 &lt;&gt; "", """mem"": bit" &amp; B341 &amp; "(" &amp; A341 &amp; "),", ""),"""good"": ",IF(A341 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A341 &lt;&gt; "", A341, -1),", ""bit"": ",IF(B341 &lt;&gt; "", B341, -1),"},")</f>
         <v>340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12130,7 +12130,7 @@
         <v>12</v>
       </c>
       <c r="D342" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C342, Levels!B:B, 0), 1, 1)),", ",IF(A342 &lt;&gt; "", """mem"": bit" &amp; B342 &amp; "(" &amp; A342 &amp; "),", ""),"""good"": ",IF(A342 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A342 &lt;&gt; "", A342, -1),", ""bit"": ",IF(B342 &lt;&gt; 0, B342, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C342, Levels!B:B, 0), 1, 1)),", ",IF(A342 &lt;&gt; "", """mem"": bit" &amp; B342 &amp; "(" &amp; A342 &amp; "),", ""),"""good"": ",IF(A342 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A342 &lt;&gt; "", A342, -1),", ""bit"": ",IF(B342 &lt;&gt; "", B342, -1),"},")</f>
         <v>341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
         <v>12</v>
       </c>
       <c r="D343" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C343, Levels!B:B, 0), 1, 1)),", ",IF(A343 &lt;&gt; "", """mem"": bit" &amp; B343 &amp; "(" &amp; A343 &amp; "),", ""),"""good"": ",IF(A343 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A343 &lt;&gt; "", A343, -1),", ""bit"": ",IF(B343 &lt;&gt; 0, B343, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C343, Levels!B:B, 0), 1, 1)),", ",IF(A343 &lt;&gt; "", """mem"": bit" &amp; B343 &amp; "(" &amp; A343 &amp; "),", ""),"""good"": ",IF(A343 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A343 &lt;&gt; "", A343, -1),", ""bit"": ",IF(B343 &lt;&gt; "", B343, -1),"},")</f>
         <v>342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
         <v>12</v>
       </c>
       <c r="D344" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C344, Levels!B:B, 0), 1, 1)),", ",IF(A344 &lt;&gt; "", """mem"": bit" &amp; B344 &amp; "(" &amp; A344 &amp; "),", ""),"""good"": ",IF(A344 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A344 &lt;&gt; "", A344, -1),", ""bit"": ",IF(B344 &lt;&gt; 0, B344, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C344, Levels!B:B, 0), 1, 1)),", ",IF(A344 &lt;&gt; "", """mem"": bit" &amp; B344 &amp; "(" &amp; A344 &amp; "),", ""),"""good"": ",IF(A344 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A344 &lt;&gt; "", A344, -1),", ""bit"": ",IF(B344 &lt;&gt; "", B344, -1),"},")</f>
         <v>343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
         <v>12</v>
       </c>
       <c r="D345" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C345, Levels!B:B, 0), 1, 1)),", ",IF(A345 &lt;&gt; "", """mem"": bit" &amp; B345 &amp; "(" &amp; A345 &amp; "),", ""),"""good"": ",IF(A345 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A345 &lt;&gt; "", A345, -1),", ""bit"": ",IF(B345 &lt;&gt; 0, B345, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C345, Levels!B:B, 0), 1, 1)),", ",IF(A345 &lt;&gt; "", """mem"": bit" &amp; B345 &amp; "(" &amp; A345 &amp; "),", ""),"""good"": ",IF(A345 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A345 &lt;&gt; "", A345, -1),", ""bit"": ",IF(B345 &lt;&gt; "", B345, -1),"},")</f>
         <v>344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
         <v>12</v>
       </c>
       <c r="D346" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C346, Levels!B:B, 0), 1, 1)),", ",IF(A346 &lt;&gt; "", """mem"": bit" &amp; B346 &amp; "(" &amp; A346 &amp; "),", ""),"""good"": ",IF(A346 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A346 &lt;&gt; "", A346, -1),", ""bit"": ",IF(B346 &lt;&gt; 0, B346, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C346, Levels!B:B, 0), 1, 1)),", ",IF(A346 &lt;&gt; "", """mem"": bit" &amp; B346 &amp; "(" &amp; A346 &amp; "),", ""),"""good"": ",IF(A346 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A346 &lt;&gt; "", A346, -1),", ""bit"": ",IF(B346 &lt;&gt; "", B346, -1),"},")</f>
         <v>345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12175,7 +12175,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C347, Levels!B:B, 0), 1, 1)),", ",IF(A347 &lt;&gt; "", """mem"": bit" &amp; B347 &amp; "(" &amp; A347 &amp; "),", ""),"""good"": ",IF(A347 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A347 &lt;&gt; "", A347, -1),", ""bit"": ",IF(B347 &lt;&gt; 0, B347, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C347, Levels!B:B, 0), 1, 1)),", ",IF(A347 &lt;&gt; "", """mem"": bit" &amp; B347 &amp; "(" &amp; A347 &amp; "),", ""),"""good"": ",IF(A347 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A347 &lt;&gt; "", A347, -1),", ""bit"": ",IF(B347 &lt;&gt; "", B347, -1),"},")</f>
         <v>346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12184,7 +12184,7 @@
         <v>12</v>
       </c>
       <c r="D348" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C348, Levels!B:B, 0), 1, 1)),", ",IF(A348 &lt;&gt; "", """mem"": bit" &amp; B348 &amp; "(" &amp; A348 &amp; "),", ""),"""good"": ",IF(A348 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A348 &lt;&gt; "", A348, -1),", ""bit"": ",IF(B348 &lt;&gt; 0, B348, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C348, Levels!B:B, 0), 1, 1)),", ",IF(A348 &lt;&gt; "", """mem"": bit" &amp; B348 &amp; "(" &amp; A348 &amp; "),", ""),"""good"": ",IF(A348 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A348 &lt;&gt; "", A348, -1),", ""bit"": ",IF(B348 &lt;&gt; "", B348, -1),"},")</f>
         <v>347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
         <v>12</v>
       </c>
       <c r="D349" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C349, Levels!B:B, 0), 1, 1)),", ",IF(A349 &lt;&gt; "", """mem"": bit" &amp; B349 &amp; "(" &amp; A349 &amp; "),", ""),"""good"": ",IF(A349 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A349 &lt;&gt; "", A349, -1),", ""bit"": ",IF(B349 &lt;&gt; 0, B349, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C349, Levels!B:B, 0), 1, 1)),", ",IF(A349 &lt;&gt; "", """mem"": bit" &amp; B349 &amp; "(" &amp; A349 &amp; "),", ""),"""good"": ",IF(A349 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A349 &lt;&gt; "", A349, -1),", ""bit"": ",IF(B349 &lt;&gt; "", B349, -1),"},")</f>
         <v>348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12202,7 +12202,7 @@
         <v>12</v>
       </c>
       <c r="D350" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C350, Levels!B:B, 0), 1, 1)),", ",IF(A350 &lt;&gt; "", """mem"": bit" &amp; B350 &amp; "(" &amp; A350 &amp; "),", ""),"""good"": ",IF(A350 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A350 &lt;&gt; "", A350, -1),", ""bit"": ",IF(B350 &lt;&gt; 0, B350, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C350, Levels!B:B, 0), 1, 1)),", ",IF(A350 &lt;&gt; "", """mem"": bit" &amp; B350 &amp; "(" &amp; A350 &amp; "),", ""),"""good"": ",IF(A350 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A350 &lt;&gt; "", A350, -1),", ""bit"": ",IF(B350 &lt;&gt; "", B350, -1),"},")</f>
         <v>349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
         <v>12</v>
       </c>
       <c r="D351" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C351, Levels!B:B, 0), 1, 1)),", ",IF(A351 &lt;&gt; "", """mem"": bit" &amp; B351 &amp; "(" &amp; A351 &amp; "),", ""),"""good"": ",IF(A351 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A351 &lt;&gt; "", A351, -1),", ""bit"": ",IF(B351 &lt;&gt; 0, B351, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C351, Levels!B:B, 0), 1, 1)),", ",IF(A351 &lt;&gt; "", """mem"": bit" &amp; B351 &amp; "(" &amp; A351 &amp; "),", ""),"""good"": ",IF(A351 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A351 &lt;&gt; "", A351, -1),", ""bit"": ",IF(B351 &lt;&gt; "", B351, -1),"},")</f>
         <v>350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
         <v>12</v>
       </c>
       <c r="D352" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C352, Levels!B:B, 0), 1, 1)),", ",IF(A352 &lt;&gt; "", """mem"": bit" &amp; B352 &amp; "(" &amp; A352 &amp; "),", ""),"""good"": ",IF(A352 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A352 &lt;&gt; "", A352, -1),", ""bit"": ",IF(B352 &lt;&gt; 0, B352, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C352, Levels!B:B, 0), 1, 1)),", ",IF(A352 &lt;&gt; "", """mem"": bit" &amp; B352 &amp; "(" &amp; A352 &amp; "),", ""),"""good"": ",IF(A352 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A352 &lt;&gt; "", A352, -1),", ""bit"": ",IF(B352 &lt;&gt; "", B352, -1),"},")</f>
         <v>351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
         <v>12</v>
       </c>
       <c r="D353" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C353, Levels!B:B, 0), 1, 1)),", ",IF(A353 &lt;&gt; "", """mem"": bit" &amp; B353 &amp; "(" &amp; A353 &amp; "),", ""),"""good"": ",IF(A353 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A353 &lt;&gt; "", A353, -1),", ""bit"": ",IF(B353 &lt;&gt; 0, B353, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C353, Levels!B:B, 0), 1, 1)),", ",IF(A353 &lt;&gt; "", """mem"": bit" &amp; B353 &amp; "(" &amp; A353 &amp; "),", ""),"""good"": ",IF(A353 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A353 &lt;&gt; "", A353, -1),", ""bit"": ",IF(B353 &lt;&gt; "", B353, -1),"},")</f>
         <v>352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
         <v>12</v>
       </c>
       <c r="D354" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C354, Levels!B:B, 0), 1, 1)),", ",IF(A354 &lt;&gt; "", """mem"": bit" &amp; B354 &amp; "(" &amp; A354 &amp; "),", ""),"""good"": ",IF(A354 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A354 &lt;&gt; "", A354, -1),", ""bit"": ",IF(B354 &lt;&gt; 0, B354, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C354, Levels!B:B, 0), 1, 1)),", ",IF(A354 &lt;&gt; "", """mem"": bit" &amp; B354 &amp; "(" &amp; A354 &amp; "),", ""),"""good"": ",IF(A354 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A354 &lt;&gt; "", A354, -1),", ""bit"": ",IF(B354 &lt;&gt; "", B354, -1),"},")</f>
         <v>353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
         <v>12</v>
       </c>
       <c r="D355" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C355, Levels!B:B, 0), 1, 1)),", ",IF(A355 &lt;&gt; "", """mem"": bit" &amp; B355 &amp; "(" &amp; A355 &amp; "),", ""),"""good"": ",IF(A355 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A355 &lt;&gt; "", A355, -1),", ""bit"": ",IF(B355 &lt;&gt; 0, B355, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C355, Levels!B:B, 0), 1, 1)),", ",IF(A355 &lt;&gt; "", """mem"": bit" &amp; B355 &amp; "(" &amp; A355 &amp; "),", ""),"""good"": ",IF(A355 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A355 &lt;&gt; "", A355, -1),", ""bit"": ",IF(B355 &lt;&gt; "", B355, -1),"},")</f>
         <v>354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
         <v>12</v>
       </c>
       <c r="D356" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C356, Levels!B:B, 0), 1, 1)),", ",IF(A356 &lt;&gt; "", """mem"": bit" &amp; B356 &amp; "(" &amp; A356 &amp; "),", ""),"""good"": ",IF(A356 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A356 &lt;&gt; "", A356, -1),", ""bit"": ",IF(B356 &lt;&gt; 0, B356, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C356, Levels!B:B, 0), 1, 1)),", ",IF(A356 &lt;&gt; "", """mem"": bit" &amp; B356 &amp; "(" &amp; A356 &amp; "),", ""),"""good"": ",IF(A356 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A356 &lt;&gt; "", A356, -1),", ""bit"": ",IF(B356 &lt;&gt; "", B356, -1),"},")</f>
         <v>355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
         <v>12</v>
       </c>
       <c r="D357" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C357, Levels!B:B, 0), 1, 1)),", ",IF(A357 &lt;&gt; "", """mem"": bit" &amp; B357 &amp; "(" &amp; A357 &amp; "),", ""),"""good"": ",IF(A357 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A357 &lt;&gt; "", A357, -1),", ""bit"": ",IF(B357 &lt;&gt; 0, B357, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C357, Levels!B:B, 0), 1, 1)),", ",IF(A357 &lt;&gt; "", """mem"": bit" &amp; B357 &amp; "(" &amp; A357 &amp; "),", ""),"""good"": ",IF(A357 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A357 &lt;&gt; "", A357, -1),", ""bit"": ",IF(B357 &lt;&gt; "", B357, -1),"},")</f>
         <v>356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12274,7 +12274,7 @@
         <v>12</v>
       </c>
       <c r="D358" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C358, Levels!B:B, 0), 1, 1)),", ",IF(A358 &lt;&gt; "", """mem"": bit" &amp; B358 &amp; "(" &amp; A358 &amp; "),", ""),"""good"": ",IF(A358 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A358 &lt;&gt; "", A358, -1),", ""bit"": ",IF(B358 &lt;&gt; 0, B358, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C358, Levels!B:B, 0), 1, 1)),", ",IF(A358 &lt;&gt; "", """mem"": bit" &amp; B358 &amp; "(" &amp; A358 &amp; "),", ""),"""good"": ",IF(A358 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A358 &lt;&gt; "", A358, -1),", ""bit"": ",IF(B358 &lt;&gt; "", B358, -1),"},")</f>
         <v>357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12283,7 +12283,7 @@
         <v>12</v>
       </c>
       <c r="D359" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C359, Levels!B:B, 0), 1, 1)),", ",IF(A359 &lt;&gt; "", """mem"": bit" &amp; B359 &amp; "(" &amp; A359 &amp; "),", ""),"""good"": ",IF(A359 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A359 &lt;&gt; "", A359, -1),", ""bit"": ",IF(B359 &lt;&gt; 0, B359, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C359, Levels!B:B, 0), 1, 1)),", ",IF(A359 &lt;&gt; "", """mem"": bit" &amp; B359 &amp; "(" &amp; A359 &amp; "),", ""),"""good"": ",IF(A359 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A359 &lt;&gt; "", A359, -1),", ""bit"": ",IF(B359 &lt;&gt; "", B359, -1),"},")</f>
         <v>358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
         <v>12</v>
       </c>
       <c r="D360" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C360, Levels!B:B, 0), 1, 1)),", ",IF(A360 &lt;&gt; "", """mem"": bit" &amp; B360 &amp; "(" &amp; A360 &amp; "),", ""),"""good"": ",IF(A360 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A360 &lt;&gt; "", A360, -1),", ""bit"": ",IF(B360 &lt;&gt; 0, B360, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C360, Levels!B:B, 0), 1, 1)),", ",IF(A360 &lt;&gt; "", """mem"": bit" &amp; B360 &amp; "(" &amp; A360 &amp; "),", ""),"""good"": ",IF(A360 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A360 &lt;&gt; "", A360, -1),", ""bit"": ",IF(B360 &lt;&gt; "", B360, -1),"},")</f>
         <v>359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
         <v>12</v>
       </c>
       <c r="D361" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C361, Levels!B:B, 0), 1, 1)),", ",IF(A361 &lt;&gt; "", """mem"": bit" &amp; B361 &amp; "(" &amp; A361 &amp; "),", ""),"""good"": ",IF(A361 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A361 &lt;&gt; "", A361, -1),", ""bit"": ",IF(B361 &lt;&gt; 0, B361, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C361, Levels!B:B, 0), 1, 1)),", ",IF(A361 &lt;&gt; "", """mem"": bit" &amp; B361 &amp; "(" &amp; A361 &amp; "),", ""),"""good"": ",IF(A361 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A361 &lt;&gt; "", A361, -1),", ""bit"": ",IF(B361 &lt;&gt; "", B361, -1),"},")</f>
         <v>360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
         <v>12</v>
       </c>
       <c r="D362" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C362, Levels!B:B, 0), 1, 1)),", ",IF(A362 &lt;&gt; "", """mem"": bit" &amp; B362 &amp; "(" &amp; A362 &amp; "),", ""),"""good"": ",IF(A362 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A362 &lt;&gt; "", A362, -1),", ""bit"": ",IF(B362 &lt;&gt; 0, B362, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C362, Levels!B:B, 0), 1, 1)),", ",IF(A362 &lt;&gt; "", """mem"": bit" &amp; B362 &amp; "(" &amp; A362 &amp; "),", ""),"""good"": ",IF(A362 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A362 &lt;&gt; "", A362, -1),", ""bit"": ",IF(B362 &lt;&gt; "", B362, -1),"},")</f>
         <v>361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
         <v>12</v>
       </c>
       <c r="D363" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C363, Levels!B:B, 0), 1, 1)),", ",IF(A363 &lt;&gt; "", """mem"": bit" &amp; B363 &amp; "(" &amp; A363 &amp; "),", ""),"""good"": ",IF(A363 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A363 &lt;&gt; "", A363, -1),", ""bit"": ",IF(B363 &lt;&gt; 0, B363, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C363, Levels!B:B, 0), 1, 1)),", ",IF(A363 &lt;&gt; "", """mem"": bit" &amp; B363 &amp; "(" &amp; A363 &amp; "),", ""),"""good"": ",IF(A363 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A363 &lt;&gt; "", A363, -1),", ""bit"": ",IF(B363 &lt;&gt; "", B363, -1),"},")</f>
         <v>362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
         <v>12</v>
       </c>
       <c r="D364" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C364, Levels!B:B, 0), 1, 1)),", ",IF(A364 &lt;&gt; "", """mem"": bit" &amp; B364 &amp; "(" &amp; A364 &amp; "),", ""),"""good"": ",IF(A364 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A364 &lt;&gt; "", A364, -1),", ""bit"": ",IF(B364 &lt;&gt; 0, B364, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C364, Levels!B:B, 0), 1, 1)),", ",IF(A364 &lt;&gt; "", """mem"": bit" &amp; B364 &amp; "(" &amp; A364 &amp; "),", ""),"""good"": ",IF(A364 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A364 &lt;&gt; "", A364, -1),", ""bit"": ",IF(B364 &lt;&gt; "", B364, -1),"},")</f>
         <v>363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
         <v>12</v>
       </c>
       <c r="D365" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C365, Levels!B:B, 0), 1, 1)),", ",IF(A365 &lt;&gt; "", """mem"": bit" &amp; B365 &amp; "(" &amp; A365 &amp; "),", ""),"""good"": ",IF(A365 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A365 &lt;&gt; "", A365, -1),", ""bit"": ",IF(B365 &lt;&gt; 0, B365, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C365, Levels!B:B, 0), 1, 1)),", ",IF(A365 &lt;&gt; "", """mem"": bit" &amp; B365 &amp; "(" &amp; A365 &amp; "),", ""),"""good"": ",IF(A365 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A365 &lt;&gt; "", A365, -1),", ""bit"": ",IF(B365 &lt;&gt; "", B365, -1),"},")</f>
         <v>364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12346,7 +12346,7 @@
         <v>12</v>
       </c>
       <c r="D366" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C366, Levels!B:B, 0), 1, 1)),", ",IF(A366 &lt;&gt; "", """mem"": bit" &amp; B366 &amp; "(" &amp; A366 &amp; "),", ""),"""good"": ",IF(A366 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A366 &lt;&gt; "", A366, -1),", ""bit"": ",IF(B366 &lt;&gt; 0, B366, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C366, Levels!B:B, 0), 1, 1)),", ",IF(A366 &lt;&gt; "", """mem"": bit" &amp; B366 &amp; "(" &amp; A366 &amp; "),", ""),"""good"": ",IF(A366 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A366 &lt;&gt; "", A366, -1),", ""bit"": ",IF(B366 &lt;&gt; "", B366, -1),"},")</f>
         <v>365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
         <v>12</v>
       </c>
       <c r="D367" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C367, Levels!B:B, 0), 1, 1)),", ",IF(A367 &lt;&gt; "", """mem"": bit" &amp; B367 &amp; "(" &amp; A367 &amp; "),", ""),"""good"": ",IF(A367 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A367 &lt;&gt; "", A367, -1),", ""bit"": ",IF(B367 &lt;&gt; 0, B367, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C367, Levels!B:B, 0), 1, 1)),", ",IF(A367 &lt;&gt; "", """mem"": bit" &amp; B367 &amp; "(" &amp; A367 &amp; "),", ""),"""good"": ",IF(A367 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A367 &lt;&gt; "", A367, -1),", ""bit"": ",IF(B367 &lt;&gt; "", B367, -1),"},")</f>
         <v>366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12364,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="D368" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C368, Levels!B:B, 0), 1, 1)),", ",IF(A368 &lt;&gt; "", """mem"": bit" &amp; B368 &amp; "(" &amp; A368 &amp; "),", ""),"""good"": ",IF(A368 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A368 &lt;&gt; "", A368, -1),", ""bit"": ",IF(B368 &lt;&gt; 0, B368, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C368, Levels!B:B, 0), 1, 1)),", ",IF(A368 &lt;&gt; "", """mem"": bit" &amp; B368 &amp; "(" &amp; A368 &amp; "),", ""),"""good"": ",IF(A368 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A368 &lt;&gt; "", A368, -1),", ""bit"": ",IF(B368 &lt;&gt; "", B368, -1),"},")</f>
         <v>367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
         <v>12</v>
       </c>
       <c r="D369" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C369, Levels!B:B, 0), 1, 1)),", ",IF(A369 &lt;&gt; "", """mem"": bit" &amp; B369 &amp; "(" &amp; A369 &amp; "),", ""),"""good"": ",IF(A369 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A369 &lt;&gt; "", A369, -1),", ""bit"": ",IF(B369 &lt;&gt; 0, B369, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C369, Levels!B:B, 0), 1, 1)),", ",IF(A369 &lt;&gt; "", """mem"": bit" &amp; B369 &amp; "(" &amp; A369 &amp; "),", ""),"""good"": ",IF(A369 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A369 &lt;&gt; "", A369, -1),", ""bit"": ",IF(B369 &lt;&gt; "", B369, -1),"},")</f>
         <v>368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12382,7 +12382,7 @@
         <v>12</v>
       </c>
       <c r="D370" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C370, Levels!B:B, 0), 1, 1)),", ",IF(A370 &lt;&gt; "", """mem"": bit" &amp; B370 &amp; "(" &amp; A370 &amp; "),", ""),"""good"": ",IF(A370 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A370 &lt;&gt; "", A370, -1),", ""bit"": ",IF(B370 &lt;&gt; 0, B370, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C370, Levels!B:B, 0), 1, 1)),", ",IF(A370 &lt;&gt; "", """mem"": bit" &amp; B370 &amp; "(" &amp; A370 &amp; "),", ""),"""good"": ",IF(A370 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A370 &lt;&gt; "", A370, -1),", ""bit"": ",IF(B370 &lt;&gt; "", B370, -1),"},")</f>
         <v>369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
         <v>12</v>
       </c>
       <c r="D371" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C371, Levels!B:B, 0), 1, 1)),", ",IF(A371 &lt;&gt; "", """mem"": bit" &amp; B371 &amp; "(" &amp; A371 &amp; "),", ""),"""good"": ",IF(A371 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A371 &lt;&gt; "", A371, -1),", ""bit"": ",IF(B371 &lt;&gt; 0, B371, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C371, Levels!B:B, 0), 1, 1)),", ",IF(A371 &lt;&gt; "", """mem"": bit" &amp; B371 &amp; "(" &amp; A371 &amp; "),", ""),"""good"": ",IF(A371 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A371 &lt;&gt; "", A371, -1),", ""bit"": ",IF(B371 &lt;&gt; "", B371, -1),"},")</f>
         <v>370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12400,7 +12400,7 @@
         <v>12</v>
       </c>
       <c r="D372" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C372, Levels!B:B, 0), 1, 1)),", ",IF(A372 &lt;&gt; "", """mem"": bit" &amp; B372 &amp; "(" &amp; A372 &amp; "),", ""),"""good"": ",IF(A372 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A372 &lt;&gt; "", A372, -1),", ""bit"": ",IF(B372 &lt;&gt; 0, B372, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C372, Levels!B:B, 0), 1, 1)),", ",IF(A372 &lt;&gt; "", """mem"": bit" &amp; B372 &amp; "(" &amp; A372 &amp; "),", ""),"""good"": ",IF(A372 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A372 &lt;&gt; "", A372, -1),", ""bit"": ",IF(B372 &lt;&gt; "", B372, -1),"},")</f>
         <v>371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
         <v>12</v>
       </c>
       <c r="D373" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C373, Levels!B:B, 0), 1, 1)),", ",IF(A373 &lt;&gt; "", """mem"": bit" &amp; B373 &amp; "(" &amp; A373 &amp; "),", ""),"""good"": ",IF(A373 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A373 &lt;&gt; "", A373, -1),", ""bit"": ",IF(B373 &lt;&gt; 0, B373, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C373, Levels!B:B, 0), 1, 1)),", ",IF(A373 &lt;&gt; "", """mem"": bit" &amp; B373 &amp; "(" &amp; A373 &amp; "),", ""),"""good"": ",IF(A373 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A373 &lt;&gt; "", A373, -1),", ""bit"": ",IF(B373 &lt;&gt; "", B373, -1),"},")</f>
         <v>372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
         <v>12</v>
       </c>
       <c r="D374" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C374, Levels!B:B, 0), 1, 1)),", ",IF(A374 &lt;&gt; "", """mem"": bit" &amp; B374 &amp; "(" &amp; A374 &amp; "),", ""),"""good"": ",IF(A374 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A374 &lt;&gt; "", A374, -1),", ""bit"": ",IF(B374 &lt;&gt; 0, B374, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C374, Levels!B:B, 0), 1, 1)),", ",IF(A374 &lt;&gt; "", """mem"": bit" &amp; B374 &amp; "(" &amp; A374 &amp; "),", ""),"""good"": ",IF(A374 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A374 &lt;&gt; "", A374, -1),", ""bit"": ",IF(B374 &lt;&gt; "", B374, -1),"},")</f>
         <v>373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12427,7 +12427,7 @@
         <v>12</v>
       </c>
       <c r="D375" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C375, Levels!B:B, 0), 1, 1)),", ",IF(A375 &lt;&gt; "", """mem"": bit" &amp; B375 &amp; "(" &amp; A375 &amp; "),", ""),"""good"": ",IF(A375 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A375 &lt;&gt; "", A375, -1),", ""bit"": ",IF(B375 &lt;&gt; 0, B375, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C375, Levels!B:B, 0), 1, 1)),", ",IF(A375 &lt;&gt; "", """mem"": bit" &amp; B375 &amp; "(" &amp; A375 &amp; "),", ""),"""good"": ",IF(A375 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A375 &lt;&gt; "", A375, -1),", ""bit"": ",IF(B375 &lt;&gt; "", B375, -1),"},")</f>
         <v>374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
         <v>12</v>
       </c>
       <c r="D376" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C376, Levels!B:B, 0), 1, 1)),", ",IF(A376 &lt;&gt; "", """mem"": bit" &amp; B376 &amp; "(" &amp; A376 &amp; "),", ""),"""good"": ",IF(A376 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A376 &lt;&gt; "", A376, -1),", ""bit"": ",IF(B376 &lt;&gt; 0, B376, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C376, Levels!B:B, 0), 1, 1)),", ",IF(A376 &lt;&gt; "", """mem"": bit" &amp; B376 &amp; "(" &amp; A376 &amp; "),", ""),"""good"": ",IF(A376 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A376 &lt;&gt; "", A376, -1),", ""bit"": ",IF(B376 &lt;&gt; "", B376, -1),"},")</f>
         <v>375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C377, Levels!B:B, 0), 1, 1)),", ",IF(A377 &lt;&gt; "", """mem"": bit" &amp; B377 &amp; "(" &amp; A377 &amp; "),", ""),"""good"": ",IF(A377 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A377 &lt;&gt; "", A377, -1),", ""bit"": ",IF(B377 &lt;&gt; 0, B377, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C377, Levels!B:B, 0), 1, 1)),", ",IF(A377 &lt;&gt; "", """mem"": bit" &amp; B377 &amp; "(" &amp; A377 &amp; "),", ""),"""good"": ",IF(A377 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A377 &lt;&gt; "", A377, -1),", ""bit"": ",IF(B377 &lt;&gt; "", B377, -1),"},")</f>
         <v>376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12454,7 +12454,7 @@
         <v>12</v>
       </c>
       <c r="D378" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C378, Levels!B:B, 0), 1, 1)),", ",IF(A378 &lt;&gt; "", """mem"": bit" &amp; B378 &amp; "(" &amp; A378 &amp; "),", ""),"""good"": ",IF(A378 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A378 &lt;&gt; "", A378, -1),", ""bit"": ",IF(B378 &lt;&gt; 0, B378, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C378, Levels!B:B, 0), 1, 1)),", ",IF(A378 &lt;&gt; "", """mem"": bit" &amp; B378 &amp; "(" &amp; A378 &amp; "),", ""),"""good"": ",IF(A378 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A378 &lt;&gt; "", A378, -1),", ""bit"": ",IF(B378 &lt;&gt; "", B378, -1),"},")</f>
         <v>377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
         <v>12</v>
       </c>
       <c r="D379" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C379, Levels!B:B, 0), 1, 1)),", ",IF(A379 &lt;&gt; "", """mem"": bit" &amp; B379 &amp; "(" &amp; A379 &amp; "),", ""),"""good"": ",IF(A379 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A379 &lt;&gt; "", A379, -1),", ""bit"": ",IF(B379 &lt;&gt; 0, B379, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C379, Levels!B:B, 0), 1, 1)),", ",IF(A379 &lt;&gt; "", """mem"": bit" &amp; B379 &amp; "(" &amp; A379 &amp; "),", ""),"""good"": ",IF(A379 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A379 &lt;&gt; "", A379, -1),", ""bit"": ",IF(B379 &lt;&gt; "", B379, -1),"},")</f>
         <v>378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
         <v>12</v>
       </c>
       <c r="D380" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C380, Levels!B:B, 0), 1, 1)),", ",IF(A380 &lt;&gt; "", """mem"": bit" &amp; B380 &amp; "(" &amp; A380 &amp; "),", ""),"""good"": ",IF(A380 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A380 &lt;&gt; "", A380, -1),", ""bit"": ",IF(B380 &lt;&gt; 0, B380, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C380, Levels!B:B, 0), 1, 1)),", ",IF(A380 &lt;&gt; "", """mem"": bit" &amp; B380 &amp; "(" &amp; A380 &amp; "),", ""),"""good"": ",IF(A380 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A380 &lt;&gt; "", A380, -1),", ""bit"": ",IF(B380 &lt;&gt; "", B380, -1),"},")</f>
         <v>379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12481,7 +12481,7 @@
         <v>12</v>
       </c>
       <c r="D381" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C381, Levels!B:B, 0), 1, 1)),", ",IF(A381 &lt;&gt; "", """mem"": bit" &amp; B381 &amp; "(" &amp; A381 &amp; "),", ""),"""good"": ",IF(A381 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A381 &lt;&gt; "", A381, -1),", ""bit"": ",IF(B381 &lt;&gt; 0, B381, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C381, Levels!B:B, 0), 1, 1)),", ",IF(A381 &lt;&gt; "", """mem"": bit" &amp; B381 &amp; "(" &amp; A381 &amp; "),", ""),"""good"": ",IF(A381 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A381 &lt;&gt; "", A381, -1),", ""bit"": ",IF(B381 &lt;&gt; "", B381, -1),"},")</f>
         <v>380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12490,7 +12490,7 @@
         <v>12</v>
       </c>
       <c r="D382" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C382, Levels!B:B, 0), 1, 1)),", ",IF(A382 &lt;&gt; "", """mem"": bit" &amp; B382 &amp; "(" &amp; A382 &amp; "),", ""),"""good"": ",IF(A382 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A382 &lt;&gt; "", A382, -1),", ""bit"": ",IF(B382 &lt;&gt; 0, B382, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C382, Levels!B:B, 0), 1, 1)),", ",IF(A382 &lt;&gt; "", """mem"": bit" &amp; B382 &amp; "(" &amp; A382 &amp; "),", ""),"""good"": ",IF(A382 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A382 &lt;&gt; "", A382, -1),", ""bit"": ",IF(B382 &lt;&gt; "", B382, -1),"},")</f>
         <v>381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
         <v>12</v>
       </c>
       <c r="D383" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C383, Levels!B:B, 0), 1, 1)),", ",IF(A383 &lt;&gt; "", """mem"": bit" &amp; B383 &amp; "(" &amp; A383 &amp; "),", ""),"""good"": ",IF(A383 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A383 &lt;&gt; "", A383, -1),", ""bit"": ",IF(B383 &lt;&gt; 0, B383, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C383, Levels!B:B, 0), 1, 1)),", ",IF(A383 &lt;&gt; "", """mem"": bit" &amp; B383 &amp; "(" &amp; A383 &amp; "),", ""),"""good"": ",IF(A383 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A383 &lt;&gt; "", A383, -1),", ""bit"": ",IF(B383 &lt;&gt; "", B383, -1),"},")</f>
         <v>382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
         <v>12</v>
       </c>
       <c r="D384" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C384, Levels!B:B, 0), 1, 1)),", ",IF(A384 &lt;&gt; "", """mem"": bit" &amp; B384 &amp; "(" &amp; A384 &amp; "),", ""),"""good"": ",IF(A384 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A384 &lt;&gt; "", A384, -1),", ""bit"": ",IF(B384 &lt;&gt; 0, B384, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C384, Levels!B:B, 0), 1, 1)),", ",IF(A384 &lt;&gt; "", """mem"": bit" &amp; B384 &amp; "(" &amp; A384 &amp; "),", ""),"""good"": ",IF(A384 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A384 &lt;&gt; "", A384, -1),", ""bit"": ",IF(B384 &lt;&gt; "", B384, -1),"},")</f>
         <v>383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
         <v>12</v>
       </c>
       <c r="D385" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C385, Levels!B:B, 0), 1, 1)),", ",IF(A385 &lt;&gt; "", """mem"": bit" &amp; B385 &amp; "(" &amp; A385 &amp; "),", ""),"""good"": ",IF(A385 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A385 &lt;&gt; "", A385, -1),", ""bit"": ",IF(B385 &lt;&gt; 0, B385, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C385, Levels!B:B, 0), 1, 1)),", ",IF(A385 &lt;&gt; "", """mem"": bit" &amp; B385 &amp; "(" &amp; A385 &amp; "),", ""),"""good"": ",IF(A385 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A385 &lt;&gt; "", A385, -1),", ""bit"": ",IF(B385 &lt;&gt; "", B385, -1),"},")</f>
         <v>384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12526,7 +12526,7 @@
         <v>12</v>
       </c>
       <c r="D386" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C386, Levels!B:B, 0), 1, 1)),", ",IF(A386 &lt;&gt; "", """mem"": bit" &amp; B386 &amp; "(" &amp; A386 &amp; "),", ""),"""good"": ",IF(A386 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A386 &lt;&gt; "", A386, -1),", ""bit"": ",IF(B386 &lt;&gt; 0, B386, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C386, Levels!B:B, 0), 1, 1)),", ",IF(A386 &lt;&gt; "", """mem"": bit" &amp; B386 &amp; "(" &amp; A386 &amp; "),", ""),"""good"": ",IF(A386 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A386 &lt;&gt; "", A386, -1),", ""bit"": ",IF(B386 &lt;&gt; "", B386, -1),"},")</f>
         <v>385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
         <v>12</v>
       </c>
       <c r="D387" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C387, Levels!B:B, 0), 1, 1)),", ",IF(A387 &lt;&gt; "", """mem"": bit" &amp; B387 &amp; "(" &amp; A387 &amp; "),", ""),"""good"": ",IF(A387 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A387 &lt;&gt; "", A387, -1),", ""bit"": ",IF(B387 &lt;&gt; 0, B387, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C387, Levels!B:B, 0), 1, 1)),", ",IF(A387 &lt;&gt; "", """mem"": bit" &amp; B387 &amp; "(" &amp; A387 &amp; "),", ""),"""good"": ",IF(A387 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A387 &lt;&gt; "", A387, -1),", ""bit"": ",IF(B387 &lt;&gt; "", B387, -1),"},")</f>
         <v>386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
         <v>12</v>
       </c>
       <c r="D388" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C388, Levels!B:B, 0), 1, 1)),", ",IF(A388 &lt;&gt; "", """mem"": bit" &amp; B388 &amp; "(" &amp; A388 &amp; "),", ""),"""good"": ",IF(A388 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A388 &lt;&gt; "", A388, -1),", ""bit"": ",IF(B388 &lt;&gt; 0, B388, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C388, Levels!B:B, 0), 1, 1)),", ",IF(A388 &lt;&gt; "", """mem"": bit" &amp; B388 &amp; "(" &amp; A388 &amp; "),", ""),"""good"": ",IF(A388 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A388 &lt;&gt; "", A388, -1),", ""bit"": ",IF(B388 &lt;&gt; "", B388, -1),"},")</f>
         <v>387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
         <v>12</v>
       </c>
       <c r="D389" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C389, Levels!B:B, 0), 1, 1)),", ",IF(A389 &lt;&gt; "", """mem"": bit" &amp; B389 &amp; "(" &amp; A389 &amp; "),", ""),"""good"": ",IF(A389 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A389 &lt;&gt; "", A389, -1),", ""bit"": ",IF(B389 &lt;&gt; 0, B389, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C389, Levels!B:B, 0), 1, 1)),", ",IF(A389 &lt;&gt; "", """mem"": bit" &amp; B389 &amp; "(" &amp; A389 &amp; "),", ""),"""good"": ",IF(A389 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A389 &lt;&gt; "", A389, -1),", ""bit"": ",IF(B389 &lt;&gt; "", B389, -1),"},")</f>
         <v>388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
         <v>12</v>
       </c>
       <c r="D390" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C390, Levels!B:B, 0), 1, 1)),", ",IF(A390 &lt;&gt; "", """mem"": bit" &amp; B390 &amp; "(" &amp; A390 &amp; "),", ""),"""good"": ",IF(A390 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A390 &lt;&gt; "", A390, -1),", ""bit"": ",IF(B390 &lt;&gt; 0, B390, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C390, Levels!B:B, 0), 1, 1)),", ",IF(A390 &lt;&gt; "", """mem"": bit" &amp; B390 &amp; "(" &amp; A390 &amp; "),", ""),"""good"": ",IF(A390 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A390 &lt;&gt; "", A390, -1),", ""bit"": ",IF(B390 &lt;&gt; "", B390, -1),"},")</f>
         <v>389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
         <v>12</v>
       </c>
       <c r="D391" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C391, Levels!B:B, 0), 1, 1)),", ",IF(A391 &lt;&gt; "", """mem"": bit" &amp; B391 &amp; "(" &amp; A391 &amp; "),", ""),"""good"": ",IF(A391 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A391 &lt;&gt; "", A391, -1),", ""bit"": ",IF(B391 &lt;&gt; 0, B391, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C391, Levels!B:B, 0), 1, 1)),", ",IF(A391 &lt;&gt; "", """mem"": bit" &amp; B391 &amp; "(" &amp; A391 &amp; "),", ""),"""good"": ",IF(A391 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A391 &lt;&gt; "", A391, -1),", ""bit"": ",IF(B391 &lt;&gt; "", B391, -1),"},")</f>
         <v>390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
         <v>12</v>
       </c>
       <c r="D392" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C392, Levels!B:B, 0), 1, 1)),", ",IF(A392 &lt;&gt; "", """mem"": bit" &amp; B392 &amp; "(" &amp; A392 &amp; "),", ""),"""good"": ",IF(A392 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A392 &lt;&gt; "", A392, -1),", ""bit"": ",IF(B392 &lt;&gt; 0, B392, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C392, Levels!B:B, 0), 1, 1)),", ",IF(A392 &lt;&gt; "", """mem"": bit" &amp; B392 &amp; "(" &amp; A392 &amp; "),", ""),"""good"": ",IF(A392 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A392 &lt;&gt; "", A392, -1),", ""bit"": ",IF(B392 &lt;&gt; "", B392, -1),"},")</f>
         <v>391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
         <v>12</v>
       </c>
       <c r="D393" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C393, Levels!B:B, 0), 1, 1)),", ",IF(A393 &lt;&gt; "", """mem"": bit" &amp; B393 &amp; "(" &amp; A393 &amp; "),", ""),"""good"": ",IF(A393 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A393 &lt;&gt; "", A393, -1),", ""bit"": ",IF(B393 &lt;&gt; 0, B393, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C393, Levels!B:B, 0), 1, 1)),", ",IF(A393 &lt;&gt; "", """mem"": bit" &amp; B393 &amp; "(" &amp; A393 &amp; "),", ""),"""good"": ",IF(A393 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A393 &lt;&gt; "", A393, -1),", ""bit"": ",IF(B393 &lt;&gt; "", B393, -1),"},")</f>
         <v>392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
         <v>12</v>
       </c>
       <c r="D394" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C394, Levels!B:B, 0), 1, 1)),", ",IF(A394 &lt;&gt; "", """mem"": bit" &amp; B394 &amp; "(" &amp; A394 &amp; "),", ""),"""good"": ",IF(A394 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A394 &lt;&gt; "", A394, -1),", ""bit"": ",IF(B394 &lt;&gt; 0, B394, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C394, Levels!B:B, 0), 1, 1)),", ",IF(A394 &lt;&gt; "", """mem"": bit" &amp; B394 &amp; "(" &amp; A394 &amp; "),", ""),"""good"": ",IF(A394 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A394 &lt;&gt; "", A394, -1),", ""bit"": ",IF(B394 &lt;&gt; "", B394, -1),"},")</f>
         <v>393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12607,7 +12607,7 @@
         <v>12</v>
       </c>
       <c r="D395" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C395, Levels!B:B, 0), 1, 1)),", ",IF(A395 &lt;&gt; "", """mem"": bit" &amp; B395 &amp; "(" &amp; A395 &amp; "),", ""),"""good"": ",IF(A395 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A395 &lt;&gt; "", A395, -1),", ""bit"": ",IF(B395 &lt;&gt; 0, B395, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C395, Levels!B:B, 0), 1, 1)),", ",IF(A395 &lt;&gt; "", """mem"": bit" &amp; B395 &amp; "(" &amp; A395 &amp; "),", ""),"""good"": ",IF(A395 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A395 &lt;&gt; "", A395, -1),", ""bit"": ",IF(B395 &lt;&gt; "", B395, -1),"},")</f>
         <v>394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
         <v>12</v>
       </c>
       <c r="D396" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C396, Levels!B:B, 0), 1, 1)),", ",IF(A396 &lt;&gt; "", """mem"": bit" &amp; B396 &amp; "(" &amp; A396 &amp; "),", ""),"""good"": ",IF(A396 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A396 &lt;&gt; "", A396, -1),", ""bit"": ",IF(B396 &lt;&gt; 0, B396, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C396, Levels!B:B, 0), 1, 1)),", ",IF(A396 &lt;&gt; "", """mem"": bit" &amp; B396 &amp; "(" &amp; A396 &amp; "),", ""),"""good"": ",IF(A396 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A396 &lt;&gt; "", A396, -1),", ""bit"": ",IF(B396 &lt;&gt; "", B396, -1),"},")</f>
         <v>395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
         <v>12</v>
       </c>
       <c r="D397" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C397, Levels!B:B, 0), 1, 1)),", ",IF(A397 &lt;&gt; "", """mem"": bit" &amp; B397 &amp; "(" &amp; A397 &amp; "),", ""),"""good"": ",IF(A397 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A397 &lt;&gt; "", A397, -1),", ""bit"": ",IF(B397 &lt;&gt; 0, B397, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C397, Levels!B:B, 0), 1, 1)),", ",IF(A397 &lt;&gt; "", """mem"": bit" &amp; B397 &amp; "(" &amp; A397 &amp; "),", ""),"""good"": ",IF(A397 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A397 &lt;&gt; "", A397, -1),", ""bit"": ",IF(B397 &lt;&gt; "", B397, -1),"},")</f>
         <v>396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12634,7 +12634,7 @@
         <v>12</v>
       </c>
       <c r="D398" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C398, Levels!B:B, 0), 1, 1)),", ",IF(A398 &lt;&gt; "", """mem"": bit" &amp; B398 &amp; "(" &amp; A398 &amp; "),", ""),"""good"": ",IF(A398 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A398 &lt;&gt; "", A398, -1),", ""bit"": ",IF(B398 &lt;&gt; 0, B398, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C398, Levels!B:B, 0), 1, 1)),", ",IF(A398 &lt;&gt; "", """mem"": bit" &amp; B398 &amp; "(" &amp; A398 &amp; "),", ""),"""good"": ",IF(A398 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A398 &lt;&gt; "", A398, -1),", ""bit"": ",IF(B398 &lt;&gt; "", B398, -1),"},")</f>
         <v>397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
         <v>12</v>
       </c>
       <c r="D399" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C399, Levels!B:B, 0), 1, 1)),", ",IF(A399 &lt;&gt; "", """mem"": bit" &amp; B399 &amp; "(" &amp; A399 &amp; "),", ""),"""good"": ",IF(A399 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A399 &lt;&gt; "", A399, -1),", ""bit"": ",IF(B399 &lt;&gt; 0, B399, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C399, Levels!B:B, 0), 1, 1)),", ",IF(A399 &lt;&gt; "", """mem"": bit" &amp; B399 &amp; "(" &amp; A399 &amp; "),", ""),"""good"": ",IF(A399 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A399 &lt;&gt; "", A399, -1),", ""bit"": ",IF(B399 &lt;&gt; "", B399, -1),"},")</f>
         <v>398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12652,7 +12652,7 @@
         <v>12</v>
       </c>
       <c r="D400" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C400, Levels!B:B, 0), 1, 1)),", ",IF(A400 &lt;&gt; "", """mem"": bit" &amp; B400 &amp; "(" &amp; A400 &amp; "),", ""),"""good"": ",IF(A400 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A400 &lt;&gt; "", A400, -1),", ""bit"": ",IF(B400 &lt;&gt; 0, B400, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C400, Levels!B:B, 0), 1, 1)),", ",IF(A400 &lt;&gt; "", """mem"": bit" &amp; B400 &amp; "(" &amp; A400 &amp; "),", ""),"""good"": ",IF(A400 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A400 &lt;&gt; "", A400, -1),", ""bit"": ",IF(B400 &lt;&gt; "", B400, -1),"},")</f>
         <v>399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
         <v>12</v>
       </c>
       <c r="D401" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C401, Levels!B:B, 0), 1, 1)),", ",IF(A401 &lt;&gt; "", """mem"": bit" &amp; B401 &amp; "(" &amp; A401 &amp; "),", ""),"""good"": ",IF(A401 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A401 &lt;&gt; "", A401, -1),", ""bit"": ",IF(B401 &lt;&gt; 0, B401, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C401, Levels!B:B, 0), 1, 1)),", ",IF(A401 &lt;&gt; "", """mem"": bit" &amp; B401 &amp; "(" &amp; A401 &amp; "),", ""),"""good"": ",IF(A401 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A401 &lt;&gt; "", A401, -1),", ""bit"": ",IF(B401 &lt;&gt; "", B401, -1),"},")</f>
         <v>400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12670,7 +12670,7 @@
         <v>12</v>
       </c>
       <c r="D402" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C402, Levels!B:B, 0), 1, 1)),", ",IF(A402 &lt;&gt; "", """mem"": bit" &amp; B402 &amp; "(" &amp; A402 &amp; "),", ""),"""good"": ",IF(A402 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A402 &lt;&gt; "", A402, -1),", ""bit"": ",IF(B402 &lt;&gt; 0, B402, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C402, Levels!B:B, 0), 1, 1)),", ",IF(A402 &lt;&gt; "", """mem"": bit" &amp; B402 &amp; "(" &amp; A402 &amp; "),", ""),"""good"": ",IF(A402 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A402 &lt;&gt; "", A402, -1),", ""bit"": ",IF(B402 &lt;&gt; "", B402, -1),"},")</f>
         <v>401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
         <v>12</v>
       </c>
       <c r="D403" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C403, Levels!B:B, 0), 1, 1)),", ",IF(A403 &lt;&gt; "", """mem"": bit" &amp; B403 &amp; "(" &amp; A403 &amp; "),", ""),"""good"": ",IF(A403 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A403 &lt;&gt; "", A403, -1),", ""bit"": ",IF(B403 &lt;&gt; 0, B403, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C403, Levels!B:B, 0), 1, 1)),", ",IF(A403 &lt;&gt; "", """mem"": bit" &amp; B403 &amp; "(" &amp; A403 &amp; "),", ""),"""good"": ",IF(A403 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A403 &lt;&gt; "", A403, -1),", ""bit"": ",IF(B403 &lt;&gt; "", B403, -1),"},")</f>
         <v>402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
         <v>12</v>
       </c>
       <c r="D404" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C404, Levels!B:B, 0), 1, 1)),", ",IF(A404 &lt;&gt; "", """mem"": bit" &amp; B404 &amp; "(" &amp; A404 &amp; "),", ""),"""good"": ",IF(A404 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A404 &lt;&gt; "", A404, -1),", ""bit"": ",IF(B404 &lt;&gt; 0, B404, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C404, Levels!B:B, 0), 1, 1)),", ",IF(A404 &lt;&gt; "", """mem"": bit" &amp; B404 &amp; "(" &amp; A404 &amp; "),", ""),"""good"": ",IF(A404 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A404 &lt;&gt; "", A404, -1),", ""bit"": ",IF(B404 &lt;&gt; "", B404, -1),"},")</f>
         <v>403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
         <v>12</v>
       </c>
       <c r="D405" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C405, Levels!B:B, 0), 1, 1)),", ",IF(A405 &lt;&gt; "", """mem"": bit" &amp; B405 &amp; "(" &amp; A405 &amp; "),", ""),"""good"": ",IF(A405 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A405 &lt;&gt; "", A405, -1),", ""bit"": ",IF(B405 &lt;&gt; 0, B405, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C405, Levels!B:B, 0), 1, 1)),", ",IF(A405 &lt;&gt; "", """mem"": bit" &amp; B405 &amp; "(" &amp; A405 &amp; "),", ""),"""good"": ",IF(A405 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A405 &lt;&gt; "", A405, -1),", ""bit"": ",IF(B405 &lt;&gt; "", B405, -1),"},")</f>
         <v>404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
         <v>12</v>
       </c>
       <c r="D406" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C406, Levels!B:B, 0), 1, 1)),", ",IF(A406 &lt;&gt; "", """mem"": bit" &amp; B406 &amp; "(" &amp; A406 &amp; "),", ""),"""good"": ",IF(A406 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A406 &lt;&gt; "", A406, -1),", ""bit"": ",IF(B406 &lt;&gt; 0, B406, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C406, Levels!B:B, 0), 1, 1)),", ",IF(A406 &lt;&gt; "", """mem"": bit" &amp; B406 &amp; "(" &amp; A406 &amp; "),", ""),"""good"": ",IF(A406 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A406 &lt;&gt; "", A406, -1),", ""bit"": ",IF(B406 &lt;&gt; "", B406, -1),"},")</f>
         <v>405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
         <v>12</v>
       </c>
       <c r="D407" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C407, Levels!B:B, 0), 1, 1)),", ",IF(A407 &lt;&gt; "", """mem"": bit" &amp; B407 &amp; "(" &amp; A407 &amp; "),", ""),"""good"": ",IF(A407 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A407 &lt;&gt; "", A407, -1),", ""bit"": ",IF(B407 &lt;&gt; 0, B407, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C407, Levels!B:B, 0), 1, 1)),", ",IF(A407 &lt;&gt; "", """mem"": bit" &amp; B407 &amp; "(" &amp; A407 &amp; "),", ""),"""good"": ",IF(A407 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A407 &lt;&gt; "", A407, -1),", ""bit"": ",IF(B407 &lt;&gt; "", B407, -1),"},")</f>
         <v>406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12724,7 +12724,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C408, Levels!B:B, 0), 1, 1)),", ",IF(A408 &lt;&gt; "", """mem"": bit" &amp; B408 &amp; "(" &amp; A408 &amp; "),", ""),"""good"": ",IF(A408 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A408 &lt;&gt; "", A408, -1),", ""bit"": ",IF(B408 &lt;&gt; 0, B408, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C408, Levels!B:B, 0), 1, 1)),", ",IF(A408 &lt;&gt; "", """mem"": bit" &amp; B408 &amp; "(" &amp; A408 &amp; "),", ""),"""good"": ",IF(A408 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A408 &lt;&gt; "", A408, -1),", ""bit"": ",IF(B408 &lt;&gt; "", B408, -1),"},")</f>
         <v>407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
         <v>12</v>
       </c>
       <c r="D409" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C409, Levels!B:B, 0), 1, 1)),", ",IF(A409 &lt;&gt; "", """mem"": bit" &amp; B409 &amp; "(" &amp; A409 &amp; "),", ""),"""good"": ",IF(A409 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A409 &lt;&gt; "", A409, -1),", ""bit"": ",IF(B409 &lt;&gt; 0, B409, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C409, Levels!B:B, 0), 1, 1)),", ",IF(A409 &lt;&gt; "", """mem"": bit" &amp; B409 &amp; "(" &amp; A409 &amp; "),", ""),"""good"": ",IF(A409 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A409 &lt;&gt; "", A409, -1),", ""bit"": ",IF(B409 &lt;&gt; "", B409, -1),"},")</f>
         <v>408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
         <v>12</v>
       </c>
       <c r="D410" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C410, Levels!B:B, 0), 1, 1)),", ",IF(A410 &lt;&gt; "", """mem"": bit" &amp; B410 &amp; "(" &amp; A410 &amp; "),", ""),"""good"": ",IF(A410 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A410 &lt;&gt; "", A410, -1),", ""bit"": ",IF(B410 &lt;&gt; 0, B410, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C410, Levels!B:B, 0), 1, 1)),", ",IF(A410 &lt;&gt; "", """mem"": bit" &amp; B410 &amp; "(" &amp; A410 &amp; "),", ""),"""good"": ",IF(A410 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A410 &lt;&gt; "", A410, -1),", ""bit"": ",IF(B410 &lt;&gt; "", B410, -1),"},")</f>
         <v>409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
         <v>12</v>
       </c>
       <c r="D411" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C411, Levels!B:B, 0), 1, 1)),", ",IF(A411 &lt;&gt; "", """mem"": bit" &amp; B411 &amp; "(" &amp; A411 &amp; "),", ""),"""good"": ",IF(A411 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A411 &lt;&gt; "", A411, -1),", ""bit"": ",IF(B411 &lt;&gt; 0, B411, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C411, Levels!B:B, 0), 1, 1)),", ",IF(A411 &lt;&gt; "", """mem"": bit" &amp; B411 &amp; "(" &amp; A411 &amp; "),", ""),"""good"": ",IF(A411 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A411 &lt;&gt; "", A411, -1),", ""bit"": ",IF(B411 &lt;&gt; "", B411, -1),"},")</f>
         <v>410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12760,7 +12760,7 @@
         <v>12</v>
       </c>
       <c r="D412" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C412, Levels!B:B, 0), 1, 1)),", ",IF(A412 &lt;&gt; "", """mem"": bit" &amp; B412 &amp; "(" &amp; A412 &amp; "),", ""),"""good"": ",IF(A412 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A412 &lt;&gt; "", A412, -1),", ""bit"": ",IF(B412 &lt;&gt; 0, B412, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C412, Levels!B:B, 0), 1, 1)),", ",IF(A412 &lt;&gt; "", """mem"": bit" &amp; B412 &amp; "(" &amp; A412 &amp; "),", ""),"""good"": ",IF(A412 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A412 &lt;&gt; "", A412, -1),", ""bit"": ",IF(B412 &lt;&gt; "", B412, -1),"},")</f>
         <v>411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
         <v>12</v>
       </c>
       <c r="D413" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C413, Levels!B:B, 0), 1, 1)),", ",IF(A413 &lt;&gt; "", """mem"": bit" &amp; B413 &amp; "(" &amp; A413 &amp; "),", ""),"""good"": ",IF(A413 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A413 &lt;&gt; "", A413, -1),", ""bit"": ",IF(B413 &lt;&gt; 0, B413, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C413, Levels!B:B, 0), 1, 1)),", ",IF(A413 &lt;&gt; "", """mem"": bit" &amp; B413 &amp; "(" &amp; A413 &amp; "),", ""),"""good"": ",IF(A413 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A413 &lt;&gt; "", A413, -1),", ""bit"": ",IF(B413 &lt;&gt; "", B413, -1),"},")</f>
         <v>412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
         <v>12</v>
       </c>
       <c r="D414" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C414, Levels!B:B, 0), 1, 1)),", ",IF(A414 &lt;&gt; "", """mem"": bit" &amp; B414 &amp; "(" &amp; A414 &amp; "),", ""),"""good"": ",IF(A414 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A414 &lt;&gt; "", A414, -1),", ""bit"": ",IF(B414 &lt;&gt; 0, B414, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C414, Levels!B:B, 0), 1, 1)),", ",IF(A414 &lt;&gt; "", """mem"": bit" &amp; B414 &amp; "(" &amp; A414 &amp; "),", ""),"""good"": ",IF(A414 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A414 &lt;&gt; "", A414, -1),", ""bit"": ",IF(B414 &lt;&gt; "", B414, -1),"},")</f>
         <v>413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12787,7 +12787,7 @@
         <v>12</v>
       </c>
       <c r="D415" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C415, Levels!B:B, 0), 1, 1)),", ",IF(A415 &lt;&gt; "", """mem"": bit" &amp; B415 &amp; "(" &amp; A415 &amp; "),", ""),"""good"": ",IF(A415 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A415 &lt;&gt; "", A415, -1),", ""bit"": ",IF(B415 &lt;&gt; 0, B415, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C415, Levels!B:B, 0), 1, 1)),", ",IF(A415 &lt;&gt; "", """mem"": bit" &amp; B415 &amp; "(" &amp; A415 &amp; "),", ""),"""good"": ",IF(A415 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A415 &lt;&gt; "", A415, -1),", ""bit"": ",IF(B415 &lt;&gt; "", B415, -1),"},")</f>
         <v>414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12796,7 +12796,7 @@
         <v>12</v>
       </c>
       <c r="D416" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C416, Levels!B:B, 0), 1, 1)),", ",IF(A416 &lt;&gt; "", """mem"": bit" &amp; B416 &amp; "(" &amp; A416 &amp; "),", ""),"""good"": ",IF(A416 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A416 &lt;&gt; "", A416, -1),", ""bit"": ",IF(B416 &lt;&gt; 0, B416, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C416, Levels!B:B, 0), 1, 1)),", ",IF(A416 &lt;&gt; "", """mem"": bit" &amp; B416 &amp; "(" &amp; A416 &amp; "),", ""),"""good"": ",IF(A416 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A416 &lt;&gt; "", A416, -1),", ""bit"": ",IF(B416 &lt;&gt; "", B416, -1),"},")</f>
         <v>415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
         <v>12</v>
       </c>
       <c r="D417" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C417, Levels!B:B, 0), 1, 1)),", ",IF(A417 &lt;&gt; "", """mem"": bit" &amp; B417 &amp; "(" &amp; A417 &amp; "),", ""),"""good"": ",IF(A417 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A417 &lt;&gt; "", A417, -1),", ""bit"": ",IF(B417 &lt;&gt; 0, B417, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C417, Levels!B:B, 0), 1, 1)),", ",IF(A417 &lt;&gt; "", """mem"": bit" &amp; B417 &amp; "(" &amp; A417 &amp; "),", ""),"""good"": ",IF(A417 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A417 &lt;&gt; "", A417, -1),", ""bit"": ",IF(B417 &lt;&gt; "", B417, -1),"},")</f>
         <v>416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12814,7 +12814,7 @@
         <v>12</v>
       </c>
       <c r="D418" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C418, Levels!B:B, 0), 1, 1)),", ",IF(A418 &lt;&gt; "", """mem"": bit" &amp; B418 &amp; "(" &amp; A418 &amp; "),", ""),"""good"": ",IF(A418 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A418 &lt;&gt; "", A418, -1),", ""bit"": ",IF(B418 &lt;&gt; 0, B418, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C418, Levels!B:B, 0), 1, 1)),", ",IF(A418 &lt;&gt; "", """mem"": bit" &amp; B418 &amp; "(" &amp; A418 &amp; "),", ""),"""good"": ",IF(A418 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A418 &lt;&gt; "", A418, -1),", ""bit"": ",IF(B418 &lt;&gt; "", B418, -1),"},")</f>
         <v>417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
         <v>12</v>
       </c>
       <c r="D419" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C419, Levels!B:B, 0), 1, 1)),", ",IF(A419 &lt;&gt; "", """mem"": bit" &amp; B419 &amp; "(" &amp; A419 &amp; "),", ""),"""good"": ",IF(A419 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A419 &lt;&gt; "", A419, -1),", ""bit"": ",IF(B419 &lt;&gt; 0, B419, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C419, Levels!B:B, 0), 1, 1)),", ",IF(A419 &lt;&gt; "", """mem"": bit" &amp; B419 &amp; "(" &amp; A419 &amp; "),", ""),"""good"": ",IF(A419 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A419 &lt;&gt; "", A419, -1),", ""bit"": ",IF(B419 &lt;&gt; "", B419, -1),"},")</f>
         <v>418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12832,7 +12832,7 @@
         <v>12</v>
       </c>
       <c r="D420" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C420, Levels!B:B, 0), 1, 1)),", ",IF(A420 &lt;&gt; "", """mem"": bit" &amp; B420 &amp; "(" &amp; A420 &amp; "),", ""),"""good"": ",IF(A420 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A420 &lt;&gt; "", A420, -1),", ""bit"": ",IF(B420 &lt;&gt; 0, B420, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C420, Levels!B:B, 0), 1, 1)),", ",IF(A420 &lt;&gt; "", """mem"": bit" &amp; B420 &amp; "(" &amp; A420 &amp; "),", ""),"""good"": ",IF(A420 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A420 &lt;&gt; "", A420, -1),", ""bit"": ",IF(B420 &lt;&gt; "", B420, -1),"},")</f>
         <v>419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12841,7 +12841,7 @@
         <v>12</v>
       </c>
       <c r="D421" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C421, Levels!B:B, 0), 1, 1)),", ",IF(A421 &lt;&gt; "", """mem"": bit" &amp; B421 &amp; "(" &amp; A421 &amp; "),", ""),"""good"": ",IF(A421 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A421 &lt;&gt; "", A421, -1),", ""bit"": ",IF(B421 &lt;&gt; 0, B421, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C421, Levels!B:B, 0), 1, 1)),", ",IF(A421 &lt;&gt; "", """mem"": bit" &amp; B421 &amp; "(" &amp; A421 &amp; "),", ""),"""good"": ",IF(A421 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A421 &lt;&gt; "", A421, -1),", ""bit"": ",IF(B421 &lt;&gt; "", B421, -1),"},")</f>
         <v>420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12850,7 +12850,7 @@
         <v>12</v>
       </c>
       <c r="D422" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C422, Levels!B:B, 0), 1, 1)),", ",IF(A422 &lt;&gt; "", """mem"": bit" &amp; B422 &amp; "(" &amp; A422 &amp; "),", ""),"""good"": ",IF(A422 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A422 &lt;&gt; "", A422, -1),", ""bit"": ",IF(B422 &lt;&gt; 0, B422, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C422, Levels!B:B, 0), 1, 1)),", ",IF(A422 &lt;&gt; "", """mem"": bit" &amp; B422 &amp; "(" &amp; A422 &amp; "),", ""),"""good"": ",IF(A422 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A422 &lt;&gt; "", A422, -1),", ""bit"": ",IF(B422 &lt;&gt; "", B422, -1),"},")</f>
         <v>421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
         <v>12</v>
       </c>
       <c r="D423" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C423, Levels!B:B, 0), 1, 1)),", ",IF(A423 &lt;&gt; "", """mem"": bit" &amp; B423 &amp; "(" &amp; A423 &amp; "),", ""),"""good"": ",IF(A423 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A423 &lt;&gt; "", A423, -1),", ""bit"": ",IF(B423 &lt;&gt; 0, B423, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C423, Levels!B:B, 0), 1, 1)),", ",IF(A423 &lt;&gt; "", """mem"": bit" &amp; B423 &amp; "(" &amp; A423 &amp; "),", ""),"""good"": ",IF(A423 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A423 &lt;&gt; "", A423, -1),", ""bit"": ",IF(B423 &lt;&gt; "", B423, -1),"},")</f>
         <v>422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
         <v>12</v>
       </c>
       <c r="D424" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C424, Levels!B:B, 0), 1, 1)),", ",IF(A424 &lt;&gt; "", """mem"": bit" &amp; B424 &amp; "(" &amp; A424 &amp; "),", ""),"""good"": ",IF(A424 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A424 &lt;&gt; "", A424, -1),", ""bit"": ",IF(B424 &lt;&gt; 0, B424, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C424, Levels!B:B, 0), 1, 1)),", ",IF(A424 &lt;&gt; "", """mem"": bit" &amp; B424 &amp; "(" &amp; A424 &amp; "),", ""),"""good"": ",IF(A424 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A424 &lt;&gt; "", A424, -1),", ""bit"": ",IF(B424 &lt;&gt; "", B424, -1),"},")</f>
         <v>423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
         <v>12</v>
       </c>
       <c r="D425" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C425, Levels!B:B, 0), 1, 1)),", ",IF(A425 &lt;&gt; "", """mem"": bit" &amp; B425 &amp; "(" &amp; A425 &amp; "),", ""),"""good"": ",IF(A425 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A425 &lt;&gt; "", A425, -1),", ""bit"": ",IF(B425 &lt;&gt; 0, B425, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C425, Levels!B:B, 0), 1, 1)),", ",IF(A425 &lt;&gt; "", """mem"": bit" &amp; B425 &amp; "(" &amp; A425 &amp; "),", ""),"""good"": ",IF(A425 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A425 &lt;&gt; "", A425, -1),", ""bit"": ",IF(B425 &lt;&gt; "", B425, -1),"},")</f>
         <v>424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
         <v>12</v>
       </c>
       <c r="D426" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C426, Levels!B:B, 0), 1, 1)),", ",IF(A426 &lt;&gt; "", """mem"": bit" &amp; B426 &amp; "(" &amp; A426 &amp; "),", ""),"""good"": ",IF(A426 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A426 &lt;&gt; "", A426, -1),", ""bit"": ",IF(B426 &lt;&gt; 0, B426, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C426, Levels!B:B, 0), 1, 1)),", ",IF(A426 &lt;&gt; "", """mem"": bit" &amp; B426 &amp; "(" &amp; A426 &amp; "),", ""),"""good"": ",IF(A426 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A426 &lt;&gt; "", A426, -1),", ""bit"": ",IF(B426 &lt;&gt; "", B426, -1),"},")</f>
         <v>425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
         <v>12</v>
       </c>
       <c r="D427" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C427, Levels!B:B, 0), 1, 1)),", ",IF(A427 &lt;&gt; "", """mem"": bit" &amp; B427 &amp; "(" &amp; A427 &amp; "),", ""),"""good"": ",IF(A427 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A427 &lt;&gt; "", A427, -1),", ""bit"": ",IF(B427 &lt;&gt; 0, B427, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C427, Levels!B:B, 0), 1, 1)),", ",IF(A427 &lt;&gt; "", """mem"": bit" &amp; B427 &amp; "(" &amp; A427 &amp; "),", ""),"""good"": ",IF(A427 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A427 &lt;&gt; "", A427, -1),", ""bit"": ",IF(B427 &lt;&gt; "", B427, -1),"},")</f>
         <v>426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
         <v>12</v>
       </c>
       <c r="D428" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C428, Levels!B:B, 0), 1, 1)),", ",IF(A428 &lt;&gt; "", """mem"": bit" &amp; B428 &amp; "(" &amp; A428 &amp; "),", ""),"""good"": ",IF(A428 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A428 &lt;&gt; "", A428, -1),", ""bit"": ",IF(B428 &lt;&gt; 0, B428, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C428, Levels!B:B, 0), 1, 1)),", ",IF(A428 &lt;&gt; "", """mem"": bit" &amp; B428 &amp; "(" &amp; A428 &amp; "),", ""),"""good"": ",IF(A428 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A428 &lt;&gt; "", A428, -1),", ""bit"": ",IF(B428 &lt;&gt; "", B428, -1),"},")</f>
         <v>427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
         <v>12</v>
       </c>
       <c r="D429" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C429, Levels!B:B, 0), 1, 1)),", ",IF(A429 &lt;&gt; "", """mem"": bit" &amp; B429 &amp; "(" &amp; A429 &amp; "),", ""),"""good"": ",IF(A429 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A429 &lt;&gt; "", A429, -1),", ""bit"": ",IF(B429 &lt;&gt; 0, B429, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C429, Levels!B:B, 0), 1, 1)),", ",IF(A429 &lt;&gt; "", """mem"": bit" &amp; B429 &amp; "(" &amp; A429 &amp; "),", ""),"""good"": ",IF(A429 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A429 &lt;&gt; "", A429, -1),", ""bit"": ",IF(B429 &lt;&gt; "", B429, -1),"},")</f>
         <v>428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12922,7 +12922,7 @@
         <v>12</v>
       </c>
       <c r="D430" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C430, Levels!B:B, 0), 1, 1)),", ",IF(A430 &lt;&gt; "", """mem"": bit" &amp; B430 &amp; "(" &amp; A430 &amp; "),", ""),"""good"": ",IF(A430 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A430 &lt;&gt; "", A430, -1),", ""bit"": ",IF(B430 &lt;&gt; 0, B430, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C430, Levels!B:B, 0), 1, 1)),", ",IF(A430 &lt;&gt; "", """mem"": bit" &amp; B430 &amp; "(" &amp; A430 &amp; "),", ""),"""good"": ",IF(A430 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A430 &lt;&gt; "", A430, -1),", ""bit"": ",IF(B430 &lt;&gt; "", B430, -1),"},")</f>
         <v>429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
         <v>12</v>
       </c>
       <c r="D431" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C431, Levels!B:B, 0), 1, 1)),", ",IF(A431 &lt;&gt; "", """mem"": bit" &amp; B431 &amp; "(" &amp; A431 &amp; "),", ""),"""good"": ",IF(A431 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A431 &lt;&gt; "", A431, -1),", ""bit"": ",IF(B431 &lt;&gt; 0, B431, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C431, Levels!B:B, 0), 1, 1)),", ",IF(A431 &lt;&gt; "", """mem"": bit" &amp; B431 &amp; "(" &amp; A431 &amp; "),", ""),"""good"": ",IF(A431 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A431 &lt;&gt; "", A431, -1),", ""bit"": ",IF(B431 &lt;&gt; "", B431, -1),"},")</f>
         <v>430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
         <v>12</v>
       </c>
       <c r="D432" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C432, Levels!B:B, 0), 1, 1)),", ",IF(A432 &lt;&gt; "", """mem"": bit" &amp; B432 &amp; "(" &amp; A432 &amp; "),", ""),"""good"": ",IF(A432 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A432 &lt;&gt; "", A432, -1),", ""bit"": ",IF(B432 &lt;&gt; 0, B432, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C432, Levels!B:B, 0), 1, 1)),", ",IF(A432 &lt;&gt; "", """mem"": bit" &amp; B432 &amp; "(" &amp; A432 &amp; "),", ""),"""good"": ",IF(A432 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A432 &lt;&gt; "", A432, -1),", ""bit"": ",IF(B432 &lt;&gt; "", B432, -1),"},")</f>
         <v>431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
         <v>12</v>
       </c>
       <c r="D433" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C433, Levels!B:B, 0), 1, 1)),", ",IF(A433 &lt;&gt; "", """mem"": bit" &amp; B433 &amp; "(" &amp; A433 &amp; "),", ""),"""good"": ",IF(A433 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A433 &lt;&gt; "", A433, -1),", ""bit"": ",IF(B433 &lt;&gt; 0, B433, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C433, Levels!B:B, 0), 1, 1)),", ",IF(A433 &lt;&gt; "", """mem"": bit" &amp; B433 &amp; "(" &amp; A433 &amp; "),", ""),"""good"": ",IF(A433 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A433 &lt;&gt; "", A433, -1),", ""bit"": ",IF(B433 &lt;&gt; "", B433, -1),"},")</f>
         <v>432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
         <v>12</v>
       </c>
       <c r="D434" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C434, Levels!B:B, 0), 1, 1)),", ",IF(A434 &lt;&gt; "", """mem"": bit" &amp; B434 &amp; "(" &amp; A434 &amp; "),", ""),"""good"": ",IF(A434 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A434 &lt;&gt; "", A434, -1),", ""bit"": ",IF(B434 &lt;&gt; 0, B434, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C434, Levels!B:B, 0), 1, 1)),", ",IF(A434 &lt;&gt; "", """mem"": bit" &amp; B434 &amp; "(" &amp; A434 &amp; "),", ""),"""good"": ",IF(A434 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A434 &lt;&gt; "", A434, -1),", ""bit"": ",IF(B434 &lt;&gt; "", B434, -1),"},")</f>
         <v>433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12967,7 +12967,7 @@
         <v>12</v>
       </c>
       <c r="D435" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C435, Levels!B:B, 0), 1, 1)),", ",IF(A435 &lt;&gt; "", """mem"": bit" &amp; B435 &amp; "(" &amp; A435 &amp; "),", ""),"""good"": ",IF(A435 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A435 &lt;&gt; "", A435, -1),", ""bit"": ",IF(B435 &lt;&gt; 0, B435, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C435, Levels!B:B, 0), 1, 1)),", ",IF(A435 &lt;&gt; "", """mem"": bit" &amp; B435 &amp; "(" &amp; A435 &amp; "),", ""),"""good"": ",IF(A435 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A435 &lt;&gt; "", A435, -1),", ""bit"": ",IF(B435 &lt;&gt; "", B435, -1),"},")</f>
         <v>434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
         <v>12</v>
       </c>
       <c r="D436" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C436, Levels!B:B, 0), 1, 1)),", ",IF(A436 &lt;&gt; "", """mem"": bit" &amp; B436 &amp; "(" &amp; A436 &amp; "),", ""),"""good"": ",IF(A436 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A436 &lt;&gt; "", A436, -1),", ""bit"": ",IF(B436 &lt;&gt; 0, B436, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C436, Levels!B:B, 0), 1, 1)),", ",IF(A436 &lt;&gt; "", """mem"": bit" &amp; B436 &amp; "(" &amp; A436 &amp; "),", ""),"""good"": ",IF(A436 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A436 &lt;&gt; "", A436, -1),", ""bit"": ",IF(B436 &lt;&gt; "", B436, -1),"},")</f>
         <v>435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
         <v>12</v>
       </c>
       <c r="D437" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C437, Levels!B:B, 0), 1, 1)),", ",IF(A437 &lt;&gt; "", """mem"": bit" &amp; B437 &amp; "(" &amp; A437 &amp; "),", ""),"""good"": ",IF(A437 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A437 &lt;&gt; "", A437, -1),", ""bit"": ",IF(B437 &lt;&gt; 0, B437, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C437, Levels!B:B, 0), 1, 1)),", ",IF(A437 &lt;&gt; "", """mem"": bit" &amp; B437 &amp; "(" &amp; A437 &amp; "),", ""),"""good"": ",IF(A437 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A437 &lt;&gt; "", A437, -1),", ""bit"": ",IF(B437 &lt;&gt; "", B437, -1),"},")</f>
         <v>436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -12994,7 +12994,7 @@
         <v>12</v>
       </c>
       <c r="D438" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C438, Levels!B:B, 0), 1, 1)),", ",IF(A438 &lt;&gt; "", """mem"": bit" &amp; B438 &amp; "(" &amp; A438 &amp; "),", ""),"""good"": ",IF(A438 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A438 &lt;&gt; "", A438, -1),", ""bit"": ",IF(B438 &lt;&gt; 0, B438, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C438, Levels!B:B, 0), 1, 1)),", ",IF(A438 &lt;&gt; "", """mem"": bit" &amp; B438 &amp; "(" &amp; A438 &amp; "),", ""),"""good"": ",IF(A438 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A438 &lt;&gt; "", A438, -1),", ""bit"": ",IF(B438 &lt;&gt; "", B438, -1),"},")</f>
         <v>437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13003,7 +13003,7 @@
         <v>12</v>
       </c>
       <c r="D439" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C439, Levels!B:B, 0), 1, 1)),", ",IF(A439 &lt;&gt; "", """mem"": bit" &amp; B439 &amp; "(" &amp; A439 &amp; "),", ""),"""good"": ",IF(A439 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A439 &lt;&gt; "", A439, -1),", ""bit"": ",IF(B439 &lt;&gt; 0, B439, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C439, Levels!B:B, 0), 1, 1)),", ",IF(A439 &lt;&gt; "", """mem"": bit" &amp; B439 &amp; "(" &amp; A439 &amp; "),", ""),"""good"": ",IF(A439 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A439 &lt;&gt; "", A439, -1),", ""bit"": ",IF(B439 &lt;&gt; "", B439, -1),"},")</f>
         <v>438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13012,7 +13012,7 @@
         <v>12</v>
       </c>
       <c r="D440" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C440, Levels!B:B, 0), 1, 1)),", ",IF(A440 &lt;&gt; "", """mem"": bit" &amp; B440 &amp; "(" &amp; A440 &amp; "),", ""),"""good"": ",IF(A440 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A440 &lt;&gt; "", A440, -1),", ""bit"": ",IF(B440 &lt;&gt; 0, B440, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C440, Levels!B:B, 0), 1, 1)),", ",IF(A440 &lt;&gt; "", """mem"": bit" &amp; B440 &amp; "(" &amp; A440 &amp; "),", ""),"""good"": ",IF(A440 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A440 &lt;&gt; "", A440, -1),", ""bit"": ",IF(B440 &lt;&gt; "", B440, -1),"},")</f>
         <v>439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13021,7 +13021,7 @@
         <v>12</v>
       </c>
       <c r="D441" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C441, Levels!B:B, 0), 1, 1)),", ",IF(A441 &lt;&gt; "", """mem"": bit" &amp; B441 &amp; "(" &amp; A441 &amp; "),", ""),"""good"": ",IF(A441 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A441 &lt;&gt; "", A441, -1),", ""bit"": ",IF(B441 &lt;&gt; 0, B441, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C441, Levels!B:B, 0), 1, 1)),", ",IF(A441 &lt;&gt; "", """mem"": bit" &amp; B441 &amp; "(" &amp; A441 &amp; "),", ""),"""good"": ",IF(A441 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A441 &lt;&gt; "", A441, -1),", ""bit"": ",IF(B441 &lt;&gt; "", B441, -1),"},")</f>
         <v>440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13030,7 +13030,7 @@
         <v>12</v>
       </c>
       <c r="D442" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C442, Levels!B:B, 0), 1, 1)),", ",IF(A442 &lt;&gt; "", """mem"": bit" &amp; B442 &amp; "(" &amp; A442 &amp; "),", ""),"""good"": ",IF(A442 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A442 &lt;&gt; "", A442, -1),", ""bit"": ",IF(B442 &lt;&gt; 0, B442, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C442, Levels!B:B, 0), 1, 1)),", ",IF(A442 &lt;&gt; "", """mem"": bit" &amp; B442 &amp; "(" &amp; A442 &amp; "),", ""),"""good"": ",IF(A442 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A442 &lt;&gt; "", A442, -1),", ""bit"": ",IF(B442 &lt;&gt; "", B442, -1),"},")</f>
         <v>441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13039,7 +13039,7 @@
         <v>12</v>
       </c>
       <c r="D443" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C443, Levels!B:B, 0), 1, 1)),", ",IF(A443 &lt;&gt; "", """mem"": bit" &amp; B443 &amp; "(" &amp; A443 &amp; "),", ""),"""good"": ",IF(A443 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A443 &lt;&gt; "", A443, -1),", ""bit"": ",IF(B443 &lt;&gt; 0, B443, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C443, Levels!B:B, 0), 1, 1)),", ",IF(A443 &lt;&gt; "", """mem"": bit" &amp; B443 &amp; "(" &amp; A443 &amp; "),", ""),"""good"": ",IF(A443 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A443 &lt;&gt; "", A443, -1),", ""bit"": ",IF(B443 &lt;&gt; "", B443, -1),"},")</f>
         <v>442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13048,7 +13048,7 @@
         <v>12</v>
       </c>
       <c r="D444" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C444, Levels!B:B, 0), 1, 1)),", ",IF(A444 &lt;&gt; "", """mem"": bit" &amp; B444 &amp; "(" &amp; A444 &amp; "),", ""),"""good"": ",IF(A444 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A444 &lt;&gt; "", A444, -1),", ""bit"": ",IF(B444 &lt;&gt; 0, B444, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C444, Levels!B:B, 0), 1, 1)),", ",IF(A444 &lt;&gt; "", """mem"": bit" &amp; B444 &amp; "(" &amp; A444 &amp; "),", ""),"""good"": ",IF(A444 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A444 &lt;&gt; "", A444, -1),", ""bit"": ",IF(B444 &lt;&gt; "", B444, -1),"},")</f>
         <v>443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
         <v>12</v>
       </c>
       <c r="D445" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C445, Levels!B:B, 0), 1, 1)),", ",IF(A445 &lt;&gt; "", """mem"": bit" &amp; B445 &amp; "(" &amp; A445 &amp; "),", ""),"""good"": ",IF(A445 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A445 &lt;&gt; "", A445, -1),", ""bit"": ",IF(B445 &lt;&gt; 0, B445, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C445, Levels!B:B, 0), 1, 1)),", ",IF(A445 &lt;&gt; "", """mem"": bit" &amp; B445 &amp; "(" &amp; A445 &amp; "),", ""),"""good"": ",IF(A445 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A445 &lt;&gt; "", A445, -1),", ""bit"": ",IF(B445 &lt;&gt; "", B445, -1),"},")</f>
         <v>444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
         <v>12</v>
       </c>
       <c r="D446" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C446, Levels!B:B, 0), 1, 1)),", ",IF(A446 &lt;&gt; "", """mem"": bit" &amp; B446 &amp; "(" &amp; A446 &amp; "),", ""),"""good"": ",IF(A446 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A446 &lt;&gt; "", A446, -1),", ""bit"": ",IF(B446 &lt;&gt; 0, B446, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C446, Levels!B:B, 0), 1, 1)),", ",IF(A446 &lt;&gt; "", """mem"": bit" &amp; B446 &amp; "(" &amp; A446 &amp; "),", ""),"""good"": ",IF(A446 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A446 &lt;&gt; "", A446, -1),", ""bit"": ",IF(B446 &lt;&gt; "", B446, -1),"},")</f>
         <v>445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
         <v>12</v>
       </c>
       <c r="D447" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C447, Levels!B:B, 0), 1, 1)),", ",IF(A447 &lt;&gt; "", """mem"": bit" &amp; B447 &amp; "(" &amp; A447 &amp; "),", ""),"""good"": ",IF(A447 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A447 &lt;&gt; "", A447, -1),", ""bit"": ",IF(B447 &lt;&gt; 0, B447, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C447, Levels!B:B, 0), 1, 1)),", ",IF(A447 &lt;&gt; "", """mem"": bit" &amp; B447 &amp; "(" &amp; A447 &amp; "),", ""),"""good"": ",IF(A447 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A447 &lt;&gt; "", A447, -1),", ""bit"": ",IF(B447 &lt;&gt; "", B447, -1),"},")</f>
         <v>446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
         <v>12</v>
       </c>
       <c r="D448" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C448, Levels!B:B, 0), 1, 1)),", ",IF(A448 &lt;&gt; "", """mem"": bit" &amp; B448 &amp; "(" &amp; A448 &amp; "),", ""),"""good"": ",IF(A448 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A448 &lt;&gt; "", A448, -1),", ""bit"": ",IF(B448 &lt;&gt; 0, B448, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C448, Levels!B:B, 0), 1, 1)),", ",IF(A448 &lt;&gt; "", """mem"": bit" &amp; B448 &amp; "(" &amp; A448 &amp; "),", ""),"""good"": ",IF(A448 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A448 &lt;&gt; "", A448, -1),", ""bit"": ",IF(B448 &lt;&gt; "", B448, -1),"},")</f>
         <v>447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
         <v>12</v>
       </c>
       <c r="D449" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C449, Levels!B:B, 0), 1, 1)),", ",IF(A449 &lt;&gt; "", """mem"": bit" &amp; B449 &amp; "(" &amp; A449 &amp; "),", ""),"""good"": ",IF(A449 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A449 &lt;&gt; "", A449, -1),", ""bit"": ",IF(B449 &lt;&gt; 0, B449, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C449, Levels!B:B, 0), 1, 1)),", ",IF(A449 &lt;&gt; "", """mem"": bit" &amp; B449 &amp; "(" &amp; A449 &amp; "),", ""),"""good"": ",IF(A449 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A449 &lt;&gt; "", A449, -1),", ""bit"": ",IF(B449 &lt;&gt; "", B449, -1),"},")</f>
         <v>448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13102,7 +13102,7 @@
         <v>12</v>
       </c>
       <c r="D450" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C450, Levels!B:B, 0), 1, 1)),", ",IF(A450 &lt;&gt; "", """mem"": bit" &amp; B450 &amp; "(" &amp; A450 &amp; "),", ""),"""good"": ",IF(A450 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A450 &lt;&gt; "", A450, -1),", ""bit"": ",IF(B450 &lt;&gt; 0, B450, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C450, Levels!B:B, 0), 1, 1)),", ",IF(A450 &lt;&gt; "", """mem"": bit" &amp; B450 &amp; "(" &amp; A450 &amp; "),", ""),"""good"": ",IF(A450 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A450 &lt;&gt; "", A450, -1),", ""bit"": ",IF(B450 &lt;&gt; "", B450, -1),"},")</f>
         <v>449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
         <v>12</v>
       </c>
       <c r="D451" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C451, Levels!B:B, 0), 1, 1)),", ",IF(A451 &lt;&gt; "", """mem"": bit" &amp; B451 &amp; "(" &amp; A451 &amp; "),", ""),"""good"": ",IF(A451 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A451 &lt;&gt; "", A451, -1),", ""bit"": ",IF(B451 &lt;&gt; 0, B451, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C451, Levels!B:B, 0), 1, 1)),", ",IF(A451 &lt;&gt; "", """mem"": bit" &amp; B451 &amp; "(" &amp; A451 &amp; "),", ""),"""good"": ",IF(A451 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A451 &lt;&gt; "", A451, -1),", ""bit"": ",IF(B451 &lt;&gt; "", B451, -1),"},")</f>
         <v>450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
         <v>12</v>
       </c>
       <c r="D452" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C452, Levels!B:B, 0), 1, 1)),", ",IF(A452 &lt;&gt; "", """mem"": bit" &amp; B452 &amp; "(" &amp; A452 &amp; "),", ""),"""good"": ",IF(A452 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A452 &lt;&gt; "", A452, -1),", ""bit"": ",IF(B452 &lt;&gt; 0, B452, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C452, Levels!B:B, 0), 1, 1)),", ",IF(A452 &lt;&gt; "", """mem"": bit" &amp; B452 &amp; "(" &amp; A452 &amp; "),", ""),"""good"": ",IF(A452 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A452 &lt;&gt; "", A452, -1),", ""bit"": ",IF(B452 &lt;&gt; "", B452, -1),"},")</f>
         <v>451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
         <v>12</v>
       </c>
       <c r="D453" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C453, Levels!B:B, 0), 1, 1)),", ",IF(A453 &lt;&gt; "", """mem"": bit" &amp; B453 &amp; "(" &amp; A453 &amp; "),", ""),"""good"": ",IF(A453 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A453 &lt;&gt; "", A453, -1),", ""bit"": ",IF(B453 &lt;&gt; 0, B453, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C453, Levels!B:B, 0), 1, 1)),", ",IF(A453 &lt;&gt; "", """mem"": bit" &amp; B453 &amp; "(" &amp; A453 &amp; "),", ""),"""good"": ",IF(A453 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A453 &lt;&gt; "", A453, -1),", ""bit"": ",IF(B453 &lt;&gt; "", B453, -1),"},")</f>
         <v>452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
         <v>12</v>
       </c>
       <c r="D454" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C454, Levels!B:B, 0), 1, 1)),", ",IF(A454 &lt;&gt; "", """mem"": bit" &amp; B454 &amp; "(" &amp; A454 &amp; "),", ""),"""good"": ",IF(A454 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A454 &lt;&gt; "", A454, -1),", ""bit"": ",IF(B454 &lt;&gt; 0, B454, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C454, Levels!B:B, 0), 1, 1)),", ",IF(A454 &lt;&gt; "", """mem"": bit" &amp; B454 &amp; "(" &amp; A454 &amp; "),", ""),"""good"": ",IF(A454 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A454 &lt;&gt; "", A454, -1),", ""bit"": ",IF(B454 &lt;&gt; "", B454, -1),"},")</f>
         <v>453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
         <v>12</v>
       </c>
       <c r="D455" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C455, Levels!B:B, 0), 1, 1)),", ",IF(A455 &lt;&gt; "", """mem"": bit" &amp; B455 &amp; "(" &amp; A455 &amp; "),", ""),"""good"": ",IF(A455 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A455 &lt;&gt; "", A455, -1),", ""bit"": ",IF(B455 &lt;&gt; 0, B455, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C455, Levels!B:B, 0), 1, 1)),", ",IF(A455 &lt;&gt; "", """mem"": bit" &amp; B455 &amp; "(" &amp; A455 &amp; "),", ""),"""good"": ",IF(A455 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A455 &lt;&gt; "", A455, -1),", ""bit"": ",IF(B455 &lt;&gt; "", B455, -1),"},")</f>
         <v>454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13156,7 +13156,7 @@
         <v>12</v>
       </c>
       <c r="D456" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C456, Levels!B:B, 0), 1, 1)),", ",IF(A456 &lt;&gt; "", """mem"": bit" &amp; B456 &amp; "(" &amp; A456 &amp; "),", ""),"""good"": ",IF(A456 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A456 &lt;&gt; "", A456, -1),", ""bit"": ",IF(B456 &lt;&gt; 0, B456, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C456, Levels!B:B, 0), 1, 1)),", ",IF(A456 &lt;&gt; "", """mem"": bit" &amp; B456 &amp; "(" &amp; A456 &amp; "),", ""),"""good"": ",IF(A456 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A456 &lt;&gt; "", A456, -1),", ""bit"": ",IF(B456 &lt;&gt; "", B456, -1),"},")</f>
         <v>455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13165,7 +13165,7 @@
         <v>12</v>
       </c>
       <c r="D457" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C457, Levels!B:B, 0), 1, 1)),", ",IF(A457 &lt;&gt; "", """mem"": bit" &amp; B457 &amp; "(" &amp; A457 &amp; "),", ""),"""good"": ",IF(A457 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A457 &lt;&gt; "", A457, -1),", ""bit"": ",IF(B457 &lt;&gt; 0, B457, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C457, Levels!B:B, 0), 1, 1)),", ",IF(A457 &lt;&gt; "", """mem"": bit" &amp; B457 &amp; "(" &amp; A457 &amp; "),", ""),"""good"": ",IF(A457 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A457 &lt;&gt; "", A457, -1),", ""bit"": ",IF(B457 &lt;&gt; "", B457, -1),"},")</f>
         <v>456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13174,7 +13174,7 @@
         <v>12</v>
       </c>
       <c r="D458" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C458, Levels!B:B, 0), 1, 1)),", ",IF(A458 &lt;&gt; "", """mem"": bit" &amp; B458 &amp; "(" &amp; A458 &amp; "),", ""),"""good"": ",IF(A458 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A458 &lt;&gt; "", A458, -1),", ""bit"": ",IF(B458 &lt;&gt; 0, B458, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C458, Levels!B:B, 0), 1, 1)),", ",IF(A458 &lt;&gt; "", """mem"": bit" &amp; B458 &amp; "(" &amp; A458 &amp; "),", ""),"""good"": ",IF(A458 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A458 &lt;&gt; "", A458, -1),", ""bit"": ",IF(B458 &lt;&gt; "", B458, -1),"},")</f>
         <v>457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
         <v>12</v>
       </c>
       <c r="D459" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C459, Levels!B:B, 0), 1, 1)),", ",IF(A459 &lt;&gt; "", """mem"": bit" &amp; B459 &amp; "(" &amp; A459 &amp; "),", ""),"""good"": ",IF(A459 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A459 &lt;&gt; "", A459, -1),", ""bit"": ",IF(B459 &lt;&gt; 0, B459, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C459, Levels!B:B, 0), 1, 1)),", ",IF(A459 &lt;&gt; "", """mem"": bit" &amp; B459 &amp; "(" &amp; A459 &amp; "),", ""),"""good"": ",IF(A459 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A459 &lt;&gt; "", A459, -1),", ""bit"": ",IF(B459 &lt;&gt; "", B459, -1),"},")</f>
         <v>458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
         <v>12</v>
       </c>
       <c r="D460" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C460, Levels!B:B, 0), 1, 1)),", ",IF(A460 &lt;&gt; "", """mem"": bit" &amp; B460 &amp; "(" &amp; A460 &amp; "),", ""),"""good"": ",IF(A460 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A460 &lt;&gt; "", A460, -1),", ""bit"": ",IF(B460 &lt;&gt; 0, B460, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C460, Levels!B:B, 0), 1, 1)),", ",IF(A460 &lt;&gt; "", """mem"": bit" &amp; B460 &amp; "(" &amp; A460 &amp; "),", ""),"""good"": ",IF(A460 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A460 &lt;&gt; "", A460, -1),", ""bit"": ",IF(B460 &lt;&gt; "", B460, -1),"},")</f>
         <v>459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13201,7 +13201,7 @@
         <v>12</v>
       </c>
       <c r="D461" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C461, Levels!B:B, 0), 1, 1)),", ",IF(A461 &lt;&gt; "", """mem"": bit" &amp; B461 &amp; "(" &amp; A461 &amp; "),", ""),"""good"": ",IF(A461 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A461 &lt;&gt; "", A461, -1),", ""bit"": ",IF(B461 &lt;&gt; 0, B461, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C461, Levels!B:B, 0), 1, 1)),", ",IF(A461 &lt;&gt; "", """mem"": bit" &amp; B461 &amp; "(" &amp; A461 &amp; "),", ""),"""good"": ",IF(A461 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A461 &lt;&gt; "", A461, -1),", ""bit"": ",IF(B461 &lt;&gt; "", B461, -1),"},")</f>
         <v>460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13210,7 +13210,7 @@
         <v>12</v>
       </c>
       <c r="D462" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C462, Levels!B:B, 0), 1, 1)),", ",IF(A462 &lt;&gt; "", """mem"": bit" &amp; B462 &amp; "(" &amp; A462 &amp; "),", ""),"""good"": ",IF(A462 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A462 &lt;&gt; "", A462, -1),", ""bit"": ",IF(B462 &lt;&gt; 0, B462, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C462, Levels!B:B, 0), 1, 1)),", ",IF(A462 &lt;&gt; "", """mem"": bit" &amp; B462 &amp; "(" &amp; A462 &amp; "),", ""),"""good"": ",IF(A462 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A462 &lt;&gt; "", A462, -1),", ""bit"": ",IF(B462 &lt;&gt; "", B462, -1),"},")</f>
         <v>461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
         <v>12</v>
       </c>
       <c r="D463" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C463, Levels!B:B, 0), 1, 1)),", ",IF(A463 &lt;&gt; "", """mem"": bit" &amp; B463 &amp; "(" &amp; A463 &amp; "),", ""),"""good"": ",IF(A463 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A463 &lt;&gt; "", A463, -1),", ""bit"": ",IF(B463 &lt;&gt; 0, B463, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C463, Levels!B:B, 0), 1, 1)),", ",IF(A463 &lt;&gt; "", """mem"": bit" &amp; B463 &amp; "(" &amp; A463 &amp; "),", ""),"""good"": ",IF(A463 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A463 &lt;&gt; "", A463, -1),", ""bit"": ",IF(B463 &lt;&gt; "", B463, -1),"},")</f>
         <v>462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
         <v>12</v>
       </c>
       <c r="D464" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C464, Levels!B:B, 0), 1, 1)),", ",IF(A464 &lt;&gt; "", """mem"": bit" &amp; B464 &amp; "(" &amp; A464 &amp; "),", ""),"""good"": ",IF(A464 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A464 &lt;&gt; "", A464, -1),", ""bit"": ",IF(B464 &lt;&gt; 0, B464, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C464, Levels!B:B, 0), 1, 1)),", ",IF(A464 &lt;&gt; "", """mem"": bit" &amp; B464 &amp; "(" &amp; A464 &amp; "),", ""),"""good"": ",IF(A464 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A464 &lt;&gt; "", A464, -1),", ""bit"": ",IF(B464 &lt;&gt; "", B464, -1),"},")</f>
         <v>463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
         <v>12</v>
       </c>
       <c r="D465" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C465, Levels!B:B, 0), 1, 1)),", ",IF(A465 &lt;&gt; "", """mem"": bit" &amp; B465 &amp; "(" &amp; A465 &amp; "),", ""),"""good"": ",IF(A465 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A465 &lt;&gt; "", A465, -1),", ""bit"": ",IF(B465 &lt;&gt; 0, B465, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C465, Levels!B:B, 0), 1, 1)),", ",IF(A465 &lt;&gt; "", """mem"": bit" &amp; B465 &amp; "(" &amp; A465 &amp; "),", ""),"""good"": ",IF(A465 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A465 &lt;&gt; "", A465, -1),", ""bit"": ",IF(B465 &lt;&gt; "", B465, -1),"},")</f>
         <v>464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13246,7 +13246,7 @@
         <v>12</v>
       </c>
       <c r="D466" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C466, Levels!B:B, 0), 1, 1)),", ",IF(A466 &lt;&gt; "", """mem"": bit" &amp; B466 &amp; "(" &amp; A466 &amp; "),", ""),"""good"": ",IF(A466 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A466 &lt;&gt; "", A466, -1),", ""bit"": ",IF(B466 &lt;&gt; 0, B466, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C466, Levels!B:B, 0), 1, 1)),", ",IF(A466 &lt;&gt; "", """mem"": bit" &amp; B466 &amp; "(" &amp; A466 &amp; "),", ""),"""good"": ",IF(A466 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A466 &lt;&gt; "", A466, -1),", ""bit"": ",IF(B466 &lt;&gt; "", B466, -1),"},")</f>
         <v>465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C467, Levels!B:B, 0), 1, 1)),", ",IF(A467 &lt;&gt; "", """mem"": bit" &amp; B467 &amp; "(" &amp; A467 &amp; "),", ""),"""good"": ",IF(A467 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A467 &lt;&gt; "", A467, -1),", ""bit"": ",IF(B467 &lt;&gt; 0, B467, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C467, Levels!B:B, 0), 1, 1)),", ",IF(A467 &lt;&gt; "", """mem"": bit" &amp; B467 &amp; "(" &amp; A467 &amp; "),", ""),"""good"": ",IF(A467 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A467 &lt;&gt; "", A467, -1),", ""bit"": ",IF(B467 &lt;&gt; "", B467, -1),"},")</f>
         <v>466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
         <v>12</v>
       </c>
       <c r="D468" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C468, Levels!B:B, 0), 1, 1)),", ",IF(A468 &lt;&gt; "", """mem"": bit" &amp; B468 &amp; "(" &amp; A468 &amp; "),", ""),"""good"": ",IF(A468 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A468 &lt;&gt; "", A468, -1),", ""bit"": ",IF(B468 &lt;&gt; 0, B468, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C468, Levels!B:B, 0), 1, 1)),", ",IF(A468 &lt;&gt; "", """mem"": bit" &amp; B468 &amp; "(" &amp; A468 &amp; "),", ""),"""good"": ",IF(A468 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A468 &lt;&gt; "", A468, -1),", ""bit"": ",IF(B468 &lt;&gt; "", B468, -1),"},")</f>
         <v>467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
         <v>12</v>
       </c>
       <c r="D469" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C469, Levels!B:B, 0), 1, 1)),", ",IF(A469 &lt;&gt; "", """mem"": bit" &amp; B469 &amp; "(" &amp; A469 &amp; "),", ""),"""good"": ",IF(A469 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A469 &lt;&gt; "", A469, -1),", ""bit"": ",IF(B469 &lt;&gt; 0, B469, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C469, Levels!B:B, 0), 1, 1)),", ",IF(A469 &lt;&gt; "", """mem"": bit" &amp; B469 &amp; "(" &amp; A469 &amp; "),", ""),"""good"": ",IF(A469 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A469 &lt;&gt; "", A469, -1),", ""bit"": ",IF(B469 &lt;&gt; "", B469, -1),"},")</f>
         <v>468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
         <v>12</v>
       </c>
       <c r="D470" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C470, Levels!B:B, 0), 1, 1)),", ",IF(A470 &lt;&gt; "", """mem"": bit" &amp; B470 &amp; "(" &amp; A470 &amp; "),", ""),"""good"": ",IF(A470 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A470 &lt;&gt; "", A470, -1),", ""bit"": ",IF(B470 &lt;&gt; 0, B470, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C470, Levels!B:B, 0), 1, 1)),", ",IF(A470 &lt;&gt; "", """mem"": bit" &amp; B470 &amp; "(" &amp; A470 &amp; "),", ""),"""good"": ",IF(A470 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A470 &lt;&gt; "", A470, -1),", ""bit"": ",IF(B470 &lt;&gt; "", B470, -1),"},")</f>
         <v>469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13291,7 +13291,7 @@
         <v>12</v>
       </c>
       <c r="D471" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C471, Levels!B:B, 0), 1, 1)),", ",IF(A471 &lt;&gt; "", """mem"": bit" &amp; B471 &amp; "(" &amp; A471 &amp; "),", ""),"""good"": ",IF(A471 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A471 &lt;&gt; "", A471, -1),", ""bit"": ",IF(B471 &lt;&gt; 0, B471, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C471, Levels!B:B, 0), 1, 1)),", ",IF(A471 &lt;&gt; "", """mem"": bit" &amp; B471 &amp; "(" &amp; A471 &amp; "),", ""),"""good"": ",IF(A471 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A471 &lt;&gt; "", A471, -1),", ""bit"": ",IF(B471 &lt;&gt; "", B471, -1),"},")</f>
         <v>470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13300,7 +13300,7 @@
         <v>12</v>
       </c>
       <c r="D472" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C472, Levels!B:B, 0), 1, 1)),", ",IF(A472 &lt;&gt; "", """mem"": bit" &amp; B472 &amp; "(" &amp; A472 &amp; "),", ""),"""good"": ",IF(A472 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A472 &lt;&gt; "", A472, -1),", ""bit"": ",IF(B472 &lt;&gt; 0, B472, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C472, Levels!B:B, 0), 1, 1)),", ",IF(A472 &lt;&gt; "", """mem"": bit" &amp; B472 &amp; "(" &amp; A472 &amp; "),", ""),"""good"": ",IF(A472 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A472 &lt;&gt; "", A472, -1),", ""bit"": ",IF(B472 &lt;&gt; "", B472, -1),"},")</f>
         <v>471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
         <v>12</v>
       </c>
       <c r="D473" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C473, Levels!B:B, 0), 1, 1)),", ",IF(A473 &lt;&gt; "", """mem"": bit" &amp; B473 &amp; "(" &amp; A473 &amp; "),", ""),"""good"": ",IF(A473 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A473 &lt;&gt; "", A473, -1),", ""bit"": ",IF(B473 &lt;&gt; 0, B473, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C473, Levels!B:B, 0), 1, 1)),", ",IF(A473 &lt;&gt; "", """mem"": bit" &amp; B473 &amp; "(" &amp; A473 &amp; "),", ""),"""good"": ",IF(A473 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A473 &lt;&gt; "", A473, -1),", ""bit"": ",IF(B473 &lt;&gt; "", B473, -1),"},")</f>
         <v>472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
         <v>12</v>
       </c>
       <c r="D474" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C474, Levels!B:B, 0), 1, 1)),", ",IF(A474 &lt;&gt; "", """mem"": bit" &amp; B474 &amp; "(" &amp; A474 &amp; "),", ""),"""good"": ",IF(A474 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A474 &lt;&gt; "", A474, -1),", ""bit"": ",IF(B474 &lt;&gt; 0, B474, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C474, Levels!B:B, 0), 1, 1)),", ",IF(A474 &lt;&gt; "", """mem"": bit" &amp; B474 &amp; "(" &amp; A474 &amp; "),", ""),"""good"": ",IF(A474 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A474 &lt;&gt; "", A474, -1),", ""bit"": ",IF(B474 &lt;&gt; "", B474, -1),"},")</f>
         <v>473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13327,7 +13327,7 @@
         <v>12</v>
       </c>
       <c r="D475" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C475, Levels!B:B, 0), 1, 1)),", ",IF(A475 &lt;&gt; "", """mem"": bit" &amp; B475 &amp; "(" &amp; A475 &amp; "),", ""),"""good"": ",IF(A475 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A475 &lt;&gt; "", A475, -1),", ""bit"": ",IF(B475 &lt;&gt; 0, B475, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C475, Levels!B:B, 0), 1, 1)),", ",IF(A475 &lt;&gt; "", """mem"": bit" &amp; B475 &amp; "(" &amp; A475 &amp; "),", ""),"""good"": ",IF(A475 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A475 &lt;&gt; "", A475, -1),", ""bit"": ",IF(B475 &lt;&gt; "", B475, -1),"},")</f>
         <v>474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13336,7 +13336,7 @@
         <v>12</v>
       </c>
       <c r="D476" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C476, Levels!B:B, 0), 1, 1)),", ",IF(A476 &lt;&gt; "", """mem"": bit" &amp; B476 &amp; "(" &amp; A476 &amp; "),", ""),"""good"": ",IF(A476 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A476 &lt;&gt; "", A476, -1),", ""bit"": ",IF(B476 &lt;&gt; 0, B476, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C476, Levels!B:B, 0), 1, 1)),", ",IF(A476 &lt;&gt; "", """mem"": bit" &amp; B476 &amp; "(" &amp; A476 &amp; "),", ""),"""good"": ",IF(A476 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A476 &lt;&gt; "", A476, -1),", ""bit"": ",IF(B476 &lt;&gt; "", B476, -1),"},")</f>
         <v>475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
         <v>12</v>
       </c>
       <c r="D477" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C477, Levels!B:B, 0), 1, 1)),", ",IF(A477 &lt;&gt; "", """mem"": bit" &amp; B477 &amp; "(" &amp; A477 &amp; "),", ""),"""good"": ",IF(A477 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A477 &lt;&gt; "", A477, -1),", ""bit"": ",IF(B477 &lt;&gt; 0, B477, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C477, Levels!B:B, 0), 1, 1)),", ",IF(A477 &lt;&gt; "", """mem"": bit" &amp; B477 &amp; "(" &amp; A477 &amp; "),", ""),"""good"": ",IF(A477 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A477 &lt;&gt; "", A477, -1),", ""bit"": ",IF(B477 &lt;&gt; "", B477, -1),"},")</f>
         <v>476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
         <v>12</v>
       </c>
       <c r="D478" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C478, Levels!B:B, 0), 1, 1)),", ",IF(A478 &lt;&gt; "", """mem"": bit" &amp; B478 &amp; "(" &amp; A478 &amp; "),", ""),"""good"": ",IF(A478 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A478 &lt;&gt; "", A478, -1),", ""bit"": ",IF(B478 &lt;&gt; 0, B478, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C478, Levels!B:B, 0), 1, 1)),", ",IF(A478 &lt;&gt; "", """mem"": bit" &amp; B478 &amp; "(" &amp; A478 &amp; "),", ""),"""good"": ",IF(A478 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A478 &lt;&gt; "", A478, -1),", ""bit"": ",IF(B478 &lt;&gt; "", B478, -1),"},")</f>
         <v>477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13363,7 +13363,7 @@
         <v>12</v>
       </c>
       <c r="D479" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C479, Levels!B:B, 0), 1, 1)),", ",IF(A479 &lt;&gt; "", """mem"": bit" &amp; B479 &amp; "(" &amp; A479 &amp; "),", ""),"""good"": ",IF(A479 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A479 &lt;&gt; "", A479, -1),", ""bit"": ",IF(B479 &lt;&gt; 0, B479, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C479, Levels!B:B, 0), 1, 1)),", ",IF(A479 &lt;&gt; "", """mem"": bit" &amp; B479 &amp; "(" &amp; A479 &amp; "),", ""),"""good"": ",IF(A479 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A479 &lt;&gt; "", A479, -1),", ""bit"": ",IF(B479 &lt;&gt; "", B479, -1),"},")</f>
         <v>478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13372,7 +13372,7 @@
         <v>12</v>
       </c>
       <c r="D480" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C480, Levels!B:B, 0), 1, 1)),", ",IF(A480 &lt;&gt; "", """mem"": bit" &amp; B480 &amp; "(" &amp; A480 &amp; "),", ""),"""good"": ",IF(A480 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A480 &lt;&gt; "", A480, -1),", ""bit"": ",IF(B480 &lt;&gt; 0, B480, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C480, Levels!B:B, 0), 1, 1)),", ",IF(A480 &lt;&gt; "", """mem"": bit" &amp; B480 &amp; "(" &amp; A480 &amp; "),", ""),"""good"": ",IF(A480 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A480 &lt;&gt; "", A480, -1),", ""bit"": ",IF(B480 &lt;&gt; "", B480, -1),"},")</f>
         <v>479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
         <v>12</v>
       </c>
       <c r="D481" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C481, Levels!B:B, 0), 1, 1)),", ",IF(A481 &lt;&gt; "", """mem"": bit" &amp; B481 &amp; "(" &amp; A481 &amp; "),", ""),"""good"": ",IF(A481 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A481 &lt;&gt; "", A481, -1),", ""bit"": ",IF(B481 &lt;&gt; 0, B481, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C481, Levels!B:B, 0), 1, 1)),", ",IF(A481 &lt;&gt; "", """mem"": bit" &amp; B481 &amp; "(" &amp; A481 &amp; "),", ""),"""good"": ",IF(A481 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A481 &lt;&gt; "", A481, -1),", ""bit"": ",IF(B481 &lt;&gt; "", B481, -1),"},")</f>
         <v>480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
         <v>12</v>
       </c>
       <c r="D482" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C482, Levels!B:B, 0), 1, 1)),", ",IF(A482 &lt;&gt; "", """mem"": bit" &amp; B482 &amp; "(" &amp; A482 &amp; "),", ""),"""good"": ",IF(A482 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A482 &lt;&gt; "", A482, -1),", ""bit"": ",IF(B482 &lt;&gt; 0, B482, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C482, Levels!B:B, 0), 1, 1)),", ",IF(A482 &lt;&gt; "", """mem"": bit" &amp; B482 &amp; "(" &amp; A482 &amp; "),", ""),"""good"": ",IF(A482 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A482 &lt;&gt; "", A482, -1),", ""bit"": ",IF(B482 &lt;&gt; "", B482, -1),"},")</f>
         <v>481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
         <v>12</v>
       </c>
       <c r="D483" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C483, Levels!B:B, 0), 1, 1)),", ",IF(A483 &lt;&gt; "", """mem"": bit" &amp; B483 &amp; "(" &amp; A483 &amp; "),", ""),"""good"": ",IF(A483 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A483 &lt;&gt; "", A483, -1),", ""bit"": ",IF(B483 &lt;&gt; 0, B483, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C483, Levels!B:B, 0), 1, 1)),", ",IF(A483 &lt;&gt; "", """mem"": bit" &amp; B483 &amp; "(" &amp; A483 &amp; "),", ""),"""good"": ",IF(A483 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A483 &lt;&gt; "", A483, -1),", ""bit"": ",IF(B483 &lt;&gt; "", B483, -1),"},")</f>
         <v>482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13408,7 +13408,7 @@
         <v>12</v>
       </c>
       <c r="D484" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C484, Levels!B:B, 0), 1, 1)),", ",IF(A484 &lt;&gt; "", """mem"": bit" &amp; B484 &amp; "(" &amp; A484 &amp; "),", ""),"""good"": ",IF(A484 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A484 &lt;&gt; "", A484, -1),", ""bit"": ",IF(B484 &lt;&gt; 0, B484, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C484, Levels!B:B, 0), 1, 1)),", ",IF(A484 &lt;&gt; "", """mem"": bit" &amp; B484 &amp; "(" &amp; A484 &amp; "),", ""),"""good"": ",IF(A484 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A484 &lt;&gt; "", A484, -1),", ""bit"": ",IF(B484 &lt;&gt; "", B484, -1),"},")</f>
         <v>483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
         <v>12</v>
       </c>
       <c r="D485" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C485, Levels!B:B, 0), 1, 1)),", ",IF(A485 &lt;&gt; "", """mem"": bit" &amp; B485 &amp; "(" &amp; A485 &amp; "),", ""),"""good"": ",IF(A485 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A485 &lt;&gt; "", A485, -1),", ""bit"": ",IF(B485 &lt;&gt; 0, B485, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C485, Levels!B:B, 0), 1, 1)),", ",IF(A485 &lt;&gt; "", """mem"": bit" &amp; B485 &amp; "(" &amp; A485 &amp; "),", ""),"""good"": ",IF(A485 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A485 &lt;&gt; "", A485, -1),", ""bit"": ",IF(B485 &lt;&gt; "", B485, -1),"},")</f>
         <v>484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13426,7 +13426,7 @@
         <v>12</v>
       </c>
       <c r="D486" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C486, Levels!B:B, 0), 1, 1)),", ",IF(A486 &lt;&gt; "", """mem"": bit" &amp; B486 &amp; "(" &amp; A486 &amp; "),", ""),"""good"": ",IF(A486 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A486 &lt;&gt; "", A486, -1),", ""bit"": ",IF(B486 &lt;&gt; 0, B486, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C486, Levels!B:B, 0), 1, 1)),", ",IF(A486 &lt;&gt; "", """mem"": bit" &amp; B486 &amp; "(" &amp; A486 &amp; "),", ""),"""good"": ",IF(A486 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A486 &lt;&gt; "", A486, -1),", ""bit"": ",IF(B486 &lt;&gt; "", B486, -1),"},")</f>
         <v>485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
         <v>12</v>
       </c>
       <c r="D487" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C487, Levels!B:B, 0), 1, 1)),", ",IF(A487 &lt;&gt; "", """mem"": bit" &amp; B487 &amp; "(" &amp; A487 &amp; "),", ""),"""good"": ",IF(A487 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A487 &lt;&gt; "", A487, -1),", ""bit"": ",IF(B487 &lt;&gt; 0, B487, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C487, Levels!B:B, 0), 1, 1)),", ",IF(A487 &lt;&gt; "", """mem"": bit" &amp; B487 &amp; "(" &amp; A487 &amp; "),", ""),"""good"": ",IF(A487 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A487 &lt;&gt; "", A487, -1),", ""bit"": ",IF(B487 &lt;&gt; "", B487, -1),"},")</f>
         <v>486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
         <v>12</v>
       </c>
       <c r="D488" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C488, Levels!B:B, 0), 1, 1)),", ",IF(A488 &lt;&gt; "", """mem"": bit" &amp; B488 &amp; "(" &amp; A488 &amp; "),", ""),"""good"": ",IF(A488 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A488 &lt;&gt; "", A488, -1),", ""bit"": ",IF(B488 &lt;&gt; 0, B488, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C488, Levels!B:B, 0), 1, 1)),", ",IF(A488 &lt;&gt; "", """mem"": bit" &amp; B488 &amp; "(" &amp; A488 &amp; "),", ""),"""good"": ",IF(A488 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A488 &lt;&gt; "", A488, -1),", ""bit"": ",IF(B488 &lt;&gt; "", B488, -1),"},")</f>
         <v>487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
         <v>12</v>
       </c>
       <c r="D489" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C489, Levels!B:B, 0), 1, 1)),", ",IF(A489 &lt;&gt; "", """mem"": bit" &amp; B489 &amp; "(" &amp; A489 &amp; "),", ""),"""good"": ",IF(A489 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A489 &lt;&gt; "", A489, -1),", ""bit"": ",IF(B489 &lt;&gt; 0, B489, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C489, Levels!B:B, 0), 1, 1)),", ",IF(A489 &lt;&gt; "", """mem"": bit" &amp; B489 &amp; "(" &amp; A489 &amp; "),", ""),"""good"": ",IF(A489 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A489 &lt;&gt; "", A489, -1),", ""bit"": ",IF(B489 &lt;&gt; "", B489, -1),"},")</f>
         <v>488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
         <v>12</v>
       </c>
       <c r="D490" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C490, Levels!B:B, 0), 1, 1)),", ",IF(A490 &lt;&gt; "", """mem"": bit" &amp; B490 &amp; "(" &amp; A490 &amp; "),", ""),"""good"": ",IF(A490 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A490 &lt;&gt; "", A490, -1),", ""bit"": ",IF(B490 &lt;&gt; 0, B490, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C490, Levels!B:B, 0), 1, 1)),", ",IF(A490 &lt;&gt; "", """mem"": bit" &amp; B490 &amp; "(" &amp; A490 &amp; "),", ""),"""good"": ",IF(A490 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A490 &lt;&gt; "", A490, -1),", ""bit"": ",IF(B490 &lt;&gt; "", B490, -1),"},")</f>
         <v>489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
         <v>12</v>
       </c>
       <c r="D491" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C491, Levels!B:B, 0), 1, 1)),", ",IF(A491 &lt;&gt; "", """mem"": bit" &amp; B491 &amp; "(" &amp; A491 &amp; "),", ""),"""good"": ",IF(A491 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A491 &lt;&gt; "", A491, -1),", ""bit"": ",IF(B491 &lt;&gt; 0, B491, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C491, Levels!B:B, 0), 1, 1)),", ",IF(A491 &lt;&gt; "", """mem"": bit" &amp; B491 &amp; "(" &amp; A491 &amp; "),", ""),"""good"": ",IF(A491 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A491 &lt;&gt; "", A491, -1),", ""bit"": ",IF(B491 &lt;&gt; "", B491, -1),"},")</f>
         <v>490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13480,7 +13480,7 @@
         <v>12</v>
       </c>
       <c r="D492" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C492, Levels!B:B, 0), 1, 1)),", ",IF(A492 &lt;&gt; "", """mem"": bit" &amp; B492 &amp; "(" &amp; A492 &amp; "),", ""),"""good"": ",IF(A492 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A492 &lt;&gt; "", A492, -1),", ""bit"": ",IF(B492 &lt;&gt; 0, B492, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C492, Levels!B:B, 0), 1, 1)),", ",IF(A492 &lt;&gt; "", """mem"": bit" &amp; B492 &amp; "(" &amp; A492 &amp; "),", ""),"""good"": ",IF(A492 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A492 &lt;&gt; "", A492, -1),", ""bit"": ",IF(B492 &lt;&gt; "", B492, -1),"},")</f>
         <v>491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13489,7 +13489,7 @@
         <v>12</v>
       </c>
       <c r="D493" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C493, Levels!B:B, 0), 1, 1)),", ",IF(A493 &lt;&gt; "", """mem"": bit" &amp; B493 &amp; "(" &amp; A493 &amp; "),", ""),"""good"": ",IF(A493 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A493 &lt;&gt; "", A493, -1),", ""bit"": ",IF(B493 &lt;&gt; 0, B493, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C493, Levels!B:B, 0), 1, 1)),", ",IF(A493 &lt;&gt; "", """mem"": bit" &amp; B493 &amp; "(" &amp; A493 &amp; "),", ""),"""good"": ",IF(A493 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A493 &lt;&gt; "", A493, -1),", ""bit"": ",IF(B493 &lt;&gt; "", B493, -1),"},")</f>
         <v>492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
         <v>12</v>
       </c>
       <c r="D494" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C494, Levels!B:B, 0), 1, 1)),", ",IF(A494 &lt;&gt; "", """mem"": bit" &amp; B494 &amp; "(" &amp; A494 &amp; "),", ""),"""good"": ",IF(A494 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A494 &lt;&gt; "", A494, -1),", ""bit"": ",IF(B494 &lt;&gt; 0, B494, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C494, Levels!B:B, 0), 1, 1)),", ",IF(A494 &lt;&gt; "", """mem"": bit" &amp; B494 &amp; "(" &amp; A494 &amp; "),", ""),"""good"": ",IF(A494 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A494 &lt;&gt; "", A494, -1),", ""bit"": ",IF(B494 &lt;&gt; "", B494, -1),"},")</f>
         <v>493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
         <v>12</v>
       </c>
       <c r="D495" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C495, Levels!B:B, 0), 1, 1)),", ",IF(A495 &lt;&gt; "", """mem"": bit" &amp; B495 &amp; "(" &amp; A495 &amp; "),", ""),"""good"": ",IF(A495 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A495 &lt;&gt; "", A495, -1),", ""bit"": ",IF(B495 &lt;&gt; 0, B495, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C495, Levels!B:B, 0), 1, 1)),", ",IF(A495 &lt;&gt; "", """mem"": bit" &amp; B495 &amp; "(" &amp; A495 &amp; "),", ""),"""good"": ",IF(A495 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A495 &lt;&gt; "", A495, -1),", ""bit"": ",IF(B495 &lt;&gt; "", B495, -1),"},")</f>
         <v>494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13516,7 +13516,7 @@
         <v>12</v>
       </c>
       <c r="D496" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C496, Levels!B:B, 0), 1, 1)),", ",IF(A496 &lt;&gt; "", """mem"": bit" &amp; B496 &amp; "(" &amp; A496 &amp; "),", ""),"""good"": ",IF(A496 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A496 &lt;&gt; "", A496, -1),", ""bit"": ",IF(B496 &lt;&gt; 0, B496, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C496, Levels!B:B, 0), 1, 1)),", ",IF(A496 &lt;&gt; "", """mem"": bit" &amp; B496 &amp; "(" &amp; A496 &amp; "),", ""),"""good"": ",IF(A496 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A496 &lt;&gt; "", A496, -1),", ""bit"": ",IF(B496 &lt;&gt; "", B496, -1),"},")</f>
         <v>495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
         <v>12</v>
       </c>
       <c r="D497" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C497, Levels!B:B, 0), 1, 1)),", ",IF(A497 &lt;&gt; "", """mem"": bit" &amp; B497 &amp; "(" &amp; A497 &amp; "),", ""),"""good"": ",IF(A497 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A497 &lt;&gt; "", A497, -1),", ""bit"": ",IF(B497 &lt;&gt; 0, B497, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C497, Levels!B:B, 0), 1, 1)),", ",IF(A497 &lt;&gt; "", """mem"": bit" &amp; B497 &amp; "(" &amp; A497 &amp; "),", ""),"""good"": ",IF(A497 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A497 &lt;&gt; "", A497, -1),", ""bit"": ",IF(B497 &lt;&gt; "", B497, -1),"},")</f>
         <v>496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13534,7 +13534,7 @@
         <v>12</v>
       </c>
       <c r="D498" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C498, Levels!B:B, 0), 1, 1)),", ",IF(A498 &lt;&gt; "", """mem"": bit" &amp; B498 &amp; "(" &amp; A498 &amp; "),", ""),"""good"": ",IF(A498 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A498 &lt;&gt; "", A498, -1),", ""bit"": ",IF(B498 &lt;&gt; 0, B498, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C498, Levels!B:B, 0), 1, 1)),", ",IF(A498 &lt;&gt; "", """mem"": bit" &amp; B498 &amp; "(" &amp; A498 &amp; "),", ""),"""good"": ",IF(A498 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A498 &lt;&gt; "", A498, -1),", ""bit"": ",IF(B498 &lt;&gt; "", B498, -1),"},")</f>
         <v>497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
         <v>12</v>
       </c>
       <c r="D499" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C499, Levels!B:B, 0), 1, 1)),", ",IF(A499 &lt;&gt; "", """mem"": bit" &amp; B499 &amp; "(" &amp; A499 &amp; "),", ""),"""good"": ",IF(A499 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A499 &lt;&gt; "", A499, -1),", ""bit"": ",IF(B499 &lt;&gt; 0, B499, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C499, Levels!B:B, 0), 1, 1)),", ",IF(A499 &lt;&gt; "", """mem"": bit" &amp; B499 &amp; "(" &amp; A499 &amp; "),", ""),"""good"": ",IF(A499 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A499 &lt;&gt; "", A499, -1),", ""bit"": ",IF(B499 &lt;&gt; "", B499, -1),"},")</f>
         <v>498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13552,7 +13552,7 @@
         <v>12</v>
       </c>
       <c r="D500" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C500, Levels!B:B, 0), 1, 1)),", ",IF(A500 &lt;&gt; "", """mem"": bit" &amp; B500 &amp; "(" &amp; A500 &amp; "),", ""),"""good"": ",IF(A500 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A500 &lt;&gt; "", A500, -1),", ""bit"": ",IF(B500 &lt;&gt; 0, B500, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C500, Levels!B:B, 0), 1, 1)),", ",IF(A500 &lt;&gt; "", """mem"": bit" &amp; B500 &amp; "(" &amp; A500 &amp; "),", ""),"""good"": ",IF(A500 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A500 &lt;&gt; "", A500, -1),", ""bit"": ",IF(B500 &lt;&gt; "", B500, -1),"},")</f>
         <v>499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13561,7 +13561,7 @@
         <v>12</v>
       </c>
       <c r="D501" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C501, Levels!B:B, 0), 1, 1)),", ",IF(A501 &lt;&gt; "", """mem"": bit" &amp; B501 &amp; "(" &amp; A501 &amp; "),", ""),"""good"": ",IF(A501 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A501 &lt;&gt; "", A501, -1),", ""bit"": ",IF(B501 &lt;&gt; 0, B501, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C501, Levels!B:B, 0), 1, 1)),", ",IF(A501 &lt;&gt; "", """mem"": bit" &amp; B501 &amp; "(" &amp; A501 &amp; "),", ""),"""good"": ",IF(A501 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A501 &lt;&gt; "", A501, -1),", ""bit"": ",IF(B501 &lt;&gt; "", B501, -1),"},")</f>
         <v>500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13570,7 +13570,7 @@
         <v>12</v>
       </c>
       <c r="D502" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C502, Levels!B:B, 0), 1, 1)),", ",IF(A502 &lt;&gt; "", """mem"": bit" &amp; B502 &amp; "(" &amp; A502 &amp; "),", ""),"""good"": ",IF(A502 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A502 &lt;&gt; "", A502, -1),", ""bit"": ",IF(B502 &lt;&gt; 0, B502, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C502, Levels!B:B, 0), 1, 1)),", ",IF(A502 &lt;&gt; "", """mem"": bit" &amp; B502 &amp; "(" &amp; A502 &amp; "),", ""),"""good"": ",IF(A502 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A502 &lt;&gt; "", A502, -1),", ""bit"": ",IF(B502 &lt;&gt; "", B502, -1),"},")</f>
         <v>501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13579,7 +13579,7 @@
         <v>12</v>
       </c>
       <c r="D503" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C503, Levels!B:B, 0), 1, 1)),", ",IF(A503 &lt;&gt; "", """mem"": bit" &amp; B503 &amp; "(" &amp; A503 &amp; "),", ""),"""good"": ",IF(A503 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A503 &lt;&gt; "", A503, -1),", ""bit"": ",IF(B503 &lt;&gt; 0, B503, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C503, Levels!B:B, 0), 1, 1)),", ",IF(A503 &lt;&gt; "", """mem"": bit" &amp; B503 &amp; "(" &amp; A503 &amp; "),", ""),"""good"": ",IF(A503 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A503 &lt;&gt; "", A503, -1),", ""bit"": ",IF(B503 &lt;&gt; "", B503, -1),"},")</f>
         <v>502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
         <v>12</v>
       </c>
       <c r="D504" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C504, Levels!B:B, 0), 1, 1)),", ",IF(A504 &lt;&gt; "", """mem"": bit" &amp; B504 &amp; "(" &amp; A504 &amp; "),", ""),"""good"": ",IF(A504 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A504 &lt;&gt; "", A504, -1),", ""bit"": ",IF(B504 &lt;&gt; 0, B504, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C504, Levels!B:B, 0), 1, 1)),", ",IF(A504 &lt;&gt; "", """mem"": bit" &amp; B504 &amp; "(" &amp; A504 &amp; "),", ""),"""good"": ",IF(A504 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A504 &lt;&gt; "", A504, -1),", ""bit"": ",IF(B504 &lt;&gt; "", B504, -1),"},")</f>
         <v>503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
         <v>12</v>
       </c>
       <c r="D505" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C505, Levels!B:B, 0), 1, 1)),", ",IF(A505 &lt;&gt; "", """mem"": bit" &amp; B505 &amp; "(" &amp; A505 &amp; "),", ""),"""good"": ",IF(A505 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A505 &lt;&gt; "", A505, -1),", ""bit"": ",IF(B505 &lt;&gt; 0, B505, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C505, Levels!B:B, 0), 1, 1)),", ",IF(A505 &lt;&gt; "", """mem"": bit" &amp; B505 &amp; "(" &amp; A505 &amp; "),", ""),"""good"": ",IF(A505 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A505 &lt;&gt; "", A505, -1),", ""bit"": ",IF(B505 &lt;&gt; "", B505, -1),"},")</f>
         <v>504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
         <v>12</v>
       </c>
       <c r="D506" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C506, Levels!B:B, 0), 1, 1)),", ",IF(A506 &lt;&gt; "", """mem"": bit" &amp; B506 &amp; "(" &amp; A506 &amp; "),", ""),"""good"": ",IF(A506 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A506 &lt;&gt; "", A506, -1),", ""bit"": ",IF(B506 &lt;&gt; 0, B506, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C506, Levels!B:B, 0), 1, 1)),", ",IF(A506 &lt;&gt; "", """mem"": bit" &amp; B506 &amp; "(" &amp; A506 &amp; "),", ""),"""good"": ",IF(A506 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A506 &lt;&gt; "", A506, -1),", ""bit"": ",IF(B506 &lt;&gt; "", B506, -1),"},")</f>
         <v>505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13615,7 +13615,7 @@
         <v>12</v>
       </c>
       <c r="D507" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C507, Levels!B:B, 0), 1, 1)),", ",IF(A507 &lt;&gt; "", """mem"": bit" &amp; B507 &amp; "(" &amp; A507 &amp; "),", ""),"""good"": ",IF(A507 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A507 &lt;&gt; "", A507, -1),", ""bit"": ",IF(B507 &lt;&gt; 0, B507, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C507, Levels!B:B, 0), 1, 1)),", ",IF(A507 &lt;&gt; "", """mem"": bit" &amp; B507 &amp; "(" &amp; A507 &amp; "),", ""),"""good"": ",IF(A507 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A507 &lt;&gt; "", A507, -1),", ""bit"": ",IF(B507 &lt;&gt; "", B507, -1),"},")</f>
         <v>506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13624,7 +13624,7 @@
         <v>12</v>
       </c>
       <c r="D508" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C508, Levels!B:B, 0), 1, 1)),", ",IF(A508 &lt;&gt; "", """mem"": bit" &amp; B508 &amp; "(" &amp; A508 &amp; "),", ""),"""good"": ",IF(A508 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A508 &lt;&gt; "", A508, -1),", ""bit"": ",IF(B508 &lt;&gt; 0, B508, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C508, Levels!B:B, 0), 1, 1)),", ",IF(A508 &lt;&gt; "", """mem"": bit" &amp; B508 &amp; "(" &amp; A508 &amp; "),", ""),"""good"": ",IF(A508 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A508 &lt;&gt; "", A508, -1),", ""bit"": ",IF(B508 &lt;&gt; "", B508, -1),"},")</f>
         <v>507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
         <v>12</v>
       </c>
       <c r="D509" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C509, Levels!B:B, 0), 1, 1)),", ",IF(A509 &lt;&gt; "", """mem"": bit" &amp; B509 &amp; "(" &amp; A509 &amp; "),", ""),"""good"": ",IF(A509 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A509 &lt;&gt; "", A509, -1),", ""bit"": ",IF(B509 &lt;&gt; 0, B509, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C509, Levels!B:B, 0), 1, 1)),", ",IF(A509 &lt;&gt; "", """mem"": bit" &amp; B509 &amp; "(" &amp; A509 &amp; "),", ""),"""good"": ",IF(A509 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A509 &lt;&gt; "", A509, -1),", ""bit"": ",IF(B509 &lt;&gt; "", B509, -1),"},")</f>
         <v>508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
         <v>12</v>
       </c>
       <c r="D510" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C510, Levels!B:B, 0), 1, 1)),", ",IF(A510 &lt;&gt; "", """mem"": bit" &amp; B510 &amp; "(" &amp; A510 &amp; "),", ""),"""good"": ",IF(A510 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A510 &lt;&gt; "", A510, -1),", ""bit"": ",IF(B510 &lt;&gt; 0, B510, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C510, Levels!B:B, 0), 1, 1)),", ",IF(A510 &lt;&gt; "", """mem"": bit" &amp; B510 &amp; "(" &amp; A510 &amp; "),", ""),"""good"": ",IF(A510 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A510 &lt;&gt; "", A510, -1),", ""bit"": ",IF(B510 &lt;&gt; "", B510, -1),"},")</f>
         <v>509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13651,7 +13651,7 @@
         <v>12</v>
       </c>
       <c r="D511" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C511, Levels!B:B, 0), 1, 1)),", ",IF(A511 &lt;&gt; "", """mem"": bit" &amp; B511 &amp; "(" &amp; A511 &amp; "),", ""),"""good"": ",IF(A511 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A511 &lt;&gt; "", A511, -1),", ""bit"": ",IF(B511 &lt;&gt; 0, B511, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C511, Levels!B:B, 0), 1, 1)),", ",IF(A511 &lt;&gt; "", """mem"": bit" &amp; B511 &amp; "(" &amp; A511 &amp; "),", ""),"""good"": ",IF(A511 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A511 &lt;&gt; "", A511, -1),", ""bit"": ",IF(B511 &lt;&gt; "", B511, -1),"},")</f>
         <v>510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13660,7 +13660,7 @@
         <v>12</v>
       </c>
       <c r="D512" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C512, Levels!B:B, 0), 1, 1)),", ",IF(A512 &lt;&gt; "", """mem"": bit" &amp; B512 &amp; "(" &amp; A512 &amp; "),", ""),"""good"": ",IF(A512 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A512 &lt;&gt; "", A512, -1),", ""bit"": ",IF(B512 &lt;&gt; 0, B512, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C512, Levels!B:B, 0), 1, 1)),", ",IF(A512 &lt;&gt; "", """mem"": bit" &amp; B512 &amp; "(" &amp; A512 &amp; "),", ""),"""good"": ",IF(A512 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A512 &lt;&gt; "", A512, -1),", ""bit"": ",IF(B512 &lt;&gt; "", B512, -1),"},")</f>
         <v>511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13669,7 +13669,7 @@
         <v>12</v>
       </c>
       <c r="D513" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C513, Levels!B:B, 0), 1, 1)),", ",IF(A513 &lt;&gt; "", """mem"": bit" &amp; B513 &amp; "(" &amp; A513 &amp; "),", ""),"""good"": ",IF(A513 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A513 &lt;&gt; "", A513, -1),", ""bit"": ",IF(B513 &lt;&gt; 0, B513, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C513, Levels!B:B, 0), 1, 1)),", ",IF(A513 &lt;&gt; "", """mem"": bit" &amp; B513 &amp; "(" &amp; A513 &amp; "),", ""),"""good"": ",IF(A513 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A513 &lt;&gt; "", A513, -1),", ""bit"": ",IF(B513 &lt;&gt; "", B513, -1),"},")</f>
         <v>512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
         <v>12</v>
       </c>
       <c r="D514" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C514, Levels!B:B, 0), 1, 1)),", ",IF(A514 &lt;&gt; "", """mem"": bit" &amp; B514 &amp; "(" &amp; A514 &amp; "),", ""),"""good"": ",IF(A514 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A514 &lt;&gt; "", A514, -1),", ""bit"": ",IF(B514 &lt;&gt; 0, B514, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C514, Levels!B:B, 0), 1, 1)),", ",IF(A514 &lt;&gt; "", """mem"": bit" &amp; B514 &amp; "(" &amp; A514 &amp; "),", ""),"""good"": ",IF(A514 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A514 &lt;&gt; "", A514, -1),", ""bit"": ",IF(B514 &lt;&gt; "", B514, -1),"},")</f>
         <v>513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
         <v>12</v>
       </c>
       <c r="D515" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C515, Levels!B:B, 0), 1, 1)),", ",IF(A515 &lt;&gt; "", """mem"": bit" &amp; B515 &amp; "(" &amp; A515 &amp; "),", ""),"""good"": ",IF(A515 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A515 &lt;&gt; "", A515, -1),", ""bit"": ",IF(B515 &lt;&gt; 0, B515, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C515, Levels!B:B, 0), 1, 1)),", ",IF(A515 &lt;&gt; "", """mem"": bit" &amp; B515 &amp; "(" &amp; A515 &amp; "),", ""),"""good"": ",IF(A515 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A515 &lt;&gt; "", A515, -1),", ""bit"": ",IF(B515 &lt;&gt; "", B515, -1),"},")</f>
         <v>514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
         <v>12</v>
       </c>
       <c r="D516" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C516, Levels!B:B, 0), 1, 1)),", ",IF(A516 &lt;&gt; "", """mem"": bit" &amp; B516 &amp; "(" &amp; A516 &amp; "),", ""),"""good"": ",IF(A516 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A516 &lt;&gt; "", A516, -1),", ""bit"": ",IF(B516 &lt;&gt; 0, B516, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C516, Levels!B:B, 0), 1, 1)),", ",IF(A516 &lt;&gt; "", """mem"": bit" &amp; B516 &amp; "(" &amp; A516 &amp; "),", ""),"""good"": ",IF(A516 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A516 &lt;&gt; "", A516, -1),", ""bit"": ",IF(B516 &lt;&gt; "", B516, -1),"},")</f>
         <v>515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13705,7 +13705,7 @@
         <v>12</v>
       </c>
       <c r="D517" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C517, Levels!B:B, 0), 1, 1)),", ",IF(A517 &lt;&gt; "", """mem"": bit" &amp; B517 &amp; "(" &amp; A517 &amp; "),", ""),"""good"": ",IF(A517 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A517 &lt;&gt; "", A517, -1),", ""bit"": ",IF(B517 &lt;&gt; 0, B517, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C517, Levels!B:B, 0), 1, 1)),", ",IF(A517 &lt;&gt; "", """mem"": bit" &amp; B517 &amp; "(" &amp; A517 &amp; "),", ""),"""good"": ",IF(A517 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A517 &lt;&gt; "", A517, -1),", ""bit"": ",IF(B517 &lt;&gt; "", B517, -1),"},")</f>
         <v>516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13714,7 +13714,7 @@
         <v>12</v>
       </c>
       <c r="D518" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C518, Levels!B:B, 0), 1, 1)),", ",IF(A518 &lt;&gt; "", """mem"": bit" &amp; B518 &amp; "(" &amp; A518 &amp; "),", ""),"""good"": ",IF(A518 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A518 &lt;&gt; "", A518, -1),", ""bit"": ",IF(B518 &lt;&gt; 0, B518, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C518, Levels!B:B, 0), 1, 1)),", ",IF(A518 &lt;&gt; "", """mem"": bit" &amp; B518 &amp; "(" &amp; A518 &amp; "),", ""),"""good"": ",IF(A518 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A518 &lt;&gt; "", A518, -1),", ""bit"": ",IF(B518 &lt;&gt; "", B518, -1),"},")</f>
         <v>517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13723,7 +13723,7 @@
         <v>12</v>
       </c>
       <c r="D519" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C519, Levels!B:B, 0), 1, 1)),", ",IF(A519 &lt;&gt; "", """mem"": bit" &amp; B519 &amp; "(" &amp; A519 &amp; "),", ""),"""good"": ",IF(A519 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A519 &lt;&gt; "", A519, -1),", ""bit"": ",IF(B519 &lt;&gt; 0, B519, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C519, Levels!B:B, 0), 1, 1)),", ",IF(A519 &lt;&gt; "", """mem"": bit" &amp; B519 &amp; "(" &amp; A519 &amp; "),", ""),"""good"": ",IF(A519 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A519 &lt;&gt; "", A519, -1),", ""bit"": ",IF(B519 &lt;&gt; "", B519, -1),"},")</f>
         <v>518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
         <v>12</v>
       </c>
       <c r="D520" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C520, Levels!B:B, 0), 1, 1)),", ",IF(A520 &lt;&gt; "", """mem"": bit" &amp; B520 &amp; "(" &amp; A520 &amp; "),", ""),"""good"": ",IF(A520 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A520 &lt;&gt; "", A520, -1),", ""bit"": ",IF(B520 &lt;&gt; 0, B520, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C520, Levels!B:B, 0), 1, 1)),", ",IF(A520 &lt;&gt; "", """mem"": bit" &amp; B520 &amp; "(" &amp; A520 &amp; "),", ""),"""good"": ",IF(A520 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A520 &lt;&gt; "", A520, -1),", ""bit"": ",IF(B520 &lt;&gt; "", B520, -1),"},")</f>
         <v>519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13741,7 +13741,7 @@
         <v>12</v>
       </c>
       <c r="D521" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C521, Levels!B:B, 0), 1, 1)),", ",IF(A521 &lt;&gt; "", """mem"": bit" &amp; B521 &amp; "(" &amp; A521 &amp; "),", ""),"""good"": ",IF(A521 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A521 &lt;&gt; "", A521, -1),", ""bit"": ",IF(B521 &lt;&gt; 0, B521, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C521, Levels!B:B, 0), 1, 1)),", ",IF(A521 &lt;&gt; "", """mem"": bit" &amp; B521 &amp; "(" &amp; A521 &amp; "),", ""),"""good"": ",IF(A521 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A521 &lt;&gt; "", A521, -1),", ""bit"": ",IF(B521 &lt;&gt; "", B521, -1),"},")</f>
         <v>520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13750,7 +13750,7 @@
         <v>12</v>
       </c>
       <c r="D522" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C522, Levels!B:B, 0), 1, 1)),", ",IF(A522 &lt;&gt; "", """mem"": bit" &amp; B522 &amp; "(" &amp; A522 &amp; "),", ""),"""good"": ",IF(A522 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A522 &lt;&gt; "", A522, -1),", ""bit"": ",IF(B522 &lt;&gt; 0, B522, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C522, Levels!B:B, 0), 1, 1)),", ",IF(A522 &lt;&gt; "", """mem"": bit" &amp; B522 &amp; "(" &amp; A522 &amp; "),", ""),"""good"": ",IF(A522 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A522 &lt;&gt; "", A522, -1),", ""bit"": ",IF(B522 &lt;&gt; "", B522, -1),"},")</f>
         <v>521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13759,7 +13759,7 @@
         <v>12</v>
       </c>
       <c r="D523" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C523, Levels!B:B, 0), 1, 1)),", ",IF(A523 &lt;&gt; "", """mem"": bit" &amp; B523 &amp; "(" &amp; A523 &amp; "),", ""),"""good"": ",IF(A523 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A523 &lt;&gt; "", A523, -1),", ""bit"": ",IF(B523 &lt;&gt; 0, B523, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C523, Levels!B:B, 0), 1, 1)),", ",IF(A523 &lt;&gt; "", """mem"": bit" &amp; B523 &amp; "(" &amp; A523 &amp; "),", ""),"""good"": ",IF(A523 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A523 &lt;&gt; "", A523, -1),", ""bit"": ",IF(B523 &lt;&gt; "", B523, -1),"},")</f>
         <v>522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13768,7 +13768,7 @@
         <v>12</v>
       </c>
       <c r="D524" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C524, Levels!B:B, 0), 1, 1)),", ",IF(A524 &lt;&gt; "", """mem"": bit" &amp; B524 &amp; "(" &amp; A524 &amp; "),", ""),"""good"": ",IF(A524 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A524 &lt;&gt; "", A524, -1),", ""bit"": ",IF(B524 &lt;&gt; 0, B524, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C524, Levels!B:B, 0), 1, 1)),", ",IF(A524 &lt;&gt; "", """mem"": bit" &amp; B524 &amp; "(" &amp; A524 &amp; "),", ""),"""good"": ",IF(A524 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A524 &lt;&gt; "", A524, -1),", ""bit"": ",IF(B524 &lt;&gt; "", B524, -1),"},")</f>
         <v>523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
         <v>12</v>
       </c>
       <c r="D525" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C525, Levels!B:B, 0), 1, 1)),", ",IF(A525 &lt;&gt; "", """mem"": bit" &amp; B525 &amp; "(" &amp; A525 &amp; "),", ""),"""good"": ",IF(A525 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A525 &lt;&gt; "", A525, -1),", ""bit"": ",IF(B525 &lt;&gt; 0, B525, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C525, Levels!B:B, 0), 1, 1)),", ",IF(A525 &lt;&gt; "", """mem"": bit" &amp; B525 &amp; "(" &amp; A525 &amp; "),", ""),"""good"": ",IF(A525 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A525 &lt;&gt; "", A525, -1),", ""bit"": ",IF(B525 &lt;&gt; "", B525, -1),"},")</f>
         <v>524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
         <v>12</v>
       </c>
       <c r="D526" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C526, Levels!B:B, 0), 1, 1)),", ",IF(A526 &lt;&gt; "", """mem"": bit" &amp; B526 &amp; "(" &amp; A526 &amp; "),", ""),"""good"": ",IF(A526 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A526 &lt;&gt; "", A526, -1),", ""bit"": ",IF(B526 &lt;&gt; 0, B526, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C526, Levels!B:B, 0), 1, 1)),", ",IF(A526 &lt;&gt; "", """mem"": bit" &amp; B526 &amp; "(" &amp; A526 &amp; "),", ""),"""good"": ",IF(A526 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A526 &lt;&gt; "", A526, -1),", ""bit"": ",IF(B526 &lt;&gt; "", B526, -1),"},")</f>
         <v>525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
         <v>12</v>
       </c>
       <c r="D527" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C527, Levels!B:B, 0), 1, 1)),", ",IF(A527 &lt;&gt; "", """mem"": bit" &amp; B527 &amp; "(" &amp; A527 &amp; "),", ""),"""good"": ",IF(A527 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A527 &lt;&gt; "", A527, -1),", ""bit"": ",IF(B527 &lt;&gt; 0, B527, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C527, Levels!B:B, 0), 1, 1)),", ",IF(A527 &lt;&gt; "", """mem"": bit" &amp; B527 &amp; "(" &amp; A527 &amp; "),", ""),"""good"": ",IF(A527 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A527 &lt;&gt; "", A527, -1),", ""bit"": ",IF(B527 &lt;&gt; "", B527, -1),"},")</f>
         <v>526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C528, Levels!B:B, 0), 1, 1)),", ",IF(A528 &lt;&gt; "", """mem"": bit" &amp; B528 &amp; "(" &amp; A528 &amp; "),", ""),"""good"": ",IF(A528 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A528 &lt;&gt; "", A528, -1),", ""bit"": ",IF(B528 &lt;&gt; 0, B528, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C528, Levels!B:B, 0), 1, 1)),", ",IF(A528 &lt;&gt; "", """mem"": bit" &amp; B528 &amp; "(" &amp; A528 &amp; "),", ""),"""good"": ",IF(A528 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A528 &lt;&gt; "", A528, -1),", ""bit"": ",IF(B528 &lt;&gt; "", B528, -1),"},")</f>
         <v>527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
         <v>12</v>
       </c>
       <c r="D529" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C529, Levels!B:B, 0), 1, 1)),", ",IF(A529 &lt;&gt; "", """mem"": bit" &amp; B529 &amp; "(" &amp; A529 &amp; "),", ""),"""good"": ",IF(A529 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A529 &lt;&gt; "", A529, -1),", ""bit"": ",IF(B529 &lt;&gt; 0, B529, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C529, Levels!B:B, 0), 1, 1)),", ",IF(A529 &lt;&gt; "", """mem"": bit" &amp; B529 &amp; "(" &amp; A529 &amp; "),", ""),"""good"": ",IF(A529 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A529 &lt;&gt; "", A529, -1),", ""bit"": ",IF(B529 &lt;&gt; "", B529, -1),"},")</f>
         <v>528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13822,7 +13822,7 @@
         <v>12</v>
       </c>
       <c r="D530" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C530, Levels!B:B, 0), 1, 1)),", ",IF(A530 &lt;&gt; "", """mem"": bit" &amp; B530 &amp; "(" &amp; A530 &amp; "),", ""),"""good"": ",IF(A530 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A530 &lt;&gt; "", A530, -1),", ""bit"": ",IF(B530 &lt;&gt; 0, B530, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C530, Levels!B:B, 0), 1, 1)),", ",IF(A530 &lt;&gt; "", """mem"": bit" &amp; B530 &amp; "(" &amp; A530 &amp; "),", ""),"""good"": ",IF(A530 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A530 &lt;&gt; "", A530, -1),", ""bit"": ",IF(B530 &lt;&gt; "", B530, -1),"},")</f>
         <v>529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
         <v>12</v>
       </c>
       <c r="D531" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C531, Levels!B:B, 0), 1, 1)),", ",IF(A531 &lt;&gt; "", """mem"": bit" &amp; B531 &amp; "(" &amp; A531 &amp; "),", ""),"""good"": ",IF(A531 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A531 &lt;&gt; "", A531, -1),", ""bit"": ",IF(B531 &lt;&gt; 0, B531, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C531, Levels!B:B, 0), 1, 1)),", ",IF(A531 &lt;&gt; "", """mem"": bit" &amp; B531 &amp; "(" &amp; A531 &amp; "),", ""),"""good"": ",IF(A531 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A531 &lt;&gt; "", A531, -1),", ""bit"": ",IF(B531 &lt;&gt; "", B531, -1),"},")</f>
         <v>530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13840,7 +13840,7 @@
         <v>12</v>
       </c>
       <c r="D532" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C532, Levels!B:B, 0), 1, 1)),", ",IF(A532 &lt;&gt; "", """mem"": bit" &amp; B532 &amp; "(" &amp; A532 &amp; "),", ""),"""good"": ",IF(A532 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A532 &lt;&gt; "", A532, -1),", ""bit"": ",IF(B532 &lt;&gt; 0, B532, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C532, Levels!B:B, 0), 1, 1)),", ",IF(A532 &lt;&gt; "", """mem"": bit" &amp; B532 &amp; "(" &amp; A532 &amp; "),", ""),"""good"": ",IF(A532 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A532 &lt;&gt; "", A532, -1),", ""bit"": ",IF(B532 &lt;&gt; "", B532, -1),"},")</f>
         <v>531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
         <v>12</v>
       </c>
       <c r="D533" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C533, Levels!B:B, 0), 1, 1)),", ",IF(A533 &lt;&gt; "", """mem"": bit" &amp; B533 &amp; "(" &amp; A533 &amp; "),", ""),"""good"": ",IF(A533 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A533 &lt;&gt; "", A533, -1),", ""bit"": ",IF(B533 &lt;&gt; 0, B533, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C533, Levels!B:B, 0), 1, 1)),", ",IF(A533 &lt;&gt; "", """mem"": bit" &amp; B533 &amp; "(" &amp; A533 &amp; "),", ""),"""good"": ",IF(A533 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A533 &lt;&gt; "", A533, -1),", ""bit"": ",IF(B533 &lt;&gt; "", B533, -1),"},")</f>
         <v>532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
         <v>12</v>
       </c>
       <c r="D534" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C534, Levels!B:B, 0), 1, 1)),", ",IF(A534 &lt;&gt; "", """mem"": bit" &amp; B534 &amp; "(" &amp; A534 &amp; "),", ""),"""good"": ",IF(A534 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A534 &lt;&gt; "", A534, -1),", ""bit"": ",IF(B534 &lt;&gt; 0, B534, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C534, Levels!B:B, 0), 1, 1)),", ",IF(A534 &lt;&gt; "", """mem"": bit" &amp; B534 &amp; "(" &amp; A534 &amp; "),", ""),"""good"": ",IF(A534 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A534 &lt;&gt; "", A534, -1),", ""bit"": ",IF(B534 &lt;&gt; "", B534, -1),"},")</f>
         <v>533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13867,7 +13867,7 @@
         <v>12</v>
       </c>
       <c r="D535" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C535, Levels!B:B, 0), 1, 1)),", ",IF(A535 &lt;&gt; "", """mem"": bit" &amp; B535 &amp; "(" &amp; A535 &amp; "),", ""),"""good"": ",IF(A535 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A535 &lt;&gt; "", A535, -1),", ""bit"": ",IF(B535 &lt;&gt; 0, B535, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C535, Levels!B:B, 0), 1, 1)),", ",IF(A535 &lt;&gt; "", """mem"": bit" &amp; B535 &amp; "(" &amp; A535 &amp; "),", ""),"""good"": ",IF(A535 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A535 &lt;&gt; "", A535, -1),", ""bit"": ",IF(B535 &lt;&gt; "", B535, -1),"},")</f>
         <v>534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
         <v>12</v>
       </c>
       <c r="D536" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C536, Levels!B:B, 0), 1, 1)),", ",IF(A536 &lt;&gt; "", """mem"": bit" &amp; B536 &amp; "(" &amp; A536 &amp; "),", ""),"""good"": ",IF(A536 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A536 &lt;&gt; "", A536, -1),", ""bit"": ",IF(B536 &lt;&gt; 0, B536, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C536, Levels!B:B, 0), 1, 1)),", ",IF(A536 &lt;&gt; "", """mem"": bit" &amp; B536 &amp; "(" &amp; A536 &amp; "),", ""),"""good"": ",IF(A536 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A536 &lt;&gt; "", A536, -1),", ""bit"": ",IF(B536 &lt;&gt; "", B536, -1),"},")</f>
         <v>535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
         <v>12</v>
       </c>
       <c r="D537" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C537, Levels!B:B, 0), 1, 1)),", ",IF(A537 &lt;&gt; "", """mem"": bit" &amp; B537 &amp; "(" &amp; A537 &amp; "),", ""),"""good"": ",IF(A537 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A537 &lt;&gt; "", A537, -1),", ""bit"": ",IF(B537 &lt;&gt; 0, B537, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C537, Levels!B:B, 0), 1, 1)),", ",IF(A537 &lt;&gt; "", """mem"": bit" &amp; B537 &amp; "(" &amp; A537 &amp; "),", ""),"""good"": ",IF(A537 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A537 &lt;&gt; "", A537, -1),", ""bit"": ",IF(B537 &lt;&gt; "", B537, -1),"},")</f>
         <v>536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
         <v>12</v>
       </c>
       <c r="D538" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C538, Levels!B:B, 0), 1, 1)),", ",IF(A538 &lt;&gt; "", """mem"": bit" &amp; B538 &amp; "(" &amp; A538 &amp; "),", ""),"""good"": ",IF(A538 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A538 &lt;&gt; "", A538, -1),", ""bit"": ",IF(B538 &lt;&gt; 0, B538, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C538, Levels!B:B, 0), 1, 1)),", ",IF(A538 &lt;&gt; "", """mem"": bit" &amp; B538 &amp; "(" &amp; A538 &amp; "),", ""),"""good"": ",IF(A538 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A538 &lt;&gt; "", A538, -1),", ""bit"": ",IF(B538 &lt;&gt; "", B538, -1),"},")</f>
         <v>537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13903,7 +13903,7 @@
         <v>12</v>
       </c>
       <c r="D539" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C539, Levels!B:B, 0), 1, 1)),", ",IF(A539 &lt;&gt; "", """mem"": bit" &amp; B539 &amp; "(" &amp; A539 &amp; "),", ""),"""good"": ",IF(A539 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A539 &lt;&gt; "", A539, -1),", ""bit"": ",IF(B539 &lt;&gt; 0, B539, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C539, Levels!B:B, 0), 1, 1)),", ",IF(A539 &lt;&gt; "", """mem"": bit" &amp; B539 &amp; "(" &amp; A539 &amp; "),", ""),"""good"": ",IF(A539 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A539 &lt;&gt; "", A539, -1),", ""bit"": ",IF(B539 &lt;&gt; "", B539, -1),"},")</f>
         <v>538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13912,7 +13912,7 @@
         <v>12</v>
       </c>
       <c r="D540" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C540, Levels!B:B, 0), 1, 1)),", ",IF(A540 &lt;&gt; "", """mem"": bit" &amp; B540 &amp; "(" &amp; A540 &amp; "),", ""),"""good"": ",IF(A540 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A540 &lt;&gt; "", A540, -1),", ""bit"": ",IF(B540 &lt;&gt; 0, B540, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C540, Levels!B:B, 0), 1, 1)),", ",IF(A540 &lt;&gt; "", """mem"": bit" &amp; B540 &amp; "(" &amp; A540 &amp; "),", ""),"""good"": ",IF(A540 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A540 &lt;&gt; "", A540, -1),", ""bit"": ",IF(B540 &lt;&gt; "", B540, -1),"},")</f>
         <v>539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13921,7 +13921,7 @@
         <v>12</v>
       </c>
       <c r="D541" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C541, Levels!B:B, 0), 1, 1)),", ",IF(A541 &lt;&gt; "", """mem"": bit" &amp; B541 &amp; "(" &amp; A541 &amp; "),", ""),"""good"": ",IF(A541 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A541 &lt;&gt; "", A541, -1),", ""bit"": ",IF(B541 &lt;&gt; 0, B541, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C541, Levels!B:B, 0), 1, 1)),", ",IF(A541 &lt;&gt; "", """mem"": bit" &amp; B541 &amp; "(" &amp; A541 &amp; "),", ""),"""good"": ",IF(A541 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A541 &lt;&gt; "", A541, -1),", ""bit"": ",IF(B541 &lt;&gt; "", B541, -1),"},")</f>
         <v>540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
         <v>12</v>
       </c>
       <c r="D542" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C542, Levels!B:B, 0), 1, 1)),", ",IF(A542 &lt;&gt; "", """mem"": bit" &amp; B542 &amp; "(" &amp; A542 &amp; "),", ""),"""good"": ",IF(A542 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A542 &lt;&gt; "", A542, -1),", ""bit"": ",IF(B542 &lt;&gt; 0, B542, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C542, Levels!B:B, 0), 1, 1)),", ",IF(A542 &lt;&gt; "", """mem"": bit" &amp; B542 &amp; "(" &amp; A542 &amp; "),", ""),"""good"": ",IF(A542 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A542 &lt;&gt; "", A542, -1),", ""bit"": ",IF(B542 &lt;&gt; "", B542, -1),"},")</f>
         <v>541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
         <v>12</v>
       </c>
       <c r="D543" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C543, Levels!B:B, 0), 1, 1)),", ",IF(A543 &lt;&gt; "", """mem"": bit" &amp; B543 &amp; "(" &amp; A543 &amp; "),", ""),"""good"": ",IF(A543 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A543 &lt;&gt; "", A543, -1),", ""bit"": ",IF(B543 &lt;&gt; 0, B543, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C543, Levels!B:B, 0), 1, 1)),", ",IF(A543 &lt;&gt; "", """mem"": bit" &amp; B543 &amp; "(" &amp; A543 &amp; "),", ""),"""good"": ",IF(A543 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A543 &lt;&gt; "", A543, -1),", ""bit"": ",IF(B543 &lt;&gt; "", B543, -1),"},")</f>
         <v>542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
         <v>12</v>
       </c>
       <c r="D544" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C544, Levels!B:B, 0), 1, 1)),", ",IF(A544 &lt;&gt; "", """mem"": bit" &amp; B544 &amp; "(" &amp; A544 &amp; "),", ""),"""good"": ",IF(A544 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A544 &lt;&gt; "", A544, -1),", ""bit"": ",IF(B544 &lt;&gt; 0, B544, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C544, Levels!B:B, 0), 1, 1)),", ",IF(A544 &lt;&gt; "", """mem"": bit" &amp; B544 &amp; "(" &amp; A544 &amp; "),", ""),"""good"": ",IF(A544 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A544 &lt;&gt; "", A544, -1),", ""bit"": ",IF(B544 &lt;&gt; "", B544, -1),"},")</f>
         <v>543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13957,7 +13957,7 @@
         <v>12</v>
       </c>
       <c r="D545" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C545, Levels!B:B, 0), 1, 1)),", ",IF(A545 &lt;&gt; "", """mem"": bit" &amp; B545 &amp; "(" &amp; A545 &amp; "),", ""),"""good"": ",IF(A545 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A545 &lt;&gt; "", A545, -1),", ""bit"": ",IF(B545 &lt;&gt; 0, B545, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C545, Levels!B:B, 0), 1, 1)),", ",IF(A545 &lt;&gt; "", """mem"": bit" &amp; B545 &amp; "(" &amp; A545 &amp; "),", ""),"""good"": ",IF(A545 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A545 &lt;&gt; "", A545, -1),", ""bit"": ",IF(B545 &lt;&gt; "", B545, -1),"},")</f>
         <v>544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
         <v>12</v>
       </c>
       <c r="D546" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C546, Levels!B:B, 0), 1, 1)),", ",IF(A546 &lt;&gt; "", """mem"": bit" &amp; B546 &amp; "(" &amp; A546 &amp; "),", ""),"""good"": ",IF(A546 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A546 &lt;&gt; "", A546, -1),", ""bit"": ",IF(B546 &lt;&gt; 0, B546, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C546, Levels!B:B, 0), 1, 1)),", ",IF(A546 &lt;&gt; "", """mem"": bit" &amp; B546 &amp; "(" &amp; A546 &amp; "),", ""),"""good"": ",IF(A546 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A546 &lt;&gt; "", A546, -1),", ""bit"": ",IF(B546 &lt;&gt; "", B546, -1),"},")</f>
         <v>545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
         <v>12</v>
       </c>
       <c r="D547" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C547, Levels!B:B, 0), 1, 1)),", ",IF(A547 &lt;&gt; "", """mem"": bit" &amp; B547 &amp; "(" &amp; A547 &amp; "),", ""),"""good"": ",IF(A547 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A547 &lt;&gt; "", A547, -1),", ""bit"": ",IF(B547 &lt;&gt; 0, B547, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C547, Levels!B:B, 0), 1, 1)),", ",IF(A547 &lt;&gt; "", """mem"": bit" &amp; B547 &amp; "(" &amp; A547 &amp; "),", ""),"""good"": ",IF(A547 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A547 &lt;&gt; "", A547, -1),", ""bit"": ",IF(B547 &lt;&gt; "", B547, -1),"},")</f>
         <v>546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13984,7 +13984,7 @@
         <v>12</v>
       </c>
       <c r="D548" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C548, Levels!B:B, 0), 1, 1)),", ",IF(A548 &lt;&gt; "", """mem"": bit" &amp; B548 &amp; "(" &amp; A548 &amp; "),", ""),"""good"": ",IF(A548 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A548 &lt;&gt; "", A548, -1),", ""bit"": ",IF(B548 &lt;&gt; 0, B548, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C548, Levels!B:B, 0), 1, 1)),", ",IF(A548 &lt;&gt; "", """mem"": bit" &amp; B548 &amp; "(" &amp; A548 &amp; "),", ""),"""good"": ",IF(A548 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A548 &lt;&gt; "", A548, -1),", ""bit"": ",IF(B548 &lt;&gt; "", B548, -1),"},")</f>
         <v>547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
         <v>12</v>
       </c>
       <c r="D549" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C549, Levels!B:B, 0), 1, 1)),", ",IF(A549 &lt;&gt; "", """mem"": bit" &amp; B549 &amp; "(" &amp; A549 &amp; "),", ""),"""good"": ",IF(A549 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A549 &lt;&gt; "", A549, -1),", ""bit"": ",IF(B549 &lt;&gt; 0, B549, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C549, Levels!B:B, 0), 1, 1)),", ",IF(A549 &lt;&gt; "", """mem"": bit" &amp; B549 &amp; "(" &amp; A549 &amp; "),", ""),"""good"": ",IF(A549 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A549 &lt;&gt; "", A549, -1),", ""bit"": ",IF(B549 &lt;&gt; "", B549, -1),"},")</f>
         <v>548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
         <v>12</v>
       </c>
       <c r="D550" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C550, Levels!B:B, 0), 1, 1)),", ",IF(A550 &lt;&gt; "", """mem"": bit" &amp; B550 &amp; "(" &amp; A550 &amp; "),", ""),"""good"": ",IF(A550 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A550 &lt;&gt; "", A550, -1),", ""bit"": ",IF(B550 &lt;&gt; 0, B550, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C550, Levels!B:B, 0), 1, 1)),", ",IF(A550 &lt;&gt; "", """mem"": bit" &amp; B550 &amp; "(" &amp; A550 &amp; "),", ""),"""good"": ",IF(A550 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A550 &lt;&gt; "", A550, -1),", ""bit"": ",IF(B550 &lt;&gt; "", B550, -1),"},")</f>
         <v>549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
         <v>12</v>
       </c>
       <c r="D551" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C551, Levels!B:B, 0), 1, 1)),", ",IF(A551 &lt;&gt; "", """mem"": bit" &amp; B551 &amp; "(" &amp; A551 &amp; "),", ""),"""good"": ",IF(A551 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A551 &lt;&gt; "", A551, -1),", ""bit"": ",IF(B551 &lt;&gt; 0, B551, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C551, Levels!B:B, 0), 1, 1)),", ",IF(A551 &lt;&gt; "", """mem"": bit" &amp; B551 &amp; "(" &amp; A551 &amp; "),", ""),"""good"": ",IF(A551 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A551 &lt;&gt; "", A551, -1),", ""bit"": ",IF(B551 &lt;&gt; "", B551, -1),"},")</f>
         <v>550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
         <v>12</v>
       </c>
       <c r="D552" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C552, Levels!B:B, 0), 1, 1)),", ",IF(A552 &lt;&gt; "", """mem"": bit" &amp; B552 &amp; "(" &amp; A552 &amp; "),", ""),"""good"": ",IF(A552 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A552 &lt;&gt; "", A552, -1),", ""bit"": ",IF(B552 &lt;&gt; 0, B552, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C552, Levels!B:B, 0), 1, 1)),", ",IF(A552 &lt;&gt; "", """mem"": bit" &amp; B552 &amp; "(" &amp; A552 &amp; "),", ""),"""good"": ",IF(A552 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A552 &lt;&gt; "", A552, -1),", ""bit"": ",IF(B552 &lt;&gt; "", B552, -1),"},")</f>
         <v>551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
         <v>12</v>
       </c>
       <c r="D553" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C553, Levels!B:B, 0), 1, 1)),", ",IF(A553 &lt;&gt; "", """mem"": bit" &amp; B553 &amp; "(" &amp; A553 &amp; "),", ""),"""good"": ",IF(A553 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A553 &lt;&gt; "", A553, -1),", ""bit"": ",IF(B553 &lt;&gt; 0, B553, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C553, Levels!B:B, 0), 1, 1)),", ",IF(A553 &lt;&gt; "", """mem"": bit" &amp; B553 &amp; "(" &amp; A553 &amp; "),", ""),"""good"": ",IF(A553 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A553 &lt;&gt; "", A553, -1),", ""bit"": ",IF(B553 &lt;&gt; "", B553, -1),"},")</f>
         <v>552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14038,7 +14038,7 @@
         <v>12</v>
       </c>
       <c r="D554" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C554, Levels!B:B, 0), 1, 1)),", ",IF(A554 &lt;&gt; "", """mem"": bit" &amp; B554 &amp; "(" &amp; A554 &amp; "),", ""),"""good"": ",IF(A554 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A554 &lt;&gt; "", A554, -1),", ""bit"": ",IF(B554 &lt;&gt; 0, B554, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C554, Levels!B:B, 0), 1, 1)),", ",IF(A554 &lt;&gt; "", """mem"": bit" &amp; B554 &amp; "(" &amp; A554 &amp; "),", ""),"""good"": ",IF(A554 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A554 &lt;&gt; "", A554, -1),", ""bit"": ",IF(B554 &lt;&gt; "", B554, -1),"},")</f>
         <v>553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
         <v>12</v>
       </c>
       <c r="D555" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C555, Levels!B:B, 0), 1, 1)),", ",IF(A555 &lt;&gt; "", """mem"": bit" &amp; B555 &amp; "(" &amp; A555 &amp; "),", ""),"""good"": ",IF(A555 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A555 &lt;&gt; "", A555, -1),", ""bit"": ",IF(B555 &lt;&gt; 0, B555, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C555, Levels!B:B, 0), 1, 1)),", ",IF(A555 &lt;&gt; "", """mem"": bit" &amp; B555 &amp; "(" &amp; A555 &amp; "),", ""),"""good"": ",IF(A555 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A555 &lt;&gt; "", A555, -1),", ""bit"": ",IF(B555 &lt;&gt; "", B555, -1),"},")</f>
         <v>554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14056,7 +14056,7 @@
         <v>12</v>
       </c>
       <c r="D556" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C556, Levels!B:B, 0), 1, 1)),", ",IF(A556 &lt;&gt; "", """mem"": bit" &amp; B556 &amp; "(" &amp; A556 &amp; "),", ""),"""good"": ",IF(A556 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A556 &lt;&gt; "", A556, -1),", ""bit"": ",IF(B556 &lt;&gt; 0, B556, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C556, Levels!B:B, 0), 1, 1)),", ",IF(A556 &lt;&gt; "", """mem"": bit" &amp; B556 &amp; "(" &amp; A556 &amp; "),", ""),"""good"": ",IF(A556 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A556 &lt;&gt; "", A556, -1),", ""bit"": ",IF(B556 &lt;&gt; "", B556, -1),"},")</f>
         <v>555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14065,7 +14065,7 @@
         <v>12</v>
       </c>
       <c r="D557" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C557, Levels!B:B, 0), 1, 1)),", ",IF(A557 &lt;&gt; "", """mem"": bit" &amp; B557 &amp; "(" &amp; A557 &amp; "),", ""),"""good"": ",IF(A557 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A557 &lt;&gt; "", A557, -1),", ""bit"": ",IF(B557 &lt;&gt; 0, B557, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C557, Levels!B:B, 0), 1, 1)),", ",IF(A557 &lt;&gt; "", """mem"": bit" &amp; B557 &amp; "(" &amp; A557 &amp; "),", ""),"""good"": ",IF(A557 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A557 &lt;&gt; "", A557, -1),", ""bit"": ",IF(B557 &lt;&gt; "", B557, -1),"},")</f>
         <v>556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14074,7 +14074,7 @@
         <v>12</v>
       </c>
       <c r="D558" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C558, Levels!B:B, 0), 1, 1)),", ",IF(A558 &lt;&gt; "", """mem"": bit" &amp; B558 &amp; "(" &amp; A558 &amp; "),", ""),"""good"": ",IF(A558 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A558 &lt;&gt; "", A558, -1),", ""bit"": ",IF(B558 &lt;&gt; 0, B558, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C558, Levels!B:B, 0), 1, 1)),", ",IF(A558 &lt;&gt; "", """mem"": bit" &amp; B558 &amp; "(" &amp; A558 &amp; "),", ""),"""good"": ",IF(A558 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A558 &lt;&gt; "", A558, -1),", ""bit"": ",IF(B558 &lt;&gt; "", B558, -1),"},")</f>
         <v>557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
         <v>12</v>
       </c>
       <c r="D559" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C559, Levels!B:B, 0), 1, 1)),", ",IF(A559 &lt;&gt; "", """mem"": bit" &amp; B559 &amp; "(" &amp; A559 &amp; "),", ""),"""good"": ",IF(A559 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A559 &lt;&gt; "", A559, -1),", ""bit"": ",IF(B559 &lt;&gt; 0, B559, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C559, Levels!B:B, 0), 1, 1)),", ",IF(A559 &lt;&gt; "", """mem"": bit" &amp; B559 &amp; "(" &amp; A559 &amp; "),", ""),"""good"": ",IF(A559 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A559 &lt;&gt; "", A559, -1),", ""bit"": ",IF(B559 &lt;&gt; "", B559, -1),"},")</f>
         <v>558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14092,7 +14092,7 @@
         <v>12</v>
       </c>
       <c r="D560" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C560, Levels!B:B, 0), 1, 1)),", ",IF(A560 &lt;&gt; "", """mem"": bit" &amp; B560 &amp; "(" &amp; A560 &amp; "),", ""),"""good"": ",IF(A560 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A560 &lt;&gt; "", A560, -1),", ""bit"": ",IF(B560 &lt;&gt; 0, B560, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C560, Levels!B:B, 0), 1, 1)),", ",IF(A560 &lt;&gt; "", """mem"": bit" &amp; B560 &amp; "(" &amp; A560 &amp; "),", ""),"""good"": ",IF(A560 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A560 &lt;&gt; "", A560, -1),", ""bit"": ",IF(B560 &lt;&gt; "", B560, -1),"},")</f>
         <v>559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
         <v>12</v>
       </c>
       <c r="D561" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C561, Levels!B:B, 0), 1, 1)),", ",IF(A561 &lt;&gt; "", """mem"": bit" &amp; B561 &amp; "(" &amp; A561 &amp; "),", ""),"""good"": ",IF(A561 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A561 &lt;&gt; "", A561, -1),", ""bit"": ",IF(B561 &lt;&gt; 0, B561, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C561, Levels!B:B, 0), 1, 1)),", ",IF(A561 &lt;&gt; "", """mem"": bit" &amp; B561 &amp; "(" &amp; A561 &amp; "),", ""),"""good"": ",IF(A561 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A561 &lt;&gt; "", A561, -1),", ""bit"": ",IF(B561 &lt;&gt; "", B561, -1),"},")</f>
         <v>560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
         <v>12</v>
       </c>
       <c r="D562" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C562, Levels!B:B, 0), 1, 1)),", ",IF(A562 &lt;&gt; "", """mem"": bit" &amp; B562 &amp; "(" &amp; A562 &amp; "),", ""),"""good"": ",IF(A562 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A562 &lt;&gt; "", A562, -1),", ""bit"": ",IF(B562 &lt;&gt; 0, B562, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C562, Levels!B:B, 0), 1, 1)),", ",IF(A562 &lt;&gt; "", """mem"": bit" &amp; B562 &amp; "(" &amp; A562 &amp; "),", ""),"""good"": ",IF(A562 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A562 &lt;&gt; "", A562, -1),", ""bit"": ",IF(B562 &lt;&gt; "", B562, -1),"},")</f>
         <v>561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14119,7 +14119,7 @@
         <v>12</v>
       </c>
       <c r="D563" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C563, Levels!B:B, 0), 1, 1)),", ",IF(A563 &lt;&gt; "", """mem"": bit" &amp; B563 &amp; "(" &amp; A563 &amp; "),", ""),"""good"": ",IF(A563 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A563 &lt;&gt; "", A563, -1),", ""bit"": ",IF(B563 &lt;&gt; 0, B563, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C563, Levels!B:B, 0), 1, 1)),", ",IF(A563 &lt;&gt; "", """mem"": bit" &amp; B563 &amp; "(" &amp; A563 &amp; "),", ""),"""good"": ",IF(A563 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A563 &lt;&gt; "", A563, -1),", ""bit"": ",IF(B563 &lt;&gt; "", B563, -1),"},")</f>
         <v>562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14128,7 +14128,7 @@
         <v>12</v>
       </c>
       <c r="D564" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C564, Levels!B:B, 0), 1, 1)),", ",IF(A564 &lt;&gt; "", """mem"": bit" &amp; B564 &amp; "(" &amp; A564 &amp; "),", ""),"""good"": ",IF(A564 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A564 &lt;&gt; "", A564, -1),", ""bit"": ",IF(B564 &lt;&gt; 0, B564, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C564, Levels!B:B, 0), 1, 1)),", ",IF(A564 &lt;&gt; "", """mem"": bit" &amp; B564 &amp; "(" &amp; A564 &amp; "),", ""),"""good"": ",IF(A564 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A564 &lt;&gt; "", A564, -1),", ""bit"": ",IF(B564 &lt;&gt; "", B564, -1),"},")</f>
         <v>563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
         <v>12</v>
       </c>
       <c r="D565" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C565, Levels!B:B, 0), 1, 1)),", ",IF(A565 &lt;&gt; "", """mem"": bit" &amp; B565 &amp; "(" &amp; A565 &amp; "),", ""),"""good"": ",IF(A565 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A565 &lt;&gt; "", A565, -1),", ""bit"": ",IF(B565 &lt;&gt; 0, B565, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C565, Levels!B:B, 0), 1, 1)),", ",IF(A565 &lt;&gt; "", """mem"": bit" &amp; B565 &amp; "(" &amp; A565 &amp; "),", ""),"""good"": ",IF(A565 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A565 &lt;&gt; "", A565, -1),", ""bit"": ",IF(B565 &lt;&gt; "", B565, -1),"},")</f>
         <v>564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14146,7 +14146,7 @@
         <v>12</v>
       </c>
       <c r="D566" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C566, Levels!B:B, 0), 1, 1)),", ",IF(A566 &lt;&gt; "", """mem"": bit" &amp; B566 &amp; "(" &amp; A566 &amp; "),", ""),"""good"": ",IF(A566 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A566 &lt;&gt; "", A566, -1),", ""bit"": ",IF(B566 &lt;&gt; 0, B566, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C566, Levels!B:B, 0), 1, 1)),", ",IF(A566 &lt;&gt; "", """mem"": bit" &amp; B566 &amp; "(" &amp; A566 &amp; "),", ""),"""good"": ",IF(A566 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A566 &lt;&gt; "", A566, -1),", ""bit"": ",IF(B566 &lt;&gt; "", B566, -1),"},")</f>
         <v>565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
         <v>12</v>
       </c>
       <c r="D567" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C567, Levels!B:B, 0), 1, 1)),", ",IF(A567 &lt;&gt; "", """mem"": bit" &amp; B567 &amp; "(" &amp; A567 &amp; "),", ""),"""good"": ",IF(A567 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A567 &lt;&gt; "", A567, -1),", ""bit"": ",IF(B567 &lt;&gt; 0, B567, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C567, Levels!B:B, 0), 1, 1)),", ",IF(A567 &lt;&gt; "", """mem"": bit" &amp; B567 &amp; "(" &amp; A567 &amp; "),", ""),"""good"": ",IF(A567 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A567 &lt;&gt; "", A567, -1),", ""bit"": ",IF(B567 &lt;&gt; "", B567, -1),"},")</f>
         <v>566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14164,7 +14164,7 @@
         <v>12</v>
       </c>
       <c r="D568" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C568, Levels!B:B, 0), 1, 1)),", ",IF(A568 &lt;&gt; "", """mem"": bit" &amp; B568 &amp; "(" &amp; A568 &amp; "),", ""),"""good"": ",IF(A568 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A568 &lt;&gt; "", A568, -1),", ""bit"": ",IF(B568 &lt;&gt; 0, B568, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C568, Levels!B:B, 0), 1, 1)),", ",IF(A568 &lt;&gt; "", """mem"": bit" &amp; B568 &amp; "(" &amp; A568 &amp; "),", ""),"""good"": ",IF(A568 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A568 &lt;&gt; "", A568, -1),", ""bit"": ",IF(B568 &lt;&gt; "", B568, -1),"},")</f>
         <v>567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14173,7 +14173,7 @@
         <v>12</v>
       </c>
       <c r="D569" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C569, Levels!B:B, 0), 1, 1)),", ",IF(A569 &lt;&gt; "", """mem"": bit" &amp; B569 &amp; "(" &amp; A569 &amp; "),", ""),"""good"": ",IF(A569 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A569 &lt;&gt; "", A569, -1),", ""bit"": ",IF(B569 &lt;&gt; 0, B569, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C569, Levels!B:B, 0), 1, 1)),", ",IF(A569 &lt;&gt; "", """mem"": bit" &amp; B569 &amp; "(" &amp; A569 &amp; "),", ""),"""good"": ",IF(A569 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A569 &lt;&gt; "", A569, -1),", ""bit"": ",IF(B569 &lt;&gt; "", B569, -1),"},")</f>
         <v>568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
         <v>12</v>
       </c>
       <c r="D570" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C570, Levels!B:B, 0), 1, 1)),", ",IF(A570 &lt;&gt; "", """mem"": bit" &amp; B570 &amp; "(" &amp; A570 &amp; "),", ""),"""good"": ",IF(A570 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A570 &lt;&gt; "", A570, -1),", ""bit"": ",IF(B570 &lt;&gt; 0, B570, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C570, Levels!B:B, 0), 1, 1)),", ",IF(A570 &lt;&gt; "", """mem"": bit" &amp; B570 &amp; "(" &amp; A570 &amp; "),", ""),"""good"": ",IF(A570 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A570 &lt;&gt; "", A570, -1),", ""bit"": ",IF(B570 &lt;&gt; "", B570, -1),"},")</f>
         <v>569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
         <v>12</v>
       </c>
       <c r="D571" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C571, Levels!B:B, 0), 1, 1)),", ",IF(A571 &lt;&gt; "", """mem"": bit" &amp; B571 &amp; "(" &amp; A571 &amp; "),", ""),"""good"": ",IF(A571 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A571 &lt;&gt; "", A571, -1),", ""bit"": ",IF(B571 &lt;&gt; 0, B571, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C571, Levels!B:B, 0), 1, 1)),", ",IF(A571 &lt;&gt; "", """mem"": bit" &amp; B571 &amp; "(" &amp; A571 &amp; "),", ""),"""good"": ",IF(A571 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A571 &lt;&gt; "", A571, -1),", ""bit"": ",IF(B571 &lt;&gt; "", B571, -1),"},")</f>
         <v>570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14200,7 +14200,7 @@
         <v>12</v>
       </c>
       <c r="D572" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C572, Levels!B:B, 0), 1, 1)),", ",IF(A572 &lt;&gt; "", """mem"": bit" &amp; B572 &amp; "(" &amp; A572 &amp; "),", ""),"""good"": ",IF(A572 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A572 &lt;&gt; "", A572, -1),", ""bit"": ",IF(B572 &lt;&gt; 0, B572, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C572, Levels!B:B, 0), 1, 1)),", ",IF(A572 &lt;&gt; "", """mem"": bit" &amp; B572 &amp; "(" &amp; A572 &amp; "),", ""),"""good"": ",IF(A572 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A572 &lt;&gt; "", A572, -1),", ""bit"": ",IF(B572 &lt;&gt; "", B572, -1),"},")</f>
         <v>571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
         <v>12</v>
       </c>
       <c r="D573" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C573, Levels!B:B, 0), 1, 1)),", ",IF(A573 &lt;&gt; "", """mem"": bit" &amp; B573 &amp; "(" &amp; A573 &amp; "),", ""),"""good"": ",IF(A573 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A573 &lt;&gt; "", A573, -1),", ""bit"": ",IF(B573 &lt;&gt; 0, B573, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C573, Levels!B:B, 0), 1, 1)),", ",IF(A573 &lt;&gt; "", """mem"": bit" &amp; B573 &amp; "(" &amp; A573 &amp; "),", ""),"""good"": ",IF(A573 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A573 &lt;&gt; "", A573, -1),", ""bit"": ",IF(B573 &lt;&gt; "", B573, -1),"},")</f>
         <v>572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
         <v>12</v>
       </c>
       <c r="D574" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C574, Levels!B:B, 0), 1, 1)),", ",IF(A574 &lt;&gt; "", """mem"": bit" &amp; B574 &amp; "(" &amp; A574 &amp; "),", ""),"""good"": ",IF(A574 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A574 &lt;&gt; "", A574, -1),", ""bit"": ",IF(B574 &lt;&gt; 0, B574, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C574, Levels!B:B, 0), 1, 1)),", ",IF(A574 &lt;&gt; "", """mem"": bit" &amp; B574 &amp; "(" &amp; A574 &amp; "),", ""),"""good"": ",IF(A574 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A574 &lt;&gt; "", A574, -1),", ""bit"": ",IF(B574 &lt;&gt; "", B574, -1),"},")</f>
         <v>573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
         <v>12</v>
       </c>
       <c r="D575" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C575, Levels!B:B, 0), 1, 1)),", ",IF(A575 &lt;&gt; "", """mem"": bit" &amp; B575 &amp; "(" &amp; A575 &amp; "),", ""),"""good"": ",IF(A575 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A575 &lt;&gt; "", A575, -1),", ""bit"": ",IF(B575 &lt;&gt; 0, B575, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C575, Levels!B:B, 0), 1, 1)),", ",IF(A575 &lt;&gt; "", """mem"": bit" &amp; B575 &amp; "(" &amp; A575 &amp; "),", ""),"""good"": ",IF(A575 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A575 &lt;&gt; "", A575, -1),", ""bit"": ",IF(B575 &lt;&gt; "", B575, -1),"},")</f>
         <v>574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
         <v>12</v>
       </c>
       <c r="D576" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C576, Levels!B:B, 0), 1, 1)),", ",IF(A576 &lt;&gt; "", """mem"": bit" &amp; B576 &amp; "(" &amp; A576 &amp; "),", ""),"""good"": ",IF(A576 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A576 &lt;&gt; "", A576, -1),", ""bit"": ",IF(B576 &lt;&gt; 0, B576, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C576, Levels!B:B, 0), 1, 1)),", ",IF(A576 &lt;&gt; "", """mem"": bit" &amp; B576 &amp; "(" &amp; A576 &amp; "),", ""),"""good"": ",IF(A576 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A576 &lt;&gt; "", A576, -1),", ""bit"": ",IF(B576 &lt;&gt; "", B576, -1),"},")</f>
         <v>575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
         <v>12</v>
       </c>
       <c r="D577" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C577, Levels!B:B, 0), 1, 1)),", ",IF(A577 &lt;&gt; "", """mem"": bit" &amp; B577 &amp; "(" &amp; A577 &amp; "),", ""),"""good"": ",IF(A577 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A577 &lt;&gt; "", A577, -1),", ""bit"": ",IF(B577 &lt;&gt; 0, B577, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C577, Levels!B:B, 0), 1, 1)),", ",IF(A577 &lt;&gt; "", """mem"": bit" &amp; B577 &amp; "(" &amp; A577 &amp; "),", ""),"""good"": ",IF(A577 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A577 &lt;&gt; "", A577, -1),", ""bit"": ",IF(B577 &lt;&gt; "", B577, -1),"},")</f>
         <v>576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14254,7 +14254,7 @@
         <v>12</v>
       </c>
       <c r="D578" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C578, Levels!B:B, 0), 1, 1)),", ",IF(A578 &lt;&gt; "", """mem"": bit" &amp; B578 &amp; "(" &amp; A578 &amp; "),", ""),"""good"": ",IF(A578 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A578 &lt;&gt; "", A578, -1),", ""bit"": ",IF(B578 &lt;&gt; 0, B578, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C578, Levels!B:B, 0), 1, 1)),", ",IF(A578 &lt;&gt; "", """mem"": bit" &amp; B578 &amp; "(" &amp; A578 &amp; "),", ""),"""good"": ",IF(A578 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A578 &lt;&gt; "", A578, -1),", ""bit"": ",IF(B578 &lt;&gt; "", B578, -1),"},")</f>
         <v>577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
         <v>12</v>
       </c>
       <c r="D579" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C579, Levels!B:B, 0), 1, 1)),", ",IF(A579 &lt;&gt; "", """mem"": bit" &amp; B579 &amp; "(" &amp; A579 &amp; "),", ""),"""good"": ",IF(A579 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A579 &lt;&gt; "", A579, -1),", ""bit"": ",IF(B579 &lt;&gt; 0, B579, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C579, Levels!B:B, 0), 1, 1)),", ",IF(A579 &lt;&gt; "", """mem"": bit" &amp; B579 &amp; "(" &amp; A579 &amp; "),", ""),"""good"": ",IF(A579 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A579 &lt;&gt; "", A579, -1),", ""bit"": ",IF(B579 &lt;&gt; "", B579, -1),"},")</f>
         <v>578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14272,7 +14272,7 @@
         <v>12</v>
       </c>
       <c r="D580" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C580, Levels!B:B, 0), 1, 1)),", ",IF(A580 &lt;&gt; "", """mem"": bit" &amp; B580 &amp; "(" &amp; A580 &amp; "),", ""),"""good"": ",IF(A580 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A580 &lt;&gt; "", A580, -1),", ""bit"": ",IF(B580 &lt;&gt; 0, B580, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C580, Levels!B:B, 0), 1, 1)),", ",IF(A580 &lt;&gt; "", """mem"": bit" &amp; B580 &amp; "(" &amp; A580 &amp; "),", ""),"""good"": ",IF(A580 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A580 &lt;&gt; "", A580, -1),", ""bit"": ",IF(B580 &lt;&gt; "", B580, -1),"},")</f>
         <v>579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
         <v>12</v>
       </c>
       <c r="D581" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C581, Levels!B:B, 0), 1, 1)),", ",IF(A581 &lt;&gt; "", """mem"": bit" &amp; B581 &amp; "(" &amp; A581 &amp; "),", ""),"""good"": ",IF(A581 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A581 &lt;&gt; "", A581, -1),", ""bit"": ",IF(B581 &lt;&gt; 0, B581, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C581, Levels!B:B, 0), 1, 1)),", ",IF(A581 &lt;&gt; "", """mem"": bit" &amp; B581 &amp; "(" &amp; A581 &amp; "),", ""),"""good"": ",IF(A581 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A581 &lt;&gt; "", A581, -1),", ""bit"": ",IF(B581 &lt;&gt; "", B581, -1),"},")</f>
         <v>580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14290,7 +14290,7 @@
         <v>12</v>
       </c>
       <c r="D582" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C582, Levels!B:B, 0), 1, 1)),", ",IF(A582 &lt;&gt; "", """mem"": bit" &amp; B582 &amp; "(" &amp; A582 &amp; "),", ""),"""good"": ",IF(A582 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A582 &lt;&gt; "", A582, -1),", ""bit"": ",IF(B582 &lt;&gt; 0, B582, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C582, Levels!B:B, 0), 1, 1)),", ",IF(A582 &lt;&gt; "", """mem"": bit" &amp; B582 &amp; "(" &amp; A582 &amp; "),", ""),"""good"": ",IF(A582 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A582 &lt;&gt; "", A582, -1),", ""bit"": ",IF(B582 &lt;&gt; "", B582, -1),"},")</f>
         <v>581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
         <v>12</v>
       </c>
       <c r="D583" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C583, Levels!B:B, 0), 1, 1)),", ",IF(A583 &lt;&gt; "", """mem"": bit" &amp; B583 &amp; "(" &amp; A583 &amp; "),", ""),"""good"": ",IF(A583 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A583 &lt;&gt; "", A583, -1),", ""bit"": ",IF(B583 &lt;&gt; 0, B583, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C583, Levels!B:B, 0), 1, 1)),", ",IF(A583 &lt;&gt; "", """mem"": bit" &amp; B583 &amp; "(" &amp; A583 &amp; "),", ""),"""good"": ",IF(A583 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A583 &lt;&gt; "", A583, -1),", ""bit"": ",IF(B583 &lt;&gt; "", B583, -1),"},")</f>
         <v>582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
         <v>12</v>
       </c>
       <c r="D584" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C584, Levels!B:B, 0), 1, 1)),", ",IF(A584 &lt;&gt; "", """mem"": bit" &amp; B584 &amp; "(" &amp; A584 &amp; "),", ""),"""good"": ",IF(A584 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A584 &lt;&gt; "", A584, -1),", ""bit"": ",IF(B584 &lt;&gt; 0, B584, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C584, Levels!B:B, 0), 1, 1)),", ",IF(A584 &lt;&gt; "", """mem"": bit" &amp; B584 &amp; "(" &amp; A584 &amp; "),", ""),"""good"": ",IF(A584 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A584 &lt;&gt; "", A584, -1),", ""bit"": ",IF(B584 &lt;&gt; "", B584, -1),"},")</f>
         <v>583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14317,7 +14317,7 @@
         <v>12</v>
       </c>
       <c r="D585" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C585, Levels!B:B, 0), 1, 1)),", ",IF(A585 &lt;&gt; "", """mem"": bit" &amp; B585 &amp; "(" &amp; A585 &amp; "),", ""),"""good"": ",IF(A585 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A585 &lt;&gt; "", A585, -1),", ""bit"": ",IF(B585 &lt;&gt; 0, B585, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C585, Levels!B:B, 0), 1, 1)),", ",IF(A585 &lt;&gt; "", """mem"": bit" &amp; B585 &amp; "(" &amp; A585 &amp; "),", ""),"""good"": ",IF(A585 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A585 &lt;&gt; "", A585, -1),", ""bit"": ",IF(B585 &lt;&gt; "", B585, -1),"},")</f>
         <v>584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
         <v>12</v>
       </c>
       <c r="D586" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C586, Levels!B:B, 0), 1, 1)),", ",IF(A586 &lt;&gt; "", """mem"": bit" &amp; B586 &amp; "(" &amp; A586 &amp; "),", ""),"""good"": ",IF(A586 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A586 &lt;&gt; "", A586, -1),", ""bit"": ",IF(B586 &lt;&gt; 0, B586, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C586, Levels!B:B, 0), 1, 1)),", ",IF(A586 &lt;&gt; "", """mem"": bit" &amp; B586 &amp; "(" &amp; A586 &amp; "),", ""),"""good"": ",IF(A586 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A586 &lt;&gt; "", A586, -1),", ""bit"": ",IF(B586 &lt;&gt; "", B586, -1),"},")</f>
         <v>585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14335,7 +14335,7 @@
         <v>12</v>
       </c>
       <c r="D587" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C587, Levels!B:B, 0), 1, 1)),", ",IF(A587 &lt;&gt; "", """mem"": bit" &amp; B587 &amp; "(" &amp; A587 &amp; "),", ""),"""good"": ",IF(A587 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A587 &lt;&gt; "", A587, -1),", ""bit"": ",IF(B587 &lt;&gt; 0, B587, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C587, Levels!B:B, 0), 1, 1)),", ",IF(A587 &lt;&gt; "", """mem"": bit" &amp; B587 &amp; "(" &amp; A587 &amp; "),", ""),"""good"": ",IF(A587 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A587 &lt;&gt; "", A587, -1),", ""bit"": ",IF(B587 &lt;&gt; "", B587, -1),"},")</f>
         <v>586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14344,7 +14344,7 @@
         <v>12</v>
       </c>
       <c r="D588" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C588, Levels!B:B, 0), 1, 1)),", ",IF(A588 &lt;&gt; "", """mem"": bit" &amp; B588 &amp; "(" &amp; A588 &amp; "),", ""),"""good"": ",IF(A588 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A588 &lt;&gt; "", A588, -1),", ""bit"": ",IF(B588 &lt;&gt; 0, B588, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C588, Levels!B:B, 0), 1, 1)),", ",IF(A588 &lt;&gt; "", """mem"": bit" &amp; B588 &amp; "(" &amp; A588 &amp; "),", ""),"""good"": ",IF(A588 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A588 &lt;&gt; "", A588, -1),", ""bit"": ",IF(B588 &lt;&gt; "", B588, -1),"},")</f>
         <v>587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14353,7 +14353,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C589, Levels!B:B, 0), 1, 1)),", ",IF(A589 &lt;&gt; "", """mem"": bit" &amp; B589 &amp; "(" &amp; A589 &amp; "),", ""),"""good"": ",IF(A589 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A589 &lt;&gt; "", A589, -1),", ""bit"": ",IF(B589 &lt;&gt; 0, B589, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C589, Levels!B:B, 0), 1, 1)),", ",IF(A589 &lt;&gt; "", """mem"": bit" &amp; B589 &amp; "(" &amp; A589 &amp; "),", ""),"""good"": ",IF(A589 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A589 &lt;&gt; "", A589, -1),", ""bit"": ",IF(B589 &lt;&gt; "", B589, -1),"},")</f>
         <v>588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14362,7 +14362,7 @@
         <v>12</v>
       </c>
       <c r="D590" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C590, Levels!B:B, 0), 1, 1)),", ",IF(A590 &lt;&gt; "", """mem"": bit" &amp; B590 &amp; "(" &amp; A590 &amp; "),", ""),"""good"": ",IF(A590 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A590 &lt;&gt; "", A590, -1),", ""bit"": ",IF(B590 &lt;&gt; 0, B590, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C590, Levels!B:B, 0), 1, 1)),", ",IF(A590 &lt;&gt; "", """mem"": bit" &amp; B590 &amp; "(" &amp; A590 &amp; "),", ""),"""good"": ",IF(A590 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A590 &lt;&gt; "", A590, -1),", ""bit"": ",IF(B590 &lt;&gt; "", B590, -1),"},")</f>
         <v>589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
         <v>12</v>
       </c>
       <c r="D591" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C591, Levels!B:B, 0), 1, 1)),", ",IF(A591 &lt;&gt; "", """mem"": bit" &amp; B591 &amp; "(" &amp; A591 &amp; "),", ""),"""good"": ",IF(A591 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A591 &lt;&gt; "", A591, -1),", ""bit"": ",IF(B591 &lt;&gt; 0, B591, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C591, Levels!B:B, 0), 1, 1)),", ",IF(A591 &lt;&gt; "", """mem"": bit" &amp; B591 &amp; "(" &amp; A591 &amp; "),", ""),"""good"": ",IF(A591 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A591 &lt;&gt; "", A591, -1),", ""bit"": ",IF(B591 &lt;&gt; "", B591, -1),"},")</f>
         <v>590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14380,7 +14380,7 @@
         <v>12</v>
       </c>
       <c r="D592" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C592, Levels!B:B, 0), 1, 1)),", ",IF(A592 &lt;&gt; "", """mem"": bit" &amp; B592 &amp; "(" &amp; A592 &amp; "),", ""),"""good"": ",IF(A592 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A592 &lt;&gt; "", A592, -1),", ""bit"": ",IF(B592 &lt;&gt; 0, B592, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C592, Levels!B:B, 0), 1, 1)),", ",IF(A592 &lt;&gt; "", """mem"": bit" &amp; B592 &amp; "(" &amp; A592 &amp; "),", ""),"""good"": ",IF(A592 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A592 &lt;&gt; "", A592, -1),", ""bit"": ",IF(B592 &lt;&gt; "", B592, -1),"},")</f>
         <v>591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
         <v>12</v>
       </c>
       <c r="D593" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C593, Levels!B:B, 0), 1, 1)),", ",IF(A593 &lt;&gt; "", """mem"": bit" &amp; B593 &amp; "(" &amp; A593 &amp; "),", ""),"""good"": ",IF(A593 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A593 &lt;&gt; "", A593, -1),", ""bit"": ",IF(B593 &lt;&gt; 0, B593, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C593, Levels!B:B, 0), 1, 1)),", ",IF(A593 &lt;&gt; "", """mem"": bit" &amp; B593 &amp; "(" &amp; A593 &amp; "),", ""),"""good"": ",IF(A593 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A593 &lt;&gt; "", A593, -1),", ""bit"": ",IF(B593 &lt;&gt; "", B593, -1),"},")</f>
         <v>592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
         <v>12</v>
       </c>
       <c r="D594" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C594, Levels!B:B, 0), 1, 1)),", ",IF(A594 &lt;&gt; "", """mem"": bit" &amp; B594 &amp; "(" &amp; A594 &amp; "),", ""),"""good"": ",IF(A594 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A594 &lt;&gt; "", A594, -1),", ""bit"": ",IF(B594 &lt;&gt; 0, B594, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C594, Levels!B:B, 0), 1, 1)),", ",IF(A594 &lt;&gt; "", """mem"": bit" &amp; B594 &amp; "(" &amp; A594 &amp; "),", ""),"""good"": ",IF(A594 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A594 &lt;&gt; "", A594, -1),", ""bit"": ",IF(B594 &lt;&gt; "", B594, -1),"},")</f>
         <v>593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14407,7 +14407,7 @@
         <v>12</v>
       </c>
       <c r="D595" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C595, Levels!B:B, 0), 1, 1)),", ",IF(A595 &lt;&gt; "", """mem"": bit" &amp; B595 &amp; "(" &amp; A595 &amp; "),", ""),"""good"": ",IF(A595 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A595 &lt;&gt; "", A595, -1),", ""bit"": ",IF(B595 &lt;&gt; 0, B595, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C595, Levels!B:B, 0), 1, 1)),", ",IF(A595 &lt;&gt; "", """mem"": bit" &amp; B595 &amp; "(" &amp; A595 &amp; "),", ""),"""good"": ",IF(A595 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A595 &lt;&gt; "", A595, -1),", ""bit"": ",IF(B595 &lt;&gt; "", B595, -1),"},")</f>
         <v>594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
         <v>12</v>
       </c>
       <c r="D596" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C596, Levels!B:B, 0), 1, 1)),", ",IF(A596 &lt;&gt; "", """mem"": bit" &amp; B596 &amp; "(" &amp; A596 &amp; "),", ""),"""good"": ",IF(A596 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A596 &lt;&gt; "", A596, -1),", ""bit"": ",IF(B596 &lt;&gt; 0, B596, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C596, Levels!B:B, 0), 1, 1)),", ",IF(A596 &lt;&gt; "", """mem"": bit" &amp; B596 &amp; "(" &amp; A596 &amp; "),", ""),"""good"": ",IF(A596 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A596 &lt;&gt; "", A596, -1),", ""bit"": ",IF(B596 &lt;&gt; "", B596, -1),"},")</f>
         <v>595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14425,7 +14425,7 @@
         <v>12</v>
       </c>
       <c r="D597" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C597, Levels!B:B, 0), 1, 1)),", ",IF(A597 &lt;&gt; "", """mem"": bit" &amp; B597 &amp; "(" &amp; A597 &amp; "),", ""),"""good"": ",IF(A597 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A597 &lt;&gt; "", A597, -1),", ""bit"": ",IF(B597 &lt;&gt; 0, B597, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C597, Levels!B:B, 0), 1, 1)),", ",IF(A597 &lt;&gt; "", """mem"": bit" &amp; B597 &amp; "(" &amp; A597 &amp; "),", ""),"""good"": ",IF(A597 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A597 &lt;&gt; "", A597, -1),", ""bit"": ",IF(B597 &lt;&gt; "", B597, -1),"},")</f>
         <v>596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14434,7 +14434,7 @@
         <v>12</v>
       </c>
       <c r="D598" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C598, Levels!B:B, 0), 1, 1)),", ",IF(A598 &lt;&gt; "", """mem"": bit" &amp; B598 &amp; "(" &amp; A598 &amp; "),", ""),"""good"": ",IF(A598 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A598 &lt;&gt; "", A598, -1),", ""bit"": ",IF(B598 &lt;&gt; 0, B598, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C598, Levels!B:B, 0), 1, 1)),", ",IF(A598 &lt;&gt; "", """mem"": bit" &amp; B598 &amp; "(" &amp; A598 &amp; "),", ""),"""good"": ",IF(A598 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A598 &lt;&gt; "", A598, -1),", ""bit"": ",IF(B598 &lt;&gt; "", B598, -1),"},")</f>
         <v>597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
         <v>12</v>
       </c>
       <c r="D599" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C599, Levels!B:B, 0), 1, 1)),", ",IF(A599 &lt;&gt; "", """mem"": bit" &amp; B599 &amp; "(" &amp; A599 &amp; "),", ""),"""good"": ",IF(A599 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A599 &lt;&gt; "", A599, -1),", ""bit"": ",IF(B599 &lt;&gt; 0, B599, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C599, Levels!B:B, 0), 1, 1)),", ",IF(A599 &lt;&gt; "", """mem"": bit" &amp; B599 &amp; "(" &amp; A599 &amp; "),", ""),"""good"": ",IF(A599 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A599 &lt;&gt; "", A599, -1),", ""bit"": ",IF(B599 &lt;&gt; "", B599, -1),"},")</f>
         <v>598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14452,7 +14452,7 @@
         <v>12</v>
       </c>
       <c r="D600" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C600, Levels!B:B, 0), 1, 1)),", ",IF(A600 &lt;&gt; "", """mem"": bit" &amp; B600 &amp; "(" &amp; A600 &amp; "),", ""),"""good"": ",IF(A600 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A600 &lt;&gt; "", A600, -1),", ""bit"": ",IF(B600 &lt;&gt; 0, B600, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C600, Levels!B:B, 0), 1, 1)),", ",IF(A600 &lt;&gt; "", """mem"": bit" &amp; B600 &amp; "(" &amp; A600 &amp; "),", ""),"""good"": ",IF(A600 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A600 &lt;&gt; "", A600, -1),", ""bit"": ",IF(B600 &lt;&gt; "", B600, -1),"},")</f>
         <v>599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
         <v>12</v>
       </c>
       <c r="D601" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C601, Levels!B:B, 0), 1, 1)),", ",IF(A601 &lt;&gt; "", """mem"": bit" &amp; B601 &amp; "(" &amp; A601 &amp; "),", ""),"""good"": ",IF(A601 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A601 &lt;&gt; "", A601, -1),", ""bit"": ",IF(B601 &lt;&gt; 0, B601, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C601, Levels!B:B, 0), 1, 1)),", ",IF(A601 &lt;&gt; "", """mem"": bit" &amp; B601 &amp; "(" &amp; A601 &amp; "),", ""),"""good"": ",IF(A601 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A601 &lt;&gt; "", A601, -1),", ""bit"": ",IF(B601 &lt;&gt; "", B601, -1),"},")</f>
         <v>600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14470,7 +14470,7 @@
         <v>12</v>
       </c>
       <c r="D602" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C602, Levels!B:B, 0), 1, 1)),", ",IF(A602 &lt;&gt; "", """mem"": bit" &amp; B602 &amp; "(" &amp; A602 &amp; "),", ""),"""good"": ",IF(A602 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A602 &lt;&gt; "", A602, -1),", ""bit"": ",IF(B602 &lt;&gt; 0, B602, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C602, Levels!B:B, 0), 1, 1)),", ",IF(A602 &lt;&gt; "", """mem"": bit" &amp; B602 &amp; "(" &amp; A602 &amp; "),", ""),"""good"": ",IF(A602 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A602 &lt;&gt; "", A602, -1),", ""bit"": ",IF(B602 &lt;&gt; "", B602, -1),"},")</f>
         <v>601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14479,7 +14479,7 @@
         <v>12</v>
       </c>
       <c r="D603" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C603, Levels!B:B, 0), 1, 1)),", ",IF(A603 &lt;&gt; "", """mem"": bit" &amp; B603 &amp; "(" &amp; A603 &amp; "),", ""),"""good"": ",IF(A603 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A603 &lt;&gt; "", A603, -1),", ""bit"": ",IF(B603 &lt;&gt; 0, B603, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C603, Levels!B:B, 0), 1, 1)),", ",IF(A603 &lt;&gt; "", """mem"": bit" &amp; B603 &amp; "(" &amp; A603 &amp; "),", ""),"""good"": ",IF(A603 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A603 &lt;&gt; "", A603, -1),", ""bit"": ",IF(B603 &lt;&gt; "", B603, -1),"},")</f>
         <v>602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
         <v>12</v>
       </c>
       <c r="D604" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C604, Levels!B:B, 0), 1, 1)),", ",IF(A604 &lt;&gt; "", """mem"": bit" &amp; B604 &amp; "(" &amp; A604 &amp; "),", ""),"""good"": ",IF(A604 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A604 &lt;&gt; "", A604, -1),", ""bit"": ",IF(B604 &lt;&gt; 0, B604, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C604, Levels!B:B, 0), 1, 1)),", ",IF(A604 &lt;&gt; "", """mem"": bit" &amp; B604 &amp; "(" &amp; A604 &amp; "),", ""),"""good"": ",IF(A604 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A604 &lt;&gt; "", A604, -1),", ""bit"": ",IF(B604 &lt;&gt; "", B604, -1),"},")</f>
         <v>603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14497,7 +14497,7 @@
         <v>12</v>
       </c>
       <c r="D605" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C605, Levels!B:B, 0), 1, 1)),", ",IF(A605 &lt;&gt; "", """mem"": bit" &amp; B605 &amp; "(" &amp; A605 &amp; "),", ""),"""good"": ",IF(A605 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A605 &lt;&gt; "", A605, -1),", ""bit"": ",IF(B605 &lt;&gt; 0, B605, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C605, Levels!B:B, 0), 1, 1)),", ",IF(A605 &lt;&gt; "", """mem"": bit" &amp; B605 &amp; "(" &amp; A605 &amp; "),", ""),"""good"": ",IF(A605 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A605 &lt;&gt; "", A605, -1),", ""bit"": ",IF(B605 &lt;&gt; "", B605, -1),"},")</f>
         <v>604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14506,7 +14506,7 @@
         <v>12</v>
       </c>
       <c r="D606" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C606, Levels!B:B, 0), 1, 1)),", ",IF(A606 &lt;&gt; "", """mem"": bit" &amp; B606 &amp; "(" &amp; A606 &amp; "),", ""),"""good"": ",IF(A606 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A606 &lt;&gt; "", A606, -1),", ""bit"": ",IF(B606 &lt;&gt; 0, B606, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C606, Levels!B:B, 0), 1, 1)),", ",IF(A606 &lt;&gt; "", """mem"": bit" &amp; B606 &amp; "(" &amp; A606 &amp; "),", ""),"""good"": ",IF(A606 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A606 &lt;&gt; "", A606, -1),", ""bit"": ",IF(B606 &lt;&gt; "", B606, -1),"},")</f>
         <v>605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
         <v>12</v>
       </c>
       <c r="D607" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C607, Levels!B:B, 0), 1, 1)),", ",IF(A607 &lt;&gt; "", """mem"": bit" &amp; B607 &amp; "(" &amp; A607 &amp; "),", ""),"""good"": ",IF(A607 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A607 &lt;&gt; "", A607, -1),", ""bit"": ",IF(B607 &lt;&gt; 0, B607, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C607, Levels!B:B, 0), 1, 1)),", ",IF(A607 &lt;&gt; "", """mem"": bit" &amp; B607 &amp; "(" &amp; A607 &amp; "),", ""),"""good"": ",IF(A607 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A607 &lt;&gt; "", A607, -1),", ""bit"": ",IF(B607 &lt;&gt; "", B607, -1),"},")</f>
         <v>606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14524,7 +14524,7 @@
         <v>12</v>
       </c>
       <c r="D608" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C608, Levels!B:B, 0), 1, 1)),", ",IF(A608 &lt;&gt; "", """mem"": bit" &amp; B608 &amp; "(" &amp; A608 &amp; "),", ""),"""good"": ",IF(A608 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A608 &lt;&gt; "", A608, -1),", ""bit"": ",IF(B608 &lt;&gt; 0, B608, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C608, Levels!B:B, 0), 1, 1)),", ",IF(A608 &lt;&gt; "", """mem"": bit" &amp; B608 &amp; "(" &amp; A608 &amp; "),", ""),"""good"": ",IF(A608 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A608 &lt;&gt; "", A608, -1),", ""bit"": ",IF(B608 &lt;&gt; "", B608, -1),"},")</f>
         <v>607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
         <v>12</v>
       </c>
       <c r="D609" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C609, Levels!B:B, 0), 1, 1)),", ",IF(A609 &lt;&gt; "", """mem"": bit" &amp; B609 &amp; "(" &amp; A609 &amp; "),", ""),"""good"": ",IF(A609 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A609 &lt;&gt; "", A609, -1),", ""bit"": ",IF(B609 &lt;&gt; 0, B609, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C609, Levels!B:B, 0), 1, 1)),", ",IF(A609 &lt;&gt; "", """mem"": bit" &amp; B609 &amp; "(" &amp; A609 &amp; "),", ""),"""good"": ",IF(A609 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A609 &lt;&gt; "", A609, -1),", ""bit"": ",IF(B609 &lt;&gt; "", B609, -1),"},")</f>
         <v>608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14542,7 +14542,7 @@
         <v>12</v>
       </c>
       <c r="D610" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C610, Levels!B:B, 0), 1, 1)),", ",IF(A610 &lt;&gt; "", """mem"": bit" &amp; B610 &amp; "(" &amp; A610 &amp; "),", ""),"""good"": ",IF(A610 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A610 &lt;&gt; "", A610, -1),", ""bit"": ",IF(B610 &lt;&gt; 0, B610, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C610, Levels!B:B, 0), 1, 1)),", ",IF(A610 &lt;&gt; "", """mem"": bit" &amp; B610 &amp; "(" &amp; A610 &amp; "),", ""),"""good"": ",IF(A610 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A610 &lt;&gt; "", A610, -1),", ""bit"": ",IF(B610 &lt;&gt; "", B610, -1),"},")</f>
         <v>609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
         <v>12</v>
       </c>
       <c r="D611" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C611, Levels!B:B, 0), 1, 1)),", ",IF(A611 &lt;&gt; "", """mem"": bit" &amp; B611 &amp; "(" &amp; A611 &amp; "),", ""),"""good"": ",IF(A611 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A611 &lt;&gt; "", A611, -1),", ""bit"": ",IF(B611 &lt;&gt; 0, B611, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C611, Levels!B:B, 0), 1, 1)),", ",IF(A611 &lt;&gt; "", """mem"": bit" &amp; B611 &amp; "(" &amp; A611 &amp; "),", ""),"""good"": ",IF(A611 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A611 &lt;&gt; "", A611, -1),", ""bit"": ",IF(B611 &lt;&gt; "", B611, -1),"},")</f>
         <v>610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14560,7 +14560,7 @@
         <v>12</v>
       </c>
       <c r="D612" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C612, Levels!B:B, 0), 1, 1)),", ",IF(A612 &lt;&gt; "", """mem"": bit" &amp; B612 &amp; "(" &amp; A612 &amp; "),", ""),"""good"": ",IF(A612 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A612 &lt;&gt; "", A612, -1),", ""bit"": ",IF(B612 &lt;&gt; 0, B612, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C612, Levels!B:B, 0), 1, 1)),", ",IF(A612 &lt;&gt; "", """mem"": bit" &amp; B612 &amp; "(" &amp; A612 &amp; "),", ""),"""good"": ",IF(A612 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A612 &lt;&gt; "", A612, -1),", ""bit"": ",IF(B612 &lt;&gt; "", B612, -1),"},")</f>
         <v>611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
         <v>12</v>
       </c>
       <c r="D613" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C613, Levels!B:B, 0), 1, 1)),", ",IF(A613 &lt;&gt; "", """mem"": bit" &amp; B613 &amp; "(" &amp; A613 &amp; "),", ""),"""good"": ",IF(A613 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A613 &lt;&gt; "", A613, -1),", ""bit"": ",IF(B613 &lt;&gt; 0, B613, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C613, Levels!B:B, 0), 1, 1)),", ",IF(A613 &lt;&gt; "", """mem"": bit" &amp; B613 &amp; "(" &amp; A613 &amp; "),", ""),"""good"": ",IF(A613 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A613 &lt;&gt; "", A613, -1),", ""bit"": ",IF(B613 &lt;&gt; "", B613, -1),"},")</f>
         <v>612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14578,7 +14578,7 @@
         <v>12</v>
       </c>
       <c r="D614" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C614, Levels!B:B, 0), 1, 1)),", ",IF(A614 &lt;&gt; "", """mem"": bit" &amp; B614 &amp; "(" &amp; A614 &amp; "),", ""),"""good"": ",IF(A614 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A614 &lt;&gt; "", A614, -1),", ""bit"": ",IF(B614 &lt;&gt; 0, B614, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C614, Levels!B:B, 0), 1, 1)),", ",IF(A614 &lt;&gt; "", """mem"": bit" &amp; B614 &amp; "(" &amp; A614 &amp; "),", ""),"""good"": ",IF(A614 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A614 &lt;&gt; "", A614, -1),", ""bit"": ",IF(B614 &lt;&gt; "", B614, -1),"},")</f>
         <v>613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
         <v>12</v>
       </c>
       <c r="D615" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C615, Levels!B:B, 0), 1, 1)),", ",IF(A615 &lt;&gt; "", """mem"": bit" &amp; B615 &amp; "(" &amp; A615 &amp; "),", ""),"""good"": ",IF(A615 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A615 &lt;&gt; "", A615, -1),", ""bit"": ",IF(B615 &lt;&gt; 0, B615, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C615, Levels!B:B, 0), 1, 1)),", ",IF(A615 &lt;&gt; "", """mem"": bit" &amp; B615 &amp; "(" &amp; A615 &amp; "),", ""),"""good"": ",IF(A615 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A615 &lt;&gt; "", A615, -1),", ""bit"": ",IF(B615 &lt;&gt; "", B615, -1),"},")</f>
         <v>614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
         <v>12</v>
       </c>
       <c r="D616" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C616, Levels!B:B, 0), 1, 1)),", ",IF(A616 &lt;&gt; "", """mem"": bit" &amp; B616 &amp; "(" &amp; A616 &amp; "),", ""),"""good"": ",IF(A616 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A616 &lt;&gt; "", A616, -1),", ""bit"": ",IF(B616 &lt;&gt; 0, B616, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C616, Levels!B:B, 0), 1, 1)),", ",IF(A616 &lt;&gt; "", """mem"": bit" &amp; B616 &amp; "(" &amp; A616 &amp; "),", ""),"""good"": ",IF(A616 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A616 &lt;&gt; "", A616, -1),", ""bit"": ",IF(B616 &lt;&gt; "", B616, -1),"},")</f>
         <v>615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
         <v>12</v>
       </c>
       <c r="D617" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C617, Levels!B:B, 0), 1, 1)),", ",IF(A617 &lt;&gt; "", """mem"": bit" &amp; B617 &amp; "(" &amp; A617 &amp; "),", ""),"""good"": ",IF(A617 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A617 &lt;&gt; "", A617, -1),", ""bit"": ",IF(B617 &lt;&gt; 0, B617, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C617, Levels!B:B, 0), 1, 1)),", ",IF(A617 &lt;&gt; "", """mem"": bit" &amp; B617 &amp; "(" &amp; A617 &amp; "),", ""),"""good"": ",IF(A617 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A617 &lt;&gt; "", A617, -1),", ""bit"": ",IF(B617 &lt;&gt; "", B617, -1),"},")</f>
         <v>616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
         <v>12</v>
       </c>
       <c r="D618" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C618, Levels!B:B, 0), 1, 1)),", ",IF(A618 &lt;&gt; "", """mem"": bit" &amp; B618 &amp; "(" &amp; A618 &amp; "),", ""),"""good"": ",IF(A618 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A618 &lt;&gt; "", A618, -1),", ""bit"": ",IF(B618 &lt;&gt; 0, B618, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C618, Levels!B:B, 0), 1, 1)),", ",IF(A618 &lt;&gt; "", """mem"": bit" &amp; B618 &amp; "(" &amp; A618 &amp; "),", ""),"""good"": ",IF(A618 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A618 &lt;&gt; "", A618, -1),", ""bit"": ",IF(B618 &lt;&gt; "", B618, -1),"},")</f>
         <v>617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
         <v>12</v>
       </c>
       <c r="D619" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C619, Levels!B:B, 0), 1, 1)),", ",IF(A619 &lt;&gt; "", """mem"": bit" &amp; B619 &amp; "(" &amp; A619 &amp; "),", ""),"""good"": ",IF(A619 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A619 &lt;&gt; "", A619, -1),", ""bit"": ",IF(B619 &lt;&gt; 0, B619, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C619, Levels!B:B, 0), 1, 1)),", ",IF(A619 &lt;&gt; "", """mem"": bit" &amp; B619 &amp; "(" &amp; A619 &amp; "),", ""),"""good"": ",IF(A619 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A619 &lt;&gt; "", A619, -1),", ""bit"": ",IF(B619 &lt;&gt; "", B619, -1),"},")</f>
         <v>618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14632,7 +14632,7 @@
         <v>12</v>
       </c>
       <c r="D620" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C620, Levels!B:B, 0), 1, 1)),", ",IF(A620 &lt;&gt; "", """mem"": bit" &amp; B620 &amp; "(" &amp; A620 &amp; "),", ""),"""good"": ",IF(A620 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A620 &lt;&gt; "", A620, -1),", ""bit"": ",IF(B620 &lt;&gt; 0, B620, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C620, Levels!B:B, 0), 1, 1)),", ",IF(A620 &lt;&gt; "", """mem"": bit" &amp; B620 &amp; "(" &amp; A620 &amp; "),", ""),"""good"": ",IF(A620 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A620 &lt;&gt; "", A620, -1),", ""bit"": ",IF(B620 &lt;&gt; "", B620, -1),"},")</f>
         <v>619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14641,7 +14641,7 @@
         <v>12</v>
       </c>
       <c r="D621" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C621, Levels!B:B, 0), 1, 1)),", ",IF(A621 &lt;&gt; "", """mem"": bit" &amp; B621 &amp; "(" &amp; A621 &amp; "),", ""),"""good"": ",IF(A621 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A621 &lt;&gt; "", A621, -1),", ""bit"": ",IF(B621 &lt;&gt; 0, B621, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C621, Levels!B:B, 0), 1, 1)),", ",IF(A621 &lt;&gt; "", """mem"": bit" &amp; B621 &amp; "(" &amp; A621 &amp; "),", ""),"""good"": ",IF(A621 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A621 &lt;&gt; "", A621, -1),", ""bit"": ",IF(B621 &lt;&gt; "", B621, -1),"},")</f>
         <v>620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14650,7 +14650,7 @@
         <v>12</v>
       </c>
       <c r="D622" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C622, Levels!B:B, 0), 1, 1)),", ",IF(A622 &lt;&gt; "", """mem"": bit" &amp; B622 &amp; "(" &amp; A622 &amp; "),", ""),"""good"": ",IF(A622 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A622 &lt;&gt; "", A622, -1),", ""bit"": ",IF(B622 &lt;&gt; 0, B622, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C622, Levels!B:B, 0), 1, 1)),", ",IF(A622 &lt;&gt; "", """mem"": bit" &amp; B622 &amp; "(" &amp; A622 &amp; "),", ""),"""good"": ",IF(A622 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A622 &lt;&gt; "", A622, -1),", ""bit"": ",IF(B622 &lt;&gt; "", B622, -1),"},")</f>
         <v>621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
         <v>12</v>
       </c>
       <c r="D623" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C623, Levels!B:B, 0), 1, 1)),", ",IF(A623 &lt;&gt; "", """mem"": bit" &amp; B623 &amp; "(" &amp; A623 &amp; "),", ""),"""good"": ",IF(A623 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A623 &lt;&gt; "", A623, -1),", ""bit"": ",IF(B623 &lt;&gt; 0, B623, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C623, Levels!B:B, 0), 1, 1)),", ",IF(A623 &lt;&gt; "", """mem"": bit" &amp; B623 &amp; "(" &amp; A623 &amp; "),", ""),"""good"": ",IF(A623 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A623 &lt;&gt; "", A623, -1),", ""bit"": ",IF(B623 &lt;&gt; "", B623, -1),"},")</f>
         <v>622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14668,7 +14668,7 @@
         <v>12</v>
       </c>
       <c r="D624" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C624, Levels!B:B, 0), 1, 1)),", ",IF(A624 &lt;&gt; "", """mem"": bit" &amp; B624 &amp; "(" &amp; A624 &amp; "),", ""),"""good"": ",IF(A624 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A624 &lt;&gt; "", A624, -1),", ""bit"": ",IF(B624 &lt;&gt; 0, B624, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C624, Levels!B:B, 0), 1, 1)),", ",IF(A624 &lt;&gt; "", """mem"": bit" &amp; B624 &amp; "(" &amp; A624 &amp; "),", ""),"""good"": ",IF(A624 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A624 &lt;&gt; "", A624, -1),", ""bit"": ",IF(B624 &lt;&gt; "", B624, -1),"},")</f>
         <v>623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
         <v>12</v>
       </c>
       <c r="D625" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C625, Levels!B:B, 0), 1, 1)),", ",IF(A625 &lt;&gt; "", """mem"": bit" &amp; B625 &amp; "(" &amp; A625 &amp; "),", ""),"""good"": ",IF(A625 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A625 &lt;&gt; "", A625, -1),", ""bit"": ",IF(B625 &lt;&gt; 0, B625, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C625, Levels!B:B, 0), 1, 1)),", ",IF(A625 &lt;&gt; "", """mem"": bit" &amp; B625 &amp; "(" &amp; A625 &amp; "),", ""),"""good"": ",IF(A625 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A625 &lt;&gt; "", A625, -1),", ""bit"": ",IF(B625 &lt;&gt; "", B625, -1),"},")</f>
         <v>624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14686,7 +14686,7 @@
         <v>12</v>
       </c>
       <c r="D626" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C626, Levels!B:B, 0), 1, 1)),", ",IF(A626 &lt;&gt; "", """mem"": bit" &amp; B626 &amp; "(" &amp; A626 &amp; "),", ""),"""good"": ",IF(A626 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A626 &lt;&gt; "", A626, -1),", ""bit"": ",IF(B626 &lt;&gt; 0, B626, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C626, Levels!B:B, 0), 1, 1)),", ",IF(A626 &lt;&gt; "", """mem"": bit" &amp; B626 &amp; "(" &amp; A626 &amp; "),", ""),"""good"": ",IF(A626 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A626 &lt;&gt; "", A626, -1),", ""bit"": ",IF(B626 &lt;&gt; "", B626, -1),"},")</f>
         <v>625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14695,7 +14695,7 @@
         <v>12</v>
       </c>
       <c r="D627" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C627, Levels!B:B, 0), 1, 1)),", ",IF(A627 &lt;&gt; "", """mem"": bit" &amp; B627 &amp; "(" &amp; A627 &amp; "),", ""),"""good"": ",IF(A627 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A627 &lt;&gt; "", A627, -1),", ""bit"": ",IF(B627 &lt;&gt; 0, B627, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C627, Levels!B:B, 0), 1, 1)),", ",IF(A627 &lt;&gt; "", """mem"": bit" &amp; B627 &amp; "(" &amp; A627 &amp; "),", ""),"""good"": ",IF(A627 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A627 &lt;&gt; "", A627, -1),", ""bit"": ",IF(B627 &lt;&gt; "", B627, -1),"},")</f>
         <v>626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14704,7 +14704,7 @@
         <v>12</v>
       </c>
       <c r="D628" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C628, Levels!B:B, 0), 1, 1)),", ",IF(A628 &lt;&gt; "", """mem"": bit" &amp; B628 &amp; "(" &amp; A628 &amp; "),", ""),"""good"": ",IF(A628 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A628 &lt;&gt; "", A628, -1),", ""bit"": ",IF(B628 &lt;&gt; 0, B628, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C628, Levels!B:B, 0), 1, 1)),", ",IF(A628 &lt;&gt; "", """mem"": bit" &amp; B628 &amp; "(" &amp; A628 &amp; "),", ""),"""good"": ",IF(A628 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A628 &lt;&gt; "", A628, -1),", ""bit"": ",IF(B628 &lt;&gt; "", B628, -1),"},")</f>
         <v>627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
         <v>12</v>
       </c>
       <c r="D629" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C629, Levels!B:B, 0), 1, 1)),", ",IF(A629 &lt;&gt; "", """mem"": bit" &amp; B629 &amp; "(" &amp; A629 &amp; "),", ""),"""good"": ",IF(A629 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A629 &lt;&gt; "", A629, -1),", ""bit"": ",IF(B629 &lt;&gt; 0, B629, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C629, Levels!B:B, 0), 1, 1)),", ",IF(A629 &lt;&gt; "", """mem"": bit" &amp; B629 &amp; "(" &amp; A629 &amp; "),", ""),"""good"": ",IF(A629 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A629 &lt;&gt; "", A629, -1),", ""bit"": ",IF(B629 &lt;&gt; "", B629, -1),"},")</f>
         <v>628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14722,7 +14722,7 @@
         <v>12</v>
       </c>
       <c r="D630" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C630, Levels!B:B, 0), 1, 1)),", ",IF(A630 &lt;&gt; "", """mem"": bit" &amp; B630 &amp; "(" &amp; A630 &amp; "),", ""),"""good"": ",IF(A630 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A630 &lt;&gt; "", A630, -1),", ""bit"": ",IF(B630 &lt;&gt; 0, B630, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C630, Levels!B:B, 0), 1, 1)),", ",IF(A630 &lt;&gt; "", """mem"": bit" &amp; B630 &amp; "(" &amp; A630 &amp; "),", ""),"""good"": ",IF(A630 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A630 &lt;&gt; "", A630, -1),", ""bit"": ",IF(B630 &lt;&gt; "", B630, -1),"},")</f>
         <v>629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14731,7 +14731,7 @@
         <v>12</v>
       </c>
       <c r="D631" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C631, Levels!B:B, 0), 1, 1)),", ",IF(A631 &lt;&gt; "", """mem"": bit" &amp; B631 &amp; "(" &amp; A631 &amp; "),", ""),"""good"": ",IF(A631 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A631 &lt;&gt; "", A631, -1),", ""bit"": ",IF(B631 &lt;&gt; 0, B631, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C631, Levels!B:B, 0), 1, 1)),", ",IF(A631 &lt;&gt; "", """mem"": bit" &amp; B631 &amp; "(" &amp; A631 &amp; "),", ""),"""good"": ",IF(A631 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A631 &lt;&gt; "", A631, -1),", ""bit"": ",IF(B631 &lt;&gt; "", B631, -1),"},")</f>
         <v>630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14740,7 +14740,7 @@
         <v>12</v>
       </c>
       <c r="D632" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C632, Levels!B:B, 0), 1, 1)),", ",IF(A632 &lt;&gt; "", """mem"": bit" &amp; B632 &amp; "(" &amp; A632 &amp; "),", ""),"""good"": ",IF(A632 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A632 &lt;&gt; "", A632, -1),", ""bit"": ",IF(B632 &lt;&gt; 0, B632, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C632, Levels!B:B, 0), 1, 1)),", ",IF(A632 &lt;&gt; "", """mem"": bit" &amp; B632 &amp; "(" &amp; A632 &amp; "),", ""),"""good"": ",IF(A632 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A632 &lt;&gt; "", A632, -1),", ""bit"": ",IF(B632 &lt;&gt; "", B632, -1),"},")</f>
         <v>631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14749,7 +14749,7 @@
         <v>12</v>
       </c>
       <c r="D633" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C633, Levels!B:B, 0), 1, 1)),", ",IF(A633 &lt;&gt; "", """mem"": bit" &amp; B633 &amp; "(" &amp; A633 &amp; "),", ""),"""good"": ",IF(A633 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A633 &lt;&gt; "", A633, -1),", ""bit"": ",IF(B633 &lt;&gt; 0, B633, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C633, Levels!B:B, 0), 1, 1)),", ",IF(A633 &lt;&gt; "", """mem"": bit" &amp; B633 &amp; "(" &amp; A633 &amp; "),", ""),"""good"": ",IF(A633 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A633 &lt;&gt; "", A633, -1),", ""bit"": ",IF(B633 &lt;&gt; "", B633, -1),"},")</f>
         <v>632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
         <v>12</v>
       </c>
       <c r="D634" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C634, Levels!B:B, 0), 1, 1)),", ",IF(A634 &lt;&gt; "", """mem"": bit" &amp; B634 &amp; "(" &amp; A634 &amp; "),", ""),"""good"": ",IF(A634 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A634 &lt;&gt; "", A634, -1),", ""bit"": ",IF(B634 &lt;&gt; 0, B634, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C634, Levels!B:B, 0), 1, 1)),", ",IF(A634 &lt;&gt; "", """mem"": bit" &amp; B634 &amp; "(" &amp; A634 &amp; "),", ""),"""good"": ",IF(A634 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A634 &lt;&gt; "", A634, -1),", ""bit"": ",IF(B634 &lt;&gt; "", B634, -1),"},")</f>
         <v>633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
         <v>12</v>
       </c>
       <c r="D635" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C635, Levels!B:B, 0), 1, 1)),", ",IF(A635 &lt;&gt; "", """mem"": bit" &amp; B635 &amp; "(" &amp; A635 &amp; "),", ""),"""good"": ",IF(A635 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A635 &lt;&gt; "", A635, -1),", ""bit"": ",IF(B635 &lt;&gt; 0, B635, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C635, Levels!B:B, 0), 1, 1)),", ",IF(A635 &lt;&gt; "", """mem"": bit" &amp; B635 &amp; "(" &amp; A635 &amp; "),", ""),"""good"": ",IF(A635 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A635 &lt;&gt; "", A635, -1),", ""bit"": ",IF(B635 &lt;&gt; "", B635, -1),"},")</f>
         <v>634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14776,7 +14776,7 @@
         <v>12</v>
       </c>
       <c r="D636" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C636, Levels!B:B, 0), 1, 1)),", ",IF(A636 &lt;&gt; "", """mem"": bit" &amp; B636 &amp; "(" &amp; A636 &amp; "),", ""),"""good"": ",IF(A636 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A636 &lt;&gt; "", A636, -1),", ""bit"": ",IF(B636 &lt;&gt; 0, B636, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C636, Levels!B:B, 0), 1, 1)),", ",IF(A636 &lt;&gt; "", """mem"": bit" &amp; B636 &amp; "(" &amp; A636 &amp; "),", ""),"""good"": ",IF(A636 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A636 &lt;&gt; "", A636, -1),", ""bit"": ",IF(B636 &lt;&gt; "", B636, -1),"},")</f>
         <v>635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
         <v>12</v>
       </c>
       <c r="D637" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C637, Levels!B:B, 0), 1, 1)),", ",IF(A637 &lt;&gt; "", """mem"": bit" &amp; B637 &amp; "(" &amp; A637 &amp; "),", ""),"""good"": ",IF(A637 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A637 &lt;&gt; "", A637, -1),", ""bit"": ",IF(B637 &lt;&gt; 0, B637, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C637, Levels!B:B, 0), 1, 1)),", ",IF(A637 &lt;&gt; "", """mem"": bit" &amp; B637 &amp; "(" &amp; A637 &amp; "),", ""),"""good"": ",IF(A637 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A637 &lt;&gt; "", A637, -1),", ""bit"": ",IF(B637 &lt;&gt; "", B637, -1),"},")</f>
         <v>636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14794,7 +14794,7 @@
         <v>12</v>
       </c>
       <c r="D638" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C638, Levels!B:B, 0), 1, 1)),", ",IF(A638 &lt;&gt; "", """mem"": bit" &amp; B638 &amp; "(" &amp; A638 &amp; "),", ""),"""good"": ",IF(A638 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A638 &lt;&gt; "", A638, -1),", ""bit"": ",IF(B638 &lt;&gt; 0, B638, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C638, Levels!B:B, 0), 1, 1)),", ",IF(A638 &lt;&gt; "", """mem"": bit" &amp; B638 &amp; "(" &amp; A638 &amp; "),", ""),"""good"": ",IF(A638 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A638 &lt;&gt; "", A638, -1),", ""bit"": ",IF(B638 &lt;&gt; "", B638, -1),"},")</f>
         <v>637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
         <v>12</v>
       </c>
       <c r="D639" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C639, Levels!B:B, 0), 1, 1)),", ",IF(A639 &lt;&gt; "", """mem"": bit" &amp; B639 &amp; "(" &amp; A639 &amp; "),", ""),"""good"": ",IF(A639 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A639 &lt;&gt; "", A639, -1),", ""bit"": ",IF(B639 &lt;&gt; 0, B639, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C639, Levels!B:B, 0), 1, 1)),", ",IF(A639 &lt;&gt; "", """mem"": bit" &amp; B639 &amp; "(" &amp; A639 &amp; "),", ""),"""good"": ",IF(A639 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A639 &lt;&gt; "", A639, -1),", ""bit"": ",IF(B639 &lt;&gt; "", B639, -1),"},")</f>
         <v>638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14812,7 +14812,7 @@
         <v>12</v>
       </c>
       <c r="D640" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C640, Levels!B:B, 0), 1, 1)),", ",IF(A640 &lt;&gt; "", """mem"": bit" &amp; B640 &amp; "(" &amp; A640 &amp; "),", ""),"""good"": ",IF(A640 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A640 &lt;&gt; "", A640, -1),", ""bit"": ",IF(B640 &lt;&gt; 0, B640, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C640, Levels!B:B, 0), 1, 1)),", ",IF(A640 &lt;&gt; "", """mem"": bit" &amp; B640 &amp; "(" &amp; A640 &amp; "),", ""),"""good"": ",IF(A640 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A640 &lt;&gt; "", A640, -1),", ""bit"": ",IF(B640 &lt;&gt; "", B640, -1),"},")</f>
         <v>639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
         <v>12</v>
       </c>
       <c r="D641" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C641, Levels!B:B, 0), 1, 1)),", ",IF(A641 &lt;&gt; "", """mem"": bit" &amp; B641 &amp; "(" &amp; A641 &amp; "),", ""),"""good"": ",IF(A641 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A641 &lt;&gt; "", A641, -1),", ""bit"": ",IF(B641 &lt;&gt; 0, B641, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C641, Levels!B:B, 0), 1, 1)),", ",IF(A641 &lt;&gt; "", """mem"": bit" &amp; B641 &amp; "(" &amp; A641 &amp; "),", ""),"""good"": ",IF(A641 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A641 &lt;&gt; "", A641, -1),", ""bit"": ",IF(B641 &lt;&gt; "", B641, -1),"},")</f>
         <v>640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14830,7 +14830,7 @@
         <v>12</v>
       </c>
       <c r="D642" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C642, Levels!B:B, 0), 1, 1)),", ",IF(A642 &lt;&gt; "", """mem"": bit" &amp; B642 &amp; "(" &amp; A642 &amp; "),", ""),"""good"": ",IF(A642 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A642 &lt;&gt; "", A642, -1),", ""bit"": ",IF(B642 &lt;&gt; 0, B642, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C642, Levels!B:B, 0), 1, 1)),", ",IF(A642 &lt;&gt; "", """mem"": bit" &amp; B642 &amp; "(" &amp; A642 &amp; "),", ""),"""good"": ",IF(A642 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A642 &lt;&gt; "", A642, -1),", ""bit"": ",IF(B642 &lt;&gt; "", B642, -1),"},")</f>
         <v>641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
         <v>12</v>
       </c>
       <c r="D643" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C643, Levels!B:B, 0), 1, 1)),", ",IF(A643 &lt;&gt; "", """mem"": bit" &amp; B643 &amp; "(" &amp; A643 &amp; "),", ""),"""good"": ",IF(A643 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A643 &lt;&gt; "", A643, -1),", ""bit"": ",IF(B643 &lt;&gt; 0, B643, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C643, Levels!B:B, 0), 1, 1)),", ",IF(A643 &lt;&gt; "", """mem"": bit" &amp; B643 &amp; "(" &amp; A643 &amp; "),", ""),"""good"": ",IF(A643 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A643 &lt;&gt; "", A643, -1),", ""bit"": ",IF(B643 &lt;&gt; "", B643, -1),"},")</f>
         <v>642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14848,7 +14848,7 @@
         <v>12</v>
       </c>
       <c r="D644" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C644, Levels!B:B, 0), 1, 1)),", ",IF(A644 &lt;&gt; "", """mem"": bit" &amp; B644 &amp; "(" &amp; A644 &amp; "),", ""),"""good"": ",IF(A644 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A644 &lt;&gt; "", A644, -1),", ""bit"": ",IF(B644 &lt;&gt; 0, B644, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C644, Levels!B:B, 0), 1, 1)),", ",IF(A644 &lt;&gt; "", """mem"": bit" &amp; B644 &amp; "(" &amp; A644 &amp; "),", ""),"""good"": ",IF(A644 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A644 &lt;&gt; "", A644, -1),", ""bit"": ",IF(B644 &lt;&gt; "", B644, -1),"},")</f>
         <v>643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
         <v>12</v>
       </c>
       <c r="D645" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C645, Levels!B:B, 0), 1, 1)),", ",IF(A645 &lt;&gt; "", """mem"": bit" &amp; B645 &amp; "(" &amp; A645 &amp; "),", ""),"""good"": ",IF(A645 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A645 &lt;&gt; "", A645, -1),", ""bit"": ",IF(B645 &lt;&gt; 0, B645, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C645, Levels!B:B, 0), 1, 1)),", ",IF(A645 &lt;&gt; "", """mem"": bit" &amp; B645 &amp; "(" &amp; A645 &amp; "),", ""),"""good"": ",IF(A645 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A645 &lt;&gt; "", A645, -1),", ""bit"": ",IF(B645 &lt;&gt; "", B645, -1),"},")</f>
         <v>644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14866,7 +14866,7 @@
         <v>12</v>
       </c>
       <c r="D646" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C646, Levels!B:B, 0), 1, 1)),", ",IF(A646 &lt;&gt; "", """mem"": bit" &amp; B646 &amp; "(" &amp; A646 &amp; "),", ""),"""good"": ",IF(A646 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A646 &lt;&gt; "", A646, -1),", ""bit"": ",IF(B646 &lt;&gt; 0, B646, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C646, Levels!B:B, 0), 1, 1)),", ",IF(A646 &lt;&gt; "", """mem"": bit" &amp; B646 &amp; "(" &amp; A646 &amp; "),", ""),"""good"": ",IF(A646 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A646 &lt;&gt; "", A646, -1),", ""bit"": ",IF(B646 &lt;&gt; "", B646, -1),"},")</f>
         <v>645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14875,7 +14875,7 @@
         <v>12</v>
       </c>
       <c r="D647" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C647, Levels!B:B, 0), 1, 1)),", ",IF(A647 &lt;&gt; "", """mem"": bit" &amp; B647 &amp; "(" &amp; A647 &amp; "),", ""),"""good"": ",IF(A647 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A647 &lt;&gt; "", A647, -1),", ""bit"": ",IF(B647 &lt;&gt; 0, B647, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C647, Levels!B:B, 0), 1, 1)),", ",IF(A647 &lt;&gt; "", """mem"": bit" &amp; B647 &amp; "(" &amp; A647 &amp; "),", ""),"""good"": ",IF(A647 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A647 &lt;&gt; "", A647, -1),", ""bit"": ",IF(B647 &lt;&gt; "", B647, -1),"},")</f>
         <v>646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
         <v>12</v>
       </c>
       <c r="D648" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C648, Levels!B:B, 0), 1, 1)),", ",IF(A648 &lt;&gt; "", """mem"": bit" &amp; B648 &amp; "(" &amp; A648 &amp; "),", ""),"""good"": ",IF(A648 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A648 &lt;&gt; "", A648, -1),", ""bit"": ",IF(B648 &lt;&gt; 0, B648, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C648, Levels!B:B, 0), 1, 1)),", ",IF(A648 &lt;&gt; "", """mem"": bit" &amp; B648 &amp; "(" &amp; A648 &amp; "),", ""),"""good"": ",IF(A648 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A648 &lt;&gt; "", A648, -1),", ""bit"": ",IF(B648 &lt;&gt; "", B648, -1),"},")</f>
         <v>647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
         <v>12</v>
       </c>
       <c r="D649" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C649, Levels!B:B, 0), 1, 1)),", ",IF(A649 &lt;&gt; "", """mem"": bit" &amp; B649 &amp; "(" &amp; A649 &amp; "),", ""),"""good"": ",IF(A649 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A649 &lt;&gt; "", A649, -1),", ""bit"": ",IF(B649 &lt;&gt; 0, B649, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C649, Levels!B:B, 0), 1, 1)),", ",IF(A649 &lt;&gt; "", """mem"": bit" &amp; B649 &amp; "(" &amp; A649 &amp; "),", ""),"""good"": ",IF(A649 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A649 &lt;&gt; "", A649, -1),", ""bit"": ",IF(B649 &lt;&gt; "", B649, -1),"},")</f>
         <v>648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14902,7 +14902,7 @@
         <v>12</v>
       </c>
       <c r="D650" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C650, Levels!B:B, 0), 1, 1)),", ",IF(A650 &lt;&gt; "", """mem"": bit" &amp; B650 &amp; "(" &amp; A650 &amp; "),", ""),"""good"": ",IF(A650 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A650 &lt;&gt; "", A650, -1),", ""bit"": ",IF(B650 &lt;&gt; 0, B650, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C650, Levels!B:B, 0), 1, 1)),", ",IF(A650 &lt;&gt; "", """mem"": bit" &amp; B650 &amp; "(" &amp; A650 &amp; "),", ""),"""good"": ",IF(A650 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A650 &lt;&gt; "", A650, -1),", ""bit"": ",IF(B650 &lt;&gt; "", B650, -1),"},")</f>
         <v>649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14911,7 +14911,7 @@
         <v>12</v>
       </c>
       <c r="D651" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C651, Levels!B:B, 0), 1, 1)),", ",IF(A651 &lt;&gt; "", """mem"": bit" &amp; B651 &amp; "(" &amp; A651 &amp; "),", ""),"""good"": ",IF(A651 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A651 &lt;&gt; "", A651, -1),", ""bit"": ",IF(B651 &lt;&gt; 0, B651, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C651, Levels!B:B, 0), 1, 1)),", ",IF(A651 &lt;&gt; "", """mem"": bit" &amp; B651 &amp; "(" &amp; A651 &amp; "),", ""),"""good"": ",IF(A651 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A651 &lt;&gt; "", A651, -1),", ""bit"": ",IF(B651 &lt;&gt; "", B651, -1),"},")</f>
         <v>650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
         <v>12</v>
       </c>
       <c r="D652" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C652, Levels!B:B, 0), 1, 1)),", ",IF(A652 &lt;&gt; "", """mem"": bit" &amp; B652 &amp; "(" &amp; A652 &amp; "),", ""),"""good"": ",IF(A652 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A652 &lt;&gt; "", A652, -1),", ""bit"": ",IF(B652 &lt;&gt; 0, B652, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C652, Levels!B:B, 0), 1, 1)),", ",IF(A652 &lt;&gt; "", """mem"": bit" &amp; B652 &amp; "(" &amp; A652 &amp; "),", ""),"""good"": ",IF(A652 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A652 &lt;&gt; "", A652, -1),", ""bit"": ",IF(B652 &lt;&gt; "", B652, -1),"},")</f>
         <v>651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14929,7 +14929,7 @@
         <v>12</v>
       </c>
       <c r="D653" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C653, Levels!B:B, 0), 1, 1)),", ",IF(A653 &lt;&gt; "", """mem"": bit" &amp; B653 &amp; "(" &amp; A653 &amp; "),", ""),"""good"": ",IF(A653 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A653 &lt;&gt; "", A653, -1),", ""bit"": ",IF(B653 &lt;&gt; 0, B653, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C653, Levels!B:B, 0), 1, 1)),", ",IF(A653 &lt;&gt; "", """mem"": bit" &amp; B653 &amp; "(" &amp; A653 &amp; "),", ""),"""good"": ",IF(A653 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A653 &lt;&gt; "", A653, -1),", ""bit"": ",IF(B653 &lt;&gt; "", B653, -1),"},")</f>
         <v>652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
         <v>12</v>
       </c>
       <c r="D654" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C654, Levels!B:B, 0), 1, 1)),", ",IF(A654 &lt;&gt; "", """mem"": bit" &amp; B654 &amp; "(" &amp; A654 &amp; "),", ""),"""good"": ",IF(A654 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A654 &lt;&gt; "", A654, -1),", ""bit"": ",IF(B654 &lt;&gt; 0, B654, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C654, Levels!B:B, 0), 1, 1)),", ",IF(A654 &lt;&gt; "", """mem"": bit" &amp; B654 &amp; "(" &amp; A654 &amp; "),", ""),"""good"": ",IF(A654 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A654 &lt;&gt; "", A654, -1),", ""bit"": ",IF(B654 &lt;&gt; "", B654, -1),"},")</f>
         <v>653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
         <v>12</v>
       </c>
       <c r="D655" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C655, Levels!B:B, 0), 1, 1)),", ",IF(A655 &lt;&gt; "", """mem"": bit" &amp; B655 &amp; "(" &amp; A655 &amp; "),", ""),"""good"": ",IF(A655 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A655 &lt;&gt; "", A655, -1),", ""bit"": ",IF(B655 &lt;&gt; 0, B655, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C655, Levels!B:B, 0), 1, 1)),", ",IF(A655 &lt;&gt; "", """mem"": bit" &amp; B655 &amp; "(" &amp; A655 &amp; "),", ""),"""good"": ",IF(A655 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A655 &lt;&gt; "", A655, -1),", ""bit"": ",IF(B655 &lt;&gt; "", B655, -1),"},")</f>
         <v>654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14956,7 +14956,7 @@
         <v>12</v>
       </c>
       <c r="D656" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C656, Levels!B:B, 0), 1, 1)),", ",IF(A656 &lt;&gt; "", """mem"": bit" &amp; B656 &amp; "(" &amp; A656 &amp; "),", ""),"""good"": ",IF(A656 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A656 &lt;&gt; "", A656, -1),", ""bit"": ",IF(B656 &lt;&gt; 0, B656, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C656, Levels!B:B, 0), 1, 1)),", ",IF(A656 &lt;&gt; "", """mem"": bit" &amp; B656 &amp; "(" &amp; A656 &amp; "),", ""),"""good"": ",IF(A656 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A656 &lt;&gt; "", A656, -1),", ""bit"": ",IF(B656 &lt;&gt; "", B656, -1),"},")</f>
         <v>655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
         <v>12</v>
       </c>
       <c r="D657" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C657, Levels!B:B, 0), 1, 1)),", ",IF(A657 &lt;&gt; "", """mem"": bit" &amp; B657 &amp; "(" &amp; A657 &amp; "),", ""),"""good"": ",IF(A657 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A657 &lt;&gt; "", A657, -1),", ""bit"": ",IF(B657 &lt;&gt; 0, B657, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C657, Levels!B:B, 0), 1, 1)),", ",IF(A657 &lt;&gt; "", """mem"": bit" &amp; B657 &amp; "(" &amp; A657 &amp; "),", ""),"""good"": ",IF(A657 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A657 &lt;&gt; "", A657, -1),", ""bit"": ",IF(B657 &lt;&gt; "", B657, -1),"},")</f>
         <v>656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14974,7 +14974,7 @@
         <v>12</v>
       </c>
       <c r="D658" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C658, Levels!B:B, 0), 1, 1)),", ",IF(A658 &lt;&gt; "", """mem"": bit" &amp; B658 &amp; "(" &amp; A658 &amp; "),", ""),"""good"": ",IF(A658 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A658 &lt;&gt; "", A658, -1),", ""bit"": ",IF(B658 &lt;&gt; 0, B658, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C658, Levels!B:B, 0), 1, 1)),", ",IF(A658 &lt;&gt; "", """mem"": bit" &amp; B658 &amp; "(" &amp; A658 &amp; "),", ""),"""good"": ",IF(A658 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A658 &lt;&gt; "", A658, -1),", ""bit"": ",IF(B658 &lt;&gt; "", B658, -1),"},")</f>
         <v>657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
         <v>12</v>
       </c>
       <c r="D659" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C659, Levels!B:B, 0), 1, 1)),", ",IF(A659 &lt;&gt; "", """mem"": bit" &amp; B659 &amp; "(" &amp; A659 &amp; "),", ""),"""good"": ",IF(A659 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A659 &lt;&gt; "", A659, -1),", ""bit"": ",IF(B659 &lt;&gt; 0, B659, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C659, Levels!B:B, 0), 1, 1)),", ",IF(A659 &lt;&gt; "", """mem"": bit" &amp; B659 &amp; "(" &amp; A659 &amp; "),", ""),"""good"": ",IF(A659 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A659 &lt;&gt; "", A659, -1),", ""bit"": ",IF(B659 &lt;&gt; "", B659, -1),"},")</f>
         <v>658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -14992,7 +14992,7 @@
         <v>12</v>
       </c>
       <c r="D660" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C660, Levels!B:B, 0), 1, 1)),", ",IF(A660 &lt;&gt; "", """mem"": bit" &amp; B660 &amp; "(" &amp; A660 &amp; "),", ""),"""good"": ",IF(A660 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A660 &lt;&gt; "", A660, -1),", ""bit"": ",IF(B660 &lt;&gt; 0, B660, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C660, Levels!B:B, 0), 1, 1)),", ",IF(A660 &lt;&gt; "", """mem"": bit" &amp; B660 &amp; "(" &amp; A660 &amp; "),", ""),"""good"": ",IF(A660 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A660 &lt;&gt; "", A660, -1),", ""bit"": ",IF(B660 &lt;&gt; "", B660, -1),"},")</f>
         <v>659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
         <v>12</v>
       </c>
       <c r="D661" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C661, Levels!B:B, 0), 1, 1)),", ",IF(A661 &lt;&gt; "", """mem"": bit" &amp; B661 &amp; "(" &amp; A661 &amp; "),", ""),"""good"": ",IF(A661 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A661 &lt;&gt; "", A661, -1),", ""bit"": ",IF(B661 &lt;&gt; 0, B661, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C661, Levels!B:B, 0), 1, 1)),", ",IF(A661 &lt;&gt; "", """mem"": bit" &amp; B661 &amp; "(" &amp; A661 &amp; "),", ""),"""good"": ",IF(A661 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A661 &lt;&gt; "", A661, -1),", ""bit"": ",IF(B661 &lt;&gt; "", B661, -1),"},")</f>
         <v>660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
         <v>12</v>
       </c>
       <c r="D662" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C662, Levels!B:B, 0), 1, 1)),", ",IF(A662 &lt;&gt; "", """mem"": bit" &amp; B662 &amp; "(" &amp; A662 &amp; "),", ""),"""good"": ",IF(A662 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A662 &lt;&gt; "", A662, -1),", ""bit"": ",IF(B662 &lt;&gt; 0, B662, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C662, Levels!B:B, 0), 1, 1)),", ",IF(A662 &lt;&gt; "", """mem"": bit" &amp; B662 &amp; "(" &amp; A662 &amp; "),", ""),"""good"": ",IF(A662 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A662 &lt;&gt; "", A662, -1),", ""bit"": ",IF(B662 &lt;&gt; "", B662, -1),"},")</f>
         <v>661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15019,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="D663" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C663, Levels!B:B, 0), 1, 1)),", ",IF(A663 &lt;&gt; "", """mem"": bit" &amp; B663 &amp; "(" &amp; A663 &amp; "),", ""),"""good"": ",IF(A663 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A663 &lt;&gt; "", A663, -1),", ""bit"": ",IF(B663 &lt;&gt; 0, B663, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C663, Levels!B:B, 0), 1, 1)),", ",IF(A663 &lt;&gt; "", """mem"": bit" &amp; B663 &amp; "(" &amp; A663 &amp; "),", ""),"""good"": ",IF(A663 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A663 &lt;&gt; "", A663, -1),", ""bit"": ",IF(B663 &lt;&gt; "", B663, -1),"},")</f>
         <v>662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15028,7 +15028,7 @@
         <v>12</v>
       </c>
       <c r="D664" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C664, Levels!B:B, 0), 1, 1)),", ",IF(A664 &lt;&gt; "", """mem"": bit" &amp; B664 &amp; "(" &amp; A664 &amp; "),", ""),"""good"": ",IF(A664 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A664 &lt;&gt; "", A664, -1),", ""bit"": ",IF(B664 &lt;&gt; 0, B664, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C664, Levels!B:B, 0), 1, 1)),", ",IF(A664 &lt;&gt; "", """mem"": bit" &amp; B664 &amp; "(" &amp; A664 &amp; "),", ""),"""good"": ",IF(A664 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A664 &lt;&gt; "", A664, -1),", ""bit"": ",IF(B664 &lt;&gt; "", B664, -1),"},")</f>
         <v>663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15037,7 +15037,7 @@
         <v>12</v>
       </c>
       <c r="D665" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C665, Levels!B:B, 0), 1, 1)),", ",IF(A665 &lt;&gt; "", """mem"": bit" &amp; B665 &amp; "(" &amp; A665 &amp; "),", ""),"""good"": ",IF(A665 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A665 &lt;&gt; "", A665, -1),", ""bit"": ",IF(B665 &lt;&gt; 0, B665, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C665, Levels!B:B, 0), 1, 1)),", ",IF(A665 &lt;&gt; "", """mem"": bit" &amp; B665 &amp; "(" &amp; A665 &amp; "),", ""),"""good"": ",IF(A665 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A665 &lt;&gt; "", A665, -1),", ""bit"": ",IF(B665 &lt;&gt; "", B665, -1),"},")</f>
         <v>664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15046,7 +15046,7 @@
         <v>12</v>
       </c>
       <c r="D666" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C666, Levels!B:B, 0), 1, 1)),", ",IF(A666 &lt;&gt; "", """mem"": bit" &amp; B666 &amp; "(" &amp; A666 &amp; "),", ""),"""good"": ",IF(A666 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A666 &lt;&gt; "", A666, -1),", ""bit"": ",IF(B666 &lt;&gt; 0, B666, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C666, Levels!B:B, 0), 1, 1)),", ",IF(A666 &lt;&gt; "", """mem"": bit" &amp; B666 &amp; "(" &amp; A666 &amp; "),", ""),"""good"": ",IF(A666 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A666 &lt;&gt; "", A666, -1),", ""bit"": ",IF(B666 &lt;&gt; "", B666, -1),"},")</f>
         <v>665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15055,7 +15055,7 @@
         <v>12</v>
       </c>
       <c r="D667" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C667, Levels!B:B, 0), 1, 1)),", ",IF(A667 &lt;&gt; "", """mem"": bit" &amp; B667 &amp; "(" &amp; A667 &amp; "),", ""),"""good"": ",IF(A667 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A667 &lt;&gt; "", A667, -1),", ""bit"": ",IF(B667 &lt;&gt; 0, B667, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C667, Levels!B:B, 0), 1, 1)),", ",IF(A667 &lt;&gt; "", """mem"": bit" &amp; B667 &amp; "(" &amp; A667 &amp; "),", ""),"""good"": ",IF(A667 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A667 &lt;&gt; "", A667, -1),", ""bit"": ",IF(B667 &lt;&gt; "", B667, -1),"},")</f>
         <v>666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15064,7 +15064,7 @@
         <v>12</v>
       </c>
       <c r="D668" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C668, Levels!B:B, 0), 1, 1)),", ",IF(A668 &lt;&gt; "", """mem"": bit" &amp; B668 &amp; "(" &amp; A668 &amp; "),", ""),"""good"": ",IF(A668 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A668 &lt;&gt; "", A668, -1),", ""bit"": ",IF(B668 &lt;&gt; 0, B668, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C668, Levels!B:B, 0), 1, 1)),", ",IF(A668 &lt;&gt; "", """mem"": bit" &amp; B668 &amp; "(" &amp; A668 &amp; "),", ""),"""good"": ",IF(A668 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A668 &lt;&gt; "", A668, -1),", ""bit"": ",IF(B668 &lt;&gt; "", B668, -1),"},")</f>
         <v>667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
         <v>12</v>
       </c>
       <c r="D669" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C669, Levels!B:B, 0), 1, 1)),", ",IF(A669 &lt;&gt; "", """mem"": bit" &amp; B669 &amp; "(" &amp; A669 &amp; "),", ""),"""good"": ",IF(A669 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A669 &lt;&gt; "", A669, -1),", ""bit"": ",IF(B669 &lt;&gt; 0, B669, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C669, Levels!B:B, 0), 1, 1)),", ",IF(A669 &lt;&gt; "", """mem"": bit" &amp; B669 &amp; "(" &amp; A669 &amp; "),", ""),"""good"": ",IF(A669 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A669 &lt;&gt; "", A669, -1),", ""bit"": ",IF(B669 &lt;&gt; "", B669, -1),"},")</f>
         <v>668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15082,7 +15082,7 @@
         <v>12</v>
       </c>
       <c r="D670" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C670, Levels!B:B, 0), 1, 1)),", ",IF(A670 &lt;&gt; "", """mem"": bit" &amp; B670 &amp; "(" &amp; A670 &amp; "),", ""),"""good"": ",IF(A670 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A670 &lt;&gt; "", A670, -1),", ""bit"": ",IF(B670 &lt;&gt; 0, B670, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C670, Levels!B:B, 0), 1, 1)),", ",IF(A670 &lt;&gt; "", """mem"": bit" &amp; B670 &amp; "(" &amp; A670 &amp; "),", ""),"""good"": ",IF(A670 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A670 &lt;&gt; "", A670, -1),", ""bit"": ",IF(B670 &lt;&gt; "", B670, -1),"},")</f>
         <v>669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
         <v>12</v>
       </c>
       <c r="D671" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C671, Levels!B:B, 0), 1, 1)),", ",IF(A671 &lt;&gt; "", """mem"": bit" &amp; B671 &amp; "(" &amp; A671 &amp; "),", ""),"""good"": ",IF(A671 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A671 &lt;&gt; "", A671, -1),", ""bit"": ",IF(B671 &lt;&gt; 0, B671, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C671, Levels!B:B, 0), 1, 1)),", ",IF(A671 &lt;&gt; "", """mem"": bit" &amp; B671 &amp; "(" &amp; A671 &amp; "),", ""),"""good"": ",IF(A671 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A671 &lt;&gt; "", A671, -1),", ""bit"": ",IF(B671 &lt;&gt; "", B671, -1),"},")</f>
         <v>670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15100,7 +15100,7 @@
         <v>12</v>
       </c>
       <c r="D672" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C672, Levels!B:B, 0), 1, 1)),", ",IF(A672 &lt;&gt; "", """mem"": bit" &amp; B672 &amp; "(" &amp; A672 &amp; "),", ""),"""good"": ",IF(A672 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A672 &lt;&gt; "", A672, -1),", ""bit"": ",IF(B672 &lt;&gt; 0, B672, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C672, Levels!B:B, 0), 1, 1)),", ",IF(A672 &lt;&gt; "", """mem"": bit" &amp; B672 &amp; "(" &amp; A672 &amp; "),", ""),"""good"": ",IF(A672 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A672 &lt;&gt; "", A672, -1),", ""bit"": ",IF(B672 &lt;&gt; "", B672, -1),"},")</f>
         <v>671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
         <v>12</v>
       </c>
       <c r="D673" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C673, Levels!B:B, 0), 1, 1)),", ",IF(A673 &lt;&gt; "", """mem"": bit" &amp; B673 &amp; "(" &amp; A673 &amp; "),", ""),"""good"": ",IF(A673 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A673 &lt;&gt; "", A673, -1),", ""bit"": ",IF(B673 &lt;&gt; 0, B673, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C673, Levels!B:B, 0), 1, 1)),", ",IF(A673 &lt;&gt; "", """mem"": bit" &amp; B673 &amp; "(" &amp; A673 &amp; "),", ""),"""good"": ",IF(A673 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A673 &lt;&gt; "", A673, -1),", ""bit"": ",IF(B673 &lt;&gt; "", B673, -1),"},")</f>
         <v>672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15118,7 +15118,7 @@
         <v>12</v>
       </c>
       <c r="D674" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C674, Levels!B:B, 0), 1, 1)),", ",IF(A674 &lt;&gt; "", """mem"": bit" &amp; B674 &amp; "(" &amp; A674 &amp; "),", ""),"""good"": ",IF(A674 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A674 &lt;&gt; "", A674, -1),", ""bit"": ",IF(B674 &lt;&gt; 0, B674, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C674, Levels!B:B, 0), 1, 1)),", ",IF(A674 &lt;&gt; "", """mem"": bit" &amp; B674 &amp; "(" &amp; A674 &amp; "),", ""),"""good"": ",IF(A674 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A674 &lt;&gt; "", A674, -1),", ""bit"": ",IF(B674 &lt;&gt; "", B674, -1),"},")</f>
         <v>673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15127,7 +15127,7 @@
         <v>12</v>
       </c>
       <c r="D675" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C675, Levels!B:B, 0), 1, 1)),", ",IF(A675 &lt;&gt; "", """mem"": bit" &amp; B675 &amp; "(" &amp; A675 &amp; "),", ""),"""good"": ",IF(A675 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A675 &lt;&gt; "", A675, -1),", ""bit"": ",IF(B675 &lt;&gt; 0, B675, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C675, Levels!B:B, 0), 1, 1)),", ",IF(A675 &lt;&gt; "", """mem"": bit" &amp; B675 &amp; "(" &amp; A675 &amp; "),", ""),"""good"": ",IF(A675 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A675 &lt;&gt; "", A675, -1),", ""bit"": ",IF(B675 &lt;&gt; "", B675, -1),"},")</f>
         <v>674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15136,7 +15136,7 @@
         <v>12</v>
       </c>
       <c r="D676" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C676, Levels!B:B, 0), 1, 1)),", ",IF(A676 &lt;&gt; "", """mem"": bit" &amp; B676 &amp; "(" &amp; A676 &amp; "),", ""),"""good"": ",IF(A676 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A676 &lt;&gt; "", A676, -1),", ""bit"": ",IF(B676 &lt;&gt; 0, B676, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C676, Levels!B:B, 0), 1, 1)),", ",IF(A676 &lt;&gt; "", """mem"": bit" &amp; B676 &amp; "(" &amp; A676 &amp; "),", ""),"""good"": ",IF(A676 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A676 &lt;&gt; "", A676, -1),", ""bit"": ",IF(B676 &lt;&gt; "", B676, -1),"},")</f>
         <v>675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15145,7 +15145,7 @@
         <v>12</v>
       </c>
       <c r="D677" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C677, Levels!B:B, 0), 1, 1)),", ",IF(A677 &lt;&gt; "", """mem"": bit" &amp; B677 &amp; "(" &amp; A677 &amp; "),", ""),"""good"": ",IF(A677 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A677 &lt;&gt; "", A677, -1),", ""bit"": ",IF(B677 &lt;&gt; 0, B677, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C677, Levels!B:B, 0), 1, 1)),", ",IF(A677 &lt;&gt; "", """mem"": bit" &amp; B677 &amp; "(" &amp; A677 &amp; "),", ""),"""good"": ",IF(A677 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A677 &lt;&gt; "", A677, -1),", ""bit"": ",IF(B677 &lt;&gt; "", B677, -1),"},")</f>
         <v>676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
         <v>12</v>
       </c>
       <c r="D678" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C678, Levels!B:B, 0), 1, 1)),", ",IF(A678 &lt;&gt; "", """mem"": bit" &amp; B678 &amp; "(" &amp; A678 &amp; "),", ""),"""good"": ",IF(A678 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A678 &lt;&gt; "", A678, -1),", ""bit"": ",IF(B678 &lt;&gt; 0, B678, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C678, Levels!B:B, 0), 1, 1)),", ",IF(A678 &lt;&gt; "", """mem"": bit" &amp; B678 &amp; "(" &amp; A678 &amp; "),", ""),"""good"": ",IF(A678 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A678 &lt;&gt; "", A678, -1),", ""bit"": ",IF(B678 &lt;&gt; "", B678, -1),"},")</f>
         <v>677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
         <v>12</v>
       </c>
       <c r="D679" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C679, Levels!B:B, 0), 1, 1)),", ",IF(A679 &lt;&gt; "", """mem"": bit" &amp; B679 &amp; "(" &amp; A679 &amp; "),", ""),"""good"": ",IF(A679 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A679 &lt;&gt; "", A679, -1),", ""bit"": ",IF(B679 &lt;&gt; 0, B679, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C679, Levels!B:B, 0), 1, 1)),", ",IF(A679 &lt;&gt; "", """mem"": bit" &amp; B679 &amp; "(" &amp; A679 &amp; "),", ""),"""good"": ",IF(A679 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A679 &lt;&gt; "", A679, -1),", ""bit"": ",IF(B679 &lt;&gt; "", B679, -1),"},")</f>
         <v>678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
         <v>12</v>
       </c>
       <c r="D680" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C680, Levels!B:B, 0), 1, 1)),", ",IF(A680 &lt;&gt; "", """mem"": bit" &amp; B680 &amp; "(" &amp; A680 &amp; "),", ""),"""good"": ",IF(A680 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A680 &lt;&gt; "", A680, -1),", ""bit"": ",IF(B680 &lt;&gt; 0, B680, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C680, Levels!B:B, 0), 1, 1)),", ",IF(A680 &lt;&gt; "", """mem"": bit" &amp; B680 &amp; "(" &amp; A680 &amp; "),", ""),"""good"": ",IF(A680 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A680 &lt;&gt; "", A680, -1),", ""bit"": ",IF(B680 &lt;&gt; "", B680, -1),"},")</f>
         <v>679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15181,7 +15181,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C681, Levels!B:B, 0), 1, 1)),", ",IF(A681 &lt;&gt; "", """mem"": bit" &amp; B681 &amp; "(" &amp; A681 &amp; "),", ""),"""good"": ",IF(A681 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A681 &lt;&gt; "", A681, -1),", ""bit"": ",IF(B681 &lt;&gt; 0, B681, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C681, Levels!B:B, 0), 1, 1)),", ",IF(A681 &lt;&gt; "", """mem"": bit" &amp; B681 &amp; "(" &amp; A681 &amp; "),", ""),"""good"": ",IF(A681 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A681 &lt;&gt; "", A681, -1),", ""bit"": ",IF(B681 &lt;&gt; "", B681, -1),"},")</f>
         <v>680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
         <v>12</v>
       </c>
       <c r="D682" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C682, Levels!B:B, 0), 1, 1)),", ",IF(A682 &lt;&gt; "", """mem"": bit" &amp; B682 &amp; "(" &amp; A682 &amp; "),", ""),"""good"": ",IF(A682 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A682 &lt;&gt; "", A682, -1),", ""bit"": ",IF(B682 &lt;&gt; 0, B682, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C682, Levels!B:B, 0), 1, 1)),", ",IF(A682 &lt;&gt; "", """mem"": bit" &amp; B682 &amp; "(" &amp; A682 &amp; "),", ""),"""good"": ",IF(A682 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A682 &lt;&gt; "", A682, -1),", ""bit"": ",IF(B682 &lt;&gt; "", B682, -1),"},")</f>
         <v>681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15199,7 +15199,7 @@
         <v>12</v>
       </c>
       <c r="D683" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C683, Levels!B:B, 0), 1, 1)),", ",IF(A683 &lt;&gt; "", """mem"": bit" &amp; B683 &amp; "(" &amp; A683 &amp; "),", ""),"""good"": ",IF(A683 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A683 &lt;&gt; "", A683, -1),", ""bit"": ",IF(B683 &lt;&gt; 0, B683, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C683, Levels!B:B, 0), 1, 1)),", ",IF(A683 &lt;&gt; "", """mem"": bit" &amp; B683 &amp; "(" &amp; A683 &amp; "),", ""),"""good"": ",IF(A683 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A683 &lt;&gt; "", A683, -1),", ""bit"": ",IF(B683 &lt;&gt; "", B683, -1),"},")</f>
         <v>682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15208,7 +15208,7 @@
         <v>12</v>
       </c>
       <c r="D684" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C684, Levels!B:B, 0), 1, 1)),", ",IF(A684 &lt;&gt; "", """mem"": bit" &amp; B684 &amp; "(" &amp; A684 &amp; "),", ""),"""good"": ",IF(A684 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A684 &lt;&gt; "", A684, -1),", ""bit"": ",IF(B684 &lt;&gt; 0, B684, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C684, Levels!B:B, 0), 1, 1)),", ",IF(A684 &lt;&gt; "", """mem"": bit" &amp; B684 &amp; "(" &amp; A684 &amp; "),", ""),"""good"": ",IF(A684 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A684 &lt;&gt; "", A684, -1),", ""bit"": ",IF(B684 &lt;&gt; "", B684, -1),"},")</f>
         <v>683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15217,7 +15217,7 @@
         <v>12</v>
       </c>
       <c r="D685" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C685, Levels!B:B, 0), 1, 1)),", ",IF(A685 &lt;&gt; "", """mem"": bit" &amp; B685 &amp; "(" &amp; A685 &amp; "),", ""),"""good"": ",IF(A685 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A685 &lt;&gt; "", A685, -1),", ""bit"": ",IF(B685 &lt;&gt; 0, B685, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C685, Levels!B:B, 0), 1, 1)),", ",IF(A685 &lt;&gt; "", """mem"": bit" &amp; B685 &amp; "(" &amp; A685 &amp; "),", ""),"""good"": ",IF(A685 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A685 &lt;&gt; "", A685, -1),", ""bit"": ",IF(B685 &lt;&gt; "", B685, -1),"},")</f>
         <v>684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
         <v>12</v>
       </c>
       <c r="D686" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C686, Levels!B:B, 0), 1, 1)),", ",IF(A686 &lt;&gt; "", """mem"": bit" &amp; B686 &amp; "(" &amp; A686 &amp; "),", ""),"""good"": ",IF(A686 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A686 &lt;&gt; "", A686, -1),", ""bit"": ",IF(B686 &lt;&gt; 0, B686, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C686, Levels!B:B, 0), 1, 1)),", ",IF(A686 &lt;&gt; "", """mem"": bit" &amp; B686 &amp; "(" &amp; A686 &amp; "),", ""),"""good"": ",IF(A686 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A686 &lt;&gt; "", A686, -1),", ""bit"": ",IF(B686 &lt;&gt; "", B686, -1),"},")</f>
         <v>685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15235,7 +15235,7 @@
         <v>12</v>
       </c>
       <c r="D687" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C687, Levels!B:B, 0), 1, 1)),", ",IF(A687 &lt;&gt; "", """mem"": bit" &amp; B687 &amp; "(" &amp; A687 &amp; "),", ""),"""good"": ",IF(A687 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A687 &lt;&gt; "", A687, -1),", ""bit"": ",IF(B687 &lt;&gt; 0, B687, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C687, Levels!B:B, 0), 1, 1)),", ",IF(A687 &lt;&gt; "", """mem"": bit" &amp; B687 &amp; "(" &amp; A687 &amp; "),", ""),"""good"": ",IF(A687 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A687 &lt;&gt; "", A687, -1),", ""bit"": ",IF(B687 &lt;&gt; "", B687, -1),"},")</f>
         <v>686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15244,7 +15244,7 @@
         <v>12</v>
       </c>
       <c r="D688" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C688, Levels!B:B, 0), 1, 1)),", ",IF(A688 &lt;&gt; "", """mem"": bit" &amp; B688 &amp; "(" &amp; A688 &amp; "),", ""),"""good"": ",IF(A688 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A688 &lt;&gt; "", A688, -1),", ""bit"": ",IF(B688 &lt;&gt; 0, B688, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C688, Levels!B:B, 0), 1, 1)),", ",IF(A688 &lt;&gt; "", """mem"": bit" &amp; B688 &amp; "(" &amp; A688 &amp; "),", ""),"""good"": ",IF(A688 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A688 &lt;&gt; "", A688, -1),", ""bit"": ",IF(B688 &lt;&gt; "", B688, -1),"},")</f>
         <v>687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
         <v>12</v>
       </c>
       <c r="D689" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C689, Levels!B:B, 0), 1, 1)),", ",IF(A689 &lt;&gt; "", """mem"": bit" &amp; B689 &amp; "(" &amp; A689 &amp; "),", ""),"""good"": ",IF(A689 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A689 &lt;&gt; "", A689, -1),", ""bit"": ",IF(B689 &lt;&gt; 0, B689, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C689, Levels!B:B, 0), 1, 1)),", ",IF(A689 &lt;&gt; "", """mem"": bit" &amp; B689 &amp; "(" &amp; A689 &amp; "),", ""),"""good"": ",IF(A689 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A689 &lt;&gt; "", A689, -1),", ""bit"": ",IF(B689 &lt;&gt; "", B689, -1),"},")</f>
         <v>688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15262,7 +15262,7 @@
         <v>12</v>
       </c>
       <c r="D690" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C690, Levels!B:B, 0), 1, 1)),", ",IF(A690 &lt;&gt; "", """mem"": bit" &amp; B690 &amp; "(" &amp; A690 &amp; "),", ""),"""good"": ",IF(A690 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A690 &lt;&gt; "", A690, -1),", ""bit"": ",IF(B690 &lt;&gt; 0, B690, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C690, Levels!B:B, 0), 1, 1)),", ",IF(A690 &lt;&gt; "", """mem"": bit" &amp; B690 &amp; "(" &amp; A690 &amp; "),", ""),"""good"": ",IF(A690 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A690 &lt;&gt; "", A690, -1),", ""bit"": ",IF(B690 &lt;&gt; "", B690, -1),"},")</f>
         <v>689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15271,7 +15271,7 @@
         <v>12</v>
       </c>
       <c r="D691" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C691, Levels!B:B, 0), 1, 1)),", ",IF(A691 &lt;&gt; "", """mem"": bit" &amp; B691 &amp; "(" &amp; A691 &amp; "),", ""),"""good"": ",IF(A691 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A691 &lt;&gt; "", A691, -1),", ""bit"": ",IF(B691 &lt;&gt; 0, B691, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C691, Levels!B:B, 0), 1, 1)),", ",IF(A691 &lt;&gt; "", """mem"": bit" &amp; B691 &amp; "(" &amp; A691 &amp; "),", ""),"""good"": ",IF(A691 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A691 &lt;&gt; "", A691, -1),", ""bit"": ",IF(B691 &lt;&gt; "", B691, -1),"},")</f>
         <v>690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15280,7 +15280,7 @@
         <v>12</v>
       </c>
       <c r="D692" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C692, Levels!B:B, 0), 1, 1)),", ",IF(A692 &lt;&gt; "", """mem"": bit" &amp; B692 &amp; "(" &amp; A692 &amp; "),", ""),"""good"": ",IF(A692 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A692 &lt;&gt; "", A692, -1),", ""bit"": ",IF(B692 &lt;&gt; 0, B692, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C692, Levels!B:B, 0), 1, 1)),", ",IF(A692 &lt;&gt; "", """mem"": bit" &amp; B692 &amp; "(" &amp; A692 &amp; "),", ""),"""good"": ",IF(A692 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A692 &lt;&gt; "", A692, -1),", ""bit"": ",IF(B692 &lt;&gt; "", B692, -1),"},")</f>
         <v>691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15289,7 +15289,7 @@
         <v>12</v>
       </c>
       <c r="D693" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C693, Levels!B:B, 0), 1, 1)),", ",IF(A693 &lt;&gt; "", """mem"": bit" &amp; B693 &amp; "(" &amp; A693 &amp; "),", ""),"""good"": ",IF(A693 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A693 &lt;&gt; "", A693, -1),", ""bit"": ",IF(B693 &lt;&gt; 0, B693, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C693, Levels!B:B, 0), 1, 1)),", ",IF(A693 &lt;&gt; "", """mem"": bit" &amp; B693 &amp; "(" &amp; A693 &amp; "),", ""),"""good"": ",IF(A693 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A693 &lt;&gt; "", A693, -1),", ""bit"": ",IF(B693 &lt;&gt; "", B693, -1),"},")</f>
         <v>692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
         <v>12</v>
       </c>
       <c r="D694" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C694, Levels!B:B, 0), 1, 1)),", ",IF(A694 &lt;&gt; "", """mem"": bit" &amp; B694 &amp; "(" &amp; A694 &amp; "),", ""),"""good"": ",IF(A694 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A694 &lt;&gt; "", A694, -1),", ""bit"": ",IF(B694 &lt;&gt; 0, B694, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C694, Levels!B:B, 0), 1, 1)),", ",IF(A694 &lt;&gt; "", """mem"": bit" &amp; B694 &amp; "(" &amp; A694 &amp; "),", ""),"""good"": ",IF(A694 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A694 &lt;&gt; "", A694, -1),", ""bit"": ",IF(B694 &lt;&gt; "", B694, -1),"},")</f>
         <v>693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15307,7 +15307,7 @@
         <v>12</v>
       </c>
       <c r="D695" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C695, Levels!B:B, 0), 1, 1)),", ",IF(A695 &lt;&gt; "", """mem"": bit" &amp; B695 &amp; "(" &amp; A695 &amp; "),", ""),"""good"": ",IF(A695 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A695 &lt;&gt; "", A695, -1),", ""bit"": ",IF(B695 &lt;&gt; 0, B695, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C695, Levels!B:B, 0), 1, 1)),", ",IF(A695 &lt;&gt; "", """mem"": bit" &amp; B695 &amp; "(" &amp; A695 &amp; "),", ""),"""good"": ",IF(A695 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A695 &lt;&gt; "", A695, -1),", ""bit"": ",IF(B695 &lt;&gt; "", B695, -1),"},")</f>
         <v>694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
         <v>12</v>
       </c>
       <c r="D696" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C696, Levels!B:B, 0), 1, 1)),", ",IF(A696 &lt;&gt; "", """mem"": bit" &amp; B696 &amp; "(" &amp; A696 &amp; "),", ""),"""good"": ",IF(A696 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A696 &lt;&gt; "", A696, -1),", ""bit"": ",IF(B696 &lt;&gt; 0, B696, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C696, Levels!B:B, 0), 1, 1)),", ",IF(A696 &lt;&gt; "", """mem"": bit" &amp; B696 &amp; "(" &amp; A696 &amp; "),", ""),"""good"": ",IF(A696 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A696 &lt;&gt; "", A696, -1),", ""bit"": ",IF(B696 &lt;&gt; "", B696, -1),"},")</f>
         <v>695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15325,7 +15325,7 @@
         <v>12</v>
       </c>
       <c r="D697" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C697, Levels!B:B, 0), 1, 1)),", ",IF(A697 &lt;&gt; "", """mem"": bit" &amp; B697 &amp; "(" &amp; A697 &amp; "),", ""),"""good"": ",IF(A697 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A697 &lt;&gt; "", A697, -1),", ""bit"": ",IF(B697 &lt;&gt; 0, B697, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C697, Levels!B:B, 0), 1, 1)),", ",IF(A697 &lt;&gt; "", """mem"": bit" &amp; B697 &amp; "(" &amp; A697 &amp; "),", ""),"""good"": ",IF(A697 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A697 &lt;&gt; "", A697, -1),", ""bit"": ",IF(B697 &lt;&gt; "", B697, -1),"},")</f>
         <v>696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15334,7 +15334,7 @@
         <v>12</v>
       </c>
       <c r="D698" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C698, Levels!B:B, 0), 1, 1)),", ",IF(A698 &lt;&gt; "", """mem"": bit" &amp; B698 &amp; "(" &amp; A698 &amp; "),", ""),"""good"": ",IF(A698 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A698 &lt;&gt; "", A698, -1),", ""bit"": ",IF(B698 &lt;&gt; 0, B698, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C698, Levels!B:B, 0), 1, 1)),", ",IF(A698 &lt;&gt; "", """mem"": bit" &amp; B698 &amp; "(" &amp; A698 &amp; "),", ""),"""good"": ",IF(A698 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A698 &lt;&gt; "", A698, -1),", ""bit"": ",IF(B698 &lt;&gt; "", B698, -1),"},")</f>
         <v>697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
         <v>12</v>
       </c>
       <c r="D699" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C699, Levels!B:B, 0), 1, 1)),", ",IF(A699 &lt;&gt; "", """mem"": bit" &amp; B699 &amp; "(" &amp; A699 &amp; "),", ""),"""good"": ",IF(A699 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A699 &lt;&gt; "", A699, -1),", ""bit"": ",IF(B699 &lt;&gt; 0, B699, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C699, Levels!B:B, 0), 1, 1)),", ",IF(A699 &lt;&gt; "", """mem"": bit" &amp; B699 &amp; "(" &amp; A699 &amp; "),", ""),"""good"": ",IF(A699 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A699 &lt;&gt; "", A699, -1),", ""bit"": ",IF(B699 &lt;&gt; "", B699, -1),"},")</f>
         <v>698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15352,7 +15352,7 @@
         <v>12</v>
       </c>
       <c r="D700" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C700, Levels!B:B, 0), 1, 1)),", ",IF(A700 &lt;&gt; "", """mem"": bit" &amp; B700 &amp; "(" &amp; A700 &amp; "),", ""),"""good"": ",IF(A700 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A700 &lt;&gt; "", A700, -1),", ""bit"": ",IF(B700 &lt;&gt; 0, B700, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C700, Levels!B:B, 0), 1, 1)),", ",IF(A700 &lt;&gt; "", """mem"": bit" &amp; B700 &amp; "(" &amp; A700 &amp; "),", ""),"""good"": ",IF(A700 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A700 &lt;&gt; "", A700, -1),", ""bit"": ",IF(B700 &lt;&gt; "", B700, -1),"},")</f>
         <v>699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
         <v>12</v>
       </c>
       <c r="D701" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C701, Levels!B:B, 0), 1, 1)),", ",IF(A701 &lt;&gt; "", """mem"": bit" &amp; B701 &amp; "(" &amp; A701 &amp; "),", ""),"""good"": ",IF(A701 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A701 &lt;&gt; "", A701, -1),", ""bit"": ",IF(B701 &lt;&gt; 0, B701, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C701, Levels!B:B, 0), 1, 1)),", ",IF(A701 &lt;&gt; "", """mem"": bit" &amp; B701 &amp; "(" &amp; A701 &amp; "),", ""),"""good"": ",IF(A701 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A701 &lt;&gt; "", A701, -1),", ""bit"": ",IF(B701 &lt;&gt; "", B701, -1),"},")</f>
         <v>700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
         <v>12</v>
       </c>
       <c r="D702" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C702, Levels!B:B, 0), 1, 1)),", ",IF(A702 &lt;&gt; "", """mem"": bit" &amp; B702 &amp; "(" &amp; A702 &amp; "),", ""),"""good"": ",IF(A702 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A702 &lt;&gt; "", A702, -1),", ""bit"": ",IF(B702 &lt;&gt; 0, B702, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C702, Levels!B:B, 0), 1, 1)),", ",IF(A702 &lt;&gt; "", """mem"": bit" &amp; B702 &amp; "(" &amp; A702 &amp; "),", ""),"""good"": ",IF(A702 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A702 &lt;&gt; "", A702, -1),", ""bit"": ",IF(B702 &lt;&gt; "", B702, -1),"},")</f>
         <v>701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
         <v>12</v>
       </c>
       <c r="D703" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C703, Levels!B:B, 0), 1, 1)),", ",IF(A703 &lt;&gt; "", """mem"": bit" &amp; B703 &amp; "(" &amp; A703 &amp; "),", ""),"""good"": ",IF(A703 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A703 &lt;&gt; "", A703, -1),", ""bit"": ",IF(B703 &lt;&gt; 0, B703, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C703, Levels!B:B, 0), 1, 1)),", ",IF(A703 &lt;&gt; "", """mem"": bit" &amp; B703 &amp; "(" &amp; A703 &amp; "),", ""),"""good"": ",IF(A703 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A703 &lt;&gt; "", A703, -1),", ""bit"": ",IF(B703 &lt;&gt; "", B703, -1),"},")</f>
         <v>702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15388,7 +15388,7 @@
         <v>12</v>
       </c>
       <c r="D704" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C704, Levels!B:B, 0), 1, 1)),", ",IF(A704 &lt;&gt; "", """mem"": bit" &amp; B704 &amp; "(" &amp; A704 &amp; "),", ""),"""good"": ",IF(A704 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A704 &lt;&gt; "", A704, -1),", ""bit"": ",IF(B704 &lt;&gt; 0, B704, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C704, Levels!B:B, 0), 1, 1)),", ",IF(A704 &lt;&gt; "", """mem"": bit" &amp; B704 &amp; "(" &amp; A704 &amp; "),", ""),"""good"": ",IF(A704 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A704 &lt;&gt; "", A704, -1),", ""bit"": ",IF(B704 &lt;&gt; "", B704, -1),"},")</f>
         <v>703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
         <v>12</v>
       </c>
       <c r="D705" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C705, Levels!B:B, 0), 1, 1)),", ",IF(A705 &lt;&gt; "", """mem"": bit" &amp; B705 &amp; "(" &amp; A705 &amp; "),", ""),"""good"": ",IF(A705 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A705 &lt;&gt; "", A705, -1),", ""bit"": ",IF(B705 &lt;&gt; 0, B705, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C705, Levels!B:B, 0), 1, 1)),", ",IF(A705 &lt;&gt; "", """mem"": bit" &amp; B705 &amp; "(" &amp; A705 &amp; "),", ""),"""good"": ",IF(A705 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A705 &lt;&gt; "", A705, -1),", ""bit"": ",IF(B705 &lt;&gt; "", B705, -1),"},")</f>
         <v>704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15406,7 +15406,7 @@
         <v>12</v>
       </c>
       <c r="D706" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C706, Levels!B:B, 0), 1, 1)),", ",IF(A706 &lt;&gt; "", """mem"": bit" &amp; B706 &amp; "(" &amp; A706 &amp; "),", ""),"""good"": ",IF(A706 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A706 &lt;&gt; "", A706, -1),", ""bit"": ",IF(B706 &lt;&gt; 0, B706, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C706, Levels!B:B, 0), 1, 1)),", ",IF(A706 &lt;&gt; "", """mem"": bit" &amp; B706 &amp; "(" &amp; A706 &amp; "),", ""),"""good"": ",IF(A706 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A706 &lt;&gt; "", A706, -1),", ""bit"": ",IF(B706 &lt;&gt; "", B706, -1),"},")</f>
         <v>705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15415,7 +15415,7 @@
         <v>12</v>
       </c>
       <c r="D707" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C707, Levels!B:B, 0), 1, 1)),", ",IF(A707 &lt;&gt; "", """mem"": bit" &amp; B707 &amp; "(" &amp; A707 &amp; "),", ""),"""good"": ",IF(A707 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A707 &lt;&gt; "", A707, -1),", ""bit"": ",IF(B707 &lt;&gt; 0, B707, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C707, Levels!B:B, 0), 1, 1)),", ",IF(A707 &lt;&gt; "", """mem"": bit" &amp; B707 &amp; "(" &amp; A707 &amp; "),", ""),"""good"": ",IF(A707 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A707 &lt;&gt; "", A707, -1),", ""bit"": ",IF(B707 &lt;&gt; "", B707, -1),"},")</f>
         <v>706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
         <v>12</v>
       </c>
       <c r="D708" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C708, Levels!B:B, 0), 1, 1)),", ",IF(A708 &lt;&gt; "", """mem"": bit" &amp; B708 &amp; "(" &amp; A708 &amp; "),", ""),"""good"": ",IF(A708 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A708 &lt;&gt; "", A708, -1),", ""bit"": ",IF(B708 &lt;&gt; 0, B708, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C708, Levels!B:B, 0), 1, 1)),", ",IF(A708 &lt;&gt; "", """mem"": bit" &amp; B708 &amp; "(" &amp; A708 &amp; "),", ""),"""good"": ",IF(A708 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A708 &lt;&gt; "", A708, -1),", ""bit"": ",IF(B708 &lt;&gt; "", B708, -1),"},")</f>
         <v>707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
         <v>12</v>
       </c>
       <c r="D709" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C709, Levels!B:B, 0), 1, 1)),", ",IF(A709 &lt;&gt; "", """mem"": bit" &amp; B709 &amp; "(" &amp; A709 &amp; "),", ""),"""good"": ",IF(A709 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A709 &lt;&gt; "", A709, -1),", ""bit"": ",IF(B709 &lt;&gt; 0, B709, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C709, Levels!B:B, 0), 1, 1)),", ",IF(A709 &lt;&gt; "", """mem"": bit" &amp; B709 &amp; "(" &amp; A709 &amp; "),", ""),"""good"": ",IF(A709 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A709 &lt;&gt; "", A709, -1),", ""bit"": ",IF(B709 &lt;&gt; "", B709, -1),"},")</f>
         <v>708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
         <v>12</v>
       </c>
       <c r="D710" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C710, Levels!B:B, 0), 1, 1)),", ",IF(A710 &lt;&gt; "", """mem"": bit" &amp; B710 &amp; "(" &amp; A710 &amp; "),", ""),"""good"": ",IF(A710 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A710 &lt;&gt; "", A710, -1),", ""bit"": ",IF(B710 &lt;&gt; 0, B710, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C710, Levels!B:B, 0), 1, 1)),", ",IF(A710 &lt;&gt; "", """mem"": bit" &amp; B710 &amp; "(" &amp; A710 &amp; "),", ""),"""good"": ",IF(A710 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A710 &lt;&gt; "", A710, -1),", ""bit"": ",IF(B710 &lt;&gt; "", B710, -1),"},")</f>
         <v>709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15451,7 +15451,7 @@
         <v>12</v>
       </c>
       <c r="D711" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C711, Levels!B:B, 0), 1, 1)),", ",IF(A711 &lt;&gt; "", """mem"": bit" &amp; B711 &amp; "(" &amp; A711 &amp; "),", ""),"""good"": ",IF(A711 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A711 &lt;&gt; "", A711, -1),", ""bit"": ",IF(B711 &lt;&gt; 0, B711, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C711, Levels!B:B, 0), 1, 1)),", ",IF(A711 &lt;&gt; "", """mem"": bit" &amp; B711 &amp; "(" &amp; A711 &amp; "),", ""),"""good"": ",IF(A711 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A711 &lt;&gt; "", A711, -1),", ""bit"": ",IF(B711 &lt;&gt; "", B711, -1),"},")</f>
         <v>710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
         <v>12</v>
       </c>
       <c r="D712" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C712, Levels!B:B, 0), 1, 1)),", ",IF(A712 &lt;&gt; "", """mem"": bit" &amp; B712 &amp; "(" &amp; A712 &amp; "),", ""),"""good"": ",IF(A712 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A712 &lt;&gt; "", A712, -1),", ""bit"": ",IF(B712 &lt;&gt; 0, B712, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C712, Levels!B:B, 0), 1, 1)),", ",IF(A712 &lt;&gt; "", """mem"": bit" &amp; B712 &amp; "(" &amp; A712 &amp; "),", ""),"""good"": ",IF(A712 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A712 &lt;&gt; "", A712, -1),", ""bit"": ",IF(B712 &lt;&gt; "", B712, -1),"},")</f>
         <v>711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
         <v>12</v>
       </c>
       <c r="D713" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C713, Levels!B:B, 0), 1, 1)),", ",IF(A713 &lt;&gt; "", """mem"": bit" &amp; B713 &amp; "(" &amp; A713 &amp; "),", ""),"""good"": ",IF(A713 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A713 &lt;&gt; "", A713, -1),", ""bit"": ",IF(B713 &lt;&gt; 0, B713, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C713, Levels!B:B, 0), 1, 1)),", ",IF(A713 &lt;&gt; "", """mem"": bit" &amp; B713 &amp; "(" &amp; A713 &amp; "),", ""),"""good"": ",IF(A713 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A713 &lt;&gt; "", A713, -1),", ""bit"": ",IF(B713 &lt;&gt; "", B713, -1),"},")</f>
         <v>712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15478,7 +15478,7 @@
         <v>12</v>
       </c>
       <c r="D714" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C714, Levels!B:B, 0), 1, 1)),", ",IF(A714 &lt;&gt; "", """mem"": bit" &amp; B714 &amp; "(" &amp; A714 &amp; "),", ""),"""good"": ",IF(A714 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A714 &lt;&gt; "", A714, -1),", ""bit"": ",IF(B714 &lt;&gt; 0, B714, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C714, Levels!B:B, 0), 1, 1)),", ",IF(A714 &lt;&gt; "", """mem"": bit" &amp; B714 &amp; "(" &amp; A714 &amp; "),", ""),"""good"": ",IF(A714 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A714 &lt;&gt; "", A714, -1),", ""bit"": ",IF(B714 &lt;&gt; "", B714, -1),"},")</f>
         <v>713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15487,7 +15487,7 @@
         <v>12</v>
       </c>
       <c r="D715" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C715, Levels!B:B, 0), 1, 1)),", ",IF(A715 &lt;&gt; "", """mem"": bit" &amp; B715 &amp; "(" &amp; A715 &amp; "),", ""),"""good"": ",IF(A715 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A715 &lt;&gt; "", A715, -1),", ""bit"": ",IF(B715 &lt;&gt; 0, B715, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C715, Levels!B:B, 0), 1, 1)),", ",IF(A715 &lt;&gt; "", """mem"": bit" &amp; B715 &amp; "(" &amp; A715 &amp; "),", ""),"""good"": ",IF(A715 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A715 &lt;&gt; "", A715, -1),", ""bit"": ",IF(B715 &lt;&gt; "", B715, -1),"},")</f>
         <v>714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15496,7 +15496,7 @@
         <v>12</v>
       </c>
       <c r="D716" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C716, Levels!B:B, 0), 1, 1)),", ",IF(A716 &lt;&gt; "", """mem"": bit" &amp; B716 &amp; "(" &amp; A716 &amp; "),", ""),"""good"": ",IF(A716 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A716 &lt;&gt; "", A716, -1),", ""bit"": ",IF(B716 &lt;&gt; 0, B716, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C716, Levels!B:B, 0), 1, 1)),", ",IF(A716 &lt;&gt; "", """mem"": bit" &amp; B716 &amp; "(" &amp; A716 &amp; "),", ""),"""good"": ",IF(A716 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A716 &lt;&gt; "", A716, -1),", ""bit"": ",IF(B716 &lt;&gt; "", B716, -1),"},")</f>
         <v>715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15505,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="D717" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C717, Levels!B:B, 0), 1, 1)),", ",IF(A717 &lt;&gt; "", """mem"": bit" &amp; B717 &amp; "(" &amp; A717 &amp; "),", ""),"""good"": ",IF(A717 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A717 &lt;&gt; "", A717, -1),", ""bit"": ",IF(B717 &lt;&gt; 0, B717, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C717, Levels!B:B, 0), 1, 1)),", ",IF(A717 &lt;&gt; "", """mem"": bit" &amp; B717 &amp; "(" &amp; A717 &amp; "),", ""),"""good"": ",IF(A717 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A717 &lt;&gt; "", A717, -1),", ""bit"": ",IF(B717 &lt;&gt; "", B717, -1),"},")</f>
         <v>716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15514,7 +15514,7 @@
         <v>12</v>
       </c>
       <c r="D718" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C718, Levels!B:B, 0), 1, 1)),", ",IF(A718 &lt;&gt; "", """mem"": bit" &amp; B718 &amp; "(" &amp; A718 &amp; "),", ""),"""good"": ",IF(A718 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A718 &lt;&gt; "", A718, -1),", ""bit"": ",IF(B718 &lt;&gt; 0, B718, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C718, Levels!B:B, 0), 1, 1)),", ",IF(A718 &lt;&gt; "", """mem"": bit" &amp; B718 &amp; "(" &amp; A718 &amp; "),", ""),"""good"": ",IF(A718 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A718 &lt;&gt; "", A718, -1),", ""bit"": ",IF(B718 &lt;&gt; "", B718, -1),"},")</f>
         <v>717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
         <v>12</v>
       </c>
       <c r="D719" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C719, Levels!B:B, 0), 1, 1)),", ",IF(A719 &lt;&gt; "", """mem"": bit" &amp; B719 &amp; "(" &amp; A719 &amp; "),", ""),"""good"": ",IF(A719 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A719 &lt;&gt; "", A719, -1),", ""bit"": ",IF(B719 &lt;&gt; 0, B719, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C719, Levels!B:B, 0), 1, 1)),", ",IF(A719 &lt;&gt; "", """mem"": bit" &amp; B719 &amp; "(" &amp; A719 &amp; "),", ""),"""good"": ",IF(A719 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A719 &lt;&gt; "", A719, -1),", ""bit"": ",IF(B719 &lt;&gt; "", B719, -1),"},")</f>
         <v>718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
         <v>12</v>
       </c>
       <c r="D720" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C720, Levels!B:B, 0), 1, 1)),", ",IF(A720 &lt;&gt; "", """mem"": bit" &amp; B720 &amp; "(" &amp; A720 &amp; "),", ""),"""good"": ",IF(A720 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A720 &lt;&gt; "", A720, -1),", ""bit"": ",IF(B720 &lt;&gt; 0, B720, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C720, Levels!B:B, 0), 1, 1)),", ",IF(A720 &lt;&gt; "", """mem"": bit" &amp; B720 &amp; "(" &amp; A720 &amp; "),", ""),"""good"": ",IF(A720 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A720 &lt;&gt; "", A720, -1),", ""bit"": ",IF(B720 &lt;&gt; "", B720, -1),"},")</f>
         <v>719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15541,7 +15541,7 @@
         <v>12</v>
       </c>
       <c r="D721" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C721, Levels!B:B, 0), 1, 1)),", ",IF(A721 &lt;&gt; "", """mem"": bit" &amp; B721 &amp; "(" &amp; A721 &amp; "),", ""),"""good"": ",IF(A721 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A721 &lt;&gt; "", A721, -1),", ""bit"": ",IF(B721 &lt;&gt; 0, B721, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C721, Levels!B:B, 0), 1, 1)),", ",IF(A721 &lt;&gt; "", """mem"": bit" &amp; B721 &amp; "(" &amp; A721 &amp; "),", ""),"""good"": ",IF(A721 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A721 &lt;&gt; "", A721, -1),", ""bit"": ",IF(B721 &lt;&gt; "", B721, -1),"},")</f>
         <v>720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15550,7 +15550,7 @@
         <v>12</v>
       </c>
       <c r="D722" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C722, Levels!B:B, 0), 1, 1)),", ",IF(A722 &lt;&gt; "", """mem"": bit" &amp; B722 &amp; "(" &amp; A722 &amp; "),", ""),"""good"": ",IF(A722 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A722 &lt;&gt; "", A722, -1),", ""bit"": ",IF(B722 &lt;&gt; 0, B722, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C722, Levels!B:B, 0), 1, 1)),", ",IF(A722 &lt;&gt; "", """mem"": bit" &amp; B722 &amp; "(" &amp; A722 &amp; "),", ""),"""good"": ",IF(A722 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A722 &lt;&gt; "", A722, -1),", ""bit"": ",IF(B722 &lt;&gt; "", B722, -1),"},")</f>
         <v>721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15559,7 +15559,7 @@
         <v>12</v>
       </c>
       <c r="D723" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C723, Levels!B:B, 0), 1, 1)),", ",IF(A723 &lt;&gt; "", """mem"": bit" &amp; B723 &amp; "(" &amp; A723 &amp; "),", ""),"""good"": ",IF(A723 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A723 &lt;&gt; "", A723, -1),", ""bit"": ",IF(B723 &lt;&gt; 0, B723, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C723, Levels!B:B, 0), 1, 1)),", ",IF(A723 &lt;&gt; "", """mem"": bit" &amp; B723 &amp; "(" &amp; A723 &amp; "),", ""),"""good"": ",IF(A723 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A723 &lt;&gt; "", A723, -1),", ""bit"": ",IF(B723 &lt;&gt; "", B723, -1),"},")</f>
         <v>722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
         <v>12</v>
       </c>
       <c r="D724" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C724, Levels!B:B, 0), 1, 1)),", ",IF(A724 &lt;&gt; "", """mem"": bit" &amp; B724 &amp; "(" &amp; A724 &amp; "),", ""),"""good"": ",IF(A724 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A724 &lt;&gt; "", A724, -1),", ""bit"": ",IF(B724 &lt;&gt; 0, B724, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C724, Levels!B:B, 0), 1, 1)),", ",IF(A724 &lt;&gt; "", """mem"": bit" &amp; B724 &amp; "(" &amp; A724 &amp; "),", ""),"""good"": ",IF(A724 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A724 &lt;&gt; "", A724, -1),", ""bit"": ",IF(B724 &lt;&gt; "", B724, -1),"},")</f>
         <v>723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15577,7 +15577,7 @@
         <v>12</v>
       </c>
       <c r="D725" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C725, Levels!B:B, 0), 1, 1)),", ",IF(A725 &lt;&gt; "", """mem"": bit" &amp; B725 &amp; "(" &amp; A725 &amp; "),", ""),"""good"": ",IF(A725 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A725 &lt;&gt; "", A725, -1),", ""bit"": ",IF(B725 &lt;&gt; 0, B725, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C725, Levels!B:B, 0), 1, 1)),", ",IF(A725 &lt;&gt; "", """mem"": bit" &amp; B725 &amp; "(" &amp; A725 &amp; "),", ""),"""good"": ",IF(A725 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A725 &lt;&gt; "", A725, -1),", ""bit"": ",IF(B725 &lt;&gt; "", B725, -1),"},")</f>
         <v>724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15586,7 +15586,7 @@
         <v>12</v>
       </c>
       <c r="D726" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C726, Levels!B:B, 0), 1, 1)),", ",IF(A726 &lt;&gt; "", """mem"": bit" &amp; B726 &amp; "(" &amp; A726 &amp; "),", ""),"""good"": ",IF(A726 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A726 &lt;&gt; "", A726, -1),", ""bit"": ",IF(B726 &lt;&gt; 0, B726, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C726, Levels!B:B, 0), 1, 1)),", ",IF(A726 &lt;&gt; "", """mem"": bit" &amp; B726 &amp; "(" &amp; A726 &amp; "),", ""),"""good"": ",IF(A726 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A726 &lt;&gt; "", A726, -1),", ""bit"": ",IF(B726 &lt;&gt; "", B726, -1),"},")</f>
         <v>725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15595,7 +15595,7 @@
         <v>12</v>
       </c>
       <c r="D727" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C727, Levels!B:B, 0), 1, 1)),", ",IF(A727 &lt;&gt; "", """mem"": bit" &amp; B727 &amp; "(" &amp; A727 &amp; "),", ""),"""good"": ",IF(A727 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A727 &lt;&gt; "", A727, -1),", ""bit"": ",IF(B727 &lt;&gt; 0, B727, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C727, Levels!B:B, 0), 1, 1)),", ",IF(A727 &lt;&gt; "", """mem"": bit" &amp; B727 &amp; "(" &amp; A727 &amp; "),", ""),"""good"": ",IF(A727 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A727 &lt;&gt; "", A727, -1),", ""bit"": ",IF(B727 &lt;&gt; "", B727, -1),"},")</f>
         <v>726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15604,7 +15604,7 @@
         <v>12</v>
       </c>
       <c r="D728" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C728, Levels!B:B, 0), 1, 1)),", ",IF(A728 &lt;&gt; "", """mem"": bit" &amp; B728 &amp; "(" &amp; A728 &amp; "),", ""),"""good"": ",IF(A728 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A728 &lt;&gt; "", A728, -1),", ""bit"": ",IF(B728 &lt;&gt; 0, B728, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C728, Levels!B:B, 0), 1, 1)),", ",IF(A728 &lt;&gt; "", """mem"": bit" &amp; B728 &amp; "(" &amp; A728 &amp; "),", ""),"""good"": ",IF(A728 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A728 &lt;&gt; "", A728, -1),", ""bit"": ",IF(B728 &lt;&gt; "", B728, -1),"},")</f>
         <v>727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
         <v>12</v>
       </c>
       <c r="D729" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C729, Levels!B:B, 0), 1, 1)),", ",IF(A729 &lt;&gt; "", """mem"": bit" &amp; B729 &amp; "(" &amp; A729 &amp; "),", ""),"""good"": ",IF(A729 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A729 &lt;&gt; "", A729, -1),", ""bit"": ",IF(B729 &lt;&gt; 0, B729, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C729, Levels!B:B, 0), 1, 1)),", ",IF(A729 &lt;&gt; "", """mem"": bit" &amp; B729 &amp; "(" &amp; A729 &amp; "),", ""),"""good"": ",IF(A729 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A729 &lt;&gt; "", A729, -1),", ""bit"": ",IF(B729 &lt;&gt; "", B729, -1),"},")</f>
         <v>728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15622,7 +15622,7 @@
         <v>12</v>
       </c>
       <c r="D730" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C730, Levels!B:B, 0), 1, 1)),", ",IF(A730 &lt;&gt; "", """mem"": bit" &amp; B730 &amp; "(" &amp; A730 &amp; "),", ""),"""good"": ",IF(A730 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A730 &lt;&gt; "", A730, -1),", ""bit"": ",IF(B730 &lt;&gt; 0, B730, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C730, Levels!B:B, 0), 1, 1)),", ",IF(A730 &lt;&gt; "", """mem"": bit" &amp; B730 &amp; "(" &amp; A730 &amp; "),", ""),"""good"": ",IF(A730 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A730 &lt;&gt; "", A730, -1),", ""bit"": ",IF(B730 &lt;&gt; "", B730, -1),"},")</f>
         <v>729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
         <v>12</v>
       </c>
       <c r="D731" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C731, Levels!B:B, 0), 1, 1)),", ",IF(A731 &lt;&gt; "", """mem"": bit" &amp; B731 &amp; "(" &amp; A731 &amp; "),", ""),"""good"": ",IF(A731 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A731 &lt;&gt; "", A731, -1),", ""bit"": ",IF(B731 &lt;&gt; 0, B731, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C731, Levels!B:B, 0), 1, 1)),", ",IF(A731 &lt;&gt; "", """mem"": bit" &amp; B731 &amp; "(" &amp; A731 &amp; "),", ""),"""good"": ",IF(A731 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A731 &lt;&gt; "", A731, -1),", ""bit"": ",IF(B731 &lt;&gt; "", B731, -1),"},")</f>
         <v>730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15640,7 +15640,7 @@
         <v>12</v>
       </c>
       <c r="D732" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C732, Levels!B:B, 0), 1, 1)),", ",IF(A732 &lt;&gt; "", """mem"": bit" &amp; B732 &amp; "(" &amp; A732 &amp; "),", ""),"""good"": ",IF(A732 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A732 &lt;&gt; "", A732, -1),", ""bit"": ",IF(B732 &lt;&gt; 0, B732, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C732, Levels!B:B, 0), 1, 1)),", ",IF(A732 &lt;&gt; "", """mem"": bit" &amp; B732 &amp; "(" &amp; A732 &amp; "),", ""),"""good"": ",IF(A732 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A732 &lt;&gt; "", A732, -1),", ""bit"": ",IF(B732 &lt;&gt; "", B732, -1),"},")</f>
         <v>731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15649,7 +15649,7 @@
         <v>12</v>
       </c>
       <c r="D733" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C733, Levels!B:B, 0), 1, 1)),", ",IF(A733 &lt;&gt; "", """mem"": bit" &amp; B733 &amp; "(" &amp; A733 &amp; "),", ""),"""good"": ",IF(A733 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A733 &lt;&gt; "", A733, -1),", ""bit"": ",IF(B733 &lt;&gt; 0, B733, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C733, Levels!B:B, 0), 1, 1)),", ",IF(A733 &lt;&gt; "", """mem"": bit" &amp; B733 &amp; "(" &amp; A733 &amp; "),", ""),"""good"": ",IF(A733 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A733 &lt;&gt; "", A733, -1),", ""bit"": ",IF(B733 &lt;&gt; "", B733, -1),"},")</f>
         <v>732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15658,7 +15658,7 @@
         <v>12</v>
       </c>
       <c r="D734" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C734, Levels!B:B, 0), 1, 1)),", ",IF(A734 &lt;&gt; "", """mem"": bit" &amp; B734 &amp; "(" &amp; A734 &amp; "),", ""),"""good"": ",IF(A734 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A734 &lt;&gt; "", A734, -1),", ""bit"": ",IF(B734 &lt;&gt; 0, B734, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C734, Levels!B:B, 0), 1, 1)),", ",IF(A734 &lt;&gt; "", """mem"": bit" &amp; B734 &amp; "(" &amp; A734 &amp; "),", ""),"""good"": ",IF(A734 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A734 &lt;&gt; "", A734, -1),", ""bit"": ",IF(B734 &lt;&gt; "", B734, -1),"},")</f>
         <v>733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15667,7 +15667,7 @@
         <v>12</v>
       </c>
       <c r="D735" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C735, Levels!B:B, 0), 1, 1)),", ",IF(A735 &lt;&gt; "", """mem"": bit" &amp; B735 &amp; "(" &amp; A735 &amp; "),", ""),"""good"": ",IF(A735 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A735 &lt;&gt; "", A735, -1),", ""bit"": ",IF(B735 &lt;&gt; 0, B735, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C735, Levels!B:B, 0), 1, 1)),", ",IF(A735 &lt;&gt; "", """mem"": bit" &amp; B735 &amp; "(" &amp; A735 &amp; "),", ""),"""good"": ",IF(A735 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A735 &lt;&gt; "", A735, -1),", ""bit"": ",IF(B735 &lt;&gt; "", B735, -1),"},")</f>
         <v>734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15676,7 +15676,7 @@
         <v>12</v>
       </c>
       <c r="D736" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C736, Levels!B:B, 0), 1, 1)),", ",IF(A736 &lt;&gt; "", """mem"": bit" &amp; B736 &amp; "(" &amp; A736 &amp; "),", ""),"""good"": ",IF(A736 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A736 &lt;&gt; "", A736, -1),", ""bit"": ",IF(B736 &lt;&gt; 0, B736, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C736, Levels!B:B, 0), 1, 1)),", ",IF(A736 &lt;&gt; "", """mem"": bit" &amp; B736 &amp; "(" &amp; A736 &amp; "),", ""),"""good"": ",IF(A736 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A736 &lt;&gt; "", A736, -1),", ""bit"": ",IF(B736 &lt;&gt; "", B736, -1),"},")</f>
         <v>735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
         <v>12</v>
       </c>
       <c r="D737" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C737, Levels!B:B, 0), 1, 1)),", ",IF(A737 &lt;&gt; "", """mem"": bit" &amp; B737 &amp; "(" &amp; A737 &amp; "),", ""),"""good"": ",IF(A737 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A737 &lt;&gt; "", A737, -1),", ""bit"": ",IF(B737 &lt;&gt; 0, B737, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C737, Levels!B:B, 0), 1, 1)),", ",IF(A737 &lt;&gt; "", """mem"": bit" &amp; B737 &amp; "(" &amp; A737 &amp; "),", ""),"""good"": ",IF(A737 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A737 &lt;&gt; "", A737, -1),", ""bit"": ",IF(B737 &lt;&gt; "", B737, -1),"},")</f>
         <v>736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15694,7 +15694,7 @@
         <v>12</v>
       </c>
       <c r="D738" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C738, Levels!B:B, 0), 1, 1)),", ",IF(A738 &lt;&gt; "", """mem"": bit" &amp; B738 &amp; "(" &amp; A738 &amp; "),", ""),"""good"": ",IF(A738 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A738 &lt;&gt; "", A738, -1),", ""bit"": ",IF(B738 &lt;&gt; 0, B738, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C738, Levels!B:B, 0), 1, 1)),", ",IF(A738 &lt;&gt; "", """mem"": bit" &amp; B738 &amp; "(" &amp; A738 &amp; "),", ""),"""good"": ",IF(A738 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A738 &lt;&gt; "", A738, -1),", ""bit"": ",IF(B738 &lt;&gt; "", B738, -1),"},")</f>
         <v>737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15703,7 +15703,7 @@
         <v>12</v>
       </c>
       <c r="D739" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C739, Levels!B:B, 0), 1, 1)),", ",IF(A739 &lt;&gt; "", """mem"": bit" &amp; B739 &amp; "(" &amp; A739 &amp; "),", ""),"""good"": ",IF(A739 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A739 &lt;&gt; "", A739, -1),", ""bit"": ",IF(B739 &lt;&gt; 0, B739, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C739, Levels!B:B, 0), 1, 1)),", ",IF(A739 &lt;&gt; "", """mem"": bit" &amp; B739 &amp; "(" &amp; A739 &amp; "),", ""),"""good"": ",IF(A739 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A739 &lt;&gt; "", A739, -1),", ""bit"": ",IF(B739 &lt;&gt; "", B739, -1),"},")</f>
         <v>738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
         <v>12</v>
       </c>
       <c r="D740" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C740, Levels!B:B, 0), 1, 1)),", ",IF(A740 &lt;&gt; "", """mem"": bit" &amp; B740 &amp; "(" &amp; A740 &amp; "),", ""),"""good"": ",IF(A740 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A740 &lt;&gt; "", A740, -1),", ""bit"": ",IF(B740 &lt;&gt; 0, B740, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C740, Levels!B:B, 0), 1, 1)),", ",IF(A740 &lt;&gt; "", """mem"": bit" &amp; B740 &amp; "(" &amp; A740 &amp; "),", ""),"""good"": ",IF(A740 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A740 &lt;&gt; "", A740, -1),", ""bit"": ",IF(B740 &lt;&gt; "", B740, -1),"},")</f>
         <v>739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
         <v>12</v>
       </c>
       <c r="D741" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C741, Levels!B:B, 0), 1, 1)),", ",IF(A741 &lt;&gt; "", """mem"": bit" &amp; B741 &amp; "(" &amp; A741 &amp; "),", ""),"""good"": ",IF(A741 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A741 &lt;&gt; "", A741, -1),", ""bit"": ",IF(B741 &lt;&gt; 0, B741, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C741, Levels!B:B, 0), 1, 1)),", ",IF(A741 &lt;&gt; "", """mem"": bit" &amp; B741 &amp; "(" &amp; A741 &amp; "),", ""),"""good"": ",IF(A741 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A741 &lt;&gt; "", A741, -1),", ""bit"": ",IF(B741 &lt;&gt; "", B741, -1),"},")</f>
         <v>740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
         <v>12</v>
       </c>
       <c r="D742" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C742, Levels!B:B, 0), 1, 1)),", ",IF(A742 &lt;&gt; "", """mem"": bit" &amp; B742 &amp; "(" &amp; A742 &amp; "),", ""),"""good"": ",IF(A742 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A742 &lt;&gt; "", A742, -1),", ""bit"": ",IF(B742 &lt;&gt; 0, B742, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C742, Levels!B:B, 0), 1, 1)),", ",IF(A742 &lt;&gt; "", """mem"": bit" &amp; B742 &amp; "(" &amp; A742 &amp; "),", ""),"""good"": ",IF(A742 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A742 &lt;&gt; "", A742, -1),", ""bit"": ",IF(B742 &lt;&gt; "", B742, -1),"},")</f>
         <v>741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
         <v>12</v>
       </c>
       <c r="D743" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C743, Levels!B:B, 0), 1, 1)),", ",IF(A743 &lt;&gt; "", """mem"": bit" &amp; B743 &amp; "(" &amp; A743 &amp; "),", ""),"""good"": ",IF(A743 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A743 &lt;&gt; "", A743, -1),", ""bit"": ",IF(B743 &lt;&gt; 0, B743, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C743, Levels!B:B, 0), 1, 1)),", ",IF(A743 &lt;&gt; "", """mem"": bit" &amp; B743 &amp; "(" &amp; A743 &amp; "),", ""),"""good"": ",IF(A743 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A743 &lt;&gt; "", A743, -1),", ""bit"": ",IF(B743 &lt;&gt; "", B743, -1),"},")</f>
         <v>742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
         <v>12</v>
       </c>
       <c r="D744" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C744, Levels!B:B, 0), 1, 1)),", ",IF(A744 &lt;&gt; "", """mem"": bit" &amp; B744 &amp; "(" &amp; A744 &amp; "),", ""),"""good"": ",IF(A744 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A744 &lt;&gt; "", A744, -1),", ""bit"": ",IF(B744 &lt;&gt; 0, B744, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C744, Levels!B:B, 0), 1, 1)),", ",IF(A744 &lt;&gt; "", """mem"": bit" &amp; B744 &amp; "(" &amp; A744 &amp; "),", ""),"""good"": ",IF(A744 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A744 &lt;&gt; "", A744, -1),", ""bit"": ",IF(B744 &lt;&gt; "", B744, -1),"},")</f>
         <v>743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15757,7 +15757,7 @@
         <v>12</v>
       </c>
       <c r="D745" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C745, Levels!B:B, 0), 1, 1)),", ",IF(A745 &lt;&gt; "", """mem"": bit" &amp; B745 &amp; "(" &amp; A745 &amp; "),", ""),"""good"": ",IF(A745 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A745 &lt;&gt; "", A745, -1),", ""bit"": ",IF(B745 &lt;&gt; 0, B745, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C745, Levels!B:B, 0), 1, 1)),", ",IF(A745 &lt;&gt; "", """mem"": bit" &amp; B745 &amp; "(" &amp; A745 &amp; "),", ""),"""good"": ",IF(A745 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A745 &lt;&gt; "", A745, -1),", ""bit"": ",IF(B745 &lt;&gt; "", B745, -1),"},")</f>
         <v>744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15766,7 +15766,7 @@
         <v>12</v>
       </c>
       <c r="D746" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C746, Levels!B:B, 0), 1, 1)),", ",IF(A746 &lt;&gt; "", """mem"": bit" &amp; B746 &amp; "(" &amp; A746 &amp; "),", ""),"""good"": ",IF(A746 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A746 &lt;&gt; "", A746, -1),", ""bit"": ",IF(B746 &lt;&gt; 0, B746, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C746, Levels!B:B, 0), 1, 1)),", ",IF(A746 &lt;&gt; "", """mem"": bit" &amp; B746 &amp; "(" &amp; A746 &amp; "),", ""),"""good"": ",IF(A746 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A746 &lt;&gt; "", A746, -1),", ""bit"": ",IF(B746 &lt;&gt; "", B746, -1),"},")</f>
         <v>745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15775,7 +15775,7 @@
         <v>12</v>
       </c>
       <c r="D747" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C747, Levels!B:B, 0), 1, 1)),", ",IF(A747 &lt;&gt; "", """mem"": bit" &amp; B747 &amp; "(" &amp; A747 &amp; "),", ""),"""good"": ",IF(A747 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A747 &lt;&gt; "", A747, -1),", ""bit"": ",IF(B747 &lt;&gt; 0, B747, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C747, Levels!B:B, 0), 1, 1)),", ",IF(A747 &lt;&gt; "", """mem"": bit" &amp; B747 &amp; "(" &amp; A747 &amp; "),", ""),"""good"": ",IF(A747 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A747 &lt;&gt; "", A747, -1),", ""bit"": ",IF(B747 &lt;&gt; "", B747, -1),"},")</f>
         <v>746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15784,7 +15784,7 @@
         <v>12</v>
       </c>
       <c r="D748" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C748, Levels!B:B, 0), 1, 1)),", ",IF(A748 &lt;&gt; "", """mem"": bit" &amp; B748 &amp; "(" &amp; A748 &amp; "),", ""),"""good"": ",IF(A748 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A748 &lt;&gt; "", A748, -1),", ""bit"": ",IF(B748 &lt;&gt; 0, B748, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C748, Levels!B:B, 0), 1, 1)),", ",IF(A748 &lt;&gt; "", """mem"": bit" &amp; B748 &amp; "(" &amp; A748 &amp; "),", ""),"""good"": ",IF(A748 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A748 &lt;&gt; "", A748, -1),", ""bit"": ",IF(B748 &lt;&gt; "", B748, -1),"},")</f>
         <v>747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
         <v>12</v>
       </c>
       <c r="D749" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C749, Levels!B:B, 0), 1, 1)),", ",IF(A749 &lt;&gt; "", """mem"": bit" &amp; B749 &amp; "(" &amp; A749 &amp; "),", ""),"""good"": ",IF(A749 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A749 &lt;&gt; "", A749, -1),", ""bit"": ",IF(B749 &lt;&gt; 0, B749, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C749, Levels!B:B, 0), 1, 1)),", ",IF(A749 &lt;&gt; "", """mem"": bit" &amp; B749 &amp; "(" &amp; A749 &amp; "),", ""),"""good"": ",IF(A749 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A749 &lt;&gt; "", A749, -1),", ""bit"": ",IF(B749 &lt;&gt; "", B749, -1),"},")</f>
         <v>748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15802,7 +15802,7 @@
         <v>12</v>
       </c>
       <c r="D750" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C750, Levels!B:B, 0), 1, 1)),", ",IF(A750 &lt;&gt; "", """mem"": bit" &amp; B750 &amp; "(" &amp; A750 &amp; "),", ""),"""good"": ",IF(A750 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A750 &lt;&gt; "", A750, -1),", ""bit"": ",IF(B750 &lt;&gt; 0, B750, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C750, Levels!B:B, 0), 1, 1)),", ",IF(A750 &lt;&gt; "", """mem"": bit" &amp; B750 &amp; "(" &amp; A750 &amp; "),", ""),"""good"": ",IF(A750 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A750 &lt;&gt; "", A750, -1),", ""bit"": ",IF(B750 &lt;&gt; "", B750, -1),"},")</f>
         <v>749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15811,7 +15811,7 @@
         <v>12</v>
       </c>
       <c r="D751" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C751, Levels!B:B, 0), 1, 1)),", ",IF(A751 &lt;&gt; "", """mem"": bit" &amp; B751 &amp; "(" &amp; A751 &amp; "),", ""),"""good"": ",IF(A751 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A751 &lt;&gt; "", A751, -1),", ""bit"": ",IF(B751 &lt;&gt; 0, B751, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C751, Levels!B:B, 0), 1, 1)),", ",IF(A751 &lt;&gt; "", """mem"": bit" &amp; B751 &amp; "(" &amp; A751 &amp; "),", ""),"""good"": ",IF(A751 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A751 &lt;&gt; "", A751, -1),", ""bit"": ",IF(B751 &lt;&gt; "", B751, -1),"},")</f>
         <v>750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
         <v>12</v>
       </c>
       <c r="D752" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C752, Levels!B:B, 0), 1, 1)),", ",IF(A752 &lt;&gt; "", """mem"": bit" &amp; B752 &amp; "(" &amp; A752 &amp; "),", ""),"""good"": ",IF(A752 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A752 &lt;&gt; "", A752, -1),", ""bit"": ",IF(B752 &lt;&gt; 0, B752, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C752, Levels!B:B, 0), 1, 1)),", ",IF(A752 &lt;&gt; "", """mem"": bit" &amp; B752 &amp; "(" &amp; A752 &amp; "),", ""),"""good"": ",IF(A752 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A752 &lt;&gt; "", A752, -1),", ""bit"": ",IF(B752 &lt;&gt; "", B752, -1),"},")</f>
         <v>751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15829,7 +15829,7 @@
         <v>12</v>
       </c>
       <c r="D753" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C753, Levels!B:B, 0), 1, 1)),", ",IF(A753 &lt;&gt; "", """mem"": bit" &amp; B753 &amp; "(" &amp; A753 &amp; "),", ""),"""good"": ",IF(A753 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A753 &lt;&gt; "", A753, -1),", ""bit"": ",IF(B753 &lt;&gt; 0, B753, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C753, Levels!B:B, 0), 1, 1)),", ",IF(A753 &lt;&gt; "", """mem"": bit" &amp; B753 &amp; "(" &amp; A753 &amp; "),", ""),"""good"": ",IF(A753 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A753 &lt;&gt; "", A753, -1),", ""bit"": ",IF(B753 &lt;&gt; "", B753, -1),"},")</f>
         <v>752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
         <v>12</v>
       </c>
       <c r="D754" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C754, Levels!B:B, 0), 1, 1)),", ",IF(A754 &lt;&gt; "", """mem"": bit" &amp; B754 &amp; "(" &amp; A754 &amp; "),", ""),"""good"": ",IF(A754 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A754 &lt;&gt; "", A754, -1),", ""bit"": ",IF(B754 &lt;&gt; 0, B754, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C754, Levels!B:B, 0), 1, 1)),", ",IF(A754 &lt;&gt; "", """mem"": bit" &amp; B754 &amp; "(" &amp; A754 &amp; "),", ""),"""good"": ",IF(A754 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A754 &lt;&gt; "", A754, -1),", ""bit"": ",IF(B754 &lt;&gt; "", B754, -1),"},")</f>
         <v>753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15847,7 +15847,7 @@
         <v>12</v>
       </c>
       <c r="D755" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C755, Levels!B:B, 0), 1, 1)),", ",IF(A755 &lt;&gt; "", """mem"": bit" &amp; B755 &amp; "(" &amp; A755 &amp; "),", ""),"""good"": ",IF(A755 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A755 &lt;&gt; "", A755, -1),", ""bit"": ",IF(B755 &lt;&gt; 0, B755, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C755, Levels!B:B, 0), 1, 1)),", ",IF(A755 &lt;&gt; "", """mem"": bit" &amp; B755 &amp; "(" &amp; A755 &amp; "),", ""),"""good"": ",IF(A755 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A755 &lt;&gt; "", A755, -1),", ""bit"": ",IF(B755 &lt;&gt; "", B755, -1),"},")</f>
         <v>754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
         <v>12</v>
       </c>
       <c r="D756" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C756, Levels!B:B, 0), 1, 1)),", ",IF(A756 &lt;&gt; "", """mem"": bit" &amp; B756 &amp; "(" &amp; A756 &amp; "),", ""),"""good"": ",IF(A756 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A756 &lt;&gt; "", A756, -1),", ""bit"": ",IF(B756 &lt;&gt; 0, B756, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C756, Levels!B:B, 0), 1, 1)),", ",IF(A756 &lt;&gt; "", """mem"": bit" &amp; B756 &amp; "(" &amp; A756 &amp; "),", ""),"""good"": ",IF(A756 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A756 &lt;&gt; "", A756, -1),", ""bit"": ",IF(B756 &lt;&gt; "", B756, -1),"},")</f>
         <v>755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
         <v>12</v>
       </c>
       <c r="D757" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C757, Levels!B:B, 0), 1, 1)),", ",IF(A757 &lt;&gt; "", """mem"": bit" &amp; B757 &amp; "(" &amp; A757 &amp; "),", ""),"""good"": ",IF(A757 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A757 &lt;&gt; "", A757, -1),", ""bit"": ",IF(B757 &lt;&gt; 0, B757, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C757, Levels!B:B, 0), 1, 1)),", ",IF(A757 &lt;&gt; "", """mem"": bit" &amp; B757 &amp; "(" &amp; A757 &amp; "),", ""),"""good"": ",IF(A757 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A757 &lt;&gt; "", A757, -1),", ""bit"": ",IF(B757 &lt;&gt; "", B757, -1),"},")</f>
         <v>756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
         <v>12</v>
       </c>
       <c r="D758" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C758, Levels!B:B, 0), 1, 1)),", ",IF(A758 &lt;&gt; "", """mem"": bit" &amp; B758 &amp; "(" &amp; A758 &amp; "),", ""),"""good"": ",IF(A758 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A758 &lt;&gt; "", A758, -1),", ""bit"": ",IF(B758 &lt;&gt; 0, B758, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C758, Levels!B:B, 0), 1, 1)),", ",IF(A758 &lt;&gt; "", """mem"": bit" &amp; B758 &amp; "(" &amp; A758 &amp; "),", ""),"""good"": ",IF(A758 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A758 &lt;&gt; "", A758, -1),", ""bit"": ",IF(B758 &lt;&gt; "", B758, -1),"},")</f>
         <v>757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
         <v>12</v>
       </c>
       <c r="D759" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C759, Levels!B:B, 0), 1, 1)),", ",IF(A759 &lt;&gt; "", """mem"": bit" &amp; B759 &amp; "(" &amp; A759 &amp; "),", ""),"""good"": ",IF(A759 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A759 &lt;&gt; "", A759, -1),", ""bit"": ",IF(B759 &lt;&gt; 0, B759, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C759, Levels!B:B, 0), 1, 1)),", ",IF(A759 &lt;&gt; "", """mem"": bit" &amp; B759 &amp; "(" &amp; A759 &amp; "),", ""),"""good"": ",IF(A759 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A759 &lt;&gt; "", A759, -1),", ""bit"": ",IF(B759 &lt;&gt; "", B759, -1),"},")</f>
         <v>758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15892,7 +15892,7 @@
         <v>12</v>
       </c>
       <c r="D760" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C760, Levels!B:B, 0), 1, 1)),", ",IF(A760 &lt;&gt; "", """mem"": bit" &amp; B760 &amp; "(" &amp; A760 &amp; "),", ""),"""good"": ",IF(A760 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A760 &lt;&gt; "", A760, -1),", ""bit"": ",IF(B760 &lt;&gt; 0, B760, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C760, Levels!B:B, 0), 1, 1)),", ",IF(A760 &lt;&gt; "", """mem"": bit" &amp; B760 &amp; "(" &amp; A760 &amp; "),", ""),"""good"": ",IF(A760 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A760 &lt;&gt; "", A760, -1),", ""bit"": ",IF(B760 &lt;&gt; "", B760, -1),"},")</f>
         <v>759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15901,7 +15901,7 @@
         <v>12</v>
       </c>
       <c r="D761" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C761, Levels!B:B, 0), 1, 1)),", ",IF(A761 &lt;&gt; "", """mem"": bit" &amp; B761 &amp; "(" &amp; A761 &amp; "),", ""),"""good"": ",IF(A761 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A761 &lt;&gt; "", A761, -1),", ""bit"": ",IF(B761 &lt;&gt; 0, B761, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C761, Levels!B:B, 0), 1, 1)),", ",IF(A761 &lt;&gt; "", """mem"": bit" &amp; B761 &amp; "(" &amp; A761 &amp; "),", ""),"""good"": ",IF(A761 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A761 &lt;&gt; "", A761, -1),", ""bit"": ",IF(B761 &lt;&gt; "", B761, -1),"},")</f>
         <v>760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15910,7 +15910,7 @@
         <v>12</v>
       </c>
       <c r="D762" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C762, Levels!B:B, 0), 1, 1)),", ",IF(A762 &lt;&gt; "", """mem"": bit" &amp; B762 &amp; "(" &amp; A762 &amp; "),", ""),"""good"": ",IF(A762 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A762 &lt;&gt; "", A762, -1),", ""bit"": ",IF(B762 &lt;&gt; 0, B762, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C762, Levels!B:B, 0), 1, 1)),", ",IF(A762 &lt;&gt; "", """mem"": bit" &amp; B762 &amp; "(" &amp; A762 &amp; "),", ""),"""good"": ",IF(A762 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A762 &lt;&gt; "", A762, -1),", ""bit"": ",IF(B762 &lt;&gt; "", B762, -1),"},")</f>
         <v>761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
         <v>12</v>
       </c>
       <c r="D763" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C763, Levels!B:B, 0), 1, 1)),", ",IF(A763 &lt;&gt; "", """mem"": bit" &amp; B763 &amp; "(" &amp; A763 &amp; "),", ""),"""good"": ",IF(A763 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A763 &lt;&gt; "", A763, -1),", ""bit"": ",IF(B763 &lt;&gt; 0, B763, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C763, Levels!B:B, 0), 1, 1)),", ",IF(A763 &lt;&gt; "", """mem"": bit" &amp; B763 &amp; "(" &amp; A763 &amp; "),", ""),"""good"": ",IF(A763 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A763 &lt;&gt; "", A763, -1),", ""bit"": ",IF(B763 &lt;&gt; "", B763, -1),"},")</f>
         <v>762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15928,7 +15928,7 @@
         <v>12</v>
       </c>
       <c r="D764" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C764, Levels!B:B, 0), 1, 1)),", ",IF(A764 &lt;&gt; "", """mem"": bit" &amp; B764 &amp; "(" &amp; A764 &amp; "),", ""),"""good"": ",IF(A764 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A764 &lt;&gt; "", A764, -1),", ""bit"": ",IF(B764 &lt;&gt; 0, B764, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C764, Levels!B:B, 0), 1, 1)),", ",IF(A764 &lt;&gt; "", """mem"": bit" &amp; B764 &amp; "(" &amp; A764 &amp; "),", ""),"""good"": ",IF(A764 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A764 &lt;&gt; "", A764, -1),", ""bit"": ",IF(B764 &lt;&gt; "", B764, -1),"},")</f>
         <v>763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
         <v>12</v>
       </c>
       <c r="D765" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C765, Levels!B:B, 0), 1, 1)),", ",IF(A765 &lt;&gt; "", """mem"": bit" &amp; B765 &amp; "(" &amp; A765 &amp; "),", ""),"""good"": ",IF(A765 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A765 &lt;&gt; "", A765, -1),", ""bit"": ",IF(B765 &lt;&gt; 0, B765, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C765, Levels!B:B, 0), 1, 1)),", ",IF(A765 &lt;&gt; "", """mem"": bit" &amp; B765 &amp; "(" &amp; A765 &amp; "),", ""),"""good"": ",IF(A765 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A765 &lt;&gt; "", A765, -1),", ""bit"": ",IF(B765 &lt;&gt; "", B765, -1),"},")</f>
         <v>764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15946,7 +15946,7 @@
         <v>12</v>
       </c>
       <c r="D766" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C766, Levels!B:B, 0), 1, 1)),", ",IF(A766 &lt;&gt; "", """mem"": bit" &amp; B766 &amp; "(" &amp; A766 &amp; "),", ""),"""good"": ",IF(A766 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A766 &lt;&gt; "", A766, -1),", ""bit"": ",IF(B766 &lt;&gt; 0, B766, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C766, Levels!B:B, 0), 1, 1)),", ",IF(A766 &lt;&gt; "", """mem"": bit" &amp; B766 &amp; "(" &amp; A766 &amp; "),", ""),"""good"": ",IF(A766 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A766 &lt;&gt; "", A766, -1),", ""bit"": ",IF(B766 &lt;&gt; "", B766, -1),"},")</f>
         <v>765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
         <v>12</v>
       </c>
       <c r="D767" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C767, Levels!B:B, 0), 1, 1)),", ",IF(A767 &lt;&gt; "", """mem"": bit" &amp; B767 &amp; "(" &amp; A767 &amp; "),", ""),"""good"": ",IF(A767 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A767 &lt;&gt; "", A767, -1),", ""bit"": ",IF(B767 &lt;&gt; 0, B767, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C767, Levels!B:B, 0), 1, 1)),", ",IF(A767 &lt;&gt; "", """mem"": bit" &amp; B767 &amp; "(" &amp; A767 &amp; "),", ""),"""good"": ",IF(A767 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A767 &lt;&gt; "", A767, -1),", ""bit"": ",IF(B767 &lt;&gt; "", B767, -1),"},")</f>
         <v>766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
         <v>12</v>
       </c>
       <c r="D768" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C768, Levels!B:B, 0), 1, 1)),", ",IF(A768 &lt;&gt; "", """mem"": bit" &amp; B768 &amp; "(" &amp; A768 &amp; "),", ""),"""good"": ",IF(A768 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A768 &lt;&gt; "", A768, -1),", ""bit"": ",IF(B768 &lt;&gt; 0, B768, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C768, Levels!B:B, 0), 1, 1)),", ",IF(A768 &lt;&gt; "", """mem"": bit" &amp; B768 &amp; "(" &amp; A768 &amp; "),", ""),"""good"": ",IF(A768 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A768 &lt;&gt; "", A768, -1),", ""bit"": ",IF(B768 &lt;&gt; "", B768, -1),"},")</f>
         <v>767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15973,7 +15973,7 @@
         <v>12</v>
       </c>
       <c r="D769" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C769, Levels!B:B, 0), 1, 1)),", ",IF(A769 &lt;&gt; "", """mem"": bit" &amp; B769 &amp; "(" &amp; A769 &amp; "),", ""),"""good"": ",IF(A769 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A769 &lt;&gt; "", A769, -1),", ""bit"": ",IF(B769 &lt;&gt; 0, B769, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C769, Levels!B:B, 0), 1, 1)),", ",IF(A769 &lt;&gt; "", """mem"": bit" &amp; B769 &amp; "(" &amp; A769 &amp; "),", ""),"""good"": ",IF(A769 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A769 &lt;&gt; "", A769, -1),", ""bit"": ",IF(B769 &lt;&gt; "", B769, -1),"},")</f>
         <v>768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15982,7 +15982,7 @@
         <v>12</v>
       </c>
       <c r="D770" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C770, Levels!B:B, 0), 1, 1)),", ",IF(A770 &lt;&gt; "", """mem"": bit" &amp; B770 &amp; "(" &amp; A770 &amp; "),", ""),"""good"": ",IF(A770 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A770 &lt;&gt; "", A770, -1),", ""bit"": ",IF(B770 &lt;&gt; 0, B770, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C770, Levels!B:B, 0), 1, 1)),", ",IF(A770 &lt;&gt; "", """mem"": bit" &amp; B770 &amp; "(" &amp; A770 &amp; "),", ""),"""good"": ",IF(A770 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A770 &lt;&gt; "", A770, -1),", ""bit"": ",IF(B770 &lt;&gt; "", B770, -1),"},")</f>
         <v>769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
         <v>12</v>
       </c>
       <c r="D771" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C771, Levels!B:B, 0), 1, 1)),", ",IF(A771 &lt;&gt; "", """mem"": bit" &amp; B771 &amp; "(" &amp; A771 &amp; "),", ""),"""good"": ",IF(A771 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A771 &lt;&gt; "", A771, -1),", ""bit"": ",IF(B771 &lt;&gt; 0, B771, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C771, Levels!B:B, 0), 1, 1)),", ",IF(A771 &lt;&gt; "", """mem"": bit" &amp; B771 &amp; "(" &amp; A771 &amp; "),", ""),"""good"": ",IF(A771 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A771 &lt;&gt; "", A771, -1),", ""bit"": ",IF(B771 &lt;&gt; "", B771, -1),"},")</f>
         <v>770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16000,7 +16000,7 @@
         <v>12</v>
       </c>
       <c r="D772" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C772, Levels!B:B, 0), 1, 1)),", ",IF(A772 &lt;&gt; "", """mem"": bit" &amp; B772 &amp; "(" &amp; A772 &amp; "),", ""),"""good"": ",IF(A772 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A772 &lt;&gt; "", A772, -1),", ""bit"": ",IF(B772 &lt;&gt; 0, B772, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C772, Levels!B:B, 0), 1, 1)),", ",IF(A772 &lt;&gt; "", """mem"": bit" &amp; B772 &amp; "(" &amp; A772 &amp; "),", ""),"""good"": ",IF(A772 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A772 &lt;&gt; "", A772, -1),", ""bit"": ",IF(B772 &lt;&gt; "", B772, -1),"},")</f>
         <v>771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16009,7 +16009,7 @@
         <v>12</v>
       </c>
       <c r="D773" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C773, Levels!B:B, 0), 1, 1)),", ",IF(A773 &lt;&gt; "", """mem"": bit" &amp; B773 &amp; "(" &amp; A773 &amp; "),", ""),"""good"": ",IF(A773 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A773 &lt;&gt; "", A773, -1),", ""bit"": ",IF(B773 &lt;&gt; 0, B773, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C773, Levels!B:B, 0), 1, 1)),", ",IF(A773 &lt;&gt; "", """mem"": bit" &amp; B773 &amp; "(" &amp; A773 &amp; "),", ""),"""good"": ",IF(A773 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A773 &lt;&gt; "", A773, -1),", ""bit"": ",IF(B773 &lt;&gt; "", B773, -1),"},")</f>
         <v>772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
         <v>12</v>
       </c>
       <c r="D774" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C774, Levels!B:B, 0), 1, 1)),", ",IF(A774 &lt;&gt; "", """mem"": bit" &amp; B774 &amp; "(" &amp; A774 &amp; "),", ""),"""good"": ",IF(A774 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A774 &lt;&gt; "", A774, -1),", ""bit"": ",IF(B774 &lt;&gt; 0, B774, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C774, Levels!B:B, 0), 1, 1)),", ",IF(A774 &lt;&gt; "", """mem"": bit" &amp; B774 &amp; "(" &amp; A774 &amp; "),", ""),"""good"": ",IF(A774 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A774 &lt;&gt; "", A774, -1),", ""bit"": ",IF(B774 &lt;&gt; "", B774, -1),"},")</f>
         <v>773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
         <v>12</v>
       </c>
       <c r="D775" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C775, Levels!B:B, 0), 1, 1)),", ",IF(A775 &lt;&gt; "", """mem"": bit" &amp; B775 &amp; "(" &amp; A775 &amp; "),", ""),"""good"": ",IF(A775 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A775 &lt;&gt; "", A775, -1),", ""bit"": ",IF(B775 &lt;&gt; 0, B775, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C775, Levels!B:B, 0), 1, 1)),", ",IF(A775 &lt;&gt; "", """mem"": bit" &amp; B775 &amp; "(" &amp; A775 &amp; "),", ""),"""good"": ",IF(A775 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A775 &lt;&gt; "", A775, -1),", ""bit"": ",IF(B775 &lt;&gt; "", B775, -1),"},")</f>
         <v>774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16036,7 +16036,7 @@
         <v>12</v>
       </c>
       <c r="D776" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C776, Levels!B:B, 0), 1, 1)),", ",IF(A776 &lt;&gt; "", """mem"": bit" &amp; B776 &amp; "(" &amp; A776 &amp; "),", ""),"""good"": ",IF(A776 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A776 &lt;&gt; "", A776, -1),", ""bit"": ",IF(B776 &lt;&gt; 0, B776, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C776, Levels!B:B, 0), 1, 1)),", ",IF(A776 &lt;&gt; "", """mem"": bit" &amp; B776 &amp; "(" &amp; A776 &amp; "),", ""),"""good"": ",IF(A776 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A776 &lt;&gt; "", A776, -1),", ""bit"": ",IF(B776 &lt;&gt; "", B776, -1),"},")</f>
         <v>775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16045,7 +16045,7 @@
         <v>12</v>
       </c>
       <c r="D777" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C777, Levels!B:B, 0), 1, 1)),", ",IF(A777 &lt;&gt; "", """mem"": bit" &amp; B777 &amp; "(" &amp; A777 &amp; "),", ""),"""good"": ",IF(A777 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A777 &lt;&gt; "", A777, -1),", ""bit"": ",IF(B777 &lt;&gt; 0, B777, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C777, Levels!B:B, 0), 1, 1)),", ",IF(A777 &lt;&gt; "", """mem"": bit" &amp; B777 &amp; "(" &amp; A777 &amp; "),", ""),"""good"": ",IF(A777 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A777 &lt;&gt; "", A777, -1),", ""bit"": ",IF(B777 &lt;&gt; "", B777, -1),"},")</f>
         <v>776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16054,7 +16054,7 @@
         <v>12</v>
       </c>
       <c r="D778" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C778, Levels!B:B, 0), 1, 1)),", ",IF(A778 &lt;&gt; "", """mem"": bit" &amp; B778 &amp; "(" &amp; A778 &amp; "),", ""),"""good"": ",IF(A778 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A778 &lt;&gt; "", A778, -1),", ""bit"": ",IF(B778 &lt;&gt; 0, B778, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C778, Levels!B:B, 0), 1, 1)),", ",IF(A778 &lt;&gt; "", """mem"": bit" &amp; B778 &amp; "(" &amp; A778 &amp; "),", ""),"""good"": ",IF(A778 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A778 &lt;&gt; "", A778, -1),", ""bit"": ",IF(B778 &lt;&gt; "", B778, -1),"},")</f>
         <v>777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16063,7 +16063,7 @@
         <v>12</v>
       </c>
       <c r="D779" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C779, Levels!B:B, 0), 1, 1)),", ",IF(A779 &lt;&gt; "", """mem"": bit" &amp; B779 &amp; "(" &amp; A779 &amp; "),", ""),"""good"": ",IF(A779 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A779 &lt;&gt; "", A779, -1),", ""bit"": ",IF(B779 &lt;&gt; 0, B779, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C779, Levels!B:B, 0), 1, 1)),", ",IF(A779 &lt;&gt; "", """mem"": bit" &amp; B779 &amp; "(" &amp; A779 &amp; "),", ""),"""good"": ",IF(A779 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A779 &lt;&gt; "", A779, -1),", ""bit"": ",IF(B779 &lt;&gt; "", B779, -1),"},")</f>
         <v>778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16072,7 +16072,7 @@
         <v>12</v>
       </c>
       <c r="D780" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C780, Levels!B:B, 0), 1, 1)),", ",IF(A780 &lt;&gt; "", """mem"": bit" &amp; B780 &amp; "(" &amp; A780 &amp; "),", ""),"""good"": ",IF(A780 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A780 &lt;&gt; "", A780, -1),", ""bit"": ",IF(B780 &lt;&gt; 0, B780, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C780, Levels!B:B, 0), 1, 1)),", ",IF(A780 &lt;&gt; "", """mem"": bit" &amp; B780 &amp; "(" &amp; A780 &amp; "),", ""),"""good"": ",IF(A780 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A780 &lt;&gt; "", A780, -1),", ""bit"": ",IF(B780 &lt;&gt; "", B780, -1),"},")</f>
         <v>779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
         <v>12</v>
       </c>
       <c r="D781" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C781, Levels!B:B, 0), 1, 1)),", ",IF(A781 &lt;&gt; "", """mem"": bit" &amp; B781 &amp; "(" &amp; A781 &amp; "),", ""),"""good"": ",IF(A781 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A781 &lt;&gt; "", A781, -1),", ""bit"": ",IF(B781 &lt;&gt; 0, B781, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C781, Levels!B:B, 0), 1, 1)),", ",IF(A781 &lt;&gt; "", """mem"": bit" &amp; B781 &amp; "(" &amp; A781 &amp; "),", ""),"""good"": ",IF(A781 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A781 &lt;&gt; "", A781, -1),", ""bit"": ",IF(B781 &lt;&gt; "", B781, -1),"},")</f>
         <v>780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16090,7 +16090,7 @@
         <v>12</v>
       </c>
       <c r="D782" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C782, Levels!B:B, 0), 1, 1)),", ",IF(A782 &lt;&gt; "", """mem"": bit" &amp; B782 &amp; "(" &amp; A782 &amp; "),", ""),"""good"": ",IF(A782 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A782 &lt;&gt; "", A782, -1),", ""bit"": ",IF(B782 &lt;&gt; 0, B782, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C782, Levels!B:B, 0), 1, 1)),", ",IF(A782 &lt;&gt; "", """mem"": bit" &amp; B782 &amp; "(" &amp; A782 &amp; "),", ""),"""good"": ",IF(A782 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A782 &lt;&gt; "", A782, -1),", ""bit"": ",IF(B782 &lt;&gt; "", B782, -1),"},")</f>
         <v>781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
         <v>12</v>
       </c>
       <c r="D783" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C783, Levels!B:B, 0), 1, 1)),", ",IF(A783 &lt;&gt; "", """mem"": bit" &amp; B783 &amp; "(" &amp; A783 &amp; "),", ""),"""good"": ",IF(A783 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A783 &lt;&gt; "", A783, -1),", ""bit"": ",IF(B783 &lt;&gt; 0, B783, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C783, Levels!B:B, 0), 1, 1)),", ",IF(A783 &lt;&gt; "", """mem"": bit" &amp; B783 &amp; "(" &amp; A783 &amp; "),", ""),"""good"": ",IF(A783 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A783 &lt;&gt; "", A783, -1),", ""bit"": ",IF(B783 &lt;&gt; "", B783, -1),"},")</f>
         <v>782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16108,7 +16108,7 @@
         <v>12</v>
       </c>
       <c r="D784" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C784, Levels!B:B, 0), 1, 1)),", ",IF(A784 &lt;&gt; "", """mem"": bit" &amp; B784 &amp; "(" &amp; A784 &amp; "),", ""),"""good"": ",IF(A784 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A784 &lt;&gt; "", A784, -1),", ""bit"": ",IF(B784 &lt;&gt; 0, B784, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C784, Levels!B:B, 0), 1, 1)),", ",IF(A784 &lt;&gt; "", """mem"": bit" &amp; B784 &amp; "(" &amp; A784 &amp; "),", ""),"""good"": ",IF(A784 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A784 &lt;&gt; "", A784, -1),", ""bit"": ",IF(B784 &lt;&gt; "", B784, -1),"},")</f>
         <v>783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16117,7 +16117,7 @@
         <v>12</v>
       </c>
       <c r="D785" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C785, Levels!B:B, 0), 1, 1)),", ",IF(A785 &lt;&gt; "", """mem"": bit" &amp; B785 &amp; "(" &amp; A785 &amp; "),", ""),"""good"": ",IF(A785 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A785 &lt;&gt; "", A785, -1),", ""bit"": ",IF(B785 &lt;&gt; 0, B785, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C785, Levels!B:B, 0), 1, 1)),", ",IF(A785 &lt;&gt; "", """mem"": bit" &amp; B785 &amp; "(" &amp; A785 &amp; "),", ""),"""good"": ",IF(A785 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A785 &lt;&gt; "", A785, -1),", ""bit"": ",IF(B785 &lt;&gt; "", B785, -1),"},")</f>
         <v>784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16126,7 +16126,7 @@
         <v>12</v>
       </c>
       <c r="D786" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C786, Levels!B:B, 0), 1, 1)),", ",IF(A786 &lt;&gt; "", """mem"": bit" &amp; B786 &amp; "(" &amp; A786 &amp; "),", ""),"""good"": ",IF(A786 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A786 &lt;&gt; "", A786, -1),", ""bit"": ",IF(B786 &lt;&gt; 0, B786, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C786, Levels!B:B, 0), 1, 1)),", ",IF(A786 &lt;&gt; "", """mem"": bit" &amp; B786 &amp; "(" &amp; A786 &amp; "),", ""),"""good"": ",IF(A786 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A786 &lt;&gt; "", A786, -1),", ""bit"": ",IF(B786 &lt;&gt; "", B786, -1),"},")</f>
         <v>785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
         <v>12</v>
       </c>
       <c r="D787" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C787, Levels!B:B, 0), 1, 1)),", ",IF(A787 &lt;&gt; "", """mem"": bit" &amp; B787 &amp; "(" &amp; A787 &amp; "),", ""),"""good"": ",IF(A787 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A787 &lt;&gt; "", A787, -1),", ""bit"": ",IF(B787 &lt;&gt; 0, B787, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C787, Levels!B:B, 0), 1, 1)),", ",IF(A787 &lt;&gt; "", """mem"": bit" &amp; B787 &amp; "(" &amp; A787 &amp; "),", ""),"""good"": ",IF(A787 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A787 &lt;&gt; "", A787, -1),", ""bit"": ",IF(B787 &lt;&gt; "", B787, -1),"},")</f>
         <v>786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
         <v>12</v>
       </c>
       <c r="D788" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C788, Levels!B:B, 0), 1, 1)),", ",IF(A788 &lt;&gt; "", """mem"": bit" &amp; B788 &amp; "(" &amp; A788 &amp; "),", ""),"""good"": ",IF(A788 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A788 &lt;&gt; "", A788, -1),", ""bit"": ",IF(B788 &lt;&gt; 0, B788, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C788, Levels!B:B, 0), 1, 1)),", ",IF(A788 &lt;&gt; "", """mem"": bit" &amp; B788 &amp; "(" &amp; A788 &amp; "),", ""),"""good"": ",IF(A788 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A788 &lt;&gt; "", A788, -1),", ""bit"": ",IF(B788 &lt;&gt; "", B788, -1),"},")</f>
         <v>787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
         <v>12</v>
       </c>
       <c r="D789" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C789, Levels!B:B, 0), 1, 1)),", ",IF(A789 &lt;&gt; "", """mem"": bit" &amp; B789 &amp; "(" &amp; A789 &amp; "),", ""),"""good"": ",IF(A789 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A789 &lt;&gt; "", A789, -1),", ""bit"": ",IF(B789 &lt;&gt; 0, B789, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C789, Levels!B:B, 0), 1, 1)),", ",IF(A789 &lt;&gt; "", """mem"": bit" &amp; B789 &amp; "(" &amp; A789 &amp; "),", ""),"""good"": ",IF(A789 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A789 &lt;&gt; "", A789, -1),", ""bit"": ",IF(B789 &lt;&gt; "", B789, -1),"},")</f>
         <v>788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
         <v>12</v>
       </c>
       <c r="D790" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C790, Levels!B:B, 0), 1, 1)),", ",IF(A790 &lt;&gt; "", """mem"": bit" &amp; B790 &amp; "(" &amp; A790 &amp; "),", ""),"""good"": ",IF(A790 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A790 &lt;&gt; "", A790, -1),", ""bit"": ",IF(B790 &lt;&gt; 0, B790, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C790, Levels!B:B, 0), 1, 1)),", ",IF(A790 &lt;&gt; "", """mem"": bit" &amp; B790 &amp; "(" &amp; A790 &amp; "),", ""),"""good"": ",IF(A790 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A790 &lt;&gt; "", A790, -1),", ""bit"": ",IF(B790 &lt;&gt; "", B790, -1),"},")</f>
         <v>789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
         <v>12</v>
       </c>
       <c r="D791" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C791, Levels!B:B, 0), 1, 1)),", ",IF(A791 &lt;&gt; "", """mem"": bit" &amp; B791 &amp; "(" &amp; A791 &amp; "),", ""),"""good"": ",IF(A791 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A791 &lt;&gt; "", A791, -1),", ""bit"": ",IF(B791 &lt;&gt; 0, B791, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C791, Levels!B:B, 0), 1, 1)),", ",IF(A791 &lt;&gt; "", """mem"": bit" &amp; B791 &amp; "(" &amp; A791 &amp; "),", ""),"""good"": ",IF(A791 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A791 &lt;&gt; "", A791, -1),", ""bit"": ",IF(B791 &lt;&gt; "", B791, -1),"},")</f>
         <v>790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16180,7 +16180,7 @@
         <v>12</v>
       </c>
       <c r="D792" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C792, Levels!B:B, 0), 1, 1)),", ",IF(A792 &lt;&gt; "", """mem"": bit" &amp; B792 &amp; "(" &amp; A792 &amp; "),", ""),"""good"": ",IF(A792 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A792 &lt;&gt; "", A792, -1),", ""bit"": ",IF(B792 &lt;&gt; 0, B792, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C792, Levels!B:B, 0), 1, 1)),", ",IF(A792 &lt;&gt; "", """mem"": bit" &amp; B792 &amp; "(" &amp; A792 &amp; "),", ""),"""good"": ",IF(A792 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A792 &lt;&gt; "", A792, -1),", ""bit"": ",IF(B792 &lt;&gt; "", B792, -1),"},")</f>
         <v>791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
         <v>12</v>
       </c>
       <c r="D793" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C793, Levels!B:B, 0), 1, 1)),", ",IF(A793 &lt;&gt; "", """mem"": bit" &amp; B793 &amp; "(" &amp; A793 &amp; "),", ""),"""good"": ",IF(A793 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A793 &lt;&gt; "", A793, -1),", ""bit"": ",IF(B793 &lt;&gt; 0, B793, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C793, Levels!B:B, 0), 1, 1)),", ",IF(A793 &lt;&gt; "", """mem"": bit" &amp; B793 &amp; "(" &amp; A793 &amp; "),", ""),"""good"": ",IF(A793 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A793 &lt;&gt; "", A793, -1),", ""bit"": ",IF(B793 &lt;&gt; "", B793, -1),"},")</f>
         <v>792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16198,7 +16198,7 @@
         <v>12</v>
       </c>
       <c r="D794" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C794, Levels!B:B, 0), 1, 1)),", ",IF(A794 &lt;&gt; "", """mem"": bit" &amp; B794 &amp; "(" &amp; A794 &amp; "),", ""),"""good"": ",IF(A794 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A794 &lt;&gt; "", A794, -1),", ""bit"": ",IF(B794 &lt;&gt; 0, B794, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C794, Levels!B:B, 0), 1, 1)),", ",IF(A794 &lt;&gt; "", """mem"": bit" &amp; B794 &amp; "(" &amp; A794 &amp; "),", ""),"""good"": ",IF(A794 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A794 &lt;&gt; "", A794, -1),", ""bit"": ",IF(B794 &lt;&gt; "", B794, -1),"},")</f>
         <v>793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16207,7 +16207,7 @@
         <v>12</v>
       </c>
       <c r="D795" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C795, Levels!B:B, 0), 1, 1)),", ",IF(A795 &lt;&gt; "", """mem"": bit" &amp; B795 &amp; "(" &amp; A795 &amp; "),", ""),"""good"": ",IF(A795 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A795 &lt;&gt; "", A795, -1),", ""bit"": ",IF(B795 &lt;&gt; 0, B795, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C795, Levels!B:B, 0), 1, 1)),", ",IF(A795 &lt;&gt; "", """mem"": bit" &amp; B795 &amp; "(" &amp; A795 &amp; "),", ""),"""good"": ",IF(A795 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A795 &lt;&gt; "", A795, -1),", ""bit"": ",IF(B795 &lt;&gt; "", B795, -1),"},")</f>
         <v>794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
         <v>12</v>
       </c>
       <c r="D796" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C796, Levels!B:B, 0), 1, 1)),", ",IF(A796 &lt;&gt; "", """mem"": bit" &amp; B796 &amp; "(" &amp; A796 &amp; "),", ""),"""good"": ",IF(A796 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A796 &lt;&gt; "", A796, -1),", ""bit"": ",IF(B796 &lt;&gt; 0, B796, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C796, Levels!B:B, 0), 1, 1)),", ",IF(A796 &lt;&gt; "", """mem"": bit" &amp; B796 &amp; "(" &amp; A796 &amp; "),", ""),"""good"": ",IF(A796 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A796 &lt;&gt; "", A796, -1),", ""bit"": ",IF(B796 &lt;&gt; "", B796, -1),"},")</f>
         <v>795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16225,7 +16225,7 @@
         <v>12</v>
       </c>
       <c r="D797" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C797, Levels!B:B, 0), 1, 1)),", ",IF(A797 &lt;&gt; "", """mem"": bit" &amp; B797 &amp; "(" &amp; A797 &amp; "),", ""),"""good"": ",IF(A797 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A797 &lt;&gt; "", A797, -1),", ""bit"": ",IF(B797 &lt;&gt; 0, B797, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C797, Levels!B:B, 0), 1, 1)),", ",IF(A797 &lt;&gt; "", """mem"": bit" &amp; B797 &amp; "(" &amp; A797 &amp; "),", ""),"""good"": ",IF(A797 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A797 &lt;&gt; "", A797, -1),", ""bit"": ",IF(B797 &lt;&gt; "", B797, -1),"},")</f>
         <v>796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
         <v>12</v>
       </c>
       <c r="D798" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C798, Levels!B:B, 0), 1, 1)),", ",IF(A798 &lt;&gt; "", """mem"": bit" &amp; B798 &amp; "(" &amp; A798 &amp; "),", ""),"""good"": ",IF(A798 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A798 &lt;&gt; "", A798, -1),", ""bit"": ",IF(B798 &lt;&gt; 0, B798, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C798, Levels!B:B, 0), 1, 1)),", ",IF(A798 &lt;&gt; "", """mem"": bit" &amp; B798 &amp; "(" &amp; A798 &amp; "),", ""),"""good"": ",IF(A798 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A798 &lt;&gt; "", A798, -1),", ""bit"": ",IF(B798 &lt;&gt; "", B798, -1),"},")</f>
         <v>797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
         <v>12</v>
       </c>
       <c r="D799" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C799, Levels!B:B, 0), 1, 1)),", ",IF(A799 &lt;&gt; "", """mem"": bit" &amp; B799 &amp; "(" &amp; A799 &amp; "),", ""),"""good"": ",IF(A799 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A799 &lt;&gt; "", A799, -1),", ""bit"": ",IF(B799 &lt;&gt; 0, B799, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C799, Levels!B:B, 0), 1, 1)),", ",IF(A799 &lt;&gt; "", """mem"": bit" &amp; B799 &amp; "(" &amp; A799 &amp; "),", ""),"""good"": ",IF(A799 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A799 &lt;&gt; "", A799, -1),", ""bit"": ",IF(B799 &lt;&gt; "", B799, -1),"},")</f>
         <v>798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16252,7 +16252,7 @@
         <v>12</v>
       </c>
       <c r="D800" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C800, Levels!B:B, 0), 1, 1)),", ",IF(A800 &lt;&gt; "", """mem"": bit" &amp; B800 &amp; "(" &amp; A800 &amp; "),", ""),"""good"": ",IF(A800 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A800 &lt;&gt; "", A800, -1),", ""bit"": ",IF(B800 &lt;&gt; 0, B800, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C800, Levels!B:B, 0), 1, 1)),", ",IF(A800 &lt;&gt; "", """mem"": bit" &amp; B800 &amp; "(" &amp; A800 &amp; "),", ""),"""good"": ",IF(A800 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A800 &lt;&gt; "", A800, -1),", ""bit"": ",IF(B800 &lt;&gt; "", B800, -1),"},")</f>
         <v>799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16261,7 +16261,7 @@
         <v>12</v>
       </c>
       <c r="D801" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C801, Levels!B:B, 0), 1, 1)),", ",IF(A801 &lt;&gt; "", """mem"": bit" &amp; B801 &amp; "(" &amp; A801 &amp; "),", ""),"""good"": ",IF(A801 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A801 &lt;&gt; "", A801, -1),", ""bit"": ",IF(B801 &lt;&gt; 0, B801, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C801, Levels!B:B, 0), 1, 1)),", ",IF(A801 &lt;&gt; "", """mem"": bit" &amp; B801 &amp; "(" &amp; A801 &amp; "),", ""),"""good"": ",IF(A801 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A801 &lt;&gt; "", A801, -1),", ""bit"": ",IF(B801 &lt;&gt; "", B801, -1),"},")</f>
         <v>800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16270,7 +16270,7 @@
         <v>12</v>
       </c>
       <c r="D802" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C802, Levels!B:B, 0), 1, 1)),", ",IF(A802 &lt;&gt; "", """mem"": bit" &amp; B802 &amp; "(" &amp; A802 &amp; "),", ""),"""good"": ",IF(A802 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A802 &lt;&gt; "", A802, -1),", ""bit"": ",IF(B802 &lt;&gt; 0, B802, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C802, Levels!B:B, 0), 1, 1)),", ",IF(A802 &lt;&gt; "", """mem"": bit" &amp; B802 &amp; "(" &amp; A802 &amp; "),", ""),"""good"": ",IF(A802 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A802 &lt;&gt; "", A802, -1),", ""bit"": ",IF(B802 &lt;&gt; "", B802, -1),"},")</f>
         <v>801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16279,7 +16279,7 @@
         <v>12</v>
       </c>
       <c r="D803" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C803, Levels!B:B, 0), 1, 1)),", ",IF(A803 &lt;&gt; "", """mem"": bit" &amp; B803 &amp; "(" &amp; A803 &amp; "),", ""),"""good"": ",IF(A803 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A803 &lt;&gt; "", A803, -1),", ""bit"": ",IF(B803 &lt;&gt; 0, B803, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C803, Levels!B:B, 0), 1, 1)),", ",IF(A803 &lt;&gt; "", """mem"": bit" &amp; B803 &amp; "(" &amp; A803 &amp; "),", ""),"""good"": ",IF(A803 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A803 &lt;&gt; "", A803, -1),", ""bit"": ",IF(B803 &lt;&gt; "", B803, -1),"},")</f>
         <v>802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16288,7 +16288,7 @@
         <v>12</v>
       </c>
       <c r="D804" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C804, Levels!B:B, 0), 1, 1)),", ",IF(A804 &lt;&gt; "", """mem"": bit" &amp; B804 &amp; "(" &amp; A804 &amp; "),", ""),"""good"": ",IF(A804 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A804 &lt;&gt; "", A804, -1),", ""bit"": ",IF(B804 &lt;&gt; 0, B804, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C804, Levels!B:B, 0), 1, 1)),", ",IF(A804 &lt;&gt; "", """mem"": bit" &amp; B804 &amp; "(" &amp; A804 &amp; "),", ""),"""good"": ",IF(A804 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A804 &lt;&gt; "", A804, -1),", ""bit"": ",IF(B804 &lt;&gt; "", B804, -1),"},")</f>
         <v>803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
         <v>12</v>
       </c>
       <c r="D805" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C805, Levels!B:B, 0), 1, 1)),", ",IF(A805 &lt;&gt; "", """mem"": bit" &amp; B805 &amp; "(" &amp; A805 &amp; "),", ""),"""good"": ",IF(A805 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A805 &lt;&gt; "", A805, -1),", ""bit"": ",IF(B805 &lt;&gt; 0, B805, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C805, Levels!B:B, 0), 1, 1)),", ",IF(A805 &lt;&gt; "", """mem"": bit" &amp; B805 &amp; "(" &amp; A805 &amp; "),", ""),"""good"": ",IF(A805 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A805 &lt;&gt; "", A805, -1),", ""bit"": ",IF(B805 &lt;&gt; "", B805, -1),"},")</f>
         <v>804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16306,7 +16306,7 @@
         <v>12</v>
       </c>
       <c r="D806" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C806, Levels!B:B, 0), 1, 1)),", ",IF(A806 &lt;&gt; "", """mem"": bit" &amp; B806 &amp; "(" &amp; A806 &amp; "),", ""),"""good"": ",IF(A806 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A806 &lt;&gt; "", A806, -1),", ""bit"": ",IF(B806 &lt;&gt; 0, B806, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C806, Levels!B:B, 0), 1, 1)),", ",IF(A806 &lt;&gt; "", """mem"": bit" &amp; B806 &amp; "(" &amp; A806 &amp; "),", ""),"""good"": ",IF(A806 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A806 &lt;&gt; "", A806, -1),", ""bit"": ",IF(B806 &lt;&gt; "", B806, -1),"},")</f>
         <v>805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
         <v>12</v>
       </c>
       <c r="D807" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C807, Levels!B:B, 0), 1, 1)),", ",IF(A807 &lt;&gt; "", """mem"": bit" &amp; B807 &amp; "(" &amp; A807 &amp; "),", ""),"""good"": ",IF(A807 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A807 &lt;&gt; "", A807, -1),", ""bit"": ",IF(B807 &lt;&gt; 0, B807, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C807, Levels!B:B, 0), 1, 1)),", ",IF(A807 &lt;&gt; "", """mem"": bit" &amp; B807 &amp; "(" &amp; A807 &amp; "),", ""),"""good"": ",IF(A807 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A807 &lt;&gt; "", A807, -1),", ""bit"": ",IF(B807 &lt;&gt; "", B807, -1),"},")</f>
         <v>806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16324,7 +16324,7 @@
         <v>12</v>
       </c>
       <c r="D808" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C808, Levels!B:B, 0), 1, 1)),", ",IF(A808 &lt;&gt; "", """mem"": bit" &amp; B808 &amp; "(" &amp; A808 &amp; "),", ""),"""good"": ",IF(A808 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A808 &lt;&gt; "", A808, -1),", ""bit"": ",IF(B808 &lt;&gt; 0, B808, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C808, Levels!B:B, 0), 1, 1)),", ",IF(A808 &lt;&gt; "", """mem"": bit" &amp; B808 &amp; "(" &amp; A808 &amp; "),", ""),"""good"": ",IF(A808 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A808 &lt;&gt; "", A808, -1),", ""bit"": ",IF(B808 &lt;&gt; "", B808, -1),"},")</f>
         <v>807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
         <v>12</v>
       </c>
       <c r="D809" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C809, Levels!B:B, 0), 1, 1)),", ",IF(A809 &lt;&gt; "", """mem"": bit" &amp; B809 &amp; "(" &amp; A809 &amp; "),", ""),"""good"": ",IF(A809 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A809 &lt;&gt; "", A809, -1),", ""bit"": ",IF(B809 &lt;&gt; 0, B809, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C809, Levels!B:B, 0), 1, 1)),", ",IF(A809 &lt;&gt; "", """mem"": bit" &amp; B809 &amp; "(" &amp; A809 &amp; "),", ""),"""good"": ",IF(A809 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A809 &lt;&gt; "", A809, -1),", ""bit"": ",IF(B809 &lt;&gt; "", B809, -1),"},")</f>
         <v>808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16342,7 +16342,7 @@
         <v>12</v>
       </c>
       <c r="D810" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C810, Levels!B:B, 0), 1, 1)),", ",IF(A810 &lt;&gt; "", """mem"": bit" &amp; B810 &amp; "(" &amp; A810 &amp; "),", ""),"""good"": ",IF(A810 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A810 &lt;&gt; "", A810, -1),", ""bit"": ",IF(B810 &lt;&gt; 0, B810, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C810, Levels!B:B, 0), 1, 1)),", ",IF(A810 &lt;&gt; "", """mem"": bit" &amp; B810 &amp; "(" &amp; A810 &amp; "),", ""),"""good"": ",IF(A810 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A810 &lt;&gt; "", A810, -1),", ""bit"": ",IF(B810 &lt;&gt; "", B810, -1),"},")</f>
         <v>809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
         <v>12</v>
       </c>
       <c r="D811" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C811, Levels!B:B, 0), 1, 1)),", ",IF(A811 &lt;&gt; "", """mem"": bit" &amp; B811 &amp; "(" &amp; A811 &amp; "),", ""),"""good"": ",IF(A811 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A811 &lt;&gt; "", A811, -1),", ""bit"": ",IF(B811 &lt;&gt; 0, B811, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C811, Levels!B:B, 0), 1, 1)),", ",IF(A811 &lt;&gt; "", """mem"": bit" &amp; B811 &amp; "(" &amp; A811 &amp; "),", ""),"""good"": ",IF(A811 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A811 &lt;&gt; "", A811, -1),", ""bit"": ",IF(B811 &lt;&gt; "", B811, -1),"},")</f>
         <v>810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
         <v>12</v>
       </c>
       <c r="D812" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C812, Levels!B:B, 0), 1, 1)),", ",IF(A812 &lt;&gt; "", """mem"": bit" &amp; B812 &amp; "(" &amp; A812 &amp; "),", ""),"""good"": ",IF(A812 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A812 &lt;&gt; "", A812, -1),", ""bit"": ",IF(B812 &lt;&gt; 0, B812, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C812, Levels!B:B, 0), 1, 1)),", ",IF(A812 &lt;&gt; "", """mem"": bit" &amp; B812 &amp; "(" &amp; A812 &amp; "),", ""),"""good"": ",IF(A812 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A812 &lt;&gt; "", A812, -1),", ""bit"": ",IF(B812 &lt;&gt; "", B812, -1),"},")</f>
         <v>811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
         <v>12</v>
       </c>
       <c r="D813" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C813, Levels!B:B, 0), 1, 1)),", ",IF(A813 &lt;&gt; "", """mem"": bit" &amp; B813 &amp; "(" &amp; A813 &amp; "),", ""),"""good"": ",IF(A813 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A813 &lt;&gt; "", A813, -1),", ""bit"": ",IF(B813 &lt;&gt; 0, B813, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C813, Levels!B:B, 0), 1, 1)),", ",IF(A813 &lt;&gt; "", """mem"": bit" &amp; B813 &amp; "(" &amp; A813 &amp; "),", ""),"""good"": ",IF(A813 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A813 &lt;&gt; "", A813, -1),", ""bit"": ",IF(B813 &lt;&gt; "", B813, -1),"},")</f>
         <v>812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
         <v>12</v>
       </c>
       <c r="D814" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C814, Levels!B:B, 0), 1, 1)),", ",IF(A814 &lt;&gt; "", """mem"": bit" &amp; B814 &amp; "(" &amp; A814 &amp; "),", ""),"""good"": ",IF(A814 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A814 &lt;&gt; "", A814, -1),", ""bit"": ",IF(B814 &lt;&gt; 0, B814, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C814, Levels!B:B, 0), 1, 1)),", ",IF(A814 &lt;&gt; "", """mem"": bit" &amp; B814 &amp; "(" &amp; A814 &amp; "),", ""),"""good"": ",IF(A814 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A814 &lt;&gt; "", A814, -1),", ""bit"": ",IF(B814 &lt;&gt; "", B814, -1),"},")</f>
         <v>813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16387,7 +16387,7 @@
         <v>12</v>
       </c>
       <c r="D815" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C815, Levels!B:B, 0), 1, 1)),", ",IF(A815 &lt;&gt; "", """mem"": bit" &amp; B815 &amp; "(" &amp; A815 &amp; "),", ""),"""good"": ",IF(A815 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A815 &lt;&gt; "", A815, -1),", ""bit"": ",IF(B815 &lt;&gt; 0, B815, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C815, Levels!B:B, 0), 1, 1)),", ",IF(A815 &lt;&gt; "", """mem"": bit" &amp; B815 &amp; "(" &amp; A815 &amp; "),", ""),"""good"": ",IF(A815 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A815 &lt;&gt; "", A815, -1),", ""bit"": ",IF(B815 &lt;&gt; "", B815, -1),"},")</f>
         <v>814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16396,7 +16396,7 @@
         <v>12</v>
       </c>
       <c r="D816" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C816, Levels!B:B, 0), 1, 1)),", ",IF(A816 &lt;&gt; "", """mem"": bit" &amp; B816 &amp; "(" &amp; A816 &amp; "),", ""),"""good"": ",IF(A816 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A816 &lt;&gt; "", A816, -1),", ""bit"": ",IF(B816 &lt;&gt; 0, B816, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C816, Levels!B:B, 0), 1, 1)),", ",IF(A816 &lt;&gt; "", """mem"": bit" &amp; B816 &amp; "(" &amp; A816 &amp; "),", ""),"""good"": ",IF(A816 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A816 &lt;&gt; "", A816, -1),", ""bit"": ",IF(B816 &lt;&gt; "", B816, -1),"},")</f>
         <v>815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16405,7 +16405,7 @@
         <v>12</v>
       </c>
       <c r="D817" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C817, Levels!B:B, 0), 1, 1)),", ",IF(A817 &lt;&gt; "", """mem"": bit" &amp; B817 &amp; "(" &amp; A817 &amp; "),", ""),"""good"": ",IF(A817 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A817 &lt;&gt; "", A817, -1),", ""bit"": ",IF(B817 &lt;&gt; 0, B817, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C817, Levels!B:B, 0), 1, 1)),", ",IF(A817 &lt;&gt; "", """mem"": bit" &amp; B817 &amp; "(" &amp; A817 &amp; "),", ""),"""good"": ",IF(A817 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A817 &lt;&gt; "", A817, -1),", ""bit"": ",IF(B817 &lt;&gt; "", B817, -1),"},")</f>
         <v>816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16414,7 +16414,7 @@
         <v>12</v>
       </c>
       <c r="D818" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C818, Levels!B:B, 0), 1, 1)),", ",IF(A818 &lt;&gt; "", """mem"": bit" &amp; B818 &amp; "(" &amp; A818 &amp; "),", ""),"""good"": ",IF(A818 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A818 &lt;&gt; "", A818, -1),", ""bit"": ",IF(B818 &lt;&gt; 0, B818, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C818, Levels!B:B, 0), 1, 1)),", ",IF(A818 &lt;&gt; "", """mem"": bit" &amp; B818 &amp; "(" &amp; A818 &amp; "),", ""),"""good"": ",IF(A818 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A818 &lt;&gt; "", A818, -1),", ""bit"": ",IF(B818 &lt;&gt; "", B818, -1),"},")</f>
         <v>817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
         <v>12</v>
       </c>
       <c r="D819" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C819, Levels!B:B, 0), 1, 1)),", ",IF(A819 &lt;&gt; "", """mem"": bit" &amp; B819 &amp; "(" &amp; A819 &amp; "),", ""),"""good"": ",IF(A819 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A819 &lt;&gt; "", A819, -1),", ""bit"": ",IF(B819 &lt;&gt; 0, B819, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C819, Levels!B:B, 0), 1, 1)),", ",IF(A819 &lt;&gt; "", """mem"": bit" &amp; B819 &amp; "(" &amp; A819 &amp; "),", ""),"""good"": ",IF(A819 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A819 &lt;&gt; "", A819, -1),", ""bit"": ",IF(B819 &lt;&gt; "", B819, -1),"},")</f>
         <v>818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16432,7 +16432,7 @@
         <v>12</v>
       </c>
       <c r="D820" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C820, Levels!B:B, 0), 1, 1)),", ",IF(A820 &lt;&gt; "", """mem"": bit" &amp; B820 &amp; "(" &amp; A820 &amp; "),", ""),"""good"": ",IF(A820 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A820 &lt;&gt; "", A820, -1),", ""bit"": ",IF(B820 &lt;&gt; 0, B820, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C820, Levels!B:B, 0), 1, 1)),", ",IF(A820 &lt;&gt; "", """mem"": bit" &amp; B820 &amp; "(" &amp; A820 &amp; "),", ""),"""good"": ",IF(A820 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A820 &lt;&gt; "", A820, -1),", ""bit"": ",IF(B820 &lt;&gt; "", B820, -1),"},")</f>
         <v>819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16441,7 +16441,7 @@
         <v>12</v>
       </c>
       <c r="D821" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C821, Levels!B:B, 0), 1, 1)),", ",IF(A821 &lt;&gt; "", """mem"": bit" &amp; B821 &amp; "(" &amp; A821 &amp; "),", ""),"""good"": ",IF(A821 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A821 &lt;&gt; "", A821, -1),", ""bit"": ",IF(B821 &lt;&gt; 0, B821, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C821, Levels!B:B, 0), 1, 1)),", ",IF(A821 &lt;&gt; "", """mem"": bit" &amp; B821 &amp; "(" &amp; A821 &amp; "),", ""),"""good"": ",IF(A821 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A821 &lt;&gt; "", A821, -1),", ""bit"": ",IF(B821 &lt;&gt; "", B821, -1),"},")</f>
         <v>820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
         <v>12</v>
       </c>
       <c r="D822" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C822, Levels!B:B, 0), 1, 1)),", ",IF(A822 &lt;&gt; "", """mem"": bit" &amp; B822 &amp; "(" &amp; A822 &amp; "),", ""),"""good"": ",IF(A822 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A822 &lt;&gt; "", A822, -1),", ""bit"": ",IF(B822 &lt;&gt; 0, B822, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C822, Levels!B:B, 0), 1, 1)),", ",IF(A822 &lt;&gt; "", """mem"": bit" &amp; B822 &amp; "(" &amp; A822 &amp; "),", ""),"""good"": ",IF(A822 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A822 &lt;&gt; "", A822, -1),", ""bit"": ",IF(B822 &lt;&gt; "", B822, -1),"},")</f>
         <v>821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16459,7 +16459,7 @@
         <v>12</v>
       </c>
       <c r="D823" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C823, Levels!B:B, 0), 1, 1)),", ",IF(A823 &lt;&gt; "", """mem"": bit" &amp; B823 &amp; "(" &amp; A823 &amp; "),", ""),"""good"": ",IF(A823 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A823 &lt;&gt; "", A823, -1),", ""bit"": ",IF(B823 &lt;&gt; 0, B823, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C823, Levels!B:B, 0), 1, 1)),", ",IF(A823 &lt;&gt; "", """mem"": bit" &amp; B823 &amp; "(" &amp; A823 &amp; "),", ""),"""good"": ",IF(A823 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A823 &lt;&gt; "", A823, -1),", ""bit"": ",IF(B823 &lt;&gt; "", B823, -1),"},")</f>
         <v>822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16468,7 +16468,7 @@
         <v>12</v>
       </c>
       <c r="D824" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C824, Levels!B:B, 0), 1, 1)),", ",IF(A824 &lt;&gt; "", """mem"": bit" &amp; B824 &amp; "(" &amp; A824 &amp; "),", ""),"""good"": ",IF(A824 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A824 &lt;&gt; "", A824, -1),", ""bit"": ",IF(B824 &lt;&gt; 0, B824, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C824, Levels!B:B, 0), 1, 1)),", ",IF(A824 &lt;&gt; "", """mem"": bit" &amp; B824 &amp; "(" &amp; A824 &amp; "),", ""),"""good"": ",IF(A824 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A824 &lt;&gt; "", A824, -1),", ""bit"": ",IF(B824 &lt;&gt; "", B824, -1),"},")</f>
         <v>823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
         <v>12</v>
       </c>
       <c r="D825" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C825, Levels!B:B, 0), 1, 1)),", ",IF(A825 &lt;&gt; "", """mem"": bit" &amp; B825 &amp; "(" &amp; A825 &amp; "),", ""),"""good"": ",IF(A825 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A825 &lt;&gt; "", A825, -1),", ""bit"": ",IF(B825 &lt;&gt; 0, B825, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C825, Levels!B:B, 0), 1, 1)),", ",IF(A825 &lt;&gt; "", """mem"": bit" &amp; B825 &amp; "(" &amp; A825 &amp; "),", ""),"""good"": ",IF(A825 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A825 &lt;&gt; "", A825, -1),", ""bit"": ",IF(B825 &lt;&gt; "", B825, -1),"},")</f>
         <v>824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16486,7 +16486,7 @@
         <v>12</v>
       </c>
       <c r="D826" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C826, Levels!B:B, 0), 1, 1)),", ",IF(A826 &lt;&gt; "", """mem"": bit" &amp; B826 &amp; "(" &amp; A826 &amp; "),", ""),"""good"": ",IF(A826 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A826 &lt;&gt; "", A826, -1),", ""bit"": ",IF(B826 &lt;&gt; 0, B826, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C826, Levels!B:B, 0), 1, 1)),", ",IF(A826 &lt;&gt; "", """mem"": bit" &amp; B826 &amp; "(" &amp; A826 &amp; "),", ""),"""good"": ",IF(A826 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A826 &lt;&gt; "", A826, -1),", ""bit"": ",IF(B826 &lt;&gt; "", B826, -1),"},")</f>
         <v>825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16495,7 +16495,7 @@
         <v>12</v>
       </c>
       <c r="D827" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C827, Levels!B:B, 0), 1, 1)),", ",IF(A827 &lt;&gt; "", """mem"": bit" &amp; B827 &amp; "(" &amp; A827 &amp; "),", ""),"""good"": ",IF(A827 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A827 &lt;&gt; "", A827, -1),", ""bit"": ",IF(B827 &lt;&gt; 0, B827, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C827, Levels!B:B, 0), 1, 1)),", ",IF(A827 &lt;&gt; "", """mem"": bit" &amp; B827 &amp; "(" &amp; A827 &amp; "),", ""),"""good"": ",IF(A827 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A827 &lt;&gt; "", A827, -1),", ""bit"": ",IF(B827 &lt;&gt; "", B827, -1),"},")</f>
         <v>826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16504,7 +16504,7 @@
         <v>12</v>
       </c>
       <c r="D828" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C828, Levels!B:B, 0), 1, 1)),", ",IF(A828 &lt;&gt; "", """mem"": bit" &amp; B828 &amp; "(" &amp; A828 &amp; "),", ""),"""good"": ",IF(A828 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A828 &lt;&gt; "", A828, -1),", ""bit"": ",IF(B828 &lt;&gt; 0, B828, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C828, Levels!B:B, 0), 1, 1)),", ",IF(A828 &lt;&gt; "", """mem"": bit" &amp; B828 &amp; "(" &amp; A828 &amp; "),", ""),"""good"": ",IF(A828 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A828 &lt;&gt; "", A828, -1),", ""bit"": ",IF(B828 &lt;&gt; "", B828, -1),"},")</f>
         <v>827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
         <v>12</v>
       </c>
       <c r="D829" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C829, Levels!B:B, 0), 1, 1)),", ",IF(A829 &lt;&gt; "", """mem"": bit" &amp; B829 &amp; "(" &amp; A829 &amp; "),", ""),"""good"": ",IF(A829 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A829 &lt;&gt; "", A829, -1),", ""bit"": ",IF(B829 &lt;&gt; 0, B829, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C829, Levels!B:B, 0), 1, 1)),", ",IF(A829 &lt;&gt; "", """mem"": bit" &amp; B829 &amp; "(" &amp; A829 &amp; "),", ""),"""good"": ",IF(A829 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A829 &lt;&gt; "", A829, -1),", ""bit"": ",IF(B829 &lt;&gt; "", B829, -1),"},")</f>
         <v>828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16522,7 +16522,7 @@
         <v>12</v>
       </c>
       <c r="D830" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C830, Levels!B:B, 0), 1, 1)),", ",IF(A830 &lt;&gt; "", """mem"": bit" &amp; B830 &amp; "(" &amp; A830 &amp; "),", ""),"""good"": ",IF(A830 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A830 &lt;&gt; "", A830, -1),", ""bit"": ",IF(B830 &lt;&gt; 0, B830, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C830, Levels!B:B, 0), 1, 1)),", ",IF(A830 &lt;&gt; "", """mem"": bit" &amp; B830 &amp; "(" &amp; A830 &amp; "),", ""),"""good"": ",IF(A830 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A830 &lt;&gt; "", A830, -1),", ""bit"": ",IF(B830 &lt;&gt; "", B830, -1),"},")</f>
         <v>829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
         <v>12</v>
       </c>
       <c r="D831" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C831, Levels!B:B, 0), 1, 1)),", ",IF(A831 &lt;&gt; "", """mem"": bit" &amp; B831 &amp; "(" &amp; A831 &amp; "),", ""),"""good"": ",IF(A831 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A831 &lt;&gt; "", A831, -1),", ""bit"": ",IF(B831 &lt;&gt; 0, B831, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C831, Levels!B:B, 0), 1, 1)),", ",IF(A831 &lt;&gt; "", """mem"": bit" &amp; B831 &amp; "(" &amp; A831 &amp; "),", ""),"""good"": ",IF(A831 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A831 &lt;&gt; "", A831, -1),", ""bit"": ",IF(B831 &lt;&gt; "", B831, -1),"},")</f>
         <v>830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16540,7 +16540,7 @@
         <v>12</v>
       </c>
       <c r="D832" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C832, Levels!B:B, 0), 1, 1)),", ",IF(A832 &lt;&gt; "", """mem"": bit" &amp; B832 &amp; "(" &amp; A832 &amp; "),", ""),"""good"": ",IF(A832 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A832 &lt;&gt; "", A832, -1),", ""bit"": ",IF(B832 &lt;&gt; 0, B832, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C832, Levels!B:B, 0), 1, 1)),", ",IF(A832 &lt;&gt; "", """mem"": bit" &amp; B832 &amp; "(" &amp; A832 &amp; "),", ""),"""good"": ",IF(A832 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A832 &lt;&gt; "", A832, -1),", ""bit"": ",IF(B832 &lt;&gt; "", B832, -1),"},")</f>
         <v>831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16549,7 +16549,7 @@
         <v>12</v>
       </c>
       <c r="D833" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C833, Levels!B:B, 0), 1, 1)),", ",IF(A833 &lt;&gt; "", """mem"": bit" &amp; B833 &amp; "(" &amp; A833 &amp; "),", ""),"""good"": ",IF(A833 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A833 &lt;&gt; "", A833, -1),", ""bit"": ",IF(B833 &lt;&gt; 0, B833, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C833, Levels!B:B, 0), 1, 1)),", ",IF(A833 &lt;&gt; "", """mem"": bit" &amp; B833 &amp; "(" &amp; A833 &amp; "),", ""),"""good"": ",IF(A833 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A833 &lt;&gt; "", A833, -1),", ""bit"": ",IF(B833 &lt;&gt; "", B833, -1),"},")</f>
         <v>832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16558,7 +16558,7 @@
         <v>12</v>
       </c>
       <c r="D834" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C834, Levels!B:B, 0), 1, 1)),", ",IF(A834 &lt;&gt; "", """mem"": bit" &amp; B834 &amp; "(" &amp; A834 &amp; "),", ""),"""good"": ",IF(A834 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A834 &lt;&gt; "", A834, -1),", ""bit"": ",IF(B834 &lt;&gt; 0, B834, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C834, Levels!B:B, 0), 1, 1)),", ",IF(A834 &lt;&gt; "", """mem"": bit" &amp; B834 &amp; "(" &amp; A834 &amp; "),", ""),"""good"": ",IF(A834 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A834 &lt;&gt; "", A834, -1),", ""bit"": ",IF(B834 &lt;&gt; "", B834, -1),"},")</f>
         <v>833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16567,7 +16567,7 @@
         <v>12</v>
       </c>
       <c r="D835" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C835, Levels!B:B, 0), 1, 1)),", ",IF(A835 &lt;&gt; "", """mem"": bit" &amp; B835 &amp; "(" &amp; A835 &amp; "),", ""),"""good"": ",IF(A835 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A835 &lt;&gt; "", A835, -1),", ""bit"": ",IF(B835 &lt;&gt; 0, B835, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C835, Levels!B:B, 0), 1, 1)),", ",IF(A835 &lt;&gt; "", """mem"": bit" &amp; B835 &amp; "(" &amp; A835 &amp; "),", ""),"""good"": ",IF(A835 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A835 &lt;&gt; "", A835, -1),", ""bit"": ",IF(B835 &lt;&gt; "", B835, -1),"},")</f>
         <v>834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
         <v>12</v>
       </c>
       <c r="D836" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C836, Levels!B:B, 0), 1, 1)),", ",IF(A836 &lt;&gt; "", """mem"": bit" &amp; B836 &amp; "(" &amp; A836 &amp; "),", ""),"""good"": ",IF(A836 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A836 &lt;&gt; "", A836, -1),", ""bit"": ",IF(B836 &lt;&gt; 0, B836, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C836, Levels!B:B, 0), 1, 1)),", ",IF(A836 &lt;&gt; "", """mem"": bit" &amp; B836 &amp; "(" &amp; A836 &amp; "),", ""),"""good"": ",IF(A836 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A836 &lt;&gt; "", A836, -1),", ""bit"": ",IF(B836 &lt;&gt; "", B836, -1),"},")</f>
         <v>835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
         <v>12</v>
       </c>
       <c r="D837" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C837, Levels!B:B, 0), 1, 1)),", ",IF(A837 &lt;&gt; "", """mem"": bit" &amp; B837 &amp; "(" &amp; A837 &amp; "),", ""),"""good"": ",IF(A837 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A837 &lt;&gt; "", A837, -1),", ""bit"": ",IF(B837 &lt;&gt; 0, B837, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C837, Levels!B:B, 0), 1, 1)),", ",IF(A837 &lt;&gt; "", """mem"": bit" &amp; B837 &amp; "(" &amp; A837 &amp; "),", ""),"""good"": ",IF(A837 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A837 &lt;&gt; "", A837, -1),", ""bit"": ",IF(B837 &lt;&gt; "", B837, -1),"},")</f>
         <v>836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16594,7 +16594,7 @@
         <v>12</v>
       </c>
       <c r="D838" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C838, Levels!B:B, 0), 1, 1)),", ",IF(A838 &lt;&gt; "", """mem"": bit" &amp; B838 &amp; "(" &amp; A838 &amp; "),", ""),"""good"": ",IF(A838 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A838 &lt;&gt; "", A838, -1),", ""bit"": ",IF(B838 &lt;&gt; 0, B838, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C838, Levels!B:B, 0), 1, 1)),", ",IF(A838 &lt;&gt; "", """mem"": bit" &amp; B838 &amp; "(" &amp; A838 &amp; "),", ""),"""good"": ",IF(A838 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A838 &lt;&gt; "", A838, -1),", ""bit"": ",IF(B838 &lt;&gt; "", B838, -1),"},")</f>
         <v>837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
         <v>12</v>
       </c>
       <c r="D839" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C839, Levels!B:B, 0), 1, 1)),", ",IF(A839 &lt;&gt; "", """mem"": bit" &amp; B839 &amp; "(" &amp; A839 &amp; "),", ""),"""good"": ",IF(A839 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A839 &lt;&gt; "", A839, -1),", ""bit"": ",IF(B839 &lt;&gt; 0, B839, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C839, Levels!B:B, 0), 1, 1)),", ",IF(A839 &lt;&gt; "", """mem"": bit" &amp; B839 &amp; "(" &amp; A839 &amp; "),", ""),"""good"": ",IF(A839 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A839 &lt;&gt; "", A839, -1),", ""bit"": ",IF(B839 &lt;&gt; "", B839, -1),"},")</f>
         <v>838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16612,7 +16612,7 @@
         <v>12</v>
       </c>
       <c r="D840" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C840, Levels!B:B, 0), 1, 1)),", ",IF(A840 &lt;&gt; "", """mem"": bit" &amp; B840 &amp; "(" &amp; A840 &amp; "),", ""),"""good"": ",IF(A840 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A840 &lt;&gt; "", A840, -1),", ""bit"": ",IF(B840 &lt;&gt; 0, B840, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C840, Levels!B:B, 0), 1, 1)),", ",IF(A840 &lt;&gt; "", """mem"": bit" &amp; B840 &amp; "(" &amp; A840 &amp; "),", ""),"""good"": ",IF(A840 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A840 &lt;&gt; "", A840, -1),", ""bit"": ",IF(B840 &lt;&gt; "", B840, -1),"},")</f>
         <v>839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
         <v>12</v>
       </c>
       <c r="D841" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C841, Levels!B:B, 0), 1, 1)),", ",IF(A841 &lt;&gt; "", """mem"": bit" &amp; B841 &amp; "(" &amp; A841 &amp; "),", ""),"""good"": ",IF(A841 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A841 &lt;&gt; "", A841, -1),", ""bit"": ",IF(B841 &lt;&gt; 0, B841, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C841, Levels!B:B, 0), 1, 1)),", ",IF(A841 &lt;&gt; "", """mem"": bit" &amp; B841 &amp; "(" &amp; A841 &amp; "),", ""),"""good"": ",IF(A841 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A841 &lt;&gt; "", A841, -1),", ""bit"": ",IF(B841 &lt;&gt; "", B841, -1),"},")</f>
         <v>840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
         <v>12</v>
       </c>
       <c r="D842" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C842, Levels!B:B, 0), 1, 1)),", ",IF(A842 &lt;&gt; "", """mem"": bit" &amp; B842 &amp; "(" &amp; A842 &amp; "),", ""),"""good"": ",IF(A842 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A842 &lt;&gt; "", A842, -1),", ""bit"": ",IF(B842 &lt;&gt; 0, B842, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C842, Levels!B:B, 0), 1, 1)),", ",IF(A842 &lt;&gt; "", """mem"": bit" &amp; B842 &amp; "(" &amp; A842 &amp; "),", ""),"""good"": ",IF(A842 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A842 &lt;&gt; "", A842, -1),", ""bit"": ",IF(B842 &lt;&gt; "", B842, -1),"},")</f>
         <v>841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
         <v>12</v>
       </c>
       <c r="D843" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C843, Levels!B:B, 0), 1, 1)),", ",IF(A843 &lt;&gt; "", """mem"": bit" &amp; B843 &amp; "(" &amp; A843 &amp; "),", ""),"""good"": ",IF(A843 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A843 &lt;&gt; "", A843, -1),", ""bit"": ",IF(B843 &lt;&gt; 0, B843, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C843, Levels!B:B, 0), 1, 1)),", ",IF(A843 &lt;&gt; "", """mem"": bit" &amp; B843 &amp; "(" &amp; A843 &amp; "),", ""),"""good"": ",IF(A843 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A843 &lt;&gt; "", A843, -1),", ""bit"": ",IF(B843 &lt;&gt; "", B843, -1),"},")</f>
         <v>842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16648,7 +16648,7 @@
         <v>12</v>
       </c>
       <c r="D844" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C844, Levels!B:B, 0), 1, 1)),", ",IF(A844 &lt;&gt; "", """mem"": bit" &amp; B844 &amp; "(" &amp; A844 &amp; "),", ""),"""good"": ",IF(A844 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A844 &lt;&gt; "", A844, -1),", ""bit"": ",IF(B844 &lt;&gt; 0, B844, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C844, Levels!B:B, 0), 1, 1)),", ",IF(A844 &lt;&gt; "", """mem"": bit" &amp; B844 &amp; "(" &amp; A844 &amp; "),", ""),"""good"": ",IF(A844 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A844 &lt;&gt; "", A844, -1),", ""bit"": ",IF(B844 &lt;&gt; "", B844, -1),"},")</f>
         <v>843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
         <v>12</v>
       </c>
       <c r="D845" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C845, Levels!B:B, 0), 1, 1)),", ",IF(A845 &lt;&gt; "", """mem"": bit" &amp; B845 &amp; "(" &amp; A845 &amp; "),", ""),"""good"": ",IF(A845 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A845 &lt;&gt; "", A845, -1),", ""bit"": ",IF(B845 &lt;&gt; 0, B845, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C845, Levels!B:B, 0), 1, 1)),", ",IF(A845 &lt;&gt; "", """mem"": bit" &amp; B845 &amp; "(" &amp; A845 &amp; "),", ""),"""good"": ",IF(A845 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A845 &lt;&gt; "", A845, -1),", ""bit"": ",IF(B845 &lt;&gt; "", B845, -1),"},")</f>
         <v>844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16666,7 +16666,7 @@
         <v>12</v>
       </c>
       <c r="D846" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C846, Levels!B:B, 0), 1, 1)),", ",IF(A846 &lt;&gt; "", """mem"": bit" &amp; B846 &amp; "(" &amp; A846 &amp; "),", ""),"""good"": ",IF(A846 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A846 &lt;&gt; "", A846, -1),", ""bit"": ",IF(B846 &lt;&gt; 0, B846, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C846, Levels!B:B, 0), 1, 1)),", ",IF(A846 &lt;&gt; "", """mem"": bit" &amp; B846 &amp; "(" &amp; A846 &amp; "),", ""),"""good"": ",IF(A846 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A846 &lt;&gt; "", A846, -1),", ""bit"": ",IF(B846 &lt;&gt; "", B846, -1),"},")</f>
         <v>845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16675,7 +16675,7 @@
         <v>12</v>
       </c>
       <c r="D847" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C847, Levels!B:B, 0), 1, 1)),", ",IF(A847 &lt;&gt; "", """mem"": bit" &amp; B847 &amp; "(" &amp; A847 &amp; "),", ""),"""good"": ",IF(A847 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A847 &lt;&gt; "", A847, -1),", ""bit"": ",IF(B847 &lt;&gt; 0, B847, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C847, Levels!B:B, 0), 1, 1)),", ",IF(A847 &lt;&gt; "", """mem"": bit" &amp; B847 &amp; "(" &amp; A847 &amp; "),", ""),"""good"": ",IF(A847 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A847 &lt;&gt; "", A847, -1),", ""bit"": ",IF(B847 &lt;&gt; "", B847, -1),"},")</f>
         <v>846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16684,7 +16684,7 @@
         <v>12</v>
       </c>
       <c r="D848" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C848, Levels!B:B, 0), 1, 1)),", ",IF(A848 &lt;&gt; "", """mem"": bit" &amp; B848 &amp; "(" &amp; A848 &amp; "),", ""),"""good"": ",IF(A848 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A848 &lt;&gt; "", A848, -1),", ""bit"": ",IF(B848 &lt;&gt; 0, B848, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C848, Levels!B:B, 0), 1, 1)),", ",IF(A848 &lt;&gt; "", """mem"": bit" &amp; B848 &amp; "(" &amp; A848 &amp; "),", ""),"""good"": ",IF(A848 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A848 &lt;&gt; "", A848, -1),", ""bit"": ",IF(B848 &lt;&gt; "", B848, -1),"},")</f>
         <v>847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16693,7 +16693,7 @@
         <v>12</v>
       </c>
       <c r="D849" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C849, Levels!B:B, 0), 1, 1)),", ",IF(A849 &lt;&gt; "", """mem"": bit" &amp; B849 &amp; "(" &amp; A849 &amp; "),", ""),"""good"": ",IF(A849 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A849 &lt;&gt; "", A849, -1),", ""bit"": ",IF(B849 &lt;&gt; 0, B849, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C849, Levels!B:B, 0), 1, 1)),", ",IF(A849 &lt;&gt; "", """mem"": bit" &amp; B849 &amp; "(" &amp; A849 &amp; "),", ""),"""good"": ",IF(A849 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A849 &lt;&gt; "", A849, -1),", ""bit"": ",IF(B849 &lt;&gt; "", B849, -1),"},")</f>
         <v>848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16702,7 +16702,7 @@
         <v>12</v>
       </c>
       <c r="D850" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C850, Levels!B:B, 0), 1, 1)),", ",IF(A850 &lt;&gt; "", """mem"": bit" &amp; B850 &amp; "(" &amp; A850 &amp; "),", ""),"""good"": ",IF(A850 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A850 &lt;&gt; "", A850, -1),", ""bit"": ",IF(B850 &lt;&gt; 0, B850, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C850, Levels!B:B, 0), 1, 1)),", ",IF(A850 &lt;&gt; "", """mem"": bit" &amp; B850 &amp; "(" &amp; A850 &amp; "),", ""),"""good"": ",IF(A850 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A850 &lt;&gt; "", A850, -1),", ""bit"": ",IF(B850 &lt;&gt; "", B850, -1),"},")</f>
         <v>849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
         <v>12</v>
       </c>
       <c r="D851" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C851, Levels!B:B, 0), 1, 1)),", ",IF(A851 &lt;&gt; "", """mem"": bit" &amp; B851 &amp; "(" &amp; A851 &amp; "),", ""),"""good"": ",IF(A851 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A851 &lt;&gt; "", A851, -1),", ""bit"": ",IF(B851 &lt;&gt; 0, B851, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C851, Levels!B:B, 0), 1, 1)),", ",IF(A851 &lt;&gt; "", """mem"": bit" &amp; B851 &amp; "(" &amp; A851 &amp; "),", ""),"""good"": ",IF(A851 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A851 &lt;&gt; "", A851, -1),", ""bit"": ",IF(B851 &lt;&gt; "", B851, -1),"},")</f>
         <v>850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16720,7 +16720,7 @@
         <v>12</v>
       </c>
       <c r="D852" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C852, Levels!B:B, 0), 1, 1)),", ",IF(A852 &lt;&gt; "", """mem"": bit" &amp; B852 &amp; "(" &amp; A852 &amp; "),", ""),"""good"": ",IF(A852 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A852 &lt;&gt; "", A852, -1),", ""bit"": ",IF(B852 &lt;&gt; 0, B852, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C852, Levels!B:B, 0), 1, 1)),", ",IF(A852 &lt;&gt; "", """mem"": bit" &amp; B852 &amp; "(" &amp; A852 &amp; "),", ""),"""good"": ",IF(A852 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A852 &lt;&gt; "", A852, -1),", ""bit"": ",IF(B852 &lt;&gt; "", B852, -1),"},")</f>
         <v>851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16729,7 +16729,7 @@
         <v>12</v>
       </c>
       <c r="D853" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C853, Levels!B:B, 0), 1, 1)),", ",IF(A853 &lt;&gt; "", """mem"": bit" &amp; B853 &amp; "(" &amp; A853 &amp; "),", ""),"""good"": ",IF(A853 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A853 &lt;&gt; "", A853, -1),", ""bit"": ",IF(B853 &lt;&gt; 0, B853, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C853, Levels!B:B, 0), 1, 1)),", ",IF(A853 &lt;&gt; "", """mem"": bit" &amp; B853 &amp; "(" &amp; A853 &amp; "),", ""),"""good"": ",IF(A853 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A853 &lt;&gt; "", A853, -1),", ""bit"": ",IF(B853 &lt;&gt; "", B853, -1),"},")</f>
         <v>852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
         <v>12</v>
       </c>
       <c r="D854" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C854, Levels!B:B, 0), 1, 1)),", ",IF(A854 &lt;&gt; "", """mem"": bit" &amp; B854 &amp; "(" &amp; A854 &amp; "),", ""),"""good"": ",IF(A854 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A854 &lt;&gt; "", A854, -1),", ""bit"": ",IF(B854 &lt;&gt; 0, B854, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C854, Levels!B:B, 0), 1, 1)),", ",IF(A854 &lt;&gt; "", """mem"": bit" &amp; B854 &amp; "(" &amp; A854 &amp; "),", ""),"""good"": ",IF(A854 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A854 &lt;&gt; "", A854, -1),", ""bit"": ",IF(B854 &lt;&gt; "", B854, -1),"},")</f>
         <v>853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16747,7 +16747,7 @@
         <v>12</v>
       </c>
       <c r="D855" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C855, Levels!B:B, 0), 1, 1)),", ",IF(A855 &lt;&gt; "", """mem"": bit" &amp; B855 &amp; "(" &amp; A855 &amp; "),", ""),"""good"": ",IF(A855 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A855 &lt;&gt; "", A855, -1),", ""bit"": ",IF(B855 &lt;&gt; 0, B855, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C855, Levels!B:B, 0), 1, 1)),", ",IF(A855 &lt;&gt; "", """mem"": bit" &amp; B855 &amp; "(" &amp; A855 &amp; "),", ""),"""good"": ",IF(A855 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A855 &lt;&gt; "", A855, -1),", ""bit"": ",IF(B855 &lt;&gt; "", B855, -1),"},")</f>
         <v>854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
         <v>12</v>
       </c>
       <c r="D856" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C856, Levels!B:B, 0), 1, 1)),", ",IF(A856 &lt;&gt; "", """mem"": bit" &amp; B856 &amp; "(" &amp; A856 &amp; "),", ""),"""good"": ",IF(A856 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A856 &lt;&gt; "", A856, -1),", ""bit"": ",IF(B856 &lt;&gt; 0, B856, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C856, Levels!B:B, 0), 1, 1)),", ",IF(A856 &lt;&gt; "", """mem"": bit" &amp; B856 &amp; "(" &amp; A856 &amp; "),", ""),"""good"": ",IF(A856 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A856 &lt;&gt; "", A856, -1),", ""bit"": ",IF(B856 &lt;&gt; "", B856, -1),"},")</f>
         <v>855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
         <v>12</v>
       </c>
       <c r="D857" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C857, Levels!B:B, 0), 1, 1)),", ",IF(A857 &lt;&gt; "", """mem"": bit" &amp; B857 &amp; "(" &amp; A857 &amp; "),", ""),"""good"": ",IF(A857 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A857 &lt;&gt; "", A857, -1),", ""bit"": ",IF(B857 &lt;&gt; 0, B857, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C857, Levels!B:B, 0), 1, 1)),", ",IF(A857 &lt;&gt; "", """mem"": bit" &amp; B857 &amp; "(" &amp; A857 &amp; "),", ""),"""good"": ",IF(A857 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A857 &lt;&gt; "", A857, -1),", ""bit"": ",IF(B857 &lt;&gt; "", B857, -1),"},")</f>
         <v>856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
         <v>12</v>
       </c>
       <c r="D858" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C858, Levels!B:B, 0), 1, 1)),", ",IF(A858 &lt;&gt; "", """mem"": bit" &amp; B858 &amp; "(" &amp; A858 &amp; "),", ""),"""good"": ",IF(A858 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A858 &lt;&gt; "", A858, -1),", ""bit"": ",IF(B858 &lt;&gt; 0, B858, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C858, Levels!B:B, 0), 1, 1)),", ",IF(A858 &lt;&gt; "", """mem"": bit" &amp; B858 &amp; "(" &amp; A858 &amp; "),", ""),"""good"": ",IF(A858 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A858 &lt;&gt; "", A858, -1),", ""bit"": ",IF(B858 &lt;&gt; "", B858, -1),"},")</f>
         <v>857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16783,7 +16783,7 @@
         <v>12</v>
       </c>
       <c r="D859" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C859, Levels!B:B, 0), 1, 1)),", ",IF(A859 &lt;&gt; "", """mem"": bit" &amp; B859 &amp; "(" &amp; A859 &amp; "),", ""),"""good"": ",IF(A859 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A859 &lt;&gt; "", A859, -1),", ""bit"": ",IF(B859 &lt;&gt; 0, B859, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C859, Levels!B:B, 0), 1, 1)),", ",IF(A859 &lt;&gt; "", """mem"": bit" &amp; B859 &amp; "(" &amp; A859 &amp; "),", ""),"""good"": ",IF(A859 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A859 &lt;&gt; "", A859, -1),", ""bit"": ",IF(B859 &lt;&gt; "", B859, -1),"},")</f>
         <v>858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16792,7 +16792,7 @@
         <v>12</v>
       </c>
       <c r="D860" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C860, Levels!B:B, 0), 1, 1)),", ",IF(A860 &lt;&gt; "", """mem"": bit" &amp; B860 &amp; "(" &amp; A860 &amp; "),", ""),"""good"": ",IF(A860 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A860 &lt;&gt; "", A860, -1),", ""bit"": ",IF(B860 &lt;&gt; 0, B860, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C860, Levels!B:B, 0), 1, 1)),", ",IF(A860 &lt;&gt; "", """mem"": bit" &amp; B860 &amp; "(" &amp; A860 &amp; "),", ""),"""good"": ",IF(A860 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A860 &lt;&gt; "", A860, -1),", ""bit"": ",IF(B860 &lt;&gt; "", B860, -1),"},")</f>
         <v>859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
         <v>12</v>
       </c>
       <c r="D861" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C861, Levels!B:B, 0), 1, 1)),", ",IF(A861 &lt;&gt; "", """mem"": bit" &amp; B861 &amp; "(" &amp; A861 &amp; "),", ""),"""good"": ",IF(A861 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A861 &lt;&gt; "", A861, -1),", ""bit"": ",IF(B861 &lt;&gt; 0, B861, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C861, Levels!B:B, 0), 1, 1)),", ",IF(A861 &lt;&gt; "", """mem"": bit" &amp; B861 &amp; "(" &amp; A861 &amp; "),", ""),"""good"": ",IF(A861 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A861 &lt;&gt; "", A861, -1),", ""bit"": ",IF(B861 &lt;&gt; "", B861, -1),"},")</f>
         <v>860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16810,7 +16810,7 @@
         <v>12</v>
       </c>
       <c r="D862" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C862, Levels!B:B, 0), 1, 1)),", ",IF(A862 &lt;&gt; "", """mem"": bit" &amp; B862 &amp; "(" &amp; A862 &amp; "),", ""),"""good"": ",IF(A862 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A862 &lt;&gt; "", A862, -1),", ""bit"": ",IF(B862 &lt;&gt; 0, B862, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C862, Levels!B:B, 0), 1, 1)),", ",IF(A862 &lt;&gt; "", """mem"": bit" &amp; B862 &amp; "(" &amp; A862 &amp; "),", ""),"""good"": ",IF(A862 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A862 &lt;&gt; "", A862, -1),", ""bit"": ",IF(B862 &lt;&gt; "", B862, -1),"},")</f>
         <v>861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16819,7 +16819,7 @@
         <v>12</v>
       </c>
       <c r="D863" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C863, Levels!B:B, 0), 1, 1)),", ",IF(A863 &lt;&gt; "", """mem"": bit" &amp; B863 &amp; "(" &amp; A863 &amp; "),", ""),"""good"": ",IF(A863 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A863 &lt;&gt; "", A863, -1),", ""bit"": ",IF(B863 &lt;&gt; 0, B863, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C863, Levels!B:B, 0), 1, 1)),", ",IF(A863 &lt;&gt; "", """mem"": bit" &amp; B863 &amp; "(" &amp; A863 &amp; "),", ""),"""good"": ",IF(A863 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A863 &lt;&gt; "", A863, -1),", ""bit"": ",IF(B863 &lt;&gt; "", B863, -1),"},")</f>
         <v>862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16828,7 +16828,7 @@
         <v>12</v>
       </c>
       <c r="D864" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C864, Levels!B:B, 0), 1, 1)),", ",IF(A864 &lt;&gt; "", """mem"": bit" &amp; B864 &amp; "(" &amp; A864 &amp; "),", ""),"""good"": ",IF(A864 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A864 &lt;&gt; "", A864, -1),", ""bit"": ",IF(B864 &lt;&gt; 0, B864, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C864, Levels!B:B, 0), 1, 1)),", ",IF(A864 &lt;&gt; "", """mem"": bit" &amp; B864 &amp; "(" &amp; A864 &amp; "),", ""),"""good"": ",IF(A864 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A864 &lt;&gt; "", A864, -1),", ""bit"": ",IF(B864 &lt;&gt; "", B864, -1),"},")</f>
         <v>863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16837,7 +16837,7 @@
         <v>12</v>
       </c>
       <c r="D865" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C865, Levels!B:B, 0), 1, 1)),", ",IF(A865 &lt;&gt; "", """mem"": bit" &amp; B865 &amp; "(" &amp; A865 &amp; "),", ""),"""good"": ",IF(A865 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A865 &lt;&gt; "", A865, -1),", ""bit"": ",IF(B865 &lt;&gt; 0, B865, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C865, Levels!B:B, 0), 1, 1)),", ",IF(A865 &lt;&gt; "", """mem"": bit" &amp; B865 &amp; "(" &amp; A865 &amp; "),", ""),"""good"": ",IF(A865 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A865 &lt;&gt; "", A865, -1),", ""bit"": ",IF(B865 &lt;&gt; "", B865, -1),"},")</f>
         <v>864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
         <v>12</v>
       </c>
       <c r="D866" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C866, Levels!B:B, 0), 1, 1)),", ",IF(A866 &lt;&gt; "", """mem"": bit" &amp; B866 &amp; "(" &amp; A866 &amp; "),", ""),"""good"": ",IF(A866 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A866 &lt;&gt; "", A866, -1),", ""bit"": ",IF(B866 &lt;&gt; 0, B866, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C866, Levels!B:B, 0), 1, 1)),", ",IF(A866 &lt;&gt; "", """mem"": bit" &amp; B866 &amp; "(" &amp; A866 &amp; "),", ""),"""good"": ",IF(A866 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A866 &lt;&gt; "", A866, -1),", ""bit"": ",IF(B866 &lt;&gt; "", B866, -1),"},")</f>
         <v>865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
         <v>12</v>
       </c>
       <c r="D867" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C867, Levels!B:B, 0), 1, 1)),", ",IF(A867 &lt;&gt; "", """mem"": bit" &amp; B867 &amp; "(" &amp; A867 &amp; "),", ""),"""good"": ",IF(A867 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A867 &lt;&gt; "", A867, -1),", ""bit"": ",IF(B867 &lt;&gt; 0, B867, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C867, Levels!B:B, 0), 1, 1)),", ",IF(A867 &lt;&gt; "", """mem"": bit" &amp; B867 &amp; "(" &amp; A867 &amp; "),", ""),"""good"": ",IF(A867 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A867 &lt;&gt; "", A867, -1),", ""bit"": ",IF(B867 &lt;&gt; "", B867, -1),"},")</f>
         <v>866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
         <v>12</v>
       </c>
       <c r="D868" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C868, Levels!B:B, 0), 1, 1)),", ",IF(A868 &lt;&gt; "", """mem"": bit" &amp; B868 &amp; "(" &amp; A868 &amp; "),", ""),"""good"": ",IF(A868 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A868 &lt;&gt; "", A868, -1),", ""bit"": ",IF(B868 &lt;&gt; 0, B868, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C868, Levels!B:B, 0), 1, 1)),", ",IF(A868 &lt;&gt; "", """mem"": bit" &amp; B868 &amp; "(" &amp; A868 &amp; "),", ""),"""good"": ",IF(A868 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A868 &lt;&gt; "", A868, -1),", ""bit"": ",IF(B868 &lt;&gt; "", B868, -1),"},")</f>
         <v>867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
         <v>12</v>
       </c>
       <c r="D869" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C869, Levels!B:B, 0), 1, 1)),", ",IF(A869 &lt;&gt; "", """mem"": bit" &amp; B869 &amp; "(" &amp; A869 &amp; "),", ""),"""good"": ",IF(A869 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A869 &lt;&gt; "", A869, -1),", ""bit"": ",IF(B869 &lt;&gt; 0, B869, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C869, Levels!B:B, 0), 1, 1)),", ",IF(A869 &lt;&gt; "", """mem"": bit" &amp; B869 &amp; "(" &amp; A869 &amp; "),", ""),"""good"": ",IF(A869 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A869 &lt;&gt; "", A869, -1),", ""bit"": ",IF(B869 &lt;&gt; "", B869, -1),"},")</f>
         <v>868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
         <v>12</v>
       </c>
       <c r="D870" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C870, Levels!B:B, 0), 1, 1)),", ",IF(A870 &lt;&gt; "", """mem"": bit" &amp; B870 &amp; "(" &amp; A870 &amp; "),", ""),"""good"": ",IF(A870 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A870 &lt;&gt; "", A870, -1),", ""bit"": ",IF(B870 &lt;&gt; 0, B870, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C870, Levels!B:B, 0), 1, 1)),", ",IF(A870 &lt;&gt; "", """mem"": bit" &amp; B870 &amp; "(" &amp; A870 &amp; "),", ""),"""good"": ",IF(A870 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A870 &lt;&gt; "", A870, -1),", ""bit"": ",IF(B870 &lt;&gt; "", B870, -1),"},")</f>
         <v>869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
         <v>12</v>
       </c>
       <c r="D871" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C871, Levels!B:B, 0), 1, 1)),", ",IF(A871 &lt;&gt; "", """mem"": bit" &amp; B871 &amp; "(" &amp; A871 &amp; "),", ""),"""good"": ",IF(A871 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A871 &lt;&gt; "", A871, -1),", ""bit"": ",IF(B871 &lt;&gt; 0, B871, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C871, Levels!B:B, 0), 1, 1)),", ",IF(A871 &lt;&gt; "", """mem"": bit" &amp; B871 &amp; "(" &amp; A871 &amp; "),", ""),"""good"": ",IF(A871 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A871 &lt;&gt; "", A871, -1),", ""bit"": ",IF(B871 &lt;&gt; "", B871, -1),"},")</f>
         <v>870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16900,7 +16900,7 @@
         <v>12</v>
       </c>
       <c r="D872" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C872, Levels!B:B, 0), 1, 1)),", ",IF(A872 &lt;&gt; "", """mem"": bit" &amp; B872 &amp; "(" &amp; A872 &amp; "),", ""),"""good"": ",IF(A872 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A872 &lt;&gt; "", A872, -1),", ""bit"": ",IF(B872 &lt;&gt; 0, B872, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C872, Levels!B:B, 0), 1, 1)),", ",IF(A872 &lt;&gt; "", """mem"": bit" &amp; B872 &amp; "(" &amp; A872 &amp; "),", ""),"""good"": ",IF(A872 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A872 &lt;&gt; "", A872, -1),", ""bit"": ",IF(B872 &lt;&gt; "", B872, -1),"},")</f>
         <v>871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
         <v>12</v>
       </c>
       <c r="D873" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C873, Levels!B:B, 0), 1, 1)),", ",IF(A873 &lt;&gt; "", """mem"": bit" &amp; B873 &amp; "(" &amp; A873 &amp; "),", ""),"""good"": ",IF(A873 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A873 &lt;&gt; "", A873, -1),", ""bit"": ",IF(B873 &lt;&gt; 0, B873, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C873, Levels!B:B, 0), 1, 1)),", ",IF(A873 &lt;&gt; "", """mem"": bit" &amp; B873 &amp; "(" &amp; A873 &amp; "),", ""),"""good"": ",IF(A873 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A873 &lt;&gt; "", A873, -1),", ""bit"": ",IF(B873 &lt;&gt; "", B873, -1),"},")</f>
         <v>872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16918,7 +16918,7 @@
         <v>12</v>
       </c>
       <c r="D874" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C874, Levels!B:B, 0), 1, 1)),", ",IF(A874 &lt;&gt; "", """mem"": bit" &amp; B874 &amp; "(" &amp; A874 &amp; "),", ""),"""good"": ",IF(A874 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A874 &lt;&gt; "", A874, -1),", ""bit"": ",IF(B874 &lt;&gt; 0, B874, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C874, Levels!B:B, 0), 1, 1)),", ",IF(A874 &lt;&gt; "", """mem"": bit" &amp; B874 &amp; "(" &amp; A874 &amp; "),", ""),"""good"": ",IF(A874 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A874 &lt;&gt; "", A874, -1),", ""bit"": ",IF(B874 &lt;&gt; "", B874, -1),"},")</f>
         <v>873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16927,7 +16927,7 @@
         <v>12</v>
       </c>
       <c r="D875" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C875, Levels!B:B, 0), 1, 1)),", ",IF(A875 &lt;&gt; "", """mem"": bit" &amp; B875 &amp; "(" &amp; A875 &amp; "),", ""),"""good"": ",IF(A875 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A875 &lt;&gt; "", A875, -1),", ""bit"": ",IF(B875 &lt;&gt; 0, B875, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C875, Levels!B:B, 0), 1, 1)),", ",IF(A875 &lt;&gt; "", """mem"": bit" &amp; B875 &amp; "(" &amp; A875 &amp; "),", ""),"""good"": ",IF(A875 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A875 &lt;&gt; "", A875, -1),", ""bit"": ",IF(B875 &lt;&gt; "", B875, -1),"},")</f>
         <v>874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16936,7 +16936,7 @@
         <v>12</v>
       </c>
       <c r="D876" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C876, Levels!B:B, 0), 1, 1)),", ",IF(A876 &lt;&gt; "", """mem"": bit" &amp; B876 &amp; "(" &amp; A876 &amp; "),", ""),"""good"": ",IF(A876 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A876 &lt;&gt; "", A876, -1),", ""bit"": ",IF(B876 &lt;&gt; 0, B876, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C876, Levels!B:B, 0), 1, 1)),", ",IF(A876 &lt;&gt; "", """mem"": bit" &amp; B876 &amp; "(" &amp; A876 &amp; "),", ""),"""good"": ",IF(A876 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A876 &lt;&gt; "", A876, -1),", ""bit"": ",IF(B876 &lt;&gt; "", B876, -1),"},")</f>
         <v>875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
         <v>12</v>
       </c>
       <c r="D877" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C877, Levels!B:B, 0), 1, 1)),", ",IF(A877 &lt;&gt; "", """mem"": bit" &amp; B877 &amp; "(" &amp; A877 &amp; "),", ""),"""good"": ",IF(A877 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A877 &lt;&gt; "", A877, -1),", ""bit"": ",IF(B877 &lt;&gt; 0, B877, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C877, Levels!B:B, 0), 1, 1)),", ",IF(A877 &lt;&gt; "", """mem"": bit" &amp; B877 &amp; "(" &amp; A877 &amp; "),", ""),"""good"": ",IF(A877 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A877 &lt;&gt; "", A877, -1),", ""bit"": ",IF(B877 &lt;&gt; "", B877, -1),"},")</f>
         <v>876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16954,7 +16954,7 @@
         <v>12</v>
       </c>
       <c r="D878" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C878, Levels!B:B, 0), 1, 1)),", ",IF(A878 &lt;&gt; "", """mem"": bit" &amp; B878 &amp; "(" &amp; A878 &amp; "),", ""),"""good"": ",IF(A878 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A878 &lt;&gt; "", A878, -1),", ""bit"": ",IF(B878 &lt;&gt; 0, B878, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C878, Levels!B:B, 0), 1, 1)),", ",IF(A878 &lt;&gt; "", """mem"": bit" &amp; B878 &amp; "(" &amp; A878 &amp; "),", ""),"""good"": ",IF(A878 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A878 &lt;&gt; "", A878, -1),", ""bit"": ",IF(B878 &lt;&gt; "", B878, -1),"},")</f>
         <v>877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16963,7 +16963,7 @@
         <v>12</v>
       </c>
       <c r="D879" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C879, Levels!B:B, 0), 1, 1)),", ",IF(A879 &lt;&gt; "", """mem"": bit" &amp; B879 &amp; "(" &amp; A879 &amp; "),", ""),"""good"": ",IF(A879 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A879 &lt;&gt; "", A879, -1),", ""bit"": ",IF(B879 &lt;&gt; 0, B879, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C879, Levels!B:B, 0), 1, 1)),", ",IF(A879 &lt;&gt; "", """mem"": bit" &amp; B879 &amp; "(" &amp; A879 &amp; "),", ""),"""good"": ",IF(A879 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A879 &lt;&gt; "", A879, -1),", ""bit"": ",IF(B879 &lt;&gt; "", B879, -1),"},")</f>
         <v>878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16972,7 +16972,7 @@
         <v>12</v>
       </c>
       <c r="D880" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C880, Levels!B:B, 0), 1, 1)),", ",IF(A880 &lt;&gt; "", """mem"": bit" &amp; B880 &amp; "(" &amp; A880 &amp; "),", ""),"""good"": ",IF(A880 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A880 &lt;&gt; "", A880, -1),", ""bit"": ",IF(B880 &lt;&gt; 0, B880, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C880, Levels!B:B, 0), 1, 1)),", ",IF(A880 &lt;&gt; "", """mem"": bit" &amp; B880 &amp; "(" &amp; A880 &amp; "),", ""),"""good"": ",IF(A880 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A880 &lt;&gt; "", A880, -1),", ""bit"": ",IF(B880 &lt;&gt; "", B880, -1),"},")</f>
         <v>879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
         <v>12</v>
       </c>
       <c r="D881" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C881, Levels!B:B, 0), 1, 1)),", ",IF(A881 &lt;&gt; "", """mem"": bit" &amp; B881 &amp; "(" &amp; A881 &amp; "),", ""),"""good"": ",IF(A881 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A881 &lt;&gt; "", A881, -1),", ""bit"": ",IF(B881 &lt;&gt; 0, B881, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C881, Levels!B:B, 0), 1, 1)),", ",IF(A881 &lt;&gt; "", """mem"": bit" &amp; B881 &amp; "(" &amp; A881 &amp; "),", ""),"""good"": ",IF(A881 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A881 &lt;&gt; "", A881, -1),", ""bit"": ",IF(B881 &lt;&gt; "", B881, -1),"},")</f>
         <v>880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16990,7 +16990,7 @@
         <v>12</v>
       </c>
       <c r="D882" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C882, Levels!B:B, 0), 1, 1)),", ",IF(A882 &lt;&gt; "", """mem"": bit" &amp; B882 &amp; "(" &amp; A882 &amp; "),", ""),"""good"": ",IF(A882 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A882 &lt;&gt; "", A882, -1),", ""bit"": ",IF(B882 &lt;&gt; 0, B882, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C882, Levels!B:B, 0), 1, 1)),", ",IF(A882 &lt;&gt; "", """mem"": bit" &amp; B882 &amp; "(" &amp; A882 &amp; "),", ""),"""good"": ",IF(A882 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A882 &lt;&gt; "", A882, -1),", ""bit"": ",IF(B882 &lt;&gt; "", B882, -1),"},")</f>
         <v>881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
         <v>12</v>
       </c>
       <c r="D883" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C883, Levels!B:B, 0), 1, 1)),", ",IF(A883 &lt;&gt; "", """mem"": bit" &amp; B883 &amp; "(" &amp; A883 &amp; "),", ""),"""good"": ",IF(A883 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A883 &lt;&gt; "", A883, -1),", ""bit"": ",IF(B883 &lt;&gt; 0, B883, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C883, Levels!B:B, 0), 1, 1)),", ",IF(A883 &lt;&gt; "", """mem"": bit" &amp; B883 &amp; "(" &amp; A883 &amp; "),", ""),"""good"": ",IF(A883 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A883 &lt;&gt; "", A883, -1),", ""bit"": ",IF(B883 &lt;&gt; "", B883, -1),"},")</f>
         <v>882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17008,7 +17008,7 @@
         <v>12</v>
       </c>
       <c r="D884" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C884, Levels!B:B, 0), 1, 1)),", ",IF(A884 &lt;&gt; "", """mem"": bit" &amp; B884 &amp; "(" &amp; A884 &amp; "),", ""),"""good"": ",IF(A884 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A884 &lt;&gt; "", A884, -1),", ""bit"": ",IF(B884 &lt;&gt; 0, B884, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C884, Levels!B:B, 0), 1, 1)),", ",IF(A884 &lt;&gt; "", """mem"": bit" &amp; B884 &amp; "(" &amp; A884 &amp; "),", ""),"""good"": ",IF(A884 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A884 &lt;&gt; "", A884, -1),", ""bit"": ",IF(B884 &lt;&gt; "", B884, -1),"},")</f>
         <v>883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17017,7 +17017,7 @@
         <v>12</v>
       </c>
       <c r="D885" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C885, Levels!B:B, 0), 1, 1)),", ",IF(A885 &lt;&gt; "", """mem"": bit" &amp; B885 &amp; "(" &amp; A885 &amp; "),", ""),"""good"": ",IF(A885 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A885 &lt;&gt; "", A885, -1),", ""bit"": ",IF(B885 &lt;&gt; 0, B885, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C885, Levels!B:B, 0), 1, 1)),", ",IF(A885 &lt;&gt; "", """mem"": bit" &amp; B885 &amp; "(" &amp; A885 &amp; "),", ""),"""good"": ",IF(A885 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A885 &lt;&gt; "", A885, -1),", ""bit"": ",IF(B885 &lt;&gt; "", B885, -1),"},")</f>
         <v>884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17026,7 +17026,7 @@
         <v>12</v>
       </c>
       <c r="D886" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C886, Levels!B:B, 0), 1, 1)),", ",IF(A886 &lt;&gt; "", """mem"": bit" &amp; B886 &amp; "(" &amp; A886 &amp; "),", ""),"""good"": ",IF(A886 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A886 &lt;&gt; "", A886, -1),", ""bit"": ",IF(B886 &lt;&gt; 0, B886, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C886, Levels!B:B, 0), 1, 1)),", ",IF(A886 &lt;&gt; "", """mem"": bit" &amp; B886 &amp; "(" &amp; A886 &amp; "),", ""),"""good"": ",IF(A886 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A886 &lt;&gt; "", A886, -1),", ""bit"": ",IF(B886 &lt;&gt; "", B886, -1),"},")</f>
         <v>885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
         <v>12</v>
       </c>
       <c r="D887" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C887, Levels!B:B, 0), 1, 1)),", ",IF(A887 &lt;&gt; "", """mem"": bit" &amp; B887 &amp; "(" &amp; A887 &amp; "),", ""),"""good"": ",IF(A887 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A887 &lt;&gt; "", A887, -1),", ""bit"": ",IF(B887 &lt;&gt; 0, B887, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C887, Levels!B:B, 0), 1, 1)),", ",IF(A887 &lt;&gt; "", """mem"": bit" &amp; B887 &amp; "(" &amp; A887 &amp; "),", ""),"""good"": ",IF(A887 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A887 &lt;&gt; "", A887, -1),", ""bit"": ",IF(B887 &lt;&gt; "", B887, -1),"},")</f>
         <v>886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17044,7 +17044,7 @@
         <v>12</v>
       </c>
       <c r="D888" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C888, Levels!B:B, 0), 1, 1)),", ",IF(A888 &lt;&gt; "", """mem"": bit" &amp; B888 &amp; "(" &amp; A888 &amp; "),", ""),"""good"": ",IF(A888 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A888 &lt;&gt; "", A888, -1),", ""bit"": ",IF(B888 &lt;&gt; 0, B888, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C888, Levels!B:B, 0), 1, 1)),", ",IF(A888 &lt;&gt; "", """mem"": bit" &amp; B888 &amp; "(" &amp; A888 &amp; "),", ""),"""good"": ",IF(A888 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A888 &lt;&gt; "", A888, -1),", ""bit"": ",IF(B888 &lt;&gt; "", B888, -1),"},")</f>
         <v>887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
         <v>12</v>
       </c>
       <c r="D889" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C889, Levels!B:B, 0), 1, 1)),", ",IF(A889 &lt;&gt; "", """mem"": bit" &amp; B889 &amp; "(" &amp; A889 &amp; "),", ""),"""good"": ",IF(A889 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A889 &lt;&gt; "", A889, -1),", ""bit"": ",IF(B889 &lt;&gt; 0, B889, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C889, Levels!B:B, 0), 1, 1)),", ",IF(A889 &lt;&gt; "", """mem"": bit" &amp; B889 &amp; "(" &amp; A889 &amp; "),", ""),"""good"": ",IF(A889 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A889 &lt;&gt; "", A889, -1),", ""bit"": ",IF(B889 &lt;&gt; "", B889, -1),"},")</f>
         <v>888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
         <v>12</v>
       </c>
       <c r="D890" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C890, Levels!B:B, 0), 1, 1)),", ",IF(A890 &lt;&gt; "", """mem"": bit" &amp; B890 &amp; "(" &amp; A890 &amp; "),", ""),"""good"": ",IF(A890 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A890 &lt;&gt; "", A890, -1),", ""bit"": ",IF(B890 &lt;&gt; 0, B890, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C890, Levels!B:B, 0), 1, 1)),", ",IF(A890 &lt;&gt; "", """mem"": bit" &amp; B890 &amp; "(" &amp; A890 &amp; "),", ""),"""good"": ",IF(A890 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A890 &lt;&gt; "", A890, -1),", ""bit"": ",IF(B890 &lt;&gt; "", B890, -1),"},")</f>
         <v>889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
         <v>12</v>
       </c>
       <c r="D891" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C891, Levels!B:B, 0), 1, 1)),", ",IF(A891 &lt;&gt; "", """mem"": bit" &amp; B891 &amp; "(" &amp; A891 &amp; "),", ""),"""good"": ",IF(A891 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A891 &lt;&gt; "", A891, -1),", ""bit"": ",IF(B891 &lt;&gt; 0, B891, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C891, Levels!B:B, 0), 1, 1)),", ",IF(A891 &lt;&gt; "", """mem"": bit" &amp; B891 &amp; "(" &amp; A891 &amp; "),", ""),"""good"": ",IF(A891 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A891 &lt;&gt; "", A891, -1),", ""bit"": ",IF(B891 &lt;&gt; "", B891, -1),"},")</f>
         <v>890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17080,7 +17080,7 @@
         <v>12</v>
       </c>
       <c r="D892" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C892, Levels!B:B, 0), 1, 1)),", ",IF(A892 &lt;&gt; "", """mem"": bit" &amp; B892 &amp; "(" &amp; A892 &amp; "),", ""),"""good"": ",IF(A892 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A892 &lt;&gt; "", A892, -1),", ""bit"": ",IF(B892 &lt;&gt; 0, B892, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C892, Levels!B:B, 0), 1, 1)),", ",IF(A892 &lt;&gt; "", """mem"": bit" &amp; B892 &amp; "(" &amp; A892 &amp; "),", ""),"""good"": ",IF(A892 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A892 &lt;&gt; "", A892, -1),", ""bit"": ",IF(B892 &lt;&gt; "", B892, -1),"},")</f>
         <v>891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
         <v>12</v>
       </c>
       <c r="D893" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C893, Levels!B:B, 0), 1, 1)),", ",IF(A893 &lt;&gt; "", """mem"": bit" &amp; B893 &amp; "(" &amp; A893 &amp; "),", ""),"""good"": ",IF(A893 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A893 &lt;&gt; "", A893, -1),", ""bit"": ",IF(B893 &lt;&gt; 0, B893, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C893, Levels!B:B, 0), 1, 1)),", ",IF(A893 &lt;&gt; "", """mem"": bit" &amp; B893 &amp; "(" &amp; A893 &amp; "),", ""),"""good"": ",IF(A893 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A893 &lt;&gt; "", A893, -1),", ""bit"": ",IF(B893 &lt;&gt; "", B893, -1),"},")</f>
         <v>892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17098,7 +17098,7 @@
         <v>12</v>
       </c>
       <c r="D894" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C894, Levels!B:B, 0), 1, 1)),", ",IF(A894 &lt;&gt; "", """mem"": bit" &amp; B894 &amp; "(" &amp; A894 &amp; "),", ""),"""good"": ",IF(A894 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A894 &lt;&gt; "", A894, -1),", ""bit"": ",IF(B894 &lt;&gt; 0, B894, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C894, Levels!B:B, 0), 1, 1)),", ",IF(A894 &lt;&gt; "", """mem"": bit" &amp; B894 &amp; "(" &amp; A894 &amp; "),", ""),"""good"": ",IF(A894 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A894 &lt;&gt; "", A894, -1),", ""bit"": ",IF(B894 &lt;&gt; "", B894, -1),"},")</f>
         <v>893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17107,7 +17107,7 @@
         <v>12</v>
       </c>
       <c r="D895" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C895, Levels!B:B, 0), 1, 1)),", ",IF(A895 &lt;&gt; "", """mem"": bit" &amp; B895 &amp; "(" &amp; A895 &amp; "),", ""),"""good"": ",IF(A895 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A895 &lt;&gt; "", A895, -1),", ""bit"": ",IF(B895 &lt;&gt; 0, B895, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C895, Levels!B:B, 0), 1, 1)),", ",IF(A895 &lt;&gt; "", """mem"": bit" &amp; B895 &amp; "(" &amp; A895 &amp; "),", ""),"""good"": ",IF(A895 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A895 &lt;&gt; "", A895, -1),", ""bit"": ",IF(B895 &lt;&gt; "", B895, -1),"},")</f>
         <v>894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17116,7 +17116,7 @@
         <v>12</v>
       </c>
       <c r="D896" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C896, Levels!B:B, 0), 1, 1)),", ",IF(A896 &lt;&gt; "", """mem"": bit" &amp; B896 &amp; "(" &amp; A896 &amp; "),", ""),"""good"": ",IF(A896 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A896 &lt;&gt; "", A896, -1),", ""bit"": ",IF(B896 &lt;&gt; 0, B896, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C896, Levels!B:B, 0), 1, 1)),", ",IF(A896 &lt;&gt; "", """mem"": bit" &amp; B896 &amp; "(" &amp; A896 &amp; "),", ""),"""good"": ",IF(A896 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A896 &lt;&gt; "", A896, -1),", ""bit"": ",IF(B896 &lt;&gt; "", B896, -1),"},")</f>
         <v>895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17125,7 +17125,7 @@
         <v>12</v>
       </c>
       <c r="D897" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C897, Levels!B:B, 0), 1, 1)),", ",IF(A897 &lt;&gt; "", """mem"": bit" &amp; B897 &amp; "(" &amp; A897 &amp; "),", ""),"""good"": ",IF(A897 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A897 &lt;&gt; "", A897, -1),", ""bit"": ",IF(B897 &lt;&gt; 0, B897, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C897, Levels!B:B, 0), 1, 1)),", ",IF(A897 &lt;&gt; "", """mem"": bit" &amp; B897 &amp; "(" &amp; A897 &amp; "),", ""),"""good"": ",IF(A897 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A897 &lt;&gt; "", A897, -1),", ""bit"": ",IF(B897 &lt;&gt; "", B897, -1),"},")</f>
         <v>896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17134,7 +17134,7 @@
         <v>12</v>
       </c>
       <c r="D898" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C898, Levels!B:B, 0), 1, 1)),", ",IF(A898 &lt;&gt; "", """mem"": bit" &amp; B898 &amp; "(" &amp; A898 &amp; "),", ""),"""good"": ",IF(A898 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A898 &lt;&gt; "", A898, -1),", ""bit"": ",IF(B898 &lt;&gt; 0, B898, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C898, Levels!B:B, 0), 1, 1)),", ",IF(A898 &lt;&gt; "", """mem"": bit" &amp; B898 &amp; "(" &amp; A898 &amp; "),", ""),"""good"": ",IF(A898 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A898 &lt;&gt; "", A898, -1),", ""bit"": ",IF(B898 &lt;&gt; "", B898, -1),"},")</f>
         <v>897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
         <v>12</v>
       </c>
       <c r="D899" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C899, Levels!B:B, 0), 1, 1)),", ",IF(A899 &lt;&gt; "", """mem"": bit" &amp; B899 &amp; "(" &amp; A899 &amp; "),", ""),"""good"": ",IF(A899 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A899 &lt;&gt; "", A899, -1),", ""bit"": ",IF(B899 &lt;&gt; 0, B899, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C899, Levels!B:B, 0), 1, 1)),", ",IF(A899 &lt;&gt; "", """mem"": bit" &amp; B899 &amp; "(" &amp; A899 &amp; "),", ""),"""good"": ",IF(A899 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A899 &lt;&gt; "", A899, -1),", ""bit"": ",IF(B899 &lt;&gt; "", B899, -1),"},")</f>
         <v>898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
         <v>12</v>
       </c>
       <c r="D900" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C900, Levels!B:B, 0), 1, 1)),", ",IF(A900 &lt;&gt; "", """mem"": bit" &amp; B900 &amp; "(" &amp; A900 &amp; "),", ""),"""good"": ",IF(A900 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A900 &lt;&gt; "", A900, -1),", ""bit"": ",IF(B900 &lt;&gt; 0, B900, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C900, Levels!B:B, 0), 1, 1)),", ",IF(A900 &lt;&gt; "", """mem"": bit" &amp; B900 &amp; "(" &amp; A900 &amp; "),", ""),"""good"": ",IF(A900 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A900 &lt;&gt; "", A900, -1),", ""bit"": ",IF(B900 &lt;&gt; "", B900, -1),"},")</f>
         <v>899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
         <v>12</v>
       </c>
       <c r="D901" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C901, Levels!B:B, 0), 1, 1)),", ",IF(A901 &lt;&gt; "", """mem"": bit" &amp; B901 &amp; "(" &amp; A901 &amp; "),", ""),"""good"": ",IF(A901 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A901 &lt;&gt; "", A901, -1),", ""bit"": ",IF(B901 &lt;&gt; 0, B901, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C901, Levels!B:B, 0), 1, 1)),", ",IF(A901 &lt;&gt; "", """mem"": bit" &amp; B901 &amp; "(" &amp; A901 &amp; "),", ""),"""good"": ",IF(A901 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A901 &lt;&gt; "", A901, -1),", ""bit"": ",IF(B901 &lt;&gt; "", B901, -1),"},")</f>
         <v>900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17170,7 +17170,7 @@
         <v>12</v>
       </c>
       <c r="D902" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C902, Levels!B:B, 0), 1, 1)),", ",IF(A902 &lt;&gt; "", """mem"": bit" &amp; B902 &amp; "(" &amp; A902 &amp; "),", ""),"""good"": ",IF(A902 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A902 &lt;&gt; "", A902, -1),", ""bit"": ",IF(B902 &lt;&gt; 0, B902, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C902, Levels!B:B, 0), 1, 1)),", ",IF(A902 &lt;&gt; "", """mem"": bit" &amp; B902 &amp; "(" &amp; A902 &amp; "),", ""),"""good"": ",IF(A902 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A902 &lt;&gt; "", A902, -1),", ""bit"": ",IF(B902 &lt;&gt; "", B902, -1),"},")</f>
         <v>901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17179,7 +17179,7 @@
         <v>12</v>
       </c>
       <c r="D903" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C903, Levels!B:B, 0), 1, 1)),", ",IF(A903 &lt;&gt; "", """mem"": bit" &amp; B903 &amp; "(" &amp; A903 &amp; "),", ""),"""good"": ",IF(A903 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A903 &lt;&gt; "", A903, -1),", ""bit"": ",IF(B903 &lt;&gt; 0, B903, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C903, Levels!B:B, 0), 1, 1)),", ",IF(A903 &lt;&gt; "", """mem"": bit" &amp; B903 &amp; "(" &amp; A903 &amp; "),", ""),"""good"": ",IF(A903 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A903 &lt;&gt; "", A903, -1),", ""bit"": ",IF(B903 &lt;&gt; "", B903, -1),"},")</f>
         <v>902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17188,7 +17188,7 @@
         <v>12</v>
       </c>
       <c r="D904" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C904, Levels!B:B, 0), 1, 1)),", ",IF(A904 &lt;&gt; "", """mem"": bit" &amp; B904 &amp; "(" &amp; A904 &amp; "),", ""),"""good"": ",IF(A904 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A904 &lt;&gt; "", A904, -1),", ""bit"": ",IF(B904 &lt;&gt; 0, B904, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C904, Levels!B:B, 0), 1, 1)),", ",IF(A904 &lt;&gt; "", """mem"": bit" &amp; B904 &amp; "(" &amp; A904 &amp; "),", ""),"""good"": ",IF(A904 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A904 &lt;&gt; "", A904, -1),", ""bit"": ",IF(B904 &lt;&gt; "", B904, -1),"},")</f>
         <v>903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17197,7 +17197,7 @@
         <v>12</v>
       </c>
       <c r="D905" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C905, Levels!B:B, 0), 1, 1)),", ",IF(A905 &lt;&gt; "", """mem"": bit" &amp; B905 &amp; "(" &amp; A905 &amp; "),", ""),"""good"": ",IF(A905 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A905 &lt;&gt; "", A905, -1),", ""bit"": ",IF(B905 &lt;&gt; 0, B905, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C905, Levels!B:B, 0), 1, 1)),", ",IF(A905 &lt;&gt; "", """mem"": bit" &amp; B905 &amp; "(" &amp; A905 &amp; "),", ""),"""good"": ",IF(A905 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A905 &lt;&gt; "", A905, -1),", ""bit"": ",IF(B905 &lt;&gt; "", B905, -1),"},")</f>
         <v>904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17206,7 +17206,7 @@
         <v>12</v>
       </c>
       <c r="D906" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C906, Levels!B:B, 0), 1, 1)),", ",IF(A906 &lt;&gt; "", """mem"": bit" &amp; B906 &amp; "(" &amp; A906 &amp; "),", ""),"""good"": ",IF(A906 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A906 &lt;&gt; "", A906, -1),", ""bit"": ",IF(B906 &lt;&gt; 0, B906, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C906, Levels!B:B, 0), 1, 1)),", ",IF(A906 &lt;&gt; "", """mem"": bit" &amp; B906 &amp; "(" &amp; A906 &amp; "),", ""),"""good"": ",IF(A906 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A906 &lt;&gt; "", A906, -1),", ""bit"": ",IF(B906 &lt;&gt; "", B906, -1),"},")</f>
         <v>905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
         <v>12</v>
       </c>
       <c r="D907" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C907, Levels!B:B, 0), 1, 1)),", ",IF(A907 &lt;&gt; "", """mem"": bit" &amp; B907 &amp; "(" &amp; A907 &amp; "),", ""),"""good"": ",IF(A907 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A907 &lt;&gt; "", A907, -1),", ""bit"": ",IF(B907 &lt;&gt; 0, B907, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C907, Levels!B:B, 0), 1, 1)),", ",IF(A907 &lt;&gt; "", """mem"": bit" &amp; B907 &amp; "(" &amp; A907 &amp; "),", ""),"""good"": ",IF(A907 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A907 &lt;&gt; "", A907, -1),", ""bit"": ",IF(B907 &lt;&gt; "", B907, -1),"},")</f>
         <v>906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17224,7 +17224,7 @@
         <v>12</v>
       </c>
       <c r="D908" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C908, Levels!B:B, 0), 1, 1)),", ",IF(A908 &lt;&gt; "", """mem"": bit" &amp; B908 &amp; "(" &amp; A908 &amp; "),", ""),"""good"": ",IF(A908 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A908 &lt;&gt; "", A908, -1),", ""bit"": ",IF(B908 &lt;&gt; 0, B908, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C908, Levels!B:B, 0), 1, 1)),", ",IF(A908 &lt;&gt; "", """mem"": bit" &amp; B908 &amp; "(" &amp; A908 &amp; "),", ""),"""good"": ",IF(A908 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A908 &lt;&gt; "", A908, -1),", ""bit"": ",IF(B908 &lt;&gt; "", B908, -1),"},")</f>
         <v>907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
         <v>12</v>
       </c>
       <c r="D909" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C909, Levels!B:B, 0), 1, 1)),", ",IF(A909 &lt;&gt; "", """mem"": bit" &amp; B909 &amp; "(" &amp; A909 &amp; "),", ""),"""good"": ",IF(A909 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A909 &lt;&gt; "", A909, -1),", ""bit"": ",IF(B909 &lt;&gt; 0, B909, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C909, Levels!B:B, 0), 1, 1)),", ",IF(A909 &lt;&gt; "", """mem"": bit" &amp; B909 &amp; "(" &amp; A909 &amp; "),", ""),"""good"": ",IF(A909 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A909 &lt;&gt; "", A909, -1),", ""bit"": ",IF(B909 &lt;&gt; "", B909, -1),"},")</f>
         <v>908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17242,7 +17242,7 @@
         <v>12</v>
       </c>
       <c r="D910" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C910, Levels!B:B, 0), 1, 1)),", ",IF(A910 &lt;&gt; "", """mem"": bit" &amp; B910 &amp; "(" &amp; A910 &amp; "),", ""),"""good"": ",IF(A910 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A910 &lt;&gt; "", A910, -1),", ""bit"": ",IF(B910 &lt;&gt; 0, B910, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C910, Levels!B:B, 0), 1, 1)),", ",IF(A910 &lt;&gt; "", """mem"": bit" &amp; B910 &amp; "(" &amp; A910 &amp; "),", ""),"""good"": ",IF(A910 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A910 &lt;&gt; "", A910, -1),", ""bit"": ",IF(B910 &lt;&gt; "", B910, -1),"},")</f>
         <v>909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17251,7 +17251,7 @@
         <v>12</v>
       </c>
       <c r="D911" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C911, Levels!B:B, 0), 1, 1)),", ",IF(A911 &lt;&gt; "", """mem"": bit" &amp; B911 &amp; "(" &amp; A911 &amp; "),", ""),"""good"": ",IF(A911 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A911 &lt;&gt; "", A911, -1),", ""bit"": ",IF(B911 &lt;&gt; 0, B911, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C911, Levels!B:B, 0), 1, 1)),", ",IF(A911 &lt;&gt; "", """mem"": bit" &amp; B911 &amp; "(" &amp; A911 &amp; "),", ""),"""good"": ",IF(A911 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A911 &lt;&gt; "", A911, -1),", ""bit"": ",IF(B911 &lt;&gt; "", B911, -1),"},")</f>
         <v>910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17260,7 +17260,7 @@
         <v>12</v>
       </c>
       <c r="D912" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C912, Levels!B:B, 0), 1, 1)),", ",IF(A912 &lt;&gt; "", """mem"": bit" &amp; B912 &amp; "(" &amp; A912 &amp; "),", ""),"""good"": ",IF(A912 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A912 &lt;&gt; "", A912, -1),", ""bit"": ",IF(B912 &lt;&gt; 0, B912, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C912, Levels!B:B, 0), 1, 1)),", ",IF(A912 &lt;&gt; "", """mem"": bit" &amp; B912 &amp; "(" &amp; A912 &amp; "),", ""),"""good"": ",IF(A912 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A912 &lt;&gt; "", A912, -1),", ""bit"": ",IF(B912 &lt;&gt; "", B912, -1),"},")</f>
         <v>911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17269,7 +17269,7 @@
         <v>12</v>
       </c>
       <c r="D913" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C913, Levels!B:B, 0), 1, 1)),", ",IF(A913 &lt;&gt; "", """mem"": bit" &amp; B913 &amp; "(" &amp; A913 &amp; "),", ""),"""good"": ",IF(A913 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A913 &lt;&gt; "", A913, -1),", ""bit"": ",IF(B913 &lt;&gt; 0, B913, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C913, Levels!B:B, 0), 1, 1)),", ",IF(A913 &lt;&gt; "", """mem"": bit" &amp; B913 &amp; "(" &amp; A913 &amp; "),", ""),"""good"": ",IF(A913 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A913 &lt;&gt; "", A913, -1),", ""bit"": ",IF(B913 &lt;&gt; "", B913, -1),"},")</f>
         <v>912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
         <v>12</v>
       </c>
       <c r="D914" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C914, Levels!B:B, 0), 1, 1)),", ",IF(A914 &lt;&gt; "", """mem"": bit" &amp; B914 &amp; "(" &amp; A914 &amp; "),", ""),"""good"": ",IF(A914 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A914 &lt;&gt; "", A914, -1),", ""bit"": ",IF(B914 &lt;&gt; 0, B914, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C914, Levels!B:B, 0), 1, 1)),", ",IF(A914 &lt;&gt; "", """mem"": bit" &amp; B914 &amp; "(" &amp; A914 &amp; "),", ""),"""good"": ",IF(A914 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A914 &lt;&gt; "", A914, -1),", ""bit"": ",IF(B914 &lt;&gt; "", B914, -1),"},")</f>
         <v>913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
         <v>12</v>
       </c>
       <c r="D915" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C915, Levels!B:B, 0), 1, 1)),", ",IF(A915 &lt;&gt; "", """mem"": bit" &amp; B915 &amp; "(" &amp; A915 &amp; "),", ""),"""good"": ",IF(A915 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A915 &lt;&gt; "", A915, -1),", ""bit"": ",IF(B915 &lt;&gt; 0, B915, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C915, Levels!B:B, 0), 1, 1)),", ",IF(A915 &lt;&gt; "", """mem"": bit" &amp; B915 &amp; "(" &amp; A915 &amp; "),", ""),"""good"": ",IF(A915 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A915 &lt;&gt; "", A915, -1),", ""bit"": ",IF(B915 &lt;&gt; "", B915, -1),"},")</f>
         <v>914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
         <v>12</v>
       </c>
       <c r="D916" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C916, Levels!B:B, 0), 1, 1)),", ",IF(A916 &lt;&gt; "", """mem"": bit" &amp; B916 &amp; "(" &amp; A916 &amp; "),", ""),"""good"": ",IF(A916 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A916 &lt;&gt; "", A916, -1),", ""bit"": ",IF(B916 &lt;&gt; 0, B916, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C916, Levels!B:B, 0), 1, 1)),", ",IF(A916 &lt;&gt; "", """mem"": bit" &amp; B916 &amp; "(" &amp; A916 &amp; "),", ""),"""good"": ",IF(A916 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A916 &lt;&gt; "", A916, -1),", ""bit"": ",IF(B916 &lt;&gt; "", B916, -1),"},")</f>
         <v>915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17305,7 +17305,7 @@
         <v>12</v>
       </c>
       <c r="D917" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C917, Levels!B:B, 0), 1, 1)),", ",IF(A917 &lt;&gt; "", """mem"": bit" &amp; B917 &amp; "(" &amp; A917 &amp; "),", ""),"""good"": ",IF(A917 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A917 &lt;&gt; "", A917, -1),", ""bit"": ",IF(B917 &lt;&gt; 0, B917, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C917, Levels!B:B, 0), 1, 1)),", ",IF(A917 &lt;&gt; "", """mem"": bit" &amp; B917 &amp; "(" &amp; A917 &amp; "),", ""),"""good"": ",IF(A917 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A917 &lt;&gt; "", A917, -1),", ""bit"": ",IF(B917 &lt;&gt; "", B917, -1),"},")</f>
         <v>916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17314,7 +17314,7 @@
         <v>12</v>
       </c>
       <c r="D918" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C918, Levels!B:B, 0), 1, 1)),", ",IF(A918 &lt;&gt; "", """mem"": bit" &amp; B918 &amp; "(" &amp; A918 &amp; "),", ""),"""good"": ",IF(A918 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A918 &lt;&gt; "", A918, -1),", ""bit"": ",IF(B918 &lt;&gt; 0, B918, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C918, Levels!B:B, 0), 1, 1)),", ",IF(A918 &lt;&gt; "", """mem"": bit" &amp; B918 &amp; "(" &amp; A918 &amp; "),", ""),"""good"": ",IF(A918 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A918 &lt;&gt; "", A918, -1),", ""bit"": ",IF(B918 &lt;&gt; "", B918, -1),"},")</f>
         <v>917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17323,7 +17323,7 @@
         <v>12</v>
       </c>
       <c r="D919" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C919, Levels!B:B, 0), 1, 1)),", ",IF(A919 &lt;&gt; "", """mem"": bit" &amp; B919 &amp; "(" &amp; A919 &amp; "),", ""),"""good"": ",IF(A919 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A919 &lt;&gt; "", A919, -1),", ""bit"": ",IF(B919 &lt;&gt; 0, B919, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C919, Levels!B:B, 0), 1, 1)),", ",IF(A919 &lt;&gt; "", """mem"": bit" &amp; B919 &amp; "(" &amp; A919 &amp; "),", ""),"""good"": ",IF(A919 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A919 &lt;&gt; "", A919, -1),", ""bit"": ",IF(B919 &lt;&gt; "", B919, -1),"},")</f>
         <v>918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17332,7 +17332,7 @@
         <v>12</v>
       </c>
       <c r="D920" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C920, Levels!B:B, 0), 1, 1)),", ",IF(A920 &lt;&gt; "", """mem"": bit" &amp; B920 &amp; "(" &amp; A920 &amp; "),", ""),"""good"": ",IF(A920 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A920 &lt;&gt; "", A920, -1),", ""bit"": ",IF(B920 &lt;&gt; 0, B920, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C920, Levels!B:B, 0), 1, 1)),", ",IF(A920 &lt;&gt; "", """mem"": bit" &amp; B920 &amp; "(" &amp; A920 &amp; "),", ""),"""good"": ",IF(A920 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A920 &lt;&gt; "", A920, -1),", ""bit"": ",IF(B920 &lt;&gt; "", B920, -1),"},")</f>
         <v>919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17341,7 +17341,7 @@
         <v>12</v>
       </c>
       <c r="D921" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C921, Levels!B:B, 0), 1, 1)),", ",IF(A921 &lt;&gt; "", """mem"": bit" &amp; B921 &amp; "(" &amp; A921 &amp; "),", ""),"""good"": ",IF(A921 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A921 &lt;&gt; "", A921, -1),", ""bit"": ",IF(B921 &lt;&gt; 0, B921, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C921, Levels!B:B, 0), 1, 1)),", ",IF(A921 &lt;&gt; "", """mem"": bit" &amp; B921 &amp; "(" &amp; A921 &amp; "),", ""),"""good"": ",IF(A921 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A921 &lt;&gt; "", A921, -1),", ""bit"": ",IF(B921 &lt;&gt; "", B921, -1),"},")</f>
         <v>920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
         <v>12</v>
       </c>
       <c r="D922" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C922, Levels!B:B, 0), 1, 1)),", ",IF(A922 &lt;&gt; "", """mem"": bit" &amp; B922 &amp; "(" &amp; A922 &amp; "),", ""),"""good"": ",IF(A922 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A922 &lt;&gt; "", A922, -1),", ""bit"": ",IF(B922 &lt;&gt; 0, B922, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C922, Levels!B:B, 0), 1, 1)),", ",IF(A922 &lt;&gt; "", """mem"": bit" &amp; B922 &amp; "(" &amp; A922 &amp; "),", ""),"""good"": ",IF(A922 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A922 &lt;&gt; "", A922, -1),", ""bit"": ",IF(B922 &lt;&gt; "", B922, -1),"},")</f>
         <v>921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
         <v>12</v>
       </c>
       <c r="D923" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C923, Levels!B:B, 0), 1, 1)),", ",IF(A923 &lt;&gt; "", """mem"": bit" &amp; B923 &amp; "(" &amp; A923 &amp; "),", ""),"""good"": ",IF(A923 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A923 &lt;&gt; "", A923, -1),", ""bit"": ",IF(B923 &lt;&gt; 0, B923, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C923, Levels!B:B, 0), 1, 1)),", ",IF(A923 &lt;&gt; "", """mem"": bit" &amp; B923 &amp; "(" &amp; A923 &amp; "),", ""),"""good"": ",IF(A923 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A923 &lt;&gt; "", A923, -1),", ""bit"": ",IF(B923 &lt;&gt; "", B923, -1),"},")</f>
         <v>922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17368,7 +17368,7 @@
         <v>12</v>
       </c>
       <c r="D924" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C924, Levels!B:B, 0), 1, 1)),", ",IF(A924 &lt;&gt; "", """mem"": bit" &amp; B924 &amp; "(" &amp; A924 &amp; "),", ""),"""good"": ",IF(A924 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A924 &lt;&gt; "", A924, -1),", ""bit"": ",IF(B924 &lt;&gt; 0, B924, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C924, Levels!B:B, 0), 1, 1)),", ",IF(A924 &lt;&gt; "", """mem"": bit" &amp; B924 &amp; "(" &amp; A924 &amp; "),", ""),"""good"": ",IF(A924 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A924 &lt;&gt; "", A924, -1),", ""bit"": ",IF(B924 &lt;&gt; "", B924, -1),"},")</f>
         <v>923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17377,7 +17377,7 @@
         <v>12</v>
       </c>
       <c r="D925" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C925, Levels!B:B, 0), 1, 1)),", ",IF(A925 &lt;&gt; "", """mem"": bit" &amp; B925 &amp; "(" &amp; A925 &amp; "),", ""),"""good"": ",IF(A925 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A925 &lt;&gt; "", A925, -1),", ""bit"": ",IF(B925 &lt;&gt; 0, B925, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C925, Levels!B:B, 0), 1, 1)),", ",IF(A925 &lt;&gt; "", """mem"": bit" &amp; B925 &amp; "(" &amp; A925 &amp; "),", ""),"""good"": ",IF(A925 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A925 &lt;&gt; "", A925, -1),", ""bit"": ",IF(B925 &lt;&gt; "", B925, -1),"},")</f>
         <v>924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17386,7 +17386,7 @@
         <v>12</v>
       </c>
       <c r="D926" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C926, Levels!B:B, 0), 1, 1)),", ",IF(A926 &lt;&gt; "", """mem"": bit" &amp; B926 &amp; "(" &amp; A926 &amp; "),", ""),"""good"": ",IF(A926 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A926 &lt;&gt; "", A926, -1),", ""bit"": ",IF(B926 &lt;&gt; 0, B926, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C926, Levels!B:B, 0), 1, 1)),", ",IF(A926 &lt;&gt; "", """mem"": bit" &amp; B926 &amp; "(" &amp; A926 &amp; "),", ""),"""good"": ",IF(A926 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A926 &lt;&gt; "", A926, -1),", ""bit"": ",IF(B926 &lt;&gt; "", B926, -1),"},")</f>
         <v>925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17395,7 +17395,7 @@
         <v>12</v>
       </c>
       <c r="D927" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C927, Levels!B:B, 0), 1, 1)),", ",IF(A927 &lt;&gt; "", """mem"": bit" &amp; B927 &amp; "(" &amp; A927 &amp; "),", ""),"""good"": ",IF(A927 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A927 &lt;&gt; "", A927, -1),", ""bit"": ",IF(B927 &lt;&gt; 0, B927, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C927, Levels!B:B, 0), 1, 1)),", ",IF(A927 &lt;&gt; "", """mem"": bit" &amp; B927 &amp; "(" &amp; A927 &amp; "),", ""),"""good"": ",IF(A927 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A927 &lt;&gt; "", A927, -1),", ""bit"": ",IF(B927 &lt;&gt; "", B927, -1),"},")</f>
         <v>926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17404,7 +17404,7 @@
         <v>12</v>
       </c>
       <c r="D928" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C928, Levels!B:B, 0), 1, 1)),", ",IF(A928 &lt;&gt; "", """mem"": bit" &amp; B928 &amp; "(" &amp; A928 &amp; "),", ""),"""good"": ",IF(A928 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A928 &lt;&gt; "", A928, -1),", ""bit"": ",IF(B928 &lt;&gt; 0, B928, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C928, Levels!B:B, 0), 1, 1)),", ",IF(A928 &lt;&gt; "", """mem"": bit" &amp; B928 &amp; "(" &amp; A928 &amp; "),", ""),"""good"": ",IF(A928 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A928 &lt;&gt; "", A928, -1),", ""bit"": ",IF(B928 &lt;&gt; "", B928, -1),"},")</f>
         <v>927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
         <v>12</v>
       </c>
       <c r="D929" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C929, Levels!B:B, 0), 1, 1)),", ",IF(A929 &lt;&gt; "", """mem"": bit" &amp; B929 &amp; "(" &amp; A929 &amp; "),", ""),"""good"": ",IF(A929 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A929 &lt;&gt; "", A929, -1),", ""bit"": ",IF(B929 &lt;&gt; 0, B929, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C929, Levels!B:B, 0), 1, 1)),", ",IF(A929 &lt;&gt; "", """mem"": bit" &amp; B929 &amp; "(" &amp; A929 &amp; "),", ""),"""good"": ",IF(A929 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A929 &lt;&gt; "", A929, -1),", ""bit"": ",IF(B929 &lt;&gt; "", B929, -1),"},")</f>
         <v>928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
         <v>12</v>
       </c>
       <c r="D930" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C930, Levels!B:B, 0), 1, 1)),", ",IF(A930 &lt;&gt; "", """mem"": bit" &amp; B930 &amp; "(" &amp; A930 &amp; "),", ""),"""good"": ",IF(A930 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A930 &lt;&gt; "", A930, -1),", ""bit"": ",IF(B930 &lt;&gt; 0, B930, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C930, Levels!B:B, 0), 1, 1)),", ",IF(A930 &lt;&gt; "", """mem"": bit" &amp; B930 &amp; "(" &amp; A930 &amp; "),", ""),"""good"": ",IF(A930 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A930 &lt;&gt; "", A930, -1),", ""bit"": ",IF(B930 &lt;&gt; "", B930, -1),"},")</f>
         <v>929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17431,7 +17431,7 @@
         <v>12</v>
       </c>
       <c r="D931" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C931, Levels!B:B, 0), 1, 1)),", ",IF(A931 &lt;&gt; "", """mem"": bit" &amp; B931 &amp; "(" &amp; A931 &amp; "),", ""),"""good"": ",IF(A931 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A931 &lt;&gt; "", A931, -1),", ""bit"": ",IF(B931 &lt;&gt; 0, B931, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C931, Levels!B:B, 0), 1, 1)),", ",IF(A931 &lt;&gt; "", """mem"": bit" &amp; B931 &amp; "(" &amp; A931 &amp; "),", ""),"""good"": ",IF(A931 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A931 &lt;&gt; "", A931, -1),", ""bit"": ",IF(B931 &lt;&gt; "", B931, -1),"},")</f>
         <v>930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
         <v>12</v>
       </c>
       <c r="D932" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C932, Levels!B:B, 0), 1, 1)),", ",IF(A932 &lt;&gt; "", """mem"": bit" &amp; B932 &amp; "(" &amp; A932 &amp; "),", ""),"""good"": ",IF(A932 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A932 &lt;&gt; "", A932, -1),", ""bit"": ",IF(B932 &lt;&gt; 0, B932, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C932, Levels!B:B, 0), 1, 1)),", ",IF(A932 &lt;&gt; "", """mem"": bit" &amp; B932 &amp; "(" &amp; A932 &amp; "),", ""),"""good"": ",IF(A932 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A932 &lt;&gt; "", A932, -1),", ""bit"": ",IF(B932 &lt;&gt; "", B932, -1),"},")</f>
         <v>931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17449,7 +17449,7 @@
         <v>12</v>
       </c>
       <c r="D933" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C933, Levels!B:B, 0), 1, 1)),", ",IF(A933 &lt;&gt; "", """mem"": bit" &amp; B933 &amp; "(" &amp; A933 &amp; "),", ""),"""good"": ",IF(A933 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A933 &lt;&gt; "", A933, -1),", ""bit"": ",IF(B933 &lt;&gt; 0, B933, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C933, Levels!B:B, 0), 1, 1)),", ",IF(A933 &lt;&gt; "", """mem"": bit" &amp; B933 &amp; "(" &amp; A933 &amp; "),", ""),"""good"": ",IF(A933 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A933 &lt;&gt; "", A933, -1),", ""bit"": ",IF(B933 &lt;&gt; "", B933, -1),"},")</f>
         <v>932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17458,7 +17458,7 @@
         <v>12</v>
       </c>
       <c r="D934" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C934, Levels!B:B, 0), 1, 1)),", ",IF(A934 &lt;&gt; "", """mem"": bit" &amp; B934 &amp; "(" &amp; A934 &amp; "),", ""),"""good"": ",IF(A934 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A934 &lt;&gt; "", A934, -1),", ""bit"": ",IF(B934 &lt;&gt; 0, B934, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C934, Levels!B:B, 0), 1, 1)),", ",IF(A934 &lt;&gt; "", """mem"": bit" &amp; B934 &amp; "(" &amp; A934 &amp; "),", ""),"""good"": ",IF(A934 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A934 &lt;&gt; "", A934, -1),", ""bit"": ",IF(B934 &lt;&gt; "", B934, -1),"},")</f>
         <v>933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17467,7 +17467,7 @@
         <v>12</v>
       </c>
       <c r="D935" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C935, Levels!B:B, 0), 1, 1)),", ",IF(A935 &lt;&gt; "", """mem"": bit" &amp; B935 &amp; "(" &amp; A935 &amp; "),", ""),"""good"": ",IF(A935 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A935 &lt;&gt; "", A935, -1),", ""bit"": ",IF(B935 &lt;&gt; 0, B935, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C935, Levels!B:B, 0), 1, 1)),", ",IF(A935 &lt;&gt; "", """mem"": bit" &amp; B935 &amp; "(" &amp; A935 &amp; "),", ""),"""good"": ",IF(A935 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A935 &lt;&gt; "", A935, -1),", ""bit"": ",IF(B935 &lt;&gt; "", B935, -1),"},")</f>
         <v>934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17476,7 +17476,7 @@
         <v>12</v>
       </c>
       <c r="D936" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C936, Levels!B:B, 0), 1, 1)),", ",IF(A936 &lt;&gt; "", """mem"": bit" &amp; B936 &amp; "(" &amp; A936 &amp; "),", ""),"""good"": ",IF(A936 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A936 &lt;&gt; "", A936, -1),", ""bit"": ",IF(B936 &lt;&gt; 0, B936, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C936, Levels!B:B, 0), 1, 1)),", ",IF(A936 &lt;&gt; "", """mem"": bit" &amp; B936 &amp; "(" &amp; A936 &amp; "),", ""),"""good"": ",IF(A936 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A936 &lt;&gt; "", A936, -1),", ""bit"": ",IF(B936 &lt;&gt; "", B936, -1),"},")</f>
         <v>935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
         <v>12</v>
       </c>
       <c r="D937" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C937, Levels!B:B, 0), 1, 1)),", ",IF(A937 &lt;&gt; "", """mem"": bit" &amp; B937 &amp; "(" &amp; A937 &amp; "),", ""),"""good"": ",IF(A937 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A937 &lt;&gt; "", A937, -1),", ""bit"": ",IF(B937 &lt;&gt; 0, B937, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C937, Levels!B:B, 0), 1, 1)),", ",IF(A937 &lt;&gt; "", """mem"": bit" &amp; B937 &amp; "(" &amp; A937 &amp; "),", ""),"""good"": ",IF(A937 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A937 &lt;&gt; "", A937, -1),", ""bit"": ",IF(B937 &lt;&gt; "", B937, -1),"},")</f>
         <v>936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
         <v>12</v>
       </c>
       <c r="D938" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C938, Levels!B:B, 0), 1, 1)),", ",IF(A938 &lt;&gt; "", """mem"": bit" &amp; B938 &amp; "(" &amp; A938 &amp; "),", ""),"""good"": ",IF(A938 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A938 &lt;&gt; "", A938, -1),", ""bit"": ",IF(B938 &lt;&gt; 0, B938, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C938, Levels!B:B, 0), 1, 1)),", ",IF(A938 &lt;&gt; "", """mem"": bit" &amp; B938 &amp; "(" &amp; A938 &amp; "),", ""),"""good"": ",IF(A938 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A938 &lt;&gt; "", A938, -1),", ""bit"": ",IF(B938 &lt;&gt; "", B938, -1),"},")</f>
         <v>937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
         <v>12</v>
       </c>
       <c r="D939" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C939, Levels!B:B, 0), 1, 1)),", ",IF(A939 &lt;&gt; "", """mem"": bit" &amp; B939 &amp; "(" &amp; A939 &amp; "),", ""),"""good"": ",IF(A939 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A939 &lt;&gt; "", A939, -1),", ""bit"": ",IF(B939 &lt;&gt; 0, B939, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C939, Levels!B:B, 0), 1, 1)),", ",IF(A939 &lt;&gt; "", """mem"": bit" &amp; B939 &amp; "(" &amp; A939 &amp; "),", ""),"""good"": ",IF(A939 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A939 &lt;&gt; "", A939, -1),", ""bit"": ",IF(B939 &lt;&gt; "", B939, -1),"},")</f>
         <v>938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17512,7 +17512,7 @@
         <v>12</v>
       </c>
       <c r="D940" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C940, Levels!B:B, 0), 1, 1)),", ",IF(A940 &lt;&gt; "", """mem"": bit" &amp; B940 &amp; "(" &amp; A940 &amp; "),", ""),"""good"": ",IF(A940 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A940 &lt;&gt; "", A940, -1),", ""bit"": ",IF(B940 &lt;&gt; 0, B940, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C940, Levels!B:B, 0), 1, 1)),", ",IF(A940 &lt;&gt; "", """mem"": bit" &amp; B940 &amp; "(" &amp; A940 &amp; "),", ""),"""good"": ",IF(A940 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A940 &lt;&gt; "", A940, -1),", ""bit"": ",IF(B940 &lt;&gt; "", B940, -1),"},")</f>
         <v>939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
         <v>12</v>
       </c>
       <c r="D941" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C941, Levels!B:B, 0), 1, 1)),", ",IF(A941 &lt;&gt; "", """mem"": bit" &amp; B941 &amp; "(" &amp; A941 &amp; "),", ""),"""good"": ",IF(A941 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A941 &lt;&gt; "", A941, -1),", ""bit"": ",IF(B941 &lt;&gt; 0, B941, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C941, Levels!B:B, 0), 1, 1)),", ",IF(A941 &lt;&gt; "", """mem"": bit" &amp; B941 &amp; "(" &amp; A941 &amp; "),", ""),"""good"": ",IF(A941 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A941 &lt;&gt; "", A941, -1),", ""bit"": ",IF(B941 &lt;&gt; "", B941, -1),"},")</f>
         <v>940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17530,7 +17530,7 @@
         <v>12</v>
       </c>
       <c r="D942" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C942, Levels!B:B, 0), 1, 1)),", ",IF(A942 &lt;&gt; "", """mem"": bit" &amp; B942 &amp; "(" &amp; A942 &amp; "),", ""),"""good"": ",IF(A942 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A942 &lt;&gt; "", A942, -1),", ""bit"": ",IF(B942 &lt;&gt; 0, B942, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C942, Levels!B:B, 0), 1, 1)),", ",IF(A942 &lt;&gt; "", """mem"": bit" &amp; B942 &amp; "(" &amp; A942 &amp; "),", ""),"""good"": ",IF(A942 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A942 &lt;&gt; "", A942, -1),", ""bit"": ",IF(B942 &lt;&gt; "", B942, -1),"},")</f>
         <v>941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17539,7 +17539,7 @@
         <v>12</v>
       </c>
       <c r="D943" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C943, Levels!B:B, 0), 1, 1)),", ",IF(A943 &lt;&gt; "", """mem"": bit" &amp; B943 &amp; "(" &amp; A943 &amp; "),", ""),"""good"": ",IF(A943 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A943 &lt;&gt; "", A943, -1),", ""bit"": ",IF(B943 &lt;&gt; 0, B943, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C943, Levels!B:B, 0), 1, 1)),", ",IF(A943 &lt;&gt; "", """mem"": bit" &amp; B943 &amp; "(" &amp; A943 &amp; "),", ""),"""good"": ",IF(A943 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A943 &lt;&gt; "", A943, -1),", ""bit"": ",IF(B943 &lt;&gt; "", B943, -1),"},")</f>
         <v>942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
         <v>12</v>
       </c>
       <c r="D944" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C944, Levels!B:B, 0), 1, 1)),", ",IF(A944 &lt;&gt; "", """mem"": bit" &amp; B944 &amp; "(" &amp; A944 &amp; "),", ""),"""good"": ",IF(A944 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A944 &lt;&gt; "", A944, -1),", ""bit"": ",IF(B944 &lt;&gt; 0, B944, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C944, Levels!B:B, 0), 1, 1)),", ",IF(A944 &lt;&gt; "", """mem"": bit" &amp; B944 &amp; "(" &amp; A944 &amp; "),", ""),"""good"": ",IF(A944 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A944 &lt;&gt; "", A944, -1),", ""bit"": ",IF(B944 &lt;&gt; "", B944, -1),"},")</f>
         <v>943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17557,7 +17557,7 @@
         <v>12</v>
       </c>
       <c r="D945" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C945, Levels!B:B, 0), 1, 1)),", ",IF(A945 &lt;&gt; "", """mem"": bit" &amp; B945 &amp; "(" &amp; A945 &amp; "),", ""),"""good"": ",IF(A945 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A945 &lt;&gt; "", A945, -1),", ""bit"": ",IF(B945 &lt;&gt; 0, B945, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C945, Levels!B:B, 0), 1, 1)),", ",IF(A945 &lt;&gt; "", """mem"": bit" &amp; B945 &amp; "(" &amp; A945 &amp; "),", ""),"""good"": ",IF(A945 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A945 &lt;&gt; "", A945, -1),", ""bit"": ",IF(B945 &lt;&gt; "", B945, -1),"},")</f>
         <v>944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17566,7 +17566,7 @@
         <v>12</v>
       </c>
       <c r="D946" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C946, Levels!B:B, 0), 1, 1)),", ",IF(A946 &lt;&gt; "", """mem"": bit" &amp; B946 &amp; "(" &amp; A946 &amp; "),", ""),"""good"": ",IF(A946 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A946 &lt;&gt; "", A946, -1),", ""bit"": ",IF(B946 &lt;&gt; 0, B946, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C946, Levels!B:B, 0), 1, 1)),", ",IF(A946 &lt;&gt; "", """mem"": bit" &amp; B946 &amp; "(" &amp; A946 &amp; "),", ""),"""good"": ",IF(A946 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A946 &lt;&gt; "", A946, -1),", ""bit"": ",IF(B946 &lt;&gt; "", B946, -1),"},")</f>
         <v>945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17575,7 +17575,7 @@
         <v>12</v>
       </c>
       <c r="D947" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C947, Levels!B:B, 0), 1, 1)),", ",IF(A947 &lt;&gt; "", """mem"": bit" &amp; B947 &amp; "(" &amp; A947 &amp; "),", ""),"""good"": ",IF(A947 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A947 &lt;&gt; "", A947, -1),", ""bit"": ",IF(B947 &lt;&gt; 0, B947, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C947, Levels!B:B, 0), 1, 1)),", ",IF(A947 &lt;&gt; "", """mem"": bit" &amp; B947 &amp; "(" &amp; A947 &amp; "),", ""),"""good"": ",IF(A947 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A947 &lt;&gt; "", A947, -1),", ""bit"": ",IF(B947 &lt;&gt; "", B947, -1),"},")</f>
         <v>946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17584,7 +17584,7 @@
         <v>12</v>
       </c>
       <c r="D948" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C948, Levels!B:B, 0), 1, 1)),", ",IF(A948 &lt;&gt; "", """mem"": bit" &amp; B948 &amp; "(" &amp; A948 &amp; "),", ""),"""good"": ",IF(A948 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A948 &lt;&gt; "", A948, -1),", ""bit"": ",IF(B948 &lt;&gt; 0, B948, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C948, Levels!B:B, 0), 1, 1)),", ",IF(A948 &lt;&gt; "", """mem"": bit" &amp; B948 &amp; "(" &amp; A948 &amp; "),", ""),"""good"": ",IF(A948 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A948 &lt;&gt; "", A948, -1),", ""bit"": ",IF(B948 &lt;&gt; "", B948, -1),"},")</f>
         <v>947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
         <v>12</v>
       </c>
       <c r="D949" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C949, Levels!B:B, 0), 1, 1)),", ",IF(A949 &lt;&gt; "", """mem"": bit" &amp; B949 &amp; "(" &amp; A949 &amp; "),", ""),"""good"": ",IF(A949 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A949 &lt;&gt; "", A949, -1),", ""bit"": ",IF(B949 &lt;&gt; 0, B949, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C949, Levels!B:B, 0), 1, 1)),", ",IF(A949 &lt;&gt; "", """mem"": bit" &amp; B949 &amp; "(" &amp; A949 &amp; "),", ""),"""good"": ",IF(A949 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A949 &lt;&gt; "", A949, -1),", ""bit"": ",IF(B949 &lt;&gt; "", B949, -1),"},")</f>
         <v>948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17602,7 +17602,7 @@
         <v>12</v>
       </c>
       <c r="D950" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C950, Levels!B:B, 0), 1, 1)),", ",IF(A950 &lt;&gt; "", """mem"": bit" &amp; B950 &amp; "(" &amp; A950 &amp; "),", ""),"""good"": ",IF(A950 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A950 &lt;&gt; "", A950, -1),", ""bit"": ",IF(B950 &lt;&gt; 0, B950, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C950, Levels!B:B, 0), 1, 1)),", ",IF(A950 &lt;&gt; "", """mem"": bit" &amp; B950 &amp; "(" &amp; A950 &amp; "),", ""),"""good"": ",IF(A950 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A950 &lt;&gt; "", A950, -1),", ""bit"": ",IF(B950 &lt;&gt; "", B950, -1),"},")</f>
         <v>949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17611,7 +17611,7 @@
         <v>12</v>
       </c>
       <c r="D951" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C951, Levels!B:B, 0), 1, 1)),", ",IF(A951 &lt;&gt; "", """mem"": bit" &amp; B951 &amp; "(" &amp; A951 &amp; "),", ""),"""good"": ",IF(A951 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A951 &lt;&gt; "", A951, -1),", ""bit"": ",IF(B951 &lt;&gt; 0, B951, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C951, Levels!B:B, 0), 1, 1)),", ",IF(A951 &lt;&gt; "", """mem"": bit" &amp; B951 &amp; "(" &amp; A951 &amp; "),", ""),"""good"": ",IF(A951 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A951 &lt;&gt; "", A951, -1),", ""bit"": ",IF(B951 &lt;&gt; "", B951, -1),"},")</f>
         <v>950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17620,7 +17620,7 @@
         <v>12</v>
       </c>
       <c r="D952" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C952, Levels!B:B, 0), 1, 1)),", ",IF(A952 &lt;&gt; "", """mem"": bit" &amp; B952 &amp; "(" &amp; A952 &amp; "),", ""),"""good"": ",IF(A952 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A952 &lt;&gt; "", A952, -1),", ""bit"": ",IF(B952 &lt;&gt; 0, B952, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C952, Levels!B:B, 0), 1, 1)),", ",IF(A952 &lt;&gt; "", """mem"": bit" &amp; B952 &amp; "(" &amp; A952 &amp; "),", ""),"""good"": ",IF(A952 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A952 &lt;&gt; "", A952, -1),", ""bit"": ",IF(B952 &lt;&gt; "", B952, -1),"},")</f>
         <v>951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17629,7 +17629,7 @@
         <v>12</v>
       </c>
       <c r="D953" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C953, Levels!B:B, 0), 1, 1)),", ",IF(A953 &lt;&gt; "", """mem"": bit" &amp; B953 &amp; "(" &amp; A953 &amp; "),", ""),"""good"": ",IF(A953 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A953 &lt;&gt; "", A953, -1),", ""bit"": ",IF(B953 &lt;&gt; 0, B953, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C953, Levels!B:B, 0), 1, 1)),", ",IF(A953 &lt;&gt; "", """mem"": bit" &amp; B953 &amp; "(" &amp; A953 &amp; "),", ""),"""good"": ",IF(A953 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A953 &lt;&gt; "", A953, -1),", ""bit"": ",IF(B953 &lt;&gt; "", B953, -1),"},")</f>
         <v>952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
         <v>12</v>
       </c>
       <c r="D954" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C954, Levels!B:B, 0), 1, 1)),", ",IF(A954 &lt;&gt; "", """mem"": bit" &amp; B954 &amp; "(" &amp; A954 &amp; "),", ""),"""good"": ",IF(A954 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A954 &lt;&gt; "", A954, -1),", ""bit"": ",IF(B954 &lt;&gt; 0, B954, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C954, Levels!B:B, 0), 1, 1)),", ",IF(A954 &lt;&gt; "", """mem"": bit" &amp; B954 &amp; "(" &amp; A954 &amp; "),", ""),"""good"": ",IF(A954 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A954 &lt;&gt; "", A954, -1),", ""bit"": ",IF(B954 &lt;&gt; "", B954, -1),"},")</f>
         <v>953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
         <v>12</v>
       </c>
       <c r="D955" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C955, Levels!B:B, 0), 1, 1)),", ",IF(A955 &lt;&gt; "", """mem"": bit" &amp; B955 &amp; "(" &amp; A955 &amp; "),", ""),"""good"": ",IF(A955 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A955 &lt;&gt; "", A955, -1),", ""bit"": ",IF(B955 &lt;&gt; 0, B955, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C955, Levels!B:B, 0), 1, 1)),", ",IF(A955 &lt;&gt; "", """mem"": bit" &amp; B955 &amp; "(" &amp; A955 &amp; "),", ""),"""good"": ",IF(A955 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A955 &lt;&gt; "", A955, -1),", ""bit"": ",IF(B955 &lt;&gt; "", B955, -1),"},")</f>
         <v>954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
         <v>12</v>
       </c>
       <c r="D956" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C956, Levels!B:B, 0), 1, 1)),", ",IF(A956 &lt;&gt; "", """mem"": bit" &amp; B956 &amp; "(" &amp; A956 &amp; "),", ""),"""good"": ",IF(A956 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A956 &lt;&gt; "", A956, -1),", ""bit"": ",IF(B956 &lt;&gt; 0, B956, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C956, Levels!B:B, 0), 1, 1)),", ",IF(A956 &lt;&gt; "", """mem"": bit" &amp; B956 &amp; "(" &amp; A956 &amp; "),", ""),"""good"": ",IF(A956 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A956 &lt;&gt; "", A956, -1),", ""bit"": ",IF(B956 &lt;&gt; "", B956, -1),"},")</f>
         <v>955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
         <v>12</v>
       </c>
       <c r="D957" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C957, Levels!B:B, 0), 1, 1)),", ",IF(A957 &lt;&gt; "", """mem"": bit" &amp; B957 &amp; "(" &amp; A957 &amp; "),", ""),"""good"": ",IF(A957 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A957 &lt;&gt; "", A957, -1),", ""bit"": ",IF(B957 &lt;&gt; 0, B957, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C957, Levels!B:B, 0), 1, 1)),", ",IF(A957 &lt;&gt; "", """mem"": bit" &amp; B957 &amp; "(" &amp; A957 &amp; "),", ""),"""good"": ",IF(A957 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A957 &lt;&gt; "", A957, -1),", ""bit"": ",IF(B957 &lt;&gt; "", B957, -1),"},")</f>
         <v>956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17674,7 +17674,7 @@
         <v>12</v>
       </c>
       <c r="D958" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C958, Levels!B:B, 0), 1, 1)),", ",IF(A958 &lt;&gt; "", """mem"": bit" &amp; B958 &amp; "(" &amp; A958 &amp; "),", ""),"""good"": ",IF(A958 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A958 &lt;&gt; "", A958, -1),", ""bit"": ",IF(B958 &lt;&gt; 0, B958, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C958, Levels!B:B, 0), 1, 1)),", ",IF(A958 &lt;&gt; "", """mem"": bit" &amp; B958 &amp; "(" &amp; A958 &amp; "),", ""),"""good"": ",IF(A958 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A958 &lt;&gt; "", A958, -1),", ""bit"": ",IF(B958 &lt;&gt; "", B958, -1),"},")</f>
         <v>957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17683,7 +17683,7 @@
         <v>12</v>
       </c>
       <c r="D959" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C959, Levels!B:B, 0), 1, 1)),", ",IF(A959 &lt;&gt; "", """mem"": bit" &amp; B959 &amp; "(" &amp; A959 &amp; "),", ""),"""good"": ",IF(A959 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A959 &lt;&gt; "", A959, -1),", ""bit"": ",IF(B959 &lt;&gt; 0, B959, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C959, Levels!B:B, 0), 1, 1)),", ",IF(A959 &lt;&gt; "", """mem"": bit" &amp; B959 &amp; "(" &amp; A959 &amp; "),", ""),"""good"": ",IF(A959 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A959 &lt;&gt; "", A959, -1),", ""bit"": ",IF(B959 &lt;&gt; "", B959, -1),"},")</f>
         <v>958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17692,7 +17692,7 @@
         <v>12</v>
       </c>
       <c r="D960" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C960, Levels!B:B, 0), 1, 1)),", ",IF(A960 &lt;&gt; "", """mem"": bit" &amp; B960 &amp; "(" &amp; A960 &amp; "),", ""),"""good"": ",IF(A960 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A960 &lt;&gt; "", A960, -1),", ""bit"": ",IF(B960 &lt;&gt; 0, B960, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C960, Levels!B:B, 0), 1, 1)),", ",IF(A960 &lt;&gt; "", """mem"": bit" &amp; B960 &amp; "(" &amp; A960 &amp; "),", ""),"""good"": ",IF(A960 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A960 &lt;&gt; "", A960, -1),", ""bit"": ",IF(B960 &lt;&gt; "", B960, -1),"},")</f>
         <v>959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17701,7 +17701,7 @@
         <v>12</v>
       </c>
       <c r="D961" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C961, Levels!B:B, 0), 1, 1)),", ",IF(A961 &lt;&gt; "", """mem"": bit" &amp; B961 &amp; "(" &amp; A961 &amp; "),", ""),"""good"": ",IF(A961 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A961 &lt;&gt; "", A961, -1),", ""bit"": ",IF(B961 &lt;&gt; 0, B961, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C961, Levels!B:B, 0), 1, 1)),", ",IF(A961 &lt;&gt; "", """mem"": bit" &amp; B961 &amp; "(" &amp; A961 &amp; "),", ""),"""good"": ",IF(A961 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A961 &lt;&gt; "", A961, -1),", ""bit"": ",IF(B961 &lt;&gt; "", B961, -1),"},")</f>
         <v>960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
         <v>12</v>
       </c>
       <c r="D962" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C962, Levels!B:B, 0), 1, 1)),", ",IF(A962 &lt;&gt; "", """mem"": bit" &amp; B962 &amp; "(" &amp; A962 &amp; "),", ""),"""good"": ",IF(A962 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A962 &lt;&gt; "", A962, -1),", ""bit"": ",IF(B962 &lt;&gt; 0, B962, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C962, Levels!B:B, 0), 1, 1)),", ",IF(A962 &lt;&gt; "", """mem"": bit" &amp; B962 &amp; "(" &amp; A962 &amp; "),", ""),"""good"": ",IF(A962 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A962 &lt;&gt; "", A962, -1),", ""bit"": ",IF(B962 &lt;&gt; "", B962, -1),"},")</f>
         <v>961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17719,7 +17719,7 @@
         <v>12</v>
       </c>
       <c r="D963" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C963, Levels!B:B, 0), 1, 1)),", ",IF(A963 &lt;&gt; "", """mem"": bit" &amp; B963 &amp; "(" &amp; A963 &amp; "),", ""),"""good"": ",IF(A963 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A963 &lt;&gt; "", A963, -1),", ""bit"": ",IF(B963 &lt;&gt; 0, B963, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C963, Levels!B:B, 0), 1, 1)),", ",IF(A963 &lt;&gt; "", """mem"": bit" &amp; B963 &amp; "(" &amp; A963 &amp; "),", ""),"""good"": ",IF(A963 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A963 &lt;&gt; "", A963, -1),", ""bit"": ",IF(B963 &lt;&gt; "", B963, -1),"},")</f>
         <v>962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17728,7 +17728,7 @@
         <v>12</v>
       </c>
       <c r="D964" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C964, Levels!B:B, 0), 1, 1)),", ",IF(A964 &lt;&gt; "", """mem"": bit" &amp; B964 &amp; "(" &amp; A964 &amp; "),", ""),"""good"": ",IF(A964 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A964 &lt;&gt; "", A964, -1),", ""bit"": ",IF(B964 &lt;&gt; 0, B964, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C964, Levels!B:B, 0), 1, 1)),", ",IF(A964 &lt;&gt; "", """mem"": bit" &amp; B964 &amp; "(" &amp; A964 &amp; "),", ""),"""good"": ",IF(A964 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A964 &lt;&gt; "", A964, -1),", ""bit"": ",IF(B964 &lt;&gt; "", B964, -1),"},")</f>
         <v>963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
         <v>12</v>
       </c>
       <c r="D965" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C965, Levels!B:B, 0), 1, 1)),", ",IF(A965 &lt;&gt; "", """mem"": bit" &amp; B965 &amp; "(" &amp; A965 &amp; "),", ""),"""good"": ",IF(A965 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A965 &lt;&gt; "", A965, -1),", ""bit"": ",IF(B965 &lt;&gt; 0, B965, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C965, Levels!B:B, 0), 1, 1)),", ",IF(A965 &lt;&gt; "", """mem"": bit" &amp; B965 &amp; "(" &amp; A965 &amp; "),", ""),"""good"": ",IF(A965 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A965 &lt;&gt; "", A965, -1),", ""bit"": ",IF(B965 &lt;&gt; "", B965, -1),"},")</f>
         <v>964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17746,7 +17746,7 @@
         <v>12</v>
       </c>
       <c r="D966" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C966, Levels!B:B, 0), 1, 1)),", ",IF(A966 &lt;&gt; "", """mem"": bit" &amp; B966 &amp; "(" &amp; A966 &amp; "),", ""),"""good"": ",IF(A966 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A966 &lt;&gt; "", A966, -1),", ""bit"": ",IF(B966 &lt;&gt; 0, B966, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C966, Levels!B:B, 0), 1, 1)),", ",IF(A966 &lt;&gt; "", """mem"": bit" &amp; B966 &amp; "(" &amp; A966 &amp; "),", ""),"""good"": ",IF(A966 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A966 &lt;&gt; "", A966, -1),", ""bit"": ",IF(B966 &lt;&gt; "", B966, -1),"},")</f>
         <v>965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17755,7 +17755,7 @@
         <v>12</v>
       </c>
       <c r="D967" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C967, Levels!B:B, 0), 1, 1)),", ",IF(A967 &lt;&gt; "", """mem"": bit" &amp; B967 &amp; "(" &amp; A967 &amp; "),", ""),"""good"": ",IF(A967 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A967 &lt;&gt; "", A967, -1),", ""bit"": ",IF(B967 &lt;&gt; 0, B967, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C967, Levels!B:B, 0), 1, 1)),", ",IF(A967 &lt;&gt; "", """mem"": bit" &amp; B967 &amp; "(" &amp; A967 &amp; "),", ""),"""good"": ",IF(A967 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A967 &lt;&gt; "", A967, -1),", ""bit"": ",IF(B967 &lt;&gt; "", B967, -1),"},")</f>
         <v>966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17764,7 +17764,7 @@
         <v>12</v>
       </c>
       <c r="D968" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C968, Levels!B:B, 0), 1, 1)),", ",IF(A968 &lt;&gt; "", """mem"": bit" &amp; B968 &amp; "(" &amp; A968 &amp; "),", ""),"""good"": ",IF(A968 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A968 &lt;&gt; "", A968, -1),", ""bit"": ",IF(B968 &lt;&gt; 0, B968, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C968, Levels!B:B, 0), 1, 1)),", ",IF(A968 &lt;&gt; "", """mem"": bit" &amp; B968 &amp; "(" &amp; A968 &amp; "),", ""),"""good"": ",IF(A968 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A968 &lt;&gt; "", A968, -1),", ""bit"": ",IF(B968 &lt;&gt; "", B968, -1),"},")</f>
         <v>967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
         <v>12</v>
       </c>
       <c r="D969" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C969, Levels!B:B, 0), 1, 1)),", ",IF(A969 &lt;&gt; "", """mem"": bit" &amp; B969 &amp; "(" &amp; A969 &amp; "),", ""),"""good"": ",IF(A969 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A969 &lt;&gt; "", A969, -1),", ""bit"": ",IF(B969 &lt;&gt; 0, B969, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C969, Levels!B:B, 0), 1, 1)),", ",IF(A969 &lt;&gt; "", """mem"": bit" &amp; B969 &amp; "(" &amp; A969 &amp; "),", ""),"""good"": ",IF(A969 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A969 &lt;&gt; "", A969, -1),", ""bit"": ",IF(B969 &lt;&gt; "", B969, -1),"},")</f>
         <v>968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
         <v>12</v>
       </c>
       <c r="D970" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C970, Levels!B:B, 0), 1, 1)),", ",IF(A970 &lt;&gt; "", """mem"": bit" &amp; B970 &amp; "(" &amp; A970 &amp; "),", ""),"""good"": ",IF(A970 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A970 &lt;&gt; "", A970, -1),", ""bit"": ",IF(B970 &lt;&gt; 0, B970, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C970, Levels!B:B, 0), 1, 1)),", ",IF(A970 &lt;&gt; "", """mem"": bit" &amp; B970 &amp; "(" &amp; A970 &amp; "),", ""),"""good"": ",IF(A970 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A970 &lt;&gt; "", A970, -1),", ""bit"": ",IF(B970 &lt;&gt; "", B970, -1),"},")</f>
         <v>969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
         <v>12</v>
       </c>
       <c r="D971" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C971, Levels!B:B, 0), 1, 1)),", ",IF(A971 &lt;&gt; "", """mem"": bit" &amp; B971 &amp; "(" &amp; A971 &amp; "),", ""),"""good"": ",IF(A971 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A971 &lt;&gt; "", A971, -1),", ""bit"": ",IF(B971 &lt;&gt; 0, B971, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C971, Levels!B:B, 0), 1, 1)),", ",IF(A971 &lt;&gt; "", """mem"": bit" &amp; B971 &amp; "(" &amp; A971 &amp; "),", ""),"""good"": ",IF(A971 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A971 &lt;&gt; "", A971, -1),", ""bit"": ",IF(B971 &lt;&gt; "", B971, -1),"},")</f>
         <v>970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
         <v>12</v>
       </c>
       <c r="D972" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C972, Levels!B:B, 0), 1, 1)),", ",IF(A972 &lt;&gt; "", """mem"": bit" &amp; B972 &amp; "(" &amp; A972 &amp; "),", ""),"""good"": ",IF(A972 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A972 &lt;&gt; "", A972, -1),", ""bit"": ",IF(B972 &lt;&gt; 0, B972, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C972, Levels!B:B, 0), 1, 1)),", ",IF(A972 &lt;&gt; "", """mem"": bit" &amp; B972 &amp; "(" &amp; A972 &amp; "),", ""),"""good"": ",IF(A972 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A972 &lt;&gt; "", A972, -1),", ""bit"": ",IF(B972 &lt;&gt; "", B972, -1),"},")</f>
         <v>971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17809,7 +17809,7 @@
         <v>12</v>
       </c>
       <c r="D973" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C973, Levels!B:B, 0), 1, 1)),", ",IF(A973 &lt;&gt; "", """mem"": bit" &amp; B973 &amp; "(" &amp; A973 &amp; "),", ""),"""good"": ",IF(A973 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A973 &lt;&gt; "", A973, -1),", ""bit"": ",IF(B973 &lt;&gt; 0, B973, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C973, Levels!B:B, 0), 1, 1)),", ",IF(A973 &lt;&gt; "", """mem"": bit" &amp; B973 &amp; "(" &amp; A973 &amp; "),", ""),"""good"": ",IF(A973 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A973 &lt;&gt; "", A973, -1),", ""bit"": ",IF(B973 &lt;&gt; "", B973, -1),"},")</f>
         <v>972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17818,7 +17818,7 @@
         <v>12</v>
       </c>
       <c r="D974" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C974, Levels!B:B, 0), 1, 1)),", ",IF(A974 &lt;&gt; "", """mem"": bit" &amp; B974 &amp; "(" &amp; A974 &amp; "),", ""),"""good"": ",IF(A974 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A974 &lt;&gt; "", A974, -1),", ""bit"": ",IF(B974 &lt;&gt; 0, B974, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C974, Levels!B:B, 0), 1, 1)),", ",IF(A974 &lt;&gt; "", """mem"": bit" &amp; B974 &amp; "(" &amp; A974 &amp; "),", ""),"""good"": ",IF(A974 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A974 &lt;&gt; "", A974, -1),", ""bit"": ",IF(B974 &lt;&gt; "", B974, -1),"},")</f>
         <v>973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17827,7 +17827,7 @@
         <v>12</v>
       </c>
       <c r="D975" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C975, Levels!B:B, 0), 1, 1)),", ",IF(A975 &lt;&gt; "", """mem"": bit" &amp; B975 &amp; "(" &amp; A975 &amp; "),", ""),"""good"": ",IF(A975 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A975 &lt;&gt; "", A975, -1),", ""bit"": ",IF(B975 &lt;&gt; 0, B975, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C975, Levels!B:B, 0), 1, 1)),", ",IF(A975 &lt;&gt; "", """mem"": bit" &amp; B975 &amp; "(" &amp; A975 &amp; "),", ""),"""good"": ",IF(A975 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A975 &lt;&gt; "", A975, -1),", ""bit"": ",IF(B975 &lt;&gt; "", B975, -1),"},")</f>
         <v>974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17836,7 +17836,7 @@
         <v>12</v>
       </c>
       <c r="D976" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C976, Levels!B:B, 0), 1, 1)),", ",IF(A976 &lt;&gt; "", """mem"": bit" &amp; B976 &amp; "(" &amp; A976 &amp; "),", ""),"""good"": ",IF(A976 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A976 &lt;&gt; "", A976, -1),", ""bit"": ",IF(B976 &lt;&gt; 0, B976, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C976, Levels!B:B, 0), 1, 1)),", ",IF(A976 &lt;&gt; "", """mem"": bit" &amp; B976 &amp; "(" &amp; A976 &amp; "),", ""),"""good"": ",IF(A976 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A976 &lt;&gt; "", A976, -1),", ""bit"": ",IF(B976 &lt;&gt; "", B976, -1),"},")</f>
         <v>975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17845,7 +17845,7 @@
         <v>12</v>
       </c>
       <c r="D977" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C977, Levels!B:B, 0), 1, 1)),", ",IF(A977 &lt;&gt; "", """mem"": bit" &amp; B977 &amp; "(" &amp; A977 &amp; "),", ""),"""good"": ",IF(A977 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A977 &lt;&gt; "", A977, -1),", ""bit"": ",IF(B977 &lt;&gt; 0, B977, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C977, Levels!B:B, 0), 1, 1)),", ",IF(A977 &lt;&gt; "", """mem"": bit" &amp; B977 &amp; "(" &amp; A977 &amp; "),", ""),"""good"": ",IF(A977 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A977 &lt;&gt; "", A977, -1),", ""bit"": ",IF(B977 &lt;&gt; "", B977, -1),"},")</f>
         <v>976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17854,7 +17854,7 @@
         <v>12</v>
       </c>
       <c r="D978" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C978, Levels!B:B, 0), 1, 1)),", ",IF(A978 &lt;&gt; "", """mem"": bit" &amp; B978 &amp; "(" &amp; A978 &amp; "),", ""),"""good"": ",IF(A978 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A978 &lt;&gt; "", A978, -1),", ""bit"": ",IF(B978 &lt;&gt; 0, B978, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C978, Levels!B:B, 0), 1, 1)),", ",IF(A978 &lt;&gt; "", """mem"": bit" &amp; B978 &amp; "(" &amp; A978 &amp; "),", ""),"""good"": ",IF(A978 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A978 &lt;&gt; "", A978, -1),", ""bit"": ",IF(B978 &lt;&gt; "", B978, -1),"},")</f>
         <v>977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17863,7 +17863,7 @@
         <v>12</v>
       </c>
       <c r="D979" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C979, Levels!B:B, 0), 1, 1)),", ",IF(A979 &lt;&gt; "", """mem"": bit" &amp; B979 &amp; "(" &amp; A979 &amp; "),", ""),"""good"": ",IF(A979 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A979 &lt;&gt; "", A979, -1),", ""bit"": ",IF(B979 &lt;&gt; 0, B979, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C979, Levels!B:B, 0), 1, 1)),", ",IF(A979 &lt;&gt; "", """mem"": bit" &amp; B979 &amp; "(" &amp; A979 &amp; "),", ""),"""good"": ",IF(A979 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A979 &lt;&gt; "", A979, -1),", ""bit"": ",IF(B979 &lt;&gt; "", B979, -1),"},")</f>
         <v>978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17872,7 +17872,7 @@
         <v>12</v>
       </c>
       <c r="D980" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C980, Levels!B:B, 0), 1, 1)),", ",IF(A980 &lt;&gt; "", """mem"": bit" &amp; B980 &amp; "(" &amp; A980 &amp; "),", ""),"""good"": ",IF(A980 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A980 &lt;&gt; "", A980, -1),", ""bit"": ",IF(B980 &lt;&gt; 0, B980, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C980, Levels!B:B, 0), 1, 1)),", ",IF(A980 &lt;&gt; "", """mem"": bit" &amp; B980 &amp; "(" &amp; A980 &amp; "),", ""),"""good"": ",IF(A980 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A980 &lt;&gt; "", A980, -1),", ""bit"": ",IF(B980 &lt;&gt; "", B980, -1),"},")</f>
         <v>979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17881,7 +17881,7 @@
         <v>12</v>
       </c>
       <c r="D981" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C981, Levels!B:B, 0), 1, 1)),", ",IF(A981 &lt;&gt; "", """mem"": bit" &amp; B981 &amp; "(" &amp; A981 &amp; "),", ""),"""good"": ",IF(A981 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A981 &lt;&gt; "", A981, -1),", ""bit"": ",IF(B981 &lt;&gt; 0, B981, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C981, Levels!B:B, 0), 1, 1)),", ",IF(A981 &lt;&gt; "", """mem"": bit" &amp; B981 &amp; "(" &amp; A981 &amp; "),", ""),"""good"": ",IF(A981 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A981 &lt;&gt; "", A981, -1),", ""bit"": ",IF(B981 &lt;&gt; "", B981, -1),"},")</f>
         <v>980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
         <v>12</v>
       </c>
       <c r="D982" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C982, Levels!B:B, 0), 1, 1)),", ",IF(A982 &lt;&gt; "", """mem"": bit" &amp; B982 &amp; "(" &amp; A982 &amp; "),", ""),"""good"": ",IF(A982 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A982 &lt;&gt; "", A982, -1),", ""bit"": ",IF(B982 &lt;&gt; 0, B982, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C982, Levels!B:B, 0), 1, 1)),", ",IF(A982 &lt;&gt; "", """mem"": bit" &amp; B982 &amp; "(" &amp; A982 &amp; "),", ""),"""good"": ",IF(A982 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A982 &lt;&gt; "", A982, -1),", ""bit"": ",IF(B982 &lt;&gt; "", B982, -1),"},")</f>
         <v>981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17899,7 +17899,7 @@
         <v>12</v>
       </c>
       <c r="D983" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C983, Levels!B:B, 0), 1, 1)),", ",IF(A983 &lt;&gt; "", """mem"": bit" &amp; B983 &amp; "(" &amp; A983 &amp; "),", ""),"""good"": ",IF(A983 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A983 &lt;&gt; "", A983, -1),", ""bit"": ",IF(B983 &lt;&gt; 0, B983, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C983, Levels!B:B, 0), 1, 1)),", ",IF(A983 &lt;&gt; "", """mem"": bit" &amp; B983 &amp; "(" &amp; A983 &amp; "),", ""),"""good"": ",IF(A983 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A983 &lt;&gt; "", A983, -1),", ""bit"": ",IF(B983 &lt;&gt; "", B983, -1),"},")</f>
         <v>982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17908,7 +17908,7 @@
         <v>12</v>
       </c>
       <c r="D984" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C984, Levels!B:B, 0), 1, 1)),", ",IF(A984 &lt;&gt; "", """mem"": bit" &amp; B984 &amp; "(" &amp; A984 &amp; "),", ""),"""good"": ",IF(A984 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A984 &lt;&gt; "", A984, -1),", ""bit"": ",IF(B984 &lt;&gt; 0, B984, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C984, Levels!B:B, 0), 1, 1)),", ",IF(A984 &lt;&gt; "", """mem"": bit" &amp; B984 &amp; "(" &amp; A984 &amp; "),", ""),"""good"": ",IF(A984 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A984 &lt;&gt; "", A984, -1),", ""bit"": ",IF(B984 &lt;&gt; "", B984, -1),"},")</f>
         <v>983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17917,7 +17917,7 @@
         <v>12</v>
       </c>
       <c r="D985" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C985, Levels!B:B, 0), 1, 1)),", ",IF(A985 &lt;&gt; "", """mem"": bit" &amp; B985 &amp; "(" &amp; A985 &amp; "),", ""),"""good"": ",IF(A985 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A985 &lt;&gt; "", A985, -1),", ""bit"": ",IF(B985 &lt;&gt; 0, B985, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C985, Levels!B:B, 0), 1, 1)),", ",IF(A985 &lt;&gt; "", """mem"": bit" &amp; B985 &amp; "(" &amp; A985 &amp; "),", ""),"""good"": ",IF(A985 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A985 &lt;&gt; "", A985, -1),", ""bit"": ",IF(B985 &lt;&gt; "", B985, -1),"},")</f>
         <v>984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
         <v>12</v>
       </c>
       <c r="D986" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C986, Levels!B:B, 0), 1, 1)),", ",IF(A986 &lt;&gt; "", """mem"": bit" &amp; B986 &amp; "(" &amp; A986 &amp; "),", ""),"""good"": ",IF(A986 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A986 &lt;&gt; "", A986, -1),", ""bit"": ",IF(B986 &lt;&gt; 0, B986, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C986, Levels!B:B, 0), 1, 1)),", ",IF(A986 &lt;&gt; "", """mem"": bit" &amp; B986 &amp; "(" &amp; A986 &amp; "),", ""),"""good"": ",IF(A986 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A986 &lt;&gt; "", A986, -1),", ""bit"": ",IF(B986 &lt;&gt; "", B986, -1),"},")</f>
         <v>985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
         <v>12</v>
       </c>
       <c r="D987" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C987, Levels!B:B, 0), 1, 1)),", ",IF(A987 &lt;&gt; "", """mem"": bit" &amp; B987 &amp; "(" &amp; A987 &amp; "),", ""),"""good"": ",IF(A987 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A987 &lt;&gt; "", A987, -1),", ""bit"": ",IF(B987 &lt;&gt; 0, B987, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C987, Levels!B:B, 0), 1, 1)),", ",IF(A987 &lt;&gt; "", """mem"": bit" &amp; B987 &amp; "(" &amp; A987 &amp; "),", ""),"""good"": ",IF(A987 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A987 &lt;&gt; "", A987, -1),", ""bit"": ",IF(B987 &lt;&gt; "", B987, -1),"},")</f>
         <v>986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17944,7 +17944,7 @@
         <v>12</v>
       </c>
       <c r="D988" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C988, Levels!B:B, 0), 1, 1)),", ",IF(A988 &lt;&gt; "", """mem"": bit" &amp; B988 &amp; "(" &amp; A988 &amp; "),", ""),"""good"": ",IF(A988 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A988 &lt;&gt; "", A988, -1),", ""bit"": ",IF(B988 &lt;&gt; 0, B988, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C988, Levels!B:B, 0), 1, 1)),", ",IF(A988 &lt;&gt; "", """mem"": bit" &amp; B988 &amp; "(" &amp; A988 &amp; "),", ""),"""good"": ",IF(A988 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A988 &lt;&gt; "", A988, -1),", ""bit"": ",IF(B988 &lt;&gt; "", B988, -1),"},")</f>
         <v>987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17953,7 +17953,7 @@
         <v>12</v>
       </c>
       <c r="D989" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C989, Levels!B:B, 0), 1, 1)),", ",IF(A989 &lt;&gt; "", """mem"": bit" &amp; B989 &amp; "(" &amp; A989 &amp; "),", ""),"""good"": ",IF(A989 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A989 &lt;&gt; "", A989, -1),", ""bit"": ",IF(B989 &lt;&gt; 0, B989, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C989, Levels!B:B, 0), 1, 1)),", ",IF(A989 &lt;&gt; "", """mem"": bit" &amp; B989 &amp; "(" &amp; A989 &amp; "),", ""),"""good"": ",IF(A989 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A989 &lt;&gt; "", A989, -1),", ""bit"": ",IF(B989 &lt;&gt; "", B989, -1),"},")</f>
         <v>988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17962,7 +17962,7 @@
         <v>12</v>
       </c>
       <c r="D990" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C990, Levels!B:B, 0), 1, 1)),", ",IF(A990 &lt;&gt; "", """mem"": bit" &amp; B990 &amp; "(" &amp; A990 &amp; "),", ""),"""good"": ",IF(A990 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A990 &lt;&gt; "", A990, -1),", ""bit"": ",IF(B990 &lt;&gt; 0, B990, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C990, Levels!B:B, 0), 1, 1)),", ",IF(A990 &lt;&gt; "", """mem"": bit" &amp; B990 &amp; "(" &amp; A990 &amp; "),", ""),"""good"": ",IF(A990 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A990 &lt;&gt; "", A990, -1),", ""bit"": ",IF(B990 &lt;&gt; "", B990, -1),"},")</f>
         <v>989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17971,7 +17971,7 @@
         <v>12</v>
       </c>
       <c r="D991" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C991, Levels!B:B, 0), 1, 1)),", ",IF(A991 &lt;&gt; "", """mem"": bit" &amp; B991 &amp; "(" &amp; A991 &amp; "),", ""),"""good"": ",IF(A991 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A991 &lt;&gt; "", A991, -1),", ""bit"": ",IF(B991 &lt;&gt; 0, B991, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C991, Levels!B:B, 0), 1, 1)),", ",IF(A991 &lt;&gt; "", """mem"": bit" &amp; B991 &amp; "(" &amp; A991 &amp; "),", ""),"""good"": ",IF(A991 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A991 &lt;&gt; "", A991, -1),", ""bit"": ",IF(B991 &lt;&gt; "", B991, -1),"},")</f>
         <v>990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
         <v>12</v>
       </c>
       <c r="D992" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C992, Levels!B:B, 0), 1, 1)),", ",IF(A992 &lt;&gt; "", """mem"": bit" &amp; B992 &amp; "(" &amp; A992 &amp; "),", ""),"""good"": ",IF(A992 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A992 &lt;&gt; "", A992, -1),", ""bit"": ",IF(B992 &lt;&gt; 0, B992, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C992, Levels!B:B, 0), 1, 1)),", ",IF(A992 &lt;&gt; "", """mem"": bit" &amp; B992 &amp; "(" &amp; A992 &amp; "),", ""),"""good"": ",IF(A992 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A992 &lt;&gt; "", A992, -1),", ""bit"": ",IF(B992 &lt;&gt; "", B992, -1),"},")</f>
         <v>991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
         <v>12</v>
       </c>
       <c r="D993" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C993, Levels!B:B, 0), 1, 1)),", ",IF(A993 &lt;&gt; "", """mem"": bit" &amp; B993 &amp; "(" &amp; A993 &amp; "),", ""),"""good"": ",IF(A993 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A993 &lt;&gt; "", A993, -1),", ""bit"": ",IF(B993 &lt;&gt; 0, B993, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C993, Levels!B:B, 0), 1, 1)),", ",IF(A993 &lt;&gt; "", """mem"": bit" &amp; B993 &amp; "(" &amp; A993 &amp; "),", ""),"""good"": ",IF(A993 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A993 &lt;&gt; "", A993, -1),", ""bit"": ",IF(B993 &lt;&gt; "", B993, -1),"},")</f>
         <v>992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
         <v>12</v>
       </c>
       <c r="D994" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C994, Levels!B:B, 0), 1, 1)),", ",IF(A994 &lt;&gt; "", """mem"": bit" &amp; B994 &amp; "(" &amp; A994 &amp; "),", ""),"""good"": ",IF(A994 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A994 &lt;&gt; "", A994, -1),", ""bit"": ",IF(B994 &lt;&gt; 0, B994, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C994, Levels!B:B, 0), 1, 1)),", ",IF(A994 &lt;&gt; "", """mem"": bit" &amp; B994 &amp; "(" &amp; A994 &amp; "),", ""),"""good"": ",IF(A994 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A994 &lt;&gt; "", A994, -1),", ""bit"": ",IF(B994 &lt;&gt; "", B994, -1),"},")</f>
         <v>993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18007,7 +18007,7 @@
         <v>12</v>
       </c>
       <c r="D995" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C995, Levels!B:B, 0), 1, 1)),", ",IF(A995 &lt;&gt; "", """mem"": bit" &amp; B995 &amp; "(" &amp; A995 &amp; "),", ""),"""good"": ",IF(A995 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A995 &lt;&gt; "", A995, -1),", ""bit"": ",IF(B995 &lt;&gt; 0, B995, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C995, Levels!B:B, 0), 1, 1)),", ",IF(A995 &lt;&gt; "", """mem"": bit" &amp; B995 &amp; "(" &amp; A995 &amp; "),", ""),"""good"": ",IF(A995 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A995 &lt;&gt; "", A995, -1),", ""bit"": ",IF(B995 &lt;&gt; "", B995, -1),"},")</f>
         <v>994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18016,7 +18016,7 @@
         <v>12</v>
       </c>
       <c r="D996" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C996, Levels!B:B, 0), 1, 1)),", ",IF(A996 &lt;&gt; "", """mem"": bit" &amp; B996 &amp; "(" &amp; A996 &amp; "),", ""),"""good"": ",IF(A996 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A996 &lt;&gt; "", A996, -1),", ""bit"": ",IF(B996 &lt;&gt; 0, B996, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C996, Levels!B:B, 0), 1, 1)),", ",IF(A996 &lt;&gt; "", """mem"": bit" &amp; B996 &amp; "(" &amp; A996 &amp; "),", ""),"""good"": ",IF(A996 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A996 &lt;&gt; "", A996, -1),", ""bit"": ",IF(B996 &lt;&gt; "", B996, -1),"},")</f>
         <v>995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
         <v>12</v>
       </c>
       <c r="D997" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C997, Levels!B:B, 0), 1, 1)),", ",IF(A997 &lt;&gt; "", """mem"": bit" &amp; B997 &amp; "(" &amp; A997 &amp; "),", ""),"""good"": ",IF(A997 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A997 &lt;&gt; "", A997, -1),", ""bit"": ",IF(B997 &lt;&gt; 0, B997, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C997, Levels!B:B, 0), 1, 1)),", ",IF(A997 &lt;&gt; "", """mem"": bit" &amp; B997 &amp; "(" &amp; A997 &amp; "),", ""),"""good"": ",IF(A997 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A997 &lt;&gt; "", A997, -1),", ""bit"": ",IF(B997 &lt;&gt; "", B997, -1),"},")</f>
         <v>996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18034,7 +18034,7 @@
         <v>12</v>
       </c>
       <c r="D998" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C998, Levels!B:B, 0), 1, 1)),", ",IF(A998 &lt;&gt; "", """mem"": bit" &amp; B998 &amp; "(" &amp; A998 &amp; "),", ""),"""good"": ",IF(A998 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A998 &lt;&gt; "", A998, -1),", ""bit"": ",IF(B998 &lt;&gt; 0, B998, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C998, Levels!B:B, 0), 1, 1)),", ",IF(A998 &lt;&gt; "", """mem"": bit" &amp; B998 &amp; "(" &amp; A998 &amp; "),", ""),"""good"": ",IF(A998 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A998 &lt;&gt; "", A998, -1),", ""bit"": ",IF(B998 &lt;&gt; "", B998, -1),"},")</f>
         <v>997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18043,7 +18043,7 @@
         <v>12</v>
       </c>
       <c r="D999" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C999, Levels!B:B, 0), 1, 1)),", ",IF(A999 &lt;&gt; "", """mem"": bit" &amp; B999 &amp; "(" &amp; A999 &amp; "),", ""),"""good"": ",IF(A999 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A999 &lt;&gt; "", A999, -1),", ""bit"": ",IF(B999 &lt;&gt; 0, B999, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C999, Levels!B:B, 0), 1, 1)),", ",IF(A999 &lt;&gt; "", """mem"": bit" &amp; B999 &amp; "(" &amp; A999 &amp; "),", ""),"""good"": ",IF(A999 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A999 &lt;&gt; "", A999, -1),", ""bit"": ",IF(B999 &lt;&gt; "", B999, -1),"},")</f>
         <v>998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18052,7 +18052,7 @@
         <v>12</v>
       </c>
       <c r="D1000" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C1000, Levels!B:B, 0), 1, 1)),", ",IF(A1000 &lt;&gt; "", """mem"": bit" &amp; B1000 &amp; "(" &amp; A1000 &amp; "),", ""),"""good"": ",IF(A1000 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A1000 &lt;&gt; "", A1000, -1),", ""bit"": ",IF(B1000 &lt;&gt; 0, B1000, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C1000, Levels!B:B, 0), 1, 1)),", ",IF(A1000 &lt;&gt; "", """mem"": bit" &amp; B1000 &amp; "(" &amp; A1000 &amp; "),", ""),"""good"": ",IF(A1000 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A1000 &lt;&gt; "", A1000, -1),", ""bit"": ",IF(B1000 &lt;&gt; "", B1000, -1),"},")</f>
         <v>999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
         <v>12</v>
       </c>
       <c r="D1001" s="0" t="str">
-        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C1001, Levels!B:B, 0), 1, 1)),", ",IF(A1001 &lt;&gt; "", """mem"": bit" &amp; B1001 &amp; "(" &amp; A1001 &amp; "),", ""),"""good"": ",IF(A1001 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A1001 &lt;&gt; "", A1001, -1),", ""bit"": ",IF(B1001 &lt;&gt; 0, B1001, -1),"},")</f>
+        <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C1001, Levels!B:B, 0), 1, 1)),", ",IF(A1001 &lt;&gt; "", """mem"": bit" &amp; B1001 &amp; "(" &amp; A1001 &amp; "),", ""),"""good"": ",IF(A1001 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A1001 &lt;&gt; "", A1001, -1),", ""bit"": ",IF(B1001 &lt;&gt; "", B1001, -1),"},")</f>
         <v>1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>

--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="130">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -235,6 +235,30 @@
     <t xml:space="preserve">MenhirArea2</t>
   </si>
   <si>
+    <t xml:space="preserve">788950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenhirArea3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78402C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadDreamsArea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the Cave of Bad Dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave of Bad Dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">788148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadDreamsArea2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
@@ -350,6 +374,27 @@
   </si>
   <si>
     <t xml:space="preserve">0x2249a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249e8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249eb</t>
   </si>
   <si>
     <t xml:space="preserve">Level ID</t>
@@ -581,7 +626,7 @@
       <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -611,7 +656,7 @@
       </c>
       <c r="H1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
-        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
+        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x788950: { "id": 0x788950, "areaName": "MenhirArea3", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78402C: { "id": 0x78402C, "areaName": "BadDreamsArea1", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },0x788148: { "id": 0x788148, "areaName": "BadDreamsArea2", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,13 +1056,58 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="4"/>
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A24,": { ""id"": ","0x", A24,", ""areaName"": """,B24,""", ""displayName"": """,C24,""", ""levelName"": """,D24,""" },")</f>
+        <v>0x788950: { "id": 0x788950, "areaName": "MenhirArea3", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A25,": { ""id"": ","0x", A25,", ""areaName"": """,B25,""", ""displayName"": """,C25,""", ""levelName"": """,D25,""" },")</f>
+        <v>0x78402C: { "id": 0x78402C, "areaName": "BadDreamsArea1", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="4"/>
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A26,": { ""id"": ","0x", A26,", ""areaName"": """,B26,""", ""displayName"": """,C26,""", ""levelName"": """,D26,""" },")</f>
+        <v>0x788148: { "id": 0x788148, "areaName": "BadDreamsArea2", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="4"/>
@@ -4013,10 +4103,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -4028,22 +4118,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -4119,7 +4209,7 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C3:C1002, "=" &amp; B4)</f>
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C3:C83, "=" &amp; B4)</f>
@@ -4324,18 +4414,26 @@
         <f aca="false">ROW()-1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C11:C1010, "=" &amp; B12)</f>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C11:C91, "=" &amp; B12)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A12,": { ""id"": ",A12,", ""name"": """,B12,""", ""lums"": ",C12,", ""cages"": ",D12," },")</f>
-        <v>11: { "id": 11, "name": "", "lums": , "cages":  },</v>
+        <v>11: { "id": 11, "name": "Cave of Bad Dreams", "lums": 50, "cages": 0 },</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,12 +7833,12 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C267" activeCellId="0" sqref="C267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7749,10 +7847,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -7765,12 +7863,12 @@
       </c>
       <c r="H1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},217: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},218: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},219: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},220: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},221: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},222: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},223: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},224: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},225: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},226: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},227: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},228: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},229: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},230: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},231: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},232: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},233: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},234: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},235: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},236: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},237: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},238: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},239: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},240: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},241: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},242: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},243: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},244: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},245: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},246: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},247: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},248: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},249: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},250: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},251: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},252: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},253: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},254: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},255: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},256: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},257: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},258: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},259: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},260: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},261: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},262: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},263: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},264: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},265: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 11, "mem": bit6(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 6},217: { "levelId": 11, "mem": bit7(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 7},218: { "levelId": 11, "mem": bit0(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 0},219: { "levelId": 11, "mem": bit1(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 1},220: { "levelId": 11, "mem": bit2(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 2},221: { "levelId": 11, "mem": bit3(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 3},222: { "levelId": 11, "mem": bit4(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 4},223: { "levelId": 11, "mem": bit5(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 5},224: { "levelId": 11, "mem": bit6(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 6},225: { "levelId": 11, "mem": bit7(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 7},226: { "levelId": 11, "mem": bit0(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 0},227: { "levelId": 11, "mem": bit1(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 1},228: { "levelId": 11, "mem": bit2(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 2},229: { "levelId": 11, "mem": bit3(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 3},230: { "levelId": 11, "mem": bit4(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 4},231: { "levelId": 11, "mem": bit5(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 5},232: { "levelId": 11, "mem": bit6(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 6},233: { "levelId": 11, "mem": bit7(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 7},234: { "levelId": 11, "mem": bit0(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 0},235: { "levelId": 11, "mem": bit1(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 1},236: { "levelId": 11, "mem": bit2(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 2},237: { "levelId": 11, "mem": bit3(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 3},238: { "levelId": 11, "mem": bit4(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 4},239: { "levelId": 11, "mem": bit5(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 5},240: { "levelId": 11, "mem": bit6(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 6},241: { "levelId": 11, "mem": bit7(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 7},242: { "levelId": 11, "mem": bit0(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 0},243: { "levelId": 11, "mem": bit1(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 1},244: { "levelId": 11, "mem": bit2(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 2},245: { "levelId": 11, "mem": bit3(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 3},246: { "levelId": 11, "mem": bit4(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 4},247: { "levelId": 11, "mem": bit5(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 5},248: { "levelId": 11, "mem": bit6(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 6},249: { "levelId": 11, "mem": bit7(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 7},250: { "levelId": 11, "mem": bit0(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 0},251: { "levelId": 11, "mem": bit1(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 1},252: { "levelId": 11, "mem": bit2(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 2},253: { "levelId": 11, "mem": bit3(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 3},254: { "levelId": 11, "mem": bit4(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 4},255: { "levelId": 11, "mem": bit5(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 5},256: { "levelId": 11, "mem": bit6(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 6},257: { "levelId": 11, "mem": bit7(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 7},258: { "levelId": 11, "mem": bit0(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 0},259: { "levelId": 11, "mem": bit1(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 1},260: { "levelId": 11, "mem": bit2(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 2},261: { "levelId": 11, "mem": bit3(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 3},262: { "levelId": 11, "mem": bit4(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 4},263: { "levelId": 11, "mem": bit5(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 5},264: { "levelId": 11, "mem": bit6(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 6},265: { "levelId": 11, "mem": bit7(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 7},266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7785,7 +7883,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -7801,7 +7899,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7817,7 +7915,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7833,7 +7931,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -7849,7 +7947,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -7865,7 +7963,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -7881,7 +7979,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -7897,7 +7995,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -7912,7 +8010,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -7927,7 +8025,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -7942,7 +8040,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -7957,7 +8055,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -7972,7 +8070,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -7987,7 +8085,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -8002,7 +8100,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
@@ -8017,7 +8115,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
@@ -8032,7 +8130,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
@@ -8047,7 +8145,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
@@ -8062,7 +8160,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -8077,7 +8175,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -8092,7 +8190,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -8107,7 +8205,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
@@ -8122,7 +8220,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
@@ -8137,7 +8235,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
@@ -8152,7 +8250,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>6</v>
@@ -8167,7 +8265,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>7</v>
@@ -8182,7 +8280,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8197,7 +8295,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -8212,7 +8310,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -8227,7 +8325,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -8242,7 +8340,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
@@ -8257,7 +8355,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>5</v>
@@ -8272,7 +8370,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6</v>
@@ -8287,7 +8385,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>7</v>
@@ -8302,7 +8400,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -8317,7 +8415,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -8332,7 +8430,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
@@ -8347,7 +8445,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3</v>
@@ -8362,7 +8460,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4</v>
@@ -8377,7 +8475,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>5</v>
@@ -8392,7 +8490,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6</v>
@@ -8407,7 +8505,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>7</v>
@@ -8422,7 +8520,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -8437,7 +8535,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -8452,7 +8550,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
@@ -8467,7 +8565,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>3</v>
@@ -8482,7 +8580,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4</v>
@@ -8497,7 +8595,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5</v>
@@ -8512,7 +8610,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6</v>
@@ -8527,7 +8625,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>7</v>
@@ -8542,7 +8640,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -8557,7 +8655,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -8572,7 +8670,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -8587,7 +8685,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -8602,7 +8700,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>4</v>
@@ -8617,7 +8715,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -8632,7 +8730,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>6</v>
@@ -8647,7 +8745,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>7</v>
@@ -8662,7 +8760,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -8677,7 +8775,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -8692,7 +8790,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8707,7 +8805,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8722,7 +8820,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8737,7 +8835,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8752,7 +8850,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8767,7 +8865,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>7</v>
@@ -8782,7 +8880,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -8797,7 +8895,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -8812,7 +8910,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -8827,7 +8925,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -8842,7 +8940,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -8857,7 +8955,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -8872,7 +8970,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -8887,7 +8985,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>7</v>
@@ -8902,7 +9000,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -8917,7 +9015,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -8932,7 +9030,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2</v>
@@ -8947,7 +9045,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>3</v>
@@ -8962,7 +9060,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>4</v>
@@ -8977,7 +9075,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5</v>
@@ -8992,7 +9090,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -9007,7 +9105,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -9022,7 +9120,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -9037,7 +9135,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -9052,7 +9150,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2</v>
@@ -9067,7 +9165,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>3</v>
@@ -9082,7 +9180,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>4</v>
@@ -9097,7 +9195,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>5</v>
@@ -9112,7 +9210,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -9127,7 +9225,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -9142,7 +9240,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -9157,7 +9255,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
@@ -9172,7 +9270,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2</v>
@@ -9187,7 +9285,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>3</v>
@@ -9202,7 +9300,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4</v>
@@ -9217,7 +9315,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>5</v>
@@ -9232,7 +9330,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -9247,7 +9345,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -9262,7 +9360,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -9277,7 +9375,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -9292,7 +9390,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -9307,7 +9405,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>3</v>
@@ -9322,7 +9420,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -9337,7 +9435,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5</v>
@@ -9352,7 +9450,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -9367,7 +9465,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -9382,7 +9480,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -9397,7 +9495,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -9412,7 +9510,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -9427,7 +9525,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>3</v>
@@ -9442,7 +9540,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -9457,7 +9555,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>5</v>
@@ -9472,7 +9570,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -9487,7 +9585,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -9502,7 +9600,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -9517,7 +9615,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
@@ -9532,7 +9630,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2</v>
@@ -9547,7 +9645,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>3</v>
@@ -9562,7 +9660,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>4</v>
@@ -9577,7 +9675,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>5</v>
@@ -9592,7 +9690,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -9607,7 +9705,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -9622,7 +9720,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -9637,7 +9735,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -9652,7 +9750,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -9667,7 +9765,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -9682,7 +9780,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9697,7 +9795,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9712,7 +9810,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>7</v>
@@ -9727,7 +9825,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -9742,7 +9840,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
@@ -9757,7 +9855,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -9772,7 +9870,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -9787,7 +9885,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -9802,7 +9900,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9817,7 +9915,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>3</v>
@@ -9832,7 +9930,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>4</v>
@@ -9847,7 +9945,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>5</v>
@@ -9862,7 +9960,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>6</v>
@@ -9877,7 +9975,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>7</v>
@@ -9892,7 +9990,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>7</v>
@@ -9907,7 +10005,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -9922,7 +10020,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -9937,7 +10035,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -9952,7 +10050,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>5</v>
@@ -9967,7 +10065,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>6</v>
@@ -9982,7 +10080,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9997,7 +10095,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -10012,7 +10110,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1</v>
@@ -10027,7 +10125,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2</v>
@@ -10042,7 +10140,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>3</v>
@@ -10057,7 +10155,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>4</v>
@@ -10072,7 +10170,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>5</v>
@@ -10087,7 +10185,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>6</v>
@@ -10102,7 +10200,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -10117,7 +10215,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -10132,7 +10230,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
@@ -10147,7 +10245,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>6</v>
@@ -10162,7 +10260,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>7</v>
@@ -10177,7 +10275,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -10192,7 +10290,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -10207,7 +10305,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2</v>
@@ -10222,7 +10320,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>6</v>
@@ -10237,7 +10335,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>7</v>
@@ -10252,7 +10350,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>0</v>
@@ -10267,7 +10365,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1</v>
@@ -10282,7 +10380,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2</v>
@@ -10297,7 +10395,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>3</v>
@@ -10312,7 +10410,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>4</v>
@@ -10327,7 +10425,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2</v>
@@ -10342,7 +10440,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>3</v>
@@ -10357,7 +10455,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>4</v>
@@ -10372,7 +10470,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>5</v>
@@ -10387,7 +10485,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>6</v>
@@ -10402,7 +10500,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>7</v>
@@ -10417,7 +10515,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -10432,7 +10530,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1</v>
@@ -10447,7 +10545,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -10462,7 +10560,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -10477,7 +10575,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -10492,7 +10590,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>5</v>
@@ -10507,7 +10605,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>6</v>
@@ -10522,7 +10620,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>7</v>
@@ -10537,7 +10635,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -10552,7 +10650,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>1</v>
@@ -10567,7 +10665,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -10582,7 +10680,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3</v>
@@ -10597,7 +10695,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -10612,7 +10710,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>5</v>
@@ -10627,7 +10725,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>6</v>
@@ -10642,7 +10740,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>7</v>
@@ -10657,7 +10755,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -10672,7 +10770,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1</v>
@@ -10687,7 +10785,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2</v>
@@ -10702,7 +10800,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>3</v>
@@ -10717,7 +10815,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>4</v>
@@ -10732,7 +10830,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2</v>
@@ -10747,7 +10845,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>3</v>
@@ -10762,7 +10860,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>4</v>
@@ -10777,7 +10875,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>5</v>
@@ -10792,7 +10890,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>6</v>
@@ -10807,7 +10905,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>1</v>
@@ -10822,7 +10920,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>5</v>
@@ -10837,7 +10935,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>6</v>
@@ -10852,7 +10950,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>7</v>
@@ -10867,7 +10965,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
@@ -10882,7 +10980,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>3</v>
@@ -10897,7 +10995,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>5</v>
@@ -10912,7 +11010,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>6</v>
@@ -10927,7 +11025,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>7</v>
@@ -10942,7 +11040,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0</v>
@@ -10957,7 +11055,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>1</v>
@@ -10972,7 +11070,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2</v>
@@ -10987,7 +11085,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>4</v>
@@ -11001,453 +11099,753 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C217" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C217, Levels!B:B, 0), 1, 1)),", ",IF(A217 &lt;&gt; "", """mem"": bit" &amp; B217 &amp; "(" &amp; A217 &amp; "),", ""),"""good"": ",IF(A217 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A217 &lt;&gt; "", A217, -1),", ""bit"": ",IF(B217 &lt;&gt; "", B217, -1),"},")</f>
-        <v>216: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>216: { "levelId": 11, "mem": bit6(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 6},</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C218" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C218, Levels!B:B, 0), 1, 1)),", ",IF(A218 &lt;&gt; "", """mem"": bit" &amp; B218 &amp; "(" &amp; A218 &amp; "),", ""),"""good"": ",IF(A218 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A218 &lt;&gt; "", A218, -1),", ""bit"": ",IF(B218 &lt;&gt; "", B218, -1),"},")</f>
-        <v>217: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>217: { "levelId": 11, "mem": bit7(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 7},</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C219" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C219, Levels!B:B, 0), 1, 1)),", ",IF(A219 &lt;&gt; "", """mem"": bit" &amp; B219 &amp; "(" &amp; A219 &amp; "),", ""),"""good"": ",IF(A219 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A219 &lt;&gt; "", A219, -1),", ""bit"": ",IF(B219 &lt;&gt; "", B219, -1),"},")</f>
-        <v>218: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>218: { "levelId": 11, "mem": bit0(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 0},</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C220" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C220, Levels!B:B, 0), 1, 1)),", ",IF(A220 &lt;&gt; "", """mem"": bit" &amp; B220 &amp; "(" &amp; A220 &amp; "),", ""),"""good"": ",IF(A220 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A220 &lt;&gt; "", A220, -1),", ""bit"": ",IF(B220 &lt;&gt; "", B220, -1),"},")</f>
-        <v>219: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>219: { "levelId": 11, "mem": bit1(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 1},</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C221" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C221, Levels!B:B, 0), 1, 1)),", ",IF(A221 &lt;&gt; "", """mem"": bit" &amp; B221 &amp; "(" &amp; A221 &amp; "),", ""),"""good"": ",IF(A221 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A221 &lt;&gt; "", A221, -1),", ""bit"": ",IF(B221 &lt;&gt; "", B221, -1),"},")</f>
-        <v>220: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>220: { "levelId": 11, "mem": bit2(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 2},</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C222" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C222, Levels!B:B, 0), 1, 1)),", ",IF(A222 &lt;&gt; "", """mem"": bit" &amp; B222 &amp; "(" &amp; A222 &amp; "),", ""),"""good"": ",IF(A222 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A222 &lt;&gt; "", A222, -1),", ""bit"": ",IF(B222 &lt;&gt; "", B222, -1),"},")</f>
-        <v>221: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>221: { "levelId": 11, "mem": bit3(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 3},</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C223" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C223, Levels!B:B, 0), 1, 1)),", ",IF(A223 &lt;&gt; "", """mem"": bit" &amp; B223 &amp; "(" &amp; A223 &amp; "),", ""),"""good"": ",IF(A223 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A223 &lt;&gt; "", A223, -1),", ""bit"": ",IF(B223 &lt;&gt; "", B223, -1),"},")</f>
-        <v>222: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>222: { "levelId": 11, "mem": bit4(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 4},</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C224" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C224, Levels!B:B, 0), 1, 1)),", ",IF(A224 &lt;&gt; "", """mem"": bit" &amp; B224 &amp; "(" &amp; A224 &amp; "),", ""),"""good"": ",IF(A224 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A224 &lt;&gt; "", A224, -1),", ""bit"": ",IF(B224 &lt;&gt; "", B224, -1),"},")</f>
-        <v>223: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>223: { "levelId": 11, "mem": bit5(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 5},</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C225" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C225, Levels!B:B, 0), 1, 1)),", ",IF(A225 &lt;&gt; "", """mem"": bit" &amp; B225 &amp; "(" &amp; A225 &amp; "),", ""),"""good"": ",IF(A225 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A225 &lt;&gt; "", A225, -1),", ""bit"": ",IF(B225 &lt;&gt; "", B225, -1),"},")</f>
-        <v>224: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>224: { "levelId": 11, "mem": bit6(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 6},</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C226" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C226, Levels!B:B, 0), 1, 1)),", ",IF(A226 &lt;&gt; "", """mem"": bit" &amp; B226 &amp; "(" &amp; A226 &amp; "),", ""),"""good"": ",IF(A226 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A226 &lt;&gt; "", A226, -1),", ""bit"": ",IF(B226 &lt;&gt; "", B226, -1),"},")</f>
-        <v>225: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>225: { "levelId": 11, "mem": bit7(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 7},</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C227" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C227, Levels!B:B, 0), 1, 1)),", ",IF(A227 &lt;&gt; "", """mem"": bit" &amp; B227 &amp; "(" &amp; A227 &amp; "),", ""),"""good"": ",IF(A227 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A227 &lt;&gt; "", A227, -1),", ""bit"": ",IF(B227 &lt;&gt; "", B227, -1),"},")</f>
-        <v>226: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>226: { "levelId": 11, "mem": bit0(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 0},</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C228" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C228, Levels!B:B, 0), 1, 1)),", ",IF(A228 &lt;&gt; "", """mem"": bit" &amp; B228 &amp; "(" &amp; A228 &amp; "),", ""),"""good"": ",IF(A228 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A228 &lt;&gt; "", A228, -1),", ""bit"": ",IF(B228 &lt;&gt; "", B228, -1),"},")</f>
-        <v>227: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>227: { "levelId": 11, "mem": bit1(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 1},</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C229" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C229, Levels!B:B, 0), 1, 1)),", ",IF(A229 &lt;&gt; "", """mem"": bit" &amp; B229 &amp; "(" &amp; A229 &amp; "),", ""),"""good"": ",IF(A229 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A229 &lt;&gt; "", A229, -1),", ""bit"": ",IF(B229 &lt;&gt; "", B229, -1),"},")</f>
-        <v>228: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>228: { "levelId": 11, "mem": bit2(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 2},</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C230" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C230, Levels!B:B, 0), 1, 1)),", ",IF(A230 &lt;&gt; "", """mem"": bit" &amp; B230 &amp; "(" &amp; A230 &amp; "),", ""),"""good"": ",IF(A230 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A230 &lt;&gt; "", A230, -1),", ""bit"": ",IF(B230 &lt;&gt; "", B230, -1),"},")</f>
-        <v>229: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>229: { "levelId": 11, "mem": bit3(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 3},</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C231" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C231, Levels!B:B, 0), 1, 1)),", ",IF(A231 &lt;&gt; "", """mem"": bit" &amp; B231 &amp; "(" &amp; A231 &amp; "),", ""),"""good"": ",IF(A231 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A231 &lt;&gt; "", A231, -1),", ""bit"": ",IF(B231 &lt;&gt; "", B231, -1),"},")</f>
-        <v>230: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>230: { "levelId": 11, "mem": bit4(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 4},</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C232" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C232, Levels!B:B, 0), 1, 1)),", ",IF(A232 &lt;&gt; "", """mem"": bit" &amp; B232 &amp; "(" &amp; A232 &amp; "),", ""),"""good"": ",IF(A232 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A232 &lt;&gt; "", A232, -1),", ""bit"": ",IF(B232 &lt;&gt; "", B232, -1),"},")</f>
-        <v>231: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>231: { "levelId": 11, "mem": bit5(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 5},</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C233" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C233, Levels!B:B, 0), 1, 1)),", ",IF(A233 &lt;&gt; "", """mem"": bit" &amp; B233 &amp; "(" &amp; A233 &amp; "),", ""),"""good"": ",IF(A233 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A233 &lt;&gt; "", A233, -1),", ""bit"": ",IF(B233 &lt;&gt; "", B233, -1),"},")</f>
-        <v>232: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>232: { "levelId": 11, "mem": bit6(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 6},</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C234" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C234, Levels!B:B, 0), 1, 1)),", ",IF(A234 &lt;&gt; "", """mem"": bit" &amp; B234 &amp; "(" &amp; A234 &amp; "),", ""),"""good"": ",IF(A234 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A234 &lt;&gt; "", A234, -1),", ""bit"": ",IF(B234 &lt;&gt; "", B234, -1),"},")</f>
-        <v>233: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>233: { "levelId": 11, "mem": bit7(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 7},</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C235" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C235, Levels!B:B, 0), 1, 1)),", ",IF(A235 &lt;&gt; "", """mem"": bit" &amp; B235 &amp; "(" &amp; A235 &amp; "),", ""),"""good"": ",IF(A235 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A235 &lt;&gt; "", A235, -1),", ""bit"": ",IF(B235 &lt;&gt; "", B235, -1),"},")</f>
-        <v>234: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>234: { "levelId": 11, "mem": bit0(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 0},</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C236" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C236, Levels!B:B, 0), 1, 1)),", ",IF(A236 &lt;&gt; "", """mem"": bit" &amp; B236 &amp; "(" &amp; A236 &amp; "),", ""),"""good"": ",IF(A236 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A236 &lt;&gt; "", A236, -1),", ""bit"": ",IF(B236 &lt;&gt; "", B236, -1),"},")</f>
-        <v>235: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>235: { "levelId": 11, "mem": bit1(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 1},</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C237" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C237, Levels!B:B, 0), 1, 1)),", ",IF(A237 &lt;&gt; "", """mem"": bit" &amp; B237 &amp; "(" &amp; A237 &amp; "),", ""),"""good"": ",IF(A237 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A237 &lt;&gt; "", A237, -1),", ""bit"": ",IF(B237 &lt;&gt; "", B237, -1),"},")</f>
-        <v>236: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>236: { "levelId": 11, "mem": bit2(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 2},</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C238" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C238, Levels!B:B, 0), 1, 1)),", ",IF(A238 &lt;&gt; "", """mem"": bit" &amp; B238 &amp; "(" &amp; A238 &amp; "),", ""),"""good"": ",IF(A238 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A238 &lt;&gt; "", A238, -1),", ""bit"": ",IF(B238 &lt;&gt; "", B238, -1),"},")</f>
-        <v>237: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>237: { "levelId": 11, "mem": bit3(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 3},</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C239" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C239, Levels!B:B, 0), 1, 1)),", ",IF(A239 &lt;&gt; "", """mem"": bit" &amp; B239 &amp; "(" &amp; A239 &amp; "),", ""),"""good"": ",IF(A239 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A239 &lt;&gt; "", A239, -1),", ""bit"": ",IF(B239 &lt;&gt; "", B239, -1),"},")</f>
-        <v>238: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>238: { "levelId": 11, "mem": bit4(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 4},</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C240" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C240, Levels!B:B, 0), 1, 1)),", ",IF(A240 &lt;&gt; "", """mem"": bit" &amp; B240 &amp; "(" &amp; A240 &amp; "),", ""),"""good"": ",IF(A240 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A240 &lt;&gt; "", A240, -1),", ""bit"": ",IF(B240 &lt;&gt; "", B240, -1),"},")</f>
-        <v>239: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>239: { "levelId": 11, "mem": bit5(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 5},</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C241" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C241, Levels!B:B, 0), 1, 1)),", ",IF(A241 &lt;&gt; "", """mem"": bit" &amp; B241 &amp; "(" &amp; A241 &amp; "),", ""),"""good"": ",IF(A241 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A241 &lt;&gt; "", A241, -1),", ""bit"": ",IF(B241 &lt;&gt; "", B241, -1),"},")</f>
-        <v>240: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>240: { "levelId": 11, "mem": bit6(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 6},</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C242" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C242, Levels!B:B, 0), 1, 1)),", ",IF(A242 &lt;&gt; "", """mem"": bit" &amp; B242 &amp; "(" &amp; A242 &amp; "),", ""),"""good"": ",IF(A242 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A242 &lt;&gt; "", A242, -1),", ""bit"": ",IF(B242 &lt;&gt; "", B242, -1),"},")</f>
-        <v>241: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>241: { "levelId": 11, "mem": bit7(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 7},</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C243" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D243" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C243, Levels!B:B, 0), 1, 1)),", ",IF(A243 &lt;&gt; "", """mem"": bit" &amp; B243 &amp; "(" &amp; A243 &amp; "),", ""),"""good"": ",IF(A243 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A243 &lt;&gt; "", A243, -1),", ""bit"": ",IF(B243 &lt;&gt; "", B243, -1),"},")</f>
-        <v>242: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>242: { "levelId": 11, "mem": bit0(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 0},</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C244" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D244" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C244, Levels!B:B, 0), 1, 1)),", ",IF(A244 &lt;&gt; "", """mem"": bit" &amp; B244 &amp; "(" &amp; A244 &amp; "),", ""),"""good"": ",IF(A244 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A244 &lt;&gt; "", A244, -1),", ""bit"": ",IF(B244 &lt;&gt; "", B244, -1),"},")</f>
-        <v>243: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>243: { "levelId": 11, "mem": bit1(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 1},</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C245" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D245" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C245, Levels!B:B, 0), 1, 1)),", ",IF(A245 &lt;&gt; "", """mem"": bit" &amp; B245 &amp; "(" &amp; A245 &amp; "),", ""),"""good"": ",IF(A245 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A245 &lt;&gt; "", A245, -1),", ""bit"": ",IF(B245 &lt;&gt; "", B245, -1),"},")</f>
-        <v>244: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>244: { "levelId": 11, "mem": bit2(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 2},</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C246" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D246" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C246, Levels!B:B, 0), 1, 1)),", ",IF(A246 &lt;&gt; "", """mem"": bit" &amp; B246 &amp; "(" &amp; A246 &amp; "),", ""),"""good"": ",IF(A246 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A246 &lt;&gt; "", A246, -1),", ""bit"": ",IF(B246 &lt;&gt; "", B246, -1),"},")</f>
-        <v>245: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>245: { "levelId": 11, "mem": bit3(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 3},</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C247" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D247" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C247, Levels!B:B, 0), 1, 1)),", ",IF(A247 &lt;&gt; "", """mem"": bit" &amp; B247 &amp; "(" &amp; A247 &amp; "),", ""),"""good"": ",IF(A247 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A247 &lt;&gt; "", A247, -1),", ""bit"": ",IF(B247 &lt;&gt; "", B247, -1),"},")</f>
-        <v>246: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>246: { "levelId": 11, "mem": bit4(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 4},</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C248" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D248" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C248, Levels!B:B, 0), 1, 1)),", ",IF(A248 &lt;&gt; "", """mem"": bit" &amp; B248 &amp; "(" &amp; A248 &amp; "),", ""),"""good"": ",IF(A248 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A248 &lt;&gt; "", A248, -1),", ""bit"": ",IF(B248 &lt;&gt; "", B248, -1),"},")</f>
-        <v>247: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>247: { "levelId": 11, "mem": bit5(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 5},</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C249" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D249" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C249, Levels!B:B, 0), 1, 1)),", ",IF(A249 &lt;&gt; "", """mem"": bit" &amp; B249 &amp; "(" &amp; A249 &amp; "),", ""),"""good"": ",IF(A249 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A249 &lt;&gt; "", A249, -1),", ""bit"": ",IF(B249 &lt;&gt; "", B249, -1),"},")</f>
-        <v>248: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>248: { "levelId": 11, "mem": bit6(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 6},</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C250" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D250" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C250, Levels!B:B, 0), 1, 1)),", ",IF(A250 &lt;&gt; "", """mem"": bit" &amp; B250 &amp; "(" &amp; A250 &amp; "),", ""),"""good"": ",IF(A250 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A250 &lt;&gt; "", A250, -1),", ""bit"": ",IF(B250 &lt;&gt; "", B250, -1),"},")</f>
-        <v>249: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>249: { "levelId": 11, "mem": bit7(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 7},</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C251" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D251" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C251, Levels!B:B, 0), 1, 1)),", ",IF(A251 &lt;&gt; "", """mem"": bit" &amp; B251 &amp; "(" &amp; A251 &amp; "),", ""),"""good"": ",IF(A251 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A251 &lt;&gt; "", A251, -1),", ""bit"": ",IF(B251 &lt;&gt; "", B251, -1),"},")</f>
-        <v>250: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>250: { "levelId": 11, "mem": bit0(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 0},</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C252" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D252" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C252, Levels!B:B, 0), 1, 1)),", ",IF(A252 &lt;&gt; "", """mem"": bit" &amp; B252 &amp; "(" &amp; A252 &amp; "),", ""),"""good"": ",IF(A252 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A252 &lt;&gt; "", A252, -1),", ""bit"": ",IF(B252 &lt;&gt; "", B252, -1),"},")</f>
-        <v>251: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>251: { "levelId": 11, "mem": bit1(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 1},</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C253" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D253" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C253, Levels!B:B, 0), 1, 1)),", ",IF(A253 &lt;&gt; "", """mem"": bit" &amp; B253 &amp; "(" &amp; A253 &amp; "),", ""),"""good"": ",IF(A253 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A253 &lt;&gt; "", A253, -1),", ""bit"": ",IF(B253 &lt;&gt; "", B253, -1),"},")</f>
-        <v>252: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>252: { "levelId": 11, "mem": bit2(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 2},</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C254" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D254" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C254, Levels!B:B, 0), 1, 1)),", ",IF(A254 &lt;&gt; "", """mem"": bit" &amp; B254 &amp; "(" &amp; A254 &amp; "),", ""),"""good"": ",IF(A254 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A254 &lt;&gt; "", A254, -1),", ""bit"": ",IF(B254 &lt;&gt; "", B254, -1),"},")</f>
-        <v>253: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>253: { "levelId": 11, "mem": bit3(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 3},</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C255" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D255" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C255, Levels!B:B, 0), 1, 1)),", ",IF(A255 &lt;&gt; "", """mem"": bit" &amp; B255 &amp; "(" &amp; A255 &amp; "),", ""),"""good"": ",IF(A255 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A255 &lt;&gt; "", A255, -1),", ""bit"": ",IF(B255 &lt;&gt; "", B255, -1),"},")</f>
-        <v>254: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>254: { "levelId": 11, "mem": bit4(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 4},</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C256" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D256" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C256, Levels!B:B, 0), 1, 1)),", ",IF(A256 &lt;&gt; "", """mem"": bit" &amp; B256 &amp; "(" &amp; A256 &amp; "),", ""),"""good"": ",IF(A256 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A256 &lt;&gt; "", A256, -1),", ""bit"": ",IF(B256 &lt;&gt; "", B256, -1),"},")</f>
-        <v>255: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>255: { "levelId": 11, "mem": bit5(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 5},</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C257" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D257" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C257, Levels!B:B, 0), 1, 1)),", ",IF(A257 &lt;&gt; "", """mem"": bit" &amp; B257 &amp; "(" &amp; A257 &amp; "),", ""),"""good"": ",IF(A257 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A257 &lt;&gt; "", A257, -1),", ""bit"": ",IF(B257 &lt;&gt; "", B257, -1),"},")</f>
-        <v>256: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>256: { "levelId": 11, "mem": bit6(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 6},</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C258" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D258" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C258, Levels!B:B, 0), 1, 1)),", ",IF(A258 &lt;&gt; "", """mem"": bit" &amp; B258 &amp; "(" &amp; A258 &amp; "),", ""),"""good"": ",IF(A258 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A258 &lt;&gt; "", A258, -1),", ""bit"": ",IF(B258 &lt;&gt; "", B258, -1),"},")</f>
-        <v>257: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>257: { "levelId": 11, "mem": bit7(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 7},</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="C259" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D259" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C259, Levels!B:B, 0), 1, 1)),", ",IF(A259 &lt;&gt; "", """mem"": bit" &amp; B259 &amp; "(" &amp; A259 &amp; "),", ""),"""good"": ",IF(A259 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A259 &lt;&gt; "", A259, -1),", ""bit"": ",IF(B259 &lt;&gt; "", B259, -1),"},")</f>
-        <v>258: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>258: { "levelId": 11, "mem": bit0(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 0},</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C260" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D260" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C260, Levels!B:B, 0), 1, 1)),", ",IF(A260 &lt;&gt; "", """mem"": bit" &amp; B260 &amp; "(" &amp; A260 &amp; "),", ""),"""good"": ",IF(A260 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A260 &lt;&gt; "", A260, -1),", ""bit"": ",IF(B260 &lt;&gt; "", B260, -1),"},")</f>
-        <v>259: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>259: { "levelId": 11, "mem": bit1(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 1},</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C261" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D261" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C261, Levels!B:B, 0), 1, 1)),", ",IF(A261 &lt;&gt; "", """mem"": bit" &amp; B261 &amp; "(" &amp; A261 &amp; "),", ""),"""good"": ",IF(A261 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A261 &lt;&gt; "", A261, -1),", ""bit"": ",IF(B261 &lt;&gt; "", B261, -1),"},")</f>
-        <v>260: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>260: { "levelId": 11, "mem": bit2(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 2},</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C262" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D262" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C262, Levels!B:B, 0), 1, 1)),", ",IF(A262 &lt;&gt; "", """mem"": bit" &amp; B262 &amp; "(" &amp; A262 &amp; "),", ""),"""good"": ",IF(A262 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A262 &lt;&gt; "", A262, -1),", ""bit"": ",IF(B262 &lt;&gt; "", B262, -1),"},")</f>
-        <v>261: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>261: { "levelId": 11, "mem": bit3(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 3},</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="C263" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D263" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C263, Levels!B:B, 0), 1, 1)),", ",IF(A263 &lt;&gt; "", """mem"": bit" &amp; B263 &amp; "(" &amp; A263 &amp; "),", ""),"""good"": ",IF(A263 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A263 &lt;&gt; "", A263, -1),", ""bit"": ",IF(B263 &lt;&gt; "", B263, -1),"},")</f>
-        <v>262: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>262: { "levelId": 11, "mem": bit4(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 4},</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C264" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D264" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C264, Levels!B:B, 0), 1, 1)),", ",IF(A264 &lt;&gt; "", """mem"": bit" &amp; B264 &amp; "(" &amp; A264 &amp; "),", ""),"""good"": ",IF(A264 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A264 &lt;&gt; "", A264, -1),", ""bit"": ",IF(B264 &lt;&gt; "", B264, -1),"},")</f>
-        <v>263: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>263: { "levelId": 11, "mem": bit5(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 5},</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="C265" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D265" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C265, Levels!B:B, 0), 1, 1)),", ",IF(A265 &lt;&gt; "", """mem"": bit" &amp; B265 &amp; "(" &amp; A265 &amp; "),", ""),"""good"": ",IF(A265 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A265 &lt;&gt; "", A265, -1),", ""bit"": ",IF(B265 &lt;&gt; "", B265, -1),"},")</f>
-        <v>264: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>264: { "levelId": 11, "mem": bit6(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 6},</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C266" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D266" s="0" t="str">
         <f aca="true">_xlfn.CONCAT(ROW()-1,": { ""levelId"": ",INDIRECT("'Levels'!" &amp; ADDRESS(MATCH(C266, Levels!B:B, 0), 1, 1)),", ",IF(A266 &lt;&gt; "", """mem"": bit" &amp; B266 &amp; "(" &amp; A266 &amp; "),", ""),"""good"": ",IF(A266 &lt;&gt; "", 1, 0),", ""addr"": ",IF(A266 &lt;&gt; "", A266, -1),", ""bit"": ",IF(B266 &lt;&gt; "", B266, -1),"},")</f>
-        <v>265: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>265: { "levelId": 11, "mem": bit7(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 7},</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18095,7 +18493,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -18105,13 +18503,13 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -18122,7 +18520,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -18141,7 +18539,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -18156,7 +18554,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -18171,7 +18569,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -18186,7 +18584,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6</v>
@@ -18201,7 +18599,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>7</v>
@@ -18216,7 +18614,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -18231,7 +18629,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -18246,7 +18644,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -18261,7 +18659,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -18276,7 +18674,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -18291,7 +18689,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
@@ -18306,7 +18704,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -18321,7 +18719,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -18336,7 +18734,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -18351,7 +18749,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -18366,7 +18764,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -18381,7 +18779,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -18396,7 +18794,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5</v>
@@ -18411,7 +18809,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>4</v>
@@ -18426,7 +18824,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -18441,7 +18839,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>

--- a/Rayman 2.xlsx
+++ b/Rayman 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="134">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -259,6 +259,12 @@
     <t xml:space="preserve">BadDreamsArea2</t>
   </si>
   <si>
+    <t xml:space="preserve">75AADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenhirArea4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
@@ -395,6 +401,12 @@
   </si>
   <si>
     <t xml:space="preserve">0x2249eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2249a7</t>
   </si>
   <si>
     <t xml:space="preserve">Level ID</t>
@@ -626,7 +638,7 @@
       <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -656,7 +668,7 @@
       </c>
       <c r="H1" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(E2:E1000)</f>
-        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x788950: { "id": 0x788950, "areaName": "MenhirArea3", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78402C: { "id": 0x78402C, "areaName": "BadDreamsArea1", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },0x788148: { "id": 0x788148, "areaName": "BadDreamsArea2", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },</v>
+        <v>0x784BFC: { "id": 0x784BFC, "areaName": "Menu", "displayName": "Main Menu", "levelName": "Menu" },0x789668: { "id": 0x789668, "areaName": "Intro", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x778C74: { "id": 0x778C74, "areaName": "BuccaneerBrig", "displayName": "in the Buccaneer’s brig", "levelName": "None" },0x78D424: { "id": 0x78D424, "areaName": "WoodsOfLight", "displayName": "in the Woods of Light", "levelName": "Woods of Light" },0x790570: { "id": 0x790570, "areaName": "HallOfDoors", "displayName": "in the Hall of Doors", "levelName": "Hall of Doors" },0x7875A8: { "id": 0x7875A8, "areaName": "FairyGladeArea1", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x78A320: { "id": 0x78A320, "areaName": "FairyGladeArea2", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x7A1BD8: { "id": 0x7A1BD8, "areaName": "FairyGladeArea3", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x77BFFC: { "id": 0x77BFFC, "areaName": "FairyGladeArea4", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x771B74: { "id": 0x771B74, "areaName": "FairyGladeArea5", "displayName": "in the Fairy Glade", "levelName": "Fairy Glade" },0x74AAA8: { "id": 0x74AAA8, "areaName": "Results", "displayName": "viewing level results…", "levelName": "None" },0x788708: { "id": 0x788708, "areaName": "MarshesArea1", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x7786E8: { "id": 0x7786E8, "areaName": "MarshesArea2", "displayName": "in the Marshes of Awakening", "levelName": "Marshes of Awakening" },0x790598: { "id": 0x790598, "areaName": "BayouArea1", "displayName": "in the Bayou", "levelName": "Bayou" },0x788764: { "id": 0x788764, "areaName": "BayouArea2", "displayName": "in the Bayou", "levelName": "Bayou" },0x7928A4: { "id": 0x7928A4, "areaName": "SoWaIArea1", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x774694: { "id": 0x774694, "areaName": "SoWaIArea2", "displayName": "in the Sanctuary of Water and Ice", "levelName": "Sanctuary of Water and Ice" },0x76F100: { "id": 0x76F100, "areaName": "Polokus", "displayName": "in Polokus’s dream", "levelName": "Polokus" },0x0: { "id": 0x0, "areaName": "None", "displayName": "somewhere in the Glade of Dreams…", "levelName": "None" },0x751974: { "id": 0x751974, "areaName": "Bonus", "displayName": "in the bonus stage", "levelName": "None" },0x776C08: { "id": 0x776C08, "areaName": "MenhirArea1", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78FBD8: { "id": 0x78FBD8, "areaName": "MenhirArea2", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x788950: { "id": 0x788950, "areaName": "MenhirArea3", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },0x78402C: { "id": 0x78402C, "areaName": "BadDreamsArea1", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },0x788148: { "id": 0x788148, "areaName": "BadDreamsArea2", "displayName": "in the Cave of Bad Dreams", "levelName": "Cave of Bad Dreams" },0x75AADC: { "id": 0x75AADC, "areaName": "MenhirArea4", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1122,22 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="4"/>
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("0x", A27,": { ""id"": ","0x", A27,", ""areaName"": """,B27,""", ""displayName"": """,C27,""", ""levelName"": """,D27,""" },")</f>
+        <v>0x75AADC: { "id": 0x75AADC, "areaName": "MenhirArea4", "displayName": "in the Menhir Hills", "levelName": "Menhir Hills" },</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="4"/>
@@ -4106,7 +4133,7 @@
       <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -4118,22 +4145,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -4209,11 +4236,11 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C3:C1002, "=" &amp; B4)</f>
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C3:C83, "=" &amp; B4)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A4,": { ""id"": ",A4,", ""name"": """,B4,""", ""lums"": ",C4,", ""cages"": ",D4," },")</f>
@@ -4398,11 +4425,11 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">COUNTIFS(Lums!C10:C1009, "=" &amp; B11)</f>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">COUNTIFS(Cages!C10:C90, "=" &amp; B11)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A11,": { ""id"": ",A11,", ""name"": """,B11,""", ""lums"": ",C11,", ""cages"": ",D11," },")</f>
@@ -7832,13 +7859,13 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C267" activeCellId="0" sqref="C267"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.93"/>
@@ -7847,10 +7874,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -7863,12 +7890,12 @@
       </c>
       <c r="H1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(D2:D1001)</f>
-        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 11, "mem": bit6(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 6},217: { "levelId": 11, "mem": bit7(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 7},218: { "levelId": 11, "mem": bit0(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 0},219: { "levelId": 11, "mem": bit1(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 1},220: { "levelId": 11, "mem": bit2(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 2},221: { "levelId": 11, "mem": bit3(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 3},222: { "levelId": 11, "mem": bit4(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 4},223: { "levelId": 11, "mem": bit5(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 5},224: { "levelId": 11, "mem": bit6(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 6},225: { "levelId": 11, "mem": bit7(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 7},226: { "levelId": 11, "mem": bit0(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 0},227: { "levelId": 11, "mem": bit1(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 1},228: { "levelId": 11, "mem": bit2(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 2},229: { "levelId": 11, "mem": bit3(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 3},230: { "levelId": 11, "mem": bit4(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 4},231: { "levelId": 11, "mem": bit5(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 5},232: { "levelId": 11, "mem": bit6(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 6},233: { "levelId": 11, "mem": bit7(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 7},234: { "levelId": 11, "mem": bit0(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 0},235: { "levelId": 11, "mem": bit1(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 1},236: { "levelId": 11, "mem": bit2(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 2},237: { "levelId": 11, "mem": bit3(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 3},238: { "levelId": 11, "mem": bit4(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 4},239: { "levelId": 11, "mem": bit5(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 5},240: { "levelId": 11, "mem": bit6(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 6},241: { "levelId": 11, "mem": bit7(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 7},242: { "levelId": 11, "mem": bit0(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 0},243: { "levelId": 11, "mem": bit1(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 1},244: { "levelId": 11, "mem": bit2(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 2},245: { "levelId": 11, "mem": bit3(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 3},246: { "levelId": 11, "mem": bit4(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 4},247: { "levelId": 11, "mem": bit5(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 5},248: { "levelId": 11, "mem": bit6(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 6},249: { "levelId": 11, "mem": bit7(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 7},250: { "levelId": 11, "mem": bit0(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 0},251: { "levelId": 11, "mem": bit1(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 1},252: { "levelId": 11, "mem": bit2(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 2},253: { "levelId": 11, "mem": bit3(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 3},254: { "levelId": 11, "mem": bit4(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 4},255: { "levelId": 11, "mem": bit5(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 5},256: { "levelId": 11, "mem": bit6(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 6},257: { "levelId": 11, "mem": bit7(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 7},258: { "levelId": 11, "mem": bit0(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 0},259: { "levelId": 11, "mem": bit1(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 1},260: { "levelId": 11, "mem": bit2(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 2},261: { "levelId": 11, "mem": bit3(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 3},262: { "levelId": 11, "mem": bit4(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 4},263: { "levelId": 11, "mem": bit5(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 5},264: { "levelId": 11, "mem": bit6(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 6},265: { "levelId": 11, "mem": bit7(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 7},266: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},267: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},268: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},269: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},270: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},271: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},272: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},273: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},274: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},275: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},276: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},277: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},278: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},279: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},280: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},281: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},282: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},283: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},284: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},285: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},286: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},287: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},288: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},289: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},290: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},291: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},292: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},293: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},294: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},295: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},296: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},297: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},298: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},299: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},300: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},301: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},302: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},303: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},304: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},305: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},306: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},307: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},308: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},309: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},310: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},311: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},312: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},313: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},314: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},315: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},316: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},317: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},318: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},319: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},320: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},321: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},322: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},323: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},324: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},325: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},326: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},327: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},328: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},329: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},330: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},331: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},332: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},333: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},334: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},335: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},336: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},337: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},338: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},339: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},340: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},341: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},342: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},343: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},344: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},345: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},346: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},347: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},348: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},349: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},350: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},351: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},352: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},353: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},354: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},355: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},356: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},357: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},358: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},359: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},360: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},361: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},362: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},363: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},364: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},365: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},366: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},367: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},368: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},369: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},370: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},371: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},372: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},373: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},374: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},375: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},376: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},377: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},378: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},379: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},380: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},381: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},382: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},383: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},384: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},385: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},386: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},387: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},388: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},389: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},390: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},391: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},392: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},393: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},394: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},395: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},396: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},397: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},398: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},399: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},400: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},401: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},402: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},403: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},404: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},405: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},406: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},407: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},408: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},409: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},410: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},411: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},412: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},413: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},414: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},415: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},416: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},417: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},418: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},419: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},420: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},421: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},422: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},423: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},424: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},425: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},426: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},427: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},428: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},429: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},430: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},431: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},432: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},433: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},434: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},435: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},436: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},437: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},438: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},439: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},440: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},441: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},442: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},443: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},444: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},445: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},446: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},447: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},448: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},449: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},450: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},451: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},452: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},453: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},454: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},455: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},456: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},457: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},458: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},459: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},460: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},461: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},462: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},463: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},464: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},465: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},466: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},467: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},468: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},469: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},470: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},471: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},472: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},473: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},474: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},475: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},476: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},477: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},478: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},479: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},480: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},481: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},482: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},483: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},484: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},485: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},486: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},487: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},488: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},489: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},490: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},491: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},492: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},493: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},494: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},495: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},496: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},497: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},498: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},499: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},500: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},501: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},502: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},503: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},504: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},505: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},506: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},507: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},508: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},509: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},510: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},511: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},512: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},513: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},514: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},515: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},516: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},517: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},518: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},519: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},520: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},521: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},522: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},523: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},524: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},525: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},526: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},527: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},528: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},529: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},530: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},531: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},532: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},533: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},534: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},535: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},536: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},537: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},538: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},539: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},540: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},541: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},542: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},543: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},544: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},545: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},546: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},547: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},548: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},549: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},550: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},551: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},552: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},553: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},554: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},555: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},556: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},557: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},558: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},559: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},560: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},561: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},562: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},563: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},564: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},565: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},566: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},567: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},568: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},569: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},570: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},571: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},572: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},573: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},574: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},575: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},576: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},577: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},578: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},579: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},580: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},581: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},582: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},583: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},584: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},585: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},586: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},587: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},588: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},589: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},590: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},591: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},592: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},593: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},594: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},595: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},596: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},597: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},598: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},599: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},600: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},601: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},602: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},603: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},604: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},605: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},606: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},607: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},608: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},609: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},610: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},611: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},612: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},613: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},614: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},615: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},616: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},617: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},618: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},619: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},620: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},621: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},622: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},623: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},624: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},625: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},626: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},627: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},628: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},629: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},630: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},631: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},632: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},633: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},634: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},635: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},636: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},637: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},638: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},639: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},640: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},641: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},642: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},643: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},644: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},645: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},646: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},647: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},648: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},649: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},650: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},651: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},652: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},653: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},654: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},655: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},656: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},657: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},658: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},659: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},660: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},661: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},662: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},663: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},664: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},665: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},666: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},667: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},668: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},669: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},670: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},671: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},672: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},673: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},674: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},675: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},676: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},677: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},678: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},679: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},680: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},681: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},682: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},683: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},684: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},685: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},686: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},687: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},688: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},689: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},690: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},691: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},692: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},693: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},694: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},695: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},696: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},697: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},698: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},699: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},700: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},701: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},702: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},703: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},704: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},705: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},706: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},707: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},708: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},709: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},710: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},711: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},712: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},713: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},714: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},715: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},716: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},717: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},718: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},719: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},720: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},721: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},722: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},723: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},724: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},725: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},726: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},727: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},728: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},729: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},730: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},731: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},732: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},733: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},734: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},735: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},736: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},737: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},738: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},739: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},740: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},741: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},742: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},743: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},744: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},745: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},746: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},747: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},748: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},749: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},750: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},751: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},752: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},753: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},754: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},755: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},756: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},757: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},758: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},759: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},760: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},761: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},762: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},763: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},764: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},765: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},766: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},767: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},768: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},769: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},770: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},771: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},772: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},773: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},774: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},775: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},776: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},777: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},778: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},779: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},780: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},781: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},782: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},783: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},784: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},785: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},786: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},787: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},788: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},789: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},790: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},791: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},792: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},793: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},794: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},795: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},796: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},797: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},798: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},799: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},800: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},801: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},802: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},803: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},804: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},805: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},806: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},807: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},808: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},809: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},810: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},811: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},812: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},813: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},814: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},815: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},816: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},817: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},818: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},819: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},820: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},821: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},822: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},823: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},824: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},825: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},826: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},827: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},828: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},829: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},830: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},831: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},832: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},833: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},834: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},835: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},836: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},837: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},838: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},839: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},840: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},841: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},842: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},843: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},844: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},845: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},846: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},847: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},848: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},849: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},850: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},851: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},852: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},853: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},854: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},855: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},856: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},857: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},858: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},859: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},860: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},861: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},862: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},863: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},864: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},865: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},866: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},867: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},868: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},869: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},870: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},871: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},872: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},873: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},874: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},875: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},876: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},877: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},878: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},879: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},880: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},881: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},882: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},883: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},884: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},885: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},886: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},887: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},888: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},889: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},890: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},891: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},892: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},893: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},894: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},895: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},896: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},897: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},898: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},899: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},900: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},901: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},902: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},903: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},904: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},905: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},906: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},907: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},908: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},909: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},910: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},911: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},912: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},913: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},914: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},915: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},916: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},917: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},918: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},919: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},920: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},921: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},922: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},923: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},924: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},925: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},926: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},927: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},928: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},929: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},930: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},931: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},932: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},933: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},934: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},935: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},936: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},937: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},938: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},939: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},940: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},941: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},942: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},943: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},944: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},945: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},946: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},947: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},948: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},949: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},950: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},951: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},952: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},953: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},954: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},955: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},956: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},957: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},958: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},959: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},960: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},961: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},962: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},963: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},964: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},965: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},966: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},967: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},968: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},969: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},970: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},971: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},972: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},973: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},974: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},975: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},976: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},977: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},978: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},979: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},980: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},981: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},982: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},983: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},984: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},985: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},986: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},987: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},988: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},989: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},990: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},991: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},992: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},993: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},994: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},995: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},996: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},997: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},998: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},999: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},1000: { "levelId": 3, "good": 0, "addr": -1, "bit": -1},</v>
+        <v>1: { "levelId": 2, "mem": bit0(0x224988),"good": 1, "addr": 0x224988, "bit": 0},2: { "levelId": 2, "mem": bit1(0x224988),"good": 1, "addr": 0x224988, "bit": 1},3: { "levelId": 2, "mem": bit2(0x224988),"good": 1, "addr": 0x224988, "bit": 2},4: { "levelId": 2, "mem": bit3(0x224988),"good": 1, "addr": 0x224988, "bit": 3},5: { "levelId": 2, "mem": bit4(0x224988),"good": 1, "addr": 0x224988, "bit": 4},6: { "levelId": 2, "mem": bit5(0x224988),"good": 1, "addr": 0x224988, "bit": 5},7: { "levelId": 2, "mem": bit6(0x224988),"good": 1, "addr": 0x224988, "bit": 6},8: { "levelId": 2, "mem": bit7(0x224988),"good": 1, "addr": 0x224988, "bit": 7},9: { "levelId": 2, "mem": bit2(0x224989),"good": 1, "addr": 0x224989, "bit": 2},10: { "levelId": 2, "mem": bit1(0x22498a),"good": 1, "addr": 0x22498a, "bit": 1},11: { "levelId": 2, "mem": bit2(0x22498a),"good": 1, "addr": 0x22498a, "bit": 2},12: { "levelId": 2, "mem": bit3(0x22498a),"good": 1, "addr": 0x22498a, "bit": 3},13: { "levelId": 2, "mem": bit4(0x22498a),"good": 1, "addr": 0x22498a, "bit": 4},14: { "levelId": 2, "mem": bit5(0x22498a),"good": 1, "addr": 0x22498a, "bit": 5},15: { "levelId": 2, "mem": bit6(0x22498a),"good": 1, "addr": 0x22498a, "bit": 6},16: { "levelId": 2, "mem": bit7(0x22498a),"good": 1, "addr": 0x22498a, "bit": 7},17: { "levelId": 2, "mem": bit5(0x22498b),"good": 1, "addr": 0x22498b, "bit": 5},18: { "levelId": 2, "mem": bit6(0x22498b),"good": 1, "addr": 0x22498b, "bit": 6},19: { "levelId": 2, "mem": bit7(0x22498b),"good": 1, "addr": 0x22498b, "bit": 7},20: { "levelId": 2, "mem": bit0(0x22498c),"good": 1, "addr": 0x22498c, "bit": 0},21: { "levelId": 2, "mem": bit1(0x22498c),"good": 1, "addr": 0x22498c, "bit": 1},22: { "levelId": 2, "mem": bit2(0x22498c),"good": 1, "addr": 0x22498c, "bit": 2},23: { "levelId": 2, "mem": bit3(0x22498c),"good": 1, "addr": 0x22498c, "bit": 3},24: { "levelId": 2, "mem": bit4(0x22498c),"good": 1, "addr": 0x22498c, "bit": 4},25: { "levelId": 2, "mem": bit5(0x22498c),"good": 1, "addr": 0x22498c, "bit": 5},26: { "levelId": 2, "mem": bit6(0x22498c),"good": 1, "addr": 0x22498c, "bit": 6},27: { "levelId": 2, "mem": bit7(0x22498c),"good": 1, "addr": 0x22498c, "bit": 7},28: { "levelId": 2, "mem": bit0(0x22498d),"good": 1, "addr": 0x22498d, "bit": 0},29: { "levelId": 2, "mem": bit1(0x22498d),"good": 1, "addr": 0x22498d, "bit": 1},30: { "levelId": 2, "mem": bit2(0x22498d),"good": 1, "addr": 0x22498d, "bit": 2},31: { "levelId": 2, "mem": bit3(0x22498d),"good": 1, "addr": 0x22498d, "bit": 3},32: { "levelId": 2, "mem": bit4(0x22498d),"good": 1, "addr": 0x22498d, "bit": 4},33: { "levelId": 2, "mem": bit5(0x22498d),"good": 1, "addr": 0x22498d, "bit": 5},34: { "levelId": 2, "mem": bit6(0x22498d),"good": 1, "addr": 0x22498d, "bit": 6},35: { "levelId": 2, "mem": bit7(0x22498d),"good": 1, "addr": 0x22498d, "bit": 7},36: { "levelId": 2, "mem": bit0(0x22498e),"good": 1, "addr": 0x22498e, "bit": 0},37: { "levelId": 2, "mem": bit1(0x22498e),"good": 1, "addr": 0x22498e, "bit": 1},38: { "levelId": 5, "mem": bit2(0x22498e),"good": 1, "addr": 0x22498e, "bit": 2},39: { "levelId": 5, "mem": bit3(0x22498e),"good": 1, "addr": 0x22498e, "bit": 3},40: { "levelId": 5, "mem": bit4(0x22498e),"good": 1, "addr": 0x22498e, "bit": 4},41: { "levelId": 5, "mem": bit5(0x22498e),"good": 1, "addr": 0x22498e, "bit": 5},42: { "levelId": 5, "mem": bit6(0x22498e),"good": 1, "addr": 0x22498e, "bit": 6},43: { "levelId": 5, "mem": bit7(0x22498e),"good": 1, "addr": 0x22498e, "bit": 7},44: { "levelId": 5, "mem": bit0(0x22498f),"good": 1, "addr": 0x22498f, "bit": 0},45: { "levelId": 5, "mem": bit1(0x22498f),"good": 1, "addr": 0x22498f, "bit": 1},46: { "levelId": 5, "mem": bit2(0x22498f),"good": 1, "addr": 0x22498f, "bit": 2},47: { "levelId": 5, "mem": bit3(0x22498f),"good": 1, "addr": 0x22498f, "bit": 3},48: { "levelId": 5, "mem": bit4(0x22498f),"good": 1, "addr": 0x22498f, "bit": 4},49: { "levelId": 5, "mem": bit5(0x22498f),"good": 1, "addr": 0x22498f, "bit": 5},50: { "levelId": 5, "mem": bit6(0x22498f),"good": 1, "addr": 0x22498f, "bit": 6},51: { "levelId": 5, "mem": bit7(0x22498f),"good": 1, "addr": 0x22498f, "bit": 7},52: { "levelId": 5, "mem": bit0(0x224990),"good": 1, "addr": 0x224990, "bit": 0},53: { "levelId": 5, "mem": bit1(0x224990),"good": 1, "addr": 0x224990, "bit": 1},54: { "levelId": 5, "mem": bit2(0x224990),"good": 1, "addr": 0x224990, "bit": 2},55: { "levelId": 5, "mem": bit3(0x224990),"good": 1, "addr": 0x224990, "bit": 3},56: { "levelId": 5, "mem": bit4(0x224990),"good": 1, "addr": 0x224990, "bit": 4},57: { "levelId": 5, "mem": bit5(0x224990),"good": 1, "addr": 0x224990, "bit": 5},58: { "levelId": 5, "mem": bit6(0x224990),"good": 1, "addr": 0x224990, "bit": 6},59: { "levelId": 5, "mem": bit7(0x224990),"good": 1, "addr": 0x224990, "bit": 7},60: { "levelId": 5, "mem": bit0(0x224991),"good": 1, "addr": 0x224991, "bit": 0},61: { "levelId": 5, "mem": bit1(0x224991),"good": 1, "addr": 0x224991, "bit": 1},62: { "levelId": 5, "mem": bit2(0x224991),"good": 1, "addr": 0x224991, "bit": 2},63: { "levelId": 5, "mem": bit3(0x224991),"good": 1, "addr": 0x224991, "bit": 3},64: { "levelId": 5, "mem": bit4(0x224991),"good": 1, "addr": 0x224991, "bit": 4},65: { "levelId": 5, "mem": bit5(0x224991),"good": 1, "addr": 0x224991, "bit": 5},66: { "levelId": 5, "mem": bit6(0x224991),"good": 1, "addr": 0x224991, "bit": 6},67: { "levelId": 5, "mem": bit7(0x224991),"good": 1, "addr": 0x224991, "bit": 7},68: { "levelId": 5, "mem": bit0(0x224992),"good": 1, "addr": 0x224992, "bit": 0},69: { "levelId": 5, "mem": bit1(0x224992),"good": 1, "addr": 0x224992, "bit": 1},70: { "levelId": 5, "mem": bit2(0x224992),"good": 1, "addr": 0x224992, "bit": 2},71: { "levelId": 5, "mem": bit3(0x224992),"good": 1, "addr": 0x224992, "bit": 3},72: { "levelId": 5, "mem": bit4(0x224992),"good": 1, "addr": 0x224992, "bit": 4},73: { "levelId": 5, "mem": bit5(0x224992),"good": 1, "addr": 0x224992, "bit": 5},74: { "levelId": 5, "mem": bit6(0x224992),"good": 1, "addr": 0x224992, "bit": 6},75: { "levelId": 5, "mem": bit7(0x224992),"good": 1, "addr": 0x224992, "bit": 7},76: { "levelId": 5, "mem": bit0(0x224993),"good": 1, "addr": 0x224993, "bit": 0},77: { "levelId": 5, "mem": bit1(0x224993),"good": 1, "addr": 0x224993, "bit": 1},78: { "levelId": 5, "mem": bit2(0x224993),"good": 1, "addr": 0x224993, "bit": 2},79: { "levelId": 5, "mem": bit3(0x224993),"good": 1, "addr": 0x224993, "bit": 3},80: { "levelId": 5, "mem": bit4(0x224993),"good": 1, "addr": 0x224993, "bit": 4},81: { "levelId": 5, "mem": bit5(0x224993),"good": 1, "addr": 0x224993, "bit": 5},82: { "levelId": 5, "mem": bit6(0x224993),"good": 1, "addr": 0x224993, "bit": 6},83: { "levelId": 5, "mem": bit7(0x224993),"good": 1, "addr": 0x224993, "bit": 7},84: { "levelId": 5, "mem": bit0(0x224994),"good": 1, "addr": 0x224994, "bit": 0},85: { "levelId": 5, "mem": bit1(0x224994),"good": 1, "addr": 0x224994, "bit": 1},86: { "levelId": 5, "mem": bit2(0x224994),"good": 1, "addr": 0x224994, "bit": 2},87: { "levelId": 5, "mem": bit3(0x224994),"good": 1, "addr": 0x224994, "bit": 3},88: { "levelId": 6, "mem": bit4(0x224994),"good": 1, "addr": 0x224994, "bit": 4},89: { "levelId": 6, "mem": bit5(0x224994),"good": 1, "addr": 0x224994, "bit": 5},90: { "levelId": 6, "mem": bit6(0x224994),"good": 1, "addr": 0x224994, "bit": 6},91: { "levelId": 6, "mem": bit7(0x224994),"good": 1, "addr": 0x224994, "bit": 7},92: { "levelId": 6, "mem": bit0(0x224995),"good": 1, "addr": 0x224995, "bit": 0},93: { "levelId": 6, "mem": bit1(0x224995),"good": 1, "addr": 0x224995, "bit": 1},94: { "levelId": 6, "mem": bit2(0x224995),"good": 1, "addr": 0x224995, "bit": 2},95: { "levelId": 6, "mem": bit3(0x224995),"good": 1, "addr": 0x224995, "bit": 3},96: { "levelId": 6, "mem": bit4(0x224995),"good": 1, "addr": 0x224995, "bit": 4},97: { "levelId": 6, "mem": bit5(0x224995),"good": 1, "addr": 0x224995, "bit": 5},98: { "levelId": 6, "mem": bit6(0x224995),"good": 1, "addr": 0x224995, "bit": 6},99: { "levelId": 6, "mem": bit7(0x224995),"good": 1, "addr": 0x224995, "bit": 7},100: { "levelId": 6, "mem": bit0(0x224996),"good": 1, "addr": 0x224996, "bit": 0},101: { "levelId": 6, "mem": bit1(0x224996),"good": 1, "addr": 0x224996, "bit": 1},102: { "levelId": 6, "mem": bit2(0x224996),"good": 1, "addr": 0x224996, "bit": 2},103: { "levelId": 6, "mem": bit3(0x224996),"good": 1, "addr": 0x224996, "bit": 3},104: { "levelId": 6, "mem": bit4(0x224996),"good": 1, "addr": 0x224996, "bit": 4},105: { "levelId": 6, "mem": bit5(0x224996),"good": 1, "addr": 0x224996, "bit": 5},106: { "levelId": 6, "mem": bit6(0x224996),"good": 1, "addr": 0x224996, "bit": 6},107: { "levelId": 6, "mem": bit7(0x224996),"good": 1, "addr": 0x224996, "bit": 7},108: { "levelId": 6, "mem": bit0(0x224997),"good": 1, "addr": 0x224997, "bit": 0},109: { "levelId": 6, "mem": bit1(0x224997),"good": 1, "addr": 0x224997, "bit": 1},110: { "levelId": 6, "mem": bit2(0x224997),"good": 1, "addr": 0x224997, "bit": 2},111: { "levelId": 6, "mem": bit3(0x224997),"good": 1, "addr": 0x224997, "bit": 3},112: { "levelId": 6, "mem": bit4(0x224997),"good": 1, "addr": 0x224997, "bit": 4},113: { "levelId": 6, "mem": bit5(0x224997),"good": 1, "addr": 0x224997, "bit": 5},114: { "levelId": 6, "mem": bit6(0x224997),"good": 1, "addr": 0x224997, "bit": 6},115: { "levelId": 6, "mem": bit7(0x224997),"good": 1, "addr": 0x224997, "bit": 7},116: { "levelId": 6, "mem": bit0(0x224998),"good": 1, "addr": 0x224998, "bit": 0},117: { "levelId": 6, "mem": bit1(0x224998),"good": 1, "addr": 0x224998, "bit": 1},118: { "levelId": 6, "mem": bit2(0x224998),"good": 1, "addr": 0x224998, "bit": 2},119: { "levelId": 6, "mem": bit3(0x224998),"good": 1, "addr": 0x224998, "bit": 3},120: { "levelId": 6, "mem": bit4(0x224998),"good": 1, "addr": 0x224998, "bit": 4},121: { "levelId": 6, "mem": bit5(0x224998),"good": 1, "addr": 0x224998, "bit": 5},122: { "levelId": 6, "mem": bit6(0x224998),"good": 1, "addr": 0x224998, "bit": 6},123: { "levelId": 6, "mem": bit0(0x224999),"good": 1, "addr": 0x224999, "bit": 0},124: { "levelId": 6, "mem": bit1(0x224999),"good": 1, "addr": 0x224999, "bit": 1},125: { "levelId": 6, "mem": bit2(0x224999),"good": 1, "addr": 0x224999, "bit": 2},126: { "levelId": 6, "mem": bit3(0x224999),"good": 1, "addr": 0x224999, "bit": 3},127: { "levelId": 6, "mem": bit4(0x224999),"good": 1, "addr": 0x224999, "bit": 4},128: { "levelId": 6, "mem": bit5(0x224999),"good": 1, "addr": 0x224999, "bit": 5},129: { "levelId": 6, "mem": bit6(0x224999),"good": 1, "addr": 0x224999, "bit": 6},130: { "levelId": 6, "mem": bit7(0x224999),"good": 1, "addr": 0x224999, "bit": 7},131: { "levelId": 6, "mem": bit0(0x22499a),"good": 1, "addr": 0x22499a, "bit": 0},132: { "levelId": 6, "mem": bit1(0x22499a),"good": 1, "addr": 0x22499a, "bit": 1},133: { "levelId": 6, "mem": bit2(0x22499a),"good": 1, "addr": 0x22499a, "bit": 2},134: { "levelId": 6, "mem": bit3(0x22499a),"good": 1, "addr": 0x22499a, "bit": 3},135: { "levelId": 6, "mem": bit4(0x22499a),"good": 1, "addr": 0x22499a, "bit": 4},136: { "levelId": 6, "mem": bit5(0x22499a),"good": 1, "addr": 0x22499a, "bit": 5},137: { "levelId": 1, "mem": bit3(0x224a36),"good": 1, "addr": 0x224a36, "bit": 3},138: { "levelId": 1, "mem": bit4(0x224a36),"good": 1, "addr": 0x224a36, "bit": 4},139: { "levelId": 1, "mem": bit5(0x224a36),"good": 1, "addr": 0x224a36, "bit": 5},140: { "levelId": 1, "mem": bit6(0x224a36),"good": 1, "addr": 0x224a36, "bit": 6},141: { "levelId": 1, "mem": bit7(0x224a36),"good": 1, "addr": 0x224a36, "bit": 7},142: { "levelId": 6, "mem": bit7(0x224998),"good": 1, "addr": 0x224998, "bit": 7},143: { "levelId": 8, "mem": bit3(0x22499b),"good": 1, "addr": 0x22499b, "bit": 3},144: { "levelId": 8, "mem": bit4(0x22499b),"good": 1, "addr": 0x22499b, "bit": 4},145: { "levelId": 8, "mem": bit5(0x22499b),"good": 1, "addr": 0x22499b, "bit": 5},146: { "levelId": 8, "mem": bit5(0x22499c),"good": 1, "addr": 0x22499c, "bit": 5},147: { "levelId": 8, "mem": bit6(0x22499c),"good": 1, "addr": 0x22499c, "bit": 6},148: { "levelId": 8, "mem": bit7(0x22499c),"good": 1, "addr": 0x22499c, "bit": 7},149: { "levelId": 8, "mem": bit0(0x22499d),"good": 1, "addr": 0x22499d, "bit": 0},150: { "levelId": 8, "mem": bit1(0x22499d),"good": 1, "addr": 0x22499d, "bit": 1},151: { "levelId": 8, "mem": bit2(0x22499d),"good": 1, "addr": 0x22499d, "bit": 2},152: { "levelId": 8, "mem": bit3(0x22499d),"good": 1, "addr": 0x22499d, "bit": 3},153: { "levelId": 8, "mem": bit4(0x22499d),"good": 1, "addr": 0x22499d, "bit": 4},154: { "levelId": 8, "mem": bit5(0x22499d),"good": 1, "addr": 0x22499d, "bit": 5},155: { "levelId": 8, "mem": bit6(0x22499d),"good": 1, "addr": 0x22499d, "bit": 6},156: { "levelId": 8, "mem": bit7(0x22499d),"good": 1, "addr": 0x22499d, "bit": 7},157: { "levelId": 8, "mem": bit0(0x22499e),"good": 1, "addr": 0x22499e, "bit": 0},158: { "levelId": 8, "mem": bit1(0x22499e),"good": 1, "addr": 0x22499e, "bit": 1},159: { "levelId": 8, "mem": bit6(0x22499a),"good": 1, "addr": 0x22499a, "bit": 6},160: { "levelId": 8, "mem": bit7(0x22499a),"good": 1, "addr": 0x22499a, "bit": 7},161: { "levelId": 8, "mem": bit0(0x22499b),"good": 1, "addr": 0x22499b, "bit": 0},162: { "levelId": 8, "mem": bit1(0x22499b),"good": 1, "addr": 0x22499b, "bit": 1},163: { "levelId": 8, "mem": bit2(0x22499b),"good": 1, "addr": 0x22499b, "bit": 2},164: { "levelId": 8, "mem": bit6(0x22499b),"good": 1, "addr": 0x22499b, "bit": 6},165: { "levelId": 8, "mem": bit7(0x22499b),"good": 1, "addr": 0x22499b, "bit": 7},166: { "levelId": 8, "mem": bit0(0x22499c),"good": 1, "addr": 0x22499c, "bit": 0},167: { "levelId": 8, "mem": bit1(0x22499c),"good": 1, "addr": 0x22499c, "bit": 1},168: { "levelId": 8, "mem": bit2(0x22499c),"good": 1, "addr": 0x22499c, "bit": 2},169: { "levelId": 8, "mem": bit3(0x22499c),"good": 1, "addr": 0x22499c, "bit": 3},170: { "levelId": 8, "mem": bit4(0x22499c),"good": 1, "addr": 0x22499c, "bit": 4},171: { "levelId": 8, "mem": bit2(0x22499e),"good": 1, "addr": 0x22499e, "bit": 2},172: { "levelId": 8, "mem": bit3(0x22499e),"good": 1, "addr": 0x22499e, "bit": 3},173: { "levelId": 8, "mem": bit4(0x22499e),"good": 1, "addr": 0x22499e, "bit": 4},174: { "levelId": 8, "mem": bit5(0x22499e),"good": 1, "addr": 0x22499e, "bit": 5},175: { "levelId": 8, "mem": bit6(0x22499e),"good": 1, "addr": 0x22499e, "bit": 6},176: { "levelId": 8, "mem": bit7(0x22499e),"good": 1, "addr": 0x22499e, "bit": 7},177: { "levelId": 8, "mem": bit0(0x22499f),"good": 1, "addr": 0x22499f, "bit": 0},178: { "levelId": 8, "mem": bit1(0x22499f),"good": 1, "addr": 0x22499f, "bit": 1},179: { "levelId": 8, "mem": bit2(0x22499f),"good": 1, "addr": 0x22499f, "bit": 2},180: { "levelId": 8, "mem": bit3(0x22499f),"good": 1, "addr": 0x22499f, "bit": 3},181: { "levelId": 8, "mem": bit4(0x22499f),"good": 1, "addr": 0x22499f, "bit": 4},182: { "levelId": 8, "mem": bit5(0x22499f),"good": 1, "addr": 0x22499f, "bit": 5},183: { "levelId": 8, "mem": bit6(0x22499f),"good": 1, "addr": 0x22499f, "bit": 6},184: { "levelId": 8, "mem": bit7(0x22499f),"good": 1, "addr": 0x22499f, "bit": 7},185: { "levelId": 8, "mem": bit0(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 0},186: { "levelId": 8, "mem": bit1(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 1},187: { "levelId": 8, "mem": bit2(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 2},188: { "levelId": 8, "mem": bit3(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 3},189: { "levelId": 8, "mem": bit4(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 4},190: { "levelId": 8, "mem": bit5(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 5},191: { "levelId": 8, "mem": bit6(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 6},192: { "levelId": 8, "mem": bit7(0x2249a0),"good": 1, "addr": 0x2249a0, "bit": 7},193: { "levelId": 10, "mem": bit0(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 0},194: { "levelId": 10, "mem": bit1(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 1},195: { "levelId": 10, "mem": bit2(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 2},196: { "levelId": 10, "mem": bit3(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 3},197: { "levelId": 10, "mem": bit4(0x2249a1),"good": 1, "addr": 0x2249a1, "bit": 4},198: { "levelId": 10, "mem": bit2(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 2},199: { "levelId": 10, "mem": bit3(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 3},200: { "levelId": 10, "mem": bit4(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 4},201: { "levelId": 10, "mem": bit5(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 5},202: { "levelId": 10, "mem": bit6(0x2249a2),"good": 1, "addr": 0x2249a2, "bit": 6},203: { "levelId": 10, "mem": bit1(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 1},204: { "levelId": 10, "mem": bit5(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 5},205: { "levelId": 10, "mem": bit6(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 6},206: { "levelId": 10, "mem": bit7(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 7},207: { "levelId": 10, "mem": bit0(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 0},208: { "levelId": 10, "mem": bit3(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 3},209: { "levelId": 10, "mem": bit5(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 5},210: { "levelId": 10, "mem": bit6(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 6},211: { "levelId": 10, "mem": bit7(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 7},212: { "levelId": 10, "mem": bit0(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 0},213: { "levelId": 10, "mem": bit1(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 1},214: { "levelId": 10, "mem": bit2(0x2249a5),"good": 1, "addr": 0x2249a5, "bit": 2},215: { "levelId": 10, "mem": bit4(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 4},216: { "levelId": 11, "mem": bit6(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 6},217: { "levelId": 11, "mem": bit7(0x2249e5),"good": 1, "addr": 0x2249e5, "bit": 7},218: { "levelId": 11, "mem": bit0(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 0},219: { "levelId": 11, "mem": bit1(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 1},220: { "levelId": 11, "mem": bit2(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 2},221: { "levelId": 11, "mem": bit3(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 3},222: { "levelId": 11, "mem": bit4(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 4},223: { "levelId": 11, "mem": bit5(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 5},224: { "levelId": 11, "mem": bit6(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 6},225: { "levelId": 11, "mem": bit7(0x2249e6),"good": 1, "addr": 0x2249e6, "bit": 7},226: { "levelId": 11, "mem": bit0(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 0},227: { "levelId": 11, "mem": bit1(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 1},228: { "levelId": 11, "mem": bit2(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 2},229: { "levelId": 11, "mem": bit3(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 3},230: { "levelId": 11, "mem": bit4(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 4},231: { "levelId": 11, "mem": bit5(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 5},232: { "levelId": 11, "mem": bit6(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 6},233: { "levelId": 11, "mem": bit7(0x2249e7),"good": 1, "addr": 0x2249e7, "bit": 7},234: { "levelId": 11, "mem": bit0(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 0},235: { "levelId": 11, "mem": bit1(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 1},236: { "levelId": 11, "mem": bit2(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 2},237: { "levelId": 11, "mem": bit3(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 3},238: { "levelId": 11, "mem": bit4(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 4},239: { "levelId": 11, "mem": bit5(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 5},240: { "levelId": 11, "mem": bit6(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 6},241: { "levelId": 11, "mem": bit7(0x2249e8),"good": 1, "addr": 0x2249e8, "bit": 7},242: { "levelId": 11, "mem": bit0(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 0},243: { "levelId": 11, "mem": bit1(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 1},244: { "levelId": 11, "mem": bit2(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 2},245: { "levelId": 11, "mem": bit3(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 3},246: { "levelId": 11, "mem": bit4(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 4},247: { "levelId": 11, "mem": bit5(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 5},248: { "levelId": 11, "mem": bit6(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 6},249: { "levelId": 11, "mem": bit7(0x2249e9),"good": 1, "addr": 0x2249e9, "bit": 7},250: { "levelId": 11, "mem": bit0(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 0},251: { "levelId": 11, "mem": bit1(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 1},252: { "levelId": 11, "mem": bit2(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 2},253: { "levelId": 11, "mem": bit3(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 3},254: { "levelId": 11, "mem": bit4(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 4},255: { "levelId": 11, "mem": bit5(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 5},256: { "levelId": 11, "mem": bit6(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 6},257: { "levelId": 11, "mem": bit7(0x2249ea),"good": 1, "addr": 0x2249ea, "bit": 7},258: { "levelId": 11, "mem": bit0(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 0},259: { "levelId": 11, "mem": bit1(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 1},260: { "levelId": 11, "mem": bit2(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 2},261: { "levelId": 11, "mem": bit3(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 3},262: { "levelId": 11, "mem": bit4(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 4},263: { "levelId": 11, "mem": bit5(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 5},264: { "levelId": 11, "mem": bit6(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 6},265: { "levelId": 11, "mem": bit7(0x2249eb),"good": 1, "addr": 0x2249eb, "bit": 7},266: { "levelId": 10, "mem": bit2(0x2249a4),"good": 1, "addr": 0x2249a4, "bit": 2},267: { "levelId": 10, "mem": bit2(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 2},268: { "levelId": 10, "mem": bit3(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 3},269: { "levelId": 10, "mem": bit4(0x2249a3),"good": 1, "addr": 0x2249a3, "bit": 4},270: { "levelId": 10, "mem": bit0(0x2249a6),"good": 1, "addr": 0x2249a6, "bit": 0},271: { "levelId": 10, "mem": bit1(0x2249a6),"good": 1, "addr": 0x2249a6, "bit": 1},272: { "levelId": 10, "mem": bit2(0x2249a6),"good": 1, "addr": 0x2249a6, "bit": 2},273: { "levelId": 10, "mem": bit3(0x224